--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -1,41 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Portfolio\Oilnam\RawData\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DD6B30-7499-4E9E-8FEB-FD2B2A99F438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E03906C-23DD-4FDA-9DCD-DFDDF741E052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="700" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="31425" yWindow="975" windowWidth="20010" windowHeight="11385" activeTab="2" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Story" sheetId="2" r:id="rId1"/>
     <sheet name="Enemy" sheetId="1" r:id="rId2"/>
+    <sheet name="Message" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -218,13 +210,108 @@
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Message</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Answer1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Answer2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠 언제와?</t>
+  </si>
+  <si>
+    <t>이따가</t>
+  </si>
+  <si>
+    <t>6시 퇴근인데 퇴근 시켜줘</t>
+  </si>
+  <si>
+    <t>아빠 나 오늘 고백받았다&gt;&lt;</t>
+  </si>
+  <si>
+    <t>보이스피싱임</t>
+  </si>
+  <si>
+    <t>너 이제 교회 나오라고 함</t>
+  </si>
+  <si>
+    <t>아빠 사랑해요!!</t>
+  </si>
+  <si>
+    <t>그러지마</t>
+  </si>
+  <si>
+    <t>참아봐 아니면 다시 한 번 잘 생각해봐</t>
+  </si>
+  <si>
+    <t>오늘 저녁은 뭐야?</t>
+  </si>
+  <si>
+    <t>그러게?</t>
+  </si>
+  <si>
+    <t>아빠도 아직 몰라요</t>
+  </si>
+  <si>
+    <t>아빠, 나 아빠랑 결혼하고싶어 나랑 결혼하자!</t>
+  </si>
+  <si>
+    <t>쓰읍... 아닐걸? 다시 한번 잘 생각해봐</t>
+  </si>
+  <si>
+    <t>아빠는 두번 하고 싶지 않아...</t>
+  </si>
+  <si>
+    <t>아빠! 아빠는 내가 뭐 할때 제일 좋아?</t>
+  </si>
+  <si>
+    <t>어 그냥 다~~</t>
+  </si>
+  <si>
+    <t>잘 때!!!!!!!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>아빠 나 오늘 친구랑 싸웠어...ㅠㅠ</t>
+  </si>
+  <si>
+    <t>이겼냐?</t>
+  </si>
+  <si>
+    <t>아빠도 지금 마물이랑 싸우고 있다.</t>
+  </si>
+  <si>
+    <t>아빠 나 오늘 상탔어!! 어떤데! 히히</t>
+  </si>
+  <si>
+    <t>내딸이니까</t>
+  </si>
+  <si>
+    <t>잘했다. 역시 날 닮았군</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +326,19 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -263,12 +363,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,13 +696,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="104.9140625" customWidth="1"/>
-    <col min="3" max="3" width="7.08203125" customWidth="1"/>
+    <col min="2" max="2" width="104.875" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -607,7 +713,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -618,7 +724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -629,7 +735,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -640,7 +746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -651,7 +757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -662,7 +768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -673,7 +779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -684,7 +790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -695,7 +801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -706,7 +812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -717,7 +823,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -728,7 +834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
@@ -739,7 +845,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -750,7 +856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -761,7 +867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -783,21 +889,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5409F1B1-0956-4B26-ACA9-55F5DBAB54F5}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="A9:H9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.58203125" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
     <col min="7" max="7" width="21.75" customWidth="1"/>
     <col min="8" max="8" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -823,7 +929,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -849,7 +955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -875,7 +981,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -901,7 +1007,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -927,7 +1033,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -953,7 +1059,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -979,7 +1085,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1003,6 +1109,251 @@
       </c>
       <c r="H8" t="s">
         <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40025AE-C7D8-4357-9319-EFD6B75D65B3}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3001</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3002</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="3">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3003</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="3">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3004</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="3">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3005</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="3">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3006</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="3">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3007</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="3">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3008</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E03906C-23DD-4FDA-9DCD-DFDDF741E052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B5CE41-108C-49B3-8C32-0DFCF3BFCE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31425" yWindow="975" windowWidth="20010" windowHeight="11385" activeTab="2" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="5625" yWindow="1275" windowWidth="20010" windowHeight="11385" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Story" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
   <si>
     <t>Name</t>
   </si>
@@ -96,27 +96,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\n\n전 세계에 균열이 발생했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>차원 간의 균열이 열리며\n튀어나온 온갖 마물들은\n그야말로 자연재해였다.</t>
-  </si>
-  <si>
-    <t>하지만,\n인류는 멸망하지 않았다.\n\n균열에서 새어 나오는 마나를 받아들여 특별한 힘을 지니게 된 사람들 덕분이었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 바로 그 힘을 가진\n\n'헌터'다.</t>
-  </si>
-  <si>
-    <t>나는 협회에 소속된 헌터다.\n그것도....\n헌터에 관련된 계약에 허점이 많은 시절에 계약하여 노예와 다름 없는 계약...</t>
-  </si>
-  <si>
     <t>큰 계약금을 제시하여 계약금에 홀린 헌터들을 협회에 묶어놓은 다음, 거액의 빚을 지게 하는 계약.</t>
   </si>
   <si>
@@ -129,12 +112,6 @@
     <t>하지만 빚을 갚기 위해서라도 계속 일을 해야 한다.</t>
   </si>
   <si>
-    <t>(사이렌 소리)하… 또 균열이 발생했다.\n뭔 놈의 마물이 이렇게 하루가 멀다 하고 매일 나오는지 지겹다 지겨워…</t>
-  </si>
-  <si>
-    <t>(전화벨소리)왜?\n(중얼거리며) 아니...학교에서 필요한 준비물이 있는데..\n귀찮게 연락하지 말고, 카드로 사\n(뚝 끊음)\n</t>
-  </si>
-  <si>
     <t>하…귀찮네…</t>
   </si>
   <si>
@@ -142,19 +119,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -305,6 +274,34 @@
   </si>
   <si>
     <t>잘했다. 역시 날 닮았군</t>
+  </si>
+  <si>
+    <t>&amp;&amp;전 세계에 균열이 발생했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차원 간의 균열이 열리며&amp;튀어나온 온갖 마물들은&amp;그야말로 자연재해였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만,&amp;인류는 멸망하지 않았다.&amp;&amp;균열에서 새어 나오는 마나를 받아들여 특별한 힘을 지니게 된 사람들 덕분이었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 바로 그 힘을 가진&amp;'헌터'다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 협회에 소속된 헌터다.&amp;그것도....&amp;헌터에 관련된 계약에 허점이 많은 시절에 계약하여 노예와 다름 없는 계약...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(사이렌 소리)하… 또 균열이 발생했다.&amp;뭔 놈의 마물이 이렇게 하루가 멀다 하고 매일 나오는지 지겹다 지겨워…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(전화벨소리)왜?&amp;(중얼거리며) 아니...학교에서 필요한 준비물이 있는데..&amp;귀찮게 연락하지 말고, 카드로 사&amp;(뚝 끊음)&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -692,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8FABB6-B12D-4D0B-ADBA-E809D3A5F66E}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -704,24 +701,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -751,10 +748,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -762,10 +759,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -773,10 +770,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -784,10 +781,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -795,10 +792,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -806,10 +803,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -817,10 +814,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -828,10 +825,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -839,10 +836,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -850,10 +847,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -861,10 +858,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -872,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -905,7 +902,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -917,16 +914,16 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -957,7 +954,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -969,16 +966,16 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1004,7 +1001,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1030,7 +1027,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1056,7 +1053,7 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1082,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1108,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1122,7 +1119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40025AE-C7D8-4357-9319-EFD6B75D65B3}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1138,22 +1135,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1161,7 +1158,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1170,7 +1167,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -1178,22 +1175,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1201,16 +1198,16 @@
         <v>3001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3">
         <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1221,16 +1218,16 @@
         <v>3002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3">
         <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -1241,16 +1238,16 @@
         <v>3003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D6" s="3">
         <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -1261,16 +1258,16 @@
         <v>3004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D7" s="3">
         <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -1281,16 +1278,16 @@
         <v>3005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D8" s="3">
         <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -1301,16 +1298,16 @@
         <v>3006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D9" s="3">
         <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -1321,16 +1318,16 @@
         <v>3007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3">
         <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1341,16 +1338,16 @@
         <v>3008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3">
         <v>15</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F11">
         <v>10</v>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Portfolio\Oilnam\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DD6B30-7499-4E9E-8FEB-FD2B2A99F438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4EF74C-B47E-481C-A31E-78522F3CC508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="700" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="5980" yWindow="1570" windowWidth="19200" windowHeight="11170" activeTab="3" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Story" sheetId="2" r:id="rId1"/>
-    <sheet name="Enemy" sheetId="1" r:id="rId2"/>
+    <sheet name="Chapter" sheetId="4" r:id="rId1"/>
+    <sheet name="Story" sheetId="2" r:id="rId2"/>
+    <sheet name="Enemy" sheetId="1" r:id="rId3"/>
+    <sheet name="Boss" sheetId="3" r:id="rId4"/>
+    <sheet name="EnemyHP" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,14 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>HP</t>
   </si>
   <si>
@@ -58,31 +58,16 @@
     <t>마물1</t>
   </si>
   <si>
-    <t>귀여운 마물입니다.</t>
-  </si>
-  <si>
     <t>마물2</t>
   </si>
   <si>
-    <t>못생긴 마물입니다.</t>
-  </si>
-  <si>
     <t>마물3</t>
   </si>
   <si>
-    <t>멋있는 마물입니다.</t>
-  </si>
-  <si>
     <t>마물4</t>
   </si>
   <si>
-    <t>소심한 마물입니다.</t>
-  </si>
-  <si>
     <t>마물5</t>
-  </si>
-  <si>
-    <t>끈질긴 마물입니다.</t>
   </si>
   <si>
     <t>ID</t>
@@ -217,6 +202,162 @@
   </si>
   <si>
     <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Modeling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss/Boss01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss/Boss02</t>
+  </si>
+  <si>
+    <t>Boss/Boss03</t>
+  </si>
+  <si>
+    <t>Boss/Boss04</t>
+  </si>
+  <si>
+    <t>Boss/Boss05</t>
+  </si>
+  <si>
+    <t>보스2</t>
+  </si>
+  <si>
+    <t>보스3</t>
+  </si>
+  <si>
+    <t>보스4</t>
+  </si>
+  <si>
+    <t>보스5</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Wave</t>
+  </si>
+  <si>
+    <t>Wave_Time</t>
+  </si>
+  <si>
+    <t>Wave_Gold</t>
+  </si>
+  <si>
+    <t>Spawn_Monster</t>
+  </si>
+  <si>
+    <t>Spawn_Count</t>
+  </si>
+  <si>
+    <t>Spawn_Hp</t>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마물6</t>
+  </si>
+  <si>
+    <t>마물7</t>
+  </si>
+  <si>
+    <t>마물8</t>
+  </si>
+  <si>
+    <t>마물9</t>
+  </si>
+  <si>
+    <t>마물10</t>
+  </si>
+  <si>
+    <t>보스1</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy06</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy07</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy08</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy09</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy10</t>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnEnemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spawn_Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spawn_Boss_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_HP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,7 +365,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,21 +381,166 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -263,11 +549,80 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,194 +938,2209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8FABB6-B12D-4D0B-ADBA-E809D3A5F66E}">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59A89BD-F914-4B8B-9BA4-39142C43095D}">
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="76" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="104.9140625" customWidth="1"/>
-    <col min="3" max="3" width="7.08203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.58203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="9" width="15.9140625" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="18.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="15">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>30</v>
+      </c>
+      <c r="F4" s="15">
+        <v>15</v>
+      </c>
+      <c r="G4" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="15">
+        <v>401</v>
+      </c>
+      <c r="I4" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="15">
+        <v>40</v>
+      </c>
+      <c r="K4" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="17">
+        <v>20</v>
+      </c>
+      <c r="M4" s="18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="15">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>30</v>
+      </c>
+      <c r="F5" s="15">
+        <v>15</v>
+      </c>
+      <c r="G5" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="15">
+        <v>401</v>
+      </c>
+      <c r="I5" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="15">
+        <v>40</v>
+      </c>
+      <c r="K5" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="17">
+        <v>26</v>
+      </c>
+      <c r="M5" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="15">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
+        <v>3</v>
+      </c>
+      <c r="E6" s="15">
+        <v>30</v>
+      </c>
+      <c r="F6" s="15">
+        <v>15</v>
+      </c>
+      <c r="G6" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="15">
+        <v>401</v>
+      </c>
+      <c r="I6" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="15">
+        <v>40</v>
+      </c>
+      <c r="K6" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="17">
+        <v>40</v>
+      </c>
+      <c r="M6" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="15">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15">
+        <v>4</v>
+      </c>
+      <c r="E7" s="15">
+        <v>30</v>
+      </c>
+      <c r="F7" s="15">
+        <v>15</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15">
+        <v>401</v>
+      </c>
+      <c r="I7" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="15">
+        <v>40</v>
+      </c>
+      <c r="K7" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="17">
+        <v>54</v>
+      </c>
+      <c r="M7" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="15">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15">
+        <v>5</v>
+      </c>
+      <c r="E8" s="15">
+        <v>30</v>
+      </c>
+      <c r="F8" s="15">
+        <v>15</v>
+      </c>
+      <c r="G8" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="15">
+        <v>402</v>
+      </c>
+      <c r="I8" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="15">
+        <v>40</v>
+      </c>
+      <c r="K8" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="17">
+        <v>74</v>
+      </c>
+      <c r="M8" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="15">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15">
+        <v>6</v>
+      </c>
+      <c r="E9" s="15">
+        <v>30</v>
+      </c>
+      <c r="F9" s="15">
+        <v>15</v>
+      </c>
+      <c r="G9" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="15">
+        <v>402</v>
+      </c>
+      <c r="I9" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="15">
+        <v>40</v>
+      </c>
+      <c r="K9" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="17">
+        <v>98</v>
+      </c>
+      <c r="M9" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="15">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15">
+        <v>7</v>
+      </c>
+      <c r="E10" s="15">
+        <v>30</v>
+      </c>
+      <c r="F10" s="15">
+        <v>15</v>
+      </c>
+      <c r="G10" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="15">
+        <v>402</v>
+      </c>
+      <c r="I10" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="15">
+        <v>40</v>
+      </c>
+      <c r="K10" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="17">
+        <v>128</v>
+      </c>
+      <c r="M10" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="15">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15">
+        <v>8</v>
+      </c>
+      <c r="E11" s="15">
+        <v>30</v>
+      </c>
+      <c r="F11" s="15">
+        <v>15</v>
+      </c>
+      <c r="G11" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="15">
+        <v>402</v>
+      </c>
+      <c r="I11" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="15">
+        <v>40</v>
+      </c>
+      <c r="K11" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="17">
+        <v>164</v>
+      </c>
+      <c r="M11" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="15">
+        <v>9</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15">
+        <v>9</v>
+      </c>
+      <c r="E12" s="15">
+        <v>30</v>
+      </c>
+      <c r="F12" s="15">
+        <v>15</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1</v>
+      </c>
+      <c r="H12" s="15">
+        <v>402</v>
+      </c>
+      <c r="I12" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="15">
+        <v>40</v>
+      </c>
+      <c r="K12" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="17">
+        <v>236</v>
+      </c>
+      <c r="M12" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="20">
+        <v>10</v>
+      </c>
+      <c r="B13" s="20">
+        <v>1001</v>
+      </c>
+      <c r="C13" s="20">
+        <v>1</v>
+      </c>
+      <c r="D13" s="20">
+        <v>10</v>
+      </c>
+      <c r="E13" s="20">
+        <v>60</v>
+      </c>
+      <c r="F13" s="20">
+        <v>15</v>
+      </c>
+      <c r="G13" s="20">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="20">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="20">
+        <v>501</v>
+      </c>
+      <c r="J13" s="20">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="21">
+        <v>1</v>
+      </c>
+      <c r="L13" s="22">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="24">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="15">
+        <v>11</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15">
+        <v>11</v>
+      </c>
+      <c r="E14" s="15">
+        <v>30</v>
+      </c>
+      <c r="F14" s="15">
+        <v>15</v>
+      </c>
+      <c r="G14" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="15">
+        <v>403</v>
+      </c>
+      <c r="I14" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="15">
+        <v>40</v>
+      </c>
+      <c r="K14" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="17">
+        <v>700</v>
+      </c>
+      <c r="M14" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15">
+        <v>12</v>
+      </c>
+      <c r="E15" s="15">
+        <v>30</v>
+      </c>
+      <c r="F15" s="15">
+        <v>15</v>
+      </c>
+      <c r="G15" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="15">
+        <v>403</v>
+      </c>
+      <c r="I15" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="15">
+        <v>40</v>
+      </c>
+      <c r="K15" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="17">
+        <v>733</v>
+      </c>
+      <c r="M15" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="15">
+        <v>13</v>
+      </c>
+      <c r="B16" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
+      <c r="D16" s="15">
+        <v>13</v>
+      </c>
+      <c r="E16" s="15">
+        <v>30</v>
+      </c>
+      <c r="F16" s="15">
+        <v>15</v>
+      </c>
+      <c r="G16" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="15">
+        <v>403</v>
+      </c>
+      <c r="I16" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="15">
+        <v>40</v>
+      </c>
+      <c r="K16" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="17">
+        <v>770</v>
+      </c>
+      <c r="M16" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="15">
+        <v>14</v>
+      </c>
+      <c r="B17" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
+      <c r="D17" s="15">
+        <v>14</v>
+      </c>
+      <c r="E17" s="15">
+        <v>30</v>
+      </c>
+      <c r="F17" s="15">
+        <v>15</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1</v>
+      </c>
+      <c r="H17" s="15">
+        <v>403</v>
+      </c>
+      <c r="I17" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="15">
+        <v>40</v>
+      </c>
+      <c r="K17" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="17">
+        <v>815</v>
+      </c>
+      <c r="M17" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="15">
+        <v>15</v>
+      </c>
+      <c r="B18" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15">
+        <v>15</v>
+      </c>
+      <c r="E18" s="15">
+        <v>30</v>
+      </c>
+      <c r="F18" s="15">
+        <v>15</v>
+      </c>
+      <c r="G18" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="15">
+        <v>404</v>
+      </c>
+      <c r="I18" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="15">
+        <v>40</v>
+      </c>
+      <c r="K18" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L18" s="17">
+        <v>866</v>
+      </c>
+      <c r="M18" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="15">
+        <v>16</v>
+      </c>
+      <c r="B19" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15">
+        <v>16</v>
+      </c>
+      <c r="E19" s="15">
+        <v>30</v>
+      </c>
+      <c r="F19" s="15">
+        <v>15</v>
+      </c>
+      <c r="G19" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="15">
+        <v>404</v>
+      </c>
+      <c r="I19" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="15">
+        <v>40</v>
+      </c>
+      <c r="K19" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L19" s="17">
+        <v>914</v>
+      </c>
+      <c r="M19" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="15">
+        <v>17</v>
+      </c>
+      <c r="B20" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15">
+        <v>17</v>
+      </c>
+      <c r="E20" s="15">
+        <v>30</v>
+      </c>
+      <c r="F20" s="15">
+        <v>15</v>
+      </c>
+      <c r="G20" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="15">
+        <v>404</v>
+      </c>
+      <c r="I20" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="15">
+        <v>40</v>
+      </c>
+      <c r="K20" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L20" s="17">
+        <v>939</v>
+      </c>
+      <c r="M20" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="15">
+        <v>18</v>
+      </c>
+      <c r="B21" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15">
+        <v>18</v>
+      </c>
+      <c r="E21" s="15">
+        <v>30</v>
+      </c>
+      <c r="F21" s="15">
+        <v>15</v>
+      </c>
+      <c r="G21" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H21" s="15">
+        <v>404</v>
+      </c>
+      <c r="I21" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J21" s="15">
+        <v>40</v>
+      </c>
+      <c r="K21" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L21" s="17">
+        <v>967</v>
+      </c>
+      <c r="M21" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="15">
+        <v>19</v>
+      </c>
+      <c r="B22" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C22" s="15">
+        <v>1</v>
+      </c>
+      <c r="D22" s="15">
+        <v>19</v>
+      </c>
+      <c r="E22" s="15">
+        <v>30</v>
+      </c>
+      <c r="F22" s="15">
+        <v>15</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1</v>
+      </c>
+      <c r="H22" s="15">
+        <v>404</v>
+      </c>
+      <c r="I22" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J22" s="15">
+        <v>40</v>
+      </c>
+      <c r="K22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L22" s="17">
+        <v>1004</v>
+      </c>
+      <c r="M22" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="20">
+        <v>20</v>
+      </c>
+      <c r="B23" s="20">
+        <v>1001</v>
+      </c>
+      <c r="C23" s="20">
+        <v>1</v>
+      </c>
+      <c r="D23" s="20">
+        <v>20</v>
+      </c>
+      <c r="E23" s="20">
+        <v>60</v>
+      </c>
+      <c r="F23" s="20">
+        <v>15</v>
+      </c>
+      <c r="G23" s="20">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="20">
+        <v>-1</v>
+      </c>
+      <c r="I23" s="20">
+        <v>502</v>
+      </c>
+      <c r="J23" s="20">
+        <v>-1</v>
+      </c>
+      <c r="K23" s="21">
+        <v>1</v>
+      </c>
+      <c r="L23" s="22">
+        <v>-1</v>
+      </c>
+      <c r="M23" s="20">
+        <v>38280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="15">
+        <v>21</v>
+      </c>
+      <c r="B24" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C24" s="15">
+        <v>1</v>
+      </c>
+      <c r="D24" s="15">
+        <v>21</v>
+      </c>
+      <c r="E24" s="15">
+        <v>30</v>
+      </c>
+      <c r="F24" s="15">
+        <v>15</v>
+      </c>
+      <c r="G24" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="15">
+        <v>405</v>
+      </c>
+      <c r="I24" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J24" s="15">
+        <v>40</v>
+      </c>
+      <c r="K24" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L24" s="17">
+        <v>1070</v>
+      </c>
+      <c r="M24" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="15">
+        <v>22</v>
+      </c>
+      <c r="B25" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C25" s="15">
+        <v>1</v>
+      </c>
+      <c r="D25" s="15">
+        <v>22</v>
+      </c>
+      <c r="E25" s="15">
+        <v>30</v>
+      </c>
+      <c r="F25" s="15">
+        <v>15</v>
+      </c>
+      <c r="G25" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="15">
+        <v>405</v>
+      </c>
+      <c r="I25" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J25" s="15">
+        <v>40</v>
+      </c>
+      <c r="K25" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L25" s="17">
+        <v>1129</v>
+      </c>
+      <c r="M25" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="15">
+        <v>23</v>
+      </c>
+      <c r="B26" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C26" s="15">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15">
+        <v>23</v>
+      </c>
+      <c r="E26" s="15">
+        <v>30</v>
+      </c>
+      <c r="F26" s="15">
+        <v>15</v>
+      </c>
+      <c r="G26" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H26" s="15">
+        <v>405</v>
+      </c>
+      <c r="I26" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J26" s="15">
+        <v>40</v>
+      </c>
+      <c r="K26" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L26" s="17">
+        <v>1181</v>
+      </c>
+      <c r="M26" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="15">
+        <v>24</v>
+      </c>
+      <c r="B27" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C27" s="15">
+        <v>1</v>
+      </c>
+      <c r="D27" s="15">
+        <v>24</v>
+      </c>
+      <c r="E27" s="15">
+        <v>30</v>
+      </c>
+      <c r="F27" s="15">
+        <v>15</v>
+      </c>
+      <c r="G27" s="15">
+        <v>1</v>
+      </c>
+      <c r="H27" s="15">
+        <v>405</v>
+      </c>
+      <c r="I27" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J27" s="15">
+        <v>40</v>
+      </c>
+      <c r="K27" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L27" s="17">
+        <v>1221</v>
+      </c>
+      <c r="M27" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="15">
+        <v>25</v>
+      </c>
+      <c r="B28" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C28" s="15">
+        <v>1</v>
+      </c>
+      <c r="D28" s="15">
+        <v>25</v>
+      </c>
+      <c r="E28" s="15">
+        <v>30</v>
+      </c>
+      <c r="F28" s="15">
+        <v>15</v>
+      </c>
+      <c r="G28" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="15">
+        <v>406</v>
+      </c>
+      <c r="I28" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J28" s="15">
+        <v>40</v>
+      </c>
+      <c r="K28" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L28" s="17">
+        <v>2024</v>
+      </c>
+      <c r="M28" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="15">
+        <v>26</v>
+      </c>
+      <c r="B29" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C29" s="15">
+        <v>1</v>
+      </c>
+      <c r="D29" s="15">
+        <v>26</v>
+      </c>
+      <c r="E29" s="15">
+        <v>30</v>
+      </c>
+      <c r="F29" s="15">
+        <v>15</v>
+      </c>
+      <c r="G29" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="15">
+        <v>406</v>
+      </c>
+      <c r="I29" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J29" s="15">
+        <v>40</v>
+      </c>
+      <c r="K29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L29" s="17">
+        <v>2088</v>
+      </c>
+      <c r="M29" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="15">
+        <v>27</v>
+      </c>
+      <c r="B30" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C30" s="15">
+        <v>1</v>
+      </c>
+      <c r="D30" s="15">
+        <v>27</v>
+      </c>
+      <c r="E30" s="15">
+        <v>30</v>
+      </c>
+      <c r="F30" s="15">
+        <v>15</v>
+      </c>
+      <c r="G30" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H30" s="15">
+        <v>406</v>
+      </c>
+      <c r="I30" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J30" s="15">
+        <v>40</v>
+      </c>
+      <c r="K30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L30" s="17">
+        <v>2121</v>
+      </c>
+      <c r="M30" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="15">
+        <v>28</v>
+      </c>
+      <c r="B31" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C31" s="15">
+        <v>1</v>
+      </c>
+      <c r="D31" s="15">
+        <v>28</v>
+      </c>
+      <c r="E31" s="15">
+        <v>30</v>
+      </c>
+      <c r="F31" s="15">
+        <v>15</v>
+      </c>
+      <c r="G31" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="15">
+        <v>406</v>
+      </c>
+      <c r="I31" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J31" s="15">
+        <v>40</v>
+      </c>
+      <c r="K31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L31" s="17">
+        <v>2169</v>
+      </c>
+      <c r="M31" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="15">
+        <v>29</v>
+      </c>
+      <c r="B32" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C32" s="15">
+        <v>1</v>
+      </c>
+      <c r="D32" s="15">
+        <v>29</v>
+      </c>
+      <c r="E32" s="15">
+        <v>30</v>
+      </c>
+      <c r="F32" s="15">
+        <v>15</v>
+      </c>
+      <c r="G32" s="15">
+        <v>1</v>
+      </c>
+      <c r="H32" s="15">
+        <v>406</v>
+      </c>
+      <c r="I32" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J32" s="15">
+        <v>40</v>
+      </c>
+      <c r="K32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L32" s="17">
+        <v>2222</v>
+      </c>
+      <c r="M32" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="20">
+        <v>30</v>
+      </c>
+      <c r="B33" s="20">
+        <v>1001</v>
+      </c>
+      <c r="C33" s="20">
+        <v>1</v>
+      </c>
+      <c r="D33" s="20">
+        <v>30</v>
+      </c>
+      <c r="E33" s="20">
+        <v>60</v>
+      </c>
+      <c r="F33" s="20">
+        <v>15</v>
+      </c>
+      <c r="G33" s="20">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="20">
+        <v>-1</v>
+      </c>
+      <c r="I33" s="20">
+        <v>503</v>
+      </c>
+      <c r="J33" s="20">
+        <v>-1</v>
+      </c>
+      <c r="K33" s="21">
+        <v>1</v>
+      </c>
+      <c r="L33" s="22">
+        <v>-1</v>
+      </c>
+      <c r="M33" s="20">
+        <v>252648</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="15">
+        <v>31</v>
+      </c>
+      <c r="B34" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C34" s="15">
+        <v>1</v>
+      </c>
+      <c r="D34" s="15">
+        <v>31</v>
+      </c>
+      <c r="E34" s="15">
+        <v>30</v>
+      </c>
+      <c r="F34" s="15">
+        <v>15</v>
+      </c>
+      <c r="G34" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H34" s="15">
+        <v>407</v>
+      </c>
+      <c r="I34" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J34" s="15">
+        <v>40</v>
+      </c>
+      <c r="K34" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L34" s="17">
+        <v>2378</v>
+      </c>
+      <c r="M34" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="15">
+        <v>32</v>
+      </c>
+      <c r="B35" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C35" s="15">
+        <v>1</v>
+      </c>
+      <c r="D35" s="15">
+        <v>32</v>
+      </c>
+      <c r="E35" s="15">
+        <v>30</v>
+      </c>
+      <c r="F35" s="15">
+        <v>15</v>
+      </c>
+      <c r="G35" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H35" s="15">
+        <v>407</v>
+      </c>
+      <c r="I35" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J35" s="15">
+        <v>40</v>
+      </c>
+      <c r="K35" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L35" s="17">
+        <v>2471</v>
+      </c>
+      <c r="M35" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="15">
+        <v>33</v>
+      </c>
+      <c r="B36" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C36" s="15">
+        <v>1</v>
+      </c>
+      <c r="D36" s="15">
+        <v>33</v>
+      </c>
+      <c r="E36" s="15">
+        <v>30</v>
+      </c>
+      <c r="F36" s="15">
+        <v>15</v>
+      </c>
+      <c r="G36" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H36" s="15">
+        <v>407</v>
+      </c>
+      <c r="I36" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J36" s="15">
+        <v>40</v>
+      </c>
+      <c r="K36" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L36" s="17">
+        <v>2566</v>
+      </c>
+      <c r="M36" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="15">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B37" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C37" s="15">
+        <v>1</v>
+      </c>
+      <c r="D37" s="15">
+        <v>34</v>
+      </c>
+      <c r="E37" s="15">
+        <v>30</v>
+      </c>
+      <c r="F37" s="15">
+        <v>15</v>
+      </c>
+      <c r="G37" s="15">
+        <v>1</v>
+      </c>
+      <c r="H37" s="15">
+        <v>407</v>
+      </c>
+      <c r="I37" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J37" s="15">
+        <v>40</v>
+      </c>
+      <c r="K37" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L37" s="17">
+        <v>2626</v>
+      </c>
+      <c r="M37" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="15">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B38" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C38" s="15">
+        <v>1</v>
+      </c>
+      <c r="D38" s="15">
+        <v>35</v>
+      </c>
+      <c r="E38" s="15">
+        <v>30</v>
+      </c>
+      <c r="F38" s="15">
+        <v>15</v>
+      </c>
+      <c r="G38" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H38" s="15">
+        <v>408</v>
+      </c>
+      <c r="I38" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J38" s="15">
+        <v>40</v>
+      </c>
+      <c r="K38" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L38" s="17">
+        <v>2722</v>
+      </c>
+      <c r="M38" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="15">
+        <v>36</v>
+      </c>
+      <c r="B39" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C39" s="15">
+        <v>1</v>
+      </c>
+      <c r="D39" s="15">
+        <v>36</v>
+      </c>
+      <c r="E39" s="15">
+        <v>30</v>
+      </c>
+      <c r="F39" s="15">
+        <v>15</v>
+      </c>
+      <c r="G39" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="15">
+        <v>408</v>
+      </c>
+      <c r="I39" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J39" s="15">
+        <v>40</v>
+      </c>
+      <c r="K39" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L39" s="17">
+        <v>2799</v>
+      </c>
+      <c r="M39" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="15">
+        <v>37</v>
+      </c>
+      <c r="B40" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C40" s="15">
+        <v>1</v>
+      </c>
+      <c r="D40" s="15">
+        <v>37</v>
+      </c>
+      <c r="E40" s="15">
+        <v>30</v>
+      </c>
+      <c r="F40" s="15">
+        <v>15</v>
+      </c>
+      <c r="G40" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="15">
+        <v>408</v>
+      </c>
+      <c r="I40" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J40" s="15">
+        <v>40</v>
+      </c>
+      <c r="K40" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L40" s="17">
+        <v>2882</v>
+      </c>
+      <c r="M40" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="15">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B41" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C41" s="15">
+        <v>1</v>
+      </c>
+      <c r="D41" s="15">
+        <v>38</v>
+      </c>
+      <c r="E41" s="15">
+        <v>30</v>
+      </c>
+      <c r="F41" s="15">
+        <v>15</v>
+      </c>
+      <c r="G41" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H41" s="15">
+        <v>408</v>
+      </c>
+      <c r="I41" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J41" s="15">
+        <v>40</v>
+      </c>
+      <c r="K41" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L41" s="17">
+        <v>2973</v>
+      </c>
+      <c r="M41" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="15">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B42" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C42" s="15">
+        <v>1</v>
+      </c>
+      <c r="D42" s="15">
+        <v>39</v>
+      </c>
+      <c r="E42" s="15">
+        <v>30</v>
+      </c>
+      <c r="F42" s="15">
+        <v>15</v>
+      </c>
+      <c r="G42" s="15">
+        <v>1</v>
+      </c>
+      <c r="H42" s="15">
+        <v>408</v>
+      </c>
+      <c r="I42" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J42" s="15">
+        <v>40</v>
+      </c>
+      <c r="K42" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L42" s="17">
+        <v>3013</v>
+      </c>
+      <c r="M42" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="20">
+        <v>40</v>
+      </c>
+      <c r="B43" s="20">
+        <v>1001</v>
+      </c>
+      <c r="C43" s="20">
+        <v>1</v>
+      </c>
+      <c r="D43" s="20">
+        <v>40</v>
+      </c>
+      <c r="E43" s="20">
+        <v>60</v>
+      </c>
+      <c r="F43" s="20">
+        <v>15</v>
+      </c>
+      <c r="G43" s="20">
+        <v>-1</v>
+      </c>
+      <c r="H43" s="20">
+        <v>-1</v>
+      </c>
+      <c r="I43" s="20">
+        <v>504</v>
+      </c>
+      <c r="J43" s="20">
+        <v>-1</v>
+      </c>
+      <c r="K43" s="21">
+        <v>1</v>
+      </c>
+      <c r="L43" s="22">
+        <v>631620</v>
+      </c>
+      <c r="M43" s="20">
+        <v>631620</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="15">
+        <v>41</v>
+      </c>
+      <c r="B44" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C44" s="15">
+        <v>1</v>
+      </c>
+      <c r="D44" s="15">
+        <v>41</v>
+      </c>
+      <c r="E44" s="15">
+        <v>30</v>
+      </c>
+      <c r="F44" s="15">
+        <v>15</v>
+      </c>
+      <c r="G44" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H44" s="15">
+        <v>409</v>
+      </c>
+      <c r="I44" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J44" s="15">
+        <v>40</v>
+      </c>
+      <c r="K44" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L44" s="17">
+        <v>3693</v>
+      </c>
+      <c r="M44" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="15">
+        <v>42</v>
+      </c>
+      <c r="B45" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C45" s="15">
+        <v>1</v>
+      </c>
+      <c r="D45" s="15">
+        <v>42</v>
+      </c>
+      <c r="E45" s="15">
+        <v>30</v>
+      </c>
+      <c r="F45" s="15">
+        <v>15</v>
+      </c>
+      <c r="G45" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H45" s="15">
+        <v>409</v>
+      </c>
+      <c r="I45" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J45" s="15">
+        <v>40</v>
+      </c>
+      <c r="K45" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L45" s="17">
+        <v>3798</v>
+      </c>
+      <c r="M45" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="15">
+        <v>43</v>
+      </c>
+      <c r="B46" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C46" s="15">
+        <v>1</v>
+      </c>
+      <c r="D46" s="15">
+        <v>43</v>
+      </c>
+      <c r="E46" s="15">
+        <v>30</v>
+      </c>
+      <c r="F46" s="15">
+        <v>15</v>
+      </c>
+      <c r="G46" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H46" s="15">
+        <v>409</v>
+      </c>
+      <c r="I46" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J46" s="15">
+        <v>40</v>
+      </c>
+      <c r="K46" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L46" s="17">
+        <v>3861</v>
+      </c>
+      <c r="M46" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="15">
+        <v>44</v>
+      </c>
+      <c r="B47" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C47" s="15">
+        <v>1</v>
+      </c>
+      <c r="D47" s="15">
+        <v>44</v>
+      </c>
+      <c r="E47" s="15">
+        <v>30</v>
+      </c>
+      <c r="F47" s="15">
+        <v>15</v>
+      </c>
+      <c r="G47" s="15">
+        <v>1</v>
+      </c>
+      <c r="H47" s="15">
+        <v>409</v>
+      </c>
+      <c r="I47" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J47" s="15">
+        <v>40</v>
+      </c>
+      <c r="K47" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L47" s="17">
+        <v>3913</v>
+      </c>
+      <c r="M47" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="15">
+        <v>45</v>
+      </c>
+      <c r="B48" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C48" s="15">
+        <v>1</v>
+      </c>
+      <c r="D48" s="15">
+        <v>45</v>
+      </c>
+      <c r="E48" s="15">
+        <v>30</v>
+      </c>
+      <c r="F48" s="15">
+        <v>15</v>
+      </c>
+      <c r="G48" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H48" s="15">
+        <v>410</v>
+      </c>
+      <c r="I48" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J48" s="15">
+        <v>40</v>
+      </c>
+      <c r="K48" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L48" s="17">
+        <v>4444</v>
+      </c>
+      <c r="M48" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="15">
+        <v>46</v>
+      </c>
+      <c r="B49" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C49" s="15">
+        <v>1</v>
+      </c>
+      <c r="D49" s="15">
+        <v>46</v>
+      </c>
+      <c r="E49" s="15">
+        <v>30</v>
+      </c>
+      <c r="F49" s="15">
+        <v>15</v>
+      </c>
+      <c r="G49" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H49" s="15">
+        <v>410</v>
+      </c>
+      <c r="I49" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J49" s="15">
+        <v>40</v>
+      </c>
+      <c r="K49" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L49" s="17">
+        <v>4547</v>
+      </c>
+      <c r="M49" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="15">
+        <v>47</v>
+      </c>
+      <c r="B50" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C50" s="15">
+        <v>1</v>
+      </c>
+      <c r="D50" s="15">
+        <v>47</v>
+      </c>
+      <c r="E50" s="15">
+        <v>30</v>
+      </c>
+      <c r="F50" s="15">
+        <v>15</v>
+      </c>
+      <c r="G50" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H50" s="15">
+        <v>410</v>
+      </c>
+      <c r="I50" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J50" s="15">
+        <v>40</v>
+      </c>
+      <c r="K50" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L50" s="17">
+        <v>4673</v>
+      </c>
+      <c r="M50" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="15">
+        <v>48</v>
+      </c>
+      <c r="B51" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C51" s="15">
+        <v>1</v>
+      </c>
+      <c r="D51" s="15">
+        <v>48</v>
+      </c>
+      <c r="E51" s="15">
+        <v>30</v>
+      </c>
+      <c r="F51" s="15">
+        <v>15</v>
+      </c>
+      <c r="G51" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H51" s="15">
+        <v>410</v>
+      </c>
+      <c r="I51" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J51" s="15">
+        <v>40</v>
+      </c>
+      <c r="K51" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L51" s="17">
+        <v>4747</v>
+      </c>
+      <c r="M51" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="15">
+        <v>49</v>
+      </c>
+      <c r="B52" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C52" s="15">
+        <v>1</v>
+      </c>
+      <c r="D52" s="15">
+        <v>49</v>
+      </c>
+      <c r="E52" s="15">
+        <v>30</v>
+      </c>
+      <c r="F52" s="15">
+        <v>15</v>
+      </c>
+      <c r="G52" s="15">
+        <v>1</v>
+      </c>
+      <c r="H52" s="15">
+        <v>410</v>
+      </c>
+      <c r="I52" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J52" s="15">
+        <v>40</v>
+      </c>
+      <c r="K52" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L52" s="17">
+        <v>5000</v>
+      </c>
+      <c r="M52" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="20">
+        <v>50</v>
+      </c>
+      <c r="B53" s="20">
+        <v>1001</v>
+      </c>
+      <c r="C53" s="20">
+        <v>1</v>
+      </c>
+      <c r="D53" s="20">
+        <v>50</v>
+      </c>
+      <c r="E53" s="20">
+        <v>60</v>
+      </c>
+      <c r="F53" s="20">
+        <v>15</v>
+      </c>
+      <c r="G53" s="20">
+        <v>-1</v>
+      </c>
+      <c r="H53" s="20">
+        <v>401</v>
+      </c>
+      <c r="I53" s="20">
+        <v>505</v>
+      </c>
+      <c r="J53" s="20">
+        <v>40</v>
+      </c>
+      <c r="K53" s="21">
+        <v>1</v>
+      </c>
+      <c r="L53" s="22">
+        <v>5000</v>
+      </c>
+      <c r="M53" s="20">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A54" s="23"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="L54" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -780,229 +3150,193 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5409F1B1-0956-4B26-ACA9-55F5DBAB54F5}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8FABB6-B12D-4D0B-ADBA-E809D3A5F66E}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="A9:H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.58203125" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
-    <col min="7" max="7" width="21.75" customWidth="1"/>
-    <col min="8" max="8" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="104.9140625" customWidth="1"/>
+    <col min="3" max="3" width="7.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C16" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>30</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1010,4 +3344,1015 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5409F1B1-0956-4B26-ACA9-55F5DBAB54F5}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A4" s="4">
+        <v>401</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A5" s="2">
+        <v>402</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A6" s="2">
+        <v>403</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A7" s="2">
+        <v>404</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A8" s="2">
+        <v>405</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A9" s="2">
+        <v>406</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A10" s="2">
+        <v>407</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A11" s="2">
+        <v>408</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A12" s="2">
+        <v>409</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A13" s="2">
+        <v>410</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65360E0-72A4-4F73-8D25-5851FA69FF7D}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="17.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A4" s="4">
+        <v>501</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A5" s="2">
+        <v>502</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A6" s="2">
+        <v>503</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A7" s="2">
+        <v>504</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A8" s="2">
+        <v>505</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FF45C1-50E4-42DD-8B23-50DECDAEF0EB}">
+  <dimension ref="A1:C48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A4">
+        <v>4001</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A5">
+        <v>4002</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A6">
+        <v>4003</v>
+      </c>
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A7">
+        <v>4004</v>
+      </c>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A8">
+        <v>4005</v>
+      </c>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A9">
+        <v>4006</v>
+      </c>
+      <c r="B9" s="7">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A10">
+        <v>4007</v>
+      </c>
+      <c r="B10" s="7">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A11">
+        <v>4008</v>
+      </c>
+      <c r="B11" s="7">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A12">
+        <v>4009</v>
+      </c>
+      <c r="B12" s="7">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A13">
+        <v>4010</v>
+      </c>
+      <c r="B13" s="7">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A14">
+        <v>4011</v>
+      </c>
+      <c r="B14" s="7">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A15">
+        <v>4012</v>
+      </c>
+      <c r="B15" s="7">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A16">
+        <v>4013</v>
+      </c>
+      <c r="B16" s="7">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A17">
+        <v>4014</v>
+      </c>
+      <c r="B17" s="7">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A18">
+        <v>4015</v>
+      </c>
+      <c r="B18" s="7">
+        <v>16</v>
+      </c>
+      <c r="C18" s="8">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A19">
+        <v>4016</v>
+      </c>
+      <c r="B19" s="7">
+        <v>17</v>
+      </c>
+      <c r="C19" s="8">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A20">
+        <v>4017</v>
+      </c>
+      <c r="B20" s="7">
+        <v>18</v>
+      </c>
+      <c r="C20" s="8">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A21">
+        <v>4018</v>
+      </c>
+      <c r="B21" s="7">
+        <v>19</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A22">
+        <v>4019</v>
+      </c>
+      <c r="B22" s="7">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A23">
+        <v>4020</v>
+      </c>
+      <c r="B23" s="7">
+        <v>22</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A24">
+        <v>4021</v>
+      </c>
+      <c r="B24" s="7">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A25">
+        <v>4022</v>
+      </c>
+      <c r="B25" s="7">
+        <v>24</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A26">
+        <v>4023</v>
+      </c>
+      <c r="B26" s="7">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A27">
+        <v>4024</v>
+      </c>
+      <c r="B27" s="7">
+        <v>26</v>
+      </c>
+      <c r="C27" s="8">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A28">
+        <v>4025</v>
+      </c>
+      <c r="B28" s="7">
+        <v>27</v>
+      </c>
+      <c r="C28" s="8">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A29">
+        <v>4026</v>
+      </c>
+      <c r="B29" s="7">
+        <v>28</v>
+      </c>
+      <c r="C29" s="8">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A30">
+        <v>4027</v>
+      </c>
+      <c r="B30" s="7">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A31">
+        <v>4028</v>
+      </c>
+      <c r="B31" s="7">
+        <v>31</v>
+      </c>
+      <c r="C31" s="8">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A32">
+        <v>4029</v>
+      </c>
+      <c r="B32" s="7">
+        <v>32</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A33">
+        <v>4030</v>
+      </c>
+      <c r="B33" s="7">
+        <v>33</v>
+      </c>
+      <c r="C33" s="8">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A34">
+        <v>4031</v>
+      </c>
+      <c r="B34" s="7">
+        <v>34</v>
+      </c>
+      <c r="C34" s="8">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A35">
+        <v>4032</v>
+      </c>
+      <c r="B35" s="7">
+        <v>35</v>
+      </c>
+      <c r="C35" s="8">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A36">
+        <v>4033</v>
+      </c>
+      <c r="B36" s="7">
+        <v>36</v>
+      </c>
+      <c r="C36" s="8">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A37">
+        <v>4034</v>
+      </c>
+      <c r="B37" s="7">
+        <v>37</v>
+      </c>
+      <c r="C37" s="8">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A38">
+        <v>4035</v>
+      </c>
+      <c r="B38" s="7">
+        <v>38</v>
+      </c>
+      <c r="C38" s="8">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A39">
+        <v>4036</v>
+      </c>
+      <c r="B39" s="7">
+        <v>39</v>
+      </c>
+      <c r="C39" s="8">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A40">
+        <v>4037</v>
+      </c>
+      <c r="B40" s="7">
+        <v>41</v>
+      </c>
+      <c r="C40" s="8">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A41">
+        <v>4038</v>
+      </c>
+      <c r="B41" s="7">
+        <v>42</v>
+      </c>
+      <c r="C41" s="8">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A42">
+        <v>4039</v>
+      </c>
+      <c r="B42" s="7">
+        <v>43</v>
+      </c>
+      <c r="C42" s="8">
+        <v>3861</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A43">
+        <v>4040</v>
+      </c>
+      <c r="B43" s="7">
+        <v>44</v>
+      </c>
+      <c r="C43" s="8">
+        <v>3913</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A44">
+        <v>4041</v>
+      </c>
+      <c r="B44" s="7">
+        <v>45</v>
+      </c>
+      <c r="C44" s="8">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A45">
+        <v>4042</v>
+      </c>
+      <c r="B45" s="7">
+        <v>46</v>
+      </c>
+      <c r="C45" s="8">
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A46">
+        <v>4043</v>
+      </c>
+      <c r="B46" s="7">
+        <v>47</v>
+      </c>
+      <c r="C46" s="8">
+        <v>4673</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A47">
+        <v>4044</v>
+      </c>
+      <c r="B47" s="7">
+        <v>48</v>
+      </c>
+      <c r="C47" s="8">
+        <v>4747</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A48">
+        <v>4045</v>
+      </c>
+      <c r="B48" s="7">
+        <v>49</v>
+      </c>
+      <c r="C48" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B5CE41-108C-49B3-8C32-0DFCF3BFCE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A15BB3-52A4-4EC1-9915-A205F180B0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="1275" windowWidth="20010" windowHeight="11385" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="5625" yWindow="1275" windowWidth="20010" windowHeight="11385" activeTab="2" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Story" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -301,6 +301,22 @@
   </si>
   <si>
     <t>(전화벨소리)왜?&amp;(중얼거리며) 아니...학교에서 필요한 준비물이 있는데..&amp;귀찮게 연락하지 말고, 카드로 사&amp;(뚝 끊음)&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,7 +705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8FABB6-B12D-4D0B-ADBA-E809D3A5F66E}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1117,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40025AE-C7D8-4357-9319-EFD6B75D65B3}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1128,12 +1144,14 @@
     <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="2" max="2" width="42.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1144,16 +1162,28 @@
         <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1164,16 +1194,28 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1184,16 +1226,28 @@
         <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3001</v>
       </c>
@@ -1204,16 +1258,28 @@
         <v>51</v>
       </c>
       <c r="D4" s="3">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-15</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>-10</v>
+      </c>
+      <c r="H4" s="3">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="J4" s="3">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3002</v>
       </c>
@@ -1224,16 +1290,28 @@
         <v>54</v>
       </c>
       <c r="D5" s="3">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-15</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>-10</v>
+      </c>
+      <c r="H5" s="3">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3003</v>
       </c>
@@ -1244,16 +1322,28 @@
         <v>57</v>
       </c>
       <c r="D6" s="3">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-15</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>-10</v>
+      </c>
+      <c r="H6" s="3">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3004</v>
       </c>
@@ -1264,16 +1354,28 @@
         <v>60</v>
       </c>
       <c r="D7" s="3">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-15</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>-10</v>
+      </c>
+      <c r="H7" s="3">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>30</v>
+      </c>
+      <c r="J7" s="3">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3005</v>
       </c>
@@ -1284,16 +1386,28 @@
         <v>63</v>
       </c>
       <c r="D8" s="3">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-15</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>-10</v>
+      </c>
+      <c r="H8" s="3">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
+      </c>
+      <c r="J8" s="3">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3006</v>
       </c>
@@ -1304,16 +1418,28 @@
         <v>66</v>
       </c>
       <c r="D9" s="3">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-15</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>-10</v>
+      </c>
+      <c r="H9" s="3">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>30</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3007</v>
       </c>
@@ -1324,16 +1450,28 @@
         <v>69</v>
       </c>
       <c r="D10" s="3">
-        <v>15</v>
-      </c>
-      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-15</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>-10</v>
+      </c>
+      <c r="H10" s="3">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>30</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3008</v>
       </c>
@@ -1344,13 +1482,25 @@
         <v>72</v>
       </c>
       <c r="D11" s="3">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-15</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F11">
-        <v>10</v>
+      <c r="G11">
+        <v>-10</v>
+      </c>
+      <c r="H11" s="3">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-15</v>
       </c>
     </row>
   </sheetData>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A15BB3-52A4-4EC1-9915-A205F180B0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B52CD0B-C849-4FB5-A51E-2864E6963E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="1275" windowWidth="20010" windowHeight="11385" activeTab="2" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Story" sheetId="2" r:id="rId1"/>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B52CD0B-C849-4FB5-A51E-2864E6963E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B67076-0A3B-4C40-B076-11A3F047C61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E11"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Portfolio\Oilnam\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B67076-0A3B-4C40-B076-11A3F047C61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46121667-A6DC-4D0B-AD8C-3F76981C9069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="930" yWindow="880" windowWidth="19200" windowHeight="11170" activeTab="3" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Story" sheetId="2" r:id="rId1"/>
-    <sheet name="Enemy" sheetId="1" r:id="rId2"/>
-    <sheet name="Message" sheetId="3" r:id="rId3"/>
+    <sheet name="Chapter" sheetId="4" r:id="rId1"/>
+    <sheet name="Story" sheetId="2" r:id="rId2"/>
+    <sheet name="Enemy" sheetId="1" r:id="rId3"/>
+    <sheet name="Boss" sheetId="5" r:id="rId4"/>
+    <sheet name="Message" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,17 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="122">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
     <t>Gain_Experience</t>
   </si>
   <si>
@@ -50,31 +46,16 @@
     <t>마물1</t>
   </si>
   <si>
-    <t>귀여운 마물입니다.</t>
-  </si>
-  <si>
     <t>마물2</t>
   </si>
   <si>
-    <t>못생긴 마물입니다.</t>
-  </si>
-  <si>
     <t>마물3</t>
   </si>
   <si>
-    <t>멋있는 마물입니다.</t>
-  </si>
-  <si>
     <t>마물4</t>
   </si>
   <si>
-    <t>소심한 마물입니다.</t>
-  </si>
-  <si>
     <t>마물5</t>
-  </si>
-  <si>
-    <t>끈질긴 마물입니다.</t>
   </si>
   <si>
     <t>ID</t>
@@ -318,13 +299,162 @@
   <si>
     <t>Energy3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnEnemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Wave</t>
+  </si>
+  <si>
+    <t>Wave_Time</t>
+  </si>
+  <si>
+    <t>Wave_Gold</t>
+  </si>
+  <si>
+    <t>Spawn_Monster</t>
+  </si>
+  <si>
+    <t>Spawn_Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spawn_Count</t>
+  </si>
+  <si>
+    <t>Spawn_Boss_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spawn_Hp</t>
+  </si>
+  <si>
+    <t>Boss_HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마물6</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy06</t>
+  </si>
+  <si>
+    <t>마물7</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy07</t>
+  </si>
+  <si>
+    <t>마물8</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy08</t>
+  </si>
+  <si>
+    <t>마물9</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy09</t>
+  </si>
+  <si>
+    <t>마물10</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy10</t>
+  </si>
+  <si>
+    <t>Boss_Modeling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스1</t>
+  </si>
+  <si>
+    <t>Boss/Boss01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스2</t>
+  </si>
+  <si>
+    <t>Boss/Boss02</t>
+  </si>
+  <si>
+    <t>보스3</t>
+  </si>
+  <si>
+    <t>Boss/Boss03</t>
+  </si>
+  <si>
+    <t>보스4</t>
+  </si>
+  <si>
+    <t>Boss/Boss04</t>
+  </si>
+  <si>
+    <t>보스5</t>
+  </si>
+  <si>
+    <t>Boss/Boss05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,21 +483,128 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -376,7 +613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -388,6 +625,48 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,6 +981,2204 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AF03AA-AD2E-4842-8F07-034942C7A07E}">
+  <dimension ref="A1:M53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="5" max="5" width="11.58203125" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.9140625" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="18.75" customWidth="1"/>
+    <col min="12" max="12" width="10.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>30</v>
+      </c>
+      <c r="F4" s="6">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>401</v>
+      </c>
+      <c r="I4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>40</v>
+      </c>
+      <c r="K4" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="8">
+        <v>20</v>
+      </c>
+      <c r="M4" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>30</v>
+      </c>
+      <c r="F5" s="6">
+        <v>15</v>
+      </c>
+      <c r="G5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>401</v>
+      </c>
+      <c r="I5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>40</v>
+      </c>
+      <c r="K5" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="8">
+        <v>26</v>
+      </c>
+      <c r="M5" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6">
+        <v>15</v>
+      </c>
+      <c r="G6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>401</v>
+      </c>
+      <c r="I6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>40</v>
+      </c>
+      <c r="K6" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="8">
+        <v>40</v>
+      </c>
+      <c r="M6" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6">
+        <v>30</v>
+      </c>
+      <c r="F7" s="6">
+        <v>15</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>401</v>
+      </c>
+      <c r="I7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>40</v>
+      </c>
+      <c r="K7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="8">
+        <v>54</v>
+      </c>
+      <c r="M7" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>30</v>
+      </c>
+      <c r="F8" s="6">
+        <v>15</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>402</v>
+      </c>
+      <c r="I8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>40</v>
+      </c>
+      <c r="K8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="8">
+        <v>74</v>
+      </c>
+      <c r="M8" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6">
+        <v>30</v>
+      </c>
+      <c r="F9" s="6">
+        <v>15</v>
+      </c>
+      <c r="G9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>402</v>
+      </c>
+      <c r="I9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>40</v>
+      </c>
+      <c r="K9" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="8">
+        <v>98</v>
+      </c>
+      <c r="M9" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6">
+        <v>30</v>
+      </c>
+      <c r="F10" s="6">
+        <v>15</v>
+      </c>
+      <c r="G10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>402</v>
+      </c>
+      <c r="I10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>40</v>
+      </c>
+      <c r="K10" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="8">
+        <v>128</v>
+      </c>
+      <c r="M10" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6">
+        <v>30</v>
+      </c>
+      <c r="F11" s="6">
+        <v>15</v>
+      </c>
+      <c r="G11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>402</v>
+      </c>
+      <c r="I11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>40</v>
+      </c>
+      <c r="K11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="8">
+        <v>164</v>
+      </c>
+      <c r="M11" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6">
+        <v>30</v>
+      </c>
+      <c r="F12" s="6">
+        <v>15</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>402</v>
+      </c>
+      <c r="I12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>40</v>
+      </c>
+      <c r="K12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="8">
+        <v>236</v>
+      </c>
+      <c r="M12" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="10">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1001</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10">
+        <v>10</v>
+      </c>
+      <c r="E13" s="10">
+        <v>60</v>
+      </c>
+      <c r="F13" s="10">
+        <v>15</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="10">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="10">
+        <v>501</v>
+      </c>
+      <c r="J13" s="10">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="11">
+        <v>1</v>
+      </c>
+      <c r="L13" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="13">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>30</v>
+      </c>
+      <c r="F14" s="6">
+        <v>15</v>
+      </c>
+      <c r="G14" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="6">
+        <v>403</v>
+      </c>
+      <c r="I14" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="6">
+        <v>40</v>
+      </c>
+      <c r="K14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="8">
+        <v>700</v>
+      </c>
+      <c r="M14" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6">
+        <v>30</v>
+      </c>
+      <c r="F15" s="6">
+        <v>15</v>
+      </c>
+      <c r="G15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>403</v>
+      </c>
+      <c r="I15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="6">
+        <v>40</v>
+      </c>
+      <c r="K15" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="8">
+        <v>733</v>
+      </c>
+      <c r="M15" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>13</v>
+      </c>
+      <c r="E16" s="6">
+        <v>30</v>
+      </c>
+      <c r="F16" s="6">
+        <v>15</v>
+      </c>
+      <c r="G16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>403</v>
+      </c>
+      <c r="I16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="6">
+        <v>40</v>
+      </c>
+      <c r="K16" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="8">
+        <v>770</v>
+      </c>
+      <c r="M16" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>14</v>
+      </c>
+      <c r="E17" s="6">
+        <v>30</v>
+      </c>
+      <c r="F17" s="6">
+        <v>15</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>403</v>
+      </c>
+      <c r="I17" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="6">
+        <v>40</v>
+      </c>
+      <c r="K17" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="8">
+        <v>815</v>
+      </c>
+      <c r="M17" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>15</v>
+      </c>
+      <c r="E18" s="6">
+        <v>30</v>
+      </c>
+      <c r="F18" s="6">
+        <v>15</v>
+      </c>
+      <c r="G18" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="6">
+        <v>404</v>
+      </c>
+      <c r="I18" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="6">
+        <v>40</v>
+      </c>
+      <c r="K18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L18" s="8">
+        <v>866</v>
+      </c>
+      <c r="M18" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>16</v>
+      </c>
+      <c r="E19" s="6">
+        <v>30</v>
+      </c>
+      <c r="F19" s="6">
+        <v>15</v>
+      </c>
+      <c r="G19" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>404</v>
+      </c>
+      <c r="I19" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="6">
+        <v>40</v>
+      </c>
+      <c r="K19" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L19" s="8">
+        <v>914</v>
+      </c>
+      <c r="M19" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>17</v>
+      </c>
+      <c r="E20" s="6">
+        <v>30</v>
+      </c>
+      <c r="F20" s="6">
+        <v>15</v>
+      </c>
+      <c r="G20" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="6">
+        <v>404</v>
+      </c>
+      <c r="I20" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="6">
+        <v>40</v>
+      </c>
+      <c r="K20" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L20" s="8">
+        <v>939</v>
+      </c>
+      <c r="M20" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>18</v>
+      </c>
+      <c r="E21" s="6">
+        <v>30</v>
+      </c>
+      <c r="F21" s="6">
+        <v>15</v>
+      </c>
+      <c r="G21" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H21" s="6">
+        <v>404</v>
+      </c>
+      <c r="I21" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>40</v>
+      </c>
+      <c r="K21" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L21" s="8">
+        <v>967</v>
+      </c>
+      <c r="M21" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6">
+        <v>19</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>19</v>
+      </c>
+      <c r="E22" s="6">
+        <v>30</v>
+      </c>
+      <c r="F22" s="6">
+        <v>15</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6">
+        <v>404</v>
+      </c>
+      <c r="I22" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J22" s="6">
+        <v>40</v>
+      </c>
+      <c r="K22" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L22" s="8">
+        <v>1004</v>
+      </c>
+      <c r="M22" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="10">
+        <v>20</v>
+      </c>
+      <c r="B23" s="10">
+        <v>1001</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10">
+        <v>20</v>
+      </c>
+      <c r="E23" s="10">
+        <v>60</v>
+      </c>
+      <c r="F23" s="10">
+        <v>15</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="10">
+        <v>-1</v>
+      </c>
+      <c r="I23" s="10">
+        <v>502</v>
+      </c>
+      <c r="J23" s="10">
+        <v>-1</v>
+      </c>
+      <c r="K23" s="11">
+        <v>1</v>
+      </c>
+      <c r="L23" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M23" s="10">
+        <v>38280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>21</v>
+      </c>
+      <c r="E24" s="6">
+        <v>30</v>
+      </c>
+      <c r="F24" s="6">
+        <v>15</v>
+      </c>
+      <c r="G24" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="6">
+        <v>405</v>
+      </c>
+      <c r="I24" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J24" s="6">
+        <v>40</v>
+      </c>
+      <c r="K24" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1070</v>
+      </c>
+      <c r="M24" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="6">
+        <v>22</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6">
+        <v>22</v>
+      </c>
+      <c r="E25" s="6">
+        <v>30</v>
+      </c>
+      <c r="F25" s="6">
+        <v>15</v>
+      </c>
+      <c r="G25" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="6">
+        <v>405</v>
+      </c>
+      <c r="I25" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J25" s="6">
+        <v>40</v>
+      </c>
+      <c r="K25" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L25" s="8">
+        <v>1129</v>
+      </c>
+      <c r="M25" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="6">
+        <v>23</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
+        <v>23</v>
+      </c>
+      <c r="E26" s="6">
+        <v>30</v>
+      </c>
+      <c r="F26" s="6">
+        <v>15</v>
+      </c>
+      <c r="G26" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H26" s="6">
+        <v>405</v>
+      </c>
+      <c r="I26" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J26" s="6">
+        <v>40</v>
+      </c>
+      <c r="K26" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L26" s="8">
+        <v>1181</v>
+      </c>
+      <c r="M26" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="6">
+        <v>24</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6">
+        <v>24</v>
+      </c>
+      <c r="E27" s="6">
+        <v>30</v>
+      </c>
+      <c r="F27" s="6">
+        <v>15</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6">
+        <v>405</v>
+      </c>
+      <c r="I27" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J27" s="6">
+        <v>40</v>
+      </c>
+      <c r="K27" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L27" s="8">
+        <v>1221</v>
+      </c>
+      <c r="M27" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="6">
+        <v>25</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6">
+        <v>25</v>
+      </c>
+      <c r="E28" s="6">
+        <v>30</v>
+      </c>
+      <c r="F28" s="6">
+        <v>15</v>
+      </c>
+      <c r="G28" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="6">
+        <v>406</v>
+      </c>
+      <c r="I28" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J28" s="6">
+        <v>40</v>
+      </c>
+      <c r="K28" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L28" s="8">
+        <v>2024</v>
+      </c>
+      <c r="M28" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="6">
+        <v>26</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" s="6">
+        <v>26</v>
+      </c>
+      <c r="E29" s="6">
+        <v>30</v>
+      </c>
+      <c r="F29" s="6">
+        <v>15</v>
+      </c>
+      <c r="G29" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="6">
+        <v>406</v>
+      </c>
+      <c r="I29" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J29" s="6">
+        <v>40</v>
+      </c>
+      <c r="K29" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L29" s="8">
+        <v>2088</v>
+      </c>
+      <c r="M29" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="6">
+        <v>27</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6">
+        <v>27</v>
+      </c>
+      <c r="E30" s="6">
+        <v>30</v>
+      </c>
+      <c r="F30" s="6">
+        <v>15</v>
+      </c>
+      <c r="G30" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H30" s="6">
+        <v>406</v>
+      </c>
+      <c r="I30" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J30" s="6">
+        <v>40</v>
+      </c>
+      <c r="K30" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L30" s="8">
+        <v>2121</v>
+      </c>
+      <c r="M30" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="6">
+        <v>28</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6">
+        <v>28</v>
+      </c>
+      <c r="E31" s="6">
+        <v>30</v>
+      </c>
+      <c r="F31" s="6">
+        <v>15</v>
+      </c>
+      <c r="G31" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="6">
+        <v>406</v>
+      </c>
+      <c r="I31" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J31" s="6">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L31" s="8">
+        <v>2169</v>
+      </c>
+      <c r="M31" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="6">
+        <v>29</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6">
+        <v>29</v>
+      </c>
+      <c r="E32" s="6">
+        <v>30</v>
+      </c>
+      <c r="F32" s="6">
+        <v>15</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
+      <c r="H32" s="6">
+        <v>406</v>
+      </c>
+      <c r="I32" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J32" s="6">
+        <v>40</v>
+      </c>
+      <c r="K32" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L32" s="8">
+        <v>2222</v>
+      </c>
+      <c r="M32" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="10">
+        <v>30</v>
+      </c>
+      <c r="B33" s="10">
+        <v>1001</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10">
+        <v>30</v>
+      </c>
+      <c r="E33" s="10">
+        <v>60</v>
+      </c>
+      <c r="F33" s="10">
+        <v>15</v>
+      </c>
+      <c r="G33" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="10">
+        <v>-1</v>
+      </c>
+      <c r="I33" s="10">
+        <v>503</v>
+      </c>
+      <c r="J33" s="10">
+        <v>-1</v>
+      </c>
+      <c r="K33" s="11">
+        <v>1</v>
+      </c>
+      <c r="L33" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M33" s="10">
+        <v>252648</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="6">
+        <v>31</v>
+      </c>
+      <c r="B34" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6">
+        <v>31</v>
+      </c>
+      <c r="E34" s="6">
+        <v>30</v>
+      </c>
+      <c r="F34" s="6">
+        <v>15</v>
+      </c>
+      <c r="G34" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H34" s="6">
+        <v>407</v>
+      </c>
+      <c r="I34" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J34" s="6">
+        <v>40</v>
+      </c>
+      <c r="K34" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L34" s="8">
+        <v>2378</v>
+      </c>
+      <c r="M34" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="6">
+        <v>32</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6">
+        <v>32</v>
+      </c>
+      <c r="E35" s="6">
+        <v>30</v>
+      </c>
+      <c r="F35" s="6">
+        <v>15</v>
+      </c>
+      <c r="G35" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H35" s="6">
+        <v>407</v>
+      </c>
+      <c r="I35" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J35" s="6">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L35" s="8">
+        <v>2471</v>
+      </c>
+      <c r="M35" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="6">
+        <v>33</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6">
+        <v>33</v>
+      </c>
+      <c r="E36" s="6">
+        <v>30</v>
+      </c>
+      <c r="F36" s="6">
+        <v>15</v>
+      </c>
+      <c r="G36" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H36" s="6">
+        <v>407</v>
+      </c>
+      <c r="I36" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J36" s="6">
+        <v>40</v>
+      </c>
+      <c r="K36" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L36" s="8">
+        <v>2566</v>
+      </c>
+      <c r="M36" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="6">
+        <v>34</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6">
+        <v>34</v>
+      </c>
+      <c r="E37" s="6">
+        <v>30</v>
+      </c>
+      <c r="F37" s="6">
+        <v>15</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+      <c r="H37" s="6">
+        <v>407</v>
+      </c>
+      <c r="I37" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J37" s="6">
+        <v>40</v>
+      </c>
+      <c r="K37" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L37" s="8">
+        <v>2626</v>
+      </c>
+      <c r="M37" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="6">
+        <v>35</v>
+      </c>
+      <c r="B38" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6">
+        <v>35</v>
+      </c>
+      <c r="E38" s="6">
+        <v>30</v>
+      </c>
+      <c r="F38" s="6">
+        <v>15</v>
+      </c>
+      <c r="G38" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H38" s="6">
+        <v>408</v>
+      </c>
+      <c r="I38" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J38" s="6">
+        <v>40</v>
+      </c>
+      <c r="K38" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L38" s="8">
+        <v>2722</v>
+      </c>
+      <c r="M38" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="6">
+        <v>36</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6">
+        <v>36</v>
+      </c>
+      <c r="E39" s="6">
+        <v>30</v>
+      </c>
+      <c r="F39" s="6">
+        <v>15</v>
+      </c>
+      <c r="G39" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="6">
+        <v>408</v>
+      </c>
+      <c r="I39" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J39" s="6">
+        <v>40</v>
+      </c>
+      <c r="K39" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L39" s="8">
+        <v>2799</v>
+      </c>
+      <c r="M39" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="6">
+        <v>37</v>
+      </c>
+      <c r="B40" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6">
+        <v>37</v>
+      </c>
+      <c r="E40" s="6">
+        <v>30</v>
+      </c>
+      <c r="F40" s="6">
+        <v>15</v>
+      </c>
+      <c r="G40" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="6">
+        <v>408</v>
+      </c>
+      <c r="I40" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J40" s="6">
+        <v>40</v>
+      </c>
+      <c r="K40" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L40" s="8">
+        <v>2882</v>
+      </c>
+      <c r="M40" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="6">
+        <v>38</v>
+      </c>
+      <c r="B41" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6">
+        <v>38</v>
+      </c>
+      <c r="E41" s="6">
+        <v>30</v>
+      </c>
+      <c r="F41" s="6">
+        <v>15</v>
+      </c>
+      <c r="G41" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H41" s="6">
+        <v>408</v>
+      </c>
+      <c r="I41" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J41" s="6">
+        <v>40</v>
+      </c>
+      <c r="K41" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L41" s="8">
+        <v>2973</v>
+      </c>
+      <c r="M41" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="6">
+        <v>39</v>
+      </c>
+      <c r="B42" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6">
+        <v>39</v>
+      </c>
+      <c r="E42" s="6">
+        <v>30</v>
+      </c>
+      <c r="F42" s="6">
+        <v>15</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
+      <c r="H42" s="6">
+        <v>408</v>
+      </c>
+      <c r="I42" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J42" s="6">
+        <v>40</v>
+      </c>
+      <c r="K42" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L42" s="8">
+        <v>3013</v>
+      </c>
+      <c r="M42" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="10">
+        <v>40</v>
+      </c>
+      <c r="B43" s="10">
+        <v>1001</v>
+      </c>
+      <c r="C43" s="10">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10">
+        <v>40</v>
+      </c>
+      <c r="E43" s="10">
+        <v>60</v>
+      </c>
+      <c r="F43" s="10">
+        <v>15</v>
+      </c>
+      <c r="G43" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H43" s="10">
+        <v>-1</v>
+      </c>
+      <c r="I43" s="10">
+        <v>504</v>
+      </c>
+      <c r="J43" s="10">
+        <v>-1</v>
+      </c>
+      <c r="K43" s="11">
+        <v>1</v>
+      </c>
+      <c r="L43" s="12">
+        <v>631620</v>
+      </c>
+      <c r="M43" s="10">
+        <v>631620</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="6">
+        <v>41</v>
+      </c>
+      <c r="B44" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C44" s="6">
+        <v>1</v>
+      </c>
+      <c r="D44" s="6">
+        <v>41</v>
+      </c>
+      <c r="E44" s="6">
+        <v>30</v>
+      </c>
+      <c r="F44" s="6">
+        <v>15</v>
+      </c>
+      <c r="G44" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H44" s="6">
+        <v>409</v>
+      </c>
+      <c r="I44" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J44" s="6">
+        <v>40</v>
+      </c>
+      <c r="K44" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L44" s="8">
+        <v>3693</v>
+      </c>
+      <c r="M44" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="6">
+        <v>42</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1</v>
+      </c>
+      <c r="D45" s="6">
+        <v>42</v>
+      </c>
+      <c r="E45" s="6">
+        <v>30</v>
+      </c>
+      <c r="F45" s="6">
+        <v>15</v>
+      </c>
+      <c r="G45" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H45" s="6">
+        <v>409</v>
+      </c>
+      <c r="I45" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J45" s="6">
+        <v>40</v>
+      </c>
+      <c r="K45" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L45" s="8">
+        <v>3798</v>
+      </c>
+      <c r="M45" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="6">
+        <v>43</v>
+      </c>
+      <c r="B46" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6">
+        <v>43</v>
+      </c>
+      <c r="E46" s="6">
+        <v>30</v>
+      </c>
+      <c r="F46" s="6">
+        <v>15</v>
+      </c>
+      <c r="G46" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H46" s="6">
+        <v>409</v>
+      </c>
+      <c r="I46" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J46" s="6">
+        <v>40</v>
+      </c>
+      <c r="K46" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L46" s="8">
+        <v>3861</v>
+      </c>
+      <c r="M46" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="6">
+        <v>44</v>
+      </c>
+      <c r="B47" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6">
+        <v>44</v>
+      </c>
+      <c r="E47" s="6">
+        <v>30</v>
+      </c>
+      <c r="F47" s="6">
+        <v>15</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
+      <c r="H47" s="6">
+        <v>409</v>
+      </c>
+      <c r="I47" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J47" s="6">
+        <v>40</v>
+      </c>
+      <c r="K47" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L47" s="8">
+        <v>3913</v>
+      </c>
+      <c r="M47" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="6">
+        <v>45</v>
+      </c>
+      <c r="B48" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C48" s="6">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6">
+        <v>45</v>
+      </c>
+      <c r="E48" s="6">
+        <v>30</v>
+      </c>
+      <c r="F48" s="6">
+        <v>15</v>
+      </c>
+      <c r="G48" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H48" s="6">
+        <v>410</v>
+      </c>
+      <c r="I48" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J48" s="6">
+        <v>40</v>
+      </c>
+      <c r="K48" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L48" s="8">
+        <v>4444</v>
+      </c>
+      <c r="M48" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="6">
+        <v>46</v>
+      </c>
+      <c r="B49" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1</v>
+      </c>
+      <c r="D49" s="6">
+        <v>46</v>
+      </c>
+      <c r="E49" s="6">
+        <v>30</v>
+      </c>
+      <c r="F49" s="6">
+        <v>15</v>
+      </c>
+      <c r="G49" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H49" s="6">
+        <v>410</v>
+      </c>
+      <c r="I49" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J49" s="6">
+        <v>40</v>
+      </c>
+      <c r="K49" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L49" s="8">
+        <v>4547</v>
+      </c>
+      <c r="M49" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="6">
+        <v>47</v>
+      </c>
+      <c r="B50" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C50" s="6">
+        <v>1</v>
+      </c>
+      <c r="D50" s="6">
+        <v>47</v>
+      </c>
+      <c r="E50" s="6">
+        <v>30</v>
+      </c>
+      <c r="F50" s="6">
+        <v>15</v>
+      </c>
+      <c r="G50" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H50" s="6">
+        <v>410</v>
+      </c>
+      <c r="I50" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J50" s="6">
+        <v>40</v>
+      </c>
+      <c r="K50" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L50" s="8">
+        <v>4673</v>
+      </c>
+      <c r="M50" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="6">
+        <v>48</v>
+      </c>
+      <c r="B51" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1</v>
+      </c>
+      <c r="D51" s="6">
+        <v>48</v>
+      </c>
+      <c r="E51" s="6">
+        <v>30</v>
+      </c>
+      <c r="F51" s="6">
+        <v>15</v>
+      </c>
+      <c r="G51" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H51" s="6">
+        <v>410</v>
+      </c>
+      <c r="I51" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J51" s="6">
+        <v>40</v>
+      </c>
+      <c r="K51" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L51" s="8">
+        <v>4747</v>
+      </c>
+      <c r="M51" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="6">
+        <v>49</v>
+      </c>
+      <c r="B52" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6">
+        <v>49</v>
+      </c>
+      <c r="E52" s="6">
+        <v>30</v>
+      </c>
+      <c r="F52" s="6">
+        <v>15</v>
+      </c>
+      <c r="G52" s="6">
+        <v>1</v>
+      </c>
+      <c r="H52" s="6">
+        <v>410</v>
+      </c>
+      <c r="I52" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J52" s="6">
+        <v>40</v>
+      </c>
+      <c r="K52" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L52" s="8">
+        <v>5000</v>
+      </c>
+      <c r="M52" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="10">
+        <v>50</v>
+      </c>
+      <c r="B53" s="10">
+        <v>1001</v>
+      </c>
+      <c r="C53" s="10">
+        <v>1</v>
+      </c>
+      <c r="D53" s="10">
+        <v>50</v>
+      </c>
+      <c r="E53" s="10">
+        <v>60</v>
+      </c>
+      <c r="F53" s="10">
+        <v>15</v>
+      </c>
+      <c r="G53" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H53" s="10">
+        <v>401</v>
+      </c>
+      <c r="I53" s="10">
+        <v>505</v>
+      </c>
+      <c r="J53" s="10">
+        <v>40</v>
+      </c>
+      <c r="K53" s="11">
+        <v>1</v>
+      </c>
+      <c r="L53" s="12">
+        <v>5000</v>
+      </c>
+      <c r="M53" s="10">
+        <v>2000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8FABB6-B12D-4D0B-ADBA-E809D3A5F66E}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -709,419 +3186,186 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="104.875" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="104.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5409F1B1-0956-4B26-ACA9-55F5DBAB54F5}">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="21.75" customWidth="1"/>
-    <col min="8" max="8" width="17.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>27</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
         <v>13</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>30</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1132,130 +3376,596 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5409F1B1-0956-4B26-ACA9-55F5DBAB54F5}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="8.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.58203125" customWidth="1"/>
+    <col min="4" max="4" width="14.4140625" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A4" s="14">
+        <v>401</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15">
+        <v>2</v>
+      </c>
+      <c r="E4" s="15">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A5" s="16">
+        <v>402</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17">
+        <v>2</v>
+      </c>
+      <c r="E5" s="17">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A6" s="16">
+        <v>403</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17">
+        <v>2</v>
+      </c>
+      <c r="E6" s="17">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A7" s="16">
+        <v>404</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17">
+        <v>2</v>
+      </c>
+      <c r="E7" s="17">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A8" s="16">
+        <v>405</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17">
+        <v>2</v>
+      </c>
+      <c r="E8" s="17">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A9" s="16">
+        <v>406</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="17">
+        <v>1</v>
+      </c>
+      <c r="D9" s="17">
+        <v>2</v>
+      </c>
+      <c r="E9" s="17">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A10" s="16">
+        <v>407</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="17">
+        <v>1</v>
+      </c>
+      <c r="D10" s="17">
+        <v>2</v>
+      </c>
+      <c r="E10" s="17">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A11" s="16">
+        <v>408</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17">
+        <v>2</v>
+      </c>
+      <c r="E11" s="17">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A12" s="16">
+        <v>409</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="17">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17">
+        <v>2</v>
+      </c>
+      <c r="E12" s="17">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A13" s="16">
+        <v>410</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="17">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17">
+        <v>2</v>
+      </c>
+      <c r="E13" s="17">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B13BC7-908D-4893-B4AD-1079229E5F6F}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A4" s="14">
+        <v>501</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15">
+        <v>10</v>
+      </c>
+      <c r="E4" s="15">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A5" s="16">
+        <v>502</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17">
+        <v>10</v>
+      </c>
+      <c r="E5" s="17">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A6" s="16">
+        <v>503</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17">
+        <v>10</v>
+      </c>
+      <c r="E6" s="17">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A7" s="16">
+        <v>504</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17">
+        <v>10</v>
+      </c>
+      <c r="E7" s="17">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A8" s="16">
+        <v>505</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17">
+        <v>10</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40025AE-C7D8-4357-9319-EFD6B75D65B3}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" customWidth="1"/>
     <col min="2" max="2" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3">
         <v>20</v>
@@ -1264,7 +3974,7 @@
         <v>-15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>-10</v>
@@ -1279,15 +3989,15 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D5" s="3">
         <v>20</v>
@@ -1296,7 +4006,7 @@
         <v>-15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G5">
         <v>-10</v>
@@ -1311,15 +4021,15 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>3003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D6" s="3">
         <v>20</v>
@@ -1328,7 +4038,7 @@
         <v>-15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G6">
         <v>-10</v>
@@ -1343,15 +4053,15 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>3004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D7" s="3">
         <v>20</v>
@@ -1360,7 +4070,7 @@
         <v>-15</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G7">
         <v>-10</v>
@@ -1375,15 +4085,15 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>3005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D8" s="3">
         <v>20</v>
@@ -1392,7 +4102,7 @@
         <v>-15</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G8">
         <v>-10</v>
@@ -1407,15 +4117,15 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>3006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D9" s="3">
         <v>20</v>
@@ -1424,7 +4134,7 @@
         <v>-15</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G9">
         <v>-10</v>
@@ -1439,15 +4149,15 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>3007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D10" s="3">
         <v>20</v>
@@ -1456,7 +4166,7 @@
         <v>-15</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G10">
         <v>-10</v>
@@ -1471,15 +4181,15 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>3008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3">
         <v>20</v>
@@ -1488,7 +4198,7 @@
         <v>-15</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G11">
         <v>-10</v>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Portfolio\Oilnam\RawData\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46121667-A6DC-4D0B-AD8C-3F76981C9069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257CB841-604B-4B7A-A69D-B999AF33ED03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="880" windowWidth="19200" windowHeight="11170" activeTab="3" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -988,15 +988,14 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="11.58203125" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.9140625" customWidth="1"/>
+    <col min="5" max="6" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
-    <col min="12" max="12" width="10.9140625" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1081,7 +1080,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17" customHeight="1">
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
@@ -3186,10 +3185,10 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="104.83203125" customWidth="1"/>
-    <col min="3" max="3" width="7.08203125" customWidth="1"/>
+    <col min="2" max="2" width="104.875" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3383,12 +3382,12 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" customWidth="1"/>
-    <col min="3" max="3" width="22.58203125" customWidth="1"/>
-    <col min="4" max="4" width="14.4140625" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3432,7 +3431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.5" thickBot="1">
+    <row r="3" spans="1:6" ht="17.25" thickBot="1">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -3452,7 +3451,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.5" thickBot="1">
+    <row r="4" spans="1:6" ht="17.25" thickBot="1">
       <c r="A4" s="14">
         <v>401</v>
       </c>
@@ -3472,7 +3471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.5" thickBot="1">
+    <row r="5" spans="1:6" ht="17.25" thickBot="1">
       <c r="A5" s="16">
         <v>402</v>
       </c>
@@ -3492,7 +3491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.5" thickBot="1">
+    <row r="6" spans="1:6" ht="17.25" thickBot="1">
       <c r="A6" s="16">
         <v>403</v>
       </c>
@@ -3512,7 +3511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.5" thickBot="1">
+    <row r="7" spans="1:6" ht="17.25" thickBot="1">
       <c r="A7" s="16">
         <v>404</v>
       </c>
@@ -3532,7 +3531,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.5" thickBot="1">
+    <row r="8" spans="1:6" ht="17.25" thickBot="1">
       <c r="A8" s="16">
         <v>405</v>
       </c>
@@ -3552,7 +3551,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.5" thickBot="1">
+    <row r="9" spans="1:6" ht="17.25" thickBot="1">
       <c r="A9" s="16">
         <v>406</v>
       </c>
@@ -3572,7 +3571,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.5" thickBot="1">
+    <row r="10" spans="1:6" ht="17.25" thickBot="1">
       <c r="A10" s="16">
         <v>407</v>
       </c>
@@ -3592,7 +3591,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.5" thickBot="1">
+    <row r="11" spans="1:6" ht="17.25" thickBot="1">
       <c r="A11" s="16">
         <v>408</v>
       </c>
@@ -3612,7 +3611,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.5" thickBot="1">
+    <row r="12" spans="1:6" ht="17.25" thickBot="1">
       <c r="A12" s="16">
         <v>409</v>
       </c>
@@ -3632,7 +3631,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.5" thickBot="1">
+    <row r="13" spans="1:6" ht="17.25" thickBot="1">
       <c r="A13" s="16">
         <v>410</v>
       </c>
@@ -3663,16 +3662,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B13BC7-908D-4893-B4AD-1079229E5F6F}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.58203125" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3715,7 +3714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.5" thickBot="1">
+    <row r="3" spans="1:6" ht="17.25" thickBot="1">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -3735,7 +3734,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.5" thickBot="1">
+    <row r="4" spans="1:6" ht="17.25" thickBot="1">
       <c r="A4" s="14">
         <v>501</v>
       </c>
@@ -3755,7 +3754,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.5" thickBot="1">
+    <row r="5" spans="1:6" ht="17.25" thickBot="1">
       <c r="A5" s="16">
         <v>502</v>
       </c>
@@ -3775,7 +3774,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.5" thickBot="1">
+    <row r="6" spans="1:6" ht="17.25" thickBot="1">
       <c r="A6" s="16">
         <v>503</v>
       </c>
@@ -3795,7 +3794,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.5" thickBot="1">
+    <row r="7" spans="1:6" ht="17.25" thickBot="1">
       <c r="A7" s="16">
         <v>504</v>
       </c>
@@ -3815,7 +3814,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.5" thickBot="1">
+    <row r="8" spans="1:6" ht="17.25" thickBot="1">
       <c r="A8" s="16">
         <v>505</v>
       </c>
@@ -3845,19 +3844,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40025AE-C7D8-4357-9319-EFD6B75D65B3}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="2" max="2" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257CB841-604B-4B7A-A69D-B999AF33ED03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17800A81-A8A3-4374-ACCA-83E6646CFFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="132">
   <si>
     <t>Name</t>
   </si>
@@ -209,52 +209,31 @@
     <t>그러지마</t>
   </si>
   <si>
-    <t>참아봐 아니면 다시 한 번 잘 생각해봐</t>
-  </si>
-  <si>
     <t>오늘 저녁은 뭐야?</t>
   </si>
   <si>
     <t>그러게?</t>
   </si>
   <si>
-    <t>아빠도 아직 몰라요</t>
-  </si>
-  <si>
     <t>아빠, 나 아빠랑 결혼하고싶어 나랑 결혼하자!</t>
   </si>
   <si>
-    <t>쓰읍... 아닐걸? 다시 한번 잘 생각해봐</t>
-  </si>
-  <si>
-    <t>아빠는 두번 하고 싶지 않아...</t>
-  </si>
-  <si>
     <t>아빠! 아빠는 내가 뭐 할때 제일 좋아?</t>
   </si>
   <si>
     <t>어 그냥 다~~</t>
   </si>
   <si>
-    <t>잘 때!!!!!!!!!!!!!!!!!!!!!!!!</t>
-  </si>
-  <si>
     <t>아빠 나 오늘 친구랑 싸웠어...ㅠㅠ</t>
   </si>
   <si>
     <t>이겼냐?</t>
   </si>
   <si>
-    <t>아빠도 지금 마물이랑 싸우고 있다.</t>
-  </si>
-  <si>
     <t>아빠 나 오늘 상탔어!! 어떤데! 히히</t>
   </si>
   <si>
     <t>내딸이니까</t>
-  </si>
-  <si>
-    <t>잘했다. 역시 날 닮았군</t>
   </si>
   <si>
     <t>&amp;&amp;전 세계에 균열이 발생했다.</t>
@@ -448,6 +427,86 @@
   </si>
   <si>
     <t>Boss/Boss05</t>
+  </si>
+  <si>
+    <t>Info1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 20% ▲</t>
+  </si>
+  <si>
+    <t>다음 WAVE만 적용</t>
+  </si>
+  <si>
+    <t>공격력 2% ▲
+마물 이동속도 2% ▼
+보스 이동속도 2% ▼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Answer3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-무시-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰읍... 아닐걸?
+다시 한번
+잘 생각해봐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참아봐
+아니면
+다시 한 번
+잘 생각해봐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠도
+아직 몰라요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠는
+두번 하고
+싶지 않아…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘 때
+!!!!!!!!!!!!!!!!!!!!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠도
+지금 마물이랑
+싸우고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘했다.
+역시 날 닮았군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -613,7 +672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -667,6 +726,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1003,40 +1068,40 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>80</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>82</v>
-      </c>
-      <c r="G1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1085,40 +1150,40 @@
         <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3240,7 +3305,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -3251,7 +3316,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -3262,7 +3327,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -3273,7 +3338,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -3284,7 +3349,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -3339,7 +3404,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -3350,7 +3415,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
@@ -3556,7 +3621,7 @@
         <v>406</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C9" s="17">
         <v>1</v>
@@ -3568,7 +3633,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" thickBot="1">
@@ -3576,7 +3641,7 @@
         <v>407</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C10" s="17">
         <v>1</v>
@@ -3588,7 +3653,7 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1">
@@ -3596,7 +3661,7 @@
         <v>408</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C11" s="17">
         <v>1</v>
@@ -3608,7 +3673,7 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" thickBot="1">
@@ -3616,7 +3681,7 @@
         <v>409</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C12" s="17">
         <v>1</v>
@@ -3628,7 +3693,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1">
@@ -3636,7 +3701,7 @@
         <v>410</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C13" s="17">
         <v>1</v>
@@ -3648,7 +3713,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3731,7 +3796,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1">
@@ -3739,7 +3804,7 @@
         <v>501</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C4" s="15">
         <v>1</v>
@@ -3751,7 +3816,7 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickBot="1">
@@ -3759,7 +3824,7 @@
         <v>502</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C5" s="17">
         <v>1</v>
@@ -3771,7 +3836,7 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" thickBot="1">
@@ -3779,7 +3844,7 @@
         <v>503</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C6" s="17">
         <v>1</v>
@@ -3791,7 +3856,7 @@
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickBot="1">
@@ -3799,7 +3864,7 @@
         <v>504</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C7" s="17">
         <v>1</v>
@@ -3811,7 +3876,7 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" thickBot="1">
@@ -3819,7 +3884,7 @@
         <v>505</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C8" s="17">
         <v>1</v>
@@ -3831,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3842,25 +3907,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40025AE-C7D8-4357-9319-EFD6B75D65B3}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="2" max="2" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3868,31 +3938,46 @@
         <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3900,31 +3985,46 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -3932,31 +4032,46 @@
         <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="82.5">
       <c r="A4">
         <v>3001</v>
       </c>
@@ -3964,31 +4079,46 @@
         <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="3">
+      <c r="F4" s="3">
         <v>20</v>
       </c>
-      <c r="E4" s="3">
+      <c r="G4" s="3">
         <v>-15</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>-10</v>
       </c>
-      <c r="H4" s="3">
+      <c r="K4" s="3">
         <v>20</v>
       </c>
-      <c r="I4">
-        <v>30</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="L4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="N4">
+        <v>30</v>
+      </c>
+      <c r="O4" s="3">
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:15" ht="82.5">
       <c r="A5">
         <v>3002</v>
       </c>
@@ -3996,31 +4126,46 @@
         <v>46</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="3">
+      <c r="F5" s="3">
         <v>20</v>
       </c>
-      <c r="E5" s="3">
+      <c r="G5" s="3">
         <v>-15</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="H5" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>-10</v>
       </c>
-      <c r="H5" s="3">
+      <c r="K5" s="3">
         <v>20</v>
       </c>
-      <c r="I5">
-        <v>30</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="L5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="N5">
+        <v>30</v>
+      </c>
+      <c r="O5" s="3">
         <v>-15</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:15" ht="82.5">
       <c r="A6">
         <v>3003</v>
       </c>
@@ -4028,187 +4173,277 @@
         <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="3">
+      <c r="F6" s="3">
         <v>20</v>
       </c>
-      <c r="E6" s="3">
+      <c r="G6" s="3">
         <v>-15</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6">
+      <c r="H6" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6">
         <v>-10</v>
       </c>
-      <c r="H6" s="3">
+      <c r="K6" s="3">
         <v>20</v>
       </c>
-      <c r="I6">
-        <v>30</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="L6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="N6">
+        <v>30</v>
+      </c>
+      <c r="O6" s="3">
         <v>-15</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:15" ht="82.5">
       <c r="A7">
         <v>3004</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="F7" s="3">
         <v>20</v>
       </c>
-      <c r="E7" s="3">
+      <c r="G7" s="3">
         <v>-15</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7">
+      <c r="H7" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7">
         <v>-10</v>
       </c>
-      <c r="H7" s="3">
+      <c r="K7" s="3">
         <v>20</v>
       </c>
-      <c r="I7">
-        <v>30</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="L7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="N7">
+        <v>30</v>
+      </c>
+      <c r="O7" s="3">
         <v>-15</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:15" ht="82.5">
       <c r="A8">
         <v>3005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="3">
+        <v>117</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="3">
         <v>20</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>-15</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8">
+      <c r="H8" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8">
         <v>-10</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>20</v>
       </c>
-      <c r="I8">
-        <v>30</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="N8">
+        <v>30</v>
+      </c>
+      <c r="O8" s="3">
         <v>-15</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:15" ht="82.5">
       <c r="A9">
         <v>3006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="3">
+        <v>117</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="3">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>-15</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9">
+      <c r="H9" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9">
         <v>-10</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>20</v>
       </c>
-      <c r="I9">
-        <v>30</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="N9">
+        <v>30</v>
+      </c>
+      <c r="O9" s="3">
         <v>-15</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:15" ht="82.5">
       <c r="A10">
         <v>3007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="3">
+        <v>117</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>-15</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10">
+      <c r="H10" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10">
         <v>-10</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>20</v>
       </c>
-      <c r="I10">
-        <v>30</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="N10">
+        <v>30</v>
+      </c>
+      <c r="O10" s="3">
         <v>-15</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:15" ht="82.5">
       <c r="A11">
         <v>3008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="3">
+        <v>117</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="3">
         <v>20</v>
       </c>
-      <c r="E11" s="3">
+      <c r="G11" s="3">
         <v>-15</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11">
+      <c r="H11" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11">
         <v>-10</v>
       </c>
-      <c r="H11" s="3">
+      <c r="K11" s="3">
         <v>20</v>
       </c>
-      <c r="I11">
-        <v>30</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="L11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="N11">
+        <v>30</v>
+      </c>
+      <c r="O11" s="3">
         <v>-15</v>
       </c>
     </row>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17800A81-A8A3-4374-ACCA-83E6646CFFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5264E174-AF7A-4791-B899-F406C183A5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="137">
   <si>
     <t>Name</t>
   </si>
@@ -191,18 +191,12 @@
     <t>이따가</t>
   </si>
   <si>
-    <t>6시 퇴근인데 퇴근 시켜줘</t>
-  </si>
-  <si>
     <t>아빠 나 오늘 고백받았다&gt;&lt;</t>
   </si>
   <si>
     <t>보이스피싱임</t>
   </si>
   <si>
-    <t>너 이제 교회 나오라고 함</t>
-  </si>
-  <si>
     <t>아빠 사랑해요!!</t>
   </si>
   <si>
@@ -215,12 +209,6 @@
     <t>그러게?</t>
   </si>
   <si>
-    <t>아빠, 나 아빠랑 결혼하고싶어 나랑 결혼하자!</t>
-  </si>
-  <si>
-    <t>아빠! 아빠는 내가 뭐 할때 제일 좋아?</t>
-  </si>
-  <si>
     <t>어 그냥 다~~</t>
   </si>
   <si>
@@ -228,9 +216,6 @@
   </si>
   <si>
     <t>이겼냐?</t>
-  </si>
-  <si>
-    <t>아빠 나 오늘 상탔어!! 어떤데! 히히</t>
   </si>
   <si>
     <t>내딸이니까</t>
@@ -466,12 +451,6 @@
   </si>
   <si>
     <t>-무시-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰읍... 아닐걸?
-다시 한번
-잘 생각해봐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -506,6 +485,57 @@
   <si>
     <t>잘했다.
 역시 날 닮았군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답장하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무시하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6시 퇴근인데
+퇴근 시켜줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 이제
+교회 나오라고 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠, 나 아빠랑 결혼하고싶어
+나랑 결혼하자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠!
+아빠는 내가 뭐 할때 제일 좋아?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠 나 오늘 상탔어!!
+어떤데! 히히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰읍... 아닐걸?
+다시 한 번
+잘 생각해봐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,40 +1098,40 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>74</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>76</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1150,40 +1180,40 @@
         <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3305,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -3316,7 +3346,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -3327,7 +3357,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -3338,7 +3368,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -3349,7 +3379,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -3404,7 +3434,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -3415,7 +3445,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
@@ -3621,7 +3651,7 @@
         <v>406</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C9" s="17">
         <v>1</v>
@@ -3633,7 +3663,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" thickBot="1">
@@ -3641,7 +3671,7 @@
         <v>407</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C10" s="17">
         <v>1</v>
@@ -3653,7 +3683,7 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1">
@@ -3661,7 +3691,7 @@
         <v>408</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C11" s="17">
         <v>1</v>
@@ -3673,7 +3703,7 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" thickBot="1">
@@ -3681,7 +3711,7 @@
         <v>409</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C12" s="17">
         <v>1</v>
@@ -3693,7 +3723,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1">
@@ -3701,7 +3731,7 @@
         <v>410</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C13" s="17">
         <v>1</v>
@@ -3713,7 +3743,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3796,7 +3826,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1">
@@ -3804,7 +3834,7 @@
         <v>501</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C4" s="15">
         <v>1</v>
@@ -3816,7 +3846,7 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickBot="1">
@@ -3824,7 +3854,7 @@
         <v>502</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C5" s="17">
         <v>1</v>
@@ -3836,7 +3866,7 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" thickBot="1">
@@ -3844,7 +3874,7 @@
         <v>503</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C6" s="17">
         <v>1</v>
@@ -3856,7 +3886,7 @@
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickBot="1">
@@ -3864,7 +3894,7 @@
         <v>504</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C7" s="17">
         <v>1</v>
@@ -3876,7 +3906,7 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" thickBot="1">
@@ -3884,7 +3914,7 @@
         <v>505</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C8" s="17">
         <v>1</v>
@@ -3896,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3907,30 +3937,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40025AE-C7D8-4357-9319-EFD6B75D65B3}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3938,46 +3970,55 @@
         <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>118</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4006,25 +4047,34 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
       </c>
       <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
         <v>2</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -4032,46 +4082,55 @@
         <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="82.5">
+        <v>118</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="49.5">
       <c r="A4">
         <v>3001</v>
       </c>
@@ -4079,10 +4138,10 @@
         <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>44</v>
@@ -4093,46 +4152,55 @@
       <c r="G4" s="3">
         <v>-15</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4">
+        <v>-10</v>
+      </c>
+      <c r="L4" s="3">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O4" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4">
-        <v>-10</v>
-      </c>
-      <c r="K4" s="3">
-        <v>20</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="N4">
-        <v>30</v>
-      </c>
-      <c r="O4" s="3">
+      <c r="P4">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="3">
         <v>-15</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="82.5">
+      <c r="R4" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="49.5">
       <c r="A5">
         <v>3002</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="F5" s="3">
         <v>20</v>
@@ -4140,46 +4208,55 @@
       <c r="G5" s="3">
         <v>-15</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5">
+        <v>-10</v>
+      </c>
+      <c r="L5" s="3">
+        <v>20</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O5" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5">
-        <v>-10</v>
-      </c>
-      <c r="K5" s="3">
-        <v>20</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="N5">
-        <v>30</v>
-      </c>
-      <c r="O5" s="3">
+      <c r="P5">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="3">
         <v>-15</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="82.5">
+      <c r="R5" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="66">
       <c r="A6">
         <v>3003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F6" s="3">
         <v>20</v>
@@ -4187,46 +4264,55 @@
       <c r="G6" s="3">
         <v>-15</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6">
+        <v>-10</v>
+      </c>
+      <c r="L6" s="3">
+        <v>20</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O6" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="J6">
-        <v>-10</v>
-      </c>
-      <c r="K6" s="3">
-        <v>20</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="N6">
-        <v>30</v>
-      </c>
-      <c r="O6" s="3">
+      <c r="P6">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="3">
         <v>-15</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="82.5">
+      <c r="R6" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="49.5">
       <c r="A7">
         <v>3004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F7" s="3">
         <v>20</v>
@@ -4234,46 +4320,55 @@
       <c r="G7" s="3">
         <v>-15</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7">
+        <v>-10</v>
+      </c>
+      <c r="L7" s="3">
+        <v>20</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="J7">
-        <v>-10</v>
-      </c>
-      <c r="K7" s="3">
-        <v>20</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="N7">
-        <v>30</v>
-      </c>
-      <c r="O7" s="3">
+      <c r="P7">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="3">
         <v>-15</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="82.5">
+      <c r="R7" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="49.5">
       <c r="A8">
         <v>3005</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>53</v>
+      <c r="B8" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F8" s="3">
         <v>20</v>
@@ -4281,46 +4376,55 @@
       <c r="G8" s="3">
         <v>-15</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="K8">
+        <v>-10</v>
+      </c>
+      <c r="L8" s="3">
+        <v>20</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="J8">
-        <v>-10</v>
-      </c>
-      <c r="K8" s="3">
-        <v>20</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="N8">
-        <v>30</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="P8">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="3">
         <v>-15</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="82.5">
+      <c r="R8" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="49.5">
       <c r="A9">
         <v>3006</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>54</v>
+      <c r="B9" s="18" t="s">
+        <v>134</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F9" s="3">
         <v>20</v>
@@ -4328,46 +4432,55 @@
       <c r="G9" s="3">
         <v>-15</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9">
+        <v>-10</v>
+      </c>
+      <c r="L9" s="3">
+        <v>20</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="J9">
-        <v>-10</v>
-      </c>
-      <c r="K9" s="3">
-        <v>20</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="N9">
-        <v>30</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="P9">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="3">
         <v>-15</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="82.5">
+      <c r="R9" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="49.5">
       <c r="A10">
         <v>3007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F10" s="3">
         <v>20</v>
@@ -4375,46 +4488,55 @@
       <c r="G10" s="3">
         <v>-15</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10">
+        <v>-10</v>
+      </c>
+      <c r="L10" s="3">
+        <v>20</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="P10">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-15</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J10">
-        <v>-10</v>
-      </c>
-      <c r="K10" s="3">
-        <v>20</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="N10">
-        <v>30</v>
-      </c>
-      <c r="O10" s="3">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="82.5">
+    </row>
+    <row r="11" spans="1:18" ht="49.5">
       <c r="A11">
         <v>3008</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>58</v>
+      <c r="B11" s="18" t="s">
+        <v>135</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F11" s="3">
         <v>20</v>
@@ -4422,29 +4544,38 @@
       <c r="G11" s="3">
         <v>-15</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11">
+        <v>-10</v>
+      </c>
+      <c r="L11" s="3">
+        <v>20</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="I11" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J11">
-        <v>-10</v>
-      </c>
-      <c r="K11" s="3">
-        <v>20</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="N11">
-        <v>30</v>
-      </c>
-      <c r="O11" s="3">
+      <c r="P11">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="3">
         <v>-15</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5264E174-AF7A-4791-B899-F406C183A5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0E358A-15AF-442B-9292-3181E1B8214C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -81,21 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>큰 계약금을 제시하여 계약금에 홀린 헌터들을 협회에 묶어놓은 다음, 거액의 빚을 지게 하는 계약.</t>
-  </si>
-  <si>
-    <t>그래서 나는 그 빚을 갚기 위해 매일매일을 싸움터에서 뛰어다녀야 한다…</t>
-  </si>
-  <si>
-    <t>나에게는 아내를 똑 닮은 딸이 하나 있는데 매일 일하느라 엄마의 빈자리를 채워주지 못해서 미안하다…</t>
-  </si>
-  <si>
-    <t>하지만 빚을 갚기 위해서라도 계속 일을 해야 한다.</t>
-  </si>
-  <si>
-    <t>하…귀찮네…</t>
-  </si>
-  <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,34 +204,6 @@
   </si>
   <si>
     <t>내딸이니까</t>
-  </si>
-  <si>
-    <t>&amp;&amp;전 세계에 균열이 발생했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차원 간의 균열이 열리며&amp;튀어나온 온갖 마물들은&amp;그야말로 자연재해였다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만,&amp;인류는 멸망하지 않았다.&amp;&amp;균열에서 새어 나오는 마나를 받아들여 특별한 힘을 지니게 된 사람들 덕분이었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 바로 그 힘을 가진&amp;'헌터'다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 협회에 소속된 헌터다.&amp;그것도....&amp;헌터에 관련된 계약에 허점이 많은 시절에 계약하여 노예와 다름 없는 계약...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(사이렌 소리)하… 또 균열이 발생했다.&amp;뭔 놈의 마물이 이렇게 하루가 멀다 하고 매일 나오는지 지겹다 지겨워…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(전화벨소리)왜?&amp;(중얼거리며) 아니...학교에서 필요한 준비물이 있는데..&amp;귀찮게 연락하지 말고, 카드로 사&amp;(뚝 끊음)&amp;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Energy1</t>
@@ -536,6 +493,87 @@
     <t>쓰읍... 아닐걸?
 다시 한 번
 잘 생각해봐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+전 세계에 균열이 발생했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 바로
+그 힘을 가진
+'헌터'다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 협회에 소속된 헌터다.
+그것도....
+헌터에 관련된 계약에
+허점이 많은 시절에 계약하여
+노예와 다름 없는 계약…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 계약금을 제시하여
+계약금에 홀린 헌터들을
+협회에 묶어놓은 다음,
+거액의 빚을 지게 하는 계약.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 그 빚을 갚기 위해
+매일매일을 싸움터에서
+뛰어다녀야 한다…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나에게는
+아내를 똑 닮은 딸이 하나 있는데
+매일 일하느라 엄마의 빈자리를
+채워주지 못해서 미안하다…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 빚을 갚기 위해서
+계속 일은 해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(사이렌 소리)
+하…
+또 균열이 발생했다.
+뭔 놈의 마물이
+이렇게 하루가 멀다 하고
+매일 나오는지…
+지겹다 지겨워…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(전화벨소리)왜?
+(중얼거리며) 아빠...학교에서 필요한 준비물이 있는데..
+귀찮게 연락하지 말고,
+카드로 사
+(뚝 끊음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하… 다 귀찮네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차원 간의 균열이 열리며
+튀어나온 온갖 마물들은
+그야말로
+자연재해
+그 자체였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만,
+인류는 멸망하지 않았다.
+균열에서 새어 나오는 마나를 받아들여
+특별한 힘을 지니게 된 사람들 덕분이었다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +740,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -762,6 +800,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1095,125 +1136,125 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="L1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="M1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="I3" s="5" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3276,8 +3317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8FABB6-B12D-4D0B-ADBA-E809D3A5F66E}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3288,7 +3329,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -3299,13 +3340,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3330,122 +3371,122 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="49.5">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>55</v>
+      <c r="B5" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="82.5">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>56</v>
+      <c r="B6" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="82.5">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>57</v>
+      <c r="B7" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="49.5">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>58</v>
+      <c r="B8" s="20" t="s">
+        <v>126</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="82.5">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>59</v>
+      <c r="B9" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="66">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
+      <c r="B10" s="20" t="s">
+        <v>128</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="49.5">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
+      <c r="B11" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="66">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
-        <v>17</v>
+      <c r="B12" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="33">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
-        <v>18</v>
+      <c r="B13" s="20" t="s">
+        <v>131</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="115.5">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
-        <v>60</v>
+      <c r="B14" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="82.5">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
-        <v>61</v>
+      <c r="B15" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
@@ -3456,7 +3497,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
@@ -3488,22 +3529,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3528,22 +3569,22 @@
     </row>
     <row r="3" spans="1:6" ht="17.25" thickBot="1">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1">
@@ -3563,7 +3604,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickBot="1">
@@ -3583,7 +3624,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" thickBot="1">
@@ -3603,7 +3644,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickBot="1">
@@ -3623,7 +3664,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" thickBot="1">
@@ -3643,7 +3684,7 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1">
@@ -3651,7 +3692,7 @@
         <v>406</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C9" s="17">
         <v>1</v>
@@ -3663,7 +3704,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" thickBot="1">
@@ -3671,7 +3712,7 @@
         <v>407</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C10" s="17">
         <v>1</v>
@@ -3683,7 +3724,7 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1">
@@ -3691,7 +3732,7 @@
         <v>408</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C11" s="17">
         <v>1</v>
@@ -3703,7 +3744,7 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" thickBot="1">
@@ -3711,7 +3752,7 @@
         <v>409</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C12" s="17">
         <v>1</v>
@@ -3723,7 +3764,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1">
@@ -3731,7 +3772,7 @@
         <v>410</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C13" s="17">
         <v>1</v>
@@ -3743,7 +3784,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3771,22 +3812,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3811,22 +3852,22 @@
     </row>
     <row r="3" spans="1:6" ht="17.25" thickBot="1">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1">
@@ -3834,7 +3875,7 @@
         <v>501</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C4" s="15">
         <v>1</v>
@@ -3846,7 +3887,7 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickBot="1">
@@ -3854,7 +3895,7 @@
         <v>502</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C5" s="17">
         <v>1</v>
@@ -3866,7 +3907,7 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" thickBot="1">
@@ -3874,7 +3915,7 @@
         <v>503</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C6" s="17">
         <v>1</v>
@@ -3886,7 +3927,7 @@
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickBot="1">
@@ -3894,7 +3935,7 @@
         <v>504</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C7" s="17">
         <v>1</v>
@@ -3906,7 +3947,7 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" thickBot="1">
@@ -3914,7 +3955,7 @@
         <v>505</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C8" s="17">
         <v>1</v>
@@ -3926,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3939,7 +3980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40025AE-C7D8-4357-9319-EFD6B75D65B3}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -3964,58 +4005,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="N1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -4023,108 +4064,108 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="R2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>10</v>
@@ -4135,16 +4176,16 @@
         <v>3001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3">
         <v>20</v>
@@ -4153,13 +4194,13 @@
         <v>-15</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K4">
         <v>-10</v>
@@ -4168,13 +4209,13 @@
         <v>20</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="P4">
         <v>30</v>
@@ -4183,7 +4224,7 @@
         <v>-15</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="49.5">
@@ -4191,16 +4232,16 @@
         <v>3002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F5" s="3">
         <v>20</v>
@@ -4209,13 +4250,13 @@
         <v>-15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K5">
         <v>-10</v>
@@ -4224,13 +4265,13 @@
         <v>20</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="P5">
         <v>30</v>
@@ -4239,7 +4280,7 @@
         <v>-15</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="66">
@@ -4247,16 +4288,16 @@
         <v>3003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3">
         <v>20</v>
@@ -4265,13 +4306,13 @@
         <v>-15</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="K6">
         <v>-10</v>
@@ -4280,13 +4321,13 @@
         <v>20</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="P6">
         <v>30</v>
@@ -4295,7 +4336,7 @@
         <v>-15</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="49.5">
@@ -4303,16 +4344,16 @@
         <v>3004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F7" s="3">
         <v>20</v>
@@ -4321,13 +4362,13 @@
         <v>-15</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="K7">
         <v>-10</v>
@@ -4336,13 +4377,13 @@
         <v>20</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="P7">
         <v>30</v>
@@ -4351,7 +4392,7 @@
         <v>-15</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="49.5">
@@ -4359,16 +4400,16 @@
         <v>3005</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F8" s="3">
         <v>20</v>
@@ -4377,13 +4418,13 @@
         <v>-15</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K8">
         <v>-10</v>
@@ -4392,13 +4433,13 @@
         <v>20</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="P8">
         <v>30</v>
@@ -4407,7 +4448,7 @@
         <v>-15</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="49.5">
@@ -4415,16 +4456,16 @@
         <v>3006</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F9" s="3">
         <v>20</v>
@@ -4433,13 +4474,13 @@
         <v>-15</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="K9">
         <v>-10</v>
@@ -4448,13 +4489,13 @@
         <v>20</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="P9">
         <v>30</v>
@@ -4463,7 +4504,7 @@
         <v>-15</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="49.5">
@@ -4471,16 +4512,16 @@
         <v>3007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F10" s="3">
         <v>20</v>
@@ -4489,13 +4530,13 @@
         <v>-15</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="K10">
         <v>-10</v>
@@ -4504,13 +4545,13 @@
         <v>20</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="P10">
         <v>30</v>
@@ -4519,7 +4560,7 @@
         <v>-15</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="49.5">
@@ -4527,16 +4568,16 @@
         <v>3008</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F11" s="3">
         <v>20</v>
@@ -4545,13 +4586,13 @@
         <v>-15</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K11">
         <v>-10</v>
@@ -4560,13 +4601,13 @@
         <v>20</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="P11">
         <v>30</v>
@@ -4575,7 +4616,7 @@
         <v>-15</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0E358A-15AF-442B-9292-3181E1B8214C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36379A7-9C58-4FE4-8CA0-65CA0BA0BF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="132">
   <si>
     <t>Name</t>
   </si>
@@ -442,26 +442,6 @@
   <si>
     <t>잘했다.
 역시 날 닮았군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답장하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무시하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3317,7 +3297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8FABB6-B12D-4D0B-ADBA-E809D3A5F66E}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3376,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -3387,7 +3367,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -3398,7 +3378,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -3409,7 +3389,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -3420,7 +3400,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -3431,7 +3411,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -3442,7 +3422,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
@@ -3453,7 +3433,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
@@ -3464,7 +3444,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -3475,7 +3455,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -3486,7 +3466,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
@@ -3497,7 +3477,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
@@ -3978,10 +3958,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40025AE-C7D8-4357-9319-EFD6B75D65B3}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3993,17 +3973,15 @@
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4026,40 +4004,31 @@
         <v>35</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4088,34 +4057,25 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
         <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4138,40 +4098,31 @@
         <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="49.5">
+    </row>
+    <row r="4" spans="1:15" ht="49.5">
       <c r="A4">
         <v>3001</v>
       </c>
@@ -4193,41 +4144,32 @@
       <c r="G4" s="3">
         <v>-15</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="K4">
+      <c r="J4">
         <v>-10</v>
       </c>
-      <c r="L4" s="3">
+      <c r="K4" s="3">
         <v>20</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="M4" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="P4">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="3">
+      <c r="N4">
+        <v>30</v>
+      </c>
+      <c r="O4" s="3">
         <v>-15</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="49.5">
+    </row>
+    <row r="5" spans="1:15" ht="49.5">
       <c r="A5">
         <v>3002</v>
       </c>
@@ -4249,41 +4191,32 @@
       <c r="G5" s="3">
         <v>-15</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>114</v>
+      <c r="H5" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="K5">
+        <v>115</v>
+      </c>
+      <c r="J5">
         <v>-10</v>
       </c>
-      <c r="L5" s="3">
+      <c r="K5" s="3">
         <v>20</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="M5" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="P5">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="3">
+      <c r="N5">
+        <v>30</v>
+      </c>
+      <c r="O5" s="3">
         <v>-15</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="66">
+    </row>
+    <row r="6" spans="1:15" ht="66">
       <c r="A6">
         <v>3003</v>
       </c>
@@ -4305,41 +4238,32 @@
       <c r="G6" s="3">
         <v>-15</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>114</v>
+      <c r="H6" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J6" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="K6">
+      <c r="J6">
         <v>-10</v>
       </c>
-      <c r="L6" s="3">
+      <c r="K6" s="3">
         <v>20</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="M6" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="P6">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="3">
+      <c r="N6">
+        <v>30</v>
+      </c>
+      <c r="O6" s="3">
         <v>-15</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="49.5">
+    </row>
+    <row r="7" spans="1:15" ht="49.5">
       <c r="A7">
         <v>3004</v>
       </c>
@@ -4361,46 +4285,37 @@
       <c r="G7" s="3">
         <v>-15</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>114</v>
+      <c r="H7" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="K7">
+      <c r="J7">
         <v>-10</v>
       </c>
-      <c r="L7" s="3">
+      <c r="K7" s="3">
         <v>20</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="M7" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="P7">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="3">
+      <c r="N7">
+        <v>30</v>
+      </c>
+      <c r="O7" s="3">
         <v>-15</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="49.5">
+    </row>
+    <row r="8" spans="1:15" ht="49.5">
       <c r="A8">
         <v>3005</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>100</v>
@@ -4409,7 +4324,7 @@
         <v>101</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F8" s="3">
         <v>20</v>
@@ -4417,46 +4332,37 @@
       <c r="G8" s="3">
         <v>-15</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>114</v>
+      <c r="H8" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J8" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="K8">
+      <c r="J8">
         <v>-10</v>
       </c>
-      <c r="L8" s="3">
+      <c r="K8" s="3">
         <v>20</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="M8" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="P8">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="N8">
+        <v>30</v>
+      </c>
+      <c r="O8" s="3">
         <v>-15</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="49.5">
+    </row>
+    <row r="9" spans="1:15" ht="49.5">
       <c r="A9">
         <v>3006</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>100</v>
@@ -4473,41 +4379,32 @@
       <c r="G9" s="3">
         <v>-15</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>114</v>
+      <c r="H9" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J9" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="K9">
+      <c r="J9">
         <v>-10</v>
       </c>
-      <c r="L9" s="3">
+      <c r="K9" s="3">
         <v>20</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="M9" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="P9">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="N9">
+        <v>30</v>
+      </c>
+      <c r="O9" s="3">
         <v>-15</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="49.5">
+    </row>
+    <row r="10" spans="1:15" ht="49.5">
       <c r="A10">
         <v>3007</v>
       </c>
@@ -4529,46 +4426,37 @@
       <c r="G10" s="3">
         <v>-15</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>114</v>
+      <c r="H10" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="K10">
+      <c r="J10">
         <v>-10</v>
       </c>
-      <c r="L10" s="3">
+      <c r="K10" s="3">
         <v>20</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="M10" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="P10">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="N10">
+        <v>30</v>
+      </c>
+      <c r="O10" s="3">
         <v>-15</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="49.5">
+    </row>
+    <row r="11" spans="1:15" ht="49.5">
       <c r="A11">
         <v>3008</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>100</v>
@@ -4585,38 +4473,29 @@
       <c r="G11" s="3">
         <v>-15</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>114</v>
+      <c r="H11" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J11" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="K11">
+      <c r="J11">
         <v>-10</v>
       </c>
-      <c r="L11" s="3">
+      <c r="K11" s="3">
         <v>20</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="M11" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="P11">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="3">
+      <c r="N11">
+        <v>30</v>
+      </c>
+      <c r="O11" s="3">
         <v>-15</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36379A7-9C58-4FE4-8CA0-65CA0BA0BF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C03177-41D9-4235-9C40-295C73EFD9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="34515" yWindow="1785" windowWidth="20010" windowHeight="11385" activeTab="6" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Enemy" sheetId="1" r:id="rId3"/>
     <sheet name="Boss" sheetId="5" r:id="rId4"/>
     <sheet name="Message" sheetId="3" r:id="rId5"/>
+    <sheet name="Unit" sheetId="6" r:id="rId6"/>
+    <sheet name="Upgrade" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="206">
   <si>
     <t>Name</t>
   </si>
@@ -554,6 +556,254 @@
 인류는 멸망하지 않았다.
 균열에서 새어 나오는 마나를 받아들여
 특별한 힘을 지니게 된 사람들 덕분이었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Tier</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ATK</t>
+  </si>
+  <si>
+    <t>Attack_Speed</t>
+  </si>
+  <si>
+    <t>Attack_Range</t>
+  </si>
+  <si>
+    <t>Unit_Modeling</t>
+  </si>
+  <si>
+    <t>가브리엘</t>
+  </si>
+  <si>
+    <t>세계를 구한 7대 영웅 중 1명입니다.</t>
+  </si>
+  <si>
+    <t>SS1_gif</t>
+  </si>
+  <si>
+    <t>잉그리드</t>
+  </si>
+  <si>
+    <t>SS2_gif</t>
+  </si>
+  <si>
+    <t>제이드</t>
+  </si>
+  <si>
+    <t>실력이 뛰어난 검사입니다.</t>
+  </si>
+  <si>
+    <t>SA3_gif</t>
+  </si>
+  <si>
+    <t>리</t>
+  </si>
+  <si>
+    <t>SA4_gif</t>
+  </si>
+  <si>
+    <t>잭슨</t>
+  </si>
+  <si>
+    <t>견습 검사입니다.</t>
+  </si>
+  <si>
+    <t>SB5_gif</t>
+  </si>
+  <si>
+    <t>잭</t>
+  </si>
+  <si>
+    <t>SB6_gif</t>
+  </si>
+  <si>
+    <t>칼리</t>
+  </si>
+  <si>
+    <t>AS1_gif</t>
+  </si>
+  <si>
+    <t>엘린</t>
+  </si>
+  <si>
+    <t>AS2_gif</t>
+  </si>
+  <si>
+    <t>체이스</t>
+  </si>
+  <si>
+    <t>실력이 뛰어난 궁수입니다.</t>
+  </si>
+  <si>
+    <t>AA3_gif</t>
+  </si>
+  <si>
+    <t>파벨</t>
+  </si>
+  <si>
+    <t>AA4_gif</t>
+  </si>
+  <si>
+    <t>매기</t>
+  </si>
+  <si>
+    <t>견습 궁수입니다.</t>
+  </si>
+  <si>
+    <t>AB5_gif</t>
+  </si>
+  <si>
+    <t>마돈나</t>
+  </si>
+  <si>
+    <t>AB6_gif</t>
+  </si>
+  <si>
+    <t>에반</t>
+  </si>
+  <si>
+    <t>WS1_gif</t>
+  </si>
+  <si>
+    <t>밤비</t>
+  </si>
+  <si>
+    <t>WS2_gif</t>
+  </si>
+  <si>
+    <t>오로라</t>
+  </si>
+  <si>
+    <t>WS3_gif</t>
+  </si>
+  <si>
+    <t>데이브</t>
+  </si>
+  <si>
+    <t>실력이 뛰어난 마법사입니다.</t>
+  </si>
+  <si>
+    <t>WA4_gif</t>
+  </si>
+  <si>
+    <t>데이지</t>
+  </si>
+  <si>
+    <t>WA5_gif</t>
+  </si>
+  <si>
+    <t>콜린</t>
+  </si>
+  <si>
+    <t>WA6_gif</t>
+  </si>
+  <si>
+    <t>아만다</t>
+  </si>
+  <si>
+    <t>견습 마법사입니다.</t>
+  </si>
+  <si>
+    <t>WB7_gif</t>
+  </si>
+  <si>
+    <t>오스카</t>
+  </si>
+  <si>
+    <t>WB8_gif</t>
+  </si>
+  <si>
+    <t>헤스티아</t>
+  </si>
+  <si>
+    <t>WB9_gif</t>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>rue</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit ID</t>
+  </si>
+  <si>
+    <t>Tier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,23,34,45,56,67,78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,23,34,45,56,67,79</t>
+  </si>
+  <si>
+    <t>12,23,34,45,56,67,80</t>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedPiece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,7 +970,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -783,6 +1033,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3297,7 +3550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8FABB6-B12D-4D0B-ADBA-E809D3A5F66E}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3495,7 +3748,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3960,7 +4213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40025AE-C7D8-4357-9319-EFD6B75D65B3}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
@@ -4503,4 +4756,1298 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3B3B7E-BA51-4E15-824F-73A2BFC53D10}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4">
+        <v>43</v>
+      </c>
+      <c r="F4">
+        <v>9500</v>
+      </c>
+      <c r="G4">
+        <v>280</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5">
+        <v>37</v>
+      </c>
+      <c r="F5">
+        <v>8700</v>
+      </c>
+      <c r="G5">
+        <v>280</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>10600</v>
+      </c>
+      <c r="G6">
+        <v>260</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="I6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>204</v>
+      </c>
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>9800</v>
+      </c>
+      <c r="G7">
+        <v>260</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>13000</v>
+      </c>
+      <c r="G8">
+        <v>240</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>206</v>
+      </c>
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>12000</v>
+      </c>
+      <c r="G9">
+        <v>240</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>207</v>
+      </c>
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>5200</v>
+      </c>
+      <c r="G10">
+        <v>350</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>208</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>4300</v>
+      </c>
+      <c r="G11">
+        <v>350</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>209</v>
+      </c>
+      <c r="B12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>6300</v>
+      </c>
+      <c r="G12">
+        <v>320</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>210</v>
+      </c>
+      <c r="B13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>5600</v>
+      </c>
+      <c r="G13">
+        <v>320</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>211</v>
+      </c>
+      <c r="B14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>7200</v>
+      </c>
+      <c r="G14">
+        <v>300</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>212</v>
+      </c>
+      <c r="B15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>7800</v>
+      </c>
+      <c r="G15">
+        <v>300</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>213</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16">
+        <v>45</v>
+      </c>
+      <c r="F16">
+        <v>10300</v>
+      </c>
+      <c r="G16">
+        <v>410</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>214</v>
+      </c>
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>9900</v>
+      </c>
+      <c r="G17">
+        <v>400</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>215</v>
+      </c>
+      <c r="B18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18">
+        <v>48</v>
+      </c>
+      <c r="F18">
+        <v>12400</v>
+      </c>
+      <c r="G18">
+        <v>430</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>216</v>
+      </c>
+      <c r="B19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19">
+        <v>33</v>
+      </c>
+      <c r="F19">
+        <v>11200</v>
+      </c>
+      <c r="G19">
+        <v>370</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>217</v>
+      </c>
+      <c r="B20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20">
+        <v>28</v>
+      </c>
+      <c r="F20">
+        <v>10800</v>
+      </c>
+      <c r="G20">
+        <v>360</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>218</v>
+      </c>
+      <c r="B21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21">
+        <v>36</v>
+      </c>
+      <c r="F21">
+        <v>12300</v>
+      </c>
+      <c r="G21">
+        <v>390</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>219</v>
+      </c>
+      <c r="B22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22">
+        <v>27</v>
+      </c>
+      <c r="F22">
+        <v>12600</v>
+      </c>
+      <c r="G22">
+        <v>360</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>220</v>
+      </c>
+      <c r="B23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>13600</v>
+      </c>
+      <c r="G23">
+        <v>350</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>221</v>
+      </c>
+      <c r="B24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24">
+        <v>30</v>
+      </c>
+      <c r="F24">
+        <v>14600</v>
+      </c>
+      <c r="G24">
+        <v>380</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246DAC17-E872-4574-BD3D-D5CF034B9B32}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="5" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>801</v>
+      </c>
+      <c r="B4">
+        <v>201</v>
+      </c>
+      <c r="C4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4">
+        <v>140</v>
+      </c>
+      <c r="G4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>802</v>
+      </c>
+      <c r="B5">
+        <v>202</v>
+      </c>
+      <c r="C5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5">
+        <v>140</v>
+      </c>
+      <c r="G5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>803</v>
+      </c>
+      <c r="B6">
+        <v>203</v>
+      </c>
+      <c r="C6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6">
+        <v>355</v>
+      </c>
+      <c r="G6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>804</v>
+      </c>
+      <c r="B7">
+        <v>204</v>
+      </c>
+      <c r="C7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7">
+        <v>355</v>
+      </c>
+      <c r="G7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>805</v>
+      </c>
+      <c r="B8">
+        <v>205</v>
+      </c>
+      <c r="C8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8">
+        <v>933</v>
+      </c>
+      <c r="G8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>806</v>
+      </c>
+      <c r="B9">
+        <v>206</v>
+      </c>
+      <c r="C9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9">
+        <v>933</v>
+      </c>
+      <c r="G9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>807</v>
+      </c>
+      <c r="B10">
+        <v>207</v>
+      </c>
+      <c r="C10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10">
+        <v>140</v>
+      </c>
+      <c r="G10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>808</v>
+      </c>
+      <c r="B11">
+        <v>208</v>
+      </c>
+      <c r="C11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11">
+        <v>140</v>
+      </c>
+      <c r="G11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>809</v>
+      </c>
+      <c r="B12">
+        <v>209</v>
+      </c>
+      <c r="C12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12">
+        <v>355</v>
+      </c>
+      <c r="G12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>810</v>
+      </c>
+      <c r="B13">
+        <v>210</v>
+      </c>
+      <c r="C13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13">
+        <v>355</v>
+      </c>
+      <c r="G13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>811</v>
+      </c>
+      <c r="B14">
+        <v>211</v>
+      </c>
+      <c r="C14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14">
+        <v>933</v>
+      </c>
+      <c r="G14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>812</v>
+      </c>
+      <c r="B15">
+        <v>212</v>
+      </c>
+      <c r="C15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15">
+        <v>933</v>
+      </c>
+      <c r="G15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>813</v>
+      </c>
+      <c r="B16">
+        <v>213</v>
+      </c>
+      <c r="C16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>814</v>
+      </c>
+      <c r="B17">
+        <v>214</v>
+      </c>
+      <c r="C17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>815</v>
+      </c>
+      <c r="B18">
+        <v>215</v>
+      </c>
+      <c r="C18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18">
+        <v>140</v>
+      </c>
+      <c r="G18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>816</v>
+      </c>
+      <c r="B19">
+        <v>216</v>
+      </c>
+      <c r="C19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19">
+        <v>355</v>
+      </c>
+      <c r="G19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>817</v>
+      </c>
+      <c r="B20">
+        <v>217</v>
+      </c>
+      <c r="C20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" t="s">
+        <v>198</v>
+      </c>
+      <c r="F20">
+        <v>355</v>
+      </c>
+      <c r="G20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>818</v>
+      </c>
+      <c r="B21">
+        <v>218</v>
+      </c>
+      <c r="C21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21">
+        <v>355</v>
+      </c>
+      <c r="G21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>819</v>
+      </c>
+      <c r="B22">
+        <v>219</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22">
+        <v>933</v>
+      </c>
+      <c r="G22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>820</v>
+      </c>
+      <c r="B23">
+        <v>220</v>
+      </c>
+      <c r="C23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23">
+        <v>933</v>
+      </c>
+      <c r="G23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>821</v>
+      </c>
+      <c r="B24">
+        <v>221</v>
+      </c>
+      <c r="C24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24">
+        <v>933</v>
+      </c>
+      <c r="G24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C03177-41D9-4235-9C40-295C73EFD9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36379A7-9C58-4FE4-8CA0-65CA0BA0BF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34515" yWindow="1785" windowWidth="20010" windowHeight="11385" activeTab="6" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -18,8 +18,6 @@
     <sheet name="Enemy" sheetId="1" r:id="rId3"/>
     <sheet name="Boss" sheetId="5" r:id="rId4"/>
     <sheet name="Message" sheetId="3" r:id="rId5"/>
-    <sheet name="Unit" sheetId="6" r:id="rId6"/>
-    <sheet name="Upgrade" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="132">
   <si>
     <t>Name</t>
   </si>
@@ -556,254 +554,6 @@
 인류는 멸망하지 않았다.
 균열에서 새어 나오는 마나를 받아들여
 특별한 힘을 지니게 된 사람들 덕분이었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_Tier</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>ATK</t>
-  </si>
-  <si>
-    <t>Attack_Speed</t>
-  </si>
-  <si>
-    <t>Attack_Range</t>
-  </si>
-  <si>
-    <t>Unit_Modeling</t>
-  </si>
-  <si>
-    <t>가브리엘</t>
-  </si>
-  <si>
-    <t>세계를 구한 7대 영웅 중 1명입니다.</t>
-  </si>
-  <si>
-    <t>SS1_gif</t>
-  </si>
-  <si>
-    <t>잉그리드</t>
-  </si>
-  <si>
-    <t>SS2_gif</t>
-  </si>
-  <si>
-    <t>제이드</t>
-  </si>
-  <si>
-    <t>실력이 뛰어난 검사입니다.</t>
-  </si>
-  <si>
-    <t>SA3_gif</t>
-  </si>
-  <si>
-    <t>리</t>
-  </si>
-  <si>
-    <t>SA4_gif</t>
-  </si>
-  <si>
-    <t>잭슨</t>
-  </si>
-  <si>
-    <t>견습 검사입니다.</t>
-  </si>
-  <si>
-    <t>SB5_gif</t>
-  </si>
-  <si>
-    <t>잭</t>
-  </si>
-  <si>
-    <t>SB6_gif</t>
-  </si>
-  <si>
-    <t>칼리</t>
-  </si>
-  <si>
-    <t>AS1_gif</t>
-  </si>
-  <si>
-    <t>엘린</t>
-  </si>
-  <si>
-    <t>AS2_gif</t>
-  </si>
-  <si>
-    <t>체이스</t>
-  </si>
-  <si>
-    <t>실력이 뛰어난 궁수입니다.</t>
-  </si>
-  <si>
-    <t>AA3_gif</t>
-  </si>
-  <si>
-    <t>파벨</t>
-  </si>
-  <si>
-    <t>AA4_gif</t>
-  </si>
-  <si>
-    <t>매기</t>
-  </si>
-  <si>
-    <t>견습 궁수입니다.</t>
-  </si>
-  <si>
-    <t>AB5_gif</t>
-  </si>
-  <si>
-    <t>마돈나</t>
-  </si>
-  <si>
-    <t>AB6_gif</t>
-  </si>
-  <si>
-    <t>에반</t>
-  </si>
-  <si>
-    <t>WS1_gif</t>
-  </si>
-  <si>
-    <t>밤비</t>
-  </si>
-  <si>
-    <t>WS2_gif</t>
-  </si>
-  <si>
-    <t>오로라</t>
-  </si>
-  <si>
-    <t>WS3_gif</t>
-  </si>
-  <si>
-    <t>데이브</t>
-  </si>
-  <si>
-    <t>실력이 뛰어난 마법사입니다.</t>
-  </si>
-  <si>
-    <t>WA4_gif</t>
-  </si>
-  <si>
-    <t>데이지</t>
-  </si>
-  <si>
-    <t>WA5_gif</t>
-  </si>
-  <si>
-    <t>콜린</t>
-  </si>
-  <si>
-    <t>WA6_gif</t>
-  </si>
-  <si>
-    <t>아만다</t>
-  </si>
-  <si>
-    <t>견습 마법사입니다.</t>
-  </si>
-  <si>
-    <t>WB7_gif</t>
-  </si>
-  <si>
-    <t>오스카</t>
-  </si>
-  <si>
-    <t>WB8_gif</t>
-  </si>
-  <si>
-    <t>헤스티아</t>
-  </si>
-  <si>
-    <t>WB9_gif</t>
-  </si>
-  <si>
-    <t>Open</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>rue</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit ID</t>
-  </si>
-  <si>
-    <t>Tier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,23,34,45,56,67,78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,23,34,45,56,67,79</t>
-  </si>
-  <si>
-    <t>12,23,34,45,56,67,80</t>
-  </si>
-  <si>
-    <t>List&lt;int&gt;</t>
-  </si>
-  <si>
-    <t>List&lt;int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Percent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeedPiece</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -970,7 +720,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,9 +783,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3550,7 +3297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8FABB6-B12D-4D0B-ADBA-E809D3A5F66E}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3748,7 +3495,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4213,7 +3960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40025AE-C7D8-4357-9319-EFD6B75D65B3}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
@@ -4756,1298 +4503,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3B3B7E-BA51-4E15-824F-73A2BFC53D10}">
-  <dimension ref="A1:I24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="I3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>201</v>
-      </c>
-      <c r="B4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4">
-        <v>43</v>
-      </c>
-      <c r="F4">
-        <v>9500</v>
-      </c>
-      <c r="G4">
-        <v>280</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="I4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>202</v>
-      </c>
-      <c r="B5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5">
-        <v>37</v>
-      </c>
-      <c r="F5">
-        <v>8700</v>
-      </c>
-      <c r="G5">
-        <v>280</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="I5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>203</v>
-      </c>
-      <c r="B6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6">
-        <v>32</v>
-      </c>
-      <c r="F6">
-        <v>10600</v>
-      </c>
-      <c r="G6">
-        <v>260</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="I6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>204</v>
-      </c>
-      <c r="B7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7">
-        <v>26</v>
-      </c>
-      <c r="F7">
-        <v>9800</v>
-      </c>
-      <c r="G7">
-        <v>260</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="I7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>205</v>
-      </c>
-      <c r="B8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>13000</v>
-      </c>
-      <c r="G8">
-        <v>240</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="I8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>206</v>
-      </c>
-      <c r="B9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9">
-        <v>14</v>
-      </c>
-      <c r="F9">
-        <v>12000</v>
-      </c>
-      <c r="G9">
-        <v>240</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="I9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>207</v>
-      </c>
-      <c r="B10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10">
-        <v>22</v>
-      </c>
-      <c r="F10">
-        <v>5200</v>
-      </c>
-      <c r="G10">
-        <v>350</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="I10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>208</v>
-      </c>
-      <c r="B11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11">
-        <v>18</v>
-      </c>
-      <c r="F11">
-        <v>4300</v>
-      </c>
-      <c r="G11">
-        <v>350</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="I11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>209</v>
-      </c>
-      <c r="B12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12">
-        <v>18</v>
-      </c>
-      <c r="F12">
-        <v>6300</v>
-      </c>
-      <c r="G12">
-        <v>320</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="I12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>210</v>
-      </c>
-      <c r="B13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <v>5600</v>
-      </c>
-      <c r="G13">
-        <v>320</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="I13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>211</v>
-      </c>
-      <c r="B14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E14">
-        <v>17</v>
-      </c>
-      <c r="F14">
-        <v>7200</v>
-      </c>
-      <c r="G14">
-        <v>300</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="I14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>212</v>
-      </c>
-      <c r="B15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>163</v>
-      </c>
-      <c r="E15">
-        <v>14</v>
-      </c>
-      <c r="F15">
-        <v>7800</v>
-      </c>
-      <c r="G15">
-        <v>300</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="I15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
-        <v>213</v>
-      </c>
-      <c r="B16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16">
-        <v>45</v>
-      </c>
-      <c r="F16">
-        <v>10300</v>
-      </c>
-      <c r="G16">
-        <v>410</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="I16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
-        <v>214</v>
-      </c>
-      <c r="B17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17">
-        <v>40</v>
-      </c>
-      <c r="F17">
-        <v>9900</v>
-      </c>
-      <c r="G17">
-        <v>400</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="I17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18">
-        <v>215</v>
-      </c>
-      <c r="B18" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18">
-        <v>48</v>
-      </c>
-      <c r="F18">
-        <v>12400</v>
-      </c>
-      <c r="G18">
-        <v>430</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="I18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19">
-        <v>216</v>
-      </c>
-      <c r="B19" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19">
-        <v>33</v>
-      </c>
-      <c r="F19">
-        <v>11200</v>
-      </c>
-      <c r="G19">
-        <v>370</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="I19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20">
-        <v>217</v>
-      </c>
-      <c r="B20" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>174</v>
-      </c>
-      <c r="E20">
-        <v>28</v>
-      </c>
-      <c r="F20">
-        <v>10800</v>
-      </c>
-      <c r="G20">
-        <v>360</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="I20" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21">
-        <v>218</v>
-      </c>
-      <c r="B21" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E21">
-        <v>36</v>
-      </c>
-      <c r="F21">
-        <v>12300</v>
-      </c>
-      <c r="G21">
-        <v>390</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="I21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22">
-        <v>219</v>
-      </c>
-      <c r="B22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>181</v>
-      </c>
-      <c r="E22">
-        <v>27</v>
-      </c>
-      <c r="F22">
-        <v>12600</v>
-      </c>
-      <c r="G22">
-        <v>360</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="I22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23">
-        <v>220</v>
-      </c>
-      <c r="B23" t="s">
-        <v>183</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23">
-        <v>22</v>
-      </c>
-      <c r="F23">
-        <v>13600</v>
-      </c>
-      <c r="G23">
-        <v>350</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="I23" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24">
-        <v>221</v>
-      </c>
-      <c r="B24" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>181</v>
-      </c>
-      <c r="E24">
-        <v>30</v>
-      </c>
-      <c r="F24">
-        <v>14600</v>
-      </c>
-      <c r="G24">
-        <v>380</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="I24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246DAC17-E872-4574-BD3D-D5CF034B9B32}">
-  <dimension ref="A1:G24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="5" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>801</v>
-      </c>
-      <c r="B4">
-        <v>201</v>
-      </c>
-      <c r="C4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4">
-        <v>140</v>
-      </c>
-      <c r="G4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>802</v>
-      </c>
-      <c r="B5">
-        <v>202</v>
-      </c>
-      <c r="C5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5">
-        <v>140</v>
-      </c>
-      <c r="G5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>803</v>
-      </c>
-      <c r="B6">
-        <v>203</v>
-      </c>
-      <c r="C6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6">
-        <v>355</v>
-      </c>
-      <c r="G6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>804</v>
-      </c>
-      <c r="B7">
-        <v>204</v>
-      </c>
-      <c r="C7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7">
-        <v>355</v>
-      </c>
-      <c r="G7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>805</v>
-      </c>
-      <c r="B8">
-        <v>205</v>
-      </c>
-      <c r="C8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F8">
-        <v>933</v>
-      </c>
-      <c r="G8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>806</v>
-      </c>
-      <c r="B9">
-        <v>206</v>
-      </c>
-      <c r="C9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9">
-        <v>933</v>
-      </c>
-      <c r="G9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>807</v>
-      </c>
-      <c r="B10">
-        <v>207</v>
-      </c>
-      <c r="C10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10">
-        <v>140</v>
-      </c>
-      <c r="G10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>808</v>
-      </c>
-      <c r="B11">
-        <v>208</v>
-      </c>
-      <c r="C11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11">
-        <v>140</v>
-      </c>
-      <c r="G11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>809</v>
-      </c>
-      <c r="B12">
-        <v>209</v>
-      </c>
-      <c r="C12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F12">
-        <v>355</v>
-      </c>
-      <c r="G12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>810</v>
-      </c>
-      <c r="B13">
-        <v>210</v>
-      </c>
-      <c r="C13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" t="s">
-        <v>198</v>
-      </c>
-      <c r="F13">
-        <v>355</v>
-      </c>
-      <c r="G13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>811</v>
-      </c>
-      <c r="B14">
-        <v>211</v>
-      </c>
-      <c r="C14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" t="s">
-        <v>198</v>
-      </c>
-      <c r="F14">
-        <v>933</v>
-      </c>
-      <c r="G14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>812</v>
-      </c>
-      <c r="B15">
-        <v>212</v>
-      </c>
-      <c r="C15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" t="s">
-        <v>198</v>
-      </c>
-      <c r="F15">
-        <v>933</v>
-      </c>
-      <c r="G15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>813</v>
-      </c>
-      <c r="B16">
-        <v>213</v>
-      </c>
-      <c r="C16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" t="s">
-        <v>198</v>
-      </c>
-      <c r="F16">
-        <v>140</v>
-      </c>
-      <c r="G16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>814</v>
-      </c>
-      <c r="B17">
-        <v>214</v>
-      </c>
-      <c r="C17" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17">
-        <v>140</v>
-      </c>
-      <c r="G17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>815</v>
-      </c>
-      <c r="B18">
-        <v>215</v>
-      </c>
-      <c r="C18" t="s">
-        <v>196</v>
-      </c>
-      <c r="D18" t="s">
-        <v>197</v>
-      </c>
-      <c r="E18" t="s">
-        <v>198</v>
-      </c>
-      <c r="F18">
-        <v>140</v>
-      </c>
-      <c r="G18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>816</v>
-      </c>
-      <c r="B19">
-        <v>216</v>
-      </c>
-      <c r="C19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" t="s">
-        <v>197</v>
-      </c>
-      <c r="E19" t="s">
-        <v>198</v>
-      </c>
-      <c r="F19">
-        <v>355</v>
-      </c>
-      <c r="G19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>817</v>
-      </c>
-      <c r="B20">
-        <v>217</v>
-      </c>
-      <c r="C20" t="s">
-        <v>196</v>
-      </c>
-      <c r="D20" t="s">
-        <v>197</v>
-      </c>
-      <c r="E20" t="s">
-        <v>198</v>
-      </c>
-      <c r="F20">
-        <v>355</v>
-      </c>
-      <c r="G20" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>818</v>
-      </c>
-      <c r="B21">
-        <v>218</v>
-      </c>
-      <c r="C21" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" t="s">
-        <v>197</v>
-      </c>
-      <c r="E21" t="s">
-        <v>198</v>
-      </c>
-      <c r="F21">
-        <v>355</v>
-      </c>
-      <c r="G21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>819</v>
-      </c>
-      <c r="B22">
-        <v>219</v>
-      </c>
-      <c r="C22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" t="s">
-        <v>197</v>
-      </c>
-      <c r="E22" t="s">
-        <v>198</v>
-      </c>
-      <c r="F22">
-        <v>933</v>
-      </c>
-      <c r="G22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>820</v>
-      </c>
-      <c r="B23">
-        <v>220</v>
-      </c>
-      <c r="C23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D23" t="s">
-        <v>197</v>
-      </c>
-      <c r="E23" t="s">
-        <v>198</v>
-      </c>
-      <c r="F23">
-        <v>933</v>
-      </c>
-      <c r="G23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>821</v>
-      </c>
-      <c r="B24">
-        <v>221</v>
-      </c>
-      <c r="C24" t="s">
-        <v>196</v>
-      </c>
-      <c r="D24" t="s">
-        <v>197</v>
-      </c>
-      <c r="E24" t="s">
-        <v>198</v>
-      </c>
-      <c r="F24">
-        <v>933</v>
-      </c>
-      <c r="G24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C03177-41D9-4235-9C40-295C73EFD9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370F37B3-FF66-4745-B9A0-301043E5F7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34515" yWindow="1785" windowWidth="20010" windowHeight="11385" activeTab="6" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -5483,8 +5483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246DAC17-E872-4574-BD3D-D5CF034B9B32}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370F37B3-FF66-4745-B9A0-301043E5F7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0EAD09-3C1D-43E2-8B78-93FE4E7FA1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="213">
   <si>
     <t>Name</t>
   </si>
@@ -771,10 +771,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12,23,34,45,56,67,78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12,23,34,45,56,67,79</t>
   </si>
   <si>
@@ -800,10 +796,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7</t>
+    <t>UseGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,11,11,11,11,11,11,11,11,11,11,11,11,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,7,7,7,7,7,7,7,7,7,7,7,7,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,3,3,3,3,3,3,3,3,3,3,3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,150,200,300,400,550,700,900,1200,1500,2000,3000,5000,8000</t>
+  </si>
+  <si>
+    <t>100,150,200,300,400,550,700,900,1200,1500,2000,3000,5000,8000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enforce</t>
+  </si>
+  <si>
+    <t>Enforce_Gold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5481,568 +5507,645 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246DAC17-E872-4574-BD3D-D5CF034B9B32}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G3"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="5" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="37" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>701</v>
+      </c>
+      <c r="B4" s="1">
+        <v>201</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" s="1">
+        <v>140</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>702</v>
+      </c>
+      <c r="B5" s="1">
+        <v>202</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" s="1">
+        <v>140</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>703</v>
+      </c>
+      <c r="B6" s="1">
         <v>203</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>801</v>
-      </c>
-      <c r="B4">
-        <v>201</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E6" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4">
+      <c r="F6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="1">
+        <v>355</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>704</v>
+      </c>
+      <c r="B7" s="1">
+        <v>204</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="1">
+        <v>355</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>705</v>
+      </c>
+      <c r="B8" s="1">
+        <v>205</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="1">
+        <v>933</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>706</v>
+      </c>
+      <c r="B9" s="1">
+        <v>206</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="1">
+        <v>933</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>707</v>
+      </c>
+      <c r="B10" s="1">
+        <v>207</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="1">
         <v>140</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H10" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>708</v>
+      </c>
+      <c r="B11" s="1">
+        <v>208</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="1">
+        <v>140</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>709</v>
+      </c>
+      <c r="B12" s="1">
+        <v>209</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>802</v>
-      </c>
-      <c r="B5">
-        <v>202</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D12" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E12" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5">
+      <c r="F12" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="1">
+        <v>355</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>710</v>
+      </c>
+      <c r="B13" s="1">
+        <v>210</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="1">
+        <v>355</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>711</v>
+      </c>
+      <c r="B14" s="1">
+        <v>211</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="1">
+        <v>933</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>712</v>
+      </c>
+      <c r="B15" s="1">
+        <v>212</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="1">
+        <v>933</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>713</v>
+      </c>
+      <c r="B16" s="1">
+        <v>213</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" s="1">
         <v>140</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H16" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>714</v>
+      </c>
+      <c r="B17" s="1">
+        <v>214</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="1">
+        <v>140</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>715</v>
+      </c>
+      <c r="B18" s="1">
+        <v>215</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G18" s="1">
+        <v>140</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>716</v>
+      </c>
+      <c r="B19" s="1">
+        <v>216</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>803</v>
-      </c>
-      <c r="B6">
-        <v>203</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D19" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E19" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6">
+      <c r="F19" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="1">
         <v>355</v>
       </c>
-      <c r="G6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>804</v>
-      </c>
-      <c r="B7">
-        <v>204</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="H19" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>717</v>
+      </c>
+      <c r="B20" s="1">
+        <v>217</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E20" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7">
+      <c r="F20" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="1">
         <v>355</v>
       </c>
-      <c r="G7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>805</v>
-      </c>
-      <c r="B8">
+      <c r="H20" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>718</v>
+      </c>
+      <c r="B21" s="1">
+        <v>218</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D21" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E21" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F8">
+      <c r="F21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="1">
+        <v>355</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>719</v>
+      </c>
+      <c r="B22" s="1">
+        <v>219</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" s="1">
         <v>933</v>
       </c>
-      <c r="G8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>806</v>
-      </c>
-      <c r="B9">
+      <c r="H22" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>720</v>
+      </c>
+      <c r="B23" s="1">
+        <v>220</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D23" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E23" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9">
+      <c r="F23" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="1">
         <v>933</v>
       </c>
-      <c r="G9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>807</v>
-      </c>
-      <c r="B10">
+      <c r="H23" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>721</v>
+      </c>
+      <c r="B24" s="1">
+        <v>221</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10">
-        <v>140</v>
-      </c>
-      <c r="G10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>808</v>
-      </c>
-      <c r="B11">
-        <v>208</v>
-      </c>
-      <c r="C11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11">
-        <v>140</v>
-      </c>
-      <c r="G11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>809</v>
-      </c>
-      <c r="B12">
+      <c r="G24" s="1">
+        <v>933</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F12">
-        <v>355</v>
-      </c>
-      <c r="G12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>810</v>
-      </c>
-      <c r="B13">
-        <v>210</v>
-      </c>
-      <c r="C13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" t="s">
-        <v>198</v>
-      </c>
-      <c r="F13">
-        <v>355</v>
-      </c>
-      <c r="G13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>811</v>
-      </c>
-      <c r="B14">
-        <v>211</v>
-      </c>
-      <c r="C14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" t="s">
-        <v>198</v>
-      </c>
-      <c r="F14">
-        <v>933</v>
-      </c>
-      <c r="G14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>812</v>
-      </c>
-      <c r="B15">
-        <v>212</v>
-      </c>
-      <c r="C15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" t="s">
-        <v>198</v>
-      </c>
-      <c r="F15">
-        <v>933</v>
-      </c>
-      <c r="G15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>813</v>
-      </c>
-      <c r="B16">
-        <v>213</v>
-      </c>
-      <c r="C16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" t="s">
-        <v>198</v>
-      </c>
-      <c r="F16">
-        <v>140</v>
-      </c>
-      <c r="G16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>814</v>
-      </c>
-      <c r="B17">
-        <v>214</v>
-      </c>
-      <c r="C17" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17">
-        <v>140</v>
-      </c>
-      <c r="G17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>815</v>
-      </c>
-      <c r="B18">
-        <v>215</v>
-      </c>
-      <c r="C18" t="s">
-        <v>196</v>
-      </c>
-      <c r="D18" t="s">
-        <v>197</v>
-      </c>
-      <c r="E18" t="s">
-        <v>198</v>
-      </c>
-      <c r="F18">
-        <v>140</v>
-      </c>
-      <c r="G18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>816</v>
-      </c>
-      <c r="B19">
-        <v>216</v>
-      </c>
-      <c r="C19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" t="s">
-        <v>197</v>
-      </c>
-      <c r="E19" t="s">
-        <v>198</v>
-      </c>
-      <c r="F19">
-        <v>355</v>
-      </c>
-      <c r="G19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>817</v>
-      </c>
-      <c r="B20">
-        <v>217</v>
-      </c>
-      <c r="C20" t="s">
-        <v>196</v>
-      </c>
-      <c r="D20" t="s">
-        <v>197</v>
-      </c>
-      <c r="E20" t="s">
-        <v>198</v>
-      </c>
-      <c r="F20">
-        <v>355</v>
-      </c>
-      <c r="G20" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>818</v>
-      </c>
-      <c r="B21">
-        <v>218</v>
-      </c>
-      <c r="C21" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" t="s">
-        <v>197</v>
-      </c>
-      <c r="E21" t="s">
-        <v>198</v>
-      </c>
-      <c r="F21">
-        <v>355</v>
-      </c>
-      <c r="G21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>819</v>
-      </c>
-      <c r="B22">
-        <v>219</v>
-      </c>
-      <c r="C22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" t="s">
-        <v>197</v>
-      </c>
-      <c r="E22" t="s">
-        <v>198</v>
-      </c>
-      <c r="F22">
-        <v>933</v>
-      </c>
-      <c r="G22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>820</v>
-      </c>
-      <c r="B23">
-        <v>220</v>
-      </c>
-      <c r="C23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D23" t="s">
-        <v>197</v>
-      </c>
-      <c r="E23" t="s">
-        <v>198</v>
-      </c>
-      <c r="F23">
-        <v>933</v>
-      </c>
-      <c r="G23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>821</v>
-      </c>
-      <c r="B24">
-        <v>221</v>
-      </c>
-      <c r="C24" t="s">
-        <v>196</v>
-      </c>
-      <c r="D24" t="s">
-        <v>197</v>
-      </c>
-      <c r="E24" t="s">
-        <v>198</v>
-      </c>
-      <c r="F24">
-        <v>933</v>
-      </c>
-      <c r="G24" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0EAD09-3C1D-43E2-8B78-93FE4E7FA1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E4530B-9681-4C24-8BC8-6D947390C502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="34515" yWindow="1785" windowWidth="20010" windowHeight="11385" activeTab="6" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -771,12 +771,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12,23,34,45,56,67,79</t>
-  </si>
-  <si>
-    <t>12,23,34,45,56,67,80</t>
-  </si>
-  <si>
     <t>List&lt;int&gt;</t>
   </si>
   <si>
@@ -830,6 +824,13 @@
   </si>
   <si>
     <t>Enforce_Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5510,14 +5511,14 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="37" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="59.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="27" style="1" bestFit="1" customWidth="1"/>
@@ -5541,13 +5542,13 @@
         <v>195</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5558,22 +5559,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5584,7 +5585,7 @@
         <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -5593,13 +5594,13 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5610,22 +5611,22 @@
         <v>201</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G4" s="1">
         <v>140</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5636,22 +5637,22 @@
         <v>202</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G5" s="1">
         <v>140</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5662,22 +5663,22 @@
         <v>203</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="G6" s="1">
         <v>355</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5688,22 +5689,22 @@
         <v>204</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="G7" s="1">
         <v>355</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5714,22 +5715,22 @@
         <v>205</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G8" s="1">
         <v>933</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5740,22 +5741,22 @@
         <v>206</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G9" s="1">
         <v>933</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5766,22 +5767,22 @@
         <v>207</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G10" s="1">
         <v>140</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5792,22 +5793,22 @@
         <v>208</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G11" s="1">
         <v>140</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5818,22 +5819,22 @@
         <v>209</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="G12" s="1">
         <v>355</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5844,22 +5845,22 @@
         <v>210</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="G13" s="1">
         <v>355</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5870,22 +5871,22 @@
         <v>211</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G14" s="1">
         <v>933</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5896,22 +5897,22 @@
         <v>212</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G15" s="1">
         <v>933</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5922,22 +5923,22 @@
         <v>213</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G16" s="1">
         <v>140</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5948,22 +5949,22 @@
         <v>214</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G17" s="1">
         <v>140</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5974,22 +5975,22 @@
         <v>215</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G18" s="1">
         <v>140</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6000,22 +6001,22 @@
         <v>216</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="G19" s="1">
         <v>355</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6026,22 +6027,22 @@
         <v>217</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="G20" s="1">
         <v>355</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6052,22 +6053,22 @@
         <v>218</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="G21" s="1">
         <v>355</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6078,22 +6079,22 @@
         <v>219</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G22" s="1">
         <v>933</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6104,22 +6105,22 @@
         <v>220</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G23" s="1">
         <v>933</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6130,22 +6131,22 @@
         <v>221</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G24" s="1">
         <v>933</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E4530B-9681-4C24-8BC8-6D947390C502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6555D5-5E3E-4A73-8690-41AE7DD82C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34515" yWindow="1785" windowWidth="20010" windowHeight="11385" activeTab="6" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="34515" yWindow="1785" windowWidth="20010" windowHeight="11385" activeTab="5" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -4789,8 +4789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3B3B7E-BA51-4E15-824F-73A2BFC53D10}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5510,7 +5510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246DAC17-E872-4574-BD3D-D5CF034B9B32}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6555D5-5E3E-4A73-8690-41AE7DD82C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DF1474-2057-4670-888F-8CEF6FB1D02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34515" yWindow="1785" windowWidth="20010" windowHeight="11385" activeTab="5" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="214">
   <si>
     <t>Name</t>
   </si>
@@ -831,6 +831,10 @@
   </si>
   <si>
     <t>0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeKey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4787,10 +4791,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3B3B7E-BA51-4E15-824F-73A2BFC53D10}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4801,9 +4805,10 @@
     <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4831,8 +4836,11 @@
       <c r="I1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4860,8 +4868,11 @@
       <c r="I2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4889,8 +4900,11 @@
       <c r="I3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>201</v>
       </c>
@@ -4918,8 +4932,11 @@
       <c r="I4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="1">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>202</v>
       </c>
@@ -4947,8 +4964,11 @@
       <c r="I5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="1">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>203</v>
       </c>
@@ -4976,8 +4996,11 @@
       <c r="I6" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="1">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>204</v>
       </c>
@@ -5005,8 +5028,11 @@
       <c r="I7" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="1">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>205</v>
       </c>
@@ -5034,8 +5060,11 @@
       <c r="I8" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="1">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>206</v>
       </c>
@@ -5063,8 +5092,11 @@
       <c r="I9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="1">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>207</v>
       </c>
@@ -5092,8 +5124,11 @@
       <c r="I10" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="1">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>208</v>
       </c>
@@ -5121,8 +5156,11 @@
       <c r="I11" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="1">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>209</v>
       </c>
@@ -5150,8 +5188,11 @@
       <c r="I12" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="1">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>210</v>
       </c>
@@ -5179,8 +5220,11 @@
       <c r="I13" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="1">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>211</v>
       </c>
@@ -5208,8 +5252,11 @@
       <c r="I14" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="1">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>212</v>
       </c>
@@ -5237,8 +5284,11 @@
       <c r="I15" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="1">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>213</v>
       </c>
@@ -5266,8 +5316,11 @@
       <c r="I16" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="1">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>214</v>
       </c>
@@ -5295,8 +5348,11 @@
       <c r="I17" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="1">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>215</v>
       </c>
@@ -5324,8 +5380,11 @@
       <c r="I18" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="1">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>216</v>
       </c>
@@ -5353,8 +5412,11 @@
       <c r="I19" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="1">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>217</v>
       </c>
@@ -5382,8 +5444,11 @@
       <c r="I20" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>218</v>
       </c>
@@ -5411,8 +5476,11 @@
       <c r="I21" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="1">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>219</v>
       </c>
@@ -5440,8 +5508,11 @@
       <c r="I22" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="1">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>220</v>
       </c>
@@ -5469,8 +5540,11 @@
       <c r="I23" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>221</v>
       </c>
@@ -5497,6 +5571,9 @@
       </c>
       <c r="I24" t="s">
         <v>186</v>
+      </c>
+      <c r="J24" s="1">
+        <v>721</v>
       </c>
     </row>
   </sheetData>
@@ -5511,7 +5588,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A4" sqref="A4:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DF1474-2057-4670-888F-8CEF6FB1D02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DB3C99-5566-4DDE-9CCE-18E9DF00E294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="33885" yWindow="1410" windowWidth="20010" windowHeight="11385" activeTab="5" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="217">
   <si>
     <t>Name</t>
   </si>
@@ -583,145 +583,82 @@
     <t>세계를 구한 7대 영웅 중 1명입니다.</t>
   </si>
   <si>
-    <t>SS1_gif</t>
-  </si>
-  <si>
     <t>잉그리드</t>
   </si>
   <si>
-    <t>SS2_gif</t>
-  </si>
-  <si>
     <t>제이드</t>
   </si>
   <si>
     <t>실력이 뛰어난 검사입니다.</t>
   </si>
   <si>
-    <t>SA3_gif</t>
-  </si>
-  <si>
     <t>리</t>
   </si>
   <si>
-    <t>SA4_gif</t>
-  </si>
-  <si>
     <t>잭슨</t>
   </si>
   <si>
     <t>견습 검사입니다.</t>
   </si>
   <si>
-    <t>SB5_gif</t>
-  </si>
-  <si>
     <t>잭</t>
   </si>
   <si>
-    <t>SB6_gif</t>
-  </si>
-  <si>
     <t>칼리</t>
   </si>
   <si>
-    <t>AS1_gif</t>
-  </si>
-  <si>
     <t>엘린</t>
   </si>
   <si>
-    <t>AS2_gif</t>
-  </si>
-  <si>
     <t>체이스</t>
   </si>
   <si>
     <t>실력이 뛰어난 궁수입니다.</t>
   </si>
   <si>
-    <t>AA3_gif</t>
-  </si>
-  <si>
     <t>파벨</t>
   </si>
   <si>
-    <t>AA4_gif</t>
-  </si>
-  <si>
     <t>매기</t>
   </si>
   <si>
     <t>견습 궁수입니다.</t>
   </si>
   <si>
-    <t>AB5_gif</t>
-  </si>
-  <si>
     <t>마돈나</t>
   </si>
   <si>
-    <t>AB6_gif</t>
-  </si>
-  <si>
     <t>에반</t>
   </si>
   <si>
-    <t>WS1_gif</t>
-  </si>
-  <si>
     <t>밤비</t>
   </si>
   <si>
-    <t>WS2_gif</t>
-  </si>
-  <si>
     <t>오로라</t>
   </si>
   <si>
-    <t>WS3_gif</t>
-  </si>
-  <si>
     <t>데이브</t>
   </si>
   <si>
     <t>실력이 뛰어난 마법사입니다.</t>
   </si>
   <si>
-    <t>WA4_gif</t>
-  </si>
-  <si>
     <t>데이지</t>
   </si>
   <si>
-    <t>WA5_gif</t>
-  </si>
-  <si>
     <t>콜린</t>
   </si>
   <si>
-    <t>WA6_gif</t>
-  </si>
-  <si>
     <t>아만다</t>
   </si>
   <si>
     <t>견습 마법사입니다.</t>
   </si>
   <si>
-    <t>WB7_gif</t>
-  </si>
-  <si>
     <t>오스카</t>
   </si>
   <si>
-    <t>WB8_gif</t>
-  </si>
-  <si>
     <t>헤스티아</t>
-  </si>
-  <si>
-    <t>WB9_gif</t>
   </si>
   <si>
     <t>Open</t>
@@ -835,6 +772,102 @@
   </si>
   <si>
     <t>UpgradeKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4791,10 +4824,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3B3B7E-BA51-4E15-824F-73A2BFC53D10}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4804,11 +4837,11 @@
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4816,31 +4849,34 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="E1" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="F1" t="s">
         <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="H1" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="J1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>209</v>
+      </c>
+      <c r="K1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4869,10 +4905,13 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4895,16 +4934,19 @@
         <v>136</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="I3" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" t="s">
         <v>137</v>
       </c>
-      <c r="J3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>201</v>
       </c>
@@ -4927,21 +4969,24 @@
         <v>280</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="I4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J4" s="1">
+        <v>194</v>
+      </c>
+      <c r="J4" t="s">
+        <v>194</v>
+      </c>
+      <c r="K4" s="1">
         <v>701</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4959,27 +5004,30 @@
         <v>280</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="I5" t="s">
-        <v>142</v>
-      </c>
-      <c r="J5" s="1">
+        <v>195</v>
+      </c>
+      <c r="J5" t="s">
+        <v>195</v>
+      </c>
+      <c r="K5" s="1">
         <v>702</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E6">
         <v>32</v>
@@ -4991,27 +5039,30 @@
         <v>260</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="I6" t="s">
-        <v>145</v>
-      </c>
-      <c r="J6" s="1">
+        <v>211</v>
+      </c>
+      <c r="J6" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" s="1">
         <v>703</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E7">
         <v>26</v>
@@ -5023,27 +5074,30 @@
         <v>260</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I7" t="s">
-        <v>147</v>
-      </c>
-      <c r="J7" s="1">
+        <v>212</v>
+      </c>
+      <c r="J7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K7" s="1">
         <v>704</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -5055,27 +5109,30 @@
         <v>240</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I8" t="s">
-        <v>150</v>
-      </c>
-      <c r="J8" s="1">
+        <v>213</v>
+      </c>
+      <c r="J8" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="1">
         <v>705</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E9">
         <v>14</v>
@@ -5087,21 +5144,24 @@
         <v>240</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I9" t="s">
-        <v>152</v>
-      </c>
-      <c r="J9" s="1">
+        <v>214</v>
+      </c>
+      <c r="J9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K9" s="1">
         <v>706</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -5119,21 +5179,24 @@
         <v>350</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I10" t="s">
-        <v>154</v>
-      </c>
-      <c r="J10" s="1">
+        <v>196</v>
+      </c>
+      <c r="J10" t="s">
+        <v>196</v>
+      </c>
+      <c r="K10" s="1">
         <v>707</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>208</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5151,27 +5214,30 @@
         <v>350</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I11" t="s">
-        <v>156</v>
-      </c>
-      <c r="J11" s="1">
+        <v>197</v>
+      </c>
+      <c r="J11" t="s">
+        <v>197</v>
+      </c>
+      <c r="K11" s="1">
         <v>708</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E12">
         <v>18</v>
@@ -5183,27 +5249,30 @@
         <v>320</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I12" t="s">
-        <v>159</v>
-      </c>
-      <c r="J12" s="1">
+        <v>215</v>
+      </c>
+      <c r="J12" t="s">
+        <v>215</v>
+      </c>
+      <c r="K12" s="1">
         <v>709</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E13">
         <v>15</v>
@@ -5215,27 +5284,30 @@
         <v>320</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I13" t="s">
-        <v>161</v>
-      </c>
-      <c r="J13" s="1">
+        <v>216</v>
+      </c>
+      <c r="J13" t="s">
+        <v>216</v>
+      </c>
+      <c r="K13" s="1">
         <v>710</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E14">
         <v>17</v>
@@ -5247,27 +5319,30 @@
         <v>300</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I14" t="s">
-        <v>164</v>
-      </c>
-      <c r="J14" s="1">
+        <v>198</v>
+      </c>
+      <c r="J14" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" s="1">
         <v>711</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>212</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -5279,21 +5354,24 @@
         <v>300</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I15" t="s">
-        <v>166</v>
-      </c>
-      <c r="J15" s="1">
+        <v>199</v>
+      </c>
+      <c r="J15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K15" s="1">
         <v>712</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>213</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -5311,21 +5389,24 @@
         <v>410</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
-      </c>
-      <c r="J16" s="1">
+        <v>200</v>
+      </c>
+      <c r="J16" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16" s="1">
         <v>713</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>214</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -5343,21 +5424,24 @@
         <v>400</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
-      </c>
-      <c r="J17" s="1">
+        <v>201</v>
+      </c>
+      <c r="J17" t="s">
+        <v>201</v>
+      </c>
+      <c r="K17" s="1">
         <v>714</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>215</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -5375,27 +5459,30 @@
         <v>430</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
-      </c>
-      <c r="J18" s="1">
+        <v>202</v>
+      </c>
+      <c r="J18" t="s">
+        <v>202</v>
+      </c>
+      <c r="K18" s="1">
         <v>715</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>216</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="E19">
         <v>33</v>
@@ -5407,27 +5494,30 @@
         <v>370</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J19" s="1">
+        <v>203</v>
+      </c>
+      <c r="J19" t="s">
+        <v>203</v>
+      </c>
+      <c r="K19" s="1">
         <v>716</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>217</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="E20">
         <v>28</v>
@@ -5439,27 +5529,30 @@
         <v>360</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I20" t="s">
-        <v>177</v>
-      </c>
-      <c r="J20" s="1">
+        <v>204</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" s="1">
         <v>717</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>218</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="E21">
         <v>36</v>
@@ -5471,27 +5564,30 @@
         <v>390</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I21" t="s">
-        <v>179</v>
-      </c>
-      <c r="J21" s="1">
+        <v>205</v>
+      </c>
+      <c r="J21" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" s="1">
         <v>718</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>219</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="E22">
         <v>27</v>
@@ -5503,27 +5599,30 @@
         <v>360</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
-      </c>
-      <c r="J22" s="1">
+        <v>206</v>
+      </c>
+      <c r="J22" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" s="1">
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>220</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -5535,27 +5634,30 @@
         <v>350</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I23" t="s">
-        <v>184</v>
-      </c>
-      <c r="J23" s="1">
+        <v>207</v>
+      </c>
+      <c r="J23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" s="1">
         <v>720</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>221</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="E24">
         <v>30</v>
@@ -5567,12 +5669,15 @@
         <v>380</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I24" t="s">
-        <v>186</v>
-      </c>
-      <c r="J24" s="1">
+        <v>208</v>
+      </c>
+      <c r="J24" t="s">
+        <v>208</v>
+      </c>
+      <c r="K24" s="1">
         <v>721</v>
       </c>
     </row>
@@ -5607,25 +5712,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5636,22 +5741,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5659,10 +5764,10 @@
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -5671,13 +5776,13 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5688,22 +5793,22 @@
         <v>201</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="G4" s="1">
         <v>140</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5714,22 +5819,22 @@
         <v>202</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="G5" s="1">
         <v>140</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5740,22 +5845,22 @@
         <v>203</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G6" s="1">
         <v>355</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5766,22 +5871,22 @@
         <v>204</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G7" s="1">
         <v>355</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5792,22 +5897,22 @@
         <v>205</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G8" s="1">
         <v>933</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5818,22 +5923,22 @@
         <v>206</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G9" s="1">
         <v>933</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5844,22 +5949,22 @@
         <v>207</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G10" s="1">
         <v>140</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5870,22 +5975,22 @@
         <v>208</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G11" s="1">
         <v>140</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5896,22 +6001,22 @@
         <v>209</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G12" s="1">
         <v>355</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5922,22 +6027,22 @@
         <v>210</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G13" s="1">
         <v>355</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5948,22 +6053,22 @@
         <v>211</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G14" s="1">
         <v>933</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5974,22 +6079,22 @@
         <v>212</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G15" s="1">
         <v>933</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6000,22 +6105,22 @@
         <v>213</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G16" s="1">
         <v>140</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6026,22 +6131,22 @@
         <v>214</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G17" s="1">
         <v>140</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6052,22 +6157,22 @@
         <v>215</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G18" s="1">
         <v>140</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6078,22 +6183,22 @@
         <v>216</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G19" s="1">
         <v>355</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6104,22 +6209,22 @@
         <v>217</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G20" s="1">
         <v>355</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6130,22 +6235,22 @@
         <v>218</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G21" s="1">
         <v>355</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6156,22 +6261,22 @@
         <v>219</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G22" s="1">
         <v>933</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6182,22 +6287,22 @@
         <v>220</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G23" s="1">
         <v>933</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6208,22 +6313,22 @@
         <v>221</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G24" s="1">
         <v>933</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Portfolio\Oilnam\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DB3C99-5566-4DDE-9CCE-18E9DF00E294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCC6128-DD9E-4762-BA8C-1E4A19A8AD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33885" yWindow="1410" windowWidth="20010" windowHeight="11385" activeTab="5" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="930" yWindow="880" windowWidth="19200" windowHeight="11170" activeTab="2" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="234">
   <si>
     <t>Name</t>
   </si>
@@ -869,6 +869,62 @@
   <si>
     <t>AA2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Animatior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Enemy01Anim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Enemy03Anim</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy04Anim</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy05Anim</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy06Anim</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy07Anim</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy08Anim</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy09Anim</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy10Anim</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy02Anim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss/Boss01Anim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss/Boss03Anim</t>
+  </si>
+  <si>
+    <t>Boss/Boss04Anim</t>
+  </si>
+  <si>
+    <t>Boss/Boss05Anim</t>
+  </si>
+  <si>
+    <t>Boss/Boss02Anim</t>
   </si>
 </sst>
 </file>
@@ -1417,18 +1473,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AF03AA-AD2E-4842-8F07-034942C7A07E}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="5" max="6" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="5" max="6" width="11.58203125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1513,7 +1569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:13" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -3607,6 +3663,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3618,10 +3675,10 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="104.875" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="104.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3668,7 +3725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="49.5">
+    <row r="5" spans="1:3" ht="51">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3679,7 +3736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="82.5">
+    <row r="6" spans="1:3" ht="85">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3690,7 +3747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="82.5">
+    <row r="7" spans="1:3" ht="85">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3701,7 +3758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="49.5">
+    <row r="8" spans="1:3" ht="51">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3712,7 +3769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="82.5">
+    <row r="9" spans="1:3" ht="85">
       <c r="A9">
         <v>5</v>
       </c>
@@ -3723,7 +3780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="66">
+    <row r="10" spans="1:3" ht="68">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3734,7 +3791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="49.5">
+    <row r="11" spans="1:3" ht="51">
       <c r="A11">
         <v>7</v>
       </c>
@@ -3745,7 +3802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="66">
+    <row r="12" spans="1:3" ht="68">
       <c r="A12">
         <v>8</v>
       </c>
@@ -3756,7 +3813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="33">
+    <row r="13" spans="1:3" ht="34">
       <c r="A13">
         <v>9</v>
       </c>
@@ -3767,7 +3824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="115.5">
+    <row r="14" spans="1:3" ht="119">
       <c r="A14">
         <v>10</v>
       </c>
@@ -3778,7 +3835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="82.5">
+    <row r="15" spans="1:3" ht="85">
       <c r="A15">
         <v>11</v>
       </c>
@@ -3809,22 +3866,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5409F1B1-0956-4B26-ACA9-55F5DBAB54F5}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.58203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="19.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -3843,8 +3901,11 @@
       <c r="F1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3863,8 +3924,11 @@
       <c r="F2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" thickBot="1">
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.5" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3883,8 +3947,11 @@
       <c r="F3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" thickBot="1">
+      <c r="G3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.5" thickBot="1">
       <c r="A4" s="14">
         <v>401</v>
       </c>
@@ -3903,8 +3970,11 @@
       <c r="F4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.25" thickBot="1">
+      <c r="G4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.5" thickBot="1">
       <c r="A5" s="16">
         <v>402</v>
       </c>
@@ -3923,8 +3993,11 @@
       <c r="F5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.25" thickBot="1">
+      <c r="G5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.5" thickBot="1">
       <c r="A6" s="16">
         <v>403</v>
       </c>
@@ -3943,8 +4016,11 @@
       <c r="F6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.25" thickBot="1">
+      <c r="G6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.5" thickBot="1">
       <c r="A7" s="16">
         <v>404</v>
       </c>
@@ -3963,8 +4039,11 @@
       <c r="F7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="17.25" thickBot="1">
+      <c r="G7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.5" thickBot="1">
       <c r="A8" s="16">
         <v>405</v>
       </c>
@@ -3983,8 +4062,11 @@
       <c r="F8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="17.25" thickBot="1">
+      <c r="G8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.5" thickBot="1">
       <c r="A9" s="16">
         <v>406</v>
       </c>
@@ -4003,8 +4085,11 @@
       <c r="F9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="17.25" thickBot="1">
+      <c r="G9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.5" thickBot="1">
       <c r="A10" s="16">
         <v>407</v>
       </c>
@@ -4023,8 +4108,11 @@
       <c r="F10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="17.25" thickBot="1">
+      <c r="G10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.5" thickBot="1">
       <c r="A11" s="16">
         <v>408</v>
       </c>
@@ -4043,8 +4131,11 @@
       <c r="F11" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="17.25" thickBot="1">
+      <c r="G11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.5" thickBot="1">
       <c r="A12" s="16">
         <v>409</v>
       </c>
@@ -4063,8 +4154,11 @@
       <c r="F12" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="17.25" thickBot="1">
+      <c r="G12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.5" thickBot="1">
       <c r="A13" s="16">
         <v>410</v>
       </c>
@@ -4082,6 +4176,9 @@
       </c>
       <c r="F13" t="s">
         <v>86</v>
+      </c>
+      <c r="G13" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4093,21 +4190,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B13BC7-908D-4893-B4AD-1079229E5F6F}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" customWidth="1"/>
+    <col min="6" max="6" width="13.58203125" customWidth="1"/>
+    <col min="7" max="7" width="19.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4126,8 +4224,11 @@
       <c r="F1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4146,8 +4247,11 @@
       <c r="F2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" thickBot="1">
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.5" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4166,8 +4270,11 @@
       <c r="F3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" thickBot="1">
+      <c r="G3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.5" thickBot="1">
       <c r="A4" s="14">
         <v>501</v>
       </c>
@@ -4186,8 +4293,11 @@
       <c r="F4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.25" thickBot="1">
+      <c r="G4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.5" thickBot="1">
       <c r="A5" s="16">
         <v>502</v>
       </c>
@@ -4206,8 +4316,11 @@
       <c r="F5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.25" thickBot="1">
+      <c r="G5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.5" thickBot="1">
       <c r="A6" s="16">
         <v>503</v>
       </c>
@@ -4226,8 +4339,11 @@
       <c r="F6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.25" thickBot="1">
+      <c r="G6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.5" thickBot="1">
       <c r="A7" s="16">
         <v>504</v>
       </c>
@@ -4246,8 +4362,11 @@
       <c r="F7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="17.25" thickBot="1">
+      <c r="G7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.5" thickBot="1">
       <c r="A8" s="16">
         <v>505</v>
       </c>
@@ -4265,11 +4384,15 @@
       </c>
       <c r="F8" t="s">
         <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4281,21 +4404,21 @@
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" customWidth="1"/>
+    <col min="2" max="2" width="31.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.08203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.58203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4439,7 +4562,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="49.5">
+    <row r="4" spans="1:15" ht="51">
       <c r="A4">
         <v>3001</v>
       </c>
@@ -4486,7 +4609,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="49.5">
+    <row r="5" spans="1:15" ht="51">
       <c r="A5">
         <v>3002</v>
       </c>
@@ -4533,7 +4656,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="66">
+    <row r="6" spans="1:15" ht="68">
       <c r="A6">
         <v>3003</v>
       </c>
@@ -4580,7 +4703,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="49.5">
+    <row r="7" spans="1:15" ht="51">
       <c r="A7">
         <v>3004</v>
       </c>
@@ -4627,7 +4750,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="49.5">
+    <row r="8" spans="1:15" ht="51">
       <c r="A8">
         <v>3005</v>
       </c>
@@ -4674,7 +4797,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="49.5">
+    <row r="9" spans="1:15" ht="51">
       <c r="A9">
         <v>3006</v>
       </c>
@@ -4721,7 +4844,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="49.5">
+    <row r="10" spans="1:15" ht="51">
       <c r="A10">
         <v>3007</v>
       </c>
@@ -4768,7 +4891,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="49.5">
+    <row r="11" spans="1:15" ht="51">
       <c r="A11">
         <v>3008</v>
       </c>
@@ -4826,19 +4949,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3B3B7E-BA51-4E15-824F-73A2BFC53D10}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5696,7 +5819,7 @@
       <selection activeCell="A4" sqref="A4:A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="37" style="1" customWidth="1"/>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DB3C99-5566-4DDE-9CCE-18E9DF00E294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4D8036-4B31-4C22-BCB0-E9B5A76F619E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33885" yWindow="1410" windowWidth="20010" windowHeight="11385" activeTab="5" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="2610" yWindow="1755" windowWidth="20010" windowHeight="11385" activeTab="7" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Message" sheetId="3" r:id="rId5"/>
     <sheet name="Unit" sheetId="6" r:id="rId6"/>
     <sheet name="Upgrade" sheetId="7" r:id="rId7"/>
+    <sheet name="UnitStep" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="228">
   <si>
     <t>Name</t>
   </si>
@@ -868,6 +869,47 @@
   </si>
   <si>
     <t>AA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SellGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,10,20</t>
+  </si>
+  <si>
+    <t>4,10,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,250,750</t>
+  </si>
+  <si>
+    <t>100,250,750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100,100</t>
+  </si>
+  <si>
+    <t>100,100,100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4824,9 +4866,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3B3B7E-BA51-4E15-824F-73A2BFC53D10}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -4838,10 +4880,10 @@
     <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4875,8 +4917,11 @@
       <c r="K1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4910,8 +4955,11 @@
       <c r="K2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4945,8 +4993,11 @@
       <c r="K3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>201</v>
       </c>
@@ -4980,8 +5031,11 @@
       <c r="K4" s="1">
         <v>701</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>202</v>
       </c>
@@ -5015,8 +5069,11 @@
       <c r="K5" s="1">
         <v>702</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>203</v>
       </c>
@@ -5050,8 +5107,11 @@
       <c r="K6" s="1">
         <v>703</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>204</v>
       </c>
@@ -5085,8 +5145,11 @@
       <c r="K7" s="1">
         <v>704</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>205</v>
       </c>
@@ -5120,8 +5183,11 @@
       <c r="K8" s="1">
         <v>705</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>206</v>
       </c>
@@ -5155,8 +5221,11 @@
       <c r="K9" s="1">
         <v>706</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>207</v>
       </c>
@@ -5190,8 +5259,11 @@
       <c r="K10" s="1">
         <v>707</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>208</v>
       </c>
@@ -5225,8 +5297,11 @@
       <c r="K11" s="1">
         <v>708</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>209</v>
       </c>
@@ -5260,8 +5335,11 @@
       <c r="K12" s="1">
         <v>709</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>210</v>
       </c>
@@ -5295,8 +5373,11 @@
       <c r="K13" s="1">
         <v>710</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>211</v>
       </c>
@@ -5330,8 +5411,11 @@
       <c r="K14" s="1">
         <v>711</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>212</v>
       </c>
@@ -5365,8 +5449,11 @@
       <c r="K15" s="1">
         <v>712</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>213</v>
       </c>
@@ -5400,8 +5487,11 @@
       <c r="K16" s="1">
         <v>713</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>214</v>
       </c>
@@ -5435,8 +5525,11 @@
       <c r="K17" s="1">
         <v>714</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>215</v>
       </c>
@@ -5470,8 +5563,11 @@
       <c r="K18" s="1">
         <v>715</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>216</v>
       </c>
@@ -5505,8 +5601,11 @@
       <c r="K19" s="1">
         <v>716</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>217</v>
       </c>
@@ -5540,8 +5639,11 @@
       <c r="K20" s="1">
         <v>717</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>218</v>
       </c>
@@ -5575,8 +5677,11 @@
       <c r="K21" s="1">
         <v>718</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>219</v>
       </c>
@@ -5610,8 +5715,11 @@
       <c r="K22" s="1">
         <v>719</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>220</v>
       </c>
@@ -5645,8 +5753,11 @@
       <c r="K23" s="1">
         <v>720</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>221</v>
       </c>
@@ -5679,6 +5790,9 @@
       </c>
       <c r="K24" s="1">
         <v>721</v>
+      </c>
+      <c r="L24">
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -6336,4 +6450,432 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEEF688-9383-496B-9C25-A00F50C247CB}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="4" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>601</v>
+      </c>
+      <c r="B4">
+        <v>201</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>602</v>
+      </c>
+      <c r="B5">
+        <v>202</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>603</v>
+      </c>
+      <c r="B6">
+        <v>203</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>604</v>
+      </c>
+      <c r="B7">
+        <v>204</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>605</v>
+      </c>
+      <c r="B8">
+        <v>205</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>606</v>
+      </c>
+      <c r="B9">
+        <v>206</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>607</v>
+      </c>
+      <c r="B10">
+        <v>207</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>608</v>
+      </c>
+      <c r="B11">
+        <v>208</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>609</v>
+      </c>
+      <c r="B12">
+        <v>209</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>610</v>
+      </c>
+      <c r="B13">
+        <v>210</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>611</v>
+      </c>
+      <c r="B14">
+        <v>211</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>612</v>
+      </c>
+      <c r="B15">
+        <v>212</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>613</v>
+      </c>
+      <c r="B16">
+        <v>213</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>614</v>
+      </c>
+      <c r="B17">
+        <v>214</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>615</v>
+      </c>
+      <c r="B18">
+        <v>215</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>616</v>
+      </c>
+      <c r="B19">
+        <v>216</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>617</v>
+      </c>
+      <c r="B20">
+        <v>217</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>618</v>
+      </c>
+      <c r="B21">
+        <v>218</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>619</v>
+      </c>
+      <c r="B22">
+        <v>219</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>620</v>
+      </c>
+      <c r="B23">
+        <v>220</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>621</v>
+      </c>
+      <c r="B24">
+        <v>221</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4D8036-4B31-4C22-BCB0-E9B5A76F619E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E47A3B1-1AF1-42CC-9BF9-0B8DB3421E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="1755" windowWidth="20010" windowHeight="11385" activeTab="7" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="231">
   <si>
     <t>Name</t>
   </si>
@@ -663,10 +663,6 @@
   </si>
   <si>
     <t>Open</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -912,12 +908,28 @@
     <t>100,100,100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>UnitType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wizard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -959,6 +971,13 @@
       <name val="Malgun Gothic"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1071,12 +1090,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1143,9 +1163,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{29539498-F1E4-4FC0-8460-56F8E7985486}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4866,10 +4890,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3B3B7E-BA51-4E15-824F-73A2BFC53D10}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4881,9 +4905,10 @@
     <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14.625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4891,37 +4916,40 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" t="s">
         <v>171</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>172</v>
-      </c>
-      <c r="E1" t="s">
-        <v>173</v>
       </c>
       <c r="F1" t="s">
         <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H1" t="s">
         <v>166</v>
       </c>
       <c r="I1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>216</v>
+      </c>
+      <c r="M1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4958,8 +4986,11 @@
       <c r="L2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4985,19 +5016,22 @@
         <v>166</v>
       </c>
       <c r="I3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J3" t="s">
         <v>137</v>
       </c>
       <c r="K3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>216</v>
+      </c>
+      <c r="M3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>201</v>
       </c>
@@ -5023,10 +5057,10 @@
         <v>167</v>
       </c>
       <c r="I4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K4" s="1">
         <v>701</v>
@@ -5034,8 +5068,11 @@
       <c r="L4">
         <v>601</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>202</v>
       </c>
@@ -5061,10 +5098,10 @@
         <v>167</v>
       </c>
       <c r="I5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K5" s="1">
         <v>702</v>
@@ -5072,8 +5109,11 @@
       <c r="L5">
         <v>602</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>203</v>
       </c>
@@ -5099,10 +5139,10 @@
         <v>167</v>
       </c>
       <c r="I6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K6" s="1">
         <v>703</v>
@@ -5110,8 +5150,11 @@
       <c r="L6">
         <v>603</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>204</v>
       </c>
@@ -5134,13 +5177,13 @@
         <v>260</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K7" s="1">
         <v>704</v>
@@ -5148,8 +5191,11 @@
       <c r="L7">
         <v>604</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>205</v>
       </c>
@@ -5172,13 +5218,13 @@
         <v>240</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K8" s="1">
         <v>705</v>
@@ -5186,8 +5232,11 @@
       <c r="L8">
         <v>605</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>206</v>
       </c>
@@ -5210,13 +5259,13 @@
         <v>240</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K9" s="1">
         <v>706</v>
@@ -5224,8 +5273,11 @@
       <c r="L9">
         <v>606</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>207</v>
       </c>
@@ -5248,13 +5300,13 @@
         <v>350</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K10" s="1">
         <v>707</v>
@@ -5262,8 +5314,11 @@
       <c r="L10">
         <v>607</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>208</v>
       </c>
@@ -5286,13 +5341,13 @@
         <v>350</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K11" s="1">
         <v>708</v>
@@ -5300,8 +5355,11 @@
       <c r="L11">
         <v>608</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>209</v>
       </c>
@@ -5324,13 +5382,13 @@
         <v>320</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K12" s="1">
         <v>709</v>
@@ -5338,8 +5396,11 @@
       <c r="L12">
         <v>609</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>210</v>
       </c>
@@ -5362,13 +5423,13 @@
         <v>320</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K13" s="1">
         <v>710</v>
@@ -5376,8 +5437,11 @@
       <c r="L13">
         <v>610</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>211</v>
       </c>
@@ -5400,13 +5464,13 @@
         <v>300</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K14" s="1">
         <v>711</v>
@@ -5414,8 +5478,11 @@
       <c r="L14">
         <v>611</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>212</v>
       </c>
@@ -5438,13 +5505,13 @@
         <v>300</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K15" s="1">
         <v>712</v>
@@ -5452,8 +5519,11 @@
       <c r="L15">
         <v>612</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>213</v>
       </c>
@@ -5476,13 +5546,13 @@
         <v>410</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K16" s="1">
         <v>713</v>
@@ -5490,8 +5560,11 @@
       <c r="L16">
         <v>613</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>214</v>
       </c>
@@ -5514,13 +5587,13 @@
         <v>400</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K17" s="1">
         <v>714</v>
@@ -5528,8 +5601,11 @@
       <c r="L17">
         <v>614</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>215</v>
       </c>
@@ -5552,13 +5628,13 @@
         <v>430</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K18" s="1">
         <v>715</v>
@@ -5566,8 +5642,11 @@
       <c r="L18">
         <v>615</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>216</v>
       </c>
@@ -5590,13 +5669,13 @@
         <v>370</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K19" s="1">
         <v>716</v>
@@ -5604,8 +5683,11 @@
       <c r="L19">
         <v>616</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>217</v>
       </c>
@@ -5628,13 +5710,13 @@
         <v>360</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K20" s="1">
         <v>717</v>
@@ -5642,8 +5724,11 @@
       <c r="L20">
         <v>617</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>218</v>
       </c>
@@ -5666,13 +5751,13 @@
         <v>390</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K21" s="1">
         <v>718</v>
@@ -5680,8 +5765,11 @@
       <c r="L21">
         <v>618</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>219</v>
       </c>
@@ -5704,13 +5792,13 @@
         <v>360</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K22" s="1">
         <v>719</v>
@@ -5718,8 +5806,11 @@
       <c r="L22">
         <v>619</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>220</v>
       </c>
@@ -5742,13 +5833,13 @@
         <v>350</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K23" s="1">
         <v>720</v>
@@ -5756,8 +5847,11 @@
       <c r="L23">
         <v>620</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>221</v>
       </c>
@@ -5780,19 +5874,22 @@
         <v>380</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K24" s="1">
         <v>721</v>
       </c>
       <c r="L24">
         <v>621</v>
+      </c>
+      <c r="M24" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5826,25 +5923,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5855,22 +5952,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5878,10 +5975,10 @@
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -5890,13 +5987,13 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5907,22 +6004,22 @@
         <v>201</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G4" s="1">
         <v>140</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5933,22 +6030,22 @@
         <v>202</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G5" s="1">
         <v>140</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5959,22 +6056,22 @@
         <v>203</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G6" s="1">
         <v>355</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5985,22 +6082,22 @@
         <v>204</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G7" s="1">
         <v>355</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6011,22 +6108,22 @@
         <v>205</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G8" s="1">
         <v>933</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6037,22 +6134,22 @@
         <v>206</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G9" s="1">
         <v>933</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6063,22 +6160,22 @@
         <v>207</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G10" s="1">
         <v>140</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6089,22 +6186,22 @@
         <v>208</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G11" s="1">
         <v>140</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6115,22 +6212,22 @@
         <v>209</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G12" s="1">
         <v>355</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6141,22 +6238,22 @@
         <v>210</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G13" s="1">
         <v>355</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6167,22 +6264,22 @@
         <v>211</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G14" s="1">
         <v>933</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6193,22 +6290,22 @@
         <v>212</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G15" s="1">
         <v>933</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6219,22 +6316,22 @@
         <v>213</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G16" s="1">
         <v>140</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6245,22 +6342,22 @@
         <v>214</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G17" s="1">
         <v>140</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6271,22 +6368,22 @@
         <v>215</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G18" s="1">
         <v>140</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6297,22 +6394,22 @@
         <v>216</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G19" s="1">
         <v>355</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6323,22 +6420,22 @@
         <v>217</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G20" s="1">
         <v>355</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6349,22 +6446,22 @@
         <v>218</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G21" s="1">
         <v>355</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6375,22 +6472,22 @@
         <v>219</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G22" s="1">
         <v>933</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6401,22 +6498,22 @@
         <v>220</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G23" s="1">
         <v>933</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6427,22 +6524,22 @@
         <v>221</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G24" s="1">
         <v>933</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -6456,7 +6553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEEF688-9383-496B-9C25-A00F50C247CB}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -6470,16 +6567,16 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6490,13 +6587,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6504,16 +6601,16 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6524,13 +6621,13 @@
         <v>201</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6541,13 +6638,13 @@
         <v>202</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6558,13 +6655,13 @@
         <v>203</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6575,13 +6672,13 @@
         <v>204</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6592,13 +6689,13 @@
         <v>205</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6609,13 +6706,13 @@
         <v>206</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6626,13 +6723,13 @@
         <v>207</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6643,13 +6740,13 @@
         <v>208</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6660,13 +6757,13 @@
         <v>209</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6677,13 +6774,13 @@
         <v>210</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6694,13 +6791,13 @@
         <v>211</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6711,13 +6808,13 @@
         <v>212</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6728,13 +6825,13 @@
         <v>213</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6745,13 +6842,13 @@
         <v>214</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6762,13 +6859,13 @@
         <v>215</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6779,13 +6876,13 @@
         <v>216</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6796,13 +6893,13 @@
         <v>217</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6813,13 +6910,13 @@
         <v>218</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6830,13 +6927,13 @@
         <v>219</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -6847,13 +6944,13 @@
         <v>220</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6864,13 +6961,13 @@
         <v>221</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Portfolio\Oilnam\RawData\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCC6128-DD9E-4762-BA8C-1E4A19A8AD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC41956-EBCC-4E87-AAE1-A9FAA81AD0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="880" windowWidth="19200" windowHeight="11170" activeTab="2" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Message" sheetId="3" r:id="rId5"/>
     <sheet name="Unit" sheetId="6" r:id="rId6"/>
     <sheet name="Upgrade" sheetId="7" r:id="rId7"/>
+    <sheet name="UnitStep" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="248">
   <si>
     <t>Name</t>
   </si>
@@ -662,10 +663,6 @@
   </si>
   <si>
     <t>Open</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -926,12 +923,69 @@
   <si>
     <t>Boss/Boss02Anim</t>
   </si>
+  <si>
+    <t>StepKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wizard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SellGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,250,750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,10,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,250,750</t>
+  </si>
+  <si>
+    <t>100,100,100</t>
+  </si>
+  <si>
+    <t>4,10,20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -973,6 +1027,13 @@
       <name val="Malgun Gothic"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1085,12 +1146,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1157,9 +1219,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{0B620337-2CBA-4794-AFB4-870056F62495}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1477,14 +1543,14 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="6" width="11.58203125" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="5" max="6" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1569,7 +1635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.149999999999999" customHeight="1">
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -3675,10 +3741,10 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="104.83203125" customWidth="1"/>
-    <col min="3" max="3" width="7.08203125" customWidth="1"/>
+    <col min="2" max="2" width="104.875" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3725,7 +3791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="51">
+    <row r="5" spans="1:3" ht="49.5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3736,7 +3802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="85">
+    <row r="6" spans="1:3" ht="82.5">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3747,7 +3813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="85">
+    <row r="7" spans="1:3" ht="82.5">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3758,7 +3824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51">
+    <row r="8" spans="1:3" ht="49.5">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3769,7 +3835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="85">
+    <row r="9" spans="1:3" ht="82.5">
       <c r="A9">
         <v>5</v>
       </c>
@@ -3780,7 +3846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="68">
+    <row r="10" spans="1:3" ht="66">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3791,7 +3857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="51">
+    <row r="11" spans="1:3" ht="49.5">
       <c r="A11">
         <v>7</v>
       </c>
@@ -3802,7 +3868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="68">
+    <row r="12" spans="1:3" ht="66">
       <c r="A12">
         <v>8</v>
       </c>
@@ -3813,7 +3879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34">
+    <row r="13" spans="1:3" ht="33">
       <c r="A13">
         <v>9</v>
       </c>
@@ -3824,7 +3890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="119">
+    <row r="14" spans="1:3" ht="115.5">
       <c r="A14">
         <v>10</v>
       </c>
@@ -3835,7 +3901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="85">
+    <row r="15" spans="1:3" ht="82.5">
       <c r="A15">
         <v>11</v>
       </c>
@@ -3868,18 +3934,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5409F1B1-0956-4B26-ACA9-55F5DBAB54F5}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" customWidth="1"/>
-    <col min="3" max="3" width="22.58203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="19.4140625" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3902,7 +3968,7 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3928,7 +3994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.5" thickBot="1">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3948,10 +4014,10 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17.5" thickBot="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" thickBot="1">
       <c r="A4" s="14">
         <v>401</v>
       </c>
@@ -3971,10 +4037,10 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17.5" thickBot="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" thickBot="1">
       <c r="A5" s="16">
         <v>402</v>
       </c>
@@ -3994,10 +4060,10 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.5" thickBot="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" thickBot="1">
       <c r="A6" s="16">
         <v>403</v>
       </c>
@@ -4017,10 +4083,10 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17.5" thickBot="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" thickBot="1">
       <c r="A7" s="16">
         <v>404</v>
       </c>
@@ -4040,10 +4106,10 @@
         <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17.5" thickBot="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" thickBot="1">
       <c r="A8" s="16">
         <v>405</v>
       </c>
@@ -4063,10 +4129,10 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17.5" thickBot="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" thickBot="1">
       <c r="A9" s="16">
         <v>406</v>
       </c>
@@ -4086,10 +4152,10 @@
         <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17.5" thickBot="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.25" thickBot="1">
       <c r="A10" s="16">
         <v>407</v>
       </c>
@@ -4109,10 +4175,10 @@
         <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17.5" thickBot="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.25" thickBot="1">
       <c r="A11" s="16">
         <v>408</v>
       </c>
@@ -4132,10 +4198,10 @@
         <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17.5" thickBot="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" thickBot="1">
       <c r="A12" s="16">
         <v>409</v>
       </c>
@@ -4155,10 +4221,10 @@
         <v>84</v>
       </c>
       <c r="G12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17.5" thickBot="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" thickBot="1">
       <c r="A13" s="16">
         <v>410</v>
       </c>
@@ -4178,7 +4244,7 @@
         <v>86</v>
       </c>
       <c r="G13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4196,13 +4262,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.58203125" customWidth="1"/>
-    <col min="6" max="6" width="13.58203125" customWidth="1"/>
-    <col min="7" max="7" width="19.08203125" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4225,7 +4291,7 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4251,7 +4317,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.5" thickBot="1">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4271,10 +4337,10 @@
         <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17.5" thickBot="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" thickBot="1">
       <c r="A4" s="14">
         <v>501</v>
       </c>
@@ -4294,10 +4360,10 @@
         <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17.5" thickBot="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" thickBot="1">
       <c r="A5" s="16">
         <v>502</v>
       </c>
@@ -4317,10 +4383,10 @@
         <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.5" thickBot="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" thickBot="1">
       <c r="A6" s="16">
         <v>503</v>
       </c>
@@ -4340,10 +4406,10 @@
         <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17.5" thickBot="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" thickBot="1">
       <c r="A7" s="16">
         <v>504</v>
       </c>
@@ -4363,10 +4429,10 @@
         <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17.5" thickBot="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" thickBot="1">
       <c r="A8" s="16">
         <v>505</v>
       </c>
@@ -4386,7 +4452,7 @@
         <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -4404,21 +4470,21 @@
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" customWidth="1"/>
-    <col min="2" max="2" width="31.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4562,7 +4628,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="51">
+    <row r="4" spans="1:15" ht="49.5">
       <c r="A4">
         <v>3001</v>
       </c>
@@ -4609,7 +4675,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="51">
+    <row r="5" spans="1:15" ht="49.5">
       <c r="A5">
         <v>3002</v>
       </c>
@@ -4656,7 +4722,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="68">
+    <row r="6" spans="1:15" ht="66">
       <c r="A6">
         <v>3003</v>
       </c>
@@ -4703,7 +4769,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="51">
+    <row r="7" spans="1:15" ht="49.5">
       <c r="A7">
         <v>3004</v>
       </c>
@@ -4750,7 +4816,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="51">
+    <row r="8" spans="1:15" ht="49.5">
       <c r="A8">
         <v>3005</v>
       </c>
@@ -4797,7 +4863,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="51">
+    <row r="9" spans="1:15" ht="49.5">
       <c r="A9">
         <v>3006</v>
       </c>
@@ -4844,7 +4910,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="51">
+    <row r="10" spans="1:15" ht="49.5">
       <c r="A10">
         <v>3007</v>
       </c>
@@ -4891,7 +4957,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="51">
+    <row r="11" spans="1:15" ht="49.5">
       <c r="A11">
         <v>3008</v>
       </c>
@@ -4947,24 +5013,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3B3B7E-BA51-4E15-824F-73A2BFC53D10}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection sqref="A1:M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4972,34 +5038,40 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" t="s">
         <v>171</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>172</v>
-      </c>
-      <c r="E1" t="s">
-        <v>173</v>
       </c>
       <c r="F1" t="s">
         <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H1" t="s">
         <v>166</v>
       </c>
       <c r="I1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>191</v>
+      </c>
+      <c r="L1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5033,8 +5105,14 @@
       <c r="K2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -5060,16 +5138,22 @@
         <v>166</v>
       </c>
       <c r="I3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J3" t="s">
         <v>137</v>
       </c>
       <c r="K3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>191</v>
+      </c>
+      <c r="L3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>201</v>
       </c>
@@ -5095,16 +5179,22 @@
         <v>167</v>
       </c>
       <c r="I4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K4" s="1">
         <v>701</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>601</v>
+      </c>
+      <c r="M4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>202</v>
       </c>
@@ -5130,16 +5220,22 @@
         <v>167</v>
       </c>
       <c r="I5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K5" s="1">
         <v>702</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>602</v>
+      </c>
+      <c r="M5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>203</v>
       </c>
@@ -5165,16 +5261,22 @@
         <v>167</v>
       </c>
       <c r="I6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K6" s="1">
         <v>703</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>603</v>
+      </c>
+      <c r="M6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>204</v>
       </c>
@@ -5197,19 +5299,25 @@
         <v>260</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K7" s="1">
         <v>704</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>604</v>
+      </c>
+      <c r="M7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>205</v>
       </c>
@@ -5232,19 +5340,25 @@
         <v>240</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K8" s="1">
         <v>705</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>605</v>
+      </c>
+      <c r="M8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>206</v>
       </c>
@@ -5267,19 +5381,25 @@
         <v>240</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K9" s="1">
         <v>706</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>606</v>
+      </c>
+      <c r="M9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>207</v>
       </c>
@@ -5302,19 +5422,25 @@
         <v>350</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K10" s="1">
         <v>707</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>607</v>
+      </c>
+      <c r="M10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>208</v>
       </c>
@@ -5337,19 +5463,25 @@
         <v>350</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K11" s="1">
         <v>708</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>608</v>
+      </c>
+      <c r="M11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>209</v>
       </c>
@@ -5372,19 +5504,25 @@
         <v>320</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K12" s="1">
         <v>709</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>609</v>
+      </c>
+      <c r="M12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>210</v>
       </c>
@@ -5407,19 +5545,25 @@
         <v>320</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K13" s="1">
         <v>710</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>610</v>
+      </c>
+      <c r="M13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>211</v>
       </c>
@@ -5442,19 +5586,25 @@
         <v>300</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K14" s="1">
         <v>711</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>611</v>
+      </c>
+      <c r="M14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>212</v>
       </c>
@@ -5477,19 +5627,25 @@
         <v>300</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K15" s="1">
         <v>712</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>612</v>
+      </c>
+      <c r="M15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>213</v>
       </c>
@@ -5512,19 +5668,25 @@
         <v>410</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K16" s="1">
         <v>713</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>613</v>
+      </c>
+      <c r="M16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>214</v>
       </c>
@@ -5547,19 +5709,25 @@
         <v>400</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K17" s="1">
         <v>714</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>614</v>
+      </c>
+      <c r="M17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>215</v>
       </c>
@@ -5582,19 +5750,25 @@
         <v>430</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K18" s="1">
         <v>715</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>615</v>
+      </c>
+      <c r="M18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>216</v>
       </c>
@@ -5617,19 +5791,25 @@
         <v>370</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K19" s="1">
         <v>716</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>616</v>
+      </c>
+      <c r="M19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>217</v>
       </c>
@@ -5652,19 +5832,25 @@
         <v>360</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K20" s="1">
         <v>717</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>617</v>
+      </c>
+      <c r="M20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>218</v>
       </c>
@@ -5687,19 +5873,25 @@
         <v>390</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K21" s="1">
         <v>718</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>618</v>
+      </c>
+      <c r="M21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>219</v>
       </c>
@@ -5722,19 +5914,25 @@
         <v>360</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K22" s="1">
         <v>719</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>619</v>
+      </c>
+      <c r="M22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>220</v>
       </c>
@@ -5757,19 +5955,25 @@
         <v>350</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K23" s="1">
         <v>720</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>620</v>
+      </c>
+      <c r="M23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>221</v>
       </c>
@@ -5792,16 +5996,22 @@
         <v>380</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K24" s="1">
         <v>721</v>
+      </c>
+      <c r="L24">
+        <v>621</v>
+      </c>
+      <c r="M24" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -5816,10 +6026,10 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A24"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="37" style="1" customWidth="1"/>
@@ -5835,25 +6045,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5864,22 +6074,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5887,10 +6097,10 @@
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -5899,13 +6109,13 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5916,22 +6126,22 @@
         <v>201</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G4" s="1">
         <v>140</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5942,22 +6152,22 @@
         <v>202</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G5" s="1">
         <v>140</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5968,22 +6178,22 @@
         <v>203</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G6" s="1">
         <v>355</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5994,22 +6204,22 @@
         <v>204</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G7" s="1">
         <v>355</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6020,22 +6230,22 @@
         <v>205</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G8" s="1">
         <v>933</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6046,22 +6256,22 @@
         <v>206</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G9" s="1">
         <v>933</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6072,22 +6282,22 @@
         <v>207</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G10" s="1">
         <v>140</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6098,22 +6308,22 @@
         <v>208</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G11" s="1">
         <v>140</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6124,22 +6334,22 @@
         <v>209</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G12" s="1">
         <v>355</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6150,22 +6360,22 @@
         <v>210</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G13" s="1">
         <v>355</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6176,22 +6386,22 @@
         <v>211</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G14" s="1">
         <v>933</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6202,22 +6412,22 @@
         <v>212</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G15" s="1">
         <v>933</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6228,22 +6438,22 @@
         <v>213</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G16" s="1">
         <v>140</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6254,22 +6464,22 @@
         <v>214</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G17" s="1">
         <v>140</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6280,22 +6490,22 @@
         <v>215</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G18" s="1">
         <v>140</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6306,22 +6516,22 @@
         <v>216</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G19" s="1">
         <v>355</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6332,22 +6542,22 @@
         <v>217</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G20" s="1">
         <v>355</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6358,22 +6568,22 @@
         <v>218</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G21" s="1">
         <v>355</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6384,22 +6594,22 @@
         <v>219</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G22" s="1">
         <v>933</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6410,22 +6620,22 @@
         <v>220</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G23" s="1">
         <v>933</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6436,22 +6646,22 @@
         <v>221</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G24" s="1">
         <v>933</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -6459,4 +6669,428 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B243B4DA-4757-4205-A827-459A7372F46D}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>601</v>
+      </c>
+      <c r="B4">
+        <v>201</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>602</v>
+      </c>
+      <c r="B5">
+        <v>202</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>603</v>
+      </c>
+      <c r="B6">
+        <v>203</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>604</v>
+      </c>
+      <c r="B7">
+        <v>204</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>605</v>
+      </c>
+      <c r="B8">
+        <v>205</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>606</v>
+      </c>
+      <c r="B9">
+        <v>206</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>607</v>
+      </c>
+      <c r="B10">
+        <v>207</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>608</v>
+      </c>
+      <c r="B11">
+        <v>208</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>609</v>
+      </c>
+      <c r="B12">
+        <v>209</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>610</v>
+      </c>
+      <c r="B13">
+        <v>210</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>611</v>
+      </c>
+      <c r="B14">
+        <v>211</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>612</v>
+      </c>
+      <c r="B15">
+        <v>212</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>613</v>
+      </c>
+      <c r="B16">
+        <v>213</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>614</v>
+      </c>
+      <c r="B17">
+        <v>214</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>615</v>
+      </c>
+      <c r="B18">
+        <v>215</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>616</v>
+      </c>
+      <c r="B19">
+        <v>216</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>617</v>
+      </c>
+      <c r="B20">
+        <v>217</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>618</v>
+      </c>
+      <c r="B21">
+        <v>218</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>619</v>
+      </c>
+      <c r="B22">
+        <v>219</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>620</v>
+      </c>
+      <c r="B23">
+        <v>220</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>621</v>
+      </c>
+      <c r="B24">
+        <v>221</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Portfolio\Oilnam\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC41956-EBCC-4E87-AAE1-A9FAA81AD0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A957EB0-5DC1-4073-B2D5-757DEEE7F8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="930" yWindow="880" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
-    <sheet name="Story" sheetId="2" r:id="rId2"/>
-    <sheet name="Enemy" sheetId="1" r:id="rId3"/>
-    <sheet name="Boss" sheetId="5" r:id="rId4"/>
-    <sheet name="Message" sheetId="3" r:id="rId5"/>
-    <sheet name="Unit" sheetId="6" r:id="rId6"/>
-    <sheet name="Upgrade" sheetId="7" r:id="rId7"/>
-    <sheet name="UnitStep" sheetId="8" r:id="rId8"/>
+    <sheet name="WaveReward" sheetId="9" r:id="rId2"/>
+    <sheet name="Story" sheetId="2" r:id="rId3"/>
+    <sheet name="Enemy" sheetId="1" r:id="rId4"/>
+    <sheet name="Boss" sheetId="5" r:id="rId5"/>
+    <sheet name="Message" sheetId="3" r:id="rId6"/>
+    <sheet name="Unit" sheetId="6" r:id="rId7"/>
+    <sheet name="Upgrade" sheetId="7" r:id="rId8"/>
+    <sheet name="UnitStep" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="253">
   <si>
     <t>Name</t>
   </si>
@@ -980,12 +981,29 @@
   <si>
     <t>4,10,20</t>
   </si>
+  <si>
+    <t>Chapter</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Level_Experience</t>
+  </si>
+  <si>
+    <t>Chapter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enforcebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1034,6 +1052,12 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1152,7 +1176,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1221,6 +1245,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1543,14 +1579,14 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="5" max="6" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="5" max="6" width="11.58203125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1635,7 +1671,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:13" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -3734,193 +3770,2077 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8FABB6-B12D-4D0B-ADBA-E809D3A5F66E}">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894E2694-5841-4646-9170-1CF15302963F}">
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="104.875" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="15.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.5" thickBot="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A4" s="16">
+        <v>7001</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17">
+        <v>1</v>
+      </c>
+      <c r="D4" s="25">
+        <v>25</v>
+      </c>
+      <c r="E4" s="25">
+        <v>10</v>
+      </c>
+      <c r="F4" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A5" s="16">
+        <v>7002</v>
+      </c>
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17">
+        <v>2</v>
+      </c>
+      <c r="D5" s="25">
+        <v>50</v>
+      </c>
+      <c r="E5" s="25">
+        <v>20</v>
+      </c>
+      <c r="F5" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A6" s="16">
+        <v>7003</v>
+      </c>
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17">
+        <v>3</v>
+      </c>
+      <c r="D6" s="25">
+        <v>75</v>
+      </c>
+      <c r="E6" s="25">
+        <v>30</v>
+      </c>
+      <c r="F6" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A7" s="16">
+        <v>7004</v>
+      </c>
+      <c r="B7" s="17">
+        <v>1</v>
+      </c>
+      <c r="C7" s="17">
+        <v>4</v>
+      </c>
+      <c r="D7" s="25">
+        <v>100</v>
+      </c>
+      <c r="E7" s="25">
+        <v>40</v>
+      </c>
+      <c r="F7" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A8" s="16">
+        <v>7005</v>
+      </c>
+      <c r="B8" s="17">
+        <v>1</v>
+      </c>
+      <c r="C8" s="17">
+        <v>5</v>
+      </c>
+      <c r="D8" s="25">
+        <v>125</v>
+      </c>
+      <c r="E8" s="25">
+        <v>50</v>
+      </c>
+      <c r="F8" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A9" s="16">
+        <v>7006</v>
+      </c>
+      <c r="B9" s="17">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17">
+        <v>6</v>
+      </c>
+      <c r="D9" s="25">
+        <v>150</v>
+      </c>
+      <c r="E9" s="25">
+        <v>60</v>
+      </c>
+      <c r="F9" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A10" s="16">
+        <v>7007</v>
+      </c>
+      <c r="B10" s="17">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17">
+        <v>7</v>
+      </c>
+      <c r="D10" s="25">
+        <v>175</v>
+      </c>
+      <c r="E10" s="25">
+        <v>70</v>
+      </c>
+      <c r="F10" s="25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A11" s="16">
+        <v>7008</v>
+      </c>
+      <c r="B11" s="17">
+        <v>1</v>
+      </c>
+      <c r="C11" s="17">
+        <v>8</v>
+      </c>
+      <c r="D11" s="25">
+        <v>200</v>
+      </c>
+      <c r="E11" s="25">
+        <v>80</v>
+      </c>
+      <c r="F11" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A12" s="16">
+        <v>7009</v>
+      </c>
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17">
+        <v>9</v>
+      </c>
+      <c r="D12" s="25">
+        <v>225</v>
+      </c>
+      <c r="E12" s="25">
+        <v>90</v>
+      </c>
+      <c r="F12" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A13" s="16">
+        <v>7010</v>
+      </c>
+      <c r="B13" s="17">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17">
+        <v>10</v>
+      </c>
+      <c r="D13" s="25">
+        <v>275</v>
+      </c>
+      <c r="E13" s="25">
+        <v>100</v>
+      </c>
+      <c r="F13" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A14" s="16">
+        <v>7011</v>
+      </c>
+      <c r="B14" s="17">
+        <v>1</v>
+      </c>
+      <c r="C14" s="17">
+        <v>11</v>
+      </c>
+      <c r="D14" s="25">
+        <v>300</v>
+      </c>
+      <c r="E14" s="25">
+        <v>120</v>
+      </c>
+      <c r="F14" s="25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A15" s="16">
+        <v>7012</v>
+      </c>
+      <c r="B15" s="17">
+        <v>1</v>
+      </c>
+      <c r="C15" s="17">
+        <v>12</v>
+      </c>
+      <c r="D15" s="25">
+        <v>325</v>
+      </c>
+      <c r="E15" s="25">
+        <v>140</v>
+      </c>
+      <c r="F15" s="25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A16" s="16">
+        <v>7013</v>
+      </c>
+      <c r="B16" s="17">
+        <v>1</v>
+      </c>
+      <c r="C16" s="17">
+        <v>13</v>
+      </c>
+      <c r="D16" s="25">
+        <v>350</v>
+      </c>
+      <c r="E16" s="25">
+        <v>160</v>
+      </c>
+      <c r="F16" s="25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A17" s="16">
+        <v>7014</v>
+      </c>
+      <c r="B17" s="17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="17">
+        <v>14</v>
+      </c>
+      <c r="D17" s="25">
+        <v>375</v>
+      </c>
+      <c r="E17" s="25">
+        <v>180</v>
+      </c>
+      <c r="F17" s="25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A18" s="16">
+        <v>7015</v>
+      </c>
+      <c r="B18" s="17">
+        <v>1</v>
+      </c>
+      <c r="C18" s="17">
+        <v>15</v>
+      </c>
+      <c r="D18" s="25">
+        <v>400</v>
+      </c>
+      <c r="E18" s="25">
+        <v>200</v>
+      </c>
+      <c r="F18" s="25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A19" s="16">
+        <v>7016</v>
+      </c>
+      <c r="B19" s="17">
+        <v>1</v>
+      </c>
+      <c r="C19" s="17">
+        <v>16</v>
+      </c>
+      <c r="D19" s="25">
+        <v>425</v>
+      </c>
+      <c r="E19" s="25">
+        <v>220</v>
+      </c>
+      <c r="F19" s="25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A20" s="16">
+        <v>7017</v>
+      </c>
+      <c r="B20" s="17">
+        <v>1</v>
+      </c>
+      <c r="C20" s="17">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D20" s="25">
+        <v>450</v>
+      </c>
+      <c r="E20" s="25">
+        <v>240</v>
+      </c>
+      <c r="F20" s="25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A21" s="16">
+        <v>7018</v>
+      </c>
+      <c r="B21" s="17">
+        <v>1</v>
+      </c>
+      <c r="C21" s="17">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="D21" s="25">
+        <v>475</v>
+      </c>
+      <c r="E21" s="25">
+        <v>260</v>
+      </c>
+      <c r="F21" s="25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A22" s="16">
+        <v>7019</v>
+      </c>
+      <c r="B22" s="17">
+        <v>1</v>
+      </c>
+      <c r="C22" s="17">
+        <v>19</v>
+      </c>
+      <c r="D22" s="25">
+        <v>500</v>
+      </c>
+      <c r="E22" s="25">
+        <v>280</v>
+      </c>
+      <c r="F22" s="25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A23" s="16">
+        <v>7020</v>
+      </c>
+      <c r="B23" s="17">
+        <v>1</v>
+      </c>
+      <c r="C23" s="17">
+        <v>20</v>
+      </c>
+      <c r="D23" s="25">
+        <v>600</v>
+      </c>
+      <c r="E23" s="25">
+        <v>300</v>
+      </c>
+      <c r="F23" s="25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A24" s="16">
+        <v>7021</v>
+      </c>
+      <c r="B24" s="17">
+        <v>1</v>
+      </c>
+      <c r="C24" s="17">
+        <v>21</v>
+      </c>
+      <c r="D24" s="25">
+        <v>625</v>
+      </c>
+      <c r="E24" s="25">
+        <v>330</v>
+      </c>
+      <c r="F24" s="25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A25" s="16">
+        <v>7022</v>
+      </c>
+      <c r="B25" s="17">
+        <v>1</v>
+      </c>
+      <c r="C25" s="17">
+        <v>22</v>
+      </c>
+      <c r="D25" s="25">
+        <v>650</v>
+      </c>
+      <c r="E25" s="25">
+        <v>360</v>
+      </c>
+      <c r="F25" s="25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A26" s="16">
+        <v>7023</v>
+      </c>
+      <c r="B26" s="17">
+        <v>1</v>
+      </c>
+      <c r="C26" s="17">
+        <v>23</v>
+      </c>
+      <c r="D26" s="25">
+        <v>680</v>
+      </c>
+      <c r="E26" s="25">
+        <v>390</v>
+      </c>
+      <c r="F26" s="25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A27" s="16">
+        <v>7024</v>
+      </c>
+      <c r="B27" s="17">
+        <v>1</v>
+      </c>
+      <c r="C27" s="17">
+        <v>24</v>
+      </c>
+      <c r="D27" s="25">
+        <v>715</v>
+      </c>
+      <c r="E27" s="25">
+        <v>420</v>
+      </c>
+      <c r="F27" s="25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A28" s="16">
+        <v>7025</v>
+      </c>
+      <c r="B28" s="17">
+        <v>1</v>
+      </c>
+      <c r="C28" s="17">
+        <v>25</v>
+      </c>
+      <c r="D28" s="25">
+        <v>750</v>
+      </c>
+      <c r="E28" s="25">
+        <v>450</v>
+      </c>
+      <c r="F28" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A29" s="16">
+        <v>7026</v>
+      </c>
+      <c r="B29" s="17">
+        <v>1</v>
+      </c>
+      <c r="C29" s="17">
+        <v>26</v>
+      </c>
+      <c r="D29" s="25">
+        <v>785</v>
+      </c>
+      <c r="E29" s="25">
+        <v>480</v>
+      </c>
+      <c r="F29" s="25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A30" s="16">
+        <v>7027</v>
+      </c>
+      <c r="B30" s="17">
+        <v>1</v>
+      </c>
+      <c r="C30" s="17">
+        <v>27</v>
+      </c>
+      <c r="D30" s="25">
+        <v>820</v>
+      </c>
+      <c r="E30" s="25">
+        <v>510</v>
+      </c>
+      <c r="F30" s="25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A31" s="16">
+        <v>7028</v>
+      </c>
+      <c r="B31" s="17">
+        <v>1</v>
+      </c>
+      <c r="C31" s="17">
+        <v>28</v>
+      </c>
+      <c r="D31" s="25">
+        <v>855</v>
+      </c>
+      <c r="E31" s="25">
+        <v>540</v>
+      </c>
+      <c r="F31" s="25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A32" s="16">
+        <v>7029</v>
+      </c>
+      <c r="B32" s="17">
+        <v>1</v>
+      </c>
+      <c r="C32" s="17">
+        <v>29</v>
+      </c>
+      <c r="D32" s="25">
+        <v>890</v>
+      </c>
+      <c r="E32" s="25">
+        <v>570</v>
+      </c>
+      <c r="F32" s="25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A33" s="16">
+        <v>7030</v>
+      </c>
+      <c r="B33" s="17">
+        <v>1</v>
+      </c>
+      <c r="C33" s="17">
+        <v>30</v>
+      </c>
+      <c r="D33" s="25">
+        <v>1040</v>
+      </c>
+      <c r="E33" s="25">
+        <v>600</v>
+      </c>
+      <c r="F33" s="25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A34" s="16">
+        <v>7031</v>
+      </c>
+      <c r="B34" s="17">
+        <v>1</v>
+      </c>
+      <c r="C34" s="17">
+        <v>31</v>
+      </c>
+      <c r="D34" s="25">
+        <v>1080</v>
+      </c>
+      <c r="E34" s="25">
+        <v>640</v>
+      </c>
+      <c r="F34" s="25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A35" s="16">
+        <v>7032</v>
+      </c>
+      <c r="B35" s="17">
+        <v>1</v>
+      </c>
+      <c r="C35" s="17">
+        <v>32</v>
+      </c>
+      <c r="D35" s="25">
+        <v>1120</v>
+      </c>
+      <c r="E35" s="25">
+        <v>680</v>
+      </c>
+      <c r="F35" s="25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A36" s="16">
+        <v>7033</v>
+      </c>
+      <c r="B36" s="17">
+        <v>1</v>
+      </c>
+      <c r="C36" s="17">
+        <v>33</v>
+      </c>
+      <c r="D36" s="25">
+        <v>1160</v>
+      </c>
+      <c r="E36" s="25">
+        <v>720</v>
+      </c>
+      <c r="F36" s="25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A37" s="16">
+        <v>7034</v>
+      </c>
+      <c r="B37" s="17">
+        <v>1</v>
+      </c>
+      <c r="C37" s="17">
+        <v>34</v>
+      </c>
+      <c r="D37" s="25">
+        <v>1200</v>
+      </c>
+      <c r="E37" s="25">
+        <v>760</v>
+      </c>
+      <c r="F37" s="25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A38" s="16">
+        <v>7035</v>
+      </c>
+      <c r="B38" s="17">
+        <v>1</v>
+      </c>
+      <c r="C38" s="17">
+        <v>35</v>
+      </c>
+      <c r="D38" s="25">
+        <v>1240</v>
+      </c>
+      <c r="E38" s="25">
+        <v>800</v>
+      </c>
+      <c r="F38" s="25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A39" s="16">
+        <v>7036</v>
+      </c>
+      <c r="B39" s="17">
+        <v>1</v>
+      </c>
+      <c r="C39" s="17">
+        <v>36</v>
+      </c>
+      <c r="D39" s="25">
+        <v>1280</v>
+      </c>
+      <c r="E39" s="25">
+        <v>840</v>
+      </c>
+      <c r="F39" s="25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A40" s="16">
+        <v>7037</v>
+      </c>
+      <c r="B40" s="17">
+        <v>1</v>
+      </c>
+      <c r="C40" s="17">
+        <v>37</v>
+      </c>
+      <c r="D40" s="25">
+        <v>1320</v>
+      </c>
+      <c r="E40" s="25">
+        <v>880</v>
+      </c>
+      <c r="F40" s="25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A41" s="16">
+        <v>7038</v>
+      </c>
+      <c r="B41" s="17">
+        <v>1</v>
+      </c>
+      <c r="C41" s="17">
+        <v>38</v>
+      </c>
+      <c r="D41" s="25">
+        <v>1360</v>
+      </c>
+      <c r="E41" s="25">
+        <v>920</v>
+      </c>
+      <c r="F41" s="25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A42" s="16">
+        <v>7039</v>
+      </c>
+      <c r="B42" s="17">
+        <v>1</v>
+      </c>
+      <c r="C42" s="17">
+        <v>39</v>
+      </c>
+      <c r="D42" s="25">
+        <v>1400</v>
+      </c>
+      <c r="E42" s="25">
+        <v>960</v>
+      </c>
+      <c r="F42" s="25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A43" s="16">
+        <v>7040</v>
+      </c>
+      <c r="B43" s="17">
+        <v>1</v>
+      </c>
+      <c r="C43" s="17">
+        <v>40</v>
+      </c>
+      <c r="D43" s="25">
+        <v>1550</v>
+      </c>
+      <c r="E43" s="25">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A44" s="16">
+        <v>7041</v>
+      </c>
+      <c r="B44" s="17">
+        <v>1</v>
+      </c>
+      <c r="C44" s="17">
+        <v>41</v>
+      </c>
+      <c r="D44" s="25">
+        <v>1590</v>
+      </c>
+      <c r="E44" s="25">
+        <v>1050</v>
+      </c>
+      <c r="F44" s="25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A45" s="16">
+        <v>7042</v>
+      </c>
+      <c r="B45" s="17">
+        <v>1</v>
+      </c>
+      <c r="C45" s="17">
+        <v>42</v>
+      </c>
+      <c r="D45" s="25">
+        <v>1630</v>
+      </c>
+      <c r="E45" s="25">
+        <v>1100</v>
+      </c>
+      <c r="F45" s="25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A46" s="16">
+        <v>7043</v>
+      </c>
+      <c r="B46" s="17">
+        <v>1</v>
+      </c>
+      <c r="C46" s="17">
+        <v>43</v>
+      </c>
+      <c r="D46" s="25">
+        <v>1670</v>
+      </c>
+      <c r="E46" s="25">
+        <v>1150</v>
+      </c>
+      <c r="F46" s="25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A47" s="16">
+        <v>7044</v>
+      </c>
+      <c r="B47" s="17">
+        <v>1</v>
+      </c>
+      <c r="C47" s="17">
+        <v>44</v>
+      </c>
+      <c r="D47" s="25">
+        <v>1710</v>
+      </c>
+      <c r="E47" s="25">
+        <v>1200</v>
+      </c>
+      <c r="F47" s="25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A48" s="16">
+        <v>7045</v>
+      </c>
+      <c r="B48" s="17">
+        <v>1</v>
+      </c>
+      <c r="C48" s="17">
+        <v>45</v>
+      </c>
+      <c r="D48" s="25">
+        <v>1750</v>
+      </c>
+      <c r="E48" s="25">
+        <v>1250</v>
+      </c>
+      <c r="F48" s="25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A49" s="16">
+        <v>7046</v>
+      </c>
+      <c r="B49" s="17">
+        <v>1</v>
+      </c>
+      <c r="C49" s="17">
+        <v>46</v>
+      </c>
+      <c r="D49" s="25">
+        <v>1790</v>
+      </c>
+      <c r="E49" s="25">
+        <v>1300</v>
+      </c>
+      <c r="F49" s="25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A50" s="16">
+        <v>7047</v>
+      </c>
+      <c r="B50" s="17">
+        <v>1</v>
+      </c>
+      <c r="C50" s="17">
+        <v>47</v>
+      </c>
+      <c r="D50" s="25">
+        <v>1830</v>
+      </c>
+      <c r="E50" s="25">
+        <v>1350</v>
+      </c>
+      <c r="F50" s="25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A51" s="16">
+        <v>7048</v>
+      </c>
+      <c r="B51" s="17">
+        <v>1</v>
+      </c>
+      <c r="C51" s="17">
+        <v>48</v>
+      </c>
+      <c r="D51" s="25">
+        <v>1870</v>
+      </c>
+      <c r="E51" s="25">
+        <v>1400</v>
+      </c>
+      <c r="F51" s="25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A52" s="16">
+        <v>7049</v>
+      </c>
+      <c r="B52" s="17">
+        <v>1</v>
+      </c>
+      <c r="C52" s="17">
+        <v>49</v>
+      </c>
+      <c r="D52" s="25">
+        <v>1910</v>
+      </c>
+      <c r="E52" s="25">
+        <v>1450</v>
+      </c>
+      <c r="F52" s="25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A53" s="16">
+        <v>7050</v>
+      </c>
+      <c r="B53" s="17">
+        <v>1</v>
+      </c>
+      <c r="C53" s="17">
+        <v>50</v>
+      </c>
+      <c r="D53" s="25">
+        <v>2110</v>
+      </c>
+      <c r="E53" s="25">
+        <v>1500</v>
+      </c>
+      <c r="F53" s="25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A54" s="14">
+        <v>7051</v>
+      </c>
+      <c r="B54" s="15">
+        <v>2</v>
+      </c>
+      <c r="C54" s="15">
+        <v>1</v>
+      </c>
+      <c r="D54" s="26">
+        <v>25</v>
+      </c>
+      <c r="E54" s="26">
+        <v>10</v>
+      </c>
+      <c r="F54" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A55" s="16">
+        <v>7052</v>
+      </c>
+      <c r="B55" s="17">
+        <v>2</v>
+      </c>
+      <c r="C55" s="17">
+        <v>2</v>
+      </c>
+      <c r="D55" s="25">
+        <v>50</v>
+      </c>
+      <c r="E55" s="25">
+        <v>20</v>
+      </c>
+      <c r="F55" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A56" s="16">
+        <v>7053</v>
+      </c>
+      <c r="B56" s="17">
+        <v>2</v>
+      </c>
+      <c r="C56" s="17">
+        <v>3</v>
+      </c>
+      <c r="D56" s="25">
+        <v>75</v>
+      </c>
+      <c r="E56" s="25">
+        <v>30</v>
+      </c>
+      <c r="F56" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A57" s="16">
+        <v>7054</v>
+      </c>
+      <c r="B57" s="17">
+        <v>2</v>
+      </c>
+      <c r="C57" s="17">
+        <v>4</v>
+      </c>
+      <c r="D57" s="25">
+        <v>100</v>
+      </c>
+      <c r="E57" s="25">
+        <v>40</v>
+      </c>
+      <c r="F57" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A58" s="16">
+        <v>7055</v>
+      </c>
+      <c r="B58" s="17">
+        <v>2</v>
+      </c>
+      <c r="C58" s="17">
+        <v>5</v>
+      </c>
+      <c r="D58" s="25">
+        <v>125</v>
+      </c>
+      <c r="E58" s="25">
+        <v>50</v>
+      </c>
+      <c r="F58" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A59" s="16">
+        <v>7056</v>
+      </c>
+      <c r="B59" s="17">
+        <v>2</v>
+      </c>
+      <c r="C59" s="17">
+        <v>6</v>
+      </c>
+      <c r="D59" s="25">
+        <v>150</v>
+      </c>
+      <c r="E59" s="25">
+        <v>60</v>
+      </c>
+      <c r="F59" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A60" s="16">
+        <v>7057</v>
+      </c>
+      <c r="B60" s="17">
+        <v>2</v>
+      </c>
+      <c r="C60" s="17">
+        <v>7</v>
+      </c>
+      <c r="D60" s="25">
+        <v>175</v>
+      </c>
+      <c r="E60" s="25">
+        <v>70</v>
+      </c>
+      <c r="F60" s="25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A61" s="16">
+        <v>7058</v>
+      </c>
+      <c r="B61" s="17">
+        <v>2</v>
+      </c>
+      <c r="C61" s="17">
+        <v>8</v>
+      </c>
+      <c r="D61" s="25">
+        <v>200</v>
+      </c>
+      <c r="E61" s="25">
+        <v>80</v>
+      </c>
+      <c r="F61" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A62" s="16">
+        <v>7059</v>
+      </c>
+      <c r="B62" s="17">
+        <v>2</v>
+      </c>
+      <c r="C62" s="17">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D62" s="25">
+        <v>225</v>
+      </c>
+      <c r="E62" s="25">
+        <v>90</v>
+      </c>
+      <c r="F62" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A63" s="16">
+        <v>7060</v>
+      </c>
+      <c r="B63" s="17">
+        <v>2</v>
+      </c>
+      <c r="C63" s="17">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D63" s="25">
+        <v>275</v>
+      </c>
+      <c r="E63" s="25">
+        <v>100</v>
+      </c>
+      <c r="F63" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A64" s="16">
+        <v>7061</v>
+      </c>
+      <c r="B64" s="17">
+        <v>2</v>
+      </c>
+      <c r="C64" s="17">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D64" s="25">
+        <v>300</v>
+      </c>
+      <c r="E64" s="25">
+        <v>120</v>
+      </c>
+      <c r="F64" s="25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A65" s="16">
+        <v>7062</v>
+      </c>
+      <c r="B65" s="17">
+        <v>2</v>
+      </c>
+      <c r="C65" s="17">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D65" s="25">
+        <v>325</v>
+      </c>
+      <c r="E65" s="25">
+        <v>140</v>
+      </c>
+      <c r="F65" s="25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A66" s="16">
+        <v>7063</v>
+      </c>
+      <c r="B66" s="17">
+        <v>2</v>
+      </c>
+      <c r="C66" s="17">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="49.5">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D66" s="25">
+        <v>350</v>
+      </c>
+      <c r="E66" s="25">
+        <v>160</v>
+      </c>
+      <c r="F66" s="25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A67" s="16">
+        <v>7064</v>
+      </c>
+      <c r="B67" s="17">
+        <v>2</v>
+      </c>
+      <c r="C67" s="17">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="82.5">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D67" s="25">
+        <v>375</v>
+      </c>
+      <c r="E67" s="25">
+        <v>180</v>
+      </c>
+      <c r="F67" s="25">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="82.5">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="20" t="s">
+    <row r="68" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A68" s="16">
+        <v>7065</v>
+      </c>
+      <c r="B68" s="17">
+        <v>2</v>
+      </c>
+      <c r="C68" s="17">
+        <v>15</v>
+      </c>
+      <c r="D68" s="25">
+        <v>400</v>
+      </c>
+      <c r="E68" s="25">
+        <v>200</v>
+      </c>
+      <c r="F68" s="25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A69" s="16">
+        <v>7066</v>
+      </c>
+      <c r="B69" s="17">
+        <v>2</v>
+      </c>
+      <c r="C69" s="17">
+        <v>16</v>
+      </c>
+      <c r="D69" s="25">
+        <v>425</v>
+      </c>
+      <c r="E69" s="25">
+        <v>220</v>
+      </c>
+      <c r="F69" s="25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A70" s="16">
+        <v>7067</v>
+      </c>
+      <c r="B70" s="17">
+        <v>2</v>
+      </c>
+      <c r="C70" s="17">
+        <v>17</v>
+      </c>
+      <c r="D70" s="25">
+        <v>450</v>
+      </c>
+      <c r="E70" s="25">
+        <v>240</v>
+      </c>
+      <c r="F70" s="25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A71" s="16">
+        <v>7068</v>
+      </c>
+      <c r="B71" s="17">
+        <v>2</v>
+      </c>
+      <c r="C71" s="17">
+        <v>18</v>
+      </c>
+      <c r="D71" s="25">
+        <v>475</v>
+      </c>
+      <c r="E71" s="25">
+        <v>260</v>
+      </c>
+      <c r="F71" s="25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A72" s="16">
+        <v>7069</v>
+      </c>
+      <c r="B72" s="17">
+        <v>2</v>
+      </c>
+      <c r="C72" s="17">
+        <v>19</v>
+      </c>
+      <c r="D72" s="25">
+        <v>500</v>
+      </c>
+      <c r="E72" s="25">
+        <v>280</v>
+      </c>
+      <c r="F72" s="25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A73" s="16">
+        <v>7070</v>
+      </c>
+      <c r="B73" s="17">
+        <v>2</v>
+      </c>
+      <c r="C73" s="17">
+        <v>20</v>
+      </c>
+      <c r="D73" s="25">
+        <v>600</v>
+      </c>
+      <c r="E73" s="25">
+        <v>300</v>
+      </c>
+      <c r="F73" s="25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A74" s="16">
+        <v>7071</v>
+      </c>
+      <c r="B74" s="17">
+        <v>2</v>
+      </c>
+      <c r="C74" s="17">
+        <v>21</v>
+      </c>
+      <c r="D74" s="25">
+        <v>625</v>
+      </c>
+      <c r="E74" s="25">
+        <v>330</v>
+      </c>
+      <c r="F74" s="25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A75" s="16">
+        <v>7072</v>
+      </c>
+      <c r="B75" s="17">
+        <v>2</v>
+      </c>
+      <c r="C75" s="17">
+        <v>22</v>
+      </c>
+      <c r="D75" s="25">
+        <v>650</v>
+      </c>
+      <c r="E75" s="25">
+        <v>360</v>
+      </c>
+      <c r="F75" s="25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A76" s="16">
+        <v>7073</v>
+      </c>
+      <c r="B76" s="17">
+        <v>2</v>
+      </c>
+      <c r="C76" s="17">
+        <v>23</v>
+      </c>
+      <c r="D76" s="25">
+        <v>680</v>
+      </c>
+      <c r="E76" s="25">
+        <v>390</v>
+      </c>
+      <c r="F76" s="25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A77" s="16">
+        <v>7074</v>
+      </c>
+      <c r="B77" s="17">
+        <v>2</v>
+      </c>
+      <c r="C77" s="17">
+        <v>24</v>
+      </c>
+      <c r="D77" s="25">
+        <v>715</v>
+      </c>
+      <c r="E77" s="25">
+        <v>420</v>
+      </c>
+      <c r="F77" s="25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A78" s="16">
+        <v>7075</v>
+      </c>
+      <c r="B78" s="17">
+        <v>2</v>
+      </c>
+      <c r="C78" s="17">
+        <v>25</v>
+      </c>
+      <c r="D78" s="25">
+        <v>750</v>
+      </c>
+      <c r="E78" s="25">
+        <v>450</v>
+      </c>
+      <c r="F78" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A79" s="16">
+        <v>7076</v>
+      </c>
+      <c r="B79" s="17">
+        <v>2</v>
+      </c>
+      <c r="C79" s="17">
+        <v>26</v>
+      </c>
+      <c r="D79" s="25">
+        <v>785</v>
+      </c>
+      <c r="E79" s="25">
+        <v>480</v>
+      </c>
+      <c r="F79" s="25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A80" s="16">
+        <v>7077</v>
+      </c>
+      <c r="B80" s="17">
+        <v>2</v>
+      </c>
+      <c r="C80" s="17">
+        <v>27</v>
+      </c>
+      <c r="D80" s="25">
+        <v>820</v>
+      </c>
+      <c r="E80" s="25">
+        <v>510</v>
+      </c>
+      <c r="F80" s="25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A81" s="16">
+        <v>7078</v>
+      </c>
+      <c r="B81" s="17">
+        <v>2</v>
+      </c>
+      <c r="C81" s="17">
+        <v>28</v>
+      </c>
+      <c r="D81" s="25">
+        <v>855</v>
+      </c>
+      <c r="E81" s="25">
+        <v>540</v>
+      </c>
+      <c r="F81" s="25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A82" s="16">
+        <v>7079</v>
+      </c>
+      <c r="B82" s="17">
+        <v>2</v>
+      </c>
+      <c r="C82" s="17">
+        <v>29</v>
+      </c>
+      <c r="D82" s="25">
+        <v>890</v>
+      </c>
+      <c r="E82" s="25">
+        <v>570</v>
+      </c>
+      <c r="F82" s="25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A83" s="16">
+        <v>7080</v>
+      </c>
+      <c r="B83" s="17">
+        <v>2</v>
+      </c>
+      <c r="C83" s="17">
+        <v>30</v>
+      </c>
+      <c r="D83" s="25">
+        <v>1040</v>
+      </c>
+      <c r="E83" s="25">
+        <v>600</v>
+      </c>
+      <c r="F83" s="25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A84" s="16">
+        <v>7081</v>
+      </c>
+      <c r="B84" s="17">
+        <v>2</v>
+      </c>
+      <c r="C84" s="17">
+        <v>31</v>
+      </c>
+      <c r="D84" s="25">
+        <v>1080</v>
+      </c>
+      <c r="E84" s="25">
+        <v>640</v>
+      </c>
+      <c r="F84" s="25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A85" s="16">
+        <v>7082</v>
+      </c>
+      <c r="B85" s="17">
+        <v>2</v>
+      </c>
+      <c r="C85" s="17">
+        <v>32</v>
+      </c>
+      <c r="D85" s="25">
+        <v>1120</v>
+      </c>
+      <c r="E85" s="25">
+        <v>680</v>
+      </c>
+      <c r="F85" s="25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A86" s="16">
+        <v>7083</v>
+      </c>
+      <c r="B86" s="17">
+        <v>2</v>
+      </c>
+      <c r="C86" s="17">
+        <v>33</v>
+      </c>
+      <c r="D86" s="25">
+        <v>1160</v>
+      </c>
+      <c r="E86" s="25">
+        <v>720</v>
+      </c>
+      <c r="F86" s="25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A87" s="16">
+        <v>7084</v>
+      </c>
+      <c r="B87" s="17">
+        <v>2</v>
+      </c>
+      <c r="C87" s="17">
+        <v>34</v>
+      </c>
+      <c r="D87" s="25">
+        <v>1200</v>
+      </c>
+      <c r="E87" s="25">
+        <v>760</v>
+      </c>
+      <c r="F87" s="25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A88" s="16">
+        <v>7085</v>
+      </c>
+      <c r="B88" s="17">
+        <v>2</v>
+      </c>
+      <c r="C88" s="17">
+        <v>35</v>
+      </c>
+      <c r="D88" s="25">
+        <v>1240</v>
+      </c>
+      <c r="E88" s="25">
+        <v>800</v>
+      </c>
+      <c r="F88" s="25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A89" s="16">
+        <v>7086</v>
+      </c>
+      <c r="B89" s="17">
+        <v>2</v>
+      </c>
+      <c r="C89" s="17">
+        <v>36</v>
+      </c>
+      <c r="D89" s="25">
+        <v>1280</v>
+      </c>
+      <c r="E89" s="25">
+        <v>840</v>
+      </c>
+      <c r="F89" s="25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A90" s="16">
+        <v>7087</v>
+      </c>
+      <c r="B90" s="17">
+        <v>2</v>
+      </c>
+      <c r="C90" s="17">
+        <v>37</v>
+      </c>
+      <c r="D90" s="25">
+        <v>1320</v>
+      </c>
+      <c r="E90" s="25">
+        <v>880</v>
+      </c>
+      <c r="F90" s="25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A91" s="16">
+        <v>7088</v>
+      </c>
+      <c r="B91" s="17">
+        <v>2</v>
+      </c>
+      <c r="C91" s="17">
+        <v>38</v>
+      </c>
+      <c r="D91" s="25">
+        <v>1360</v>
+      </c>
+      <c r="E91" s="25">
+        <v>920</v>
+      </c>
+      <c r="F91" s="25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A92" s="16">
+        <v>7089</v>
+      </c>
+      <c r="B92" s="17">
+        <v>2</v>
+      </c>
+      <c r="C92" s="17">
+        <v>39</v>
+      </c>
+      <c r="D92" s="25">
+        <v>1400</v>
+      </c>
+      <c r="E92" s="25">
+        <v>960</v>
+      </c>
+      <c r="F92" s="25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A93" s="16">
+        <v>7090</v>
+      </c>
+      <c r="B93" s="17">
+        <v>2</v>
+      </c>
+      <c r="C93" s="17">
+        <v>40</v>
+      </c>
+      <c r="D93" s="25">
+        <v>1550</v>
+      </c>
+      <c r="E93" s="25">
+        <v>1000</v>
+      </c>
+      <c r="F93" s="25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A94" s="16">
+        <v>7091</v>
+      </c>
+      <c r="B94" s="17">
+        <v>2</v>
+      </c>
+      <c r="C94" s="17">
+        <v>41</v>
+      </c>
+      <c r="D94" s="25">
+        <v>1590</v>
+      </c>
+      <c r="E94" s="25">
+        <v>1050</v>
+      </c>
+      <c r="F94" s="25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A95" s="16">
+        <v>7092</v>
+      </c>
+      <c r="B95" s="17">
+        <v>2</v>
+      </c>
+      <c r="C95" s="17">
+        <v>42</v>
+      </c>
+      <c r="D95" s="25">
+        <v>1630</v>
+      </c>
+      <c r="E95" s="25">
+        <v>1100</v>
+      </c>
+      <c r="F95" s="25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A96" s="16">
+        <v>7093</v>
+      </c>
+      <c r="B96" s="17">
+        <v>2</v>
+      </c>
+      <c r="C96" s="17">
+        <v>43</v>
+      </c>
+      <c r="D96" s="25">
+        <v>1670</v>
+      </c>
+      <c r="E96" s="25">
+        <v>1150</v>
+      </c>
+      <c r="F96" s="25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A97" s="16">
+        <v>7094</v>
+      </c>
+      <c r="B97" s="17">
+        <v>2</v>
+      </c>
+      <c r="C97" s="17">
+        <v>44</v>
+      </c>
+      <c r="D97" s="25">
+        <v>1710</v>
+      </c>
+      <c r="E97" s="25">
+        <v>1200</v>
+      </c>
+      <c r="F97" s="25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A98" s="16">
+        <v>7095</v>
+      </c>
+      <c r="B98" s="17">
+        <v>2</v>
+      </c>
+      <c r="C98" s="17">
+        <v>45</v>
+      </c>
+      <c r="D98" s="25">
+        <v>1750</v>
+      </c>
+      <c r="E98" s="25">
+        <v>1250</v>
+      </c>
+      <c r="F98" s="25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A99" s="16">
+        <v>7096</v>
+      </c>
+      <c r="B99" s="17">
+        <v>2</v>
+      </c>
+      <c r="C99" s="17">
+        <v>46</v>
+      </c>
+      <c r="D99" s="25">
+        <v>1790</v>
+      </c>
+      <c r="E99" s="25">
+        <v>1300</v>
+      </c>
+      <c r="F99" s="25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A100" s="16">
+        <v>7097</v>
+      </c>
+      <c r="B100" s="17">
+        <v>2</v>
+      </c>
+      <c r="C100" s="17">
+        <v>47</v>
+      </c>
+      <c r="D100" s="25">
+        <v>1830</v>
+      </c>
+      <c r="E100" s="25">
+        <v>1350</v>
+      </c>
+      <c r="F100" s="25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A101" s="16">
+        <v>7098</v>
+      </c>
+      <c r="B101" s="17">
+        <v>2</v>
+      </c>
+      <c r="C101" s="17">
+        <v>48</v>
+      </c>
+      <c r="D101" s="25">
+        <v>1870</v>
+      </c>
+      <c r="E101" s="25">
+        <v>1400</v>
+      </c>
+      <c r="F101" s="25">
         <v>131</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="49.5">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="82.5">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="66">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="49.5">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="66">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="33">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="115.5">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="82.5">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
+    </row>
+    <row r="102" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A102" s="16">
+        <v>7099</v>
+      </c>
+      <c r="B102" s="17">
+        <v>2</v>
+      </c>
+      <c r="C102" s="17">
+        <v>49</v>
+      </c>
+      <c r="D102" s="25">
+        <v>1910</v>
+      </c>
+      <c r="E102" s="25">
+        <v>1450</v>
+      </c>
+      <c r="F102" s="25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A103" s="16">
+        <v>7100</v>
+      </c>
+      <c r="B103" s="17">
+        <v>2</v>
+      </c>
+      <c r="C103" s="17">
+        <v>50</v>
+      </c>
+      <c r="D103" s="25">
+        <v>2110</v>
+      </c>
+      <c r="E103" s="25">
+        <v>1500</v>
+      </c>
+      <c r="F103" s="25">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3931,320 +5851,193 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5409F1B1-0956-4B26-ACA9-55F5DBAB54F5}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8FABB6-B12D-4D0B-ADBA-E809D3A5F66E}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="104.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="51">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="85">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="85">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A4" s="14">
-        <v>401</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="B7" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="51">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="C4" s="15">
-        <v>1</v>
-      </c>
-      <c r="D4" s="15">
-        <v>2</v>
-      </c>
-      <c r="E4" s="15">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A5" s="16">
-        <v>402</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="B8" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="85">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="C5" s="17">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17">
-        <v>2</v>
-      </c>
-      <c r="E5" s="17">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A6" s="16">
-        <v>403</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="B9" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="68">
+      <c r="A10">
         <v>6</v>
       </c>
-      <c r="C6" s="17">
-        <v>1</v>
-      </c>
-      <c r="D6" s="17">
-        <v>2</v>
-      </c>
-      <c r="E6" s="17">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A7" s="16">
-        <v>404</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="B10" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="51">
+      <c r="A11">
         <v>7</v>
       </c>
-      <c r="C7" s="17">
-        <v>1</v>
-      </c>
-      <c r="D7" s="17">
-        <v>2</v>
-      </c>
-      <c r="E7" s="17">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A8" s="16">
-        <v>405</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="B11" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="68">
+      <c r="A12">
         <v>8</v>
       </c>
-      <c r="C8" s="17">
-        <v>1</v>
-      </c>
-      <c r="D8" s="17">
-        <v>2</v>
-      </c>
-      <c r="E8" s="17">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A9" s="16">
-        <v>406</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="17">
-        <v>1</v>
-      </c>
-      <c r="D9" s="17">
-        <v>2</v>
-      </c>
-      <c r="E9" s="17">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A10" s="16">
-        <v>407</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="17">
-        <v>1</v>
-      </c>
-      <c r="D10" s="17">
-        <v>2</v>
-      </c>
-      <c r="E10" s="17">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A11" s="16">
-        <v>408</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="17">
-        <v>1</v>
-      </c>
-      <c r="D11" s="17">
-        <v>2</v>
-      </c>
-      <c r="E11" s="17">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A12" s="16">
-        <v>409</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="17">
-        <v>1</v>
-      </c>
-      <c r="D12" s="17">
-        <v>2</v>
-      </c>
-      <c r="E12" s="17">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A13" s="16">
-        <v>410</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="17">
-        <v>1</v>
-      </c>
-      <c r="D13" s="17">
-        <v>2</v>
-      </c>
-      <c r="E13" s="17">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" t="s">
-        <v>226</v>
+      <c r="B12" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="34">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="119">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="85">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4255,20 +6048,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B13BC7-908D-4893-B4AD-1079229E5F6F}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5409F1B1-0956-4B26-ACA9-55F5DBAB54F5}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.58203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4317,7 +6111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1">
+    <row r="3" spans="1:7" ht="17.5" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4334,125 +6128,240 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" thickBot="1">
+    <row r="4" spans="1:7" ht="17.5" thickBot="1">
       <c r="A4" s="14">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C4" s="15">
         <v>1</v>
       </c>
       <c r="D4" s="15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E4" s="15">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>89</v>
-      </c>
       <c r="G4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17.25" thickBot="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.5" thickBot="1">
       <c r="A5" s="16">
-        <v>502</v>
+        <v>402</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="C5" s="17">
         <v>1</v>
       </c>
       <c r="D5" s="17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E5" s="17">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.5" thickBot="1">
       <c r="A6" s="16">
-        <v>503</v>
+        <v>403</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="C6" s="17">
         <v>1</v>
       </c>
       <c r="D6" s="17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E6" s="17">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.5" thickBot="1">
       <c r="A7" s="16">
-        <v>504</v>
+        <v>404</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="C7" s="17">
         <v>1</v>
       </c>
       <c r="D7" s="17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E7" s="17">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17.25" thickBot="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.5" thickBot="1">
       <c r="A8" s="16">
-        <v>505</v>
+        <v>405</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="C8" s="17">
         <v>1</v>
       </c>
       <c r="D8" s="17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E8" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>231</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A9" s="16">
+        <v>406</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="17">
+        <v>1</v>
+      </c>
+      <c r="D9" s="17">
+        <v>2</v>
+      </c>
+      <c r="E9" s="17">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A10" s="16">
+        <v>407</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="17">
+        <v>1</v>
+      </c>
+      <c r="D10" s="17">
+        <v>2</v>
+      </c>
+      <c r="E10" s="17">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A11" s="16">
+        <v>408</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17">
+        <v>2</v>
+      </c>
+      <c r="E11" s="17">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A12" s="16">
+        <v>409</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="17">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17">
+        <v>2</v>
+      </c>
+      <c r="E12" s="17">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A13" s="16">
+        <v>410</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="17">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17">
+        <v>2</v>
+      </c>
+      <c r="E13" s="17">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4463,545 +6372,204 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40025AE-C7D8-4357-9319-EFD6B75D65B3}">
-  <dimension ref="A1:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B13BC7-908D-4893-B4AD-1079229E5F6F}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" customWidth="1"/>
+    <col min="6" max="6" width="13.58203125" customWidth="1"/>
+    <col min="7" max="7" width="19.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A4" s="14">
+        <v>501</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15">
+        <v>10</v>
+      </c>
+      <c r="E4" s="15">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A5" s="16">
+        <v>502</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17">
+        <v>10</v>
+      </c>
+      <c r="E5" s="17">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A6" s="16">
+        <v>503</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17">
+        <v>10</v>
+      </c>
+      <c r="E6" s="17">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A7" s="16">
+        <v>504</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17">
+        <v>10</v>
+      </c>
+      <c r="E7" s="17">
         <v>50</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="49.5">
-      <c r="A4">
-        <v>3001</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="3">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3">
-        <v>-15</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4">
-        <v>-10</v>
-      </c>
-      <c r="K4" s="3">
-        <v>20</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="N4">
-        <v>30</v>
-      </c>
-      <c r="O4" s="3">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="49.5">
-      <c r="A5">
-        <v>3002</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="3">
-        <v>20</v>
-      </c>
-      <c r="G5" s="3">
-        <v>-15</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="J5">
-        <v>-10</v>
-      </c>
-      <c r="K5" s="3">
-        <v>20</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="N5">
-        <v>30</v>
-      </c>
-      <c r="O5" s="3">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="66">
-      <c r="A6">
-        <v>3003</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="3">
-        <v>20</v>
-      </c>
-      <c r="G6" s="3">
-        <v>-15</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="J6">
-        <v>-10</v>
-      </c>
-      <c r="K6" s="3">
-        <v>20</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="N6">
-        <v>30</v>
-      </c>
-      <c r="O6" s="3">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="49.5">
-      <c r="A7">
-        <v>3004</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="3">
-        <v>20</v>
-      </c>
-      <c r="G7" s="3">
-        <v>-15</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J7">
-        <v>-10</v>
-      </c>
-      <c r="K7" s="3">
-        <v>20</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="N7">
-        <v>30</v>
-      </c>
-      <c r="O7" s="3">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="49.5">
-      <c r="A8">
-        <v>3005</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="3">
-        <v>20</v>
-      </c>
-      <c r="G8" s="3">
-        <v>-15</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="J8">
-        <v>-10</v>
-      </c>
-      <c r="K8" s="3">
-        <v>20</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="N8">
-        <v>30</v>
-      </c>
-      <c r="O8" s="3">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="49.5">
-      <c r="A9">
-        <v>3006</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="3">
-        <v>20</v>
-      </c>
-      <c r="G9" s="3">
-        <v>-15</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="J9">
-        <v>-10</v>
-      </c>
-      <c r="K9" s="3">
-        <v>20</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="N9">
-        <v>30</v>
-      </c>
-      <c r="O9" s="3">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="49.5">
-      <c r="A10">
-        <v>3007</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="3">
-        <v>20</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-15</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="J10">
-        <v>-10</v>
-      </c>
-      <c r="K10" s="3">
-        <v>20</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="N10">
-        <v>30</v>
-      </c>
-      <c r="O10" s="3">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="49.5">
-      <c r="A11">
-        <v>3008</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="3">
-        <v>20</v>
-      </c>
-      <c r="G11" s="3">
-        <v>-15</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="J11">
-        <v>-10</v>
-      </c>
-      <c r="K11" s="3">
-        <v>20</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="N11">
-        <v>30</v>
-      </c>
-      <c r="O11" s="3">
-        <v>-15</v>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A8" s="16">
+        <v>505</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17">
+        <v>10</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5012,1006 +6580,545 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3B3B7E-BA51-4E15-824F-73A2BFC53D10}">
-  <dimension ref="A1:M24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40025AE-C7D8-4357-9319-EFD6B75D65B3}">
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M24"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" customWidth="1"/>
+    <col min="2" max="2" width="31.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L1" t="s">
-        <v>233</v>
-      </c>
-      <c r="M1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>
       </c>
       <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" t="s">
-        <v>136</v>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I3" t="s">
-        <v>209</v>
-      </c>
-      <c r="J3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K3" t="s">
-        <v>191</v>
-      </c>
-      <c r="L3" t="s">
-        <v>233</v>
-      </c>
-      <c r="M3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>103</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="51">
       <c r="A4">
-        <v>201</v>
-      </c>
-      <c r="B4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4">
+        <v>3001</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-15</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4">
+        <v>-10</v>
+      </c>
+      <c r="K4" s="3">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="N4">
+        <v>30</v>
+      </c>
+      <c r="O4" s="3">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="51">
+      <c r="A5">
+        <v>3002</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="3">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-15</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5">
+        <v>-10</v>
+      </c>
+      <c r="K5" s="3">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="N5">
+        <v>30</v>
+      </c>
+      <c r="O5" s="3">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="68">
+      <c r="A6">
+        <v>3003</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F4">
-        <v>9500</v>
-      </c>
-      <c r="G4">
-        <v>280</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I4" t="s">
-        <v>193</v>
-      </c>
-      <c r="J4" t="s">
-        <v>193</v>
-      </c>
-      <c r="K4" s="1">
-        <v>701</v>
-      </c>
-      <c r="L4">
-        <v>601</v>
-      </c>
-      <c r="M4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5">
-        <v>202</v>
-      </c>
-      <c r="B5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5">
-        <v>37</v>
-      </c>
-      <c r="F5">
-        <v>8700</v>
-      </c>
-      <c r="G5">
-        <v>280</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I5" t="s">
-        <v>194</v>
-      </c>
-      <c r="J5" t="s">
-        <v>194</v>
-      </c>
-      <c r="K5" s="1">
-        <v>702</v>
-      </c>
-      <c r="L5">
-        <v>602</v>
-      </c>
-      <c r="M5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6">
-        <v>203</v>
-      </c>
-      <c r="B6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6">
-        <v>32</v>
-      </c>
-      <c r="F6">
-        <v>10600</v>
-      </c>
-      <c r="G6">
-        <v>260</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I6" t="s">
-        <v>210</v>
-      </c>
-      <c r="J6" t="s">
-        <v>210</v>
-      </c>
-      <c r="K6" s="1">
-        <v>703</v>
-      </c>
-      <c r="L6">
-        <v>603</v>
-      </c>
-      <c r="M6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="F6" s="3">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-15</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6">
+        <v>-10</v>
+      </c>
+      <c r="K6" s="3">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="N6">
+        <v>30</v>
+      </c>
+      <c r="O6" s="3">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="51">
       <c r="A7">
-        <v>204</v>
-      </c>
-      <c r="B7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7">
-        <v>26</v>
-      </c>
-      <c r="F7">
-        <v>9800</v>
-      </c>
-      <c r="G7">
-        <v>260</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I7" t="s">
-        <v>211</v>
-      </c>
-      <c r="J7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K7" s="1">
-        <v>704</v>
-      </c>
-      <c r="L7">
-        <v>604</v>
-      </c>
-      <c r="M7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3004</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="3">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-15</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7">
+        <v>-10</v>
+      </c>
+      <c r="K7" s="3">
+        <v>20</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="N7">
+        <v>30</v>
+      </c>
+      <c r="O7" s="3">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="51">
       <c r="A8">
-        <v>205</v>
-      </c>
-      <c r="B8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8">
+        <v>3005</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="3">
         <v>20</v>
       </c>
-      <c r="F8">
-        <v>13000</v>
-      </c>
-      <c r="G8">
-        <v>240</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I8" t="s">
-        <v>212</v>
-      </c>
-      <c r="J8" t="s">
-        <v>212</v>
-      </c>
-      <c r="K8" s="1">
-        <v>705</v>
-      </c>
-      <c r="L8">
-        <v>605</v>
-      </c>
-      <c r="M8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="G8" s="3">
+        <v>-15</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8">
+        <v>-10</v>
+      </c>
+      <c r="K8" s="3">
+        <v>20</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="N8">
+        <v>30</v>
+      </c>
+      <c r="O8" s="3">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="51">
       <c r="A9">
-        <v>206</v>
-      </c>
-      <c r="B9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9">
-        <v>14</v>
-      </c>
-      <c r="F9">
-        <v>12000</v>
-      </c>
-      <c r="G9">
-        <v>240</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I9" t="s">
-        <v>213</v>
-      </c>
-      <c r="J9" t="s">
-        <v>213</v>
-      </c>
-      <c r="K9" s="1">
-        <v>706</v>
-      </c>
-      <c r="L9">
-        <v>606</v>
-      </c>
-      <c r="M9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3006</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-15</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9">
+        <v>-10</v>
+      </c>
+      <c r="K9" s="3">
+        <v>20</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9">
+        <v>30</v>
+      </c>
+      <c r="O9" s="3">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="51">
       <c r="A10">
-        <v>207</v>
-      </c>
-      <c r="B10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10">
-        <v>22</v>
-      </c>
-      <c r="F10">
-        <v>5200</v>
-      </c>
-      <c r="G10">
-        <v>350</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I10" t="s">
-        <v>195</v>
-      </c>
-      <c r="J10" t="s">
-        <v>195</v>
-      </c>
-      <c r="K10" s="1">
-        <v>707</v>
-      </c>
-      <c r="L10">
-        <v>607</v>
-      </c>
-      <c r="M10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>3007</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="3">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-15</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10">
+        <v>-10</v>
+      </c>
+      <c r="K10" s="3">
+        <v>20</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10">
+        <v>30</v>
+      </c>
+      <c r="O10" s="3">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="51">
       <c r="A11">
-        <v>208</v>
-      </c>
-      <c r="B11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11">
-        <v>18</v>
-      </c>
-      <c r="F11">
-        <v>4300</v>
-      </c>
-      <c r="G11">
-        <v>350</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J11" t="s">
-        <v>196</v>
-      </c>
-      <c r="K11" s="1">
-        <v>708</v>
-      </c>
-      <c r="L11">
-        <v>608</v>
-      </c>
-      <c r="M11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12">
-        <v>209</v>
-      </c>
-      <c r="B12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12">
-        <v>18</v>
-      </c>
-      <c r="F12">
-        <v>6300</v>
-      </c>
-      <c r="G12">
-        <v>320</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I12" t="s">
-        <v>214</v>
-      </c>
-      <c r="J12" t="s">
-        <v>214</v>
-      </c>
-      <c r="K12" s="1">
-        <v>709</v>
-      </c>
-      <c r="L12">
-        <v>609</v>
-      </c>
-      <c r="M12" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13">
-        <v>210</v>
-      </c>
-      <c r="B13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <v>5600</v>
-      </c>
-      <c r="G13">
-        <v>320</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I13" t="s">
-        <v>215</v>
-      </c>
-      <c r="J13" t="s">
-        <v>215</v>
-      </c>
-      <c r="K13" s="1">
-        <v>710</v>
-      </c>
-      <c r="L13">
-        <v>610</v>
-      </c>
-      <c r="M13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14">
-        <v>211</v>
-      </c>
-      <c r="B14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14">
-        <v>17</v>
-      </c>
-      <c r="F14">
-        <v>7200</v>
-      </c>
-      <c r="G14">
-        <v>300</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I14" t="s">
-        <v>197</v>
-      </c>
-      <c r="J14" t="s">
-        <v>197</v>
-      </c>
-      <c r="K14" s="1">
-        <v>711</v>
-      </c>
-      <c r="L14">
-        <v>611</v>
-      </c>
-      <c r="M14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15">
-        <v>212</v>
-      </c>
-      <c r="B15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15">
-        <v>14</v>
-      </c>
-      <c r="F15">
-        <v>7800</v>
-      </c>
-      <c r="G15">
-        <v>300</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I15" t="s">
-        <v>198</v>
-      </c>
-      <c r="J15" t="s">
-        <v>198</v>
-      </c>
-      <c r="K15" s="1">
-        <v>712</v>
-      </c>
-      <c r="L15">
-        <v>612</v>
-      </c>
-      <c r="M15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16">
-        <v>213</v>
-      </c>
-      <c r="B16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16">
-        <v>45</v>
-      </c>
-      <c r="F16">
-        <v>10300</v>
-      </c>
-      <c r="G16">
-        <v>410</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I16" t="s">
-        <v>199</v>
-      </c>
-      <c r="J16" t="s">
-        <v>199</v>
-      </c>
-      <c r="K16" s="1">
-        <v>713</v>
-      </c>
-      <c r="L16">
-        <v>613</v>
-      </c>
-      <c r="M16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17">
-        <v>214</v>
-      </c>
-      <c r="B17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17">
-        <v>40</v>
-      </c>
-      <c r="F17">
-        <v>9900</v>
-      </c>
-      <c r="G17">
-        <v>400</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I17" t="s">
-        <v>200</v>
-      </c>
-      <c r="J17" t="s">
-        <v>200</v>
-      </c>
-      <c r="K17" s="1">
-        <v>714</v>
-      </c>
-      <c r="L17">
-        <v>614</v>
-      </c>
-      <c r="M17" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18">
-        <v>215</v>
-      </c>
-      <c r="B18" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18">
-        <v>48</v>
-      </c>
-      <c r="F18">
-        <v>12400</v>
-      </c>
-      <c r="G18">
-        <v>430</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I18" t="s">
-        <v>201</v>
-      </c>
-      <c r="J18" t="s">
-        <v>201</v>
-      </c>
-      <c r="K18" s="1">
-        <v>715</v>
-      </c>
-      <c r="L18">
-        <v>615</v>
-      </c>
-      <c r="M18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19">
-        <v>216</v>
-      </c>
-      <c r="B19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19">
-        <v>33</v>
-      </c>
-      <c r="F19">
-        <v>11200</v>
-      </c>
-      <c r="G19">
-        <v>370</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I19" t="s">
-        <v>202</v>
-      </c>
-      <c r="J19" t="s">
-        <v>202</v>
-      </c>
-      <c r="K19" s="1">
-        <v>716</v>
-      </c>
-      <c r="L19">
-        <v>616</v>
-      </c>
-      <c r="M19" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20">
-        <v>217</v>
-      </c>
-      <c r="B20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>159</v>
-      </c>
-      <c r="E20">
-        <v>28</v>
-      </c>
-      <c r="F20">
-        <v>10800</v>
-      </c>
-      <c r="G20">
-        <v>360</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I20" t="s">
-        <v>203</v>
-      </c>
-      <c r="J20" t="s">
-        <v>203</v>
-      </c>
-      <c r="K20" s="1">
-        <v>717</v>
-      </c>
-      <c r="L20">
-        <v>617</v>
-      </c>
-      <c r="M20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21">
-        <v>218</v>
-      </c>
-      <c r="B21" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>159</v>
-      </c>
-      <c r="E21">
-        <v>36</v>
-      </c>
-      <c r="F21">
-        <v>12300</v>
-      </c>
-      <c r="G21">
-        <v>390</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I21" t="s">
-        <v>204</v>
-      </c>
-      <c r="J21" t="s">
-        <v>204</v>
-      </c>
-      <c r="K21" s="1">
-        <v>718</v>
-      </c>
-      <c r="L21">
-        <v>618</v>
-      </c>
-      <c r="M21" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22">
-        <v>219</v>
-      </c>
-      <c r="B22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E22">
-        <v>27</v>
-      </c>
-      <c r="F22">
-        <v>12600</v>
-      </c>
-      <c r="G22">
-        <v>360</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I22" t="s">
-        <v>205</v>
-      </c>
-      <c r="J22" t="s">
-        <v>205</v>
-      </c>
-      <c r="K22" s="1">
-        <v>719</v>
-      </c>
-      <c r="L22">
-        <v>619</v>
-      </c>
-      <c r="M22" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23">
-        <v>220</v>
-      </c>
-      <c r="B23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>163</v>
-      </c>
-      <c r="E23">
-        <v>22</v>
-      </c>
-      <c r="F23">
-        <v>13600</v>
-      </c>
-      <c r="G23">
-        <v>350</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I23" t="s">
-        <v>206</v>
-      </c>
-      <c r="J23" t="s">
-        <v>206</v>
-      </c>
-      <c r="K23" s="1">
-        <v>720</v>
-      </c>
-      <c r="L23">
-        <v>620</v>
-      </c>
-      <c r="M23" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24">
-        <v>221</v>
-      </c>
-      <c r="B24" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>163</v>
-      </c>
-      <c r="E24">
+        <v>3008</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="3">
+        <v>20</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-15</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11">
+        <v>-10</v>
+      </c>
+      <c r="K11" s="3">
+        <v>20</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="N11">
         <v>30</v>
       </c>
-      <c r="F24">
-        <v>14600</v>
-      </c>
-      <c r="G24">
-        <v>380</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I24" t="s">
-        <v>207</v>
-      </c>
-      <c r="J24" t="s">
-        <v>207</v>
-      </c>
-      <c r="K24" s="1">
-        <v>721</v>
-      </c>
-      <c r="L24">
-        <v>621</v>
-      </c>
-      <c r="M24" t="s">
-        <v>237</v>
+      <c r="O11" s="3">
+        <v>-15</v>
       </c>
     </row>
   </sheetData>
@@ -6022,6 +7129,1016 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3B3B7E-BA51-4E15-824F-73A2BFC53D10}">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K3" t="s">
+        <v>191</v>
+      </c>
+      <c r="L3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4">
+        <v>43</v>
+      </c>
+      <c r="F4">
+        <v>9500</v>
+      </c>
+      <c r="G4">
+        <v>280</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" t="s">
+        <v>193</v>
+      </c>
+      <c r="J4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K4" s="1">
+        <v>701</v>
+      </c>
+      <c r="L4">
+        <v>601</v>
+      </c>
+      <c r="M4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5">
+        <v>37</v>
+      </c>
+      <c r="F5">
+        <v>8700</v>
+      </c>
+      <c r="G5">
+        <v>280</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" t="s">
+        <v>194</v>
+      </c>
+      <c r="J5" t="s">
+        <v>194</v>
+      </c>
+      <c r="K5" s="1">
+        <v>702</v>
+      </c>
+      <c r="L5">
+        <v>602</v>
+      </c>
+      <c r="M5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>10600</v>
+      </c>
+      <c r="G6">
+        <v>260</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6" t="s">
+        <v>210</v>
+      </c>
+      <c r="J6" t="s">
+        <v>210</v>
+      </c>
+      <c r="K6" s="1">
+        <v>703</v>
+      </c>
+      <c r="L6">
+        <v>603</v>
+      </c>
+      <c r="M6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>204</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>9800</v>
+      </c>
+      <c r="G7">
+        <v>260</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="1">
+        <v>704</v>
+      </c>
+      <c r="L7">
+        <v>604</v>
+      </c>
+      <c r="M7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>13000</v>
+      </c>
+      <c r="G8">
+        <v>240</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I8" t="s">
+        <v>212</v>
+      </c>
+      <c r="J8" t="s">
+        <v>212</v>
+      </c>
+      <c r="K8" s="1">
+        <v>705</v>
+      </c>
+      <c r="L8">
+        <v>605</v>
+      </c>
+      <c r="M8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>206</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>12000</v>
+      </c>
+      <c r="G9">
+        <v>240</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I9" t="s">
+        <v>213</v>
+      </c>
+      <c r="J9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" s="1">
+        <v>706</v>
+      </c>
+      <c r="L9">
+        <v>606</v>
+      </c>
+      <c r="M9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>207</v>
+      </c>
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>5200</v>
+      </c>
+      <c r="G10">
+        <v>350</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I10" t="s">
+        <v>195</v>
+      </c>
+      <c r="J10" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="1">
+        <v>707</v>
+      </c>
+      <c r="L10">
+        <v>607</v>
+      </c>
+      <c r="M10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>208</v>
+      </c>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>4300</v>
+      </c>
+      <c r="G11">
+        <v>350</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J11" t="s">
+        <v>196</v>
+      </c>
+      <c r="K11" s="1">
+        <v>708</v>
+      </c>
+      <c r="L11">
+        <v>608</v>
+      </c>
+      <c r="M11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>209</v>
+      </c>
+      <c r="B12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>6300</v>
+      </c>
+      <c r="G12">
+        <v>320</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J12" t="s">
+        <v>214</v>
+      </c>
+      <c r="K12" s="1">
+        <v>709</v>
+      </c>
+      <c r="L12">
+        <v>609</v>
+      </c>
+      <c r="M12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>210</v>
+      </c>
+      <c r="B13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>5600</v>
+      </c>
+      <c r="G13">
+        <v>320</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" t="s">
+        <v>215</v>
+      </c>
+      <c r="J13" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" s="1">
+        <v>710</v>
+      </c>
+      <c r="L13">
+        <v>610</v>
+      </c>
+      <c r="M13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>211</v>
+      </c>
+      <c r="B14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>7200</v>
+      </c>
+      <c r="G14">
+        <v>300</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I14" t="s">
+        <v>197</v>
+      </c>
+      <c r="J14" t="s">
+        <v>197</v>
+      </c>
+      <c r="K14" s="1">
+        <v>711</v>
+      </c>
+      <c r="L14">
+        <v>611</v>
+      </c>
+      <c r="M14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>212</v>
+      </c>
+      <c r="B15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>7800</v>
+      </c>
+      <c r="G15">
+        <v>300</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I15" t="s">
+        <v>198</v>
+      </c>
+      <c r="J15" t="s">
+        <v>198</v>
+      </c>
+      <c r="K15" s="1">
+        <v>712</v>
+      </c>
+      <c r="L15">
+        <v>612</v>
+      </c>
+      <c r="M15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>213</v>
+      </c>
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16">
+        <v>45</v>
+      </c>
+      <c r="F16">
+        <v>10300</v>
+      </c>
+      <c r="G16">
+        <v>410</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I16" t="s">
+        <v>199</v>
+      </c>
+      <c r="J16" t="s">
+        <v>199</v>
+      </c>
+      <c r="K16" s="1">
+        <v>713</v>
+      </c>
+      <c r="L16">
+        <v>613</v>
+      </c>
+      <c r="M16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>214</v>
+      </c>
+      <c r="B17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>9900</v>
+      </c>
+      <c r="G17">
+        <v>400</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I17" t="s">
+        <v>200</v>
+      </c>
+      <c r="J17" t="s">
+        <v>200</v>
+      </c>
+      <c r="K17" s="1">
+        <v>714</v>
+      </c>
+      <c r="L17">
+        <v>614</v>
+      </c>
+      <c r="M17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>215</v>
+      </c>
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18">
+        <v>48</v>
+      </c>
+      <c r="F18">
+        <v>12400</v>
+      </c>
+      <c r="G18">
+        <v>430</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I18" t="s">
+        <v>201</v>
+      </c>
+      <c r="J18" t="s">
+        <v>201</v>
+      </c>
+      <c r="K18" s="1">
+        <v>715</v>
+      </c>
+      <c r="L18">
+        <v>615</v>
+      </c>
+      <c r="M18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>216</v>
+      </c>
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19">
+        <v>33</v>
+      </c>
+      <c r="F19">
+        <v>11200</v>
+      </c>
+      <c r="G19">
+        <v>370</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I19" t="s">
+        <v>202</v>
+      </c>
+      <c r="J19" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" s="1">
+        <v>716</v>
+      </c>
+      <c r="L19">
+        <v>616</v>
+      </c>
+      <c r="M19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>217</v>
+      </c>
+      <c r="B20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20">
+        <v>28</v>
+      </c>
+      <c r="F20">
+        <v>10800</v>
+      </c>
+      <c r="G20">
+        <v>360</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" s="1">
+        <v>717</v>
+      </c>
+      <c r="L20">
+        <v>617</v>
+      </c>
+      <c r="M20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>218</v>
+      </c>
+      <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21">
+        <v>36</v>
+      </c>
+      <c r="F21">
+        <v>12300</v>
+      </c>
+      <c r="G21">
+        <v>390</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I21" t="s">
+        <v>204</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" s="1">
+        <v>718</v>
+      </c>
+      <c r="L21">
+        <v>618</v>
+      </c>
+      <c r="M21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>219</v>
+      </c>
+      <c r="B22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22">
+        <v>27</v>
+      </c>
+      <c r="F22">
+        <v>12600</v>
+      </c>
+      <c r="G22">
+        <v>360</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" t="s">
+        <v>205</v>
+      </c>
+      <c r="K22" s="1">
+        <v>719</v>
+      </c>
+      <c r="L22">
+        <v>619</v>
+      </c>
+      <c r="M22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>220</v>
+      </c>
+      <c r="B23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>13600</v>
+      </c>
+      <c r="G23">
+        <v>350</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" t="s">
+        <v>206</v>
+      </c>
+      <c r="K23" s="1">
+        <v>720</v>
+      </c>
+      <c r="L23">
+        <v>620</v>
+      </c>
+      <c r="M23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>221</v>
+      </c>
+      <c r="B24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24">
+        <v>30</v>
+      </c>
+      <c r="F24">
+        <v>14600</v>
+      </c>
+      <c r="G24">
+        <v>380</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" t="s">
+        <v>207</v>
+      </c>
+      <c r="K24" s="1">
+        <v>721</v>
+      </c>
+      <c r="L24">
+        <v>621</v>
+      </c>
+      <c r="M24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246DAC17-E872-4574-BD3D-D5CF034B9B32}">
   <dimension ref="A1:H24"/>
   <sheetViews>
@@ -6029,7 +8146,7 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="37" style="1" customWidth="1"/>
@@ -6671,15 +8788,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B243B4DA-4757-4205-A827-459A7372F46D}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Portfolio\Oilnam\RawData\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A957EB0-5DC1-4073-B2D5-757DEEE7F8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE926D52-4904-4BAE-AE0C-D85A1277AF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="880" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Unit" sheetId="6" r:id="rId7"/>
     <sheet name="Upgrade" sheetId="7" r:id="rId8"/>
     <sheet name="UnitStep" sheetId="8" r:id="rId9"/>
+    <sheet name="TIP" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="261">
   <si>
     <t>Name</t>
   </si>
@@ -996,6 +997,38 @@
   </si>
   <si>
     <t>Enforcebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIP. 딸의 연락을 무시하지 마세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIP. 마법사는 센터 욕심이 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIP. 딸은 헌터 일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIP. 딸은 헌터가 아닙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIP. 검사는 앞장서는 걸 좋아합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIP. 모집권 30장을 모으면 강화주문서 1장을 뽑을 수 있어요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1579,14 +1612,14 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="6" width="11.58203125" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="5" max="6" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1671,7 +1704,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.149999999999999" customHeight="1">
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -3760,6 +3793,99 @@
       </c>
       <c r="M53" s="10">
         <v>2000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6926D4-C54F-410A-A670-136E7C30B884}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3773,14 +3899,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894E2694-5841-4646-9170-1CF15302963F}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="15.9140625" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3803,7 +3929,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.5" thickBot="1">
+    <row r="2" spans="1:6" ht="17.25" thickBot="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3843,7 +3969,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.5" thickBot="1">
+    <row r="4" spans="1:6" ht="17.25" thickBot="1">
       <c r="A4" s="16">
         <v>7001</v>
       </c>
@@ -3863,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.5" thickBot="1">
+    <row r="5" spans="1:6" ht="17.25" thickBot="1">
       <c r="A5" s="16">
         <v>7002</v>
       </c>
@@ -3883,7 +4009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.5" thickBot="1">
+    <row r="6" spans="1:6" ht="17.25" thickBot="1">
       <c r="A6" s="16">
         <v>7003</v>
       </c>
@@ -3903,7 +4029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.5" thickBot="1">
+    <row r="7" spans="1:6" ht="17.25" thickBot="1">
       <c r="A7" s="16">
         <v>7004</v>
       </c>
@@ -3923,7 +4049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.5" thickBot="1">
+    <row r="8" spans="1:6" ht="17.25" thickBot="1">
       <c r="A8" s="16">
         <v>7005</v>
       </c>
@@ -3943,7 +4069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.5" thickBot="1">
+    <row r="9" spans="1:6" ht="17.25" thickBot="1">
       <c r="A9" s="16">
         <v>7006</v>
       </c>
@@ -3963,7 +4089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.5" thickBot="1">
+    <row r="10" spans="1:6" ht="17.25" thickBot="1">
       <c r="A10" s="16">
         <v>7007</v>
       </c>
@@ -3983,7 +4109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.5" thickBot="1">
+    <row r="11" spans="1:6" ht="17.25" thickBot="1">
       <c r="A11" s="16">
         <v>7008</v>
       </c>
@@ -4003,7 +4129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.5" thickBot="1">
+    <row r="12" spans="1:6" ht="17.25" thickBot="1">
       <c r="A12" s="16">
         <v>7009</v>
       </c>
@@ -4023,7 +4149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.5" thickBot="1">
+    <row r="13" spans="1:6" ht="17.25" thickBot="1">
       <c r="A13" s="16">
         <v>7010</v>
       </c>
@@ -4043,7 +4169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.5" thickBot="1">
+    <row r="14" spans="1:6" ht="17.25" thickBot="1">
       <c r="A14" s="16">
         <v>7011</v>
       </c>
@@ -4063,7 +4189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.5" thickBot="1">
+    <row r="15" spans="1:6" ht="17.25" thickBot="1">
       <c r="A15" s="16">
         <v>7012</v>
       </c>
@@ -4083,7 +4209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.5" thickBot="1">
+    <row r="16" spans="1:6" ht="17.25" thickBot="1">
       <c r="A16" s="16">
         <v>7013</v>
       </c>
@@ -4103,7 +4229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.5" thickBot="1">
+    <row r="17" spans="1:6" ht="17.25" thickBot="1">
       <c r="A17" s="16">
         <v>7014</v>
       </c>
@@ -4123,7 +4249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.5" thickBot="1">
+    <row r="18" spans="1:6" ht="17.25" thickBot="1">
       <c r="A18" s="16">
         <v>7015</v>
       </c>
@@ -4143,7 +4269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.5" thickBot="1">
+    <row r="19" spans="1:6" ht="17.25" thickBot="1">
       <c r="A19" s="16">
         <v>7016</v>
       </c>
@@ -4163,7 +4289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.5" thickBot="1">
+    <row r="20" spans="1:6" ht="17.25" thickBot="1">
       <c r="A20" s="16">
         <v>7017</v>
       </c>
@@ -4183,7 +4309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.5" thickBot="1">
+    <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="16">
         <v>7018</v>
       </c>
@@ -4203,7 +4329,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.5" thickBot="1">
+    <row r="22" spans="1:6" ht="17.25" thickBot="1">
       <c r="A22" s="16">
         <v>7019</v>
       </c>
@@ -4223,7 +4349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.5" thickBot="1">
+    <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="16">
         <v>7020</v>
       </c>
@@ -4243,7 +4369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.5" thickBot="1">
+    <row r="24" spans="1:6" ht="17.25" thickBot="1">
       <c r="A24" s="16">
         <v>7021</v>
       </c>
@@ -4263,7 +4389,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.5" thickBot="1">
+    <row r="25" spans="1:6" ht="17.25" thickBot="1">
       <c r="A25" s="16">
         <v>7022</v>
       </c>
@@ -4283,7 +4409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.5" thickBot="1">
+    <row r="26" spans="1:6" ht="17.25" thickBot="1">
       <c r="A26" s="16">
         <v>7023</v>
       </c>
@@ -4303,7 +4429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.5" thickBot="1">
+    <row r="27" spans="1:6" ht="17.25" thickBot="1">
       <c r="A27" s="16">
         <v>7024</v>
       </c>
@@ -4323,7 +4449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.5" thickBot="1">
+    <row r="28" spans="1:6" ht="17.25" thickBot="1">
       <c r="A28" s="16">
         <v>7025</v>
       </c>
@@ -4343,7 +4469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.5" thickBot="1">
+    <row r="29" spans="1:6" ht="17.25" thickBot="1">
       <c r="A29" s="16">
         <v>7026</v>
       </c>
@@ -4363,7 +4489,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.5" thickBot="1">
+    <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="16">
         <v>7027</v>
       </c>
@@ -4383,7 +4509,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.5" thickBot="1">
+    <row r="31" spans="1:6" ht="17.25" thickBot="1">
       <c r="A31" s="16">
         <v>7028</v>
       </c>
@@ -4403,7 +4529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.5" thickBot="1">
+    <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="16">
         <v>7029</v>
       </c>
@@ -4423,7 +4549,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17.5" thickBot="1">
+    <row r="33" spans="1:6" ht="17.25" thickBot="1">
       <c r="A33" s="16">
         <v>7030</v>
       </c>
@@ -4443,7 +4569,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17.5" thickBot="1">
+    <row r="34" spans="1:6" ht="17.25" thickBot="1">
       <c r="A34" s="16">
         <v>7031</v>
       </c>
@@ -4463,7 +4589,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.5" thickBot="1">
+    <row r="35" spans="1:6" ht="17.25" thickBot="1">
       <c r="A35" s="16">
         <v>7032</v>
       </c>
@@ -4483,7 +4609,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17.5" thickBot="1">
+    <row r="36" spans="1:6" ht="17.25" thickBot="1">
       <c r="A36" s="16">
         <v>7033</v>
       </c>
@@ -4503,7 +4629,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17.5" thickBot="1">
+    <row r="37" spans="1:6" ht="17.25" thickBot="1">
       <c r="A37" s="16">
         <v>7034</v>
       </c>
@@ -4523,7 +4649,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.5" thickBot="1">
+    <row r="38" spans="1:6" ht="17.25" thickBot="1">
       <c r="A38" s="16">
         <v>7035</v>
       </c>
@@ -4543,7 +4669,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17.5" thickBot="1">
+    <row r="39" spans="1:6" ht="17.25" thickBot="1">
       <c r="A39" s="16">
         <v>7036</v>
       </c>
@@ -4563,7 +4689,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.5" thickBot="1">
+    <row r="40" spans="1:6" ht="17.25" thickBot="1">
       <c r="A40" s="16">
         <v>7037</v>
       </c>
@@ -4583,7 +4709,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17.5" thickBot="1">
+    <row r="41" spans="1:6" ht="17.25" thickBot="1">
       <c r="A41" s="16">
         <v>7038</v>
       </c>
@@ -4603,7 +4729,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17.5" thickBot="1">
+    <row r="42" spans="1:6" ht="17.25" thickBot="1">
       <c r="A42" s="16">
         <v>7039</v>
       </c>
@@ -4623,7 +4749,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.5" thickBot="1">
+    <row r="43" spans="1:6" ht="17.25" thickBot="1">
       <c r="A43" s="16">
         <v>7040</v>
       </c>
@@ -4643,7 +4769,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.5" thickBot="1">
+    <row r="44" spans="1:6" ht="17.25" thickBot="1">
       <c r="A44" s="16">
         <v>7041</v>
       </c>
@@ -4663,7 +4789,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.5" thickBot="1">
+    <row r="45" spans="1:6" ht="17.25" thickBot="1">
       <c r="A45" s="16">
         <v>7042</v>
       </c>
@@ -4683,7 +4809,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17.5" thickBot="1">
+    <row r="46" spans="1:6" ht="17.25" thickBot="1">
       <c r="A46" s="16">
         <v>7043</v>
       </c>
@@ -4703,7 +4829,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="17.5" thickBot="1">
+    <row r="47" spans="1:6" ht="17.25" thickBot="1">
       <c r="A47" s="16">
         <v>7044</v>
       </c>
@@ -4723,7 +4849,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17.5" thickBot="1">
+    <row r="48" spans="1:6" ht="17.25" thickBot="1">
       <c r="A48" s="16">
         <v>7045</v>
       </c>
@@ -4743,7 +4869,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="17.5" thickBot="1">
+    <row r="49" spans="1:6" ht="17.25" thickBot="1">
       <c r="A49" s="16">
         <v>7046</v>
       </c>
@@ -4763,7 +4889,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="17.5" thickBot="1">
+    <row r="50" spans="1:6" ht="17.25" thickBot="1">
       <c r="A50" s="16">
         <v>7047</v>
       </c>
@@ -4783,7 +4909,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17.5" thickBot="1">
+    <row r="51" spans="1:6" ht="17.25" thickBot="1">
       <c r="A51" s="16">
         <v>7048</v>
       </c>
@@ -4803,7 +4929,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17.5" thickBot="1">
+    <row r="52" spans="1:6" ht="17.25" thickBot="1">
       <c r="A52" s="16">
         <v>7049</v>
       </c>
@@ -4823,7 +4949,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="17.5" thickBot="1">
+    <row r="53" spans="1:6" ht="17.25" thickBot="1">
       <c r="A53" s="16">
         <v>7050</v>
       </c>
@@ -4843,7 +4969,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="17.5" thickBot="1">
+    <row r="54" spans="1:6" ht="17.25" thickBot="1">
       <c r="A54" s="14">
         <v>7051</v>
       </c>
@@ -4863,7 +4989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="17.5" thickBot="1">
+    <row r="55" spans="1:6" ht="17.25" thickBot="1">
       <c r="A55" s="16">
         <v>7052</v>
       </c>
@@ -4883,7 +5009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="17.5" thickBot="1">
+    <row r="56" spans="1:6" ht="17.25" thickBot="1">
       <c r="A56" s="16">
         <v>7053</v>
       </c>
@@ -4903,7 +5029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="17.5" thickBot="1">
+    <row r="57" spans="1:6" ht="17.25" thickBot="1">
       <c r="A57" s="16">
         <v>7054</v>
       </c>
@@ -4923,7 +5049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="17.5" thickBot="1">
+    <row r="58" spans="1:6" ht="17.25" thickBot="1">
       <c r="A58" s="16">
         <v>7055</v>
       </c>
@@ -4943,7 +5069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="17.5" thickBot="1">
+    <row r="59" spans="1:6" ht="17.25" thickBot="1">
       <c r="A59" s="16">
         <v>7056</v>
       </c>
@@ -4963,7 +5089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17.5" thickBot="1">
+    <row r="60" spans="1:6" ht="17.25" thickBot="1">
       <c r="A60" s="16">
         <v>7057</v>
       </c>
@@ -4983,7 +5109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="17.5" thickBot="1">
+    <row r="61" spans="1:6" ht="17.25" thickBot="1">
       <c r="A61" s="16">
         <v>7058</v>
       </c>
@@ -5003,7 +5129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="17.5" thickBot="1">
+    <row r="62" spans="1:6" ht="17.25" thickBot="1">
       <c r="A62" s="16">
         <v>7059</v>
       </c>
@@ -5023,7 +5149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="17.5" thickBot="1">
+    <row r="63" spans="1:6" ht="17.25" thickBot="1">
       <c r="A63" s="16">
         <v>7060</v>
       </c>
@@ -5043,7 +5169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="17.5" thickBot="1">
+    <row r="64" spans="1:6" ht="17.25" thickBot="1">
       <c r="A64" s="16">
         <v>7061</v>
       </c>
@@ -5063,7 +5189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="17.5" thickBot="1">
+    <row r="65" spans="1:6" ht="17.25" thickBot="1">
       <c r="A65" s="16">
         <v>7062</v>
       </c>
@@ -5083,7 +5209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="17.5" thickBot="1">
+    <row r="66" spans="1:6" ht="17.25" thickBot="1">
       <c r="A66" s="16">
         <v>7063</v>
       </c>
@@ -5103,7 +5229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="17.5" thickBot="1">
+    <row r="67" spans="1:6" ht="17.25" thickBot="1">
       <c r="A67" s="16">
         <v>7064</v>
       </c>
@@ -5123,7 +5249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="17.5" thickBot="1">
+    <row r="68" spans="1:6" ht="17.25" thickBot="1">
       <c r="A68" s="16">
         <v>7065</v>
       </c>
@@ -5143,7 +5269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="17.5" thickBot="1">
+    <row r="69" spans="1:6" ht="17.25" thickBot="1">
       <c r="A69" s="16">
         <v>7066</v>
       </c>
@@ -5163,7 +5289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="17.5" thickBot="1">
+    <row r="70" spans="1:6" ht="17.25" thickBot="1">
       <c r="A70" s="16">
         <v>7067</v>
       </c>
@@ -5183,7 +5309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="17.5" thickBot="1">
+    <row r="71" spans="1:6" ht="17.25" thickBot="1">
       <c r="A71" s="16">
         <v>7068</v>
       </c>
@@ -5203,7 +5329,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="17.5" thickBot="1">
+    <row r="72" spans="1:6" ht="17.25" thickBot="1">
       <c r="A72" s="16">
         <v>7069</v>
       </c>
@@ -5223,7 +5349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="17.5" thickBot="1">
+    <row r="73" spans="1:6" ht="17.25" thickBot="1">
       <c r="A73" s="16">
         <v>7070</v>
       </c>
@@ -5243,7 +5369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="17.5" thickBot="1">
+    <row r="74" spans="1:6" ht="17.25" thickBot="1">
       <c r="A74" s="16">
         <v>7071</v>
       </c>
@@ -5263,7 +5389,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="17.5" thickBot="1">
+    <row r="75" spans="1:6" ht="17.25" thickBot="1">
       <c r="A75" s="16">
         <v>7072</v>
       </c>
@@ -5283,7 +5409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="17.5" thickBot="1">
+    <row r="76" spans="1:6" ht="17.25" thickBot="1">
       <c r="A76" s="16">
         <v>7073</v>
       </c>
@@ -5303,7 +5429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="17.5" thickBot="1">
+    <row r="77" spans="1:6" ht="17.25" thickBot="1">
       <c r="A77" s="16">
         <v>7074</v>
       </c>
@@ -5323,7 +5449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="17.5" thickBot="1">
+    <row r="78" spans="1:6" ht="17.25" thickBot="1">
       <c r="A78" s="16">
         <v>7075</v>
       </c>
@@ -5343,7 +5469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="17.5" thickBot="1">
+    <row r="79" spans="1:6" ht="17.25" thickBot="1">
       <c r="A79" s="16">
         <v>7076</v>
       </c>
@@ -5363,7 +5489,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="17.5" thickBot="1">
+    <row r="80" spans="1:6" ht="17.25" thickBot="1">
       <c r="A80" s="16">
         <v>7077</v>
       </c>
@@ -5383,7 +5509,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="17.5" thickBot="1">
+    <row r="81" spans="1:6" ht="17.25" thickBot="1">
       <c r="A81" s="16">
         <v>7078</v>
       </c>
@@ -5403,7 +5529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="17.5" thickBot="1">
+    <row r="82" spans="1:6" ht="17.25" thickBot="1">
       <c r="A82" s="16">
         <v>7079</v>
       </c>
@@ -5423,7 +5549,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="17.5" thickBot="1">
+    <row r="83" spans="1:6" ht="17.25" thickBot="1">
       <c r="A83" s="16">
         <v>7080</v>
       </c>
@@ -5443,7 +5569,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="17.5" thickBot="1">
+    <row r="84" spans="1:6" ht="17.25" thickBot="1">
       <c r="A84" s="16">
         <v>7081</v>
       </c>
@@ -5463,7 +5589,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="17.5" thickBot="1">
+    <row r="85" spans="1:6" ht="17.25" thickBot="1">
       <c r="A85" s="16">
         <v>7082</v>
       </c>
@@ -5483,7 +5609,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17.5" thickBot="1">
+    <row r="86" spans="1:6" ht="17.25" thickBot="1">
       <c r="A86" s="16">
         <v>7083</v>
       </c>
@@ -5503,7 +5629,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="17.5" thickBot="1">
+    <row r="87" spans="1:6" ht="17.25" thickBot="1">
       <c r="A87" s="16">
         <v>7084</v>
       </c>
@@ -5523,7 +5649,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="17.5" thickBot="1">
+    <row r="88" spans="1:6" ht="17.25" thickBot="1">
       <c r="A88" s="16">
         <v>7085</v>
       </c>
@@ -5543,7 +5669,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="17.5" thickBot="1">
+    <row r="89" spans="1:6" ht="17.25" thickBot="1">
       <c r="A89" s="16">
         <v>7086</v>
       </c>
@@ -5563,7 +5689,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="17.5" thickBot="1">
+    <row r="90" spans="1:6" ht="17.25" thickBot="1">
       <c r="A90" s="16">
         <v>7087</v>
       </c>
@@ -5583,7 +5709,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="17.5" thickBot="1">
+    <row r="91" spans="1:6" ht="17.25" thickBot="1">
       <c r="A91" s="16">
         <v>7088</v>
       </c>
@@ -5603,7 +5729,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="17.5" thickBot="1">
+    <row r="92" spans="1:6" ht="17.25" thickBot="1">
       <c r="A92" s="16">
         <v>7089</v>
       </c>
@@ -5623,7 +5749,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="17.5" thickBot="1">
+    <row r="93" spans="1:6" ht="17.25" thickBot="1">
       <c r="A93" s="16">
         <v>7090</v>
       </c>
@@ -5643,7 +5769,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="17.5" thickBot="1">
+    <row r="94" spans="1:6" ht="17.25" thickBot="1">
       <c r="A94" s="16">
         <v>7091</v>
       </c>
@@ -5663,7 +5789,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="17.5" thickBot="1">
+    <row r="95" spans="1:6" ht="17.25" thickBot="1">
       <c r="A95" s="16">
         <v>7092</v>
       </c>
@@ -5683,7 +5809,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="17.5" thickBot="1">
+    <row r="96" spans="1:6" ht="17.25" thickBot="1">
       <c r="A96" s="16">
         <v>7093</v>
       </c>
@@ -5703,7 +5829,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="17.5" thickBot="1">
+    <row r="97" spans="1:6" ht="17.25" thickBot="1">
       <c r="A97" s="16">
         <v>7094</v>
       </c>
@@ -5723,7 +5849,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="17.5" thickBot="1">
+    <row r="98" spans="1:6" ht="17.25" thickBot="1">
       <c r="A98" s="16">
         <v>7095</v>
       </c>
@@ -5743,7 +5869,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="17.5" thickBot="1">
+    <row r="99" spans="1:6" ht="17.25" thickBot="1">
       <c r="A99" s="16">
         <v>7096</v>
       </c>
@@ -5763,7 +5889,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="17.5" thickBot="1">
+    <row r="100" spans="1:6" ht="17.25" thickBot="1">
       <c r="A100" s="16">
         <v>7097</v>
       </c>
@@ -5783,7 +5909,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="17.5" thickBot="1">
+    <row r="101" spans="1:6" ht="17.25" thickBot="1">
       <c r="A101" s="16">
         <v>7098</v>
       </c>
@@ -5803,7 +5929,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="17.5" thickBot="1">
+    <row r="102" spans="1:6" ht="17.25" thickBot="1">
       <c r="A102" s="16">
         <v>7099</v>
       </c>
@@ -5823,7 +5949,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="17.5" thickBot="1">
+    <row r="103" spans="1:6" ht="17.25" thickBot="1">
       <c r="A103" s="16">
         <v>7100</v>
       </c>
@@ -5858,10 +5984,10 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="104.83203125" customWidth="1"/>
-    <col min="3" max="3" width="7.08203125" customWidth="1"/>
+    <col min="2" max="2" width="104.875" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5908,7 +6034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="51">
+    <row r="5" spans="1:3" ht="49.5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5919,7 +6045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="85">
+    <row r="6" spans="1:3" ht="82.5">
       <c r="A6">
         <v>2</v>
       </c>
@@ -5930,7 +6056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="85">
+    <row r="7" spans="1:3" ht="82.5">
       <c r="A7">
         <v>3</v>
       </c>
@@ -5941,7 +6067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51">
+    <row r="8" spans="1:3" ht="49.5">
       <c r="A8">
         <v>4</v>
       </c>
@@ -5952,7 +6078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="85">
+    <row r="9" spans="1:3" ht="82.5">
       <c r="A9">
         <v>5</v>
       </c>
@@ -5963,7 +6089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="68">
+    <row r="10" spans="1:3" ht="66">
       <c r="A10">
         <v>6</v>
       </c>
@@ -5974,7 +6100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="51">
+    <row r="11" spans="1:3" ht="49.5">
       <c r="A11">
         <v>7</v>
       </c>
@@ -5985,7 +6111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="68">
+    <row r="12" spans="1:3" ht="66">
       <c r="A12">
         <v>8</v>
       </c>
@@ -5996,7 +6122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34">
+    <row r="13" spans="1:3" ht="33">
       <c r="A13">
         <v>9</v>
       </c>
@@ -6007,7 +6133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="119">
+    <row r="14" spans="1:3" ht="115.5">
       <c r="A14">
         <v>10</v>
       </c>
@@ -6018,7 +6144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="85">
+    <row r="15" spans="1:3" ht="82.5">
       <c r="A15">
         <v>11</v>
       </c>
@@ -6055,14 +6181,14 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" customWidth="1"/>
-    <col min="3" max="3" width="22.58203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6111,7 +6237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.5" thickBot="1">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6134,7 +6260,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.5" thickBot="1">
+    <row r="4" spans="1:7" ht="17.25" thickBot="1">
       <c r="A4" s="14">
         <v>401</v>
       </c>
@@ -6157,7 +6283,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.5" thickBot="1">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1">
       <c r="A5" s="16">
         <v>402</v>
       </c>
@@ -6180,7 +6306,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.5" thickBot="1">
+    <row r="6" spans="1:7" ht="17.25" thickBot="1">
       <c r="A6" s="16">
         <v>403</v>
       </c>
@@ -6203,7 +6329,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.5" thickBot="1">
+    <row r="7" spans="1:7" ht="17.25" thickBot="1">
       <c r="A7" s="16">
         <v>404</v>
       </c>
@@ -6226,7 +6352,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.5" thickBot="1">
+    <row r="8" spans="1:7" ht="17.25" thickBot="1">
       <c r="A8" s="16">
         <v>405</v>
       </c>
@@ -6249,7 +6375,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.5" thickBot="1">
+    <row r="9" spans="1:7" ht="17.25" thickBot="1">
       <c r="A9" s="16">
         <v>406</v>
       </c>
@@ -6272,7 +6398,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.5" thickBot="1">
+    <row r="10" spans="1:7" ht="17.25" thickBot="1">
       <c r="A10" s="16">
         <v>407</v>
       </c>
@@ -6295,7 +6421,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.5" thickBot="1">
+    <row r="11" spans="1:7" ht="17.25" thickBot="1">
       <c r="A11" s="16">
         <v>408</v>
       </c>
@@ -6318,7 +6444,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.5" thickBot="1">
+    <row r="12" spans="1:7" ht="17.25" thickBot="1">
       <c r="A12" s="16">
         <v>409</v>
       </c>
@@ -6341,7 +6467,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.5" thickBot="1">
+    <row r="13" spans="1:7" ht="17.25" thickBot="1">
       <c r="A13" s="16">
         <v>410</v>
       </c>
@@ -6379,13 +6505,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.58203125" customWidth="1"/>
-    <col min="6" max="6" width="13.58203125" customWidth="1"/>
-    <col min="7" max="7" width="19.08203125" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6434,7 +6560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.5" thickBot="1">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6457,7 +6583,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.5" thickBot="1">
+    <row r="4" spans="1:7" ht="17.25" thickBot="1">
       <c r="A4" s="14">
         <v>501</v>
       </c>
@@ -6480,7 +6606,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.5" thickBot="1">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1">
       <c r="A5" s="16">
         <v>502</v>
       </c>
@@ -6503,7 +6629,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.5" thickBot="1">
+    <row r="6" spans="1:7" ht="17.25" thickBot="1">
       <c r="A6" s="16">
         <v>503</v>
       </c>
@@ -6526,7 +6652,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.5" thickBot="1">
+    <row r="7" spans="1:7" ht="17.25" thickBot="1">
       <c r="A7" s="16">
         <v>504</v>
       </c>
@@ -6549,7 +6675,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.5" thickBot="1">
+    <row r="8" spans="1:7" ht="17.25" thickBot="1">
       <c r="A8" s="16">
         <v>505</v>
       </c>
@@ -6587,21 +6713,21 @@
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" customWidth="1"/>
-    <col min="2" max="2" width="31.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -6745,7 +6871,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="51">
+    <row r="4" spans="1:15" ht="49.5">
       <c r="A4">
         <v>3001</v>
       </c>
@@ -6792,7 +6918,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="51">
+    <row r="5" spans="1:15" ht="49.5">
       <c r="A5">
         <v>3002</v>
       </c>
@@ -6839,7 +6965,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="68">
+    <row r="6" spans="1:15" ht="66">
       <c r="A6">
         <v>3003</v>
       </c>
@@ -6886,7 +7012,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="51">
+    <row r="7" spans="1:15" ht="49.5">
       <c r="A7">
         <v>3004</v>
       </c>
@@ -6933,7 +7059,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="51">
+    <row r="8" spans="1:15" ht="49.5">
       <c r="A8">
         <v>3005</v>
       </c>
@@ -6980,7 +7106,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="51">
+    <row r="9" spans="1:15" ht="49.5">
       <c r="A9">
         <v>3006</v>
       </c>
@@ -7027,7 +7153,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="51">
+    <row r="10" spans="1:15" ht="49.5">
       <c r="A10">
         <v>3007</v>
       </c>
@@ -7074,7 +7200,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="51">
+    <row r="11" spans="1:15" ht="49.5">
       <c r="A11">
         <v>3008</v>
       </c>
@@ -7136,15 +7262,15 @@
       <selection sqref="A1:M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -8146,7 +8272,7 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="37" style="1" customWidth="1"/>
@@ -8793,10 +8919,10 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="E1" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Portfolio\Oilnam\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE926D52-4904-4BAE-AE0C-D85A1277AF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4535754D-912F-4015-B85F-0C606AD04AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="2900" yWindow="880" windowWidth="19200" windowHeight="11170" firstSheet="2" activeTab="9" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <sheet name="Unit" sheetId="6" r:id="rId7"/>
     <sheet name="Upgrade" sheetId="7" r:id="rId8"/>
     <sheet name="UnitStep" sheetId="8" r:id="rId9"/>
-    <sheet name="TIP" sheetId="10" r:id="rId10"/>
+    <sheet name="Shop" sheetId="11" r:id="rId10"/>
+    <sheet name="Goods" sheetId="12" r:id="rId11"/>
+    <sheet name="TIP" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="352">
   <si>
     <t>Name</t>
   </si>
@@ -1029,6 +1031,318 @@
   </si>
   <si>
     <t>TIP. 모집권 30장을 모으면 강화주문서 1장을 뽑을 수 있어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>PID1</t>
+  </si>
+  <si>
+    <t>PCount1</t>
+  </si>
+  <si>
+    <t>PID2</t>
+  </si>
+  <si>
+    <t>PCount2</t>
+  </si>
+  <si>
+    <t>PID3</t>
+  </si>
+  <si>
+    <t>PCount3</t>
+  </si>
+  <si>
+    <t>MoneyType</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>AvailiableCount</t>
+  </si>
+  <si>
+    <t>AvailiableTime</t>
+  </si>
+  <si>
+    <t>Product_Value_1</t>
+  </si>
+  <si>
+    <t>Product_Count_1</t>
+  </si>
+  <si>
+    <t>Product_Value_2</t>
+  </si>
+  <si>
+    <t>Product_Count_2</t>
+  </si>
+  <si>
+    <t>Product_Value_3</t>
+  </si>
+  <si>
+    <t>Product_Count_3</t>
+  </si>
+  <si>
+    <t>Money_Type</t>
+  </si>
+  <si>
+    <t>Money_Count</t>
+  </si>
+  <si>
+    <t>Availiable_Count</t>
+  </si>
+  <si>
+    <t>Availiable_Time</t>
+  </si>
+  <si>
+    <t>골드</t>
+  </si>
+  <si>
+    <t>1800골드를 구매합니다.</t>
+  </si>
+  <si>
+    <t>5400골드를 구매합니다.</t>
+  </si>
+  <si>
+    <t>10800골드를 구매합니다.</t>
+  </si>
+  <si>
+    <t>다이아</t>
+  </si>
+  <si>
+    <t>200다이아를 구매합니다.</t>
+  </si>
+  <si>
+    <t>1200다이아를 구매합니다</t>
+  </si>
+  <si>
+    <t>2000다이아를 구매합니다.</t>
+  </si>
+  <si>
+    <t>모집권</t>
+  </si>
+  <si>
+    <t>모집권을 1개 구매합니다.</t>
+  </si>
+  <si>
+    <t>모집권을 30개 구매합니다.</t>
+  </si>
+  <si>
+    <t>모집권을 300개 구매합니다.</t>
+  </si>
+  <si>
+    <t>광고시청</t>
+  </si>
+  <si>
+    <t>광고를 시청하면 다이아를 제공합니다</t>
+  </si>
+  <si>
+    <t>켠왕 패키지</t>
+  </si>
+  <si>
+    <t>켠왕 도전! 삼각 김밥보다 싸다!</t>
+  </si>
+  <si>
+    <t>골든 패스</t>
+  </si>
+  <si>
+    <t>골든 패스! 도시락보다 싸다!</t>
+  </si>
+  <si>
+    <t>Product_Name</t>
+  </si>
+  <si>
+    <t>Money_Icon</t>
+  </si>
+  <si>
+    <t>게임 내 무료 재화입니다.</t>
+  </si>
+  <si>
+    <t>게임 내 유료 재화입니다.</t>
+  </si>
+  <si>
+    <t>열쇠</t>
+  </si>
+  <si>
+    <t>콘텐츠 입장 시 소모되는 스테미나입니다.</t>
+  </si>
+  <si>
+    <t>뽑기를 할 수 있는 재화입니다.</t>
+  </si>
+  <si>
+    <t>루비</t>
+  </si>
+  <si>
+    <t>전투 시 사용할 수 있는 플레이 재화입니다.</t>
+  </si>
+  <si>
+    <t>영웅 강화 주문서</t>
+  </si>
+  <si>
+    <t>영웅을 강화 할 수 있는 조각입니다.</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Diamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Enforcebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Ruby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Piece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop_Item_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충분한 골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넉넉한 골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>든든한 골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충분한 다이아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넉넉한 다이아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>든든한 다이아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집권 1장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집권 30장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집권 300장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고 시청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>켠왕 패키지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골든 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Gold1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Gold2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Gold3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Diamond1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Diamond2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Diamond3</t>
+  </si>
+  <si>
+    <t>Item/Ebook1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Ebook2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Ebook3</t>
+  </si>
+  <si>
+    <t>Item/Ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Starter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/GoldenPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isCash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is_Cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is_Ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isOnce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is_Once</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1209,7 +1523,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1290,6 +1604,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1612,14 +1929,14 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="5" max="6" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="5" max="6" width="11.58203125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1704,7 +2021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:13" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -3803,17 +4120,1038 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D50587-6B81-48DF-A8DB-00F001E27D99}">
+  <dimension ref="A1:R15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="15.08203125" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="14.25" customWidth="1"/>
+    <col min="15" max="16" width="14.83203125" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K1" t="s">
+        <v>346</v>
+      </c>
+      <c r="L1" t="s">
+        <v>347</v>
+      </c>
+      <c r="M1" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" t="s">
+        <v>269</v>
+      </c>
+      <c r="O1" t="s">
+        <v>270</v>
+      </c>
+      <c r="P1" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>271</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H3" t="s">
+        <v>275</v>
+      </c>
+      <c r="I3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K3" t="s">
+        <v>348</v>
+      </c>
+      <c r="L3" t="s">
+        <v>349</v>
+      </c>
+      <c r="M3" t="s">
+        <v>278</v>
+      </c>
+      <c r="N3" t="s">
+        <v>279</v>
+      </c>
+      <c r="O3" t="s">
+        <v>280</v>
+      </c>
+      <c r="P3" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>281</v>
+      </c>
+      <c r="R3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>1001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4">
+        <v>1501</v>
+      </c>
+      <c r="F4">
+        <v>1800</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1502</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <v>-1</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>-1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>1002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5">
+        <v>1501</v>
+      </c>
+      <c r="F5">
+        <v>5400</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1502</v>
+      </c>
+      <c r="N5">
+        <v>300</v>
+      </c>
+      <c r="O5">
+        <v>-1</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>-1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>1003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6">
+        <v>1501</v>
+      </c>
+      <c r="F6">
+        <v>10800</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1502</v>
+      </c>
+      <c r="N6">
+        <v>600</v>
+      </c>
+      <c r="O6">
+        <v>-1</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>-1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>1004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7">
+        <v>1502</v>
+      </c>
+      <c r="F7">
+        <v>200</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="27">
+        <v>1200</v>
+      </c>
+      <c r="O7">
+        <v>-1</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>-1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>1005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8">
+        <v>1502</v>
+      </c>
+      <c r="F8">
+        <v>1200</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="J8">
+        <v>-1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="27">
+        <v>5900</v>
+      </c>
+      <c r="O8">
+        <v>-1</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>-1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>1006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9">
+        <v>1502</v>
+      </c>
+      <c r="F9">
+        <v>2000</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="27">
+        <v>9900</v>
+      </c>
+      <c r="O9">
+        <v>-1</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>-1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>1007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E10">
+        <v>1504</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+      <c r="J10">
+        <v>-1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1502</v>
+      </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>-1</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>-1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>1008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11">
+        <v>1504</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <v>-1</v>
+      </c>
+      <c r="J11">
+        <v>-1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1502</v>
+      </c>
+      <c r="N11">
+        <v>240</v>
+      </c>
+      <c r="O11">
+        <v>-1</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>-1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>1009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12">
+        <v>1504</v>
+      </c>
+      <c r="F12">
+        <v>300</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+      <c r="H12">
+        <v>-1</v>
+      </c>
+      <c r="I12">
+        <v>-1</v>
+      </c>
+      <c r="J12">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1502</v>
+      </c>
+      <c r="N12">
+        <v>2400</v>
+      </c>
+      <c r="O12">
+        <v>-1</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>-1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>1010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C13" t="s">
+        <v>330</v>
+      </c>
+      <c r="D13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E13">
+        <v>1502</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+      <c r="H13">
+        <v>-1</v>
+      </c>
+      <c r="I13">
+        <v>-1</v>
+      </c>
+      <c r="J13">
+        <v>-1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>-1</v>
+      </c>
+      <c r="N13">
+        <v>-1</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>1011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C14" t="s">
+        <v>331</v>
+      </c>
+      <c r="D14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E14">
+        <v>1501</v>
+      </c>
+      <c r="F14">
+        <v>500</v>
+      </c>
+      <c r="G14">
+        <v>1504</v>
+      </c>
+      <c r="H14">
+        <v>300</v>
+      </c>
+      <c r="I14">
+        <v>-1</v>
+      </c>
+      <c r="J14">
+        <v>-1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="27">
+        <v>1100</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>-1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>1012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15" t="s">
+        <v>332</v>
+      </c>
+      <c r="D15" t="s">
+        <v>299</v>
+      </c>
+      <c r="E15">
+        <v>1501</v>
+      </c>
+      <c r="F15">
+        <v>600</v>
+      </c>
+      <c r="G15">
+        <v>1502</v>
+      </c>
+      <c r="H15">
+        <v>200</v>
+      </c>
+      <c r="I15">
+        <v>1504</v>
+      </c>
+      <c r="J15">
+        <v>30</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="27">
+        <v>4900</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>-1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FEED9A-AF13-4822-A3EB-690371CDCEB5}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="39.58203125" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.5" thickBot="1">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.5" thickBot="1">
+      <c r="A3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.5" thickBot="1">
+      <c r="A4" s="16">
+        <v>1501</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" customHeight="1" thickBot="1">
+      <c r="A5" s="16">
+        <v>1502</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22" customHeight="1" thickBot="1">
+      <c r="A6" s="16">
+        <v>1503</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.5" customHeight="1" thickBot="1">
+      <c r="A7" s="16">
+        <v>1504</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21.5" customHeight="1" thickBot="1">
+      <c r="A8" s="16">
+        <v>1505</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="22" customHeight="1" thickBot="1">
+      <c r="A9" s="16">
+        <v>1506</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6926D4-C54F-410A-A670-136E7C30B884}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3903,10 +5241,10 @@
       <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3929,7 +5267,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" thickBot="1">
+    <row r="2" spans="1:6" ht="17.5" thickBot="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3969,7 +5307,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" thickBot="1">
+    <row r="4" spans="1:6" ht="17.5" thickBot="1">
       <c r="A4" s="16">
         <v>7001</v>
       </c>
@@ -3989,7 +5327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" thickBot="1">
+    <row r="5" spans="1:6" ht="17.5" thickBot="1">
       <c r="A5" s="16">
         <v>7002</v>
       </c>
@@ -4009,7 +5347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" thickBot="1">
+    <row r="6" spans="1:6" ht="17.5" thickBot="1">
       <c r="A6" s="16">
         <v>7003</v>
       </c>
@@ -4029,7 +5367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.25" thickBot="1">
+    <row r="7" spans="1:6" ht="17.5" thickBot="1">
       <c r="A7" s="16">
         <v>7004</v>
       </c>
@@ -4049,7 +5387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.25" thickBot="1">
+    <row r="8" spans="1:6" ht="17.5" thickBot="1">
       <c r="A8" s="16">
         <v>7005</v>
       </c>
@@ -4069,7 +5407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25" thickBot="1">
+    <row r="9" spans="1:6" ht="17.5" thickBot="1">
       <c r="A9" s="16">
         <v>7006</v>
       </c>
@@ -4089,7 +5427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" thickBot="1">
+    <row r="10" spans="1:6" ht="17.5" thickBot="1">
       <c r="A10" s="16">
         <v>7007</v>
       </c>
@@ -4109,7 +5447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.25" thickBot="1">
+    <row r="11" spans="1:6" ht="17.5" thickBot="1">
       <c r="A11" s="16">
         <v>7008</v>
       </c>
@@ -4129,7 +5467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" thickBot="1">
+    <row r="12" spans="1:6" ht="17.5" thickBot="1">
       <c r="A12" s="16">
         <v>7009</v>
       </c>
@@ -4149,7 +5487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" thickBot="1">
+    <row r="13" spans="1:6" ht="17.5" thickBot="1">
       <c r="A13" s="16">
         <v>7010</v>
       </c>
@@ -4169,7 +5507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" thickBot="1">
+    <row r="14" spans="1:6" ht="17.5" thickBot="1">
       <c r="A14" s="16">
         <v>7011</v>
       </c>
@@ -4189,7 +5527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" thickBot="1">
+    <row r="15" spans="1:6" ht="17.5" thickBot="1">
       <c r="A15" s="16">
         <v>7012</v>
       </c>
@@ -4209,7 +5547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.25" thickBot="1">
+    <row r="16" spans="1:6" ht="17.5" thickBot="1">
       <c r="A16" s="16">
         <v>7013</v>
       </c>
@@ -4229,7 +5567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.25" thickBot="1">
+    <row r="17" spans="1:6" ht="17.5" thickBot="1">
       <c r="A17" s="16">
         <v>7014</v>
       </c>
@@ -4249,7 +5587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.25" thickBot="1">
+    <row r="18" spans="1:6" ht="17.5" thickBot="1">
       <c r="A18" s="16">
         <v>7015</v>
       </c>
@@ -4269,7 +5607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.25" thickBot="1">
+    <row r="19" spans="1:6" ht="17.5" thickBot="1">
       <c r="A19" s="16">
         <v>7016</v>
       </c>
@@ -4289,7 +5627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.25" thickBot="1">
+    <row r="20" spans="1:6" ht="17.5" thickBot="1">
       <c r="A20" s="16">
         <v>7017</v>
       </c>
@@ -4309,7 +5647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.25" thickBot="1">
+    <row r="21" spans="1:6" ht="17.5" thickBot="1">
       <c r="A21" s="16">
         <v>7018</v>
       </c>
@@ -4329,7 +5667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.25" thickBot="1">
+    <row r="22" spans="1:6" ht="17.5" thickBot="1">
       <c r="A22" s="16">
         <v>7019</v>
       </c>
@@ -4349,7 +5687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.25" thickBot="1">
+    <row r="23" spans="1:6" ht="17.5" thickBot="1">
       <c r="A23" s="16">
         <v>7020</v>
       </c>
@@ -4369,7 +5707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.25" thickBot="1">
+    <row r="24" spans="1:6" ht="17.5" thickBot="1">
       <c r="A24" s="16">
         <v>7021</v>
       </c>
@@ -4389,7 +5727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.25" thickBot="1">
+    <row r="25" spans="1:6" ht="17.5" thickBot="1">
       <c r="A25" s="16">
         <v>7022</v>
       </c>
@@ -4409,7 +5747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.25" thickBot="1">
+    <row r="26" spans="1:6" ht="17.5" thickBot="1">
       <c r="A26" s="16">
         <v>7023</v>
       </c>
@@ -4429,7 +5767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.25" thickBot="1">
+    <row r="27" spans="1:6" ht="17.5" thickBot="1">
       <c r="A27" s="16">
         <v>7024</v>
       </c>
@@ -4449,7 +5787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.25" thickBot="1">
+    <row r="28" spans="1:6" ht="17.5" thickBot="1">
       <c r="A28" s="16">
         <v>7025</v>
       </c>
@@ -4469,7 +5807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.25" thickBot="1">
+    <row r="29" spans="1:6" ht="17.5" thickBot="1">
       <c r="A29" s="16">
         <v>7026</v>
       </c>
@@ -4489,7 +5827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.25" thickBot="1">
+    <row r="30" spans="1:6" ht="17.5" thickBot="1">
       <c r="A30" s="16">
         <v>7027</v>
       </c>
@@ -4509,7 +5847,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.25" thickBot="1">
+    <row r="31" spans="1:6" ht="17.5" thickBot="1">
       <c r="A31" s="16">
         <v>7028</v>
       </c>
@@ -4529,7 +5867,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.25" thickBot="1">
+    <row r="32" spans="1:6" ht="17.5" thickBot="1">
       <c r="A32" s="16">
         <v>7029</v>
       </c>
@@ -4549,7 +5887,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17.25" thickBot="1">
+    <row r="33" spans="1:6" ht="17.5" thickBot="1">
       <c r="A33" s="16">
         <v>7030</v>
       </c>
@@ -4569,7 +5907,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17.25" thickBot="1">
+    <row r="34" spans="1:6" ht="17.5" thickBot="1">
       <c r="A34" s="16">
         <v>7031</v>
       </c>
@@ -4589,7 +5927,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.25" thickBot="1">
+    <row r="35" spans="1:6" ht="17.5" thickBot="1">
       <c r="A35" s="16">
         <v>7032</v>
       </c>
@@ -4609,7 +5947,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17.25" thickBot="1">
+    <row r="36" spans="1:6" ht="17.5" thickBot="1">
       <c r="A36" s="16">
         <v>7033</v>
       </c>
@@ -4629,7 +5967,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17.25" thickBot="1">
+    <row r="37" spans="1:6" ht="17.5" thickBot="1">
       <c r="A37" s="16">
         <v>7034</v>
       </c>
@@ -4649,7 +5987,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.25" thickBot="1">
+    <row r="38" spans="1:6" ht="17.5" thickBot="1">
       <c r="A38" s="16">
         <v>7035</v>
       </c>
@@ -4669,7 +6007,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17.25" thickBot="1">
+    <row r="39" spans="1:6" ht="17.5" thickBot="1">
       <c r="A39" s="16">
         <v>7036</v>
       </c>
@@ -4689,7 +6027,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.25" thickBot="1">
+    <row r="40" spans="1:6" ht="17.5" thickBot="1">
       <c r="A40" s="16">
         <v>7037</v>
       </c>
@@ -4709,7 +6047,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17.25" thickBot="1">
+    <row r="41" spans="1:6" ht="17.5" thickBot="1">
       <c r="A41" s="16">
         <v>7038</v>
       </c>
@@ -4729,7 +6067,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17.25" thickBot="1">
+    <row r="42" spans="1:6" ht="17.5" thickBot="1">
       <c r="A42" s="16">
         <v>7039</v>
       </c>
@@ -4749,7 +6087,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.25" thickBot="1">
+    <row r="43" spans="1:6" ht="17.5" thickBot="1">
       <c r="A43" s="16">
         <v>7040</v>
       </c>
@@ -4769,7 +6107,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.25" thickBot="1">
+    <row r="44" spans="1:6" ht="17.5" thickBot="1">
       <c r="A44" s="16">
         <v>7041</v>
       </c>
@@ -4789,7 +6127,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.25" thickBot="1">
+    <row r="45" spans="1:6" ht="17.5" thickBot="1">
       <c r="A45" s="16">
         <v>7042</v>
       </c>
@@ -4809,7 +6147,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17.25" thickBot="1">
+    <row r="46" spans="1:6" ht="17.5" thickBot="1">
       <c r="A46" s="16">
         <v>7043</v>
       </c>
@@ -4829,7 +6167,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="17.25" thickBot="1">
+    <row r="47" spans="1:6" ht="17.5" thickBot="1">
       <c r="A47" s="16">
         <v>7044</v>
       </c>
@@ -4849,7 +6187,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17.25" thickBot="1">
+    <row r="48" spans="1:6" ht="17.5" thickBot="1">
       <c r="A48" s="16">
         <v>7045</v>
       </c>
@@ -4869,7 +6207,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="17.25" thickBot="1">
+    <row r="49" spans="1:6" ht="17.5" thickBot="1">
       <c r="A49" s="16">
         <v>7046</v>
       </c>
@@ -4889,7 +6227,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="17.25" thickBot="1">
+    <row r="50" spans="1:6" ht="17.5" thickBot="1">
       <c r="A50" s="16">
         <v>7047</v>
       </c>
@@ -4909,7 +6247,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17.25" thickBot="1">
+    <row r="51" spans="1:6" ht="17.5" thickBot="1">
       <c r="A51" s="16">
         <v>7048</v>
       </c>
@@ -4929,7 +6267,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17.25" thickBot="1">
+    <row r="52" spans="1:6" ht="17.5" thickBot="1">
       <c r="A52" s="16">
         <v>7049</v>
       </c>
@@ -4949,7 +6287,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="17.25" thickBot="1">
+    <row r="53" spans="1:6" ht="17.5" thickBot="1">
       <c r="A53" s="16">
         <v>7050</v>
       </c>
@@ -4969,7 +6307,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="17.25" thickBot="1">
+    <row r="54" spans="1:6" ht="17.5" thickBot="1">
       <c r="A54" s="14">
         <v>7051</v>
       </c>
@@ -4989,7 +6327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="17.25" thickBot="1">
+    <row r="55" spans="1:6" ht="17.5" thickBot="1">
       <c r="A55" s="16">
         <v>7052</v>
       </c>
@@ -5009,7 +6347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="17.25" thickBot="1">
+    <row r="56" spans="1:6" ht="17.5" thickBot="1">
       <c r="A56" s="16">
         <v>7053</v>
       </c>
@@ -5029,7 +6367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="17.25" thickBot="1">
+    <row r="57" spans="1:6" ht="17.5" thickBot="1">
       <c r="A57" s="16">
         <v>7054</v>
       </c>
@@ -5049,7 +6387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="17.25" thickBot="1">
+    <row r="58" spans="1:6" ht="17.5" thickBot="1">
       <c r="A58" s="16">
         <v>7055</v>
       </c>
@@ -5069,7 +6407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="17.25" thickBot="1">
+    <row r="59" spans="1:6" ht="17.5" thickBot="1">
       <c r="A59" s="16">
         <v>7056</v>
       </c>
@@ -5089,7 +6427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17.25" thickBot="1">
+    <row r="60" spans="1:6" ht="17.5" thickBot="1">
       <c r="A60" s="16">
         <v>7057</v>
       </c>
@@ -5109,7 +6447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="17.25" thickBot="1">
+    <row r="61" spans="1:6" ht="17.5" thickBot="1">
       <c r="A61" s="16">
         <v>7058</v>
       </c>
@@ -5129,7 +6467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="17.25" thickBot="1">
+    <row r="62" spans="1:6" ht="17.5" thickBot="1">
       <c r="A62" s="16">
         <v>7059</v>
       </c>
@@ -5149,7 +6487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="17.25" thickBot="1">
+    <row r="63" spans="1:6" ht="17.5" thickBot="1">
       <c r="A63" s="16">
         <v>7060</v>
       </c>
@@ -5169,7 +6507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="17.25" thickBot="1">
+    <row r="64" spans="1:6" ht="17.5" thickBot="1">
       <c r="A64" s="16">
         <v>7061</v>
       </c>
@@ -5189,7 +6527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="17.25" thickBot="1">
+    <row r="65" spans="1:6" ht="17.5" thickBot="1">
       <c r="A65" s="16">
         <v>7062</v>
       </c>
@@ -5209,7 +6547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="17.25" thickBot="1">
+    <row r="66" spans="1:6" ht="17.5" thickBot="1">
       <c r="A66" s="16">
         <v>7063</v>
       </c>
@@ -5229,7 +6567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="17.25" thickBot="1">
+    <row r="67" spans="1:6" ht="17.5" thickBot="1">
       <c r="A67" s="16">
         <v>7064</v>
       </c>
@@ -5249,7 +6587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="17.25" thickBot="1">
+    <row r="68" spans="1:6" ht="17.5" thickBot="1">
       <c r="A68" s="16">
         <v>7065</v>
       </c>
@@ -5269,7 +6607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="17.25" thickBot="1">
+    <row r="69" spans="1:6" ht="17.5" thickBot="1">
       <c r="A69" s="16">
         <v>7066</v>
       </c>
@@ -5289,7 +6627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="17.25" thickBot="1">
+    <row r="70" spans="1:6" ht="17.5" thickBot="1">
       <c r="A70" s="16">
         <v>7067</v>
       </c>
@@ -5309,7 +6647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="17.25" thickBot="1">
+    <row r="71" spans="1:6" ht="17.5" thickBot="1">
       <c r="A71" s="16">
         <v>7068</v>
       </c>
@@ -5329,7 +6667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="17.25" thickBot="1">
+    <row r="72" spans="1:6" ht="17.5" thickBot="1">
       <c r="A72" s="16">
         <v>7069</v>
       </c>
@@ -5349,7 +6687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="17.25" thickBot="1">
+    <row r="73" spans="1:6" ht="17.5" thickBot="1">
       <c r="A73" s="16">
         <v>7070</v>
       </c>
@@ -5369,7 +6707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="17.25" thickBot="1">
+    <row r="74" spans="1:6" ht="17.5" thickBot="1">
       <c r="A74" s="16">
         <v>7071</v>
       </c>
@@ -5389,7 +6727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="17.25" thickBot="1">
+    <row r="75" spans="1:6" ht="17.5" thickBot="1">
       <c r="A75" s="16">
         <v>7072</v>
       </c>
@@ -5409,7 +6747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="17.25" thickBot="1">
+    <row r="76" spans="1:6" ht="17.5" thickBot="1">
       <c r="A76" s="16">
         <v>7073</v>
       </c>
@@ -5429,7 +6767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="17.25" thickBot="1">
+    <row r="77" spans="1:6" ht="17.5" thickBot="1">
       <c r="A77" s="16">
         <v>7074</v>
       </c>
@@ -5449,7 +6787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="17.25" thickBot="1">
+    <row r="78" spans="1:6" ht="17.5" thickBot="1">
       <c r="A78" s="16">
         <v>7075</v>
       </c>
@@ -5469,7 +6807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="17.25" thickBot="1">
+    <row r="79" spans="1:6" ht="17.5" thickBot="1">
       <c r="A79" s="16">
         <v>7076</v>
       </c>
@@ -5489,7 +6827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="17.25" thickBot="1">
+    <row r="80" spans="1:6" ht="17.5" thickBot="1">
       <c r="A80" s="16">
         <v>7077</v>
       </c>
@@ -5509,7 +6847,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="17.25" thickBot="1">
+    <row r="81" spans="1:6" ht="17.5" thickBot="1">
       <c r="A81" s="16">
         <v>7078</v>
       </c>
@@ -5529,7 +6867,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="17.25" thickBot="1">
+    <row r="82" spans="1:6" ht="17.5" thickBot="1">
       <c r="A82" s="16">
         <v>7079</v>
       </c>
@@ -5549,7 +6887,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="17.25" thickBot="1">
+    <row r="83" spans="1:6" ht="17.5" thickBot="1">
       <c r="A83" s="16">
         <v>7080</v>
       </c>
@@ -5569,7 +6907,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="17.25" thickBot="1">
+    <row r="84" spans="1:6" ht="17.5" thickBot="1">
       <c r="A84" s="16">
         <v>7081</v>
       </c>
@@ -5589,7 +6927,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="17.25" thickBot="1">
+    <row r="85" spans="1:6" ht="17.5" thickBot="1">
       <c r="A85" s="16">
         <v>7082</v>
       </c>
@@ -5609,7 +6947,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17.25" thickBot="1">
+    <row r="86" spans="1:6" ht="17.5" thickBot="1">
       <c r="A86" s="16">
         <v>7083</v>
       </c>
@@ -5629,7 +6967,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="17.25" thickBot="1">
+    <row r="87" spans="1:6" ht="17.5" thickBot="1">
       <c r="A87" s="16">
         <v>7084</v>
       </c>
@@ -5649,7 +6987,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="17.25" thickBot="1">
+    <row r="88" spans="1:6" ht="17.5" thickBot="1">
       <c r="A88" s="16">
         <v>7085</v>
       </c>
@@ -5669,7 +7007,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="17.25" thickBot="1">
+    <row r="89" spans="1:6" ht="17.5" thickBot="1">
       <c r="A89" s="16">
         <v>7086</v>
       </c>
@@ -5689,7 +7027,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="17.25" thickBot="1">
+    <row r="90" spans="1:6" ht="17.5" thickBot="1">
       <c r="A90" s="16">
         <v>7087</v>
       </c>
@@ -5709,7 +7047,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="17.25" thickBot="1">
+    <row r="91" spans="1:6" ht="17.5" thickBot="1">
       <c r="A91" s="16">
         <v>7088</v>
       </c>
@@ -5729,7 +7067,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="17.25" thickBot="1">
+    <row r="92" spans="1:6" ht="17.5" thickBot="1">
       <c r="A92" s="16">
         <v>7089</v>
       </c>
@@ -5749,7 +7087,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="17.25" thickBot="1">
+    <row r="93" spans="1:6" ht="17.5" thickBot="1">
       <c r="A93" s="16">
         <v>7090</v>
       </c>
@@ -5769,7 +7107,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="17.25" thickBot="1">
+    <row r="94" spans="1:6" ht="17.5" thickBot="1">
       <c r="A94" s="16">
         <v>7091</v>
       </c>
@@ -5789,7 +7127,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="17.25" thickBot="1">
+    <row r="95" spans="1:6" ht="17.5" thickBot="1">
       <c r="A95" s="16">
         <v>7092</v>
       </c>
@@ -5809,7 +7147,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="17.25" thickBot="1">
+    <row r="96" spans="1:6" ht="17.5" thickBot="1">
       <c r="A96" s="16">
         <v>7093</v>
       </c>
@@ -5829,7 +7167,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="17.25" thickBot="1">
+    <row r="97" spans="1:6" ht="17.5" thickBot="1">
       <c r="A97" s="16">
         <v>7094</v>
       </c>
@@ -5849,7 +7187,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="17.25" thickBot="1">
+    <row r="98" spans="1:6" ht="17.5" thickBot="1">
       <c r="A98" s="16">
         <v>7095</v>
       </c>
@@ -5869,7 +7207,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="17.25" thickBot="1">
+    <row r="99" spans="1:6" ht="17.5" thickBot="1">
       <c r="A99" s="16">
         <v>7096</v>
       </c>
@@ -5889,7 +7227,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="17.25" thickBot="1">
+    <row r="100" spans="1:6" ht="17.5" thickBot="1">
       <c r="A100" s="16">
         <v>7097</v>
       </c>
@@ -5909,7 +7247,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="17.25" thickBot="1">
+    <row r="101" spans="1:6" ht="17.5" thickBot="1">
       <c r="A101" s="16">
         <v>7098</v>
       </c>
@@ -5929,7 +7267,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="17.25" thickBot="1">
+    <row r="102" spans="1:6" ht="17.5" thickBot="1">
       <c r="A102" s="16">
         <v>7099</v>
       </c>
@@ -5949,7 +7287,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="17.25" thickBot="1">
+    <row r="103" spans="1:6" ht="17.5" thickBot="1">
       <c r="A103" s="16">
         <v>7100</v>
       </c>
@@ -5984,10 +7322,10 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="104.875" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="104.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6034,7 +7372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="49.5">
+    <row r="5" spans="1:3" ht="51">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6045,7 +7383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="82.5">
+    <row r="6" spans="1:3" ht="85">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6056,7 +7394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="82.5">
+    <row r="7" spans="1:3" ht="85">
       <c r="A7">
         <v>3</v>
       </c>
@@ -6067,7 +7405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="49.5">
+    <row r="8" spans="1:3" ht="51">
       <c r="A8">
         <v>4</v>
       </c>
@@ -6078,7 +7416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="82.5">
+    <row r="9" spans="1:3" ht="85">
       <c r="A9">
         <v>5</v>
       </c>
@@ -6089,7 +7427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="66">
+    <row r="10" spans="1:3" ht="68">
       <c r="A10">
         <v>6</v>
       </c>
@@ -6100,7 +7438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="49.5">
+    <row r="11" spans="1:3" ht="51">
       <c r="A11">
         <v>7</v>
       </c>
@@ -6111,7 +7449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="66">
+    <row r="12" spans="1:3" ht="68">
       <c r="A12">
         <v>8</v>
       </c>
@@ -6122,7 +7460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="33">
+    <row r="13" spans="1:3" ht="34">
       <c r="A13">
         <v>9</v>
       </c>
@@ -6133,7 +7471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="115.5">
+    <row r="14" spans="1:3" ht="119">
       <c r="A14">
         <v>10</v>
       </c>
@@ -6144,7 +7482,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="82.5">
+    <row r="15" spans="1:3" ht="85">
       <c r="A15">
         <v>11</v>
       </c>
@@ -6181,14 +7519,14 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.58203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6237,7 +7575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1">
+    <row r="3" spans="1:7" ht="17.5" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6260,7 +7598,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" thickBot="1">
+    <row r="4" spans="1:7" ht="17.5" thickBot="1">
       <c r="A4" s="14">
         <v>401</v>
       </c>
@@ -6283,7 +7621,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" thickBot="1">
+    <row r="5" spans="1:7" ht="17.5" thickBot="1">
       <c r="A5" s="16">
         <v>402</v>
       </c>
@@ -6306,7 +7644,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1">
+    <row r="6" spans="1:7" ht="17.5" thickBot="1">
       <c r="A6" s="16">
         <v>403</v>
       </c>
@@ -6329,7 +7667,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1">
+    <row r="7" spans="1:7" ht="17.5" thickBot="1">
       <c r="A7" s="16">
         <v>404</v>
       </c>
@@ -6352,7 +7690,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.25" thickBot="1">
+    <row r="8" spans="1:7" ht="17.5" thickBot="1">
       <c r="A8" s="16">
         <v>405</v>
       </c>
@@ -6375,7 +7713,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.25" thickBot="1">
+    <row r="9" spans="1:7" ht="17.5" thickBot="1">
       <c r="A9" s="16">
         <v>406</v>
       </c>
@@ -6398,7 +7736,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.25" thickBot="1">
+    <row r="10" spans="1:7" ht="17.5" thickBot="1">
       <c r="A10" s="16">
         <v>407</v>
       </c>
@@ -6421,7 +7759,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.25" thickBot="1">
+    <row r="11" spans="1:7" ht="17.5" thickBot="1">
       <c r="A11" s="16">
         <v>408</v>
       </c>
@@ -6444,7 +7782,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" thickBot="1">
+    <row r="12" spans="1:7" ht="17.5" thickBot="1">
       <c r="A12" s="16">
         <v>409</v>
       </c>
@@ -6467,7 +7805,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.25" thickBot="1">
+    <row r="13" spans="1:7" ht="17.5" thickBot="1">
       <c r="A13" s="16">
         <v>410</v>
       </c>
@@ -6505,13 +7843,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" customWidth="1"/>
+    <col min="6" max="6" width="13.58203125" customWidth="1"/>
+    <col min="7" max="7" width="19.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6560,7 +7898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1">
+    <row r="3" spans="1:7" ht="17.5" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6583,7 +7921,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" thickBot="1">
+    <row r="4" spans="1:7" ht="17.5" thickBot="1">
       <c r="A4" s="14">
         <v>501</v>
       </c>
@@ -6606,7 +7944,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" thickBot="1">
+    <row r="5" spans="1:7" ht="17.5" thickBot="1">
       <c r="A5" s="16">
         <v>502</v>
       </c>
@@ -6629,7 +7967,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1">
+    <row r="6" spans="1:7" ht="17.5" thickBot="1">
       <c r="A6" s="16">
         <v>503</v>
       </c>
@@ -6652,7 +7990,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1">
+    <row r="7" spans="1:7" ht="17.5" thickBot="1">
       <c r="A7" s="16">
         <v>504</v>
       </c>
@@ -6675,7 +8013,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.25" thickBot="1">
+    <row r="8" spans="1:7" ht="17.5" thickBot="1">
       <c r="A8" s="16">
         <v>505</v>
       </c>
@@ -6713,21 +8051,21 @@
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" customWidth="1"/>
+    <col min="2" max="2" width="31.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.08203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.58203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -6871,7 +8209,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="49.5">
+    <row r="4" spans="1:15" ht="51">
       <c r="A4">
         <v>3001</v>
       </c>
@@ -6918,7 +8256,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="49.5">
+    <row r="5" spans="1:15" ht="51">
       <c r="A5">
         <v>3002</v>
       </c>
@@ -6965,7 +8303,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="66">
+    <row r="6" spans="1:15" ht="68">
       <c r="A6">
         <v>3003</v>
       </c>
@@ -7012,7 +8350,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="49.5">
+    <row r="7" spans="1:15" ht="51">
       <c r="A7">
         <v>3004</v>
       </c>
@@ -7059,7 +8397,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="49.5">
+    <row r="8" spans="1:15" ht="51">
       <c r="A8">
         <v>3005</v>
       </c>
@@ -7106,7 +8444,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="49.5">
+    <row r="9" spans="1:15" ht="51">
       <c r="A9">
         <v>3006</v>
       </c>
@@ -7153,7 +8491,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="49.5">
+    <row r="10" spans="1:15" ht="51">
       <c r="A10">
         <v>3007</v>
       </c>
@@ -7200,7 +8538,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="49.5">
+    <row r="11" spans="1:15" ht="51">
       <c r="A11">
         <v>3008</v>
       </c>
@@ -7262,15 +8600,15 @@
       <selection sqref="A1:M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -8272,7 +9610,7 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="37" style="1" customWidth="1"/>
@@ -8922,7 +10260,7 @@
       <selection activeCell="E1" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Portfolio\Oilnam\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4535754D-912F-4015-B85F-0C606AD04AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3DBCCE-8341-4842-8F49-2C47020A8AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="880" windowWidth="19200" windowHeight="11170" firstSheet="2" activeTab="9" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="2450" yWindow="1260" windowWidth="19200" windowHeight="11170" firstSheet="1" activeTab="9" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -1925,7 +1925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AF03AA-AD2E-4842-8F07-034942C7A07E}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="64" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -4123,8 +4123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D50587-6B81-48DF-A8DB-00F001E27D99}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4878,31 +4878,31 @@
         <v>1011</v>
       </c>
       <c r="B14" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C14" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D14" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E14">
         <v>1501</v>
       </c>
       <c r="F14">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G14">
+        <v>1502</v>
+      </c>
+      <c r="H14">
+        <v>200</v>
+      </c>
+      <c r="I14">
         <v>1504</v>
       </c>
-      <c r="H14">
-        <v>300</v>
-      </c>
-      <c r="I14">
-        <v>-1</v>
-      </c>
       <c r="J14">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -4914,7 +4914,7 @@
         <v>-1</v>
       </c>
       <c r="N14" s="27">
-        <v>1100</v>
+        <v>4900</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -4926,7 +4926,7 @@
         <v>-1</v>
       </c>
       <c r="R14" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -4934,31 +4934,31 @@
         <v>1012</v>
       </c>
       <c r="B15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E15">
         <v>1501</v>
       </c>
       <c r="F15">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G15">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="H15">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I15">
-        <v>1504</v>
+        <v>-1</v>
       </c>
       <c r="J15">
-        <v>30</v>
+        <v>-1</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -4970,7 +4970,7 @@
         <v>-1</v>
       </c>
       <c r="N15" s="27">
-        <v>4900</v>
+        <v>1100</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -4982,7 +4982,7 @@
         <v>-1</v>
       </c>
       <c r="R15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Portfolio\Oilnam\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3DBCCE-8341-4842-8F49-2C47020A8AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7C000D-2D5A-4CD1-A400-81461651C59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2450" yWindow="1260" windowWidth="19200" windowHeight="11170" firstSheet="1" activeTab="9" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="4720" yWindow="2280" windowWidth="19200" windowHeight="11170" firstSheet="1" activeTab="9" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="356">
   <si>
     <t>Name</t>
   </si>
@@ -1343,6 +1343,21 @@
   </si>
   <si>
     <t>Is_Once</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.55배 가치</t>
+  </si>
+  <si>
+    <t>1.2배 가치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.21배 가치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1523,7 +1538,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1607,6 +1622,12 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4121,10 +4142,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D50587-6B81-48DF-A8DB-00F001E27D99}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4132,20 +4153,21 @@
     <col min="1" max="1" width="9.1640625" customWidth="1"/>
     <col min="2" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="33.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="8" width="15.08203125" customWidth="1"/>
-    <col min="9" max="9" width="15.75" customWidth="1"/>
-    <col min="10" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="14.25" customWidth="1"/>
-    <col min="15" max="16" width="14.83203125" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" customWidth="1"/>
-    <col min="18" max="18" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="15.08203125" customWidth="1"/>
+    <col min="10" max="10" width="15.75" customWidth="1"/>
+    <col min="11" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="14.25" customWidth="1"/>
+    <col min="16" max="17" width="14.83203125" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>261</v>
       </c>
@@ -4159,49 +4181,52 @@
         <v>133</v>
       </c>
       <c r="E1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F1" t="s">
         <v>262</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>263</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>264</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>265</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>266</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>267</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>346</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>347</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>268</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>269</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>270</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>350</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>271</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19" ht="17.5" thickBot="1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4215,7 +4240,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -4233,13 +4258,13 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
         <v>2</v>
@@ -4248,16 +4273,19 @@
         <v>2</v>
       </c>
       <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" t="s">
-        <v>2</v>
-      </c>
       <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19" ht="17.5" thickBot="1">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4270,50 +4298,53 @@
       <c r="D3" t="s">
         <v>133</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="F3" t="s">
         <v>272</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>273</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>274</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>275</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>276</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>277</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>348</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>349</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>278</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>279</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>280</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>351</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>281</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19" ht="17.5" thickBot="1">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -4326,15 +4357,15 @@
       <c r="D4" t="s">
         <v>283</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="29">
+        <v>-1</v>
+      </c>
+      <c r="F4">
         <v>1501</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1800</v>
       </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
       <c r="H4">
         <v>-1</v>
       </c>
@@ -4344,32 +4375,35 @@
       <c r="J4">
         <v>-1</v>
       </c>
-      <c r="K4" t="b">
-        <v>0</v>
+      <c r="K4">
+        <v>-1</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>1502</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>100</v>
       </c>
-      <c r="O4">
-        <v>-1</v>
-      </c>
-      <c r="P4" t="b">
+      <c r="P4">
+        <v>-1</v>
+      </c>
+      <c r="Q4" t="b">
         <v>0</v>
       </c>
-      <c r="Q4">
-        <v>-1</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="R4">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19" ht="17.5" thickBot="1">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -4382,15 +4416,15 @@
       <c r="D5" t="s">
         <v>284</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="29">
+        <v>-1</v>
+      </c>
+      <c r="F5">
         <v>1501</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5400</v>
       </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
       <c r="H5">
         <v>-1</v>
       </c>
@@ -4400,32 +4434,35 @@
       <c r="J5">
         <v>-1</v>
       </c>
-      <c r="K5" t="b">
-        <v>0</v>
+      <c r="K5">
+        <v>-1</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>1502</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>300</v>
       </c>
-      <c r="O5">
-        <v>-1</v>
-      </c>
-      <c r="P5" t="b">
+      <c r="P5">
+        <v>-1</v>
+      </c>
+      <c r="Q5" t="b">
         <v>0</v>
       </c>
-      <c r="Q5">
-        <v>-1</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="R5">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19" ht="17.5" thickBot="1">
       <c r="A6">
         <v>1003</v>
       </c>
@@ -4438,15 +4475,15 @@
       <c r="D6" t="s">
         <v>285</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="29">
+        <v>-1</v>
+      </c>
+      <c r="F6">
         <v>1501</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>10800</v>
       </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
       <c r="H6">
         <v>-1</v>
       </c>
@@ -4456,32 +4493,35 @@
       <c r="J6">
         <v>-1</v>
       </c>
-      <c r="K6" t="b">
-        <v>0</v>
+      <c r="K6">
+        <v>-1</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>1502</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>600</v>
       </c>
-      <c r="O6">
-        <v>-1</v>
-      </c>
-      <c r="P6" t="b">
+      <c r="P6">
+        <v>-1</v>
+      </c>
+      <c r="Q6" t="b">
         <v>0</v>
       </c>
-      <c r="Q6">
-        <v>-1</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="R6">
+        <v>-1</v>
+      </c>
+      <c r="S6" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19" ht="17.5" thickBot="1">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -4494,15 +4534,15 @@
       <c r="D7" t="s">
         <v>287</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="29">
+        <v>-1</v>
+      </c>
+      <c r="F7">
         <v>1502</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>200</v>
       </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
       <c r="H7">
         <v>-1</v>
       </c>
@@ -4512,32 +4552,35 @@
       <c r="J7">
         <v>-1</v>
       </c>
-      <c r="K7" t="b">
-        <v>1</v>
+      <c r="K7">
+        <v>-1</v>
       </c>
       <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="b">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>-1</v>
-      </c>
-      <c r="N7" s="27">
+      <c r="N7">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="27">
         <v>1200</v>
       </c>
-      <c r="O7">
-        <v>-1</v>
-      </c>
-      <c r="P7" t="b">
+      <c r="P7">
+        <v>-1</v>
+      </c>
+      <c r="Q7" t="b">
         <v>0</v>
       </c>
-      <c r="Q7">
-        <v>-1</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="R7">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19" ht="17.5" thickBot="1">
       <c r="A8">
         <v>1005</v>
       </c>
@@ -4550,15 +4593,15 @@
       <c r="D8" t="s">
         <v>288</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="F8">
         <v>1502</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1200</v>
       </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
       <c r="H8">
         <v>-1</v>
       </c>
@@ -4568,32 +4611,35 @@
       <c r="J8">
         <v>-1</v>
       </c>
-      <c r="K8" t="b">
-        <v>1</v>
+      <c r="K8">
+        <v>-1</v>
       </c>
       <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="b">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>-1</v>
-      </c>
-      <c r="N8" s="27">
+      <c r="N8">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="27">
         <v>5900</v>
       </c>
-      <c r="O8">
-        <v>-1</v>
-      </c>
-      <c r="P8" t="b">
+      <c r="P8">
+        <v>-1</v>
+      </c>
+      <c r="Q8" t="b">
         <v>0</v>
       </c>
-      <c r="Q8">
-        <v>-1</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="R8">
+        <v>-1</v>
+      </c>
+      <c r="S8" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19" ht="17.5" thickBot="1">
       <c r="A9">
         <v>1006</v>
       </c>
@@ -4606,15 +4652,15 @@
       <c r="D9" t="s">
         <v>289</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="F9">
         <v>1502</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2000</v>
       </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
       <c r="H9">
         <v>-1</v>
       </c>
@@ -4624,32 +4670,35 @@
       <c r="J9">
         <v>-1</v>
       </c>
-      <c r="K9" t="b">
-        <v>1</v>
+      <c r="K9">
+        <v>-1</v>
       </c>
       <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>-1</v>
-      </c>
-      <c r="N9" s="27">
+      <c r="N9">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="27">
         <v>9900</v>
       </c>
-      <c r="O9">
-        <v>-1</v>
-      </c>
-      <c r="P9" t="b">
+      <c r="P9">
+        <v>-1</v>
+      </c>
+      <c r="Q9" t="b">
         <v>0</v>
       </c>
-      <c r="Q9">
-        <v>-1</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="R9">
+        <v>-1</v>
+      </c>
+      <c r="S9" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19" ht="17.5" thickBot="1">
       <c r="A10">
         <v>1007</v>
       </c>
@@ -4662,14 +4711,14 @@
       <c r="D10" t="s">
         <v>291</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="29">
+        <v>-1</v>
+      </c>
+      <c r="F10">
         <v>1504</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>-1</v>
@@ -4680,32 +4729,35 @@
       <c r="J10">
         <v>-1</v>
       </c>
-      <c r="K10" t="b">
-        <v>0</v>
+      <c r="K10">
+        <v>-1</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>1502</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>8</v>
       </c>
-      <c r="O10">
-        <v>-1</v>
-      </c>
-      <c r="P10" t="b">
+      <c r="P10">
+        <v>-1</v>
+      </c>
+      <c r="Q10" t="b">
         <v>0</v>
       </c>
-      <c r="Q10">
-        <v>-1</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="R10">
+        <v>-1</v>
+      </c>
+      <c r="S10" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19" ht="17.5" thickBot="1">
       <c r="A11">
         <v>1008</v>
       </c>
@@ -4718,15 +4770,15 @@
       <c r="D11" t="s">
         <v>292</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="29">
+        <v>-1</v>
+      </c>
+      <c r="F11">
         <v>1504</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>30</v>
       </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
       <c r="H11">
         <v>-1</v>
       </c>
@@ -4736,32 +4788,35 @@
       <c r="J11">
         <v>-1</v>
       </c>
-      <c r="K11" t="b">
-        <v>0</v>
+      <c r="K11">
+        <v>-1</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>1502</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>240</v>
       </c>
-      <c r="O11">
-        <v>-1</v>
-      </c>
-      <c r="P11" t="b">
+      <c r="P11">
+        <v>-1</v>
+      </c>
+      <c r="Q11" t="b">
         <v>0</v>
       </c>
-      <c r="Q11">
-        <v>-1</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="R11">
+        <v>-1</v>
+      </c>
+      <c r="S11" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19" ht="17.5" thickBot="1">
       <c r="A12">
         <v>1009</v>
       </c>
@@ -4774,15 +4829,15 @@
       <c r="D12" t="s">
         <v>293</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="29">
+        <v>-1</v>
+      </c>
+      <c r="F12">
         <v>1504</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>300</v>
       </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
       <c r="H12">
         <v>-1</v>
       </c>
@@ -4792,32 +4847,35 @@
       <c r="J12">
         <v>-1</v>
       </c>
-      <c r="K12" t="b">
-        <v>0</v>
+      <c r="K12">
+        <v>-1</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12">
         <v>1502</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2400</v>
       </c>
-      <c r="O12">
-        <v>-1</v>
-      </c>
-      <c r="P12" t="b">
+      <c r="P12">
+        <v>-1</v>
+      </c>
+      <c r="Q12" t="b">
         <v>0</v>
       </c>
-      <c r="Q12">
-        <v>-1</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="R12">
+        <v>-1</v>
+      </c>
+      <c r="S12" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19" ht="17.5" thickBot="1">
       <c r="A13">
         <v>1010</v>
       </c>
@@ -4830,15 +4888,15 @@
       <c r="D13" t="s">
         <v>295</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="29">
+        <v>-1</v>
+      </c>
+      <c r="F13">
         <v>1502</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>25</v>
       </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
       <c r="H13">
         <v>-1</v>
       </c>
@@ -4848,32 +4906,35 @@
       <c r="J13">
         <v>-1</v>
       </c>
-      <c r="K13" t="b">
+      <c r="K13">
+        <v>-1</v>
+      </c>
+      <c r="L13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>-1</v>
+      <c r="M13" t="b">
+        <v>1</v>
       </c>
       <c r="N13">
         <v>-1</v>
       </c>
       <c r="O13">
-        <v>2</v>
-      </c>
-      <c r="P13" t="b">
+        <v>-1</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="b">
         <v>0</v>
       </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19" ht="17.5" thickBot="1">
       <c r="A14">
         <v>1011</v>
       </c>
@@ -4886,50 +4947,53 @@
       <c r="D14" t="s">
         <v>299</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="F14">
         <v>1501</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>600</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1502</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>200</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1504</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>30</v>
       </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
       <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>-1</v>
-      </c>
-      <c r="N14" s="27">
+      <c r="N14">
+        <v>-1</v>
+      </c>
+      <c r="O14" s="27">
         <v>4900</v>
       </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>-1</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>-1</v>
+      </c>
+      <c r="S14" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19" ht="17.5" thickBot="1">
       <c r="A15">
         <v>1012</v>
       </c>
@@ -4942,46 +5006,49 @@
       <c r="D15" t="s">
         <v>297</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="29">
+        <v>-1</v>
+      </c>
+      <c r="F15">
         <v>1501</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>500</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1504</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>300</v>
       </c>
-      <c r="I15">
-        <v>-1</v>
-      </c>
       <c r="J15">
         <v>-1</v>
       </c>
-      <c r="K15" t="b">
-        <v>1</v>
+      <c r="K15">
+        <v>-1</v>
       </c>
       <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="b">
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>-1</v>
-      </c>
-      <c r="N15" s="27">
+      <c r="N15">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="27">
         <v>1100</v>
       </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>-1</v>
-      </c>
-      <c r="R15" t="s">
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>-1</v>
+      </c>
+      <c r="S15" t="s">
         <v>344</v>
       </c>
     </row>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Portfolio\Oilnam\RawData\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3DBCCE-8341-4842-8F49-2C47020A8AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889AB647-51D0-4CD2-9E7A-43581CAB11FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2450" yWindow="1260" windowWidth="19200" windowHeight="11170" firstSheet="1" activeTab="9" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Shop" sheetId="11" r:id="rId10"/>
     <sheet name="Goods" sheetId="12" r:id="rId11"/>
     <sheet name="TIP" sheetId="10" r:id="rId12"/>
+    <sheet name="LevelPass" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="361">
   <si>
     <t>Name</t>
   </si>
@@ -1343,6 +1344,42 @@
   </si>
   <si>
     <t>Is_Once</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldenType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldenValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1929,14 +1966,14 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="6" width="11.58203125" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="5" max="6" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2021,7 +2058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.149999999999999" customHeight="1">
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -4123,26 +4160,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D50587-6B81-48DF-A8DB-00F001E27D99}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" customWidth="1"/>
-    <col min="2" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="33.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="8" width="15.08203125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
     <col min="9" max="9" width="15.75" customWidth="1"/>
     <col min="10" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="14.25" customWidth="1"/>
-    <col min="15" max="16" width="14.83203125" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" customWidth="1"/>
-    <col min="18" max="18" width="14.83203125" customWidth="1"/>
+    <col min="15" max="16" width="14.875" customWidth="1"/>
+    <col min="17" max="17" width="13.625" customWidth="1"/>
+    <col min="18" max="18" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -5000,10 +5037,10 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="39.58203125" customWidth="1"/>
+    <col min="3" max="3" width="39.625" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5021,7 +5058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.5" thickBot="1">
+    <row r="2" spans="1:4" ht="17.25" thickBot="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5035,7 +5072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.5" thickBot="1">
+    <row r="3" spans="1:4" ht="17.25" thickBot="1">
       <c r="A3" s="23" t="s">
         <v>32</v>
       </c>
@@ -5049,7 +5086,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.5" thickBot="1">
+    <row r="4" spans="1:4" ht="17.25" thickBot="1">
       <c r="A4" s="16">
         <v>1501</v>
       </c>
@@ -5077,7 +5114,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="22" customHeight="1" thickBot="1">
+    <row r="6" spans="1:4" ht="21.95" customHeight="1" thickBot="1">
       <c r="A6" s="16">
         <v>1503</v>
       </c>
@@ -5091,7 +5128,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="16">
         <v>1504</v>
       </c>
@@ -5105,7 +5142,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:4" ht="21.6" customHeight="1" thickBot="1">
       <c r="A8" s="16">
         <v>1505</v>
       </c>
@@ -5119,7 +5156,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="22" customHeight="1" thickBot="1">
+    <row r="9" spans="1:4" ht="21.95" customHeight="1" thickBot="1">
       <c r="A9" s="16">
         <v>1506</v>
       </c>
@@ -5144,14 +5181,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6926D4-C54F-410A-A670-136E7C30B884}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5230,6 +5265,2737 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1FF4F24-FB0E-440A-9C75-674911EB633F}">
+  <dimension ref="A1:F145"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>600</v>
+      </c>
+      <c r="F4" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>200</v>
+      </c>
+      <c r="F5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>600</v>
+      </c>
+      <c r="F6" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>200</v>
+      </c>
+      <c r="F7" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>600</v>
+      </c>
+      <c r="F8" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>200</v>
+      </c>
+      <c r="F9" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>10007</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>600</v>
+      </c>
+      <c r="F10" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10008</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>600</v>
+      </c>
+      <c r="F11" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10009</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>200</v>
+      </c>
+      <c r="F12" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>10010</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>600</v>
+      </c>
+      <c r="F13" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>10011</v>
+      </c>
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>200</v>
+      </c>
+      <c r="F14" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>10012</v>
+      </c>
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>600</v>
+      </c>
+      <c r="F15" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>10013</v>
+      </c>
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>200</v>
+      </c>
+      <c r="F16" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>10014</v>
+      </c>
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>600</v>
+      </c>
+      <c r="F17" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>10015</v>
+      </c>
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>600</v>
+      </c>
+      <c r="F18" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>10016</v>
+      </c>
+      <c r="B19" s="1">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>200</v>
+      </c>
+      <c r="F19" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>10017</v>
+      </c>
+      <c r="B20" s="1">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>600</v>
+      </c>
+      <c r="F20" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>10018</v>
+      </c>
+      <c r="B21" s="1">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>200</v>
+      </c>
+      <c r="F21" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>10019</v>
+      </c>
+      <c r="B22" s="1">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>600</v>
+      </c>
+      <c r="F22" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>10020</v>
+      </c>
+      <c r="B23" s="1">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>200</v>
+      </c>
+      <c r="F23" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>10021</v>
+      </c>
+      <c r="B24" s="1">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>600</v>
+      </c>
+      <c r="F24" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>10022</v>
+      </c>
+      <c r="B25" s="1">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>600</v>
+      </c>
+      <c r="F25" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>10023</v>
+      </c>
+      <c r="B26" s="1">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>200</v>
+      </c>
+      <c r="F26" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>10024</v>
+      </c>
+      <c r="B27" s="1">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>600</v>
+      </c>
+      <c r="F27" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>10025</v>
+      </c>
+      <c r="B28" s="1">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>200</v>
+      </c>
+      <c r="F28" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>10026</v>
+      </c>
+      <c r="B29" s="1">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>600</v>
+      </c>
+      <c r="F29" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>10027</v>
+      </c>
+      <c r="B30" s="1">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>200</v>
+      </c>
+      <c r="F30" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>10028</v>
+      </c>
+      <c r="B31" s="1">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>600</v>
+      </c>
+      <c r="F31" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>10029</v>
+      </c>
+      <c r="B32" s="1">
+        <v>29</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>600</v>
+      </c>
+      <c r="F32" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>10030</v>
+      </c>
+      <c r="B33" s="1">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>200</v>
+      </c>
+      <c r="F33" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>10031</v>
+      </c>
+      <c r="B34" s="1">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>600</v>
+      </c>
+      <c r="F34" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>10032</v>
+      </c>
+      <c r="B35" s="1">
+        <v>32</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>200</v>
+      </c>
+      <c r="F35" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>10033</v>
+      </c>
+      <c r="B36" s="1">
+        <v>33</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>600</v>
+      </c>
+      <c r="F36" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>10034</v>
+      </c>
+      <c r="B37" s="1">
+        <v>34</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>200</v>
+      </c>
+      <c r="F37" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>10035</v>
+      </c>
+      <c r="B38" s="1">
+        <v>35</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>600</v>
+      </c>
+      <c r="F38" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>10036</v>
+      </c>
+      <c r="B39" s="1">
+        <v>36</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>600</v>
+      </c>
+      <c r="F39" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>10037</v>
+      </c>
+      <c r="B40" s="1">
+        <v>37</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>200</v>
+      </c>
+      <c r="F40" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>10038</v>
+      </c>
+      <c r="B41" s="1">
+        <v>38</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>600</v>
+      </c>
+      <c r="F41" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>10039</v>
+      </c>
+      <c r="B42" s="1">
+        <v>39</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>200</v>
+      </c>
+      <c r="F42" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>10040</v>
+      </c>
+      <c r="B43" s="1">
+        <v>40</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>600</v>
+      </c>
+      <c r="F43" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>10041</v>
+      </c>
+      <c r="B44" s="1">
+        <v>41</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>200</v>
+      </c>
+      <c r="F44" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>10042</v>
+      </c>
+      <c r="B45" s="1">
+        <v>42</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>600</v>
+      </c>
+      <c r="F45" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>10043</v>
+      </c>
+      <c r="B46" s="1">
+        <v>43</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>600</v>
+      </c>
+      <c r="F46" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>10044</v>
+      </c>
+      <c r="B47" s="1">
+        <v>44</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>200</v>
+      </c>
+      <c r="F47" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>10045</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>600</v>
+      </c>
+      <c r="F48" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>10046</v>
+      </c>
+      <c r="B49" s="1">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>200</v>
+      </c>
+      <c r="F49" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>10047</v>
+      </c>
+      <c r="B50" s="1">
+        <v>47</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>600</v>
+      </c>
+      <c r="F50" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>10048</v>
+      </c>
+      <c r="B51" s="1">
+        <v>48</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>200</v>
+      </c>
+      <c r="F51" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>10049</v>
+      </c>
+      <c r="B52" s="1">
+        <v>49</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1">
+        <v>600</v>
+      </c>
+      <c r="F52" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>10050</v>
+      </c>
+      <c r="B53" s="1">
+        <v>50</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>600</v>
+      </c>
+      <c r="F53" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>10051</v>
+      </c>
+      <c r="B54" s="1">
+        <v>51</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>200</v>
+      </c>
+      <c r="F54" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>10052</v>
+      </c>
+      <c r="B55" s="1">
+        <v>52</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <v>600</v>
+      </c>
+      <c r="F55" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>10053</v>
+      </c>
+      <c r="B56" s="1">
+        <v>53</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+      <c r="E56" s="1">
+        <v>200</v>
+      </c>
+      <c r="F56" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>10054</v>
+      </c>
+      <c r="B57" s="1">
+        <v>54</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
+        <v>600</v>
+      </c>
+      <c r="F57" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>10055</v>
+      </c>
+      <c r="B58" s="1">
+        <v>55</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2</v>
+      </c>
+      <c r="E58" s="1">
+        <v>200</v>
+      </c>
+      <c r="F58" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>10056</v>
+      </c>
+      <c r="B59" s="1">
+        <v>56</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1">
+        <v>600</v>
+      </c>
+      <c r="F59" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>10057</v>
+      </c>
+      <c r="B60" s="1">
+        <v>57</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1">
+        <v>600</v>
+      </c>
+      <c r="F60" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>10058</v>
+      </c>
+      <c r="B61" s="1">
+        <v>58</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1">
+        <v>200</v>
+      </c>
+      <c r="F61" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>10059</v>
+      </c>
+      <c r="B62" s="1">
+        <v>59</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>600</v>
+      </c>
+      <c r="F62" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>10060</v>
+      </c>
+      <c r="B63" s="1">
+        <v>60</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1">
+        <v>200</v>
+      </c>
+      <c r="F63" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>10061</v>
+      </c>
+      <c r="B64" s="1">
+        <v>61</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
+        <v>600</v>
+      </c>
+      <c r="F64" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>10062</v>
+      </c>
+      <c r="B65" s="1">
+        <v>62</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2</v>
+      </c>
+      <c r="E65" s="1">
+        <v>200</v>
+      </c>
+      <c r="F65" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>10063</v>
+      </c>
+      <c r="B66" s="1">
+        <v>63</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>3</v>
+      </c>
+      <c r="E66" s="1">
+        <v>600</v>
+      </c>
+      <c r="F66" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>10064</v>
+      </c>
+      <c r="B67" s="1">
+        <v>64</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1">
+        <v>600</v>
+      </c>
+      <c r="F67" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>10065</v>
+      </c>
+      <c r="B68" s="1">
+        <v>65</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2</v>
+      </c>
+      <c r="E68" s="1">
+        <v>200</v>
+      </c>
+      <c r="F68" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>10066</v>
+      </c>
+      <c r="B69" s="1">
+        <v>66</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1">
+        <v>600</v>
+      </c>
+      <c r="F69" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>10067</v>
+      </c>
+      <c r="B70" s="1">
+        <v>67</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
+      <c r="E70" s="1">
+        <v>200</v>
+      </c>
+      <c r="F70" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>10068</v>
+      </c>
+      <c r="B71" s="1">
+        <v>68</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1">
+        <v>600</v>
+      </c>
+      <c r="F71" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>10069</v>
+      </c>
+      <c r="B72" s="1">
+        <v>69</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2</v>
+      </c>
+      <c r="E72" s="1">
+        <v>200</v>
+      </c>
+      <c r="F72" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>10070</v>
+      </c>
+      <c r="B73" s="1">
+        <v>70</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3</v>
+      </c>
+      <c r="E73" s="1">
+        <v>600</v>
+      </c>
+      <c r="F73" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>10071</v>
+      </c>
+      <c r="B74" s="1">
+        <v>71</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>200</v>
+      </c>
+      <c r="F74" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>10072</v>
+      </c>
+      <c r="B75" s="1">
+        <v>72</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2</v>
+      </c>
+      <c r="E75" s="1">
+        <v>600</v>
+      </c>
+      <c r="F75" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>10073</v>
+      </c>
+      <c r="B76" s="1">
+        <v>73</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>200</v>
+      </c>
+      <c r="F76" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>10074</v>
+      </c>
+      <c r="B77" s="1">
+        <v>74</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2</v>
+      </c>
+      <c r="E77" s="1">
+        <v>600</v>
+      </c>
+      <c r="F77" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>10075</v>
+      </c>
+      <c r="B78" s="1">
+        <v>75</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>600</v>
+      </c>
+      <c r="F78" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>10076</v>
+      </c>
+      <c r="B79" s="1">
+        <v>76</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2</v>
+      </c>
+      <c r="E79" s="1">
+        <v>200</v>
+      </c>
+      <c r="F79" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>10077</v>
+      </c>
+      <c r="B80" s="1">
+        <v>77</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <v>3</v>
+      </c>
+      <c r="E80" s="1">
+        <v>600</v>
+      </c>
+      <c r="F80" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>10078</v>
+      </c>
+      <c r="B81" s="1">
+        <v>78</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>200</v>
+      </c>
+      <c r="F81" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>10079</v>
+      </c>
+      <c r="B82" s="1">
+        <v>79</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2</v>
+      </c>
+      <c r="E82" s="1">
+        <v>600</v>
+      </c>
+      <c r="F82" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>10080</v>
+      </c>
+      <c r="B83" s="1">
+        <v>80</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1">
+        <v>200</v>
+      </c>
+      <c r="F83" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>10081</v>
+      </c>
+      <c r="B84" s="1">
+        <v>81</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
+        <v>2</v>
+      </c>
+      <c r="E84" s="1">
+        <v>600</v>
+      </c>
+      <c r="F84" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>10082</v>
+      </c>
+      <c r="B85" s="1">
+        <v>82</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1">
+        <v>600</v>
+      </c>
+      <c r="F85" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>10083</v>
+      </c>
+      <c r="B86" s="1">
+        <v>83</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2</v>
+      </c>
+      <c r="E86" s="1">
+        <v>200</v>
+      </c>
+      <c r="F86" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>10084</v>
+      </c>
+      <c r="B87" s="1">
+        <v>84</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2</v>
+      </c>
+      <c r="D87" s="1">
+        <v>3</v>
+      </c>
+      <c r="E87" s="1">
+        <v>600</v>
+      </c>
+      <c r="F87" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>10085</v>
+      </c>
+      <c r="B88" s="1">
+        <v>85</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1">
+        <v>200</v>
+      </c>
+      <c r="F88" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>10086</v>
+      </c>
+      <c r="B89" s="1">
+        <v>86</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2</v>
+      </c>
+      <c r="E89" s="1">
+        <v>600</v>
+      </c>
+      <c r="F89" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>10087</v>
+      </c>
+      <c r="B90" s="1">
+        <v>87</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <v>200</v>
+      </c>
+      <c r="F90" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>10088</v>
+      </c>
+      <c r="B91" s="1">
+        <v>88</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2</v>
+      </c>
+      <c r="D91" s="1">
+        <v>2</v>
+      </c>
+      <c r="E91" s="1">
+        <v>600</v>
+      </c>
+      <c r="F91" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>10089</v>
+      </c>
+      <c r="B92" s="1">
+        <v>89</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1">
+        <v>200</v>
+      </c>
+      <c r="F92" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>10090</v>
+      </c>
+      <c r="B93" s="1">
+        <v>90</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2</v>
+      </c>
+      <c r="E93" s="1">
+        <v>600</v>
+      </c>
+      <c r="F93" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>10091</v>
+      </c>
+      <c r="B94" s="1">
+        <v>91</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <v>3</v>
+      </c>
+      <c r="E94" s="1">
+        <v>200</v>
+      </c>
+      <c r="F94" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>10092</v>
+      </c>
+      <c r="B95" s="1">
+        <v>92</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1">
+        <v>600</v>
+      </c>
+      <c r="F95" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>10093</v>
+      </c>
+      <c r="B96" s="1">
+        <v>93</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <v>2</v>
+      </c>
+      <c r="E96" s="1">
+        <v>600</v>
+      </c>
+      <c r="F96" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>10094</v>
+      </c>
+      <c r="B97" s="1">
+        <v>94</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1">
+        <v>200</v>
+      </c>
+      <c r="F97" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>10095</v>
+      </c>
+      <c r="B98" s="1">
+        <v>95</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <v>2</v>
+      </c>
+      <c r="E98" s="1">
+        <v>600</v>
+      </c>
+      <c r="F98" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>10096</v>
+      </c>
+      <c r="B99" s="1">
+        <v>96</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1">
+        <v>200</v>
+      </c>
+      <c r="F99" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>10097</v>
+      </c>
+      <c r="B100" s="1">
+        <v>97</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>2</v>
+      </c>
+      <c r="E100" s="1">
+        <v>600</v>
+      </c>
+      <c r="F100" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>10098</v>
+      </c>
+      <c r="B101" s="1">
+        <v>98</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2</v>
+      </c>
+      <c r="D101" s="1">
+        <v>3</v>
+      </c>
+      <c r="E101" s="1">
+        <v>200</v>
+      </c>
+      <c r="F101" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>10099</v>
+      </c>
+      <c r="B102" s="1">
+        <v>99</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1</v>
+      </c>
+      <c r="E102" s="1">
+        <v>600</v>
+      </c>
+      <c r="F102" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>10100</v>
+      </c>
+      <c r="B103" s="1">
+        <v>100</v>
+      </c>
+      <c r="C103" s="1">
+        <v>2</v>
+      </c>
+      <c r="D103" s="1">
+        <v>2</v>
+      </c>
+      <c r="E103" s="1">
+        <v>600</v>
+      </c>
+      <c r="F103" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>10101</v>
+      </c>
+      <c r="B104" s="1">
+        <v>101</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1">
+        <v>200</v>
+      </c>
+      <c r="F104" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>10102</v>
+      </c>
+      <c r="B105" s="1">
+        <v>102</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2</v>
+      </c>
+      <c r="D105" s="1">
+        <v>2</v>
+      </c>
+      <c r="E105" s="1">
+        <v>600</v>
+      </c>
+      <c r="F105" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>10103</v>
+      </c>
+      <c r="B106" s="1">
+        <v>103</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <v>1</v>
+      </c>
+      <c r="E106" s="1">
+        <v>200</v>
+      </c>
+      <c r="F106" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>10104</v>
+      </c>
+      <c r="B107" s="1">
+        <v>104</v>
+      </c>
+      <c r="C107" s="1">
+        <v>2</v>
+      </c>
+      <c r="D107" s="1">
+        <v>2</v>
+      </c>
+      <c r="E107" s="1">
+        <v>600</v>
+      </c>
+      <c r="F107" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>10105</v>
+      </c>
+      <c r="B108" s="1">
+        <v>105</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <v>3</v>
+      </c>
+      <c r="E108" s="1">
+        <v>200</v>
+      </c>
+      <c r="F108" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>10106</v>
+      </c>
+      <c r="B109" s="1">
+        <v>106</v>
+      </c>
+      <c r="C109" s="1">
+        <v>2</v>
+      </c>
+      <c r="D109" s="1">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1">
+        <v>600</v>
+      </c>
+      <c r="F109" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>10107</v>
+      </c>
+      <c r="B110" s="1">
+        <v>107</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1">
+        <v>2</v>
+      </c>
+      <c r="E110" s="1">
+        <v>200</v>
+      </c>
+      <c r="F110" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>10108</v>
+      </c>
+      <c r="B111" s="1">
+        <v>108</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2</v>
+      </c>
+      <c r="D111" s="1">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1">
+        <v>600</v>
+      </c>
+      <c r="F111" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>10109</v>
+      </c>
+      <c r="B112" s="1">
+        <v>109</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
+        <v>2</v>
+      </c>
+      <c r="E112" s="1">
+        <v>200</v>
+      </c>
+      <c r="F112" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>10110</v>
+      </c>
+      <c r="B113" s="1">
+        <v>110</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1</v>
+      </c>
+      <c r="E113" s="1">
+        <v>600</v>
+      </c>
+      <c r="F113" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>10111</v>
+      </c>
+      <c r="B114" s="1">
+        <v>111</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
+        <v>2</v>
+      </c>
+      <c r="E114" s="1">
+        <v>600</v>
+      </c>
+      <c r="F114" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>10112</v>
+      </c>
+      <c r="B115" s="1">
+        <v>112</v>
+      </c>
+      <c r="C115" s="1">
+        <v>2</v>
+      </c>
+      <c r="D115" s="1">
+        <v>3</v>
+      </c>
+      <c r="E115" s="1">
+        <v>200</v>
+      </c>
+      <c r="F115" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>10113</v>
+      </c>
+      <c r="B116" s="1">
+        <v>113</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1</v>
+      </c>
+      <c r="E116" s="1">
+        <v>600</v>
+      </c>
+      <c r="F116" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>10114</v>
+      </c>
+      <c r="B117" s="1">
+        <v>114</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2</v>
+      </c>
+      <c r="D117" s="1">
+        <v>2</v>
+      </c>
+      <c r="E117" s="1">
+        <v>200</v>
+      </c>
+      <c r="F117" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>10115</v>
+      </c>
+      <c r="B118" s="1">
+        <v>115</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1</v>
+      </c>
+      <c r="E118" s="1">
+        <v>600</v>
+      </c>
+      <c r="F118" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>10116</v>
+      </c>
+      <c r="B119" s="1">
+        <v>116</v>
+      </c>
+      <c r="C119" s="1">
+        <v>2</v>
+      </c>
+      <c r="D119" s="1">
+        <v>2</v>
+      </c>
+      <c r="E119" s="1">
+        <v>200</v>
+      </c>
+      <c r="F119" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>10117</v>
+      </c>
+      <c r="B120" s="1">
+        <v>117</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1</v>
+      </c>
+      <c r="E120" s="1">
+        <v>600</v>
+      </c>
+      <c r="F120" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>10118</v>
+      </c>
+      <c r="B121" s="1">
+        <v>118</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2</v>
+      </c>
+      <c r="D121" s="1">
+        <v>2</v>
+      </c>
+      <c r="E121" s="1">
+        <v>600</v>
+      </c>
+      <c r="F121" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>10119</v>
+      </c>
+      <c r="B122" s="1">
+        <v>119</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
+        <v>3</v>
+      </c>
+      <c r="E122" s="1">
+        <v>200</v>
+      </c>
+      <c r="F122" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>10120</v>
+      </c>
+      <c r="B123" s="1">
+        <v>120</v>
+      </c>
+      <c r="C123" s="1">
+        <v>2</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1</v>
+      </c>
+      <c r="E123" s="1">
+        <v>600</v>
+      </c>
+      <c r="F123" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>10121</v>
+      </c>
+      <c r="B124" s="1">
+        <v>121</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
+        <v>2</v>
+      </c>
+      <c r="E124" s="1">
+        <v>200</v>
+      </c>
+      <c r="F124" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>10122</v>
+      </c>
+      <c r="B125" s="1">
+        <v>122</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1">
+        <v>600</v>
+      </c>
+      <c r="F125" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>10123</v>
+      </c>
+      <c r="B126" s="1">
+        <v>123</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1">
+        <v>2</v>
+      </c>
+      <c r="E126" s="1">
+        <v>200</v>
+      </c>
+      <c r="F126" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>10124</v>
+      </c>
+      <c r="B127" s="1">
+        <v>124</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1</v>
+      </c>
+      <c r="E127" s="1">
+        <v>600</v>
+      </c>
+      <c r="F127" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>10125</v>
+      </c>
+      <c r="B128" s="1">
+        <v>125</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <v>2</v>
+      </c>
+      <c r="E128" s="1">
+        <v>200</v>
+      </c>
+      <c r="F128" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>10126</v>
+      </c>
+      <c r="B129" s="1">
+        <v>126</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2</v>
+      </c>
+      <c r="D129" s="1">
+        <v>3</v>
+      </c>
+      <c r="E129" s="1">
+        <v>600</v>
+      </c>
+      <c r="F129" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>10127</v>
+      </c>
+      <c r="B130" s="1">
+        <v>127</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
+        <v>1</v>
+      </c>
+      <c r="E130" s="1">
+        <v>200</v>
+      </c>
+      <c r="F130" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>10128</v>
+      </c>
+      <c r="B131" s="1">
+        <v>128</v>
+      </c>
+      <c r="C131" s="1">
+        <v>2</v>
+      </c>
+      <c r="D131" s="1">
+        <v>2</v>
+      </c>
+      <c r="E131" s="1">
+        <v>600</v>
+      </c>
+      <c r="F131" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>10129</v>
+      </c>
+      <c r="B132" s="1">
+        <v>129</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1</v>
+      </c>
+      <c r="E132" s="1">
+        <v>600</v>
+      </c>
+      <c r="F132" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>10130</v>
+      </c>
+      <c r="B133" s="1">
+        <v>130</v>
+      </c>
+      <c r="C133" s="1">
+        <v>2</v>
+      </c>
+      <c r="D133" s="1">
+        <v>2</v>
+      </c>
+      <c r="E133" s="1">
+        <v>200</v>
+      </c>
+      <c r="F133" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="5:5">
+      <c r="E145" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5241,10 +8007,10 @@
       <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5267,7 +8033,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.5" thickBot="1">
+    <row r="2" spans="1:6" ht="17.25" thickBot="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5307,7 +8073,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.5" thickBot="1">
+    <row r="4" spans="1:6" ht="17.25" thickBot="1">
       <c r="A4" s="16">
         <v>7001</v>
       </c>
@@ -5327,7 +8093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.5" thickBot="1">
+    <row r="5" spans="1:6" ht="17.25" thickBot="1">
       <c r="A5" s="16">
         <v>7002</v>
       </c>
@@ -5347,7 +8113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.5" thickBot="1">
+    <row r="6" spans="1:6" ht="17.25" thickBot="1">
       <c r="A6" s="16">
         <v>7003</v>
       </c>
@@ -5367,7 +8133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.5" thickBot="1">
+    <row r="7" spans="1:6" ht="17.25" thickBot="1">
       <c r="A7" s="16">
         <v>7004</v>
       </c>
@@ -5387,7 +8153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.5" thickBot="1">
+    <row r="8" spans="1:6" ht="17.25" thickBot="1">
       <c r="A8" s="16">
         <v>7005</v>
       </c>
@@ -5407,7 +8173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.5" thickBot="1">
+    <row r="9" spans="1:6" ht="17.25" thickBot="1">
       <c r="A9" s="16">
         <v>7006</v>
       </c>
@@ -5427,7 +8193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.5" thickBot="1">
+    <row r="10" spans="1:6" ht="17.25" thickBot="1">
       <c r="A10" s="16">
         <v>7007</v>
       </c>
@@ -5447,7 +8213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.5" thickBot="1">
+    <row r="11" spans="1:6" ht="17.25" thickBot="1">
       <c r="A11" s="16">
         <v>7008</v>
       </c>
@@ -5467,7 +8233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.5" thickBot="1">
+    <row r="12" spans="1:6" ht="17.25" thickBot="1">
       <c r="A12" s="16">
         <v>7009</v>
       </c>
@@ -5487,7 +8253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.5" thickBot="1">
+    <row r="13" spans="1:6" ht="17.25" thickBot="1">
       <c r="A13" s="16">
         <v>7010</v>
       </c>
@@ -5507,7 +8273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.5" thickBot="1">
+    <row r="14" spans="1:6" ht="17.25" thickBot="1">
       <c r="A14" s="16">
         <v>7011</v>
       </c>
@@ -5527,7 +8293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.5" thickBot="1">
+    <row r="15" spans="1:6" ht="17.25" thickBot="1">
       <c r="A15" s="16">
         <v>7012</v>
       </c>
@@ -5547,7 +8313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.5" thickBot="1">
+    <row r="16" spans="1:6" ht="17.25" thickBot="1">
       <c r="A16" s="16">
         <v>7013</v>
       </c>
@@ -5567,7 +8333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.5" thickBot="1">
+    <row r="17" spans="1:6" ht="17.25" thickBot="1">
       <c r="A17" s="16">
         <v>7014</v>
       </c>
@@ -5587,7 +8353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.5" thickBot="1">
+    <row r="18" spans="1:6" ht="17.25" thickBot="1">
       <c r="A18" s="16">
         <v>7015</v>
       </c>
@@ -5607,7 +8373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.5" thickBot="1">
+    <row r="19" spans="1:6" ht="17.25" thickBot="1">
       <c r="A19" s="16">
         <v>7016</v>
       </c>
@@ -5627,7 +8393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.5" thickBot="1">
+    <row r="20" spans="1:6" ht="17.25" thickBot="1">
       <c r="A20" s="16">
         <v>7017</v>
       </c>
@@ -5647,7 +8413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.5" thickBot="1">
+    <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="16">
         <v>7018</v>
       </c>
@@ -5667,7 +8433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.5" thickBot="1">
+    <row r="22" spans="1:6" ht="17.25" thickBot="1">
       <c r="A22" s="16">
         <v>7019</v>
       </c>
@@ -5687,7 +8453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.5" thickBot="1">
+    <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="16">
         <v>7020</v>
       </c>
@@ -5707,7 +8473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.5" thickBot="1">
+    <row r="24" spans="1:6" ht="17.25" thickBot="1">
       <c r="A24" s="16">
         <v>7021</v>
       </c>
@@ -5727,7 +8493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.5" thickBot="1">
+    <row r="25" spans="1:6" ht="17.25" thickBot="1">
       <c r="A25" s="16">
         <v>7022</v>
       </c>
@@ -5747,7 +8513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.5" thickBot="1">
+    <row r="26" spans="1:6" ht="17.25" thickBot="1">
       <c r="A26" s="16">
         <v>7023</v>
       </c>
@@ -5767,7 +8533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.5" thickBot="1">
+    <row r="27" spans="1:6" ht="17.25" thickBot="1">
       <c r="A27" s="16">
         <v>7024</v>
       </c>
@@ -5787,7 +8553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.5" thickBot="1">
+    <row r="28" spans="1:6" ht="17.25" thickBot="1">
       <c r="A28" s="16">
         <v>7025</v>
       </c>
@@ -5807,7 +8573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.5" thickBot="1">
+    <row r="29" spans="1:6" ht="17.25" thickBot="1">
       <c r="A29" s="16">
         <v>7026</v>
       </c>
@@ -5827,7 +8593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.5" thickBot="1">
+    <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="16">
         <v>7027</v>
       </c>
@@ -5847,7 +8613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.5" thickBot="1">
+    <row r="31" spans="1:6" ht="17.25" thickBot="1">
       <c r="A31" s="16">
         <v>7028</v>
       </c>
@@ -5867,7 +8633,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.5" thickBot="1">
+    <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="16">
         <v>7029</v>
       </c>
@@ -5887,7 +8653,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17.5" thickBot="1">
+    <row r="33" spans="1:6" ht="17.25" thickBot="1">
       <c r="A33" s="16">
         <v>7030</v>
       </c>
@@ -5907,7 +8673,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17.5" thickBot="1">
+    <row r="34" spans="1:6" ht="17.25" thickBot="1">
       <c r="A34" s="16">
         <v>7031</v>
       </c>
@@ -5927,7 +8693,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.5" thickBot="1">
+    <row r="35" spans="1:6" ht="17.25" thickBot="1">
       <c r="A35" s="16">
         <v>7032</v>
       </c>
@@ -5947,7 +8713,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17.5" thickBot="1">
+    <row r="36" spans="1:6" ht="17.25" thickBot="1">
       <c r="A36" s="16">
         <v>7033</v>
       </c>
@@ -5967,7 +8733,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17.5" thickBot="1">
+    <row r="37" spans="1:6" ht="17.25" thickBot="1">
       <c r="A37" s="16">
         <v>7034</v>
       </c>
@@ -5987,7 +8753,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.5" thickBot="1">
+    <row r="38" spans="1:6" ht="17.25" thickBot="1">
       <c r="A38" s="16">
         <v>7035</v>
       </c>
@@ -6007,7 +8773,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17.5" thickBot="1">
+    <row r="39" spans="1:6" ht="17.25" thickBot="1">
       <c r="A39" s="16">
         <v>7036</v>
       </c>
@@ -6027,7 +8793,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.5" thickBot="1">
+    <row r="40" spans="1:6" ht="17.25" thickBot="1">
       <c r="A40" s="16">
         <v>7037</v>
       </c>
@@ -6047,7 +8813,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17.5" thickBot="1">
+    <row r="41" spans="1:6" ht="17.25" thickBot="1">
       <c r="A41" s="16">
         <v>7038</v>
       </c>
@@ -6067,7 +8833,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17.5" thickBot="1">
+    <row r="42" spans="1:6" ht="17.25" thickBot="1">
       <c r="A42" s="16">
         <v>7039</v>
       </c>
@@ -6087,7 +8853,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.5" thickBot="1">
+    <row r="43" spans="1:6" ht="17.25" thickBot="1">
       <c r="A43" s="16">
         <v>7040</v>
       </c>
@@ -6107,7 +8873,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.5" thickBot="1">
+    <row r="44" spans="1:6" ht="17.25" thickBot="1">
       <c r="A44" s="16">
         <v>7041</v>
       </c>
@@ -6127,7 +8893,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.5" thickBot="1">
+    <row r="45" spans="1:6" ht="17.25" thickBot="1">
       <c r="A45" s="16">
         <v>7042</v>
       </c>
@@ -6147,7 +8913,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17.5" thickBot="1">
+    <row r="46" spans="1:6" ht="17.25" thickBot="1">
       <c r="A46" s="16">
         <v>7043</v>
       </c>
@@ -6167,7 +8933,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="17.5" thickBot="1">
+    <row r="47" spans="1:6" ht="17.25" thickBot="1">
       <c r="A47" s="16">
         <v>7044</v>
       </c>
@@ -6187,7 +8953,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17.5" thickBot="1">
+    <row r="48" spans="1:6" ht="17.25" thickBot="1">
       <c r="A48" s="16">
         <v>7045</v>
       </c>
@@ -6207,7 +8973,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="17.5" thickBot="1">
+    <row r="49" spans="1:6" ht="17.25" thickBot="1">
       <c r="A49" s="16">
         <v>7046</v>
       </c>
@@ -6227,7 +8993,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="17.5" thickBot="1">
+    <row r="50" spans="1:6" ht="17.25" thickBot="1">
       <c r="A50" s="16">
         <v>7047</v>
       </c>
@@ -6247,7 +9013,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17.5" thickBot="1">
+    <row r="51" spans="1:6" ht="17.25" thickBot="1">
       <c r="A51" s="16">
         <v>7048</v>
       </c>
@@ -6267,7 +9033,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17.5" thickBot="1">
+    <row r="52" spans="1:6" ht="17.25" thickBot="1">
       <c r="A52" s="16">
         <v>7049</v>
       </c>
@@ -6287,7 +9053,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="17.5" thickBot="1">
+    <row r="53" spans="1:6" ht="17.25" thickBot="1">
       <c r="A53" s="16">
         <v>7050</v>
       </c>
@@ -6307,7 +9073,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="17.5" thickBot="1">
+    <row r="54" spans="1:6" ht="17.25" thickBot="1">
       <c r="A54" s="14">
         <v>7051</v>
       </c>
@@ -6327,7 +9093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="17.5" thickBot="1">
+    <row r="55" spans="1:6" ht="17.25" thickBot="1">
       <c r="A55" s="16">
         <v>7052</v>
       </c>
@@ -6347,7 +9113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="17.5" thickBot="1">
+    <row r="56" spans="1:6" ht="17.25" thickBot="1">
       <c r="A56" s="16">
         <v>7053</v>
       </c>
@@ -6367,7 +9133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="17.5" thickBot="1">
+    <row r="57" spans="1:6" ht="17.25" thickBot="1">
       <c r="A57" s="16">
         <v>7054</v>
       </c>
@@ -6387,7 +9153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="17.5" thickBot="1">
+    <row r="58" spans="1:6" ht="17.25" thickBot="1">
       <c r="A58" s="16">
         <v>7055</v>
       </c>
@@ -6407,7 +9173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="17.5" thickBot="1">
+    <row r="59" spans="1:6" ht="17.25" thickBot="1">
       <c r="A59" s="16">
         <v>7056</v>
       </c>
@@ -6427,7 +9193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17.5" thickBot="1">
+    <row r="60" spans="1:6" ht="17.25" thickBot="1">
       <c r="A60" s="16">
         <v>7057</v>
       </c>
@@ -6447,7 +9213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="17.5" thickBot="1">
+    <row r="61" spans="1:6" ht="17.25" thickBot="1">
       <c r="A61" s="16">
         <v>7058</v>
       </c>
@@ -6467,7 +9233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="17.5" thickBot="1">
+    <row r="62" spans="1:6" ht="17.25" thickBot="1">
       <c r="A62" s="16">
         <v>7059</v>
       </c>
@@ -6487,7 +9253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="17.5" thickBot="1">
+    <row r="63" spans="1:6" ht="17.25" thickBot="1">
       <c r="A63" s="16">
         <v>7060</v>
       </c>
@@ -6507,7 +9273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="17.5" thickBot="1">
+    <row r="64" spans="1:6" ht="17.25" thickBot="1">
       <c r="A64" s="16">
         <v>7061</v>
       </c>
@@ -6527,7 +9293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="17.5" thickBot="1">
+    <row r="65" spans="1:6" ht="17.25" thickBot="1">
       <c r="A65" s="16">
         <v>7062</v>
       </c>
@@ -6547,7 +9313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="17.5" thickBot="1">
+    <row r="66" spans="1:6" ht="17.25" thickBot="1">
       <c r="A66" s="16">
         <v>7063</v>
       </c>
@@ -6567,7 +9333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="17.5" thickBot="1">
+    <row r="67" spans="1:6" ht="17.25" thickBot="1">
       <c r="A67" s="16">
         <v>7064</v>
       </c>
@@ -6587,7 +9353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="17.5" thickBot="1">
+    <row r="68" spans="1:6" ht="17.25" thickBot="1">
       <c r="A68" s="16">
         <v>7065</v>
       </c>
@@ -6607,7 +9373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="17.5" thickBot="1">
+    <row r="69" spans="1:6" ht="17.25" thickBot="1">
       <c r="A69" s="16">
         <v>7066</v>
       </c>
@@ -6627,7 +9393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="17.5" thickBot="1">
+    <row r="70" spans="1:6" ht="17.25" thickBot="1">
       <c r="A70" s="16">
         <v>7067</v>
       </c>
@@ -6647,7 +9413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="17.5" thickBot="1">
+    <row r="71" spans="1:6" ht="17.25" thickBot="1">
       <c r="A71" s="16">
         <v>7068</v>
       </c>
@@ -6667,7 +9433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="17.5" thickBot="1">
+    <row r="72" spans="1:6" ht="17.25" thickBot="1">
       <c r="A72" s="16">
         <v>7069</v>
       </c>
@@ -6687,7 +9453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="17.5" thickBot="1">
+    <row r="73" spans="1:6" ht="17.25" thickBot="1">
       <c r="A73" s="16">
         <v>7070</v>
       </c>
@@ -6707,7 +9473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="17.5" thickBot="1">
+    <row r="74" spans="1:6" ht="17.25" thickBot="1">
       <c r="A74" s="16">
         <v>7071</v>
       </c>
@@ -6727,7 +9493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="17.5" thickBot="1">
+    <row r="75" spans="1:6" ht="17.25" thickBot="1">
       <c r="A75" s="16">
         <v>7072</v>
       </c>
@@ -6747,7 +9513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="17.5" thickBot="1">
+    <row r="76" spans="1:6" ht="17.25" thickBot="1">
       <c r="A76" s="16">
         <v>7073</v>
       </c>
@@ -6767,7 +9533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="17.5" thickBot="1">
+    <row r="77" spans="1:6" ht="17.25" thickBot="1">
       <c r="A77" s="16">
         <v>7074</v>
       </c>
@@ -6787,7 +9553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="17.5" thickBot="1">
+    <row r="78" spans="1:6" ht="17.25" thickBot="1">
       <c r="A78" s="16">
         <v>7075</v>
       </c>
@@ -6807,7 +9573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="17.5" thickBot="1">
+    <row r="79" spans="1:6" ht="17.25" thickBot="1">
       <c r="A79" s="16">
         <v>7076</v>
       </c>
@@ -6827,7 +9593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="17.5" thickBot="1">
+    <row r="80" spans="1:6" ht="17.25" thickBot="1">
       <c r="A80" s="16">
         <v>7077</v>
       </c>
@@ -6847,7 +9613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="17.5" thickBot="1">
+    <row r="81" spans="1:6" ht="17.25" thickBot="1">
       <c r="A81" s="16">
         <v>7078</v>
       </c>
@@ -6867,7 +9633,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="17.5" thickBot="1">
+    <row r="82" spans="1:6" ht="17.25" thickBot="1">
       <c r="A82" s="16">
         <v>7079</v>
       </c>
@@ -6887,7 +9653,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="17.5" thickBot="1">
+    <row r="83" spans="1:6" ht="17.25" thickBot="1">
       <c r="A83" s="16">
         <v>7080</v>
       </c>
@@ -6907,7 +9673,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="17.5" thickBot="1">
+    <row r="84" spans="1:6" ht="17.25" thickBot="1">
       <c r="A84" s="16">
         <v>7081</v>
       </c>
@@ -6927,7 +9693,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="17.5" thickBot="1">
+    <row r="85" spans="1:6" ht="17.25" thickBot="1">
       <c r="A85" s="16">
         <v>7082</v>
       </c>
@@ -6947,7 +9713,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17.5" thickBot="1">
+    <row r="86" spans="1:6" ht="17.25" thickBot="1">
       <c r="A86" s="16">
         <v>7083</v>
       </c>
@@ -6967,7 +9733,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="17.5" thickBot="1">
+    <row r="87" spans="1:6" ht="17.25" thickBot="1">
       <c r="A87" s="16">
         <v>7084</v>
       </c>
@@ -6987,7 +9753,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="17.5" thickBot="1">
+    <row r="88" spans="1:6" ht="17.25" thickBot="1">
       <c r="A88" s="16">
         <v>7085</v>
       </c>
@@ -7007,7 +9773,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="17.5" thickBot="1">
+    <row r="89" spans="1:6" ht="17.25" thickBot="1">
       <c r="A89" s="16">
         <v>7086</v>
       </c>
@@ -7027,7 +9793,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="17.5" thickBot="1">
+    <row r="90" spans="1:6" ht="17.25" thickBot="1">
       <c r="A90" s="16">
         <v>7087</v>
       </c>
@@ -7047,7 +9813,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="17.5" thickBot="1">
+    <row r="91" spans="1:6" ht="17.25" thickBot="1">
       <c r="A91" s="16">
         <v>7088</v>
       </c>
@@ -7067,7 +9833,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="17.5" thickBot="1">
+    <row r="92" spans="1:6" ht="17.25" thickBot="1">
       <c r="A92" s="16">
         <v>7089</v>
       </c>
@@ -7087,7 +9853,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="17.5" thickBot="1">
+    <row r="93" spans="1:6" ht="17.25" thickBot="1">
       <c r="A93" s="16">
         <v>7090</v>
       </c>
@@ -7107,7 +9873,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="17.5" thickBot="1">
+    <row r="94" spans="1:6" ht="17.25" thickBot="1">
       <c r="A94" s="16">
         <v>7091</v>
       </c>
@@ -7127,7 +9893,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="17.5" thickBot="1">
+    <row r="95" spans="1:6" ht="17.25" thickBot="1">
       <c r="A95" s="16">
         <v>7092</v>
       </c>
@@ -7147,7 +9913,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="17.5" thickBot="1">
+    <row r="96" spans="1:6" ht="17.25" thickBot="1">
       <c r="A96" s="16">
         <v>7093</v>
       </c>
@@ -7167,7 +9933,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="17.5" thickBot="1">
+    <row r="97" spans="1:6" ht="17.25" thickBot="1">
       <c r="A97" s="16">
         <v>7094</v>
       </c>
@@ -7187,7 +9953,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="17.5" thickBot="1">
+    <row r="98" spans="1:6" ht="17.25" thickBot="1">
       <c r="A98" s="16">
         <v>7095</v>
       </c>
@@ -7207,7 +9973,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="17.5" thickBot="1">
+    <row r="99" spans="1:6" ht="17.25" thickBot="1">
       <c r="A99" s="16">
         <v>7096</v>
       </c>
@@ -7227,7 +9993,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="17.5" thickBot="1">
+    <row r="100" spans="1:6" ht="17.25" thickBot="1">
       <c r="A100" s="16">
         <v>7097</v>
       </c>
@@ -7247,7 +10013,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="17.5" thickBot="1">
+    <row r="101" spans="1:6" ht="17.25" thickBot="1">
       <c r="A101" s="16">
         <v>7098</v>
       </c>
@@ -7267,7 +10033,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="17.5" thickBot="1">
+    <row r="102" spans="1:6" ht="17.25" thickBot="1">
       <c r="A102" s="16">
         <v>7099</v>
       </c>
@@ -7287,7 +10053,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="17.5" thickBot="1">
+    <row r="103" spans="1:6" ht="17.25" thickBot="1">
       <c r="A103" s="16">
         <v>7100</v>
       </c>
@@ -7322,10 +10088,10 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="104.83203125" customWidth="1"/>
-    <col min="3" max="3" width="7.08203125" customWidth="1"/>
+    <col min="2" max="2" width="104.875" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7372,7 +10138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="51">
+    <row r="5" spans="1:3" ht="49.5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7383,7 +10149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="85">
+    <row r="6" spans="1:3" ht="82.5">
       <c r="A6">
         <v>2</v>
       </c>
@@ -7394,7 +10160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="85">
+    <row r="7" spans="1:3" ht="82.5">
       <c r="A7">
         <v>3</v>
       </c>
@@ -7405,7 +10171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51">
+    <row r="8" spans="1:3" ht="49.5">
       <c r="A8">
         <v>4</v>
       </c>
@@ -7416,7 +10182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="85">
+    <row r="9" spans="1:3" ht="82.5">
       <c r="A9">
         <v>5</v>
       </c>
@@ -7427,7 +10193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="68">
+    <row r="10" spans="1:3" ht="66">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7438,7 +10204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="51">
+    <row r="11" spans="1:3" ht="49.5">
       <c r="A11">
         <v>7</v>
       </c>
@@ -7449,7 +10215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="68">
+    <row r="12" spans="1:3" ht="66">
       <c r="A12">
         <v>8</v>
       </c>
@@ -7460,7 +10226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34">
+    <row r="13" spans="1:3" ht="33">
       <c r="A13">
         <v>9</v>
       </c>
@@ -7471,7 +10237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="119">
+    <row r="14" spans="1:3" ht="115.5">
       <c r="A14">
         <v>10</v>
       </c>
@@ -7482,7 +10248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="85">
+    <row r="15" spans="1:3" ht="82.5">
       <c r="A15">
         <v>11</v>
       </c>
@@ -7519,14 +10285,14 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" customWidth="1"/>
-    <col min="3" max="3" width="22.58203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7575,7 +10341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.5" thickBot="1">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -7598,7 +10364,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.5" thickBot="1">
+    <row r="4" spans="1:7" ht="17.25" thickBot="1">
       <c r="A4" s="14">
         <v>401</v>
       </c>
@@ -7621,7 +10387,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.5" thickBot="1">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1">
       <c r="A5" s="16">
         <v>402</v>
       </c>
@@ -7644,7 +10410,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.5" thickBot="1">
+    <row r="6" spans="1:7" ht="17.25" thickBot="1">
       <c r="A6" s="16">
         <v>403</v>
       </c>
@@ -7667,7 +10433,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.5" thickBot="1">
+    <row r="7" spans="1:7" ht="17.25" thickBot="1">
       <c r="A7" s="16">
         <v>404</v>
       </c>
@@ -7690,7 +10456,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.5" thickBot="1">
+    <row r="8" spans="1:7" ht="17.25" thickBot="1">
       <c r="A8" s="16">
         <v>405</v>
       </c>
@@ -7713,7 +10479,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.5" thickBot="1">
+    <row r="9" spans="1:7" ht="17.25" thickBot="1">
       <c r="A9" s="16">
         <v>406</v>
       </c>
@@ -7736,7 +10502,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.5" thickBot="1">
+    <row r="10" spans="1:7" ht="17.25" thickBot="1">
       <c r="A10" s="16">
         <v>407</v>
       </c>
@@ -7759,7 +10525,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.5" thickBot="1">
+    <row r="11" spans="1:7" ht="17.25" thickBot="1">
       <c r="A11" s="16">
         <v>408</v>
       </c>
@@ -7782,7 +10548,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.5" thickBot="1">
+    <row r="12" spans="1:7" ht="17.25" thickBot="1">
       <c r="A12" s="16">
         <v>409</v>
       </c>
@@ -7805,7 +10571,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.5" thickBot="1">
+    <row r="13" spans="1:7" ht="17.25" thickBot="1">
       <c r="A13" s="16">
         <v>410</v>
       </c>
@@ -7843,13 +10609,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.58203125" customWidth="1"/>
-    <col min="6" max="6" width="13.58203125" customWidth="1"/>
-    <col min="7" max="7" width="19.08203125" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7898,7 +10664,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.5" thickBot="1">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -7921,7 +10687,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.5" thickBot="1">
+    <row r="4" spans="1:7" ht="17.25" thickBot="1">
       <c r="A4" s="14">
         <v>501</v>
       </c>
@@ -7944,7 +10710,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.5" thickBot="1">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1">
       <c r="A5" s="16">
         <v>502</v>
       </c>
@@ -7967,7 +10733,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.5" thickBot="1">
+    <row r="6" spans="1:7" ht="17.25" thickBot="1">
       <c r="A6" s="16">
         <v>503</v>
       </c>
@@ -7990,7 +10756,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.5" thickBot="1">
+    <row r="7" spans="1:7" ht="17.25" thickBot="1">
       <c r="A7" s="16">
         <v>504</v>
       </c>
@@ -8013,7 +10779,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.5" thickBot="1">
+    <row r="8" spans="1:7" ht="17.25" thickBot="1">
       <c r="A8" s="16">
         <v>505</v>
       </c>
@@ -8051,21 +10817,21 @@
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" customWidth="1"/>
-    <col min="2" max="2" width="31.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -8209,7 +10975,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="51">
+    <row r="4" spans="1:15" ht="49.5">
       <c r="A4">
         <v>3001</v>
       </c>
@@ -8256,7 +11022,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="51">
+    <row r="5" spans="1:15" ht="49.5">
       <c r="A5">
         <v>3002</v>
       </c>
@@ -8303,7 +11069,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="68">
+    <row r="6" spans="1:15" ht="66">
       <c r="A6">
         <v>3003</v>
       </c>
@@ -8350,7 +11116,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="51">
+    <row r="7" spans="1:15" ht="49.5">
       <c r="A7">
         <v>3004</v>
       </c>
@@ -8397,7 +11163,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="51">
+    <row r="8" spans="1:15" ht="49.5">
       <c r="A8">
         <v>3005</v>
       </c>
@@ -8444,7 +11210,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="51">
+    <row r="9" spans="1:15" ht="49.5">
       <c r="A9">
         <v>3006</v>
       </c>
@@ -8491,7 +11257,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="51">
+    <row r="10" spans="1:15" ht="49.5">
       <c r="A10">
         <v>3007</v>
       </c>
@@ -8538,7 +11304,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="51">
+    <row r="11" spans="1:15" ht="49.5">
       <c r="A11">
         <v>3008</v>
       </c>
@@ -8600,15 +11366,15 @@
       <selection sqref="A1:M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -9610,7 +12376,7 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="37" style="1" customWidth="1"/>
@@ -10260,7 +13026,7 @@
       <selection activeCell="E1" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889AB647-51D0-4CD2-9E7A-43581CAB11FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3594E3-9F76-4008-BC71-B2F8BB8CACD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -1363,10 +1363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LevelType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GoldenType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1375,11 +1371,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LevelValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GoldenValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4160,8 +4160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D50587-6B81-48DF-A8DB-00F001E27D99}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5272,8 +5272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1FF4F24-FB0E-440A-9C75-674911EB633F}">
   <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5292,16 +5292,16 @@
         <v>352</v>
       </c>
       <c r="C1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1" t="s">
         <v>356</v>
       </c>
-      <c r="D1" t="s">
-        <v>357</v>
-      </c>
       <c r="E1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5338,10 +5338,10 @@
         <v>353</v>
       </c>
       <c r="E3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:6">

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Portfolio\Oilnam\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7C000D-2D5A-4CD1-A400-81461651C59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FF0142-FE86-41CB-842D-EF6BFBE85247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="2280" windowWidth="19200" windowHeight="11170" firstSheet="1" activeTab="9" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="5430" yWindow="1150" windowWidth="19200" windowHeight="11170" firstSheet="1" activeTab="9" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="359">
   <si>
     <t>Name</t>
   </si>
@@ -1094,9 +1094,6 @@
     <t>Availiable_Count</t>
   </si>
   <si>
-    <t>Availiable_Time</t>
-  </si>
-  <si>
     <t>골드</t>
   </si>
   <si>
@@ -1142,9 +1139,6 @@
     <t>켠왕 패키지</t>
   </si>
   <si>
-    <t>켠왕 도전! 삼각 김밥보다 싸다!</t>
-  </si>
-  <si>
     <t>골든 패스</t>
   </si>
   <si>
@@ -1358,6 +1352,26 @@
   </si>
   <si>
     <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠 1개를 구매합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Availiable_Time 상품 재구매시 필요 기간 (단위 : day)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집권 300장\n골드 500개를 구매합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1365,7 +1379,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1421,6 +1435,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1448,7 +1469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1531,6 +1552,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1538,7 +1570,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1627,6 +1659,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4142,17 +4180,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D50587-6B81-48DF-A8DB-00F001E27D99}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="9.1640625" customWidth="1"/>
     <col min="2" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" customWidth="1"/>
+    <col min="4" max="4" width="35.9140625" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
@@ -4172,16 +4210,16 @@
         <v>261</v>
       </c>
       <c r="B1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D1" t="s">
         <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F1" t="s">
         <v>262</v>
@@ -4202,10 +4240,10 @@
         <v>267</v>
       </c>
       <c r="L1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="M1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N1" t="s">
         <v>268</v>
@@ -4217,7 +4255,7 @@
         <v>270</v>
       </c>
       <c r="Q1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="R1" t="s">
         <v>271</v>
@@ -4290,16 +4328,16 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" t="s">
         <v>318</v>
-      </c>
-      <c r="C3" t="s">
-        <v>320</v>
       </c>
       <c r="D3" t="s">
         <v>133</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F3" t="s">
         <v>272</v>
@@ -4320,10 +4358,10 @@
         <v>277</v>
       </c>
       <c r="L3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N3" t="s">
         <v>278</v>
@@ -4335,13 +4373,13 @@
         <v>280</v>
       </c>
       <c r="Q3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="R3" t="s">
-        <v>281</v>
+        <v>356</v>
       </c>
       <c r="S3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="17.5" thickBot="1">
@@ -4349,13 +4387,13 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" t="s">
         <v>282</v>
-      </c>
-      <c r="C4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D4" t="s">
-        <v>283</v>
       </c>
       <c r="E4" s="29">
         <v>-1</v>
@@ -4400,7 +4438,7 @@
         <v>-1</v>
       </c>
       <c r="S4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="17.5" thickBot="1">
@@ -4408,13 +4446,13 @@
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E5" s="29">
         <v>-1</v>
@@ -4459,7 +4497,7 @@
         <v>-1</v>
       </c>
       <c r="S5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="17.5" thickBot="1">
@@ -4467,13 +4505,13 @@
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E6" s="29">
         <v>-1</v>
@@ -4518,7 +4556,7 @@
         <v>-1</v>
       </c>
       <c r="S6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="17.5" thickBot="1">
@@ -4526,13 +4564,13 @@
         <v>1004</v>
       </c>
       <c r="B7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" t="s">
         <v>286</v>
-      </c>
-      <c r="C7" t="s">
-        <v>324</v>
-      </c>
-      <c r="D7" t="s">
-        <v>287</v>
       </c>
       <c r="E7" s="29">
         <v>-1</v>
@@ -4577,7 +4615,7 @@
         <v>-1</v>
       </c>
       <c r="S7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="17.5" thickBot="1">
@@ -4585,16 +4623,16 @@
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F8">
         <v>1502</v>
@@ -4636,7 +4674,7 @@
         <v>-1</v>
       </c>
       <c r="S8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="17.5" thickBot="1">
@@ -4644,16 +4682,16 @@
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F9">
         <v>1502</v>
@@ -4695,7 +4733,7 @@
         <v>-1</v>
       </c>
       <c r="S9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="17.5" thickBot="1">
@@ -4703,13 +4741,13 @@
         <v>1007</v>
       </c>
       <c r="B10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" t="s">
         <v>290</v>
-      </c>
-      <c r="C10" t="s">
-        <v>327</v>
-      </c>
-      <c r="D10" t="s">
-        <v>291</v>
       </c>
       <c r="E10" s="29">
         <v>-1</v>
@@ -4754,7 +4792,7 @@
         <v>-1</v>
       </c>
       <c r="S10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="17.5" thickBot="1">
@@ -4762,13 +4800,13 @@
         <v>1008</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E11" s="29">
         <v>-1</v>
@@ -4813,7 +4851,7 @@
         <v>-1</v>
       </c>
       <c r="S11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="17.5" thickBot="1">
@@ -4821,13 +4859,13 @@
         <v>1009</v>
       </c>
       <c r="B12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E12" s="29">
         <v>-1</v>
@@ -4872,7 +4910,7 @@
         <v>-1</v>
       </c>
       <c r="S12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="17.5" thickBot="1">
@@ -4880,13 +4918,13 @@
         <v>1010</v>
       </c>
       <c r="B13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D13" t="s">
         <v>294</v>
-      </c>
-      <c r="C13" t="s">
-        <v>330</v>
-      </c>
-      <c r="D13" t="s">
-        <v>295</v>
       </c>
       <c r="E13" s="29">
         <v>-1</v>
@@ -4931,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="S13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="17.5" thickBot="1">
@@ -4939,58 +4977,58 @@
         <v>1011</v>
       </c>
       <c r="B14" t="s">
-        <v>298</v>
+        <v>354</v>
       </c>
       <c r="C14" t="s">
-        <v>332</v>
-      </c>
-      <c r="D14" t="s">
-        <v>299</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>352</v>
+        <v>354</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="E14" s="31">
+        <v>-1</v>
       </c>
       <c r="F14">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="G14">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>1502</v>
+        <v>-1</v>
       </c>
       <c r="I14">
-        <v>200</v>
+        <v>-1</v>
       </c>
       <c r="J14">
-        <v>1504</v>
+        <v>-1</v>
       </c>
       <c r="K14">
-        <v>30</v>
+        <v>-1</v>
       </c>
       <c r="L14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>-1</v>
-      </c>
-      <c r="O14" s="27">
-        <v>4900</v>
+        <v>1501</v>
+      </c>
+      <c r="O14">
+        <v>100</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
       <c r="Q14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <v>-1</v>
       </c>
       <c r="S14" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="17.5" thickBot="1">
@@ -5001,31 +5039,31 @@
         <v>296</v>
       </c>
       <c r="C15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D15" t="s">
         <v>297</v>
       </c>
-      <c r="E15" s="29">
-        <v>-1</v>
+      <c r="E15" s="16" t="s">
+        <v>350</v>
       </c>
       <c r="F15">
         <v>1501</v>
       </c>
       <c r="G15">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H15">
+        <v>1502</v>
+      </c>
+      <c r="I15">
+        <v>200</v>
+      </c>
+      <c r="J15">
         <v>1504</v>
       </c>
-      <c r="I15">
-        <v>300</v>
-      </c>
-      <c r="J15">
-        <v>-1</v>
-      </c>
       <c r="K15">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
@@ -5037,19 +5075,78 @@
         <v>-1</v>
       </c>
       <c r="O15" s="27">
+        <v>4900</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>-1</v>
+      </c>
+      <c r="S15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="17.5" thickBot="1">
+      <c r="A16">
+        <v>1013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" t="s">
+        <v>329</v>
+      </c>
+      <c r="D16" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" s="29">
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <v>1501</v>
+      </c>
+      <c r="G16">
+        <v>500</v>
+      </c>
+      <c r="H16">
+        <v>1504</v>
+      </c>
+      <c r="I16">
+        <v>300</v>
+      </c>
+      <c r="J16">
+        <v>-1</v>
+      </c>
+      <c r="K16">
+        <v>-1</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>-1</v>
+      </c>
+      <c r="O16" s="27">
         <v>1100</v>
       </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="b">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>-1</v>
-      </c>
-      <c r="S15" t="s">
-        <v>344</v>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>-1</v>
+      </c>
+      <c r="S16" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -5079,7 +5176,7 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C1" t="s">
         <v>171</v>
@@ -5107,13 +5204,13 @@
         <v>32</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>133</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.5" thickBot="1">
@@ -5121,13 +5218,13 @@
         <v>1501</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" thickBot="1">
@@ -5135,13 +5232,13 @@
         <v>1502</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22" customHeight="1" thickBot="1">
@@ -5149,13 +5246,13 @@
         <v>1503</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.5" customHeight="1" thickBot="1">
@@ -5163,13 +5260,13 @@
         <v>1504</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21.5" customHeight="1" thickBot="1">
@@ -5177,13 +5274,13 @@
         <v>1505</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22" customHeight="1" thickBot="1">
@@ -5191,13 +5288,13 @@
         <v>1506</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Portfolio\Oilnam\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FF0142-FE86-41CB-842D-EF6BFBE85247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7C000D-2D5A-4CD1-A400-81461651C59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="1150" windowWidth="19200" windowHeight="11170" firstSheet="1" activeTab="9" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="4720" yWindow="2280" windowWidth="19200" windowHeight="11170" firstSheet="1" activeTab="9" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="356">
   <si>
     <t>Name</t>
   </si>
@@ -1094,6 +1094,9 @@
     <t>Availiable_Count</t>
   </si>
   <si>
+    <t>Availiable_Time</t>
+  </si>
+  <si>
     <t>골드</t>
   </si>
   <si>
@@ -1139,6 +1142,9 @@
     <t>켠왕 패키지</t>
   </si>
   <si>
+    <t>켠왕 도전! 삼각 김밥보다 싸다!</t>
+  </si>
+  <si>
     <t>골든 패스</t>
   </si>
   <si>
@@ -1352,26 +1358,6 @@
   </si>
   <si>
     <t>Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>열쇠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>열쇠 1개를 구매합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Availiable_Time 상품 재구매시 필요 기간 (단위 : day)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item/Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모집권 300장\n골드 500개를 구매합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1379,7 +1365,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1435,13 +1421,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1469,7 +1448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1552,17 +1531,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1570,7 +1538,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1659,12 +1627,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4180,17 +4142,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D50587-6B81-48DF-A8DB-00F001E27D99}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="9.1640625" customWidth="1"/>
     <col min="2" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.9140625" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
@@ -4210,16 +4172,16 @@
         <v>261</v>
       </c>
       <c r="B1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D1" t="s">
         <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F1" t="s">
         <v>262</v>
@@ -4240,10 +4202,10 @@
         <v>267</v>
       </c>
       <c r="L1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="N1" t="s">
         <v>268</v>
@@ -4255,7 +4217,7 @@
         <v>270</v>
       </c>
       <c r="Q1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="R1" t="s">
         <v>271</v>
@@ -4328,16 +4290,16 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D3" t="s">
         <v>133</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F3" t="s">
         <v>272</v>
@@ -4358,10 +4320,10 @@
         <v>277</v>
       </c>
       <c r="L3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="N3" t="s">
         <v>278</v>
@@ -4373,13 +4335,13 @@
         <v>280</v>
       </c>
       <c r="Q3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="R3" t="s">
-        <v>356</v>
+        <v>281</v>
       </c>
       <c r="S3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="17.5" thickBot="1">
@@ -4387,13 +4349,13 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E4" s="29">
         <v>-1</v>
@@ -4438,7 +4400,7 @@
         <v>-1</v>
       </c>
       <c r="S4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="17.5" thickBot="1">
@@ -4446,13 +4408,13 @@
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E5" s="29">
         <v>-1</v>
@@ -4497,7 +4459,7 @@
         <v>-1</v>
       </c>
       <c r="S5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="17.5" thickBot="1">
@@ -4505,13 +4467,13 @@
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E6" s="29">
         <v>-1</v>
@@ -4556,7 +4518,7 @@
         <v>-1</v>
       </c>
       <c r="S6" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="17.5" thickBot="1">
@@ -4564,13 +4526,13 @@
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E7" s="29">
         <v>-1</v>
@@ -4615,7 +4577,7 @@
         <v>-1</v>
       </c>
       <c r="S7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="17.5" thickBot="1">
@@ -4623,16 +4585,16 @@
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F8">
         <v>1502</v>
@@ -4674,7 +4636,7 @@
         <v>-1</v>
       </c>
       <c r="S8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="17.5" thickBot="1">
@@ -4682,16 +4644,16 @@
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F9">
         <v>1502</v>
@@ -4733,7 +4695,7 @@
         <v>-1</v>
       </c>
       <c r="S9" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="17.5" thickBot="1">
@@ -4741,13 +4703,13 @@
         <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E10" s="29">
         <v>-1</v>
@@ -4792,7 +4754,7 @@
         <v>-1</v>
       </c>
       <c r="S10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="17.5" thickBot="1">
@@ -4800,13 +4762,13 @@
         <v>1008</v>
       </c>
       <c r="B11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E11" s="29">
         <v>-1</v>
@@ -4851,7 +4813,7 @@
         <v>-1</v>
       </c>
       <c r="S11" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="17.5" thickBot="1">
@@ -4859,13 +4821,13 @@
         <v>1009</v>
       </c>
       <c r="B12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C12" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E12" s="29">
         <v>-1</v>
@@ -4910,7 +4872,7 @@
         <v>-1</v>
       </c>
       <c r="S12" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="17.5" thickBot="1">
@@ -4918,13 +4880,13 @@
         <v>1010</v>
       </c>
       <c r="B13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E13" s="29">
         <v>-1</v>
@@ -4969,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="S13" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="17.5" thickBot="1">
@@ -4977,58 +4939,58 @@
         <v>1011</v>
       </c>
       <c r="B14" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
       <c r="C14" t="s">
-        <v>354</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="E14" s="31">
-        <v>-1</v>
+        <v>332</v>
+      </c>
+      <c r="D14" t="s">
+        <v>299</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>352</v>
       </c>
       <c r="F14">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>1502</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>200</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>1504</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="L14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1501</v>
-      </c>
-      <c r="O14">
-        <v>100</v>
+        <v>-1</v>
+      </c>
+      <c r="O14" s="27">
+        <v>4900</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
       <c r="Q14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
         <v>-1</v>
       </c>
       <c r="S14" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="17.5" thickBot="1">
@@ -5039,31 +5001,31 @@
         <v>296</v>
       </c>
       <c r="C15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D15" t="s">
         <v>297</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>350</v>
+      <c r="E15" s="29">
+        <v>-1</v>
       </c>
       <c r="F15">
         <v>1501</v>
       </c>
       <c r="G15">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H15">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="I15">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J15">
-        <v>1504</v>
+        <v>-1</v>
       </c>
       <c r="K15">
-        <v>30</v>
+        <v>-1</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
@@ -5075,7 +5037,7 @@
         <v>-1</v>
       </c>
       <c r="O15" s="27">
-        <v>4900</v>
+        <v>1100</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -5087,66 +5049,7 @@
         <v>-1</v>
       </c>
       <c r="S15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="17.5" thickBot="1">
-      <c r="A16">
-        <v>1013</v>
-      </c>
-      <c r="B16" t="s">
-        <v>295</v>
-      </c>
-      <c r="C16" t="s">
-        <v>329</v>
-      </c>
-      <c r="D16" t="s">
-        <v>358</v>
-      </c>
-      <c r="E16" s="29">
-        <v>-1</v>
-      </c>
-      <c r="F16">
-        <v>1501</v>
-      </c>
-      <c r="G16">
-        <v>500</v>
-      </c>
-      <c r="H16">
-        <v>1504</v>
-      </c>
-      <c r="I16">
-        <v>300</v>
-      </c>
-      <c r="J16">
-        <v>-1</v>
-      </c>
-      <c r="K16">
-        <v>-1</v>
-      </c>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>-1</v>
-      </c>
-      <c r="O16" s="27">
-        <v>1100</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="b">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>-1</v>
-      </c>
-      <c r="S16" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -5176,7 +5079,7 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C1" t="s">
         <v>171</v>
@@ -5204,13 +5107,13 @@
         <v>32</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>133</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.5" thickBot="1">
@@ -5218,13 +5121,13 @@
         <v>1501</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" thickBot="1">
@@ -5232,13 +5135,13 @@
         <v>1502</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22" customHeight="1" thickBot="1">
@@ -5246,13 +5149,13 @@
         <v>1503</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.5" customHeight="1" thickBot="1">
@@ -5260,13 +5163,13 @@
         <v>1504</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21.5" customHeight="1" thickBot="1">
@@ -5274,13 +5177,13 @@
         <v>1505</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22" customHeight="1" thickBot="1">
@@ -5288,13 +5191,13 @@
         <v>1506</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Portfolio\Oilnam\RawData\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FF0142-FE86-41CB-842D-EF6BFBE85247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3594E3-9F76-4008-BC71-B2F8BB8CACD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="1150" windowWidth="19200" windowHeight="11170" firstSheet="1" activeTab="9" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Shop" sheetId="11" r:id="rId10"/>
     <sheet name="Goods" sheetId="12" r:id="rId11"/>
     <sheet name="TIP" sheetId="10" r:id="rId12"/>
+    <sheet name="LevelPass" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="361">
   <si>
     <t>Name</t>
   </si>
@@ -1094,6 +1095,9 @@
     <t>Availiable_Count</t>
   </si>
   <si>
+    <t>Availiable_Time</t>
+  </si>
+  <si>
     <t>골드</t>
   </si>
   <si>
@@ -1139,6 +1143,9 @@
     <t>켠왕 패키지</t>
   </si>
   <si>
+    <t>켠왕 도전! 삼각 김밥보다 싸다!</t>
+  </si>
+  <si>
     <t>골든 패스</t>
   </si>
   <si>
@@ -1340,38 +1347,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14.55배 가치</t>
-  </si>
-  <si>
-    <t>1.2배 가치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.21배 가치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>열쇠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>열쇠 1개를 구매합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Availiable_Time 상품 재구매시 필요 기간 (단위 : day)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item/Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모집권 300장\n골드 500개를 구매합니다.</t>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldenType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldenValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1379,7 +1387,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1435,13 +1443,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1469,7 +1470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1552,17 +1553,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1570,7 +1560,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1654,18 +1644,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1988,14 +1966,14 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="6" width="11.58203125" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="5" max="6" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2080,7 +2058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.149999999999999" customHeight="1">
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -4180,91 +4158,87 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D50587-6B81-48DF-A8DB-00F001E27D99}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" customWidth="1"/>
-    <col min="2" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.9140625" customWidth="1"/>
-    <col min="5" max="5" width="22.25" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="15.08203125" customWidth="1"/>
-    <col min="10" max="10" width="15.75" customWidth="1"/>
-    <col min="11" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="14.25" customWidth="1"/>
-    <col min="16" max="17" width="14.83203125" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" customWidth="1"/>
-    <col min="19" max="19" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="33.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="14.25" customWidth="1"/>
+    <col min="15" max="16" width="14.875" customWidth="1"/>
+    <col min="17" max="17" width="13.625" customWidth="1"/>
+    <col min="18" max="18" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>261</v>
       </c>
       <c r="B1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D1" t="s">
         <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>353</v>
+        <v>262</v>
       </c>
       <c r="F1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K1" t="s">
-        <v>267</v>
+        <v>346</v>
       </c>
       <c r="L1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M1" t="s">
-        <v>345</v>
+        <v>268</v>
       </c>
       <c r="N1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P1" t="s">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q1" t="s">
-        <v>348</v>
+        <v>271</v>
       </c>
       <c r="R1" t="s">
-        <v>271</v>
-      </c>
-      <c r="S1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="17.5" thickBot="1">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4278,7 +4252,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -4296,113 +4270,107 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
       </c>
       <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
-      </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="R2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="17.5" thickBot="1">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D3" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>353</v>
+      <c r="E3" t="s">
+        <v>272</v>
       </c>
       <c r="F3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K3" t="s">
-        <v>277</v>
+        <v>348</v>
       </c>
       <c r="L3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M3" t="s">
-        <v>347</v>
+        <v>278</v>
       </c>
       <c r="N3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P3" t="s">
-        <v>280</v>
+        <v>351</v>
       </c>
       <c r="Q3" t="s">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="R3" t="s">
-        <v>356</v>
-      </c>
-      <c r="S3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="17.5" thickBot="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E4" s="29">
-        <v>-1</v>
+        <v>283</v>
+      </c>
+      <c r="E4">
+        <v>1501</v>
       </c>
       <c r="F4">
-        <v>1501</v>
+        <v>1800</v>
       </c>
       <c r="G4">
-        <v>1800</v>
+        <v>-1</v>
       </c>
       <c r="H4">
         <v>-1</v>
@@ -4413,55 +4381,52 @@
       <c r="J4">
         <v>-1</v>
       </c>
-      <c r="K4">
-        <v>-1</v>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
-      <c r="M4" t="b">
+      <c r="M4">
+        <v>1502</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <v>-1</v>
+      </c>
+      <c r="P4" t="b">
         <v>0</v>
       </c>
-      <c r="N4">
-        <v>1502</v>
-      </c>
-      <c r="O4">
-        <v>100</v>
-      </c>
-      <c r="P4">
-        <v>-1</v>
-      </c>
-      <c r="Q4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>-1</v>
-      </c>
-      <c r="S4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="17.5" thickBot="1">
+      <c r="Q4">
+        <v>-1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E5" s="29">
-        <v>-1</v>
+        <v>284</v>
+      </c>
+      <c r="E5">
+        <v>1501</v>
       </c>
       <c r="F5">
-        <v>1501</v>
+        <v>5400</v>
       </c>
       <c r="G5">
-        <v>5400</v>
+        <v>-1</v>
       </c>
       <c r="H5">
         <v>-1</v>
@@ -4472,55 +4437,52 @@
       <c r="J5">
         <v>-1</v>
       </c>
-      <c r="K5">
-        <v>-1</v>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
       </c>
-      <c r="M5" t="b">
+      <c r="M5">
+        <v>1502</v>
+      </c>
+      <c r="N5">
+        <v>300</v>
+      </c>
+      <c r="O5">
+        <v>-1</v>
+      </c>
+      <c r="P5" t="b">
         <v>0</v>
       </c>
-      <c r="N5">
-        <v>1502</v>
-      </c>
-      <c r="O5">
-        <v>300</v>
-      </c>
-      <c r="P5">
-        <v>-1</v>
-      </c>
-      <c r="Q5" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>-1</v>
-      </c>
-      <c r="S5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="17.5" thickBot="1">
+      <c r="Q5">
+        <v>-1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E6" s="29">
-        <v>-1</v>
+        <v>285</v>
+      </c>
+      <c r="E6">
+        <v>1501</v>
       </c>
       <c r="F6">
-        <v>1501</v>
+        <v>10800</v>
       </c>
       <c r="G6">
-        <v>10800</v>
+        <v>-1</v>
       </c>
       <c r="H6">
         <v>-1</v>
@@ -4531,55 +4493,52 @@
       <c r="J6">
         <v>-1</v>
       </c>
-      <c r="K6">
-        <v>-1</v>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
       </c>
-      <c r="M6" t="b">
+      <c r="M6">
+        <v>1502</v>
+      </c>
+      <c r="N6">
+        <v>600</v>
+      </c>
+      <c r="O6">
+        <v>-1</v>
+      </c>
+      <c r="P6" t="b">
         <v>0</v>
       </c>
-      <c r="N6">
-        <v>1502</v>
-      </c>
-      <c r="O6">
-        <v>600</v>
-      </c>
-      <c r="P6">
-        <v>-1</v>
-      </c>
-      <c r="Q6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>-1</v>
-      </c>
-      <c r="S6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="17.5" thickBot="1">
+      <c r="Q6">
+        <v>-1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D7" t="s">
-        <v>286</v>
-      </c>
-      <c r="E7" s="29">
-        <v>-1</v>
+        <v>287</v>
+      </c>
+      <c r="E7">
+        <v>1502</v>
       </c>
       <c r="F7">
-        <v>1502</v>
+        <v>200</v>
       </c>
       <c r="G7">
-        <v>200</v>
+        <v>-1</v>
       </c>
       <c r="H7">
         <v>-1</v>
@@ -4590,55 +4549,52 @@
       <c r="J7">
         <v>-1</v>
       </c>
-      <c r="K7">
-        <v>-1</v>
+      <c r="K7" t="b">
+        <v>1</v>
       </c>
       <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" t="b">
         <v>0</v>
       </c>
-      <c r="N7">
-        <v>-1</v>
-      </c>
-      <c r="O7" s="27">
+      <c r="M7">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="27">
         <v>1200</v>
       </c>
-      <c r="P7">
-        <v>-1</v>
-      </c>
-      <c r="Q7" t="b">
+      <c r="O7">
+        <v>-1</v>
+      </c>
+      <c r="P7" t="b">
         <v>0</v>
       </c>
-      <c r="R7">
-        <v>-1</v>
-      </c>
-      <c r="S7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="17.5" thickBot="1">
+      <c r="Q7">
+        <v>-1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D8" t="s">
-        <v>287</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>351</v>
+        <v>288</v>
+      </c>
+      <c r="E8">
+        <v>1502</v>
       </c>
       <c r="F8">
-        <v>1502</v>
+        <v>1200</v>
       </c>
       <c r="G8">
-        <v>1200</v>
+        <v>-1</v>
       </c>
       <c r="H8">
         <v>-1</v>
@@ -4649,55 +4605,52 @@
       <c r="J8">
         <v>-1</v>
       </c>
-      <c r="K8">
-        <v>-1</v>
+      <c r="K8" t="b">
+        <v>1</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" t="b">
         <v>0</v>
       </c>
-      <c r="N8">
-        <v>-1</v>
-      </c>
-      <c r="O8" s="27">
+      <c r="M8">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="27">
         <v>5900</v>
       </c>
-      <c r="P8">
-        <v>-1</v>
-      </c>
-      <c r="Q8" t="b">
+      <c r="O8">
+        <v>-1</v>
+      </c>
+      <c r="P8" t="b">
         <v>0</v>
       </c>
-      <c r="R8">
-        <v>-1</v>
-      </c>
-      <c r="S8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="17.5" thickBot="1">
+      <c r="Q8">
+        <v>-1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>352</v>
+        <v>289</v>
+      </c>
+      <c r="E9">
+        <v>1502</v>
       </c>
       <c r="F9">
-        <v>1502</v>
+        <v>2000</v>
       </c>
       <c r="G9">
-        <v>2000</v>
+        <v>-1</v>
       </c>
       <c r="H9">
         <v>-1</v>
@@ -4708,55 +4661,52 @@
       <c r="J9">
         <v>-1</v>
       </c>
-      <c r="K9">
-        <v>-1</v>
+      <c r="K9" t="b">
+        <v>1</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" t="b">
         <v>0</v>
       </c>
-      <c r="N9">
-        <v>-1</v>
-      </c>
-      <c r="O9" s="27">
+      <c r="M9">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="27">
         <v>9900</v>
       </c>
-      <c r="P9">
-        <v>-1</v>
-      </c>
-      <c r="Q9" t="b">
+      <c r="O9">
+        <v>-1</v>
+      </c>
+      <c r="P9" t="b">
         <v>0</v>
       </c>
-      <c r="R9">
-        <v>-1</v>
-      </c>
-      <c r="S9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="17.5" thickBot="1">
+      <c r="Q9">
+        <v>-1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D10" t="s">
-        <v>290</v>
-      </c>
-      <c r="E10" s="29">
-        <v>-1</v>
+        <v>291</v>
+      </c>
+      <c r="E10">
+        <v>1504</v>
       </c>
       <c r="F10">
-        <v>1504</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H10">
         <v>-1</v>
@@ -4767,55 +4717,52 @@
       <c r="J10">
         <v>-1</v>
       </c>
-      <c r="K10">
-        <v>-1</v>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
-      <c r="M10" t="b">
+      <c r="M10">
+        <v>1502</v>
+      </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>-1</v>
+      </c>
+      <c r="P10" t="b">
         <v>0</v>
       </c>
-      <c r="N10">
-        <v>1502</v>
-      </c>
-      <c r="O10">
-        <v>8</v>
-      </c>
-      <c r="P10">
-        <v>-1</v>
-      </c>
-      <c r="Q10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>-1</v>
-      </c>
-      <c r="S10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="17.5" thickBot="1">
+      <c r="Q10">
+        <v>-1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1008</v>
       </c>
       <c r="B11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D11" t="s">
-        <v>291</v>
-      </c>
-      <c r="E11" s="29">
-        <v>-1</v>
+        <v>292</v>
+      </c>
+      <c r="E11">
+        <v>1504</v>
       </c>
       <c r="F11">
-        <v>1504</v>
+        <v>30</v>
       </c>
       <c r="G11">
-        <v>30</v>
+        <v>-1</v>
       </c>
       <c r="H11">
         <v>-1</v>
@@ -4826,55 +4773,52 @@
       <c r="J11">
         <v>-1</v>
       </c>
-      <c r="K11">
-        <v>-1</v>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
       </c>
-      <c r="M11" t="b">
+      <c r="M11">
+        <v>1502</v>
+      </c>
+      <c r="N11">
+        <v>240</v>
+      </c>
+      <c r="O11">
+        <v>-1</v>
+      </c>
+      <c r="P11" t="b">
         <v>0</v>
       </c>
-      <c r="N11">
-        <v>1502</v>
-      </c>
-      <c r="O11">
-        <v>240</v>
-      </c>
-      <c r="P11">
-        <v>-1</v>
-      </c>
-      <c r="Q11" t="b">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>-1</v>
-      </c>
-      <c r="S11" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="17.5" thickBot="1">
+      <c r="Q11">
+        <v>-1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1009</v>
       </c>
       <c r="B12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C12" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D12" t="s">
-        <v>292</v>
-      </c>
-      <c r="E12" s="29">
-        <v>-1</v>
+        <v>293</v>
+      </c>
+      <c r="E12">
+        <v>1504</v>
       </c>
       <c r="F12">
-        <v>1504</v>
+        <v>300</v>
       </c>
       <c r="G12">
-        <v>300</v>
+        <v>-1</v>
       </c>
       <c r="H12">
         <v>-1</v>
@@ -4885,55 +4829,52 @@
       <c r="J12">
         <v>-1</v>
       </c>
-      <c r="K12">
-        <v>-1</v>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
       </c>
-      <c r="M12" t="b">
+      <c r="M12">
+        <v>1502</v>
+      </c>
+      <c r="N12">
+        <v>2400</v>
+      </c>
+      <c r="O12">
+        <v>-1</v>
+      </c>
+      <c r="P12" t="b">
         <v>0</v>
       </c>
-      <c r="N12">
-        <v>1502</v>
-      </c>
-      <c r="O12">
-        <v>2400</v>
-      </c>
-      <c r="P12">
-        <v>-1</v>
-      </c>
-      <c r="Q12" t="b">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>-1</v>
-      </c>
-      <c r="S12" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="17.5" thickBot="1">
+      <c r="Q12">
+        <v>-1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1010</v>
       </c>
       <c r="B13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D13" t="s">
-        <v>294</v>
-      </c>
-      <c r="E13" s="29">
-        <v>-1</v>
+        <v>295</v>
+      </c>
+      <c r="E13">
+        <v>1502</v>
       </c>
       <c r="F13">
-        <v>1502</v>
+        <v>25</v>
       </c>
       <c r="G13">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="H13">
         <v>-1</v>
@@ -4944,94 +4885,88 @@
       <c r="J13">
         <v>-1</v>
       </c>
-      <c r="K13">
-        <v>-1</v>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
       <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>-1</v>
+      </c>
+      <c r="N13">
+        <v>-1</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13" t="b">
         <v>0</v>
       </c>
-      <c r="M13" t="b">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>-1</v>
-      </c>
-      <c r="O13">
-        <v>-1</v>
-      </c>
-      <c r="P13">
-        <v>2</v>
-      </c>
-      <c r="Q13" t="b">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="17.5" thickBot="1">
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1011</v>
       </c>
       <c r="B14" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
       <c r="C14" t="s">
-        <v>354</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="E14" s="31">
-        <v>-1</v>
+        <v>332</v>
+      </c>
+      <c r="D14" t="s">
+        <v>299</v>
+      </c>
+      <c r="E14">
+        <v>1501</v>
       </c>
       <c r="F14">
-        <v>1503</v>
+        <v>600</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>1502</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>200</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>1504</v>
       </c>
       <c r="J14">
-        <v>-1</v>
-      </c>
-      <c r="K14">
-        <v>-1</v>
+        <v>30</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>1501</v>
+      <c r="M14">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="27">
+        <v>4900</v>
       </c>
       <c r="O14">
-        <v>100</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="b">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>-1</v>
-      </c>
-      <c r="S14" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="17.5" thickBot="1">
+        <v>1</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>-1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1012</v>
       </c>
@@ -5039,114 +4974,52 @@
         <v>296</v>
       </c>
       <c r="C15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D15" t="s">
         <v>297</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>350</v>
+      <c r="E15">
+        <v>1501</v>
       </c>
       <c r="F15">
-        <v>1501</v>
+        <v>500</v>
       </c>
       <c r="G15">
-        <v>600</v>
+        <v>1504</v>
       </c>
       <c r="H15">
-        <v>1502</v>
+        <v>300</v>
       </c>
       <c r="I15">
-        <v>200</v>
+        <v>-1</v>
       </c>
       <c r="J15">
-        <v>1504</v>
-      </c>
-      <c r="K15">
-        <v>30</v>
+        <v>-1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
       </c>
       <c r="L15" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" t="b">
         <v>0</v>
       </c>
-      <c r="N15">
-        <v>-1</v>
-      </c>
-      <c r="O15" s="27">
-        <v>4900</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="b">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>-1</v>
-      </c>
-      <c r="S15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="17.5" thickBot="1">
-      <c r="A16">
-        <v>1013</v>
-      </c>
-      <c r="B16" t="s">
-        <v>295</v>
-      </c>
-      <c r="C16" t="s">
-        <v>329</v>
-      </c>
-      <c r="D16" t="s">
-        <v>358</v>
-      </c>
-      <c r="E16" s="29">
-        <v>-1</v>
-      </c>
-      <c r="F16">
-        <v>1501</v>
-      </c>
-      <c r="G16">
-        <v>500</v>
-      </c>
-      <c r="H16">
-        <v>1504</v>
-      </c>
-      <c r="I16">
-        <v>300</v>
-      </c>
-      <c r="J16">
-        <v>-1</v>
-      </c>
-      <c r="K16">
-        <v>-1</v>
-      </c>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>-1</v>
-      </c>
-      <c r="O16" s="27">
+      <c r="M15">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="27">
         <v>1100</v>
       </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="b">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>-1</v>
-      </c>
-      <c r="S16" t="s">
-        <v>342</v>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>-1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -5164,10 +5037,10 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="39.58203125" customWidth="1"/>
+    <col min="3" max="3" width="39.625" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5176,7 +5049,7 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C1" t="s">
         <v>171</v>
@@ -5185,7 +5058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.5" thickBot="1">
+    <row r="2" spans="1:4" ht="17.25" thickBot="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5199,32 +5072,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.5" thickBot="1">
+    <row r="3" spans="1:4" ht="17.25" thickBot="1">
       <c r="A3" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>133</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.5" thickBot="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" thickBot="1">
       <c r="A4" s="16">
         <v>1501</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" thickBot="1">
@@ -5232,69 +5105,69 @@
         <v>1502</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="22" customHeight="1" thickBot="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21.95" customHeight="1" thickBot="1">
       <c r="A6" s="16">
         <v>1503</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.5" customHeight="1" thickBot="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="16">
         <v>1504</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="21.5" customHeight="1" thickBot="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21.6" customHeight="1" thickBot="1">
       <c r="A8" s="16">
         <v>1505</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="22" customHeight="1" thickBot="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21.95" customHeight="1" thickBot="1">
       <c r="A9" s="16">
         <v>1506</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -5308,14 +5181,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6926D4-C54F-410A-A670-136E7C30B884}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5394,6 +5265,2737 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1FF4F24-FB0E-440A-9C75-674911EB633F}">
+  <dimension ref="A1:F145"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>600</v>
+      </c>
+      <c r="F4" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>200</v>
+      </c>
+      <c r="F5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>600</v>
+      </c>
+      <c r="F6" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>200</v>
+      </c>
+      <c r="F7" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>600</v>
+      </c>
+      <c r="F8" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>200</v>
+      </c>
+      <c r="F9" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>10007</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>600</v>
+      </c>
+      <c r="F10" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10008</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>600</v>
+      </c>
+      <c r="F11" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10009</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>200</v>
+      </c>
+      <c r="F12" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>10010</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>600</v>
+      </c>
+      <c r="F13" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>10011</v>
+      </c>
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>200</v>
+      </c>
+      <c r="F14" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>10012</v>
+      </c>
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>600</v>
+      </c>
+      <c r="F15" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>10013</v>
+      </c>
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>200</v>
+      </c>
+      <c r="F16" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>10014</v>
+      </c>
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>600</v>
+      </c>
+      <c r="F17" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>10015</v>
+      </c>
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>600</v>
+      </c>
+      <c r="F18" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>10016</v>
+      </c>
+      <c r="B19" s="1">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>200</v>
+      </c>
+      <c r="F19" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>10017</v>
+      </c>
+      <c r="B20" s="1">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>600</v>
+      </c>
+      <c r="F20" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>10018</v>
+      </c>
+      <c r="B21" s="1">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>200</v>
+      </c>
+      <c r="F21" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>10019</v>
+      </c>
+      <c r="B22" s="1">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>600</v>
+      </c>
+      <c r="F22" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>10020</v>
+      </c>
+      <c r="B23" s="1">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>200</v>
+      </c>
+      <c r="F23" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>10021</v>
+      </c>
+      <c r="B24" s="1">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>600</v>
+      </c>
+      <c r="F24" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>10022</v>
+      </c>
+      <c r="B25" s="1">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>600</v>
+      </c>
+      <c r="F25" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>10023</v>
+      </c>
+      <c r="B26" s="1">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>200</v>
+      </c>
+      <c r="F26" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>10024</v>
+      </c>
+      <c r="B27" s="1">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>600</v>
+      </c>
+      <c r="F27" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>10025</v>
+      </c>
+      <c r="B28" s="1">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>200</v>
+      </c>
+      <c r="F28" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>10026</v>
+      </c>
+      <c r="B29" s="1">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>600</v>
+      </c>
+      <c r="F29" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>10027</v>
+      </c>
+      <c r="B30" s="1">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>200</v>
+      </c>
+      <c r="F30" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>10028</v>
+      </c>
+      <c r="B31" s="1">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>600</v>
+      </c>
+      <c r="F31" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>10029</v>
+      </c>
+      <c r="B32" s="1">
+        <v>29</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>600</v>
+      </c>
+      <c r="F32" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>10030</v>
+      </c>
+      <c r="B33" s="1">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>200</v>
+      </c>
+      <c r="F33" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>10031</v>
+      </c>
+      <c r="B34" s="1">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>600</v>
+      </c>
+      <c r="F34" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>10032</v>
+      </c>
+      <c r="B35" s="1">
+        <v>32</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>200</v>
+      </c>
+      <c r="F35" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>10033</v>
+      </c>
+      <c r="B36" s="1">
+        <v>33</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>600</v>
+      </c>
+      <c r="F36" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>10034</v>
+      </c>
+      <c r="B37" s="1">
+        <v>34</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>200</v>
+      </c>
+      <c r="F37" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>10035</v>
+      </c>
+      <c r="B38" s="1">
+        <v>35</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>600</v>
+      </c>
+      <c r="F38" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>10036</v>
+      </c>
+      <c r="B39" s="1">
+        <v>36</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>600</v>
+      </c>
+      <c r="F39" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>10037</v>
+      </c>
+      <c r="B40" s="1">
+        <v>37</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>200</v>
+      </c>
+      <c r="F40" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>10038</v>
+      </c>
+      <c r="B41" s="1">
+        <v>38</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>600</v>
+      </c>
+      <c r="F41" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>10039</v>
+      </c>
+      <c r="B42" s="1">
+        <v>39</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>200</v>
+      </c>
+      <c r="F42" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>10040</v>
+      </c>
+      <c r="B43" s="1">
+        <v>40</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>600</v>
+      </c>
+      <c r="F43" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>10041</v>
+      </c>
+      <c r="B44" s="1">
+        <v>41</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>200</v>
+      </c>
+      <c r="F44" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>10042</v>
+      </c>
+      <c r="B45" s="1">
+        <v>42</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>600</v>
+      </c>
+      <c r="F45" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>10043</v>
+      </c>
+      <c r="B46" s="1">
+        <v>43</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>600</v>
+      </c>
+      <c r="F46" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>10044</v>
+      </c>
+      <c r="B47" s="1">
+        <v>44</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>200</v>
+      </c>
+      <c r="F47" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>10045</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>600</v>
+      </c>
+      <c r="F48" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>10046</v>
+      </c>
+      <c r="B49" s="1">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>200</v>
+      </c>
+      <c r="F49" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>10047</v>
+      </c>
+      <c r="B50" s="1">
+        <v>47</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>600</v>
+      </c>
+      <c r="F50" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>10048</v>
+      </c>
+      <c r="B51" s="1">
+        <v>48</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>200</v>
+      </c>
+      <c r="F51" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>10049</v>
+      </c>
+      <c r="B52" s="1">
+        <v>49</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1">
+        <v>600</v>
+      </c>
+      <c r="F52" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>10050</v>
+      </c>
+      <c r="B53" s="1">
+        <v>50</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>600</v>
+      </c>
+      <c r="F53" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>10051</v>
+      </c>
+      <c r="B54" s="1">
+        <v>51</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>200</v>
+      </c>
+      <c r="F54" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>10052</v>
+      </c>
+      <c r="B55" s="1">
+        <v>52</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <v>600</v>
+      </c>
+      <c r="F55" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>10053</v>
+      </c>
+      <c r="B56" s="1">
+        <v>53</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+      <c r="E56" s="1">
+        <v>200</v>
+      </c>
+      <c r="F56" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>10054</v>
+      </c>
+      <c r="B57" s="1">
+        <v>54</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
+        <v>600</v>
+      </c>
+      <c r="F57" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>10055</v>
+      </c>
+      <c r="B58" s="1">
+        <v>55</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2</v>
+      </c>
+      <c r="E58" s="1">
+        <v>200</v>
+      </c>
+      <c r="F58" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>10056</v>
+      </c>
+      <c r="B59" s="1">
+        <v>56</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1">
+        <v>600</v>
+      </c>
+      <c r="F59" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>10057</v>
+      </c>
+      <c r="B60" s="1">
+        <v>57</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1">
+        <v>600</v>
+      </c>
+      <c r="F60" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>10058</v>
+      </c>
+      <c r="B61" s="1">
+        <v>58</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1">
+        <v>200</v>
+      </c>
+      <c r="F61" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>10059</v>
+      </c>
+      <c r="B62" s="1">
+        <v>59</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>600</v>
+      </c>
+      <c r="F62" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>10060</v>
+      </c>
+      <c r="B63" s="1">
+        <v>60</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1">
+        <v>200</v>
+      </c>
+      <c r="F63" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>10061</v>
+      </c>
+      <c r="B64" s="1">
+        <v>61</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
+        <v>600</v>
+      </c>
+      <c r="F64" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>10062</v>
+      </c>
+      <c r="B65" s="1">
+        <v>62</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2</v>
+      </c>
+      <c r="E65" s="1">
+        <v>200</v>
+      </c>
+      <c r="F65" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>10063</v>
+      </c>
+      <c r="B66" s="1">
+        <v>63</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>3</v>
+      </c>
+      <c r="E66" s="1">
+        <v>600</v>
+      </c>
+      <c r="F66" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>10064</v>
+      </c>
+      <c r="B67" s="1">
+        <v>64</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1">
+        <v>600</v>
+      </c>
+      <c r="F67" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>10065</v>
+      </c>
+      <c r="B68" s="1">
+        <v>65</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2</v>
+      </c>
+      <c r="E68" s="1">
+        <v>200</v>
+      </c>
+      <c r="F68" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>10066</v>
+      </c>
+      <c r="B69" s="1">
+        <v>66</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1">
+        <v>600</v>
+      </c>
+      <c r="F69" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>10067</v>
+      </c>
+      <c r="B70" s="1">
+        <v>67</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
+      <c r="E70" s="1">
+        <v>200</v>
+      </c>
+      <c r="F70" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>10068</v>
+      </c>
+      <c r="B71" s="1">
+        <v>68</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1">
+        <v>600</v>
+      </c>
+      <c r="F71" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>10069</v>
+      </c>
+      <c r="B72" s="1">
+        <v>69</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2</v>
+      </c>
+      <c r="E72" s="1">
+        <v>200</v>
+      </c>
+      <c r="F72" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>10070</v>
+      </c>
+      <c r="B73" s="1">
+        <v>70</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3</v>
+      </c>
+      <c r="E73" s="1">
+        <v>600</v>
+      </c>
+      <c r="F73" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>10071</v>
+      </c>
+      <c r="B74" s="1">
+        <v>71</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>200</v>
+      </c>
+      <c r="F74" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>10072</v>
+      </c>
+      <c r="B75" s="1">
+        <v>72</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2</v>
+      </c>
+      <c r="E75" s="1">
+        <v>600</v>
+      </c>
+      <c r="F75" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>10073</v>
+      </c>
+      <c r="B76" s="1">
+        <v>73</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>200</v>
+      </c>
+      <c r="F76" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>10074</v>
+      </c>
+      <c r="B77" s="1">
+        <v>74</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2</v>
+      </c>
+      <c r="E77" s="1">
+        <v>600</v>
+      </c>
+      <c r="F77" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>10075</v>
+      </c>
+      <c r="B78" s="1">
+        <v>75</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>600</v>
+      </c>
+      <c r="F78" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>10076</v>
+      </c>
+      <c r="B79" s="1">
+        <v>76</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2</v>
+      </c>
+      <c r="E79" s="1">
+        <v>200</v>
+      </c>
+      <c r="F79" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>10077</v>
+      </c>
+      <c r="B80" s="1">
+        <v>77</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <v>3</v>
+      </c>
+      <c r="E80" s="1">
+        <v>600</v>
+      </c>
+      <c r="F80" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>10078</v>
+      </c>
+      <c r="B81" s="1">
+        <v>78</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>200</v>
+      </c>
+      <c r="F81" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>10079</v>
+      </c>
+      <c r="B82" s="1">
+        <v>79</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2</v>
+      </c>
+      <c r="E82" s="1">
+        <v>600</v>
+      </c>
+      <c r="F82" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>10080</v>
+      </c>
+      <c r="B83" s="1">
+        <v>80</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1">
+        <v>200</v>
+      </c>
+      <c r="F83" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>10081</v>
+      </c>
+      <c r="B84" s="1">
+        <v>81</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
+        <v>2</v>
+      </c>
+      <c r="E84" s="1">
+        <v>600</v>
+      </c>
+      <c r="F84" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>10082</v>
+      </c>
+      <c r="B85" s="1">
+        <v>82</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1">
+        <v>600</v>
+      </c>
+      <c r="F85" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>10083</v>
+      </c>
+      <c r="B86" s="1">
+        <v>83</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2</v>
+      </c>
+      <c r="E86" s="1">
+        <v>200</v>
+      </c>
+      <c r="F86" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>10084</v>
+      </c>
+      <c r="B87" s="1">
+        <v>84</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2</v>
+      </c>
+      <c r="D87" s="1">
+        <v>3</v>
+      </c>
+      <c r="E87" s="1">
+        <v>600</v>
+      </c>
+      <c r="F87" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>10085</v>
+      </c>
+      <c r="B88" s="1">
+        <v>85</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1">
+        <v>200</v>
+      </c>
+      <c r="F88" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>10086</v>
+      </c>
+      <c r="B89" s="1">
+        <v>86</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2</v>
+      </c>
+      <c r="E89" s="1">
+        <v>600</v>
+      </c>
+      <c r="F89" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>10087</v>
+      </c>
+      <c r="B90" s="1">
+        <v>87</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <v>200</v>
+      </c>
+      <c r="F90" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>10088</v>
+      </c>
+      <c r="B91" s="1">
+        <v>88</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2</v>
+      </c>
+      <c r="D91" s="1">
+        <v>2</v>
+      </c>
+      <c r="E91" s="1">
+        <v>600</v>
+      </c>
+      <c r="F91" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>10089</v>
+      </c>
+      <c r="B92" s="1">
+        <v>89</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1">
+        <v>200</v>
+      </c>
+      <c r="F92" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>10090</v>
+      </c>
+      <c r="B93" s="1">
+        <v>90</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2</v>
+      </c>
+      <c r="E93" s="1">
+        <v>600</v>
+      </c>
+      <c r="F93" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>10091</v>
+      </c>
+      <c r="B94" s="1">
+        <v>91</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <v>3</v>
+      </c>
+      <c r="E94" s="1">
+        <v>200</v>
+      </c>
+      <c r="F94" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>10092</v>
+      </c>
+      <c r="B95" s="1">
+        <v>92</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1">
+        <v>600</v>
+      </c>
+      <c r="F95" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>10093</v>
+      </c>
+      <c r="B96" s="1">
+        <v>93</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <v>2</v>
+      </c>
+      <c r="E96" s="1">
+        <v>600</v>
+      </c>
+      <c r="F96" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>10094</v>
+      </c>
+      <c r="B97" s="1">
+        <v>94</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1">
+        <v>200</v>
+      </c>
+      <c r="F97" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>10095</v>
+      </c>
+      <c r="B98" s="1">
+        <v>95</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <v>2</v>
+      </c>
+      <c r="E98" s="1">
+        <v>600</v>
+      </c>
+      <c r="F98" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>10096</v>
+      </c>
+      <c r="B99" s="1">
+        <v>96</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1">
+        <v>200</v>
+      </c>
+      <c r="F99" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>10097</v>
+      </c>
+      <c r="B100" s="1">
+        <v>97</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>2</v>
+      </c>
+      <c r="E100" s="1">
+        <v>600</v>
+      </c>
+      <c r="F100" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>10098</v>
+      </c>
+      <c r="B101" s="1">
+        <v>98</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2</v>
+      </c>
+      <c r="D101" s="1">
+        <v>3</v>
+      </c>
+      <c r="E101" s="1">
+        <v>200</v>
+      </c>
+      <c r="F101" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>10099</v>
+      </c>
+      <c r="B102" s="1">
+        <v>99</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1</v>
+      </c>
+      <c r="E102" s="1">
+        <v>600</v>
+      </c>
+      <c r="F102" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>10100</v>
+      </c>
+      <c r="B103" s="1">
+        <v>100</v>
+      </c>
+      <c r="C103" s="1">
+        <v>2</v>
+      </c>
+      <c r="D103" s="1">
+        <v>2</v>
+      </c>
+      <c r="E103" s="1">
+        <v>600</v>
+      </c>
+      <c r="F103" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>10101</v>
+      </c>
+      <c r="B104" s="1">
+        <v>101</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1">
+        <v>200</v>
+      </c>
+      <c r="F104" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>10102</v>
+      </c>
+      <c r="B105" s="1">
+        <v>102</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2</v>
+      </c>
+      <c r="D105" s="1">
+        <v>2</v>
+      </c>
+      <c r="E105" s="1">
+        <v>600</v>
+      </c>
+      <c r="F105" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>10103</v>
+      </c>
+      <c r="B106" s="1">
+        <v>103</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <v>1</v>
+      </c>
+      <c r="E106" s="1">
+        <v>200</v>
+      </c>
+      <c r="F106" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>10104</v>
+      </c>
+      <c r="B107" s="1">
+        <v>104</v>
+      </c>
+      <c r="C107" s="1">
+        <v>2</v>
+      </c>
+      <c r="D107" s="1">
+        <v>2</v>
+      </c>
+      <c r="E107" s="1">
+        <v>600</v>
+      </c>
+      <c r="F107" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>10105</v>
+      </c>
+      <c r="B108" s="1">
+        <v>105</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <v>3</v>
+      </c>
+      <c r="E108" s="1">
+        <v>200</v>
+      </c>
+      <c r="F108" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>10106</v>
+      </c>
+      <c r="B109" s="1">
+        <v>106</v>
+      </c>
+      <c r="C109" s="1">
+        <v>2</v>
+      </c>
+      <c r="D109" s="1">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1">
+        <v>600</v>
+      </c>
+      <c r="F109" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>10107</v>
+      </c>
+      <c r="B110" s="1">
+        <v>107</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1">
+        <v>2</v>
+      </c>
+      <c r="E110" s="1">
+        <v>200</v>
+      </c>
+      <c r="F110" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>10108</v>
+      </c>
+      <c r="B111" s="1">
+        <v>108</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2</v>
+      </c>
+      <c r="D111" s="1">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1">
+        <v>600</v>
+      </c>
+      <c r="F111" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>10109</v>
+      </c>
+      <c r="B112" s="1">
+        <v>109</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
+        <v>2</v>
+      </c>
+      <c r="E112" s="1">
+        <v>200</v>
+      </c>
+      <c r="F112" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>10110</v>
+      </c>
+      <c r="B113" s="1">
+        <v>110</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1</v>
+      </c>
+      <c r="E113" s="1">
+        <v>600</v>
+      </c>
+      <c r="F113" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>10111</v>
+      </c>
+      <c r="B114" s="1">
+        <v>111</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
+        <v>2</v>
+      </c>
+      <c r="E114" s="1">
+        <v>600</v>
+      </c>
+      <c r="F114" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>10112</v>
+      </c>
+      <c r="B115" s="1">
+        <v>112</v>
+      </c>
+      <c r="C115" s="1">
+        <v>2</v>
+      </c>
+      <c r="D115" s="1">
+        <v>3</v>
+      </c>
+      <c r="E115" s="1">
+        <v>200</v>
+      </c>
+      <c r="F115" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>10113</v>
+      </c>
+      <c r="B116" s="1">
+        <v>113</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1</v>
+      </c>
+      <c r="E116" s="1">
+        <v>600</v>
+      </c>
+      <c r="F116" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>10114</v>
+      </c>
+      <c r="B117" s="1">
+        <v>114</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2</v>
+      </c>
+      <c r="D117" s="1">
+        <v>2</v>
+      </c>
+      <c r="E117" s="1">
+        <v>200</v>
+      </c>
+      <c r="F117" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>10115</v>
+      </c>
+      <c r="B118" s="1">
+        <v>115</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1</v>
+      </c>
+      <c r="E118" s="1">
+        <v>600</v>
+      </c>
+      <c r="F118" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>10116</v>
+      </c>
+      <c r="B119" s="1">
+        <v>116</v>
+      </c>
+      <c r="C119" s="1">
+        <v>2</v>
+      </c>
+      <c r="D119" s="1">
+        <v>2</v>
+      </c>
+      <c r="E119" s="1">
+        <v>200</v>
+      </c>
+      <c r="F119" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>10117</v>
+      </c>
+      <c r="B120" s="1">
+        <v>117</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1</v>
+      </c>
+      <c r="E120" s="1">
+        <v>600</v>
+      </c>
+      <c r="F120" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>10118</v>
+      </c>
+      <c r="B121" s="1">
+        <v>118</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2</v>
+      </c>
+      <c r="D121" s="1">
+        <v>2</v>
+      </c>
+      <c r="E121" s="1">
+        <v>600</v>
+      </c>
+      <c r="F121" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>10119</v>
+      </c>
+      <c r="B122" s="1">
+        <v>119</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
+        <v>3</v>
+      </c>
+      <c r="E122" s="1">
+        <v>200</v>
+      </c>
+      <c r="F122" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>10120</v>
+      </c>
+      <c r="B123" s="1">
+        <v>120</v>
+      </c>
+      <c r="C123" s="1">
+        <v>2</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1</v>
+      </c>
+      <c r="E123" s="1">
+        <v>600</v>
+      </c>
+      <c r="F123" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>10121</v>
+      </c>
+      <c r="B124" s="1">
+        <v>121</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
+        <v>2</v>
+      </c>
+      <c r="E124" s="1">
+        <v>200</v>
+      </c>
+      <c r="F124" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>10122</v>
+      </c>
+      <c r="B125" s="1">
+        <v>122</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1">
+        <v>600</v>
+      </c>
+      <c r="F125" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>10123</v>
+      </c>
+      <c r="B126" s="1">
+        <v>123</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1">
+        <v>2</v>
+      </c>
+      <c r="E126" s="1">
+        <v>200</v>
+      </c>
+      <c r="F126" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>10124</v>
+      </c>
+      <c r="B127" s="1">
+        <v>124</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1</v>
+      </c>
+      <c r="E127" s="1">
+        <v>600</v>
+      </c>
+      <c r="F127" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>10125</v>
+      </c>
+      <c r="B128" s="1">
+        <v>125</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <v>2</v>
+      </c>
+      <c r="E128" s="1">
+        <v>200</v>
+      </c>
+      <c r="F128" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>10126</v>
+      </c>
+      <c r="B129" s="1">
+        <v>126</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2</v>
+      </c>
+      <c r="D129" s="1">
+        <v>3</v>
+      </c>
+      <c r="E129" s="1">
+        <v>600</v>
+      </c>
+      <c r="F129" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>10127</v>
+      </c>
+      <c r="B130" s="1">
+        <v>127</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
+        <v>1</v>
+      </c>
+      <c r="E130" s="1">
+        <v>200</v>
+      </c>
+      <c r="F130" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>10128</v>
+      </c>
+      <c r="B131" s="1">
+        <v>128</v>
+      </c>
+      <c r="C131" s="1">
+        <v>2</v>
+      </c>
+      <c r="D131" s="1">
+        <v>2</v>
+      </c>
+      <c r="E131" s="1">
+        <v>600</v>
+      </c>
+      <c r="F131" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>10129</v>
+      </c>
+      <c r="B132" s="1">
+        <v>129</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1</v>
+      </c>
+      <c r="E132" s="1">
+        <v>600</v>
+      </c>
+      <c r="F132" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>10130</v>
+      </c>
+      <c r="B133" s="1">
+        <v>130</v>
+      </c>
+      <c r="C133" s="1">
+        <v>2</v>
+      </c>
+      <c r="D133" s="1">
+        <v>2</v>
+      </c>
+      <c r="E133" s="1">
+        <v>200</v>
+      </c>
+      <c r="F133" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="5:5">
+      <c r="E145" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5405,10 +8007,10 @@
       <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5431,7 +8033,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.5" thickBot="1">
+    <row r="2" spans="1:6" ht="17.25" thickBot="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5471,7 +8073,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.5" thickBot="1">
+    <row r="4" spans="1:6" ht="17.25" thickBot="1">
       <c r="A4" s="16">
         <v>7001</v>
       </c>
@@ -5491,7 +8093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.5" thickBot="1">
+    <row r="5" spans="1:6" ht="17.25" thickBot="1">
       <c r="A5" s="16">
         <v>7002</v>
       </c>
@@ -5511,7 +8113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.5" thickBot="1">
+    <row r="6" spans="1:6" ht="17.25" thickBot="1">
       <c r="A6" s="16">
         <v>7003</v>
       </c>
@@ -5531,7 +8133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.5" thickBot="1">
+    <row r="7" spans="1:6" ht="17.25" thickBot="1">
       <c r="A7" s="16">
         <v>7004</v>
       </c>
@@ -5551,7 +8153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.5" thickBot="1">
+    <row r="8" spans="1:6" ht="17.25" thickBot="1">
       <c r="A8" s="16">
         <v>7005</v>
       </c>
@@ -5571,7 +8173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.5" thickBot="1">
+    <row r="9" spans="1:6" ht="17.25" thickBot="1">
       <c r="A9" s="16">
         <v>7006</v>
       </c>
@@ -5591,7 +8193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.5" thickBot="1">
+    <row r="10" spans="1:6" ht="17.25" thickBot="1">
       <c r="A10" s="16">
         <v>7007</v>
       </c>
@@ -5611,7 +8213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.5" thickBot="1">
+    <row r="11" spans="1:6" ht="17.25" thickBot="1">
       <c r="A11" s="16">
         <v>7008</v>
       </c>
@@ -5631,7 +8233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.5" thickBot="1">
+    <row r="12" spans="1:6" ht="17.25" thickBot="1">
       <c r="A12" s="16">
         <v>7009</v>
       </c>
@@ -5651,7 +8253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.5" thickBot="1">
+    <row r="13" spans="1:6" ht="17.25" thickBot="1">
       <c r="A13" s="16">
         <v>7010</v>
       </c>
@@ -5671,7 +8273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.5" thickBot="1">
+    <row r="14" spans="1:6" ht="17.25" thickBot="1">
       <c r="A14" s="16">
         <v>7011</v>
       </c>
@@ -5691,7 +8293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.5" thickBot="1">
+    <row r="15" spans="1:6" ht="17.25" thickBot="1">
       <c r="A15" s="16">
         <v>7012</v>
       </c>
@@ -5711,7 +8313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.5" thickBot="1">
+    <row r="16" spans="1:6" ht="17.25" thickBot="1">
       <c r="A16" s="16">
         <v>7013</v>
       </c>
@@ -5731,7 +8333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.5" thickBot="1">
+    <row r="17" spans="1:6" ht="17.25" thickBot="1">
       <c r="A17" s="16">
         <v>7014</v>
       </c>
@@ -5751,7 +8353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.5" thickBot="1">
+    <row r="18" spans="1:6" ht="17.25" thickBot="1">
       <c r="A18" s="16">
         <v>7015</v>
       </c>
@@ -5771,7 +8373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.5" thickBot="1">
+    <row r="19" spans="1:6" ht="17.25" thickBot="1">
       <c r="A19" s="16">
         <v>7016</v>
       </c>
@@ -5791,7 +8393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.5" thickBot="1">
+    <row r="20" spans="1:6" ht="17.25" thickBot="1">
       <c r="A20" s="16">
         <v>7017</v>
       </c>
@@ -5811,7 +8413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.5" thickBot="1">
+    <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="16">
         <v>7018</v>
       </c>
@@ -5831,7 +8433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.5" thickBot="1">
+    <row r="22" spans="1:6" ht="17.25" thickBot="1">
       <c r="A22" s="16">
         <v>7019</v>
       </c>
@@ -5851,7 +8453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.5" thickBot="1">
+    <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="16">
         <v>7020</v>
       </c>
@@ -5871,7 +8473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.5" thickBot="1">
+    <row r="24" spans="1:6" ht="17.25" thickBot="1">
       <c r="A24" s="16">
         <v>7021</v>
       </c>
@@ -5891,7 +8493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.5" thickBot="1">
+    <row r="25" spans="1:6" ht="17.25" thickBot="1">
       <c r="A25" s="16">
         <v>7022</v>
       </c>
@@ -5911,7 +8513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.5" thickBot="1">
+    <row r="26" spans="1:6" ht="17.25" thickBot="1">
       <c r="A26" s="16">
         <v>7023</v>
       </c>
@@ -5931,7 +8533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.5" thickBot="1">
+    <row r="27" spans="1:6" ht="17.25" thickBot="1">
       <c r="A27" s="16">
         <v>7024</v>
       </c>
@@ -5951,7 +8553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.5" thickBot="1">
+    <row r="28" spans="1:6" ht="17.25" thickBot="1">
       <c r="A28" s="16">
         <v>7025</v>
       </c>
@@ -5971,7 +8573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.5" thickBot="1">
+    <row r="29" spans="1:6" ht="17.25" thickBot="1">
       <c r="A29" s="16">
         <v>7026</v>
       </c>
@@ -5991,7 +8593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.5" thickBot="1">
+    <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="16">
         <v>7027</v>
       </c>
@@ -6011,7 +8613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.5" thickBot="1">
+    <row r="31" spans="1:6" ht="17.25" thickBot="1">
       <c r="A31" s="16">
         <v>7028</v>
       </c>
@@ -6031,7 +8633,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.5" thickBot="1">
+    <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="16">
         <v>7029</v>
       </c>
@@ -6051,7 +8653,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17.5" thickBot="1">
+    <row r="33" spans="1:6" ht="17.25" thickBot="1">
       <c r="A33" s="16">
         <v>7030</v>
       </c>
@@ -6071,7 +8673,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17.5" thickBot="1">
+    <row r="34" spans="1:6" ht="17.25" thickBot="1">
       <c r="A34" s="16">
         <v>7031</v>
       </c>
@@ -6091,7 +8693,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.5" thickBot="1">
+    <row r="35" spans="1:6" ht="17.25" thickBot="1">
       <c r="A35" s="16">
         <v>7032</v>
       </c>
@@ -6111,7 +8713,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17.5" thickBot="1">
+    <row r="36" spans="1:6" ht="17.25" thickBot="1">
       <c r="A36" s="16">
         <v>7033</v>
       </c>
@@ -6131,7 +8733,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17.5" thickBot="1">
+    <row r="37" spans="1:6" ht="17.25" thickBot="1">
       <c r="A37" s="16">
         <v>7034</v>
       </c>
@@ -6151,7 +8753,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.5" thickBot="1">
+    <row r="38" spans="1:6" ht="17.25" thickBot="1">
       <c r="A38" s="16">
         <v>7035</v>
       </c>
@@ -6171,7 +8773,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17.5" thickBot="1">
+    <row r="39" spans="1:6" ht="17.25" thickBot="1">
       <c r="A39" s="16">
         <v>7036</v>
       </c>
@@ -6191,7 +8793,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.5" thickBot="1">
+    <row r="40" spans="1:6" ht="17.25" thickBot="1">
       <c r="A40" s="16">
         <v>7037</v>
       </c>
@@ -6211,7 +8813,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17.5" thickBot="1">
+    <row r="41" spans="1:6" ht="17.25" thickBot="1">
       <c r="A41" s="16">
         <v>7038</v>
       </c>
@@ -6231,7 +8833,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17.5" thickBot="1">
+    <row r="42" spans="1:6" ht="17.25" thickBot="1">
       <c r="A42" s="16">
         <v>7039</v>
       </c>
@@ -6251,7 +8853,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.5" thickBot="1">
+    <row r="43" spans="1:6" ht="17.25" thickBot="1">
       <c r="A43" s="16">
         <v>7040</v>
       </c>
@@ -6271,7 +8873,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.5" thickBot="1">
+    <row r="44" spans="1:6" ht="17.25" thickBot="1">
       <c r="A44" s="16">
         <v>7041</v>
       </c>
@@ -6291,7 +8893,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.5" thickBot="1">
+    <row r="45" spans="1:6" ht="17.25" thickBot="1">
       <c r="A45" s="16">
         <v>7042</v>
       </c>
@@ -6311,7 +8913,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17.5" thickBot="1">
+    <row r="46" spans="1:6" ht="17.25" thickBot="1">
       <c r="A46" s="16">
         <v>7043</v>
       </c>
@@ -6331,7 +8933,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="17.5" thickBot="1">
+    <row r="47" spans="1:6" ht="17.25" thickBot="1">
       <c r="A47" s="16">
         <v>7044</v>
       </c>
@@ -6351,7 +8953,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17.5" thickBot="1">
+    <row r="48" spans="1:6" ht="17.25" thickBot="1">
       <c r="A48" s="16">
         <v>7045</v>
       </c>
@@ -6371,7 +8973,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="17.5" thickBot="1">
+    <row r="49" spans="1:6" ht="17.25" thickBot="1">
       <c r="A49" s="16">
         <v>7046</v>
       </c>
@@ -6391,7 +8993,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="17.5" thickBot="1">
+    <row r="50" spans="1:6" ht="17.25" thickBot="1">
       <c r="A50" s="16">
         <v>7047</v>
       </c>
@@ -6411,7 +9013,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17.5" thickBot="1">
+    <row r="51" spans="1:6" ht="17.25" thickBot="1">
       <c r="A51" s="16">
         <v>7048</v>
       </c>
@@ -6431,7 +9033,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17.5" thickBot="1">
+    <row r="52" spans="1:6" ht="17.25" thickBot="1">
       <c r="A52" s="16">
         <v>7049</v>
       </c>
@@ -6451,7 +9053,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="17.5" thickBot="1">
+    <row r="53" spans="1:6" ht="17.25" thickBot="1">
       <c r="A53" s="16">
         <v>7050</v>
       </c>
@@ -6471,7 +9073,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="17.5" thickBot="1">
+    <row r="54" spans="1:6" ht="17.25" thickBot="1">
       <c r="A54" s="14">
         <v>7051</v>
       </c>
@@ -6491,7 +9093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="17.5" thickBot="1">
+    <row r="55" spans="1:6" ht="17.25" thickBot="1">
       <c r="A55" s="16">
         <v>7052</v>
       </c>
@@ -6511,7 +9113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="17.5" thickBot="1">
+    <row r="56" spans="1:6" ht="17.25" thickBot="1">
       <c r="A56" s="16">
         <v>7053</v>
       </c>
@@ -6531,7 +9133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="17.5" thickBot="1">
+    <row r="57" spans="1:6" ht="17.25" thickBot="1">
       <c r="A57" s="16">
         <v>7054</v>
       </c>
@@ -6551,7 +9153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="17.5" thickBot="1">
+    <row r="58" spans="1:6" ht="17.25" thickBot="1">
       <c r="A58" s="16">
         <v>7055</v>
       </c>
@@ -6571,7 +9173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="17.5" thickBot="1">
+    <row r="59" spans="1:6" ht="17.25" thickBot="1">
       <c r="A59" s="16">
         <v>7056</v>
       </c>
@@ -6591,7 +9193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17.5" thickBot="1">
+    <row r="60" spans="1:6" ht="17.25" thickBot="1">
       <c r="A60" s="16">
         <v>7057</v>
       </c>
@@ -6611,7 +9213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="17.5" thickBot="1">
+    <row r="61" spans="1:6" ht="17.25" thickBot="1">
       <c r="A61" s="16">
         <v>7058</v>
       </c>
@@ -6631,7 +9233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="17.5" thickBot="1">
+    <row r="62" spans="1:6" ht="17.25" thickBot="1">
       <c r="A62" s="16">
         <v>7059</v>
       </c>
@@ -6651,7 +9253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="17.5" thickBot="1">
+    <row r="63" spans="1:6" ht="17.25" thickBot="1">
       <c r="A63" s="16">
         <v>7060</v>
       </c>
@@ -6671,7 +9273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="17.5" thickBot="1">
+    <row r="64" spans="1:6" ht="17.25" thickBot="1">
       <c r="A64" s="16">
         <v>7061</v>
       </c>
@@ -6691,7 +9293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="17.5" thickBot="1">
+    <row r="65" spans="1:6" ht="17.25" thickBot="1">
       <c r="A65" s="16">
         <v>7062</v>
       </c>
@@ -6711,7 +9313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="17.5" thickBot="1">
+    <row r="66" spans="1:6" ht="17.25" thickBot="1">
       <c r="A66" s="16">
         <v>7063</v>
       </c>
@@ -6731,7 +9333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="17.5" thickBot="1">
+    <row r="67" spans="1:6" ht="17.25" thickBot="1">
       <c r="A67" s="16">
         <v>7064</v>
       </c>
@@ -6751,7 +9353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="17.5" thickBot="1">
+    <row r="68" spans="1:6" ht="17.25" thickBot="1">
       <c r="A68" s="16">
         <v>7065</v>
       </c>
@@ -6771,7 +9373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="17.5" thickBot="1">
+    <row r="69" spans="1:6" ht="17.25" thickBot="1">
       <c r="A69" s="16">
         <v>7066</v>
       </c>
@@ -6791,7 +9393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="17.5" thickBot="1">
+    <row r="70" spans="1:6" ht="17.25" thickBot="1">
       <c r="A70" s="16">
         <v>7067</v>
       </c>
@@ -6811,7 +9413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="17.5" thickBot="1">
+    <row r="71" spans="1:6" ht="17.25" thickBot="1">
       <c r="A71" s="16">
         <v>7068</v>
       </c>
@@ -6831,7 +9433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="17.5" thickBot="1">
+    <row r="72" spans="1:6" ht="17.25" thickBot="1">
       <c r="A72" s="16">
         <v>7069</v>
       </c>
@@ -6851,7 +9453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="17.5" thickBot="1">
+    <row r="73" spans="1:6" ht="17.25" thickBot="1">
       <c r="A73" s="16">
         <v>7070</v>
       </c>
@@ -6871,7 +9473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="17.5" thickBot="1">
+    <row r="74" spans="1:6" ht="17.25" thickBot="1">
       <c r="A74" s="16">
         <v>7071</v>
       </c>
@@ -6891,7 +9493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="17.5" thickBot="1">
+    <row r="75" spans="1:6" ht="17.25" thickBot="1">
       <c r="A75" s="16">
         <v>7072</v>
       </c>
@@ -6911,7 +9513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="17.5" thickBot="1">
+    <row r="76" spans="1:6" ht="17.25" thickBot="1">
       <c r="A76" s="16">
         <v>7073</v>
       </c>
@@ -6931,7 +9533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="17.5" thickBot="1">
+    <row r="77" spans="1:6" ht="17.25" thickBot="1">
       <c r="A77" s="16">
         <v>7074</v>
       </c>
@@ -6951,7 +9553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="17.5" thickBot="1">
+    <row r="78" spans="1:6" ht="17.25" thickBot="1">
       <c r="A78" s="16">
         <v>7075</v>
       </c>
@@ -6971,7 +9573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="17.5" thickBot="1">
+    <row r="79" spans="1:6" ht="17.25" thickBot="1">
       <c r="A79" s="16">
         <v>7076</v>
       </c>
@@ -6991,7 +9593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="17.5" thickBot="1">
+    <row r="80" spans="1:6" ht="17.25" thickBot="1">
       <c r="A80" s="16">
         <v>7077</v>
       </c>
@@ -7011,7 +9613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="17.5" thickBot="1">
+    <row r="81" spans="1:6" ht="17.25" thickBot="1">
       <c r="A81" s="16">
         <v>7078</v>
       </c>
@@ -7031,7 +9633,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="17.5" thickBot="1">
+    <row r="82" spans="1:6" ht="17.25" thickBot="1">
       <c r="A82" s="16">
         <v>7079</v>
       </c>
@@ -7051,7 +9653,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="17.5" thickBot="1">
+    <row r="83" spans="1:6" ht="17.25" thickBot="1">
       <c r="A83" s="16">
         <v>7080</v>
       </c>
@@ -7071,7 +9673,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="17.5" thickBot="1">
+    <row r="84" spans="1:6" ht="17.25" thickBot="1">
       <c r="A84" s="16">
         <v>7081</v>
       </c>
@@ -7091,7 +9693,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="17.5" thickBot="1">
+    <row r="85" spans="1:6" ht="17.25" thickBot="1">
       <c r="A85" s="16">
         <v>7082</v>
       </c>
@@ -7111,7 +9713,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17.5" thickBot="1">
+    <row r="86" spans="1:6" ht="17.25" thickBot="1">
       <c r="A86" s="16">
         <v>7083</v>
       </c>
@@ -7131,7 +9733,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="17.5" thickBot="1">
+    <row r="87" spans="1:6" ht="17.25" thickBot="1">
       <c r="A87" s="16">
         <v>7084</v>
       </c>
@@ -7151,7 +9753,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="17.5" thickBot="1">
+    <row r="88" spans="1:6" ht="17.25" thickBot="1">
       <c r="A88" s="16">
         <v>7085</v>
       </c>
@@ -7171,7 +9773,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="17.5" thickBot="1">
+    <row r="89" spans="1:6" ht="17.25" thickBot="1">
       <c r="A89" s="16">
         <v>7086</v>
       </c>
@@ -7191,7 +9793,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="17.5" thickBot="1">
+    <row r="90" spans="1:6" ht="17.25" thickBot="1">
       <c r="A90" s="16">
         <v>7087</v>
       </c>
@@ -7211,7 +9813,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="17.5" thickBot="1">
+    <row r="91" spans="1:6" ht="17.25" thickBot="1">
       <c r="A91" s="16">
         <v>7088</v>
       </c>
@@ -7231,7 +9833,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="17.5" thickBot="1">
+    <row r="92" spans="1:6" ht="17.25" thickBot="1">
       <c r="A92" s="16">
         <v>7089</v>
       </c>
@@ -7251,7 +9853,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="17.5" thickBot="1">
+    <row r="93" spans="1:6" ht="17.25" thickBot="1">
       <c r="A93" s="16">
         <v>7090</v>
       </c>
@@ -7271,7 +9873,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="17.5" thickBot="1">
+    <row r="94" spans="1:6" ht="17.25" thickBot="1">
       <c r="A94" s="16">
         <v>7091</v>
       </c>
@@ -7291,7 +9893,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="17.5" thickBot="1">
+    <row r="95" spans="1:6" ht="17.25" thickBot="1">
       <c r="A95" s="16">
         <v>7092</v>
       </c>
@@ -7311,7 +9913,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="17.5" thickBot="1">
+    <row r="96" spans="1:6" ht="17.25" thickBot="1">
       <c r="A96" s="16">
         <v>7093</v>
       </c>
@@ -7331,7 +9933,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="17.5" thickBot="1">
+    <row r="97" spans="1:6" ht="17.25" thickBot="1">
       <c r="A97" s="16">
         <v>7094</v>
       </c>
@@ -7351,7 +9953,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="17.5" thickBot="1">
+    <row r="98" spans="1:6" ht="17.25" thickBot="1">
       <c r="A98" s="16">
         <v>7095</v>
       </c>
@@ -7371,7 +9973,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="17.5" thickBot="1">
+    <row r="99" spans="1:6" ht="17.25" thickBot="1">
       <c r="A99" s="16">
         <v>7096</v>
       </c>
@@ -7391,7 +9993,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="17.5" thickBot="1">
+    <row r="100" spans="1:6" ht="17.25" thickBot="1">
       <c r="A100" s="16">
         <v>7097</v>
       </c>
@@ -7411,7 +10013,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="17.5" thickBot="1">
+    <row r="101" spans="1:6" ht="17.25" thickBot="1">
       <c r="A101" s="16">
         <v>7098</v>
       </c>
@@ -7431,7 +10033,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="17.5" thickBot="1">
+    <row r="102" spans="1:6" ht="17.25" thickBot="1">
       <c r="A102" s="16">
         <v>7099</v>
       </c>
@@ -7451,7 +10053,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="17.5" thickBot="1">
+    <row r="103" spans="1:6" ht="17.25" thickBot="1">
       <c r="A103" s="16">
         <v>7100</v>
       </c>
@@ -7486,10 +10088,10 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="104.83203125" customWidth="1"/>
-    <col min="3" max="3" width="7.08203125" customWidth="1"/>
+    <col min="2" max="2" width="104.875" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7536,7 +10138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="51">
+    <row r="5" spans="1:3" ht="49.5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7547,7 +10149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="85">
+    <row r="6" spans="1:3" ht="82.5">
       <c r="A6">
         <v>2</v>
       </c>
@@ -7558,7 +10160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="85">
+    <row r="7" spans="1:3" ht="82.5">
       <c r="A7">
         <v>3</v>
       </c>
@@ -7569,7 +10171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51">
+    <row r="8" spans="1:3" ht="49.5">
       <c r="A8">
         <v>4</v>
       </c>
@@ -7580,7 +10182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="85">
+    <row r="9" spans="1:3" ht="82.5">
       <c r="A9">
         <v>5</v>
       </c>
@@ -7591,7 +10193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="68">
+    <row r="10" spans="1:3" ht="66">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7602,7 +10204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="51">
+    <row r="11" spans="1:3" ht="49.5">
       <c r="A11">
         <v>7</v>
       </c>
@@ -7613,7 +10215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="68">
+    <row r="12" spans="1:3" ht="66">
       <c r="A12">
         <v>8</v>
       </c>
@@ -7624,7 +10226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34">
+    <row r="13" spans="1:3" ht="33">
       <c r="A13">
         <v>9</v>
       </c>
@@ -7635,7 +10237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="119">
+    <row r="14" spans="1:3" ht="115.5">
       <c r="A14">
         <v>10</v>
       </c>
@@ -7646,7 +10248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="85">
+    <row r="15" spans="1:3" ht="82.5">
       <c r="A15">
         <v>11</v>
       </c>
@@ -7683,14 +10285,14 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" customWidth="1"/>
-    <col min="3" max="3" width="22.58203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7739,7 +10341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.5" thickBot="1">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -7762,7 +10364,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.5" thickBot="1">
+    <row r="4" spans="1:7" ht="17.25" thickBot="1">
       <c r="A4" s="14">
         <v>401</v>
       </c>
@@ -7785,7 +10387,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.5" thickBot="1">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1">
       <c r="A5" s="16">
         <v>402</v>
       </c>
@@ -7808,7 +10410,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.5" thickBot="1">
+    <row r="6" spans="1:7" ht="17.25" thickBot="1">
       <c r="A6" s="16">
         <v>403</v>
       </c>
@@ -7831,7 +10433,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.5" thickBot="1">
+    <row r="7" spans="1:7" ht="17.25" thickBot="1">
       <c r="A7" s="16">
         <v>404</v>
       </c>
@@ -7854,7 +10456,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.5" thickBot="1">
+    <row r="8" spans="1:7" ht="17.25" thickBot="1">
       <c r="A8" s="16">
         <v>405</v>
       </c>
@@ -7877,7 +10479,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.5" thickBot="1">
+    <row r="9" spans="1:7" ht="17.25" thickBot="1">
       <c r="A9" s="16">
         <v>406</v>
       </c>
@@ -7900,7 +10502,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.5" thickBot="1">
+    <row r="10" spans="1:7" ht="17.25" thickBot="1">
       <c r="A10" s="16">
         <v>407</v>
       </c>
@@ -7923,7 +10525,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.5" thickBot="1">
+    <row r="11" spans="1:7" ht="17.25" thickBot="1">
       <c r="A11" s="16">
         <v>408</v>
       </c>
@@ -7946,7 +10548,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.5" thickBot="1">
+    <row r="12" spans="1:7" ht="17.25" thickBot="1">
       <c r="A12" s="16">
         <v>409</v>
       </c>
@@ -7969,7 +10571,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.5" thickBot="1">
+    <row r="13" spans="1:7" ht="17.25" thickBot="1">
       <c r="A13" s="16">
         <v>410</v>
       </c>
@@ -8007,13 +10609,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.58203125" customWidth="1"/>
-    <col min="6" max="6" width="13.58203125" customWidth="1"/>
-    <col min="7" max="7" width="19.08203125" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -8062,7 +10664,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.5" thickBot="1">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -8085,7 +10687,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.5" thickBot="1">
+    <row r="4" spans="1:7" ht="17.25" thickBot="1">
       <c r="A4" s="14">
         <v>501</v>
       </c>
@@ -8108,7 +10710,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.5" thickBot="1">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1">
       <c r="A5" s="16">
         <v>502</v>
       </c>
@@ -8131,7 +10733,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.5" thickBot="1">
+    <row r="6" spans="1:7" ht="17.25" thickBot="1">
       <c r="A6" s="16">
         <v>503</v>
       </c>
@@ -8154,7 +10756,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.5" thickBot="1">
+    <row r="7" spans="1:7" ht="17.25" thickBot="1">
       <c r="A7" s="16">
         <v>504</v>
       </c>
@@ -8177,7 +10779,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.5" thickBot="1">
+    <row r="8" spans="1:7" ht="17.25" thickBot="1">
       <c r="A8" s="16">
         <v>505</v>
       </c>
@@ -8215,21 +10817,21 @@
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" customWidth="1"/>
-    <col min="2" max="2" width="31.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -8373,7 +10975,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="51">
+    <row r="4" spans="1:15" ht="49.5">
       <c r="A4">
         <v>3001</v>
       </c>
@@ -8420,7 +11022,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="51">
+    <row r="5" spans="1:15" ht="49.5">
       <c r="A5">
         <v>3002</v>
       </c>
@@ -8467,7 +11069,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="68">
+    <row r="6" spans="1:15" ht="66">
       <c r="A6">
         <v>3003</v>
       </c>
@@ -8514,7 +11116,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="51">
+    <row r="7" spans="1:15" ht="49.5">
       <c r="A7">
         <v>3004</v>
       </c>
@@ -8561,7 +11163,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="51">
+    <row r="8" spans="1:15" ht="49.5">
       <c r="A8">
         <v>3005</v>
       </c>
@@ -8608,7 +11210,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="51">
+    <row r="9" spans="1:15" ht="49.5">
       <c r="A9">
         <v>3006</v>
       </c>
@@ -8655,7 +11257,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="51">
+    <row r="10" spans="1:15" ht="49.5">
       <c r="A10">
         <v>3007</v>
       </c>
@@ -8702,7 +11304,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="51">
+    <row r="11" spans="1:15" ht="49.5">
       <c r="A11">
         <v>3008</v>
       </c>
@@ -8764,15 +11366,15 @@
       <selection sqref="A1:M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -9774,7 +12376,7 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="37" style="1" customWidth="1"/>
@@ -10424,7 +13026,7 @@
       <selection activeCell="E1" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Portfolio\Oilnam\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3594E3-9F76-4008-BC71-B2F8BB8CACD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FF0142-FE86-41CB-842D-EF6BFBE85247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="5430" yWindow="1150" windowWidth="19200" windowHeight="11170" firstSheet="1" activeTab="9" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <sheet name="Shop" sheetId="11" r:id="rId10"/>
     <sheet name="Goods" sheetId="12" r:id="rId11"/>
     <sheet name="TIP" sheetId="10" r:id="rId12"/>
-    <sheet name="LevelPass" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="359">
   <si>
     <t>Name</t>
   </si>
@@ -1095,9 +1094,6 @@
     <t>Availiable_Count</t>
   </si>
   <si>
-    <t>Availiable_Time</t>
-  </si>
-  <si>
     <t>골드</t>
   </si>
   <si>
@@ -1143,9 +1139,6 @@
     <t>켠왕 패키지</t>
   </si>
   <si>
-    <t>켠왕 도전! 삼각 김밥보다 싸다!</t>
-  </si>
-  <si>
     <t>골든 패스</t>
   </si>
   <si>
@@ -1347,39 +1340,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldenType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldenValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FreeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FreeValue</t>
+    <t>14.55배 가치</t>
+  </si>
+  <si>
+    <t>1.2배 가치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.21배 가치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠 1개를 구매합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Availiable_Time 상품 재구매시 필요 기간 (단위 : day)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집권 300장\n골드 500개를 구매합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1387,7 +1379,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1443,6 +1435,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1470,7 +1469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1553,6 +1552,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1560,7 +1570,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1644,6 +1654,18 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1966,14 +1988,14 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="5" max="6" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="5" max="6" width="11.58203125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2058,7 +2080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:13" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -4158,87 +4180,91 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D50587-6B81-48DF-A8DB-00F001E27D99}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="33.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
-    <col min="9" max="9" width="15.75" customWidth="1"/>
-    <col min="10" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="14.25" customWidth="1"/>
-    <col min="15" max="16" width="14.875" customWidth="1"/>
-    <col min="17" max="17" width="13.625" customWidth="1"/>
-    <col min="18" max="18" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.9140625" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="15.08203125" customWidth="1"/>
+    <col min="10" max="10" width="15.75" customWidth="1"/>
+    <col min="11" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="14.25" customWidth="1"/>
+    <col min="16" max="17" width="14.83203125" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>261</v>
       </c>
       <c r="B1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D1" t="s">
         <v>133</v>
       </c>
       <c r="E1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F1" t="s">
         <v>262</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>263</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>264</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>265</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>266</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>267</v>
       </c>
-      <c r="K1" t="s">
-        <v>346</v>
-      </c>
       <c r="L1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M1" t="s">
+        <v>345</v>
+      </c>
+      <c r="N1" t="s">
         <v>268</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>269</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>270</v>
       </c>
-      <c r="P1" t="s">
-        <v>350</v>
-      </c>
       <c r="Q1" t="s">
+        <v>348</v>
+      </c>
+      <c r="R1" t="s">
         <v>271</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19" ht="17.5" thickBot="1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4252,7 +4278,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -4270,13 +4296,13 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
         <v>2</v>
@@ -4285,93 +4311,99 @@
         <v>2</v>
       </c>
       <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" t="s">
-        <v>2</v>
-      </c>
       <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19" ht="17.5" thickBot="1">
       <c r="A3" t="s">
         <v>32</v>
       </c>
       <c r="B3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" t="s">
         <v>318</v>
-      </c>
-      <c r="C3" t="s">
-        <v>320</v>
       </c>
       <c r="D3" t="s">
         <v>133</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="F3" t="s">
         <v>272</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>273</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>274</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>275</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>276</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>277</v>
       </c>
-      <c r="K3" t="s">
-        <v>348</v>
-      </c>
       <c r="L3" t="s">
+        <v>346</v>
+      </c>
+      <c r="M3" t="s">
+        <v>347</v>
+      </c>
+      <c r="N3" t="s">
+        <v>278</v>
+      </c>
+      <c r="O3" t="s">
+        <v>279</v>
+      </c>
+      <c r="P3" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q3" t="s">
         <v>349</v>
       </c>
-      <c r="M3" t="s">
-        <v>278</v>
-      </c>
-      <c r="N3" t="s">
-        <v>279</v>
-      </c>
-      <c r="O3" t="s">
-        <v>280</v>
-      </c>
-      <c r="P3" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>281</v>
-      </c>
       <c r="R3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>356</v>
+      </c>
+      <c r="S3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="17.5" thickBot="1">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" t="s">
         <v>282</v>
       </c>
-      <c r="C4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E4">
+      <c r="E4" s="29">
+        <v>-1</v>
+      </c>
+      <c r="F4">
         <v>1501</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1800</v>
       </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
       <c r="H4">
         <v>-1</v>
       </c>
@@ -4381,53 +4413,56 @@
       <c r="J4">
         <v>-1</v>
       </c>
-      <c r="K4" t="b">
-        <v>0</v>
+      <c r="K4">
+        <v>-1</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>1502</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>100</v>
       </c>
-      <c r="O4">
-        <v>-1</v>
-      </c>
-      <c r="P4" t="b">
+      <c r="P4">
+        <v>-1</v>
+      </c>
+      <c r="Q4" t="b">
         <v>0</v>
       </c>
-      <c r="Q4">
-        <v>-1</v>
-      </c>
-      <c r="R4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="R4">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="17.5" thickBot="1">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E5">
+        <v>283</v>
+      </c>
+      <c r="E5" s="29">
+        <v>-1</v>
+      </c>
+      <c r="F5">
         <v>1501</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5400</v>
       </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
       <c r="H5">
         <v>-1</v>
       </c>
@@ -4437,53 +4472,56 @@
       <c r="J5">
         <v>-1</v>
       </c>
-      <c r="K5" t="b">
-        <v>0</v>
+      <c r="K5">
+        <v>-1</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>1502</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>300</v>
       </c>
-      <c r="O5">
-        <v>-1</v>
-      </c>
-      <c r="P5" t="b">
+      <c r="P5">
+        <v>-1</v>
+      </c>
+      <c r="Q5" t="b">
         <v>0</v>
       </c>
-      <c r="Q5">
-        <v>-1</v>
-      </c>
-      <c r="R5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="R5">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="17.5" thickBot="1">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E6">
+        <v>284</v>
+      </c>
+      <c r="E6" s="29">
+        <v>-1</v>
+      </c>
+      <c r="F6">
         <v>1501</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>10800</v>
       </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
       <c r="H6">
         <v>-1</v>
       </c>
@@ -4493,53 +4531,56 @@
       <c r="J6">
         <v>-1</v>
       </c>
-      <c r="K6" t="b">
-        <v>0</v>
+      <c r="K6">
+        <v>-1</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>1502</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>600</v>
       </c>
-      <c r="O6">
-        <v>-1</v>
-      </c>
-      <c r="P6" t="b">
+      <c r="P6">
+        <v>-1</v>
+      </c>
+      <c r="Q6" t="b">
         <v>0</v>
       </c>
-      <c r="Q6">
-        <v>-1</v>
-      </c>
-      <c r="R6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="R6">
+        <v>-1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="17.5" thickBot="1">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" t="s">
         <v>286</v>
       </c>
-      <c r="C7" t="s">
-        <v>324</v>
-      </c>
-      <c r="D7" t="s">
-        <v>287</v>
-      </c>
-      <c r="E7">
+      <c r="E7" s="29">
+        <v>-1</v>
+      </c>
+      <c r="F7">
         <v>1502</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>200</v>
       </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
       <c r="H7">
         <v>-1</v>
       </c>
@@ -4549,53 +4590,56 @@
       <c r="J7">
         <v>-1</v>
       </c>
-      <c r="K7" t="b">
-        <v>1</v>
+      <c r="K7">
+        <v>-1</v>
       </c>
       <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="b">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>-1</v>
-      </c>
-      <c r="N7" s="27">
+      <c r="N7">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="27">
         <v>1200</v>
       </c>
-      <c r="O7">
-        <v>-1</v>
-      </c>
-      <c r="P7" t="b">
+      <c r="P7">
+        <v>-1</v>
+      </c>
+      <c r="Q7" t="b">
         <v>0</v>
       </c>
-      <c r="Q7">
-        <v>-1</v>
-      </c>
-      <c r="R7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="R7">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="17.5" thickBot="1">
       <c r="A8">
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E8">
+        <v>287</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="F8">
         <v>1502</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1200</v>
       </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
       <c r="H8">
         <v>-1</v>
       </c>
@@ -4605,53 +4649,56 @@
       <c r="J8">
         <v>-1</v>
       </c>
-      <c r="K8" t="b">
-        <v>1</v>
+      <c r="K8">
+        <v>-1</v>
       </c>
       <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="b">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>-1</v>
-      </c>
-      <c r="N8" s="27">
+      <c r="N8">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="27">
         <v>5900</v>
       </c>
-      <c r="O8">
-        <v>-1</v>
-      </c>
-      <c r="P8" t="b">
+      <c r="P8">
+        <v>-1</v>
+      </c>
+      <c r="Q8" t="b">
         <v>0</v>
       </c>
-      <c r="Q8">
-        <v>-1</v>
-      </c>
-      <c r="R8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="R8">
+        <v>-1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="17.5" thickBot="1">
       <c r="A9">
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D9" t="s">
-        <v>289</v>
-      </c>
-      <c r="E9">
+        <v>288</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="F9">
         <v>1502</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2000</v>
       </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
       <c r="H9">
         <v>-1</v>
       </c>
@@ -4661,52 +4708,55 @@
       <c r="J9">
         <v>-1</v>
       </c>
-      <c r="K9" t="b">
-        <v>1</v>
+      <c r="K9">
+        <v>-1</v>
       </c>
       <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>-1</v>
-      </c>
-      <c r="N9" s="27">
+      <c r="N9">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="27">
         <v>9900</v>
       </c>
-      <c r="O9">
-        <v>-1</v>
-      </c>
-      <c r="P9" t="b">
+      <c r="P9">
+        <v>-1</v>
+      </c>
+      <c r="Q9" t="b">
         <v>0</v>
       </c>
-      <c r="Q9">
-        <v>-1</v>
-      </c>
-      <c r="R9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="R9">
+        <v>-1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="17.5" thickBot="1">
       <c r="A10">
         <v>1007</v>
       </c>
       <c r="B10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" t="s">
         <v>290</v>
       </c>
-      <c r="C10" t="s">
-        <v>327</v>
-      </c>
-      <c r="D10" t="s">
-        <v>291</v>
-      </c>
-      <c r="E10">
+      <c r="E10" s="29">
+        <v>-1</v>
+      </c>
+      <c r="F10">
         <v>1504</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>-1</v>
@@ -4717,53 +4767,56 @@
       <c r="J10">
         <v>-1</v>
       </c>
-      <c r="K10" t="b">
-        <v>0</v>
+      <c r="K10">
+        <v>-1</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>1502</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>8</v>
       </c>
-      <c r="O10">
-        <v>-1</v>
-      </c>
-      <c r="P10" t="b">
+      <c r="P10">
+        <v>-1</v>
+      </c>
+      <c r="Q10" t="b">
         <v>0</v>
       </c>
-      <c r="Q10">
-        <v>-1</v>
-      </c>
-      <c r="R10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="R10">
+        <v>-1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="17.5" thickBot="1">
       <c r="A11">
         <v>1008</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D11" t="s">
-        <v>292</v>
-      </c>
-      <c r="E11">
+        <v>291</v>
+      </c>
+      <c r="E11" s="29">
+        <v>-1</v>
+      </c>
+      <c r="F11">
         <v>1504</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>30</v>
       </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
       <c r="H11">
         <v>-1</v>
       </c>
@@ -4773,53 +4826,56 @@
       <c r="J11">
         <v>-1</v>
       </c>
-      <c r="K11" t="b">
-        <v>0</v>
+      <c r="K11">
+        <v>-1</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>1502</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>240</v>
       </c>
-      <c r="O11">
-        <v>-1</v>
-      </c>
-      <c r="P11" t="b">
+      <c r="P11">
+        <v>-1</v>
+      </c>
+      <c r="Q11" t="b">
         <v>0</v>
       </c>
-      <c r="Q11">
-        <v>-1</v>
-      </c>
-      <c r="R11" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="R11">
+        <v>-1</v>
+      </c>
+      <c r="S11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="17.5" thickBot="1">
       <c r="A12">
         <v>1009</v>
       </c>
       <c r="B12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D12" t="s">
-        <v>293</v>
-      </c>
-      <c r="E12">
+        <v>292</v>
+      </c>
+      <c r="E12" s="29">
+        <v>-1</v>
+      </c>
+      <c r="F12">
         <v>1504</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>300</v>
       </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
       <c r="H12">
         <v>-1</v>
       </c>
@@ -4829,53 +4885,56 @@
       <c r="J12">
         <v>-1</v>
       </c>
-      <c r="K12" t="b">
-        <v>0</v>
+      <c r="K12">
+        <v>-1</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12">
         <v>1502</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2400</v>
       </c>
-      <c r="O12">
-        <v>-1</v>
-      </c>
-      <c r="P12" t="b">
+      <c r="P12">
+        <v>-1</v>
+      </c>
+      <c r="Q12" t="b">
         <v>0</v>
       </c>
-      <c r="Q12">
-        <v>-1</v>
-      </c>
-      <c r="R12" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="R12">
+        <v>-1</v>
+      </c>
+      <c r="S12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="17.5" thickBot="1">
       <c r="A13">
         <v>1010</v>
       </c>
       <c r="B13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D13" t="s">
         <v>294</v>
       </c>
-      <c r="C13" t="s">
-        <v>330</v>
-      </c>
-      <c r="D13" t="s">
-        <v>295</v>
-      </c>
-      <c r="E13">
+      <c r="E13" s="29">
+        <v>-1</v>
+      </c>
+      <c r="F13">
         <v>1502</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>25</v>
       </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
       <c r="H13">
         <v>-1</v>
       </c>
@@ -4885,88 +4944,94 @@
       <c r="J13">
         <v>-1</v>
       </c>
-      <c r="K13" t="b">
+      <c r="K13">
+        <v>-1</v>
+      </c>
+      <c r="L13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>-1</v>
+      <c r="M13" t="b">
+        <v>1</v>
       </c>
       <c r="N13">
         <v>-1</v>
       </c>
       <c r="O13">
-        <v>2</v>
-      </c>
-      <c r="P13" t="b">
+        <v>-1</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="b">
         <v>0</v>
       </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="17.5" thickBot="1">
       <c r="A14">
         <v>1011</v>
       </c>
       <c r="B14" t="s">
-        <v>298</v>
+        <v>354</v>
       </c>
       <c r="C14" t="s">
-        <v>332</v>
-      </c>
-      <c r="D14" t="s">
-        <v>299</v>
-      </c>
-      <c r="E14">
-        <v>1501</v>
+        <v>354</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="E14" s="31">
+        <v>-1</v>
       </c>
       <c r="F14">
-        <v>600</v>
+        <v>1503</v>
       </c>
       <c r="G14">
-        <v>1502</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>200</v>
+        <v>-1</v>
       </c>
       <c r="I14">
-        <v>1504</v>
+        <v>-1</v>
       </c>
       <c r="J14">
-        <v>30</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="K14">
+        <v>-1</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>-1</v>
-      </c>
-      <c r="N14" s="27">
-        <v>4900</v>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1501</v>
       </c>
       <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>-1</v>
-      </c>
-      <c r="R14" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>100</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>-1</v>
+      </c>
+      <c r="S14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="17.5" thickBot="1">
       <c r="A15">
         <v>1012</v>
       </c>
@@ -4974,52 +5039,114 @@
         <v>296</v>
       </c>
       <c r="C15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D15" t="s">
         <v>297</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="F15">
         <v>1501</v>
       </c>
-      <c r="F15">
+      <c r="G15">
+        <v>600</v>
+      </c>
+      <c r="H15">
+        <v>1502</v>
+      </c>
+      <c r="I15">
+        <v>200</v>
+      </c>
+      <c r="J15">
+        <v>1504</v>
+      </c>
+      <c r="K15">
+        <v>30</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="27">
+        <v>4900</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>-1</v>
+      </c>
+      <c r="S15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="17.5" thickBot="1">
+      <c r="A16">
+        <v>1013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" t="s">
+        <v>329</v>
+      </c>
+      <c r="D16" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" s="29">
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <v>1501</v>
+      </c>
+      <c r="G16">
         <v>500</v>
       </c>
-      <c r="G15">
+      <c r="H16">
         <v>1504</v>
       </c>
-      <c r="H15">
+      <c r="I16">
         <v>300</v>
       </c>
-      <c r="I15">
-        <v>-1</v>
-      </c>
-      <c r="J15">
-        <v>-1</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="b">
+      <c r="J16">
+        <v>-1</v>
+      </c>
+      <c r="K16">
+        <v>-1</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>-1</v>
-      </c>
-      <c r="N15" s="27">
+      <c r="N16">
+        <v>-1</v>
+      </c>
+      <c r="O16" s="27">
         <v>1100</v>
       </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>-1</v>
-      </c>
-      <c r="R15" t="s">
-        <v>344</v>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>-1</v>
+      </c>
+      <c r="S16" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -5037,10 +5164,10 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="39.625" customWidth="1"/>
+    <col min="3" max="3" width="39.58203125" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5049,7 +5176,7 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C1" t="s">
         <v>171</v>
@@ -5058,7 +5185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" thickBot="1">
+    <row r="2" spans="1:4" ht="17.5" thickBot="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5072,32 +5199,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" thickBot="1">
+    <row r="3" spans="1:4" ht="17.5" thickBot="1">
       <c r="A3" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>133</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" thickBot="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.5" thickBot="1">
       <c r="A4" s="16">
         <v>1501</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" thickBot="1">
@@ -5105,69 +5232,69 @@
         <v>1502</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="21.95" customHeight="1" thickBot="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22" customHeight="1" thickBot="1">
       <c r="A6" s="16">
         <v>1503</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" thickBot="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.5" customHeight="1" thickBot="1">
       <c r="A7" s="16">
         <v>1504</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="21.6" customHeight="1" thickBot="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21.5" customHeight="1" thickBot="1">
       <c r="A8" s="16">
         <v>1505</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21.95" customHeight="1" thickBot="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="22" customHeight="1" thickBot="1">
       <c r="A9" s="16">
         <v>1506</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -5181,12 +5308,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6926D4-C54F-410A-A670-136E7C30B884}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5265,2737 +5394,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1FF4F24-FB0E-440A-9C75-674911EB633F}">
-  <dimension ref="A1:F145"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>600</v>
-      </c>
-      <c r="F4" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>10002</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>200</v>
-      </c>
-      <c r="F5" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>10003</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>600</v>
-      </c>
-      <c r="F6" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>10004</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>200</v>
-      </c>
-      <c r="F7" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>10005</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>600</v>
-      </c>
-      <c r="F8" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>10006</v>
-      </c>
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>200</v>
-      </c>
-      <c r="F9" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>10007</v>
-      </c>
-      <c r="B10" s="1">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>600</v>
-      </c>
-      <c r="F10" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>10008</v>
-      </c>
-      <c r="B11" s="1">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>600</v>
-      </c>
-      <c r="F11" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>10009</v>
-      </c>
-      <c r="B12" s="1">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>200</v>
-      </c>
-      <c r="F12" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>10010</v>
-      </c>
-      <c r="B13" s="1">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>600</v>
-      </c>
-      <c r="F13" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>10011</v>
-      </c>
-      <c r="B14" s="1">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>200</v>
-      </c>
-      <c r="F14" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>10012</v>
-      </c>
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>600</v>
-      </c>
-      <c r="F15" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>10013</v>
-      </c>
-      <c r="B16" s="1">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>200</v>
-      </c>
-      <c r="F16" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>10014</v>
-      </c>
-      <c r="B17" s="1">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>600</v>
-      </c>
-      <c r="F17" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>10015</v>
-      </c>
-      <c r="B18" s="1">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>600</v>
-      </c>
-      <c r="F18" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
-        <v>10016</v>
-      </c>
-      <c r="B19" s="1">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1">
-        <v>200</v>
-      </c>
-      <c r="F19" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>10017</v>
-      </c>
-      <c r="B20" s="1">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>600</v>
-      </c>
-      <c r="F20" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1">
-        <v>10018</v>
-      </c>
-      <c r="B21" s="1">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>200</v>
-      </c>
-      <c r="F21" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1">
-        <v>10019</v>
-      </c>
-      <c r="B22" s="1">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>600</v>
-      </c>
-      <c r="F22" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1">
-        <v>10020</v>
-      </c>
-      <c r="B23" s="1">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1">
-        <v>200</v>
-      </c>
-      <c r="F23" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1">
-        <v>10021</v>
-      </c>
-      <c r="B24" s="1">
-        <v>21</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1">
-        <v>600</v>
-      </c>
-      <c r="F24" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1">
-        <v>10022</v>
-      </c>
-      <c r="B25" s="1">
-        <v>22</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>600</v>
-      </c>
-      <c r="F25" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1">
-        <v>10023</v>
-      </c>
-      <c r="B26" s="1">
-        <v>23</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1">
-        <v>200</v>
-      </c>
-      <c r="F26" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1">
-        <v>10024</v>
-      </c>
-      <c r="B27" s="1">
-        <v>24</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
-        <v>600</v>
-      </c>
-      <c r="F27" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1">
-        <v>10025</v>
-      </c>
-      <c r="B28" s="1">
-        <v>25</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1">
-        <v>200</v>
-      </c>
-      <c r="F28" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1">
-        <v>10026</v>
-      </c>
-      <c r="B29" s="1">
-        <v>26</v>
-      </c>
-      <c r="C29" s="1">
-        <v>2</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
-        <v>600</v>
-      </c>
-      <c r="F29" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1">
-        <v>10027</v>
-      </c>
-      <c r="B30" s="1">
-        <v>27</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1">
-        <v>200</v>
-      </c>
-      <c r="F30" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1">
-        <v>10028</v>
-      </c>
-      <c r="B31" s="1">
-        <v>28</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1">
-        <v>600</v>
-      </c>
-      <c r="F31" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1">
-        <v>10029</v>
-      </c>
-      <c r="B32" s="1">
-        <v>29</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
-        <v>600</v>
-      </c>
-      <c r="F32" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1">
-        <v>10030</v>
-      </c>
-      <c r="B33" s="1">
-        <v>30</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1">
-        <v>200</v>
-      </c>
-      <c r="F33" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1">
-        <v>10031</v>
-      </c>
-      <c r="B34" s="1">
-        <v>31</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1">
-        <v>600</v>
-      </c>
-      <c r="F34" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1">
-        <v>10032</v>
-      </c>
-      <c r="B35" s="1">
-        <v>32</v>
-      </c>
-      <c r="C35" s="1">
-        <v>2</v>
-      </c>
-      <c r="D35" s="1">
-        <v>2</v>
-      </c>
-      <c r="E35" s="1">
-        <v>200</v>
-      </c>
-      <c r="F35" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1">
-        <v>10033</v>
-      </c>
-      <c r="B36" s="1">
-        <v>33</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1">
-        <v>600</v>
-      </c>
-      <c r="F36" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1">
-        <v>10034</v>
-      </c>
-      <c r="B37" s="1">
-        <v>34</v>
-      </c>
-      <c r="C37" s="1">
-        <v>2</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
-      <c r="E37" s="1">
-        <v>200</v>
-      </c>
-      <c r="F37" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1">
-        <v>10035</v>
-      </c>
-      <c r="B38" s="1">
-        <v>35</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <v>3</v>
-      </c>
-      <c r="E38" s="1">
-        <v>600</v>
-      </c>
-      <c r="F38" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1">
-        <v>10036</v>
-      </c>
-      <c r="B39" s="1">
-        <v>36</v>
-      </c>
-      <c r="C39" s="1">
-        <v>2</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1">
-        <v>600</v>
-      </c>
-      <c r="F39" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1">
-        <v>10037</v>
-      </c>
-      <c r="B40" s="1">
-        <v>37</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <v>2</v>
-      </c>
-      <c r="E40" s="1">
-        <v>200</v>
-      </c>
-      <c r="F40" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1">
-        <v>10038</v>
-      </c>
-      <c r="B41" s="1">
-        <v>38</v>
-      </c>
-      <c r="C41" s="1">
-        <v>2</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1">
-        <v>600</v>
-      </c>
-      <c r="F41" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1">
-        <v>10039</v>
-      </c>
-      <c r="B42" s="1">
-        <v>39</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2</v>
-      </c>
-      <c r="E42" s="1">
-        <v>200</v>
-      </c>
-      <c r="F42" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1">
-        <v>10040</v>
-      </c>
-      <c r="B43" s="1">
-        <v>40</v>
-      </c>
-      <c r="C43" s="1">
-        <v>2</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1">
-        <v>600</v>
-      </c>
-      <c r="F43" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1">
-        <v>10041</v>
-      </c>
-      <c r="B44" s="1">
-        <v>41</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2</v>
-      </c>
-      <c r="E44" s="1">
-        <v>200</v>
-      </c>
-      <c r="F44" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1">
-        <v>10042</v>
-      </c>
-      <c r="B45" s="1">
-        <v>42</v>
-      </c>
-      <c r="C45" s="1">
-        <v>2</v>
-      </c>
-      <c r="D45" s="1">
-        <v>3</v>
-      </c>
-      <c r="E45" s="1">
-        <v>600</v>
-      </c>
-      <c r="F45" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1">
-        <v>10043</v>
-      </c>
-      <c r="B46" s="1">
-        <v>43</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1">
-        <v>600</v>
-      </c>
-      <c r="F46" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1">
-        <v>10044</v>
-      </c>
-      <c r="B47" s="1">
-        <v>44</v>
-      </c>
-      <c r="C47" s="1">
-        <v>2</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2</v>
-      </c>
-      <c r="E47" s="1">
-        <v>200</v>
-      </c>
-      <c r="F47" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1">
-        <v>10045</v>
-      </c>
-      <c r="B48" s="1">
-        <v>45</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1">
-        <v>600</v>
-      </c>
-      <c r="F48" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1">
-        <v>10046</v>
-      </c>
-      <c r="B49" s="1">
-        <v>46</v>
-      </c>
-      <c r="C49" s="1">
-        <v>2</v>
-      </c>
-      <c r="D49" s="1">
-        <v>2</v>
-      </c>
-      <c r="E49" s="1">
-        <v>200</v>
-      </c>
-      <c r="F49" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1">
-        <v>10047</v>
-      </c>
-      <c r="B50" s="1">
-        <v>47</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1">
-        <v>600</v>
-      </c>
-      <c r="F50" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="1">
-        <v>10048</v>
-      </c>
-      <c r="B51" s="1">
-        <v>48</v>
-      </c>
-      <c r="C51" s="1">
-        <v>2</v>
-      </c>
-      <c r="D51" s="1">
-        <v>2</v>
-      </c>
-      <c r="E51" s="1">
-        <v>200</v>
-      </c>
-      <c r="F51" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1">
-        <v>10049</v>
-      </c>
-      <c r="B52" s="1">
-        <v>49</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1">
-        <v>3</v>
-      </c>
-      <c r="E52" s="1">
-        <v>600</v>
-      </c>
-      <c r="F52" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1">
-        <v>10050</v>
-      </c>
-      <c r="B53" s="1">
-        <v>50</v>
-      </c>
-      <c r="C53" s="1">
-        <v>2</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1">
-        <v>600</v>
-      </c>
-      <c r="F53" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1">
-        <v>10051</v>
-      </c>
-      <c r="B54" s="1">
-        <v>51</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1">
-        <v>2</v>
-      </c>
-      <c r="E54" s="1">
-        <v>200</v>
-      </c>
-      <c r="F54" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="1">
-        <v>10052</v>
-      </c>
-      <c r="B55" s="1">
-        <v>52</v>
-      </c>
-      <c r="C55" s="1">
-        <v>2</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1">
-        <v>600</v>
-      </c>
-      <c r="F55" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1">
-        <v>10053</v>
-      </c>
-      <c r="B56" s="1">
-        <v>53</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1">
-        <v>2</v>
-      </c>
-      <c r="E56" s="1">
-        <v>200</v>
-      </c>
-      <c r="F56" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1">
-        <v>10054</v>
-      </c>
-      <c r="B57" s="1">
-        <v>54</v>
-      </c>
-      <c r="C57" s="1">
-        <v>2</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1">
-        <v>600</v>
-      </c>
-      <c r="F57" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1">
-        <v>10055</v>
-      </c>
-      <c r="B58" s="1">
-        <v>55</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1">
-        <v>2</v>
-      </c>
-      <c r="E58" s="1">
-        <v>200</v>
-      </c>
-      <c r="F58" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1">
-        <v>10056</v>
-      </c>
-      <c r="B59" s="1">
-        <v>56</v>
-      </c>
-      <c r="C59" s="1">
-        <v>2</v>
-      </c>
-      <c r="D59" s="1">
-        <v>3</v>
-      </c>
-      <c r="E59" s="1">
-        <v>600</v>
-      </c>
-      <c r="F59" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1">
-        <v>10057</v>
-      </c>
-      <c r="B60" s="1">
-        <v>57</v>
-      </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1">
-        <v>600</v>
-      </c>
-      <c r="F60" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1">
-        <v>10058</v>
-      </c>
-      <c r="B61" s="1">
-        <v>58</v>
-      </c>
-      <c r="C61" s="1">
-        <v>2</v>
-      </c>
-      <c r="D61" s="1">
-        <v>2</v>
-      </c>
-      <c r="E61" s="1">
-        <v>200</v>
-      </c>
-      <c r="F61" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="1">
-        <v>10059</v>
-      </c>
-      <c r="B62" s="1">
-        <v>59</v>
-      </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-      <c r="E62" s="1">
-        <v>600</v>
-      </c>
-      <c r="F62" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="1">
-        <v>10060</v>
-      </c>
-      <c r="B63" s="1">
-        <v>60</v>
-      </c>
-      <c r="C63" s="1">
-        <v>2</v>
-      </c>
-      <c r="D63" s="1">
-        <v>2</v>
-      </c>
-      <c r="E63" s="1">
-        <v>200</v>
-      </c>
-      <c r="F63" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1">
-        <v>10061</v>
-      </c>
-      <c r="B64" s="1">
-        <v>61</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1</v>
-      </c>
-      <c r="D64" s="1">
-        <v>1</v>
-      </c>
-      <c r="E64" s="1">
-        <v>600</v>
-      </c>
-      <c r="F64" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1">
-        <v>10062</v>
-      </c>
-      <c r="B65" s="1">
-        <v>62</v>
-      </c>
-      <c r="C65" s="1">
-        <v>2</v>
-      </c>
-      <c r="D65" s="1">
-        <v>2</v>
-      </c>
-      <c r="E65" s="1">
-        <v>200</v>
-      </c>
-      <c r="F65" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1">
-        <v>10063</v>
-      </c>
-      <c r="B66" s="1">
-        <v>63</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1">
-        <v>3</v>
-      </c>
-      <c r="E66" s="1">
-        <v>600</v>
-      </c>
-      <c r="F66" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1">
-        <v>10064</v>
-      </c>
-      <c r="B67" s="1">
-        <v>64</v>
-      </c>
-      <c r="C67" s="1">
-        <v>2</v>
-      </c>
-      <c r="D67" s="1">
-        <v>1</v>
-      </c>
-      <c r="E67" s="1">
-        <v>600</v>
-      </c>
-      <c r="F67" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1">
-        <v>10065</v>
-      </c>
-      <c r="B68" s="1">
-        <v>65</v>
-      </c>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
-      <c r="D68" s="1">
-        <v>2</v>
-      </c>
-      <c r="E68" s="1">
-        <v>200</v>
-      </c>
-      <c r="F68" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1">
-        <v>10066</v>
-      </c>
-      <c r="B69" s="1">
-        <v>66</v>
-      </c>
-      <c r="C69" s="1">
-        <v>2</v>
-      </c>
-      <c r="D69" s="1">
-        <v>1</v>
-      </c>
-      <c r="E69" s="1">
-        <v>600</v>
-      </c>
-      <c r="F69" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1">
-        <v>10067</v>
-      </c>
-      <c r="B70" s="1">
-        <v>67</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
-      <c r="D70" s="1">
-        <v>2</v>
-      </c>
-      <c r="E70" s="1">
-        <v>200</v>
-      </c>
-      <c r="F70" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1">
-        <v>10068</v>
-      </c>
-      <c r="B71" s="1">
-        <v>68</v>
-      </c>
-      <c r="C71" s="1">
-        <v>2</v>
-      </c>
-      <c r="D71" s="1">
-        <v>1</v>
-      </c>
-      <c r="E71" s="1">
-        <v>600</v>
-      </c>
-      <c r="F71" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1">
-        <v>10069</v>
-      </c>
-      <c r="B72" s="1">
-        <v>69</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
-      <c r="D72" s="1">
-        <v>2</v>
-      </c>
-      <c r="E72" s="1">
-        <v>200</v>
-      </c>
-      <c r="F72" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1">
-        <v>10070</v>
-      </c>
-      <c r="B73" s="1">
-        <v>70</v>
-      </c>
-      <c r="C73" s="1">
-        <v>2</v>
-      </c>
-      <c r="D73" s="1">
-        <v>3</v>
-      </c>
-      <c r="E73" s="1">
-        <v>600</v>
-      </c>
-      <c r="F73" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1">
-        <v>10071</v>
-      </c>
-      <c r="B74" s="1">
-        <v>71</v>
-      </c>
-      <c r="C74" s="1">
-        <v>1</v>
-      </c>
-      <c r="D74" s="1">
-        <v>1</v>
-      </c>
-      <c r="E74" s="1">
-        <v>200</v>
-      </c>
-      <c r="F74" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1">
-        <v>10072</v>
-      </c>
-      <c r="B75" s="1">
-        <v>72</v>
-      </c>
-      <c r="C75" s="1">
-        <v>2</v>
-      </c>
-      <c r="D75" s="1">
-        <v>2</v>
-      </c>
-      <c r="E75" s="1">
-        <v>600</v>
-      </c>
-      <c r="F75" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1">
-        <v>10073</v>
-      </c>
-      <c r="B76" s="1">
-        <v>73</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
-      <c r="D76" s="1">
-        <v>1</v>
-      </c>
-      <c r="E76" s="1">
-        <v>200</v>
-      </c>
-      <c r="F76" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1">
-        <v>10074</v>
-      </c>
-      <c r="B77" s="1">
-        <v>74</v>
-      </c>
-      <c r="C77" s="1">
-        <v>2</v>
-      </c>
-      <c r="D77" s="1">
-        <v>2</v>
-      </c>
-      <c r="E77" s="1">
-        <v>600</v>
-      </c>
-      <c r="F77" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1">
-        <v>10075</v>
-      </c>
-      <c r="B78" s="1">
-        <v>75</v>
-      </c>
-      <c r="C78" s="1">
-        <v>1</v>
-      </c>
-      <c r="D78" s="1">
-        <v>1</v>
-      </c>
-      <c r="E78" s="1">
-        <v>600</v>
-      </c>
-      <c r="F78" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1">
-        <v>10076</v>
-      </c>
-      <c r="B79" s="1">
-        <v>76</v>
-      </c>
-      <c r="C79" s="1">
-        <v>2</v>
-      </c>
-      <c r="D79" s="1">
-        <v>2</v>
-      </c>
-      <c r="E79" s="1">
-        <v>200</v>
-      </c>
-      <c r="F79" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1">
-        <v>10077</v>
-      </c>
-      <c r="B80" s="1">
-        <v>77</v>
-      </c>
-      <c r="C80" s="1">
-        <v>1</v>
-      </c>
-      <c r="D80" s="1">
-        <v>3</v>
-      </c>
-      <c r="E80" s="1">
-        <v>600</v>
-      </c>
-      <c r="F80" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1">
-        <v>10078</v>
-      </c>
-      <c r="B81" s="1">
-        <v>78</v>
-      </c>
-      <c r="C81" s="1">
-        <v>2</v>
-      </c>
-      <c r="D81" s="1">
-        <v>1</v>
-      </c>
-      <c r="E81" s="1">
-        <v>200</v>
-      </c>
-      <c r="F81" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="1">
-        <v>10079</v>
-      </c>
-      <c r="B82" s="1">
-        <v>79</v>
-      </c>
-      <c r="C82" s="1">
-        <v>1</v>
-      </c>
-      <c r="D82" s="1">
-        <v>2</v>
-      </c>
-      <c r="E82" s="1">
-        <v>600</v>
-      </c>
-      <c r="F82" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1">
-        <v>10080</v>
-      </c>
-      <c r="B83" s="1">
-        <v>80</v>
-      </c>
-      <c r="C83" s="1">
-        <v>2</v>
-      </c>
-      <c r="D83" s="1">
-        <v>1</v>
-      </c>
-      <c r="E83" s="1">
-        <v>200</v>
-      </c>
-      <c r="F83" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="1">
-        <v>10081</v>
-      </c>
-      <c r="B84" s="1">
-        <v>81</v>
-      </c>
-      <c r="C84" s="1">
-        <v>1</v>
-      </c>
-      <c r="D84" s="1">
-        <v>2</v>
-      </c>
-      <c r="E84" s="1">
-        <v>600</v>
-      </c>
-      <c r="F84" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="1">
-        <v>10082</v>
-      </c>
-      <c r="B85" s="1">
-        <v>82</v>
-      </c>
-      <c r="C85" s="1">
-        <v>2</v>
-      </c>
-      <c r="D85" s="1">
-        <v>1</v>
-      </c>
-      <c r="E85" s="1">
-        <v>600</v>
-      </c>
-      <c r="F85" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="1">
-        <v>10083</v>
-      </c>
-      <c r="B86" s="1">
-        <v>83</v>
-      </c>
-      <c r="C86" s="1">
-        <v>1</v>
-      </c>
-      <c r="D86" s="1">
-        <v>2</v>
-      </c>
-      <c r="E86" s="1">
-        <v>200</v>
-      </c>
-      <c r="F86" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="1">
-        <v>10084</v>
-      </c>
-      <c r="B87" s="1">
-        <v>84</v>
-      </c>
-      <c r="C87" s="1">
-        <v>2</v>
-      </c>
-      <c r="D87" s="1">
-        <v>3</v>
-      </c>
-      <c r="E87" s="1">
-        <v>600</v>
-      </c>
-      <c r="F87" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1">
-        <v>10085</v>
-      </c>
-      <c r="B88" s="1">
-        <v>85</v>
-      </c>
-      <c r="C88" s="1">
-        <v>1</v>
-      </c>
-      <c r="D88" s="1">
-        <v>1</v>
-      </c>
-      <c r="E88" s="1">
-        <v>200</v>
-      </c>
-      <c r="F88" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="1">
-        <v>10086</v>
-      </c>
-      <c r="B89" s="1">
-        <v>86</v>
-      </c>
-      <c r="C89" s="1">
-        <v>2</v>
-      </c>
-      <c r="D89" s="1">
-        <v>2</v>
-      </c>
-      <c r="E89" s="1">
-        <v>600</v>
-      </c>
-      <c r="F89" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1">
-        <v>10087</v>
-      </c>
-      <c r="B90" s="1">
-        <v>87</v>
-      </c>
-      <c r="C90" s="1">
-        <v>1</v>
-      </c>
-      <c r="D90" s="1">
-        <v>1</v>
-      </c>
-      <c r="E90" s="1">
-        <v>200</v>
-      </c>
-      <c r="F90" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1">
-        <v>10088</v>
-      </c>
-      <c r="B91" s="1">
-        <v>88</v>
-      </c>
-      <c r="C91" s="1">
-        <v>2</v>
-      </c>
-      <c r="D91" s="1">
-        <v>2</v>
-      </c>
-      <c r="E91" s="1">
-        <v>600</v>
-      </c>
-      <c r="F91" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="1">
-        <v>10089</v>
-      </c>
-      <c r="B92" s="1">
-        <v>89</v>
-      </c>
-      <c r="C92" s="1">
-        <v>1</v>
-      </c>
-      <c r="D92" s="1">
-        <v>1</v>
-      </c>
-      <c r="E92" s="1">
-        <v>200</v>
-      </c>
-      <c r="F92" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="1">
-        <v>10090</v>
-      </c>
-      <c r="B93" s="1">
-        <v>90</v>
-      </c>
-      <c r="C93" s="1">
-        <v>2</v>
-      </c>
-      <c r="D93" s="1">
-        <v>2</v>
-      </c>
-      <c r="E93" s="1">
-        <v>600</v>
-      </c>
-      <c r="F93" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="1">
-        <v>10091</v>
-      </c>
-      <c r="B94" s="1">
-        <v>91</v>
-      </c>
-      <c r="C94" s="1">
-        <v>1</v>
-      </c>
-      <c r="D94" s="1">
-        <v>3</v>
-      </c>
-      <c r="E94" s="1">
-        <v>200</v>
-      </c>
-      <c r="F94" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="1">
-        <v>10092</v>
-      </c>
-      <c r="B95" s="1">
-        <v>92</v>
-      </c>
-      <c r="C95" s="1">
-        <v>2</v>
-      </c>
-      <c r="D95" s="1">
-        <v>1</v>
-      </c>
-      <c r="E95" s="1">
-        <v>600</v>
-      </c>
-      <c r="F95" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="1">
-        <v>10093</v>
-      </c>
-      <c r="B96" s="1">
-        <v>93</v>
-      </c>
-      <c r="C96" s="1">
-        <v>1</v>
-      </c>
-      <c r="D96" s="1">
-        <v>2</v>
-      </c>
-      <c r="E96" s="1">
-        <v>600</v>
-      </c>
-      <c r="F96" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="1">
-        <v>10094</v>
-      </c>
-      <c r="B97" s="1">
-        <v>94</v>
-      </c>
-      <c r="C97" s="1">
-        <v>2</v>
-      </c>
-      <c r="D97" s="1">
-        <v>1</v>
-      </c>
-      <c r="E97" s="1">
-        <v>200</v>
-      </c>
-      <c r="F97" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="1">
-        <v>10095</v>
-      </c>
-      <c r="B98" s="1">
-        <v>95</v>
-      </c>
-      <c r="C98" s="1">
-        <v>1</v>
-      </c>
-      <c r="D98" s="1">
-        <v>2</v>
-      </c>
-      <c r="E98" s="1">
-        <v>600</v>
-      </c>
-      <c r="F98" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="1">
-        <v>10096</v>
-      </c>
-      <c r="B99" s="1">
-        <v>96</v>
-      </c>
-      <c r="C99" s="1">
-        <v>2</v>
-      </c>
-      <c r="D99" s="1">
-        <v>1</v>
-      </c>
-      <c r="E99" s="1">
-        <v>200</v>
-      </c>
-      <c r="F99" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1">
-        <v>10097</v>
-      </c>
-      <c r="B100" s="1">
-        <v>97</v>
-      </c>
-      <c r="C100" s="1">
-        <v>1</v>
-      </c>
-      <c r="D100" s="1">
-        <v>2</v>
-      </c>
-      <c r="E100" s="1">
-        <v>600</v>
-      </c>
-      <c r="F100" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="1">
-        <v>10098</v>
-      </c>
-      <c r="B101" s="1">
-        <v>98</v>
-      </c>
-      <c r="C101" s="1">
-        <v>2</v>
-      </c>
-      <c r="D101" s="1">
-        <v>3</v>
-      </c>
-      <c r="E101" s="1">
-        <v>200</v>
-      </c>
-      <c r="F101" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="1">
-        <v>10099</v>
-      </c>
-      <c r="B102" s="1">
-        <v>99</v>
-      </c>
-      <c r="C102" s="1">
-        <v>1</v>
-      </c>
-      <c r="D102" s="1">
-        <v>1</v>
-      </c>
-      <c r="E102" s="1">
-        <v>600</v>
-      </c>
-      <c r="F102" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="1">
-        <v>10100</v>
-      </c>
-      <c r="B103" s="1">
-        <v>100</v>
-      </c>
-      <c r="C103" s="1">
-        <v>2</v>
-      </c>
-      <c r="D103" s="1">
-        <v>2</v>
-      </c>
-      <c r="E103" s="1">
-        <v>600</v>
-      </c>
-      <c r="F103" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="1">
-        <v>10101</v>
-      </c>
-      <c r="B104" s="1">
-        <v>101</v>
-      </c>
-      <c r="C104" s="1">
-        <v>1</v>
-      </c>
-      <c r="D104" s="1">
-        <v>1</v>
-      </c>
-      <c r="E104" s="1">
-        <v>200</v>
-      </c>
-      <c r="F104" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="1">
-        <v>10102</v>
-      </c>
-      <c r="B105" s="1">
-        <v>102</v>
-      </c>
-      <c r="C105" s="1">
-        <v>2</v>
-      </c>
-      <c r="D105" s="1">
-        <v>2</v>
-      </c>
-      <c r="E105" s="1">
-        <v>600</v>
-      </c>
-      <c r="F105" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="1">
-        <v>10103</v>
-      </c>
-      <c r="B106" s="1">
-        <v>103</v>
-      </c>
-      <c r="C106" s="1">
-        <v>1</v>
-      </c>
-      <c r="D106" s="1">
-        <v>1</v>
-      </c>
-      <c r="E106" s="1">
-        <v>200</v>
-      </c>
-      <c r="F106" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="1">
-        <v>10104</v>
-      </c>
-      <c r="B107" s="1">
-        <v>104</v>
-      </c>
-      <c r="C107" s="1">
-        <v>2</v>
-      </c>
-      <c r="D107" s="1">
-        <v>2</v>
-      </c>
-      <c r="E107" s="1">
-        <v>600</v>
-      </c>
-      <c r="F107" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1">
-        <v>10105</v>
-      </c>
-      <c r="B108" s="1">
-        <v>105</v>
-      </c>
-      <c r="C108" s="1">
-        <v>1</v>
-      </c>
-      <c r="D108" s="1">
-        <v>3</v>
-      </c>
-      <c r="E108" s="1">
-        <v>200</v>
-      </c>
-      <c r="F108" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1">
-        <v>10106</v>
-      </c>
-      <c r="B109" s="1">
-        <v>106</v>
-      </c>
-      <c r="C109" s="1">
-        <v>2</v>
-      </c>
-      <c r="D109" s="1">
-        <v>1</v>
-      </c>
-      <c r="E109" s="1">
-        <v>600</v>
-      </c>
-      <c r="F109" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="1">
-        <v>10107</v>
-      </c>
-      <c r="B110" s="1">
-        <v>107</v>
-      </c>
-      <c r="C110" s="1">
-        <v>1</v>
-      </c>
-      <c r="D110" s="1">
-        <v>2</v>
-      </c>
-      <c r="E110" s="1">
-        <v>200</v>
-      </c>
-      <c r="F110" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="1">
-        <v>10108</v>
-      </c>
-      <c r="B111" s="1">
-        <v>108</v>
-      </c>
-      <c r="C111" s="1">
-        <v>2</v>
-      </c>
-      <c r="D111" s="1">
-        <v>1</v>
-      </c>
-      <c r="E111" s="1">
-        <v>600</v>
-      </c>
-      <c r="F111" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="1">
-        <v>10109</v>
-      </c>
-      <c r="B112" s="1">
-        <v>109</v>
-      </c>
-      <c r="C112" s="1">
-        <v>1</v>
-      </c>
-      <c r="D112" s="1">
-        <v>2</v>
-      </c>
-      <c r="E112" s="1">
-        <v>200</v>
-      </c>
-      <c r="F112" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="1">
-        <v>10110</v>
-      </c>
-      <c r="B113" s="1">
-        <v>110</v>
-      </c>
-      <c r="C113" s="1">
-        <v>2</v>
-      </c>
-      <c r="D113" s="1">
-        <v>1</v>
-      </c>
-      <c r="E113" s="1">
-        <v>600</v>
-      </c>
-      <c r="F113" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="1">
-        <v>10111</v>
-      </c>
-      <c r="B114" s="1">
-        <v>111</v>
-      </c>
-      <c r="C114" s="1">
-        <v>1</v>
-      </c>
-      <c r="D114" s="1">
-        <v>2</v>
-      </c>
-      <c r="E114" s="1">
-        <v>600</v>
-      </c>
-      <c r="F114" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="1">
-        <v>10112</v>
-      </c>
-      <c r="B115" s="1">
-        <v>112</v>
-      </c>
-      <c r="C115" s="1">
-        <v>2</v>
-      </c>
-      <c r="D115" s="1">
-        <v>3</v>
-      </c>
-      <c r="E115" s="1">
-        <v>200</v>
-      </c>
-      <c r="F115" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="1">
-        <v>10113</v>
-      </c>
-      <c r="B116" s="1">
-        <v>113</v>
-      </c>
-      <c r="C116" s="1">
-        <v>1</v>
-      </c>
-      <c r="D116" s="1">
-        <v>1</v>
-      </c>
-      <c r="E116" s="1">
-        <v>600</v>
-      </c>
-      <c r="F116" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="1">
-        <v>10114</v>
-      </c>
-      <c r="B117" s="1">
-        <v>114</v>
-      </c>
-      <c r="C117" s="1">
-        <v>2</v>
-      </c>
-      <c r="D117" s="1">
-        <v>2</v>
-      </c>
-      <c r="E117" s="1">
-        <v>200</v>
-      </c>
-      <c r="F117" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="1">
-        <v>10115</v>
-      </c>
-      <c r="B118" s="1">
-        <v>115</v>
-      </c>
-      <c r="C118" s="1">
-        <v>1</v>
-      </c>
-      <c r="D118" s="1">
-        <v>1</v>
-      </c>
-      <c r="E118" s="1">
-        <v>600</v>
-      </c>
-      <c r="F118" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1">
-        <v>10116</v>
-      </c>
-      <c r="B119" s="1">
-        <v>116</v>
-      </c>
-      <c r="C119" s="1">
-        <v>2</v>
-      </c>
-      <c r="D119" s="1">
-        <v>2</v>
-      </c>
-      <c r="E119" s="1">
-        <v>200</v>
-      </c>
-      <c r="F119" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="1">
-        <v>10117</v>
-      </c>
-      <c r="B120" s="1">
-        <v>117</v>
-      </c>
-      <c r="C120" s="1">
-        <v>1</v>
-      </c>
-      <c r="D120" s="1">
-        <v>1</v>
-      </c>
-      <c r="E120" s="1">
-        <v>600</v>
-      </c>
-      <c r="F120" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="1">
-        <v>10118</v>
-      </c>
-      <c r="B121" s="1">
-        <v>118</v>
-      </c>
-      <c r="C121" s="1">
-        <v>2</v>
-      </c>
-      <c r="D121" s="1">
-        <v>2</v>
-      </c>
-      <c r="E121" s="1">
-        <v>600</v>
-      </c>
-      <c r="F121" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="1">
-        <v>10119</v>
-      </c>
-      <c r="B122" s="1">
-        <v>119</v>
-      </c>
-      <c r="C122" s="1">
-        <v>1</v>
-      </c>
-      <c r="D122" s="1">
-        <v>3</v>
-      </c>
-      <c r="E122" s="1">
-        <v>200</v>
-      </c>
-      <c r="F122" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="1">
-        <v>10120</v>
-      </c>
-      <c r="B123" s="1">
-        <v>120</v>
-      </c>
-      <c r="C123" s="1">
-        <v>2</v>
-      </c>
-      <c r="D123" s="1">
-        <v>1</v>
-      </c>
-      <c r="E123" s="1">
-        <v>600</v>
-      </c>
-      <c r="F123" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="1">
-        <v>10121</v>
-      </c>
-      <c r="B124" s="1">
-        <v>121</v>
-      </c>
-      <c r="C124" s="1">
-        <v>1</v>
-      </c>
-      <c r="D124" s="1">
-        <v>2</v>
-      </c>
-      <c r="E124" s="1">
-        <v>200</v>
-      </c>
-      <c r="F124" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="1">
-        <v>10122</v>
-      </c>
-      <c r="B125" s="1">
-        <v>122</v>
-      </c>
-      <c r="C125" s="1">
-        <v>2</v>
-      </c>
-      <c r="D125" s="1">
-        <v>1</v>
-      </c>
-      <c r="E125" s="1">
-        <v>600</v>
-      </c>
-      <c r="F125" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="1">
-        <v>10123</v>
-      </c>
-      <c r="B126" s="1">
-        <v>123</v>
-      </c>
-      <c r="C126" s="1">
-        <v>1</v>
-      </c>
-      <c r="D126" s="1">
-        <v>2</v>
-      </c>
-      <c r="E126" s="1">
-        <v>200</v>
-      </c>
-      <c r="F126" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="1">
-        <v>10124</v>
-      </c>
-      <c r="B127" s="1">
-        <v>124</v>
-      </c>
-      <c r="C127" s="1">
-        <v>2</v>
-      </c>
-      <c r="D127" s="1">
-        <v>1</v>
-      </c>
-      <c r="E127" s="1">
-        <v>600</v>
-      </c>
-      <c r="F127" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1">
-        <v>10125</v>
-      </c>
-      <c r="B128" s="1">
-        <v>125</v>
-      </c>
-      <c r="C128" s="1">
-        <v>1</v>
-      </c>
-      <c r="D128" s="1">
-        <v>2</v>
-      </c>
-      <c r="E128" s="1">
-        <v>200</v>
-      </c>
-      <c r="F128" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1">
-        <v>10126</v>
-      </c>
-      <c r="B129" s="1">
-        <v>126</v>
-      </c>
-      <c r="C129" s="1">
-        <v>2</v>
-      </c>
-      <c r="D129" s="1">
-        <v>3</v>
-      </c>
-      <c r="E129" s="1">
-        <v>600</v>
-      </c>
-      <c r="F129" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1">
-        <v>10127</v>
-      </c>
-      <c r="B130" s="1">
-        <v>127</v>
-      </c>
-      <c r="C130" s="1">
-        <v>1</v>
-      </c>
-      <c r="D130" s="1">
-        <v>1</v>
-      </c>
-      <c r="E130" s="1">
-        <v>200</v>
-      </c>
-      <c r="F130" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1">
-        <v>10128</v>
-      </c>
-      <c r="B131" s="1">
-        <v>128</v>
-      </c>
-      <c r="C131" s="1">
-        <v>2</v>
-      </c>
-      <c r="D131" s="1">
-        <v>2</v>
-      </c>
-      <c r="E131" s="1">
-        <v>600</v>
-      </c>
-      <c r="F131" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1">
-        <v>10129</v>
-      </c>
-      <c r="B132" s="1">
-        <v>129</v>
-      </c>
-      <c r="C132" s="1">
-        <v>1</v>
-      </c>
-      <c r="D132" s="1">
-        <v>1</v>
-      </c>
-      <c r="E132" s="1">
-        <v>600</v>
-      </c>
-      <c r="F132" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1">
-        <v>10130</v>
-      </c>
-      <c r="B133" s="1">
-        <v>130</v>
-      </c>
-      <c r="C133" s="1">
-        <v>2</v>
-      </c>
-      <c r="D133" s="1">
-        <v>2</v>
-      </c>
-      <c r="E133" s="1">
-        <v>200</v>
-      </c>
-      <c r="F133" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="E144" s="1"/>
-    </row>
-    <row r="145" spans="5:5">
-      <c r="E145" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8007,10 +5405,10 @@
       <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8033,7 +5431,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" thickBot="1">
+    <row r="2" spans="1:6" ht="17.5" thickBot="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -8073,7 +5471,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" thickBot="1">
+    <row r="4" spans="1:6" ht="17.5" thickBot="1">
       <c r="A4" s="16">
         <v>7001</v>
       </c>
@@ -8093,7 +5491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" thickBot="1">
+    <row r="5" spans="1:6" ht="17.5" thickBot="1">
       <c r="A5" s="16">
         <v>7002</v>
       </c>
@@ -8113,7 +5511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" thickBot="1">
+    <row r="6" spans="1:6" ht="17.5" thickBot="1">
       <c r="A6" s="16">
         <v>7003</v>
       </c>
@@ -8133,7 +5531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.25" thickBot="1">
+    <row r="7" spans="1:6" ht="17.5" thickBot="1">
       <c r="A7" s="16">
         <v>7004</v>
       </c>
@@ -8153,7 +5551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.25" thickBot="1">
+    <row r="8" spans="1:6" ht="17.5" thickBot="1">
       <c r="A8" s="16">
         <v>7005</v>
       </c>
@@ -8173,7 +5571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25" thickBot="1">
+    <row r="9" spans="1:6" ht="17.5" thickBot="1">
       <c r="A9" s="16">
         <v>7006</v>
       </c>
@@ -8193,7 +5591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" thickBot="1">
+    <row r="10" spans="1:6" ht="17.5" thickBot="1">
       <c r="A10" s="16">
         <v>7007</v>
       </c>
@@ -8213,7 +5611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.25" thickBot="1">
+    <row r="11" spans="1:6" ht="17.5" thickBot="1">
       <c r="A11" s="16">
         <v>7008</v>
       </c>
@@ -8233,7 +5631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" thickBot="1">
+    <row r="12" spans="1:6" ht="17.5" thickBot="1">
       <c r="A12" s="16">
         <v>7009</v>
       </c>
@@ -8253,7 +5651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" thickBot="1">
+    <row r="13" spans="1:6" ht="17.5" thickBot="1">
       <c r="A13" s="16">
         <v>7010</v>
       </c>
@@ -8273,7 +5671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" thickBot="1">
+    <row r="14" spans="1:6" ht="17.5" thickBot="1">
       <c r="A14" s="16">
         <v>7011</v>
       </c>
@@ -8293,7 +5691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" thickBot="1">
+    <row r="15" spans="1:6" ht="17.5" thickBot="1">
       <c r="A15" s="16">
         <v>7012</v>
       </c>
@@ -8313,7 +5711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.25" thickBot="1">
+    <row r="16" spans="1:6" ht="17.5" thickBot="1">
       <c r="A16" s="16">
         <v>7013</v>
       </c>
@@ -8333,7 +5731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.25" thickBot="1">
+    <row r="17" spans="1:6" ht="17.5" thickBot="1">
       <c r="A17" s="16">
         <v>7014</v>
       </c>
@@ -8353,7 +5751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.25" thickBot="1">
+    <row r="18" spans="1:6" ht="17.5" thickBot="1">
       <c r="A18" s="16">
         <v>7015</v>
       </c>
@@ -8373,7 +5771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.25" thickBot="1">
+    <row r="19" spans="1:6" ht="17.5" thickBot="1">
       <c r="A19" s="16">
         <v>7016</v>
       </c>
@@ -8393,7 +5791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.25" thickBot="1">
+    <row r="20" spans="1:6" ht="17.5" thickBot="1">
       <c r="A20" s="16">
         <v>7017</v>
       </c>
@@ -8413,7 +5811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.25" thickBot="1">
+    <row r="21" spans="1:6" ht="17.5" thickBot="1">
       <c r="A21" s="16">
         <v>7018</v>
       </c>
@@ -8433,7 +5831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.25" thickBot="1">
+    <row r="22" spans="1:6" ht="17.5" thickBot="1">
       <c r="A22" s="16">
         <v>7019</v>
       </c>
@@ -8453,7 +5851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.25" thickBot="1">
+    <row r="23" spans="1:6" ht="17.5" thickBot="1">
       <c r="A23" s="16">
         <v>7020</v>
       </c>
@@ -8473,7 +5871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.25" thickBot="1">
+    <row r="24" spans="1:6" ht="17.5" thickBot="1">
       <c r="A24" s="16">
         <v>7021</v>
       </c>
@@ -8493,7 +5891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.25" thickBot="1">
+    <row r="25" spans="1:6" ht="17.5" thickBot="1">
       <c r="A25" s="16">
         <v>7022</v>
       </c>
@@ -8513,7 +5911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.25" thickBot="1">
+    <row r="26" spans="1:6" ht="17.5" thickBot="1">
       <c r="A26" s="16">
         <v>7023</v>
       </c>
@@ -8533,7 +5931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.25" thickBot="1">
+    <row r="27" spans="1:6" ht="17.5" thickBot="1">
       <c r="A27" s="16">
         <v>7024</v>
       </c>
@@ -8553,7 +5951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.25" thickBot="1">
+    <row r="28" spans="1:6" ht="17.5" thickBot="1">
       <c r="A28" s="16">
         <v>7025</v>
       </c>
@@ -8573,7 +5971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.25" thickBot="1">
+    <row r="29" spans="1:6" ht="17.5" thickBot="1">
       <c r="A29" s="16">
         <v>7026</v>
       </c>
@@ -8593,7 +5991,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.25" thickBot="1">
+    <row r="30" spans="1:6" ht="17.5" thickBot="1">
       <c r="A30" s="16">
         <v>7027</v>
       </c>
@@ -8613,7 +6011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.25" thickBot="1">
+    <row r="31" spans="1:6" ht="17.5" thickBot="1">
       <c r="A31" s="16">
         <v>7028</v>
       </c>
@@ -8633,7 +6031,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.25" thickBot="1">
+    <row r="32" spans="1:6" ht="17.5" thickBot="1">
       <c r="A32" s="16">
         <v>7029</v>
       </c>
@@ -8653,7 +6051,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17.25" thickBot="1">
+    <row r="33" spans="1:6" ht="17.5" thickBot="1">
       <c r="A33" s="16">
         <v>7030</v>
       </c>
@@ -8673,7 +6071,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17.25" thickBot="1">
+    <row r="34" spans="1:6" ht="17.5" thickBot="1">
       <c r="A34" s="16">
         <v>7031</v>
       </c>
@@ -8693,7 +6091,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.25" thickBot="1">
+    <row r="35" spans="1:6" ht="17.5" thickBot="1">
       <c r="A35" s="16">
         <v>7032</v>
       </c>
@@ -8713,7 +6111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17.25" thickBot="1">
+    <row r="36" spans="1:6" ht="17.5" thickBot="1">
       <c r="A36" s="16">
         <v>7033</v>
       </c>
@@ -8733,7 +6131,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17.25" thickBot="1">
+    <row r="37" spans="1:6" ht="17.5" thickBot="1">
       <c r="A37" s="16">
         <v>7034</v>
       </c>
@@ -8753,7 +6151,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.25" thickBot="1">
+    <row r="38" spans="1:6" ht="17.5" thickBot="1">
       <c r="A38" s="16">
         <v>7035</v>
       </c>
@@ -8773,7 +6171,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17.25" thickBot="1">
+    <row r="39" spans="1:6" ht="17.5" thickBot="1">
       <c r="A39" s="16">
         <v>7036</v>
       </c>
@@ -8793,7 +6191,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.25" thickBot="1">
+    <row r="40" spans="1:6" ht="17.5" thickBot="1">
       <c r="A40" s="16">
         <v>7037</v>
       </c>
@@ -8813,7 +6211,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17.25" thickBot="1">
+    <row r="41" spans="1:6" ht="17.5" thickBot="1">
       <c r="A41" s="16">
         <v>7038</v>
       </c>
@@ -8833,7 +6231,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17.25" thickBot="1">
+    <row r="42" spans="1:6" ht="17.5" thickBot="1">
       <c r="A42" s="16">
         <v>7039</v>
       </c>
@@ -8853,7 +6251,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.25" thickBot="1">
+    <row r="43" spans="1:6" ht="17.5" thickBot="1">
       <c r="A43" s="16">
         <v>7040</v>
       </c>
@@ -8873,7 +6271,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.25" thickBot="1">
+    <row r="44" spans="1:6" ht="17.5" thickBot="1">
       <c r="A44" s="16">
         <v>7041</v>
       </c>
@@ -8893,7 +6291,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.25" thickBot="1">
+    <row r="45" spans="1:6" ht="17.5" thickBot="1">
       <c r="A45" s="16">
         <v>7042</v>
       </c>
@@ -8913,7 +6311,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17.25" thickBot="1">
+    <row r="46" spans="1:6" ht="17.5" thickBot="1">
       <c r="A46" s="16">
         <v>7043</v>
       </c>
@@ -8933,7 +6331,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="17.25" thickBot="1">
+    <row r="47" spans="1:6" ht="17.5" thickBot="1">
       <c r="A47" s="16">
         <v>7044</v>
       </c>
@@ -8953,7 +6351,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17.25" thickBot="1">
+    <row r="48" spans="1:6" ht="17.5" thickBot="1">
       <c r="A48" s="16">
         <v>7045</v>
       </c>
@@ -8973,7 +6371,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="17.25" thickBot="1">
+    <row r="49" spans="1:6" ht="17.5" thickBot="1">
       <c r="A49" s="16">
         <v>7046</v>
       </c>
@@ -8993,7 +6391,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="17.25" thickBot="1">
+    <row r="50" spans="1:6" ht="17.5" thickBot="1">
       <c r="A50" s="16">
         <v>7047</v>
       </c>
@@ -9013,7 +6411,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17.25" thickBot="1">
+    <row r="51" spans="1:6" ht="17.5" thickBot="1">
       <c r="A51" s="16">
         <v>7048</v>
       </c>
@@ -9033,7 +6431,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17.25" thickBot="1">
+    <row r="52" spans="1:6" ht="17.5" thickBot="1">
       <c r="A52" s="16">
         <v>7049</v>
       </c>
@@ -9053,7 +6451,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="17.25" thickBot="1">
+    <row r="53" spans="1:6" ht="17.5" thickBot="1">
       <c r="A53" s="16">
         <v>7050</v>
       </c>
@@ -9073,7 +6471,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="17.25" thickBot="1">
+    <row r="54" spans="1:6" ht="17.5" thickBot="1">
       <c r="A54" s="14">
         <v>7051</v>
       </c>
@@ -9093,7 +6491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="17.25" thickBot="1">
+    <row r="55" spans="1:6" ht="17.5" thickBot="1">
       <c r="A55" s="16">
         <v>7052</v>
       </c>
@@ -9113,7 +6511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="17.25" thickBot="1">
+    <row r="56" spans="1:6" ht="17.5" thickBot="1">
       <c r="A56" s="16">
         <v>7053</v>
       </c>
@@ -9133,7 +6531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="17.25" thickBot="1">
+    <row r="57" spans="1:6" ht="17.5" thickBot="1">
       <c r="A57" s="16">
         <v>7054</v>
       </c>
@@ -9153,7 +6551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="17.25" thickBot="1">
+    <row r="58" spans="1:6" ht="17.5" thickBot="1">
       <c r="A58" s="16">
         <v>7055</v>
       </c>
@@ -9173,7 +6571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="17.25" thickBot="1">
+    <row r="59" spans="1:6" ht="17.5" thickBot="1">
       <c r="A59" s="16">
         <v>7056</v>
       </c>
@@ -9193,7 +6591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17.25" thickBot="1">
+    <row r="60" spans="1:6" ht="17.5" thickBot="1">
       <c r="A60" s="16">
         <v>7057</v>
       </c>
@@ -9213,7 +6611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="17.25" thickBot="1">
+    <row r="61" spans="1:6" ht="17.5" thickBot="1">
       <c r="A61" s="16">
         <v>7058</v>
       </c>
@@ -9233,7 +6631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="17.25" thickBot="1">
+    <row r="62" spans="1:6" ht="17.5" thickBot="1">
       <c r="A62" s="16">
         <v>7059</v>
       </c>
@@ -9253,7 +6651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="17.25" thickBot="1">
+    <row r="63" spans="1:6" ht="17.5" thickBot="1">
       <c r="A63" s="16">
         <v>7060</v>
       </c>
@@ -9273,7 +6671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="17.25" thickBot="1">
+    <row r="64" spans="1:6" ht="17.5" thickBot="1">
       <c r="A64" s="16">
         <v>7061</v>
       </c>
@@ -9293,7 +6691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="17.25" thickBot="1">
+    <row r="65" spans="1:6" ht="17.5" thickBot="1">
       <c r="A65" s="16">
         <v>7062</v>
       </c>
@@ -9313,7 +6711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="17.25" thickBot="1">
+    <row r="66" spans="1:6" ht="17.5" thickBot="1">
       <c r="A66" s="16">
         <v>7063</v>
       </c>
@@ -9333,7 +6731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="17.25" thickBot="1">
+    <row r="67" spans="1:6" ht="17.5" thickBot="1">
       <c r="A67" s="16">
         <v>7064</v>
       </c>
@@ -9353,7 +6751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="17.25" thickBot="1">
+    <row r="68" spans="1:6" ht="17.5" thickBot="1">
       <c r="A68" s="16">
         <v>7065</v>
       </c>
@@ -9373,7 +6771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="17.25" thickBot="1">
+    <row r="69" spans="1:6" ht="17.5" thickBot="1">
       <c r="A69" s="16">
         <v>7066</v>
       </c>
@@ -9393,7 +6791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="17.25" thickBot="1">
+    <row r="70" spans="1:6" ht="17.5" thickBot="1">
       <c r="A70" s="16">
         <v>7067</v>
       </c>
@@ -9413,7 +6811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="17.25" thickBot="1">
+    <row r="71" spans="1:6" ht="17.5" thickBot="1">
       <c r="A71" s="16">
         <v>7068</v>
       </c>
@@ -9433,7 +6831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="17.25" thickBot="1">
+    <row r="72" spans="1:6" ht="17.5" thickBot="1">
       <c r="A72" s="16">
         <v>7069</v>
       </c>
@@ -9453,7 +6851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="17.25" thickBot="1">
+    <row r="73" spans="1:6" ht="17.5" thickBot="1">
       <c r="A73" s="16">
         <v>7070</v>
       </c>
@@ -9473,7 +6871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="17.25" thickBot="1">
+    <row r="74" spans="1:6" ht="17.5" thickBot="1">
       <c r="A74" s="16">
         <v>7071</v>
       </c>
@@ -9493,7 +6891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="17.25" thickBot="1">
+    <row r="75" spans="1:6" ht="17.5" thickBot="1">
       <c r="A75" s="16">
         <v>7072</v>
       </c>
@@ -9513,7 +6911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="17.25" thickBot="1">
+    <row r="76" spans="1:6" ht="17.5" thickBot="1">
       <c r="A76" s="16">
         <v>7073</v>
       </c>
@@ -9533,7 +6931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="17.25" thickBot="1">
+    <row r="77" spans="1:6" ht="17.5" thickBot="1">
       <c r="A77" s="16">
         <v>7074</v>
       </c>
@@ -9553,7 +6951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="17.25" thickBot="1">
+    <row r="78" spans="1:6" ht="17.5" thickBot="1">
       <c r="A78" s="16">
         <v>7075</v>
       </c>
@@ -9573,7 +6971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="17.25" thickBot="1">
+    <row r="79" spans="1:6" ht="17.5" thickBot="1">
       <c r="A79" s="16">
         <v>7076</v>
       </c>
@@ -9593,7 +6991,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="17.25" thickBot="1">
+    <row r="80" spans="1:6" ht="17.5" thickBot="1">
       <c r="A80" s="16">
         <v>7077</v>
       </c>
@@ -9613,7 +7011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="17.25" thickBot="1">
+    <row r="81" spans="1:6" ht="17.5" thickBot="1">
       <c r="A81" s="16">
         <v>7078</v>
       </c>
@@ -9633,7 +7031,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="17.25" thickBot="1">
+    <row r="82" spans="1:6" ht="17.5" thickBot="1">
       <c r="A82" s="16">
         <v>7079</v>
       </c>
@@ -9653,7 +7051,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="17.25" thickBot="1">
+    <row r="83" spans="1:6" ht="17.5" thickBot="1">
       <c r="A83" s="16">
         <v>7080</v>
       </c>
@@ -9673,7 +7071,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="17.25" thickBot="1">
+    <row r="84" spans="1:6" ht="17.5" thickBot="1">
       <c r="A84" s="16">
         <v>7081</v>
       </c>
@@ -9693,7 +7091,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="17.25" thickBot="1">
+    <row r="85" spans="1:6" ht="17.5" thickBot="1">
       <c r="A85" s="16">
         <v>7082</v>
       </c>
@@ -9713,7 +7111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17.25" thickBot="1">
+    <row r="86" spans="1:6" ht="17.5" thickBot="1">
       <c r="A86" s="16">
         <v>7083</v>
       </c>
@@ -9733,7 +7131,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="17.25" thickBot="1">
+    <row r="87" spans="1:6" ht="17.5" thickBot="1">
       <c r="A87" s="16">
         <v>7084</v>
       </c>
@@ -9753,7 +7151,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="17.25" thickBot="1">
+    <row r="88" spans="1:6" ht="17.5" thickBot="1">
       <c r="A88" s="16">
         <v>7085</v>
       </c>
@@ -9773,7 +7171,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="17.25" thickBot="1">
+    <row r="89" spans="1:6" ht="17.5" thickBot="1">
       <c r="A89" s="16">
         <v>7086</v>
       </c>
@@ -9793,7 +7191,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="17.25" thickBot="1">
+    <row r="90" spans="1:6" ht="17.5" thickBot="1">
       <c r="A90" s="16">
         <v>7087</v>
       </c>
@@ -9813,7 +7211,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="17.25" thickBot="1">
+    <row r="91" spans="1:6" ht="17.5" thickBot="1">
       <c r="A91" s="16">
         <v>7088</v>
       </c>
@@ -9833,7 +7231,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="17.25" thickBot="1">
+    <row r="92" spans="1:6" ht="17.5" thickBot="1">
       <c r="A92" s="16">
         <v>7089</v>
       </c>
@@ -9853,7 +7251,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="17.25" thickBot="1">
+    <row r="93" spans="1:6" ht="17.5" thickBot="1">
       <c r="A93" s="16">
         <v>7090</v>
       </c>
@@ -9873,7 +7271,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="17.25" thickBot="1">
+    <row r="94" spans="1:6" ht="17.5" thickBot="1">
       <c r="A94" s="16">
         <v>7091</v>
       </c>
@@ -9893,7 +7291,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="17.25" thickBot="1">
+    <row r="95" spans="1:6" ht="17.5" thickBot="1">
       <c r="A95" s="16">
         <v>7092</v>
       </c>
@@ -9913,7 +7311,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="17.25" thickBot="1">
+    <row r="96" spans="1:6" ht="17.5" thickBot="1">
       <c r="A96" s="16">
         <v>7093</v>
       </c>
@@ -9933,7 +7331,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="17.25" thickBot="1">
+    <row r="97" spans="1:6" ht="17.5" thickBot="1">
       <c r="A97" s="16">
         <v>7094</v>
       </c>
@@ -9953,7 +7351,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="17.25" thickBot="1">
+    <row r="98" spans="1:6" ht="17.5" thickBot="1">
       <c r="A98" s="16">
         <v>7095</v>
       </c>
@@ -9973,7 +7371,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="17.25" thickBot="1">
+    <row r="99" spans="1:6" ht="17.5" thickBot="1">
       <c r="A99" s="16">
         <v>7096</v>
       </c>
@@ -9993,7 +7391,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="17.25" thickBot="1">
+    <row r="100" spans="1:6" ht="17.5" thickBot="1">
       <c r="A100" s="16">
         <v>7097</v>
       </c>
@@ -10013,7 +7411,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="17.25" thickBot="1">
+    <row r="101" spans="1:6" ht="17.5" thickBot="1">
       <c r="A101" s="16">
         <v>7098</v>
       </c>
@@ -10033,7 +7431,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="17.25" thickBot="1">
+    <row r="102" spans="1:6" ht="17.5" thickBot="1">
       <c r="A102" s="16">
         <v>7099</v>
       </c>
@@ -10053,7 +7451,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="17.25" thickBot="1">
+    <row r="103" spans="1:6" ht="17.5" thickBot="1">
       <c r="A103" s="16">
         <v>7100</v>
       </c>
@@ -10088,10 +7486,10 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="104.875" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="104.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10138,7 +7536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="49.5">
+    <row r="5" spans="1:3" ht="51">
       <c r="A5">
         <v>1</v>
       </c>
@@ -10149,7 +7547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="82.5">
+    <row r="6" spans="1:3" ht="85">
       <c r="A6">
         <v>2</v>
       </c>
@@ -10160,7 +7558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="82.5">
+    <row r="7" spans="1:3" ht="85">
       <c r="A7">
         <v>3</v>
       </c>
@@ -10171,7 +7569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="49.5">
+    <row r="8" spans="1:3" ht="51">
       <c r="A8">
         <v>4</v>
       </c>
@@ -10182,7 +7580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="82.5">
+    <row r="9" spans="1:3" ht="85">
       <c r="A9">
         <v>5</v>
       </c>
@@ -10193,7 +7591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="66">
+    <row r="10" spans="1:3" ht="68">
       <c r="A10">
         <v>6</v>
       </c>
@@ -10204,7 +7602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="49.5">
+    <row r="11" spans="1:3" ht="51">
       <c r="A11">
         <v>7</v>
       </c>
@@ -10215,7 +7613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="66">
+    <row r="12" spans="1:3" ht="68">
       <c r="A12">
         <v>8</v>
       </c>
@@ -10226,7 +7624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="33">
+    <row r="13" spans="1:3" ht="34">
       <c r="A13">
         <v>9</v>
       </c>
@@ -10237,7 +7635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="115.5">
+    <row r="14" spans="1:3" ht="119">
       <c r="A14">
         <v>10</v>
       </c>
@@ -10248,7 +7646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="82.5">
+    <row r="15" spans="1:3" ht="85">
       <c r="A15">
         <v>11</v>
       </c>
@@ -10285,14 +7683,14 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.58203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10341,7 +7739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1">
+    <row r="3" spans="1:7" ht="17.5" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -10364,7 +7762,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" thickBot="1">
+    <row r="4" spans="1:7" ht="17.5" thickBot="1">
       <c r="A4" s="14">
         <v>401</v>
       </c>
@@ -10387,7 +7785,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" thickBot="1">
+    <row r="5" spans="1:7" ht="17.5" thickBot="1">
       <c r="A5" s="16">
         <v>402</v>
       </c>
@@ -10410,7 +7808,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1">
+    <row r="6" spans="1:7" ht="17.5" thickBot="1">
       <c r="A6" s="16">
         <v>403</v>
       </c>
@@ -10433,7 +7831,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1">
+    <row r="7" spans="1:7" ht="17.5" thickBot="1">
       <c r="A7" s="16">
         <v>404</v>
       </c>
@@ -10456,7 +7854,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.25" thickBot="1">
+    <row r="8" spans="1:7" ht="17.5" thickBot="1">
       <c r="A8" s="16">
         <v>405</v>
       </c>
@@ -10479,7 +7877,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.25" thickBot="1">
+    <row r="9" spans="1:7" ht="17.5" thickBot="1">
       <c r="A9" s="16">
         <v>406</v>
       </c>
@@ -10502,7 +7900,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.25" thickBot="1">
+    <row r="10" spans="1:7" ht="17.5" thickBot="1">
       <c r="A10" s="16">
         <v>407</v>
       </c>
@@ -10525,7 +7923,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.25" thickBot="1">
+    <row r="11" spans="1:7" ht="17.5" thickBot="1">
       <c r="A11" s="16">
         <v>408</v>
       </c>
@@ -10548,7 +7946,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" thickBot="1">
+    <row r="12" spans="1:7" ht="17.5" thickBot="1">
       <c r="A12" s="16">
         <v>409</v>
       </c>
@@ -10571,7 +7969,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.25" thickBot="1">
+    <row r="13" spans="1:7" ht="17.5" thickBot="1">
       <c r="A13" s="16">
         <v>410</v>
       </c>
@@ -10609,13 +8007,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" customWidth="1"/>
+    <col min="6" max="6" width="13.58203125" customWidth="1"/>
+    <col min="7" max="7" width="19.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10664,7 +8062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1">
+    <row r="3" spans="1:7" ht="17.5" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -10687,7 +8085,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" thickBot="1">
+    <row r="4" spans="1:7" ht="17.5" thickBot="1">
       <c r="A4" s="14">
         <v>501</v>
       </c>
@@ -10710,7 +8108,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" thickBot="1">
+    <row r="5" spans="1:7" ht="17.5" thickBot="1">
       <c r="A5" s="16">
         <v>502</v>
       </c>
@@ -10733,7 +8131,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1">
+    <row r="6" spans="1:7" ht="17.5" thickBot="1">
       <c r="A6" s="16">
         <v>503</v>
       </c>
@@ -10756,7 +8154,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1">
+    <row r="7" spans="1:7" ht="17.5" thickBot="1">
       <c r="A7" s="16">
         <v>504</v>
       </c>
@@ -10779,7 +8177,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.25" thickBot="1">
+    <row r="8" spans="1:7" ht="17.5" thickBot="1">
       <c r="A8" s="16">
         <v>505</v>
       </c>
@@ -10817,21 +8215,21 @@
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" customWidth="1"/>
+    <col min="2" max="2" width="31.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.08203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.58203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -10975,7 +8373,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="49.5">
+    <row r="4" spans="1:15" ht="51">
       <c r="A4">
         <v>3001</v>
       </c>
@@ -11022,7 +8420,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="49.5">
+    <row r="5" spans="1:15" ht="51">
       <c r="A5">
         <v>3002</v>
       </c>
@@ -11069,7 +8467,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="66">
+    <row r="6" spans="1:15" ht="68">
       <c r="A6">
         <v>3003</v>
       </c>
@@ -11116,7 +8514,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="49.5">
+    <row r="7" spans="1:15" ht="51">
       <c r="A7">
         <v>3004</v>
       </c>
@@ -11163,7 +8561,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="49.5">
+    <row r="8" spans="1:15" ht="51">
       <c r="A8">
         <v>3005</v>
       </c>
@@ -11210,7 +8608,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="49.5">
+    <row r="9" spans="1:15" ht="51">
       <c r="A9">
         <v>3006</v>
       </c>
@@ -11257,7 +8655,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="49.5">
+    <row r="10" spans="1:15" ht="51">
       <c r="A10">
         <v>3007</v>
       </c>
@@ -11304,7 +8702,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="49.5">
+    <row r="11" spans="1:15" ht="51">
       <c r="A11">
         <v>3008</v>
       </c>
@@ -11366,15 +8764,15 @@
       <selection sqref="A1:M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -12376,7 +9774,7 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="37" style="1" customWidth="1"/>
@@ -13026,7 +10424,7 @@
       <selection activeCell="E1" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Portfolio\Oilnam\RawData\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FF0142-FE86-41CB-842D-EF6BFBE85247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F448B4A-A82F-4894-90E9-C1D7457AC2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="1150" windowWidth="19200" windowHeight="11170" firstSheet="1" activeTab="9" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="12" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Shop" sheetId="11" r:id="rId10"/>
     <sheet name="Goods" sheetId="12" r:id="rId11"/>
     <sheet name="TIP" sheetId="10" r:id="rId12"/>
+    <sheet name="LevelPass" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="368">
   <si>
     <t>Name</t>
   </si>
@@ -1372,6 +1373,42 @@
   </si>
   <si>
     <t>모집권 300장\n골드 500개를 구매합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldenType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldenValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1664,7 +1701,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1988,14 +2025,14 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="6" width="11.58203125" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="5" max="6" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2080,7 +2117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.149999999999999" customHeight="1">
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -4182,27 +4219,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D50587-6B81-48DF-A8DB-00F001E27D99}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" customWidth="1"/>
-    <col min="2" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.9140625" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.875" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="15.08203125" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
     <col min="10" max="10" width="15.75" customWidth="1"/>
     <col min="11" max="13" width="16" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="15" max="15" width="14.25" customWidth="1"/>
-    <col min="16" max="17" width="14.83203125" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" customWidth="1"/>
-    <col min="19" max="19" width="14.83203125" customWidth="1"/>
+    <col min="16" max="17" width="14.875" customWidth="1"/>
+    <col min="18" max="18" width="13.625" customWidth="1"/>
+    <col min="19" max="19" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -4264,7 +4301,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="17.5" thickBot="1">
+    <row r="2" spans="1:19" ht="17.25" thickBot="1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4323,7 +4360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="17.5" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" thickBot="1">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4382,7 +4419,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="17.5" thickBot="1">
+    <row r="4" spans="1:19" ht="17.25" thickBot="1">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -4441,7 +4478,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="17.5" thickBot="1">
+    <row r="5" spans="1:19" ht="17.25" thickBot="1">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -4500,7 +4537,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="17.5" thickBot="1">
+    <row r="6" spans="1:19" ht="17.25" thickBot="1">
       <c r="A6">
         <v>1003</v>
       </c>
@@ -4559,7 +4596,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="17.5" thickBot="1">
+    <row r="7" spans="1:19" ht="17.25" thickBot="1">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -4618,7 +4655,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="17.5" thickBot="1">
+    <row r="8" spans="1:19" ht="17.25" thickBot="1">
       <c r="A8">
         <v>1005</v>
       </c>
@@ -4677,7 +4714,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="17.5" thickBot="1">
+    <row r="9" spans="1:19" ht="17.25" thickBot="1">
       <c r="A9">
         <v>1006</v>
       </c>
@@ -4736,7 +4773,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="17.5" thickBot="1">
+    <row r="10" spans="1:19" ht="17.25" thickBot="1">
       <c r="A10">
         <v>1007</v>
       </c>
@@ -4795,7 +4832,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="17.5" thickBot="1">
+    <row r="11" spans="1:19" ht="17.25" thickBot="1">
       <c r="A11">
         <v>1008</v>
       </c>
@@ -4854,7 +4891,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="17.5" thickBot="1">
+    <row r="12" spans="1:19" ht="17.25" thickBot="1">
       <c r="A12">
         <v>1009</v>
       </c>
@@ -4913,7 +4950,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="17.5" thickBot="1">
+    <row r="13" spans="1:19" ht="17.25" thickBot="1">
       <c r="A13">
         <v>1010</v>
       </c>
@@ -4972,7 +5009,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="17.5" thickBot="1">
+    <row r="14" spans="1:19" ht="17.25" thickBot="1">
       <c r="A14">
         <v>1011</v>
       </c>
@@ -5031,7 +5068,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="17.5" thickBot="1">
+    <row r="15" spans="1:19" ht="17.25" thickBot="1">
       <c r="A15">
         <v>1012</v>
       </c>
@@ -5090,7 +5127,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="17.5" thickBot="1">
+    <row r="16" spans="1:19" ht="17.25" thickBot="1">
       <c r="A16">
         <v>1013</v>
       </c>
@@ -5164,10 +5201,10 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="39.58203125" customWidth="1"/>
+    <col min="3" max="3" width="39.625" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5185,7 +5222,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.5" thickBot="1">
+    <row r="2" spans="1:4" ht="17.25" thickBot="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5199,7 +5236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.5" thickBot="1">
+    <row r="3" spans="1:4" ht="17.25" thickBot="1">
       <c r="A3" s="23" t="s">
         <v>32</v>
       </c>
@@ -5213,7 +5250,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.5" thickBot="1">
+    <row r="4" spans="1:4" ht="17.25" thickBot="1">
       <c r="A4" s="16">
         <v>1501</v>
       </c>
@@ -5241,7 +5278,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="22" customHeight="1" thickBot="1">
+    <row r="6" spans="1:4" ht="21.95" customHeight="1" thickBot="1">
       <c r="A6" s="16">
         <v>1503</v>
       </c>
@@ -5255,7 +5292,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="16">
         <v>1504</v>
       </c>
@@ -5269,7 +5306,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:4" ht="21.6" customHeight="1" thickBot="1">
       <c r="A8" s="16">
         <v>1505</v>
       </c>
@@ -5283,7 +5320,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="22" customHeight="1" thickBot="1">
+    <row r="9" spans="1:4" ht="21.95" customHeight="1" thickBot="1">
       <c r="A9" s="16">
         <v>1506</v>
       </c>
@@ -5312,10 +5349,10 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5394,6 +5431,2682 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570ED6A6-C2B6-4CA2-B682-3DB946291FCC}">
+  <dimension ref="A1:F133"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>600</v>
+      </c>
+      <c r="F4" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>200</v>
+      </c>
+      <c r="F5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>600</v>
+      </c>
+      <c r="F6" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>200</v>
+      </c>
+      <c r="F7" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>600</v>
+      </c>
+      <c r="F8" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>200</v>
+      </c>
+      <c r="F9" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>10007</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>600</v>
+      </c>
+      <c r="F10" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10008</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>600</v>
+      </c>
+      <c r="F11" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10009</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>200</v>
+      </c>
+      <c r="F12" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>10010</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>600</v>
+      </c>
+      <c r="F13" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>10011</v>
+      </c>
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>200</v>
+      </c>
+      <c r="F14" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>10012</v>
+      </c>
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>600</v>
+      </c>
+      <c r="F15" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>10013</v>
+      </c>
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>200</v>
+      </c>
+      <c r="F16" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>10014</v>
+      </c>
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>600</v>
+      </c>
+      <c r="F17" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>10015</v>
+      </c>
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>600</v>
+      </c>
+      <c r="F18" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>10016</v>
+      </c>
+      <c r="B19" s="1">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>200</v>
+      </c>
+      <c r="F19" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>10017</v>
+      </c>
+      <c r="B20" s="1">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>600</v>
+      </c>
+      <c r="F20" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>10018</v>
+      </c>
+      <c r="B21" s="1">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>200</v>
+      </c>
+      <c r="F21" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>10019</v>
+      </c>
+      <c r="B22" s="1">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>600</v>
+      </c>
+      <c r="F22" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>10020</v>
+      </c>
+      <c r="B23" s="1">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>200</v>
+      </c>
+      <c r="F23" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>10021</v>
+      </c>
+      <c r="B24" s="1">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>600</v>
+      </c>
+      <c r="F24" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>10022</v>
+      </c>
+      <c r="B25" s="1">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>600</v>
+      </c>
+      <c r="F25" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>10023</v>
+      </c>
+      <c r="B26" s="1">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>200</v>
+      </c>
+      <c r="F26" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>10024</v>
+      </c>
+      <c r="B27" s="1">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>600</v>
+      </c>
+      <c r="F27" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>10025</v>
+      </c>
+      <c r="B28" s="1">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>200</v>
+      </c>
+      <c r="F28" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>10026</v>
+      </c>
+      <c r="B29" s="1">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>600</v>
+      </c>
+      <c r="F29" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>10027</v>
+      </c>
+      <c r="B30" s="1">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>200</v>
+      </c>
+      <c r="F30" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>10028</v>
+      </c>
+      <c r="B31" s="1">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>600</v>
+      </c>
+      <c r="F31" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>10029</v>
+      </c>
+      <c r="B32" s="1">
+        <v>29</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>600</v>
+      </c>
+      <c r="F32" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>10030</v>
+      </c>
+      <c r="B33" s="1">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>200</v>
+      </c>
+      <c r="F33" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>10031</v>
+      </c>
+      <c r="B34" s="1">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>600</v>
+      </c>
+      <c r="F34" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>10032</v>
+      </c>
+      <c r="B35" s="1">
+        <v>32</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>200</v>
+      </c>
+      <c r="F35" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>10033</v>
+      </c>
+      <c r="B36" s="1">
+        <v>33</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>600</v>
+      </c>
+      <c r="F36" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>10034</v>
+      </c>
+      <c r="B37" s="1">
+        <v>34</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>200</v>
+      </c>
+      <c r="F37" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>10035</v>
+      </c>
+      <c r="B38" s="1">
+        <v>35</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>600</v>
+      </c>
+      <c r="F38" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>10036</v>
+      </c>
+      <c r="B39" s="1">
+        <v>36</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>600</v>
+      </c>
+      <c r="F39" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>10037</v>
+      </c>
+      <c r="B40" s="1">
+        <v>37</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>200</v>
+      </c>
+      <c r="F40" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>10038</v>
+      </c>
+      <c r="B41" s="1">
+        <v>38</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>600</v>
+      </c>
+      <c r="F41" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>10039</v>
+      </c>
+      <c r="B42" s="1">
+        <v>39</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>200</v>
+      </c>
+      <c r="F42" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>10040</v>
+      </c>
+      <c r="B43" s="1">
+        <v>40</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>600</v>
+      </c>
+      <c r="F43" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>10041</v>
+      </c>
+      <c r="B44" s="1">
+        <v>41</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>200</v>
+      </c>
+      <c r="F44" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>10042</v>
+      </c>
+      <c r="B45" s="1">
+        <v>42</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>600</v>
+      </c>
+      <c r="F45" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>10043</v>
+      </c>
+      <c r="B46" s="1">
+        <v>43</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>600</v>
+      </c>
+      <c r="F46" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>10044</v>
+      </c>
+      <c r="B47" s="1">
+        <v>44</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>200</v>
+      </c>
+      <c r="F47" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>10045</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>600</v>
+      </c>
+      <c r="F48" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>10046</v>
+      </c>
+      <c r="B49" s="1">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>200</v>
+      </c>
+      <c r="F49" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>10047</v>
+      </c>
+      <c r="B50" s="1">
+        <v>47</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>600</v>
+      </c>
+      <c r="F50" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>10048</v>
+      </c>
+      <c r="B51" s="1">
+        <v>48</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>200</v>
+      </c>
+      <c r="F51" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>10049</v>
+      </c>
+      <c r="B52" s="1">
+        <v>49</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1">
+        <v>600</v>
+      </c>
+      <c r="F52" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>10050</v>
+      </c>
+      <c r="B53" s="1">
+        <v>50</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>600</v>
+      </c>
+      <c r="F53" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>10051</v>
+      </c>
+      <c r="B54" s="1">
+        <v>51</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>200</v>
+      </c>
+      <c r="F54" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>10052</v>
+      </c>
+      <c r="B55" s="1">
+        <v>52</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <v>600</v>
+      </c>
+      <c r="F55" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>10053</v>
+      </c>
+      <c r="B56" s="1">
+        <v>53</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+      <c r="E56" s="1">
+        <v>200</v>
+      </c>
+      <c r="F56" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>10054</v>
+      </c>
+      <c r="B57" s="1">
+        <v>54</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
+        <v>600</v>
+      </c>
+      <c r="F57" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>10055</v>
+      </c>
+      <c r="B58" s="1">
+        <v>55</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2</v>
+      </c>
+      <c r="E58" s="1">
+        <v>200</v>
+      </c>
+      <c r="F58" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>10056</v>
+      </c>
+      <c r="B59" s="1">
+        <v>56</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1">
+        <v>600</v>
+      </c>
+      <c r="F59" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>10057</v>
+      </c>
+      <c r="B60" s="1">
+        <v>57</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1">
+        <v>600</v>
+      </c>
+      <c r="F60" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>10058</v>
+      </c>
+      <c r="B61" s="1">
+        <v>58</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1">
+        <v>200</v>
+      </c>
+      <c r="F61" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>10059</v>
+      </c>
+      <c r="B62" s="1">
+        <v>59</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>600</v>
+      </c>
+      <c r="F62" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>10060</v>
+      </c>
+      <c r="B63" s="1">
+        <v>60</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1">
+        <v>200</v>
+      </c>
+      <c r="F63" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>10061</v>
+      </c>
+      <c r="B64" s="1">
+        <v>61</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
+        <v>600</v>
+      </c>
+      <c r="F64" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>10062</v>
+      </c>
+      <c r="B65" s="1">
+        <v>62</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2</v>
+      </c>
+      <c r="E65" s="1">
+        <v>200</v>
+      </c>
+      <c r="F65" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>10063</v>
+      </c>
+      <c r="B66" s="1">
+        <v>63</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>3</v>
+      </c>
+      <c r="E66" s="1">
+        <v>600</v>
+      </c>
+      <c r="F66" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>10064</v>
+      </c>
+      <c r="B67" s="1">
+        <v>64</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1">
+        <v>600</v>
+      </c>
+      <c r="F67" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>10065</v>
+      </c>
+      <c r="B68" s="1">
+        <v>65</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2</v>
+      </c>
+      <c r="E68" s="1">
+        <v>200</v>
+      </c>
+      <c r="F68" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>10066</v>
+      </c>
+      <c r="B69" s="1">
+        <v>66</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1">
+        <v>600</v>
+      </c>
+      <c r="F69" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>10067</v>
+      </c>
+      <c r="B70" s="1">
+        <v>67</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
+      <c r="E70" s="1">
+        <v>200</v>
+      </c>
+      <c r="F70" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>10068</v>
+      </c>
+      <c r="B71" s="1">
+        <v>68</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1">
+        <v>600</v>
+      </c>
+      <c r="F71" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>10069</v>
+      </c>
+      <c r="B72" s="1">
+        <v>69</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2</v>
+      </c>
+      <c r="E72" s="1">
+        <v>200</v>
+      </c>
+      <c r="F72" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>10070</v>
+      </c>
+      <c r="B73" s="1">
+        <v>70</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3</v>
+      </c>
+      <c r="E73" s="1">
+        <v>600</v>
+      </c>
+      <c r="F73" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>10071</v>
+      </c>
+      <c r="B74" s="1">
+        <v>71</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>200</v>
+      </c>
+      <c r="F74" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>10072</v>
+      </c>
+      <c r="B75" s="1">
+        <v>72</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2</v>
+      </c>
+      <c r="E75" s="1">
+        <v>600</v>
+      </c>
+      <c r="F75" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>10073</v>
+      </c>
+      <c r="B76" s="1">
+        <v>73</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>200</v>
+      </c>
+      <c r="F76" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>10074</v>
+      </c>
+      <c r="B77" s="1">
+        <v>74</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2</v>
+      </c>
+      <c r="E77" s="1">
+        <v>600</v>
+      </c>
+      <c r="F77" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>10075</v>
+      </c>
+      <c r="B78" s="1">
+        <v>75</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>600</v>
+      </c>
+      <c r="F78" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>10076</v>
+      </c>
+      <c r="B79" s="1">
+        <v>76</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2</v>
+      </c>
+      <c r="E79" s="1">
+        <v>200</v>
+      </c>
+      <c r="F79" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>10077</v>
+      </c>
+      <c r="B80" s="1">
+        <v>77</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <v>3</v>
+      </c>
+      <c r="E80" s="1">
+        <v>600</v>
+      </c>
+      <c r="F80" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>10078</v>
+      </c>
+      <c r="B81" s="1">
+        <v>78</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>200</v>
+      </c>
+      <c r="F81" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>10079</v>
+      </c>
+      <c r="B82" s="1">
+        <v>79</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2</v>
+      </c>
+      <c r="E82" s="1">
+        <v>600</v>
+      </c>
+      <c r="F82" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>10080</v>
+      </c>
+      <c r="B83" s="1">
+        <v>80</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1">
+        <v>200</v>
+      </c>
+      <c r="F83" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>10081</v>
+      </c>
+      <c r="B84" s="1">
+        <v>81</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
+        <v>2</v>
+      </c>
+      <c r="E84" s="1">
+        <v>600</v>
+      </c>
+      <c r="F84" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>10082</v>
+      </c>
+      <c r="B85" s="1">
+        <v>82</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1">
+        <v>600</v>
+      </c>
+      <c r="F85" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>10083</v>
+      </c>
+      <c r="B86" s="1">
+        <v>83</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2</v>
+      </c>
+      <c r="E86" s="1">
+        <v>200</v>
+      </c>
+      <c r="F86" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>10084</v>
+      </c>
+      <c r="B87" s="1">
+        <v>84</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2</v>
+      </c>
+      <c r="D87" s="1">
+        <v>3</v>
+      </c>
+      <c r="E87" s="1">
+        <v>600</v>
+      </c>
+      <c r="F87" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>10085</v>
+      </c>
+      <c r="B88" s="1">
+        <v>85</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1">
+        <v>200</v>
+      </c>
+      <c r="F88" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>10086</v>
+      </c>
+      <c r="B89" s="1">
+        <v>86</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2</v>
+      </c>
+      <c r="E89" s="1">
+        <v>600</v>
+      </c>
+      <c r="F89" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>10087</v>
+      </c>
+      <c r="B90" s="1">
+        <v>87</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <v>200</v>
+      </c>
+      <c r="F90" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>10088</v>
+      </c>
+      <c r="B91" s="1">
+        <v>88</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2</v>
+      </c>
+      <c r="D91" s="1">
+        <v>2</v>
+      </c>
+      <c r="E91" s="1">
+        <v>600</v>
+      </c>
+      <c r="F91" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>10089</v>
+      </c>
+      <c r="B92" s="1">
+        <v>89</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1">
+        <v>200</v>
+      </c>
+      <c r="F92" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>10090</v>
+      </c>
+      <c r="B93" s="1">
+        <v>90</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2</v>
+      </c>
+      <c r="E93" s="1">
+        <v>600</v>
+      </c>
+      <c r="F93" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>10091</v>
+      </c>
+      <c r="B94" s="1">
+        <v>91</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <v>3</v>
+      </c>
+      <c r="E94" s="1">
+        <v>200</v>
+      </c>
+      <c r="F94" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>10092</v>
+      </c>
+      <c r="B95" s="1">
+        <v>92</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1">
+        <v>600</v>
+      </c>
+      <c r="F95" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>10093</v>
+      </c>
+      <c r="B96" s="1">
+        <v>93</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <v>2</v>
+      </c>
+      <c r="E96" s="1">
+        <v>600</v>
+      </c>
+      <c r="F96" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>10094</v>
+      </c>
+      <c r="B97" s="1">
+        <v>94</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1">
+        <v>200</v>
+      </c>
+      <c r="F97" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>10095</v>
+      </c>
+      <c r="B98" s="1">
+        <v>95</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <v>2</v>
+      </c>
+      <c r="E98" s="1">
+        <v>600</v>
+      </c>
+      <c r="F98" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>10096</v>
+      </c>
+      <c r="B99" s="1">
+        <v>96</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1">
+        <v>200</v>
+      </c>
+      <c r="F99" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>10097</v>
+      </c>
+      <c r="B100" s="1">
+        <v>97</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>2</v>
+      </c>
+      <c r="E100" s="1">
+        <v>600</v>
+      </c>
+      <c r="F100" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>10098</v>
+      </c>
+      <c r="B101" s="1">
+        <v>98</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2</v>
+      </c>
+      <c r="D101" s="1">
+        <v>3</v>
+      </c>
+      <c r="E101" s="1">
+        <v>200</v>
+      </c>
+      <c r="F101" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>10099</v>
+      </c>
+      <c r="B102" s="1">
+        <v>99</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1</v>
+      </c>
+      <c r="E102" s="1">
+        <v>600</v>
+      </c>
+      <c r="F102" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>10100</v>
+      </c>
+      <c r="B103" s="1">
+        <v>100</v>
+      </c>
+      <c r="C103" s="1">
+        <v>2</v>
+      </c>
+      <c r="D103" s="1">
+        <v>2</v>
+      </c>
+      <c r="E103" s="1">
+        <v>600</v>
+      </c>
+      <c r="F103" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>10101</v>
+      </c>
+      <c r="B104" s="1">
+        <v>101</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1">
+        <v>200</v>
+      </c>
+      <c r="F104" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>10102</v>
+      </c>
+      <c r="B105" s="1">
+        <v>102</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2</v>
+      </c>
+      <c r="D105" s="1">
+        <v>2</v>
+      </c>
+      <c r="E105" s="1">
+        <v>600</v>
+      </c>
+      <c r="F105" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>10103</v>
+      </c>
+      <c r="B106" s="1">
+        <v>103</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <v>1</v>
+      </c>
+      <c r="E106" s="1">
+        <v>200</v>
+      </c>
+      <c r="F106" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>10104</v>
+      </c>
+      <c r="B107" s="1">
+        <v>104</v>
+      </c>
+      <c r="C107" s="1">
+        <v>2</v>
+      </c>
+      <c r="D107" s="1">
+        <v>2</v>
+      </c>
+      <c r="E107" s="1">
+        <v>600</v>
+      </c>
+      <c r="F107" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>10105</v>
+      </c>
+      <c r="B108" s="1">
+        <v>105</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <v>3</v>
+      </c>
+      <c r="E108" s="1">
+        <v>200</v>
+      </c>
+      <c r="F108" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>10106</v>
+      </c>
+      <c r="B109" s="1">
+        <v>106</v>
+      </c>
+      <c r="C109" s="1">
+        <v>2</v>
+      </c>
+      <c r="D109" s="1">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1">
+        <v>600</v>
+      </c>
+      <c r="F109" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>10107</v>
+      </c>
+      <c r="B110" s="1">
+        <v>107</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1">
+        <v>2</v>
+      </c>
+      <c r="E110" s="1">
+        <v>200</v>
+      </c>
+      <c r="F110" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>10108</v>
+      </c>
+      <c r="B111" s="1">
+        <v>108</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2</v>
+      </c>
+      <c r="D111" s="1">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1">
+        <v>600</v>
+      </c>
+      <c r="F111" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>10109</v>
+      </c>
+      <c r="B112" s="1">
+        <v>109</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
+        <v>2</v>
+      </c>
+      <c r="E112" s="1">
+        <v>200</v>
+      </c>
+      <c r="F112" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>10110</v>
+      </c>
+      <c r="B113" s="1">
+        <v>110</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1</v>
+      </c>
+      <c r="E113" s="1">
+        <v>600</v>
+      </c>
+      <c r="F113" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>10111</v>
+      </c>
+      <c r="B114" s="1">
+        <v>111</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
+        <v>2</v>
+      </c>
+      <c r="E114" s="1">
+        <v>600</v>
+      </c>
+      <c r="F114" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>10112</v>
+      </c>
+      <c r="B115" s="1">
+        <v>112</v>
+      </c>
+      <c r="C115" s="1">
+        <v>2</v>
+      </c>
+      <c r="D115" s="1">
+        <v>3</v>
+      </c>
+      <c r="E115" s="1">
+        <v>200</v>
+      </c>
+      <c r="F115" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>10113</v>
+      </c>
+      <c r="B116" s="1">
+        <v>113</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1</v>
+      </c>
+      <c r="E116" s="1">
+        <v>600</v>
+      </c>
+      <c r="F116" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>10114</v>
+      </c>
+      <c r="B117" s="1">
+        <v>114</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2</v>
+      </c>
+      <c r="D117" s="1">
+        <v>2</v>
+      </c>
+      <c r="E117" s="1">
+        <v>200</v>
+      </c>
+      <c r="F117" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>10115</v>
+      </c>
+      <c r="B118" s="1">
+        <v>115</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1</v>
+      </c>
+      <c r="E118" s="1">
+        <v>600</v>
+      </c>
+      <c r="F118" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>10116</v>
+      </c>
+      <c r="B119" s="1">
+        <v>116</v>
+      </c>
+      <c r="C119" s="1">
+        <v>2</v>
+      </c>
+      <c r="D119" s="1">
+        <v>2</v>
+      </c>
+      <c r="E119" s="1">
+        <v>200</v>
+      </c>
+      <c r="F119" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>10117</v>
+      </c>
+      <c r="B120" s="1">
+        <v>117</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1</v>
+      </c>
+      <c r="E120" s="1">
+        <v>600</v>
+      </c>
+      <c r="F120" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>10118</v>
+      </c>
+      <c r="B121" s="1">
+        <v>118</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2</v>
+      </c>
+      <c r="D121" s="1">
+        <v>2</v>
+      </c>
+      <c r="E121" s="1">
+        <v>600</v>
+      </c>
+      <c r="F121" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>10119</v>
+      </c>
+      <c r="B122" s="1">
+        <v>119</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
+        <v>3</v>
+      </c>
+      <c r="E122" s="1">
+        <v>200</v>
+      </c>
+      <c r="F122" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>10120</v>
+      </c>
+      <c r="B123" s="1">
+        <v>120</v>
+      </c>
+      <c r="C123" s="1">
+        <v>2</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1</v>
+      </c>
+      <c r="E123" s="1">
+        <v>600</v>
+      </c>
+      <c r="F123" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>10121</v>
+      </c>
+      <c r="B124" s="1">
+        <v>121</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
+        <v>2</v>
+      </c>
+      <c r="E124" s="1">
+        <v>200</v>
+      </c>
+      <c r="F124" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>10122</v>
+      </c>
+      <c r="B125" s="1">
+        <v>122</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1">
+        <v>600</v>
+      </c>
+      <c r="F125" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>10123</v>
+      </c>
+      <c r="B126" s="1">
+        <v>123</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1">
+        <v>2</v>
+      </c>
+      <c r="E126" s="1">
+        <v>200</v>
+      </c>
+      <c r="F126" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>10124</v>
+      </c>
+      <c r="B127" s="1">
+        <v>124</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1</v>
+      </c>
+      <c r="E127" s="1">
+        <v>600</v>
+      </c>
+      <c r="F127" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>10125</v>
+      </c>
+      <c r="B128" s="1">
+        <v>125</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <v>2</v>
+      </c>
+      <c r="E128" s="1">
+        <v>200</v>
+      </c>
+      <c r="F128" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>10126</v>
+      </c>
+      <c r="B129" s="1">
+        <v>126</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2</v>
+      </c>
+      <c r="D129" s="1">
+        <v>3</v>
+      </c>
+      <c r="E129" s="1">
+        <v>600</v>
+      </c>
+      <c r="F129" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>10127</v>
+      </c>
+      <c r="B130" s="1">
+        <v>127</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
+        <v>1</v>
+      </c>
+      <c r="E130" s="1">
+        <v>200</v>
+      </c>
+      <c r="F130" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>10128</v>
+      </c>
+      <c r="B131" s="1">
+        <v>128</v>
+      </c>
+      <c r="C131" s="1">
+        <v>2</v>
+      </c>
+      <c r="D131" s="1">
+        <v>2</v>
+      </c>
+      <c r="E131" s="1">
+        <v>600</v>
+      </c>
+      <c r="F131" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>10129</v>
+      </c>
+      <c r="B132" s="1">
+        <v>129</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1</v>
+      </c>
+      <c r="E132" s="1">
+        <v>600</v>
+      </c>
+      <c r="F132" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>10130</v>
+      </c>
+      <c r="B133" s="1">
+        <v>130</v>
+      </c>
+      <c r="C133" s="1">
+        <v>2</v>
+      </c>
+      <c r="D133" s="1">
+        <v>2</v>
+      </c>
+      <c r="E133" s="1">
+        <v>200</v>
+      </c>
+      <c r="F133" s="1">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5405,10 +8118,10 @@
       <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5431,7 +8144,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.5" thickBot="1">
+    <row r="2" spans="1:6" ht="17.25" thickBot="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5471,7 +8184,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.5" thickBot="1">
+    <row r="4" spans="1:6" ht="17.25" thickBot="1">
       <c r="A4" s="16">
         <v>7001</v>
       </c>
@@ -5491,7 +8204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.5" thickBot="1">
+    <row r="5" spans="1:6" ht="17.25" thickBot="1">
       <c r="A5" s="16">
         <v>7002</v>
       </c>
@@ -5511,7 +8224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.5" thickBot="1">
+    <row r="6" spans="1:6" ht="17.25" thickBot="1">
       <c r="A6" s="16">
         <v>7003</v>
       </c>
@@ -5531,7 +8244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.5" thickBot="1">
+    <row r="7" spans="1:6" ht="17.25" thickBot="1">
       <c r="A7" s="16">
         <v>7004</v>
       </c>
@@ -5551,7 +8264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.5" thickBot="1">
+    <row r="8" spans="1:6" ht="17.25" thickBot="1">
       <c r="A8" s="16">
         <v>7005</v>
       </c>
@@ -5571,7 +8284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.5" thickBot="1">
+    <row r="9" spans="1:6" ht="17.25" thickBot="1">
       <c r="A9" s="16">
         <v>7006</v>
       </c>
@@ -5591,7 +8304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.5" thickBot="1">
+    <row r="10" spans="1:6" ht="17.25" thickBot="1">
       <c r="A10" s="16">
         <v>7007</v>
       </c>
@@ -5611,7 +8324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.5" thickBot="1">
+    <row r="11" spans="1:6" ht="17.25" thickBot="1">
       <c r="A11" s="16">
         <v>7008</v>
       </c>
@@ -5631,7 +8344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.5" thickBot="1">
+    <row r="12" spans="1:6" ht="17.25" thickBot="1">
       <c r="A12" s="16">
         <v>7009</v>
       </c>
@@ -5651,7 +8364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.5" thickBot="1">
+    <row r="13" spans="1:6" ht="17.25" thickBot="1">
       <c r="A13" s="16">
         <v>7010</v>
       </c>
@@ -5671,7 +8384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.5" thickBot="1">
+    <row r="14" spans="1:6" ht="17.25" thickBot="1">
       <c r="A14" s="16">
         <v>7011</v>
       </c>
@@ -5691,7 +8404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.5" thickBot="1">
+    <row r="15" spans="1:6" ht="17.25" thickBot="1">
       <c r="A15" s="16">
         <v>7012</v>
       </c>
@@ -5711,7 +8424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.5" thickBot="1">
+    <row r="16" spans="1:6" ht="17.25" thickBot="1">
       <c r="A16" s="16">
         <v>7013</v>
       </c>
@@ -5731,7 +8444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.5" thickBot="1">
+    <row r="17" spans="1:6" ht="17.25" thickBot="1">
       <c r="A17" s="16">
         <v>7014</v>
       </c>
@@ -5751,7 +8464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.5" thickBot="1">
+    <row r="18" spans="1:6" ht="17.25" thickBot="1">
       <c r="A18" s="16">
         <v>7015</v>
       </c>
@@ -5771,7 +8484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.5" thickBot="1">
+    <row r="19" spans="1:6" ht="17.25" thickBot="1">
       <c r="A19" s="16">
         <v>7016</v>
       </c>
@@ -5791,7 +8504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.5" thickBot="1">
+    <row r="20" spans="1:6" ht="17.25" thickBot="1">
       <c r="A20" s="16">
         <v>7017</v>
       </c>
@@ -5811,7 +8524,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.5" thickBot="1">
+    <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="16">
         <v>7018</v>
       </c>
@@ -5831,7 +8544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.5" thickBot="1">
+    <row r="22" spans="1:6" ht="17.25" thickBot="1">
       <c r="A22" s="16">
         <v>7019</v>
       </c>
@@ -5851,7 +8564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.5" thickBot="1">
+    <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="16">
         <v>7020</v>
       </c>
@@ -5871,7 +8584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.5" thickBot="1">
+    <row r="24" spans="1:6" ht="17.25" thickBot="1">
       <c r="A24" s="16">
         <v>7021</v>
       </c>
@@ -5891,7 +8604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.5" thickBot="1">
+    <row r="25" spans="1:6" ht="17.25" thickBot="1">
       <c r="A25" s="16">
         <v>7022</v>
       </c>
@@ -5911,7 +8624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.5" thickBot="1">
+    <row r="26" spans="1:6" ht="17.25" thickBot="1">
       <c r="A26" s="16">
         <v>7023</v>
       </c>
@@ -5931,7 +8644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.5" thickBot="1">
+    <row r="27" spans="1:6" ht="17.25" thickBot="1">
       <c r="A27" s="16">
         <v>7024</v>
       </c>
@@ -5951,7 +8664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.5" thickBot="1">
+    <row r="28" spans="1:6" ht="17.25" thickBot="1">
       <c r="A28" s="16">
         <v>7025</v>
       </c>
@@ -5971,7 +8684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.5" thickBot="1">
+    <row r="29" spans="1:6" ht="17.25" thickBot="1">
       <c r="A29" s="16">
         <v>7026</v>
       </c>
@@ -5991,7 +8704,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.5" thickBot="1">
+    <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="16">
         <v>7027</v>
       </c>
@@ -6011,7 +8724,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.5" thickBot="1">
+    <row r="31" spans="1:6" ht="17.25" thickBot="1">
       <c r="A31" s="16">
         <v>7028</v>
       </c>
@@ -6031,7 +8744,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.5" thickBot="1">
+    <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="16">
         <v>7029</v>
       </c>
@@ -6051,7 +8764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17.5" thickBot="1">
+    <row r="33" spans="1:6" ht="17.25" thickBot="1">
       <c r="A33" s="16">
         <v>7030</v>
       </c>
@@ -6071,7 +8784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17.5" thickBot="1">
+    <row r="34" spans="1:6" ht="17.25" thickBot="1">
       <c r="A34" s="16">
         <v>7031</v>
       </c>
@@ -6091,7 +8804,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.5" thickBot="1">
+    <row r="35" spans="1:6" ht="17.25" thickBot="1">
       <c r="A35" s="16">
         <v>7032</v>
       </c>
@@ -6111,7 +8824,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17.5" thickBot="1">
+    <row r="36" spans="1:6" ht="17.25" thickBot="1">
       <c r="A36" s="16">
         <v>7033</v>
       </c>
@@ -6131,7 +8844,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17.5" thickBot="1">
+    <row r="37" spans="1:6" ht="17.25" thickBot="1">
       <c r="A37" s="16">
         <v>7034</v>
       </c>
@@ -6151,7 +8864,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.5" thickBot="1">
+    <row r="38" spans="1:6" ht="17.25" thickBot="1">
       <c r="A38" s="16">
         <v>7035</v>
       </c>
@@ -6171,7 +8884,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17.5" thickBot="1">
+    <row r="39" spans="1:6" ht="17.25" thickBot="1">
       <c r="A39" s="16">
         <v>7036</v>
       </c>
@@ -6191,7 +8904,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.5" thickBot="1">
+    <row r="40" spans="1:6" ht="17.25" thickBot="1">
       <c r="A40" s="16">
         <v>7037</v>
       </c>
@@ -6211,7 +8924,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17.5" thickBot="1">
+    <row r="41" spans="1:6" ht="17.25" thickBot="1">
       <c r="A41" s="16">
         <v>7038</v>
       </c>
@@ -6231,7 +8944,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17.5" thickBot="1">
+    <row r="42" spans="1:6" ht="17.25" thickBot="1">
       <c r="A42" s="16">
         <v>7039</v>
       </c>
@@ -6251,7 +8964,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.5" thickBot="1">
+    <row r="43" spans="1:6" ht="17.25" thickBot="1">
       <c r="A43" s="16">
         <v>7040</v>
       </c>
@@ -6271,7 +8984,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.5" thickBot="1">
+    <row r="44" spans="1:6" ht="17.25" thickBot="1">
       <c r="A44" s="16">
         <v>7041</v>
       </c>
@@ -6291,7 +9004,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.5" thickBot="1">
+    <row r="45" spans="1:6" ht="17.25" thickBot="1">
       <c r="A45" s="16">
         <v>7042</v>
       </c>
@@ -6311,7 +9024,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17.5" thickBot="1">
+    <row r="46" spans="1:6" ht="17.25" thickBot="1">
       <c r="A46" s="16">
         <v>7043</v>
       </c>
@@ -6331,7 +9044,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="17.5" thickBot="1">
+    <row r="47" spans="1:6" ht="17.25" thickBot="1">
       <c r="A47" s="16">
         <v>7044</v>
       </c>
@@ -6351,7 +9064,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17.5" thickBot="1">
+    <row r="48" spans="1:6" ht="17.25" thickBot="1">
       <c r="A48" s="16">
         <v>7045</v>
       </c>
@@ -6371,7 +9084,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="17.5" thickBot="1">
+    <row r="49" spans="1:6" ht="17.25" thickBot="1">
       <c r="A49" s="16">
         <v>7046</v>
       </c>
@@ -6391,7 +9104,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="17.5" thickBot="1">
+    <row r="50" spans="1:6" ht="17.25" thickBot="1">
       <c r="A50" s="16">
         <v>7047</v>
       </c>
@@ -6411,7 +9124,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17.5" thickBot="1">
+    <row r="51" spans="1:6" ht="17.25" thickBot="1">
       <c r="A51" s="16">
         <v>7048</v>
       </c>
@@ -6431,7 +9144,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17.5" thickBot="1">
+    <row r="52" spans="1:6" ht="17.25" thickBot="1">
       <c r="A52" s="16">
         <v>7049</v>
       </c>
@@ -6451,7 +9164,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="17.5" thickBot="1">
+    <row r="53" spans="1:6" ht="17.25" thickBot="1">
       <c r="A53" s="16">
         <v>7050</v>
       </c>
@@ -6471,7 +9184,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="17.5" thickBot="1">
+    <row r="54" spans="1:6" ht="17.25" thickBot="1">
       <c r="A54" s="14">
         <v>7051</v>
       </c>
@@ -6491,7 +9204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="17.5" thickBot="1">
+    <row r="55" spans="1:6" ht="17.25" thickBot="1">
       <c r="A55" s="16">
         <v>7052</v>
       </c>
@@ -6511,7 +9224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="17.5" thickBot="1">
+    <row r="56" spans="1:6" ht="17.25" thickBot="1">
       <c r="A56" s="16">
         <v>7053</v>
       </c>
@@ -6531,7 +9244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="17.5" thickBot="1">
+    <row r="57" spans="1:6" ht="17.25" thickBot="1">
       <c r="A57" s="16">
         <v>7054</v>
       </c>
@@ -6551,7 +9264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="17.5" thickBot="1">
+    <row r="58" spans="1:6" ht="17.25" thickBot="1">
       <c r="A58" s="16">
         <v>7055</v>
       </c>
@@ -6571,7 +9284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="17.5" thickBot="1">
+    <row r="59" spans="1:6" ht="17.25" thickBot="1">
       <c r="A59" s="16">
         <v>7056</v>
       </c>
@@ -6591,7 +9304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17.5" thickBot="1">
+    <row r="60" spans="1:6" ht="17.25" thickBot="1">
       <c r="A60" s="16">
         <v>7057</v>
       </c>
@@ -6611,7 +9324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="17.5" thickBot="1">
+    <row r="61" spans="1:6" ht="17.25" thickBot="1">
       <c r="A61" s="16">
         <v>7058</v>
       </c>
@@ -6631,7 +9344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="17.5" thickBot="1">
+    <row r="62" spans="1:6" ht="17.25" thickBot="1">
       <c r="A62" s="16">
         <v>7059</v>
       </c>
@@ -6651,7 +9364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="17.5" thickBot="1">
+    <row r="63" spans="1:6" ht="17.25" thickBot="1">
       <c r="A63" s="16">
         <v>7060</v>
       </c>
@@ -6671,7 +9384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="17.5" thickBot="1">
+    <row r="64" spans="1:6" ht="17.25" thickBot="1">
       <c r="A64" s="16">
         <v>7061</v>
       </c>
@@ -6691,7 +9404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="17.5" thickBot="1">
+    <row r="65" spans="1:6" ht="17.25" thickBot="1">
       <c r="A65" s="16">
         <v>7062</v>
       </c>
@@ -6711,7 +9424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="17.5" thickBot="1">
+    <row r="66" spans="1:6" ht="17.25" thickBot="1">
       <c r="A66" s="16">
         <v>7063</v>
       </c>
@@ -6731,7 +9444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="17.5" thickBot="1">
+    <row r="67" spans="1:6" ht="17.25" thickBot="1">
       <c r="A67" s="16">
         <v>7064</v>
       </c>
@@ -6751,7 +9464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="17.5" thickBot="1">
+    <row r="68" spans="1:6" ht="17.25" thickBot="1">
       <c r="A68" s="16">
         <v>7065</v>
       </c>
@@ -6771,7 +9484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="17.5" thickBot="1">
+    <row r="69" spans="1:6" ht="17.25" thickBot="1">
       <c r="A69" s="16">
         <v>7066</v>
       </c>
@@ -6791,7 +9504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="17.5" thickBot="1">
+    <row r="70" spans="1:6" ht="17.25" thickBot="1">
       <c r="A70" s="16">
         <v>7067</v>
       </c>
@@ -6811,7 +9524,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="17.5" thickBot="1">
+    <row r="71" spans="1:6" ht="17.25" thickBot="1">
       <c r="A71" s="16">
         <v>7068</v>
       </c>
@@ -6831,7 +9544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="17.5" thickBot="1">
+    <row r="72" spans="1:6" ht="17.25" thickBot="1">
       <c r="A72" s="16">
         <v>7069</v>
       </c>
@@ -6851,7 +9564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="17.5" thickBot="1">
+    <row r="73" spans="1:6" ht="17.25" thickBot="1">
       <c r="A73" s="16">
         <v>7070</v>
       </c>
@@ -6871,7 +9584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="17.5" thickBot="1">
+    <row r="74" spans="1:6" ht="17.25" thickBot="1">
       <c r="A74" s="16">
         <v>7071</v>
       </c>
@@ -6891,7 +9604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="17.5" thickBot="1">
+    <row r="75" spans="1:6" ht="17.25" thickBot="1">
       <c r="A75" s="16">
         <v>7072</v>
       </c>
@@ -6911,7 +9624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="17.5" thickBot="1">
+    <row r="76" spans="1:6" ht="17.25" thickBot="1">
       <c r="A76" s="16">
         <v>7073</v>
       </c>
@@ -6931,7 +9644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="17.5" thickBot="1">
+    <row r="77" spans="1:6" ht="17.25" thickBot="1">
       <c r="A77" s="16">
         <v>7074</v>
       </c>
@@ -6951,7 +9664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="17.5" thickBot="1">
+    <row r="78" spans="1:6" ht="17.25" thickBot="1">
       <c r="A78" s="16">
         <v>7075</v>
       </c>
@@ -6971,7 +9684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="17.5" thickBot="1">
+    <row r="79" spans="1:6" ht="17.25" thickBot="1">
       <c r="A79" s="16">
         <v>7076</v>
       </c>
@@ -6991,7 +9704,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="17.5" thickBot="1">
+    <row r="80" spans="1:6" ht="17.25" thickBot="1">
       <c r="A80" s="16">
         <v>7077</v>
       </c>
@@ -7011,7 +9724,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="17.5" thickBot="1">
+    <row r="81" spans="1:6" ht="17.25" thickBot="1">
       <c r="A81" s="16">
         <v>7078</v>
       </c>
@@ -7031,7 +9744,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="17.5" thickBot="1">
+    <row r="82" spans="1:6" ht="17.25" thickBot="1">
       <c r="A82" s="16">
         <v>7079</v>
       </c>
@@ -7051,7 +9764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="17.5" thickBot="1">
+    <row r="83" spans="1:6" ht="17.25" thickBot="1">
       <c r="A83" s="16">
         <v>7080</v>
       </c>
@@ -7071,7 +9784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="17.5" thickBot="1">
+    <row r="84" spans="1:6" ht="17.25" thickBot="1">
       <c r="A84" s="16">
         <v>7081</v>
       </c>
@@ -7091,7 +9804,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="17.5" thickBot="1">
+    <row r="85" spans="1:6" ht="17.25" thickBot="1">
       <c r="A85" s="16">
         <v>7082</v>
       </c>
@@ -7111,7 +9824,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17.5" thickBot="1">
+    <row r="86" spans="1:6" ht="17.25" thickBot="1">
       <c r="A86" s="16">
         <v>7083</v>
       </c>
@@ -7131,7 +9844,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="17.5" thickBot="1">
+    <row r="87" spans="1:6" ht="17.25" thickBot="1">
       <c r="A87" s="16">
         <v>7084</v>
       </c>
@@ -7151,7 +9864,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="17.5" thickBot="1">
+    <row r="88" spans="1:6" ht="17.25" thickBot="1">
       <c r="A88" s="16">
         <v>7085</v>
       </c>
@@ -7171,7 +9884,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="17.5" thickBot="1">
+    <row r="89" spans="1:6" ht="17.25" thickBot="1">
       <c r="A89" s="16">
         <v>7086</v>
       </c>
@@ -7191,7 +9904,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="17.5" thickBot="1">
+    <row r="90" spans="1:6" ht="17.25" thickBot="1">
       <c r="A90" s="16">
         <v>7087</v>
       </c>
@@ -7211,7 +9924,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="17.5" thickBot="1">
+    <row r="91" spans="1:6" ht="17.25" thickBot="1">
       <c r="A91" s="16">
         <v>7088</v>
       </c>
@@ -7231,7 +9944,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="17.5" thickBot="1">
+    <row r="92" spans="1:6" ht="17.25" thickBot="1">
       <c r="A92" s="16">
         <v>7089</v>
       </c>
@@ -7251,7 +9964,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="17.5" thickBot="1">
+    <row r="93" spans="1:6" ht="17.25" thickBot="1">
       <c r="A93" s="16">
         <v>7090</v>
       </c>
@@ -7271,7 +9984,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="17.5" thickBot="1">
+    <row r="94" spans="1:6" ht="17.25" thickBot="1">
       <c r="A94" s="16">
         <v>7091</v>
       </c>
@@ -7291,7 +10004,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="17.5" thickBot="1">
+    <row r="95" spans="1:6" ht="17.25" thickBot="1">
       <c r="A95" s="16">
         <v>7092</v>
       </c>
@@ -7311,7 +10024,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="17.5" thickBot="1">
+    <row r="96" spans="1:6" ht="17.25" thickBot="1">
       <c r="A96" s="16">
         <v>7093</v>
       </c>
@@ -7331,7 +10044,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="17.5" thickBot="1">
+    <row r="97" spans="1:6" ht="17.25" thickBot="1">
       <c r="A97" s="16">
         <v>7094</v>
       </c>
@@ -7351,7 +10064,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="17.5" thickBot="1">
+    <row r="98" spans="1:6" ht="17.25" thickBot="1">
       <c r="A98" s="16">
         <v>7095</v>
       </c>
@@ -7371,7 +10084,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="17.5" thickBot="1">
+    <row r="99" spans="1:6" ht="17.25" thickBot="1">
       <c r="A99" s="16">
         <v>7096</v>
       </c>
@@ -7391,7 +10104,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="17.5" thickBot="1">
+    <row r="100" spans="1:6" ht="17.25" thickBot="1">
       <c r="A100" s="16">
         <v>7097</v>
       </c>
@@ -7411,7 +10124,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="17.5" thickBot="1">
+    <row r="101" spans="1:6" ht="17.25" thickBot="1">
       <c r="A101" s="16">
         <v>7098</v>
       </c>
@@ -7431,7 +10144,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="17.5" thickBot="1">
+    <row r="102" spans="1:6" ht="17.25" thickBot="1">
       <c r="A102" s="16">
         <v>7099</v>
       </c>
@@ -7451,7 +10164,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="17.5" thickBot="1">
+    <row r="103" spans="1:6" ht="17.25" thickBot="1">
       <c r="A103" s="16">
         <v>7100</v>
       </c>
@@ -7486,10 +10199,10 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="104.83203125" customWidth="1"/>
-    <col min="3" max="3" width="7.08203125" customWidth="1"/>
+    <col min="2" max="2" width="104.875" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7536,7 +10249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="51">
+    <row r="5" spans="1:3" ht="49.5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7547,7 +10260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="85">
+    <row r="6" spans="1:3" ht="82.5">
       <c r="A6">
         <v>2</v>
       </c>
@@ -7558,7 +10271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="85">
+    <row r="7" spans="1:3" ht="82.5">
       <c r="A7">
         <v>3</v>
       </c>
@@ -7569,7 +10282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51">
+    <row r="8" spans="1:3" ht="49.5">
       <c r="A8">
         <v>4</v>
       </c>
@@ -7580,7 +10293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="85">
+    <row r="9" spans="1:3" ht="82.5">
       <c r="A9">
         <v>5</v>
       </c>
@@ -7591,7 +10304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="68">
+    <row r="10" spans="1:3" ht="66">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7602,7 +10315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="51">
+    <row r="11" spans="1:3" ht="49.5">
       <c r="A11">
         <v>7</v>
       </c>
@@ -7613,7 +10326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="68">
+    <row r="12" spans="1:3" ht="66">
       <c r="A12">
         <v>8</v>
       </c>
@@ -7624,7 +10337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34">
+    <row r="13" spans="1:3" ht="33">
       <c r="A13">
         <v>9</v>
       </c>
@@ -7635,7 +10348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="119">
+    <row r="14" spans="1:3" ht="115.5">
       <c r="A14">
         <v>10</v>
       </c>
@@ -7646,7 +10359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="85">
+    <row r="15" spans="1:3" ht="82.5">
       <c r="A15">
         <v>11</v>
       </c>
@@ -7683,14 +10396,14 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" customWidth="1"/>
-    <col min="3" max="3" width="22.58203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7739,7 +10452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.5" thickBot="1">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -7762,7 +10475,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.5" thickBot="1">
+    <row r="4" spans="1:7" ht="17.25" thickBot="1">
       <c r="A4" s="14">
         <v>401</v>
       </c>
@@ -7785,7 +10498,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.5" thickBot="1">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1">
       <c r="A5" s="16">
         <v>402</v>
       </c>
@@ -7808,7 +10521,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.5" thickBot="1">
+    <row r="6" spans="1:7" ht="17.25" thickBot="1">
       <c r="A6" s="16">
         <v>403</v>
       </c>
@@ -7831,7 +10544,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.5" thickBot="1">
+    <row r="7" spans="1:7" ht="17.25" thickBot="1">
       <c r="A7" s="16">
         <v>404</v>
       </c>
@@ -7854,7 +10567,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.5" thickBot="1">
+    <row r="8" spans="1:7" ht="17.25" thickBot="1">
       <c r="A8" s="16">
         <v>405</v>
       </c>
@@ -7877,7 +10590,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.5" thickBot="1">
+    <row r="9" spans="1:7" ht="17.25" thickBot="1">
       <c r="A9" s="16">
         <v>406</v>
       </c>
@@ -7900,7 +10613,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.5" thickBot="1">
+    <row r="10" spans="1:7" ht="17.25" thickBot="1">
       <c r="A10" s="16">
         <v>407</v>
       </c>
@@ -7923,7 +10636,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.5" thickBot="1">
+    <row r="11" spans="1:7" ht="17.25" thickBot="1">
       <c r="A11" s="16">
         <v>408</v>
       </c>
@@ -7946,7 +10659,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.5" thickBot="1">
+    <row r="12" spans="1:7" ht="17.25" thickBot="1">
       <c r="A12" s="16">
         <v>409</v>
       </c>
@@ -7969,7 +10682,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.5" thickBot="1">
+    <row r="13" spans="1:7" ht="17.25" thickBot="1">
       <c r="A13" s="16">
         <v>410</v>
       </c>
@@ -8007,13 +10720,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.58203125" customWidth="1"/>
-    <col min="6" max="6" width="13.58203125" customWidth="1"/>
-    <col min="7" max="7" width="19.08203125" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -8062,7 +10775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.5" thickBot="1">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -8085,7 +10798,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.5" thickBot="1">
+    <row r="4" spans="1:7" ht="17.25" thickBot="1">
       <c r="A4" s="14">
         <v>501</v>
       </c>
@@ -8108,7 +10821,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.5" thickBot="1">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1">
       <c r="A5" s="16">
         <v>502</v>
       </c>
@@ -8131,7 +10844,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.5" thickBot="1">
+    <row r="6" spans="1:7" ht="17.25" thickBot="1">
       <c r="A6" s="16">
         <v>503</v>
       </c>
@@ -8154,7 +10867,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.5" thickBot="1">
+    <row r="7" spans="1:7" ht="17.25" thickBot="1">
       <c r="A7" s="16">
         <v>504</v>
       </c>
@@ -8177,7 +10890,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.5" thickBot="1">
+    <row r="8" spans="1:7" ht="17.25" thickBot="1">
       <c r="A8" s="16">
         <v>505</v>
       </c>
@@ -8215,21 +10928,21 @@
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" customWidth="1"/>
-    <col min="2" max="2" width="31.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -8373,7 +11086,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="51">
+    <row r="4" spans="1:15" ht="49.5">
       <c r="A4">
         <v>3001</v>
       </c>
@@ -8420,7 +11133,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="51">
+    <row r="5" spans="1:15" ht="49.5">
       <c r="A5">
         <v>3002</v>
       </c>
@@ -8467,7 +11180,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="68">
+    <row r="6" spans="1:15" ht="66">
       <c r="A6">
         <v>3003</v>
       </c>
@@ -8514,7 +11227,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="51">
+    <row r="7" spans="1:15" ht="49.5">
       <c r="A7">
         <v>3004</v>
       </c>
@@ -8561,7 +11274,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="51">
+    <row r="8" spans="1:15" ht="49.5">
       <c r="A8">
         <v>3005</v>
       </c>
@@ -8608,7 +11321,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="51">
+    <row r="9" spans="1:15" ht="49.5">
       <c r="A9">
         <v>3006</v>
       </c>
@@ -8655,7 +11368,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="51">
+    <row r="10" spans="1:15" ht="49.5">
       <c r="A10">
         <v>3007</v>
       </c>
@@ -8702,7 +11415,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="51">
+    <row r="11" spans="1:15" ht="49.5">
       <c r="A11">
         <v>3008</v>
       </c>
@@ -8764,15 +11477,15 @@
       <selection sqref="A1:M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -9774,7 +12487,7 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="37" style="1" customWidth="1"/>
@@ -10424,7 +13137,7 @@
       <selection activeCell="E1" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F448B4A-A82F-4894-90E9-C1D7457AC2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8364467A-5085-40A8-A7F9-4D7E8E05370E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="12" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
   </bookViews>
@@ -5436,13 +5436,20 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570ED6A6-C2B6-4CA2-B682-3DB946291FCC}">
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -5658,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F11" s="1">
         <v>600</v>
@@ -5678,7 +5685,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F12" s="1">
         <v>200</v>
@@ -5698,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F13" s="1">
         <v>600</v>
@@ -5718,7 +5725,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F14" s="1">
         <v>200</v>
@@ -5738,7 +5745,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F15" s="1">
         <v>600</v>
@@ -5758,7 +5765,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F16" s="1">
         <v>200</v>
@@ -5778,7 +5785,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F17" s="1">
         <v>30</v>
@@ -5938,7 +5945,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F25" s="1">
         <v>600</v>
@@ -5958,7 +5965,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F26" s="1">
         <v>200</v>
@@ -5978,7 +5985,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F27" s="1">
         <v>600</v>
@@ -5998,7 +6005,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F28" s="1">
         <v>200</v>
@@ -6018,7 +6025,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F29" s="1">
         <v>600</v>
@@ -6038,7 +6045,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F30" s="1">
         <v>200</v>
@@ -6058,7 +6065,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F31" s="1">
         <v>30</v>
@@ -6218,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F39" s="1">
         <v>600</v>
@@ -6238,7 +6245,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F40" s="1">
         <v>200</v>
@@ -6258,7 +6265,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F41" s="1">
         <v>600</v>
@@ -6278,7 +6285,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F42" s="1">
         <v>200</v>
@@ -6298,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F43" s="1">
         <v>600</v>
@@ -6318,7 +6325,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F44" s="1">
         <v>200</v>
@@ -6338,7 +6345,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F45" s="1">
         <v>30</v>
@@ -6498,7 +6505,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F53" s="1">
         <v>600</v>
@@ -6518,7 +6525,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F54" s="1">
         <v>200</v>
@@ -6538,7 +6545,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F55" s="1">
         <v>600</v>
@@ -6558,7 +6565,7 @@
         <v>2</v>
       </c>
       <c r="E56" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F56" s="1">
         <v>200</v>
@@ -6578,7 +6585,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F57" s="1">
         <v>600</v>
@@ -6598,7 +6605,7 @@
         <v>2</v>
       </c>
       <c r="E58" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F58" s="1">
         <v>200</v>
@@ -6618,7 +6625,7 @@
         <v>3</v>
       </c>
       <c r="E59" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F59" s="1">
         <v>30</v>
@@ -6778,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F67" s="1">
         <v>600</v>
@@ -6798,7 +6805,7 @@
         <v>2</v>
       </c>
       <c r="E68" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F68" s="1">
         <v>200</v>
@@ -6818,7 +6825,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F69" s="1">
         <v>600</v>
@@ -6838,7 +6845,7 @@
         <v>2</v>
       </c>
       <c r="E70" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F70" s="1">
         <v>200</v>
@@ -6858,7 +6865,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F71" s="1">
         <v>600</v>
@@ -6878,7 +6885,7 @@
         <v>2</v>
       </c>
       <c r="E72" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F72" s="1">
         <v>200</v>
@@ -6898,7 +6905,7 @@
         <v>3</v>
       </c>
       <c r="E73" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F73" s="1">
         <v>30</v>
@@ -6918,7 +6925,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F74" s="1">
         <v>600</v>
@@ -6938,7 +6945,7 @@
         <v>2</v>
       </c>
       <c r="E75" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F75" s="1">
         <v>200</v>
@@ -6958,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F76" s="1">
         <v>600</v>
@@ -6978,7 +6985,7 @@
         <v>2</v>
       </c>
       <c r="E77" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F77" s="1">
         <v>200</v>
@@ -7138,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="E85" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F85" s="1">
         <v>600</v>
@@ -7158,7 +7165,7 @@
         <v>2</v>
       </c>
       <c r="E86" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F86" s="1">
         <v>200</v>
@@ -7178,7 +7185,7 @@
         <v>3</v>
       </c>
       <c r="E87" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F87" s="1">
         <v>30</v>
@@ -7198,7 +7205,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F88" s="1">
         <v>600</v>
@@ -7218,7 +7225,7 @@
         <v>2</v>
       </c>
       <c r="E89" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F89" s="1">
         <v>200</v>
@@ -7238,7 +7245,7 @@
         <v>1</v>
       </c>
       <c r="E90" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F90" s="1">
         <v>600</v>
@@ -7258,7 +7265,7 @@
         <v>2</v>
       </c>
       <c r="E91" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F91" s="1">
         <v>200</v>
@@ -7278,7 +7285,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F92" s="1">
         <v>600</v>
@@ -7298,7 +7305,7 @@
         <v>2</v>
       </c>
       <c r="E93" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F93" s="1">
         <v>200</v>
@@ -7318,7 +7325,7 @@
         <v>3</v>
       </c>
       <c r="E94" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F94" s="1">
         <v>30</v>
@@ -7338,7 +7345,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F95" s="1">
         <v>600</v>
@@ -7498,7 +7505,7 @@
         <v>2</v>
       </c>
       <c r="E103" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F103" s="1">
         <v>200</v>
@@ -7518,7 +7525,7 @@
         <v>1</v>
       </c>
       <c r="E104" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F104" s="1">
         <v>600</v>
@@ -7538,7 +7545,7 @@
         <v>2</v>
       </c>
       <c r="E105" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F105" s="1">
         <v>200</v>
@@ -7558,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="E106" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F106" s="1">
         <v>600</v>
@@ -7578,7 +7585,7 @@
         <v>2</v>
       </c>
       <c r="E107" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F107" s="1">
         <v>200</v>
@@ -7598,7 +7605,7 @@
         <v>3</v>
       </c>
       <c r="E108" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F108" s="1">
         <v>30</v>
@@ -7618,7 +7625,7 @@
         <v>1</v>
       </c>
       <c r="E109" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F109" s="1">
         <v>600</v>
@@ -7638,7 +7645,7 @@
         <v>2</v>
       </c>
       <c r="E110" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F110" s="1">
         <v>200</v>
@@ -7658,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E111" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F111" s="1">
         <v>600</v>
@@ -7678,7 +7685,7 @@
         <v>2</v>
       </c>
       <c r="E112" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F112" s="1">
         <v>200</v>
@@ -7698,7 +7705,7 @@
         <v>1</v>
       </c>
       <c r="E113" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F113" s="1">
         <v>600</v>
@@ -7858,7 +7865,7 @@
         <v>2</v>
       </c>
       <c r="E121" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F121" s="1">
         <v>200</v>
@@ -7878,7 +7885,7 @@
         <v>3</v>
       </c>
       <c r="E122" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F122" s="1">
         <v>30</v>
@@ -7898,7 +7905,7 @@
         <v>1</v>
       </c>
       <c r="E123" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F123" s="1">
         <v>600</v>
@@ -7918,7 +7925,7 @@
         <v>2</v>
       </c>
       <c r="E124" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F124" s="1">
         <v>200</v>
@@ -7938,7 +7945,7 @@
         <v>1</v>
       </c>
       <c r="E125" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F125" s="1">
         <v>600</v>
@@ -7958,7 +7965,7 @@
         <v>2</v>
       </c>
       <c r="E126" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F126" s="1">
         <v>200</v>
@@ -7978,7 +7985,7 @@
         <v>1</v>
       </c>
       <c r="E127" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F127" s="1">
         <v>600</v>
@@ -7998,7 +8005,7 @@
         <v>2</v>
       </c>
       <c r="E128" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F128" s="1">
         <v>200</v>
@@ -8018,7 +8025,7 @@
         <v>3</v>
       </c>
       <c r="E129" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F129" s="1">
         <v>30</v>
@@ -8038,7 +8045,7 @@
         <v>1</v>
       </c>
       <c r="E130" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F130" s="1">
         <v>600</v>
@@ -8058,7 +8065,7 @@
         <v>2</v>
       </c>
       <c r="E131" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F131" s="1">
         <v>200</v>
@@ -8103,6 +8110,454 @@
       <c r="F133" s="1">
         <v>200</v>
       </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>10131</v>
+      </c>
+      <c r="B134" s="1">
+        <v>131</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1</v>
+      </c>
+      <c r="D134" s="1">
+        <v>1</v>
+      </c>
+      <c r="E134" s="1">
+        <v>600</v>
+      </c>
+      <c r="F134" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>10132</v>
+      </c>
+      <c r="B135" s="1">
+        <v>132</v>
+      </c>
+      <c r="C135" s="1">
+        <v>2</v>
+      </c>
+      <c r="D135" s="1">
+        <v>2</v>
+      </c>
+      <c r="E135" s="1">
+        <v>200</v>
+      </c>
+      <c r="F135" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
+        <v>10133</v>
+      </c>
+      <c r="B136" s="1">
+        <v>133</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1">
+        <v>3</v>
+      </c>
+      <c r="E136" s="1">
+        <v>600</v>
+      </c>
+      <c r="F136" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1">
+        <v>10134</v>
+      </c>
+      <c r="B137" s="1">
+        <v>134</v>
+      </c>
+      <c r="C137" s="1">
+        <v>2</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1</v>
+      </c>
+      <c r="E137" s="1">
+        <v>200</v>
+      </c>
+      <c r="F137" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1">
+        <v>10135</v>
+      </c>
+      <c r="B138" s="1">
+        <v>135</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <v>2</v>
+      </c>
+      <c r="E138" s="1">
+        <v>600</v>
+      </c>
+      <c r="F138" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1">
+        <v>10136</v>
+      </c>
+      <c r="B139" s="1">
+        <v>136</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2</v>
+      </c>
+      <c r="D139" s="1">
+        <v>1</v>
+      </c>
+      <c r="E139" s="1">
+        <v>200</v>
+      </c>
+      <c r="F139" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
+        <v>10137</v>
+      </c>
+      <c r="B140" s="1">
+        <v>137</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1</v>
+      </c>
+      <c r="D140" s="1">
+        <v>2</v>
+      </c>
+      <c r="E140" s="1">
+        <v>600</v>
+      </c>
+      <c r="F140" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1">
+        <v>10138</v>
+      </c>
+      <c r="B141" s="1">
+        <v>138</v>
+      </c>
+      <c r="C141" s="1">
+        <v>2</v>
+      </c>
+      <c r="D141" s="1">
+        <v>1</v>
+      </c>
+      <c r="E141" s="1">
+        <v>200</v>
+      </c>
+      <c r="F141" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1">
+        <v>10139</v>
+      </c>
+      <c r="B142" s="1">
+        <v>139</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1</v>
+      </c>
+      <c r="D142" s="1">
+        <v>2</v>
+      </c>
+      <c r="E142" s="1">
+        <v>600</v>
+      </c>
+      <c r="F142" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
+        <v>10140</v>
+      </c>
+      <c r="B143" s="1">
+        <v>140</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2</v>
+      </c>
+      <c r="D143" s="1">
+        <v>3</v>
+      </c>
+      <c r="E143" s="1">
+        <v>200</v>
+      </c>
+      <c r="F143" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
+        <v>10141</v>
+      </c>
+      <c r="B144" s="1">
+        <v>141</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1</v>
+      </c>
+      <c r="D144" s="1">
+        <v>1</v>
+      </c>
+      <c r="E144" s="1">
+        <v>600</v>
+      </c>
+      <c r="F144" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
+        <v>10142</v>
+      </c>
+      <c r="B145" s="1">
+        <v>142</v>
+      </c>
+      <c r="C145" s="1">
+        <v>2</v>
+      </c>
+      <c r="D145" s="1">
+        <v>2</v>
+      </c>
+      <c r="E145" s="1">
+        <v>200</v>
+      </c>
+      <c r="F145" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1">
+        <v>10143</v>
+      </c>
+      <c r="B146" s="1">
+        <v>143</v>
+      </c>
+      <c r="C146" s="1">
+        <v>1</v>
+      </c>
+      <c r="D146" s="1">
+        <v>1</v>
+      </c>
+      <c r="E146" s="1">
+        <v>600</v>
+      </c>
+      <c r="F146" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1">
+        <v>10144</v>
+      </c>
+      <c r="B147" s="1">
+        <v>144</v>
+      </c>
+      <c r="C147" s="1">
+        <v>2</v>
+      </c>
+      <c r="D147" s="1">
+        <v>2</v>
+      </c>
+      <c r="E147" s="1">
+        <v>200</v>
+      </c>
+      <c r="F147" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1">
+        <v>10145</v>
+      </c>
+      <c r="B148" s="1">
+        <v>145</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1</v>
+      </c>
+      <c r="D148" s="1">
+        <v>1</v>
+      </c>
+      <c r="E148" s="1">
+        <v>600</v>
+      </c>
+      <c r="F148" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
+        <v>10146</v>
+      </c>
+      <c r="B149" s="1">
+        <v>146</v>
+      </c>
+      <c r="C149" s="1">
+        <v>2</v>
+      </c>
+      <c r="D149" s="1">
+        <v>2</v>
+      </c>
+      <c r="E149" s="1">
+        <v>200</v>
+      </c>
+      <c r="F149" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1">
+        <v>10147</v>
+      </c>
+      <c r="B150" s="1">
+        <v>147</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1</v>
+      </c>
+      <c r="D150" s="1">
+        <v>3</v>
+      </c>
+      <c r="E150" s="1">
+        <v>600</v>
+      </c>
+      <c r="F150" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
+        <v>10148</v>
+      </c>
+      <c r="B151" s="1">
+        <v>148</v>
+      </c>
+      <c r="C151" s="1">
+        <v>2</v>
+      </c>
+      <c r="D151" s="1">
+        <v>1</v>
+      </c>
+      <c r="E151" s="1">
+        <v>200</v>
+      </c>
+      <c r="F151" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
+        <v>10149</v>
+      </c>
+      <c r="B152" s="1">
+        <v>149</v>
+      </c>
+      <c r="C152" s="1">
+        <v>1</v>
+      </c>
+      <c r="D152" s="1">
+        <v>2</v>
+      </c>
+      <c r="E152" s="1">
+        <v>600</v>
+      </c>
+      <c r="F152" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
+        <v>10150</v>
+      </c>
+      <c r="B153" s="1">
+        <v>150</v>
+      </c>
+      <c r="C153" s="1">
+        <v>2</v>
+      </c>
+      <c r="D153" s="1">
+        <v>1</v>
+      </c>
+      <c r="E153" s="1">
+        <v>200</v>
+      </c>
+      <c r="F153" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="E158" s="1"/>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="E159" s="1"/>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="E160" s="1"/>
+    </row>
+    <row r="161" spans="5:5">
+      <c r="E161" s="1"/>
+    </row>
+    <row r="162" spans="5:5">
+      <c r="E162" s="1"/>
+    </row>
+    <row r="163" spans="5:5">
+      <c r="E163" s="1"/>
+    </row>
+    <row r="164" spans="5:5">
+      <c r="E164" s="1"/>
+    </row>
+    <row r="165" spans="5:5">
+      <c r="E165" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUNGYU\Documents\GitHub\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8364467A-5085-40A8-A7F9-4D7E8E05370E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="12" xr2:uid="{FAA1F650-8D33-47ED-A566-792FFD777E9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -1415,7 +1414,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -1707,7 +1706,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{0B620337-2CBA-4794-AFB4-870056F62495}"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2018,7 +2017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AF03AA-AD2E-4842-8F07-034942C7A07E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView topLeftCell="A24" zoomScale="64" zoomScaleNormal="100" workbookViewId="0">
@@ -4216,7 +4215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D50587-6B81-48DF-A8DB-00F001E27D99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
@@ -5194,7 +5193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FEED9A-AF13-4822-A3EB-690371CDCEB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5342,7 +5341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6926D4-C54F-410A-A670-136E7C30B884}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5435,11 +5434,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570ED6A6-C2B6-4CA2-B682-3DB946291FCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8566,7 +8565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894E2694-5841-4646-9170-1CF15302963F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10647,7 +10646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8FABB6-B12D-4D0B-ADBA-E809D3A5F66E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10844,7 +10843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5409F1B1-0956-4B26-ACA9-55F5DBAB54F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11168,7 +11167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B13BC7-908D-4893-B4AD-1079229E5F6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11376,7 +11375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40025AE-C7D8-4357-9319-EFD6B75D65B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11925,7 +11924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3B3B7E-BA51-4E15-824F-73A2BFC53D10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12935,7 +12934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246DAC17-E872-4574-BD3D-D5CF034B9B32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13585,7 +13584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B243B4DA-4757-4205-A827-459A7372F46D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="TIP" sheetId="10" r:id="rId12"/>
     <sheet name="LevelPass" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="365">
   <si>
     <t>Name</t>
   </si>
@@ -751,13 +751,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Enforce</t>
   </si>
   <si>
@@ -964,27 +957,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100,250,750</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100,100,100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4,10,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,250,750</t>
-  </si>
-  <si>
     <t>100,100,100</t>
   </si>
   <si>
-    <t>4,10,20</t>
-  </si>
-  <si>
     <t>Chapter</t>
   </si>
   <si>
@@ -1408,6 +1387,18 @@
   </si>
   <si>
     <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,6,8,10,12,14,16,18,20,22,24,26,28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,400,750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,60,200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2020,8 +2011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2174,7 +2165,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="6">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G4" s="6">
         <v>-1</v>
@@ -2215,7 +2206,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G5" s="6">
         <v>-1</v>
@@ -2256,7 +2247,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G6" s="6">
         <v>-1</v>
@@ -2297,7 +2288,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
@@ -2338,7 +2329,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G8" s="6">
         <v>-1</v>
@@ -2379,7 +2370,7 @@
         <v>30</v>
       </c>
       <c r="F9" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G9" s="6">
         <v>-1</v>
@@ -2420,7 +2411,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G10" s="6">
         <v>-1</v>
@@ -2461,7 +2452,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G11" s="6">
         <v>-1</v>
@@ -2502,7 +2493,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G12" s="6">
         <v>1</v>
@@ -2543,7 +2534,7 @@
         <v>60</v>
       </c>
       <c r="F13" s="10">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G13" s="10">
         <v>-1</v>
@@ -2584,7 +2575,7 @@
         <v>30</v>
       </c>
       <c r="F14" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G14" s="6">
         <v>-1</v>
@@ -2625,7 +2616,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G15" s="6">
         <v>-1</v>
@@ -2666,7 +2657,7 @@
         <v>30</v>
       </c>
       <c r="F16" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G16" s="6">
         <v>-1</v>
@@ -2707,7 +2698,7 @@
         <v>30</v>
       </c>
       <c r="F17" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G17" s="6">
         <v>1</v>
@@ -2748,7 +2739,7 @@
         <v>30</v>
       </c>
       <c r="F18" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G18" s="6">
         <v>-1</v>
@@ -2789,7 +2780,7 @@
         <v>30</v>
       </c>
       <c r="F19" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G19" s="6">
         <v>-1</v>
@@ -2830,7 +2821,7 @@
         <v>30</v>
       </c>
       <c r="F20" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G20" s="6">
         <v>-1</v>
@@ -2871,7 +2862,7 @@
         <v>30</v>
       </c>
       <c r="F21" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G21" s="6">
         <v>-1</v>
@@ -2912,7 +2903,7 @@
         <v>30</v>
       </c>
       <c r="F22" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G22" s="6">
         <v>1</v>
@@ -2953,7 +2944,7 @@
         <v>60</v>
       </c>
       <c r="F23" s="10">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G23" s="10">
         <v>-1</v>
@@ -2994,7 +2985,7 @@
         <v>30</v>
       </c>
       <c r="F24" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G24" s="6">
         <v>-1</v>
@@ -3035,7 +3026,7 @@
         <v>30</v>
       </c>
       <c r="F25" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G25" s="6">
         <v>-1</v>
@@ -3076,7 +3067,7 @@
         <v>30</v>
       </c>
       <c r="F26" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G26" s="6">
         <v>-1</v>
@@ -3117,7 +3108,7 @@
         <v>30</v>
       </c>
       <c r="F27" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G27" s="6">
         <v>1</v>
@@ -3158,7 +3149,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G28" s="6">
         <v>-1</v>
@@ -3199,7 +3190,7 @@
         <v>30</v>
       </c>
       <c r="F29" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G29" s="6">
         <v>-1</v>
@@ -3240,7 +3231,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G30" s="6">
         <v>-1</v>
@@ -3281,7 +3272,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G31" s="6">
         <v>-1</v>
@@ -3322,7 +3313,7 @@
         <v>30</v>
       </c>
       <c r="F32" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G32" s="6">
         <v>1</v>
@@ -3363,7 +3354,7 @@
         <v>60</v>
       </c>
       <c r="F33" s="10">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G33" s="10">
         <v>-1</v>
@@ -3404,7 +3395,7 @@
         <v>30</v>
       </c>
       <c r="F34" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G34" s="6">
         <v>-1</v>
@@ -3445,7 +3436,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G35" s="6">
         <v>-1</v>
@@ -3486,7 +3477,7 @@
         <v>30</v>
       </c>
       <c r="F36" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G36" s="6">
         <v>-1</v>
@@ -3527,7 +3518,7 @@
         <v>30</v>
       </c>
       <c r="F37" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G37" s="6">
         <v>1</v>
@@ -3568,7 +3559,7 @@
         <v>30</v>
       </c>
       <c r="F38" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G38" s="6">
         <v>-1</v>
@@ -3609,7 +3600,7 @@
         <v>30</v>
       </c>
       <c r="F39" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G39" s="6">
         <v>-1</v>
@@ -3650,7 +3641,7 @@
         <v>30</v>
       </c>
       <c r="F40" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G40" s="6">
         <v>-1</v>
@@ -3691,7 +3682,7 @@
         <v>30</v>
       </c>
       <c r="F41" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G41" s="6">
         <v>-1</v>
@@ -3732,7 +3723,7 @@
         <v>30</v>
       </c>
       <c r="F42" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G42" s="6">
         <v>1</v>
@@ -3773,7 +3764,7 @@
         <v>60</v>
       </c>
       <c r="F43" s="10">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G43" s="10">
         <v>-1</v>
@@ -3814,7 +3805,7 @@
         <v>30</v>
       </c>
       <c r="F44" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G44" s="6">
         <v>-1</v>
@@ -3855,7 +3846,7 @@
         <v>30</v>
       </c>
       <c r="F45" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G45" s="6">
         <v>-1</v>
@@ -3896,7 +3887,7 @@
         <v>30</v>
       </c>
       <c r="F46" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G46" s="6">
         <v>-1</v>
@@ -3937,7 +3928,7 @@
         <v>30</v>
       </c>
       <c r="F47" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G47" s="6">
         <v>1</v>
@@ -3978,7 +3969,7 @@
         <v>30</v>
       </c>
       <c r="F48" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G48" s="6">
         <v>-1</v>
@@ -4019,7 +4010,7 @@
         <v>30</v>
       </c>
       <c r="F49" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G49" s="6">
         <v>-1</v>
@@ -4060,7 +4051,7 @@
         <v>30</v>
       </c>
       <c r="F50" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G50" s="6">
         <v>-1</v>
@@ -4101,7 +4092,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G51" s="6">
         <v>-1</v>
@@ -4142,7 +4133,7 @@
         <v>30</v>
       </c>
       <c r="F52" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G52" s="6">
         <v>1</v>
@@ -4183,7 +4174,7 @@
         <v>60</v>
       </c>
       <c r="F53" s="10">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G53" s="10">
         <v>-1</v>
@@ -4243,58 +4234,58 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D1" t="s">
         <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1" t="s">
+        <v>338</v>
+      </c>
+      <c r="M1" t="s">
+        <v>339</v>
+      </c>
+      <c r="N1" t="s">
         <v>262</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>263</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>264</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
+        <v>342</v>
+      </c>
+      <c r="R1" t="s">
         <v>265</v>
-      </c>
-      <c r="J1" t="s">
-        <v>266</v>
-      </c>
-      <c r="K1" t="s">
-        <v>267</v>
-      </c>
-      <c r="L1" t="s">
-        <v>344</v>
-      </c>
-      <c r="M1" t="s">
-        <v>345</v>
-      </c>
-      <c r="N1" t="s">
-        <v>268</v>
-      </c>
-      <c r="O1" t="s">
-        <v>269</v>
-      </c>
-      <c r="P1" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>348</v>
-      </c>
-      <c r="R1" t="s">
-        <v>271</v>
       </c>
       <c r="S1" t="s">
         <v>19</v>
@@ -4364,58 +4355,58 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D3" t="s">
         <v>133</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I3" t="s">
+        <v>269</v>
+      </c>
+      <c r="J3" t="s">
+        <v>270</v>
+      </c>
+      <c r="K3" t="s">
+        <v>271</v>
+      </c>
+      <c r="L3" t="s">
+        <v>340</v>
+      </c>
+      <c r="M3" t="s">
+        <v>341</v>
+      </c>
+      <c r="N3" t="s">
         <v>272</v>
       </c>
-      <c r="G3" t="s">
+      <c r="O3" t="s">
         <v>273</v>
       </c>
-      <c r="H3" t="s">
+      <c r="P3" t="s">
         <v>274</v>
       </c>
-      <c r="I3" t="s">
-        <v>275</v>
-      </c>
-      <c r="J3" t="s">
-        <v>276</v>
-      </c>
-      <c r="K3" t="s">
-        <v>277</v>
-      </c>
-      <c r="L3" t="s">
-        <v>346</v>
-      </c>
-      <c r="M3" t="s">
-        <v>347</v>
-      </c>
-      <c r="N3" t="s">
-        <v>278</v>
-      </c>
-      <c r="O3" t="s">
-        <v>279</v>
-      </c>
-      <c r="P3" t="s">
-        <v>280</v>
-      </c>
       <c r="Q3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="R3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="S3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="17.25" thickBot="1">
@@ -4423,13 +4414,13 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E4" s="29">
         <v>-1</v>
@@ -4474,7 +4465,7 @@
         <v>-1</v>
       </c>
       <c r="S4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="17.25" thickBot="1">
@@ -4482,13 +4473,13 @@
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E5" s="29">
         <v>-1</v>
@@ -4533,7 +4524,7 @@
         <v>-1</v>
       </c>
       <c r="S5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="17.25" thickBot="1">
@@ -4541,13 +4532,13 @@
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E6" s="29">
         <v>-1</v>
@@ -4592,7 +4583,7 @@
         <v>-1</v>
       </c>
       <c r="S6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="17.25" thickBot="1">
@@ -4600,13 +4591,13 @@
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E7" s="29">
         <v>-1</v>
@@ -4651,7 +4642,7 @@
         <v>-1</v>
       </c>
       <c r="S7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="17.25" thickBot="1">
@@ -4659,16 +4650,16 @@
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C8" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D8" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F8">
         <v>1502</v>
@@ -4710,7 +4701,7 @@
         <v>-1</v>
       </c>
       <c r="S8" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="17.25" thickBot="1">
@@ -4718,16 +4709,16 @@
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C9" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F9">
         <v>1502</v>
@@ -4769,7 +4760,7 @@
         <v>-1</v>
       </c>
       <c r="S9" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="17.25" thickBot="1">
@@ -4777,13 +4768,13 @@
         <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C10" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D10" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E10" s="29">
         <v>-1</v>
@@ -4828,7 +4819,7 @@
         <v>-1</v>
       </c>
       <c r="S10" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="17.25" thickBot="1">
@@ -4836,13 +4827,13 @@
         <v>1008</v>
       </c>
       <c r="B11" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C11" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E11" s="29">
         <v>-1</v>
@@ -4887,7 +4878,7 @@
         <v>-1</v>
       </c>
       <c r="S11" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="17.25" thickBot="1">
@@ -4895,13 +4886,13 @@
         <v>1009</v>
       </c>
       <c r="B12" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C12" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D12" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E12" s="29">
         <v>-1</v>
@@ -4946,7 +4937,7 @@
         <v>-1</v>
       </c>
       <c r="S12" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="17.25" thickBot="1">
@@ -4954,13 +4945,13 @@
         <v>1010</v>
       </c>
       <c r="B13" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C13" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D13" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E13" s="29">
         <v>-1</v>
@@ -5005,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="S13" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="17.25" thickBot="1">
@@ -5013,13 +5004,13 @@
         <v>1011</v>
       </c>
       <c r="B14" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C14" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E14" s="31">
         <v>-1</v>
@@ -5064,7 +5055,7 @@
         <v>-1</v>
       </c>
       <c r="S14" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="17.25" thickBot="1">
@@ -5072,16 +5063,16 @@
         <v>1012</v>
       </c>
       <c r="B15" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C15" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D15" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F15">
         <v>1501</v>
@@ -5123,7 +5114,7 @@
         <v>-1</v>
       </c>
       <c r="S15" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="17.25" thickBot="1">
@@ -5131,13 +5122,13 @@
         <v>1013</v>
       </c>
       <c r="B16" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C16" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D16" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E16" s="29">
         <v>-1</v>
@@ -5182,7 +5173,7 @@
         <v>-1</v>
       </c>
       <c r="S16" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -5212,7 +5203,7 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C1" t="s">
         <v>171</v>
@@ -5240,13 +5231,13 @@
         <v>32</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>133</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" thickBot="1">
@@ -5254,13 +5245,13 @@
         <v>1501</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" thickBot="1">
@@ -5268,13 +5259,13 @@
         <v>1502</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21.95" customHeight="1" thickBot="1">
@@ -5282,13 +5273,13 @@
         <v>1503</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" thickBot="1">
@@ -5296,13 +5287,13 @@
         <v>1504</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21.6" customHeight="1" thickBot="1">
@@ -5310,13 +5301,13 @@
         <v>1505</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21.95" customHeight="1" thickBot="1">
@@ -5324,13 +5315,13 @@
         <v>1506</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -5359,7 +5350,7 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5375,7 +5366,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5383,7 +5374,7 @@
         <v>2001</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5391,7 +5382,7 @@
         <v>2002</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5399,7 +5390,7 @@
         <v>2003</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5407,7 +5398,7 @@
         <v>2004</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5415,7 +5406,7 @@
         <v>2005</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5423,7 +5414,7 @@
         <v>2006</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -5438,7 +5429,7 @@
   <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5455,19 +5446,19 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5492,22 +5483,22 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8583,7 +8574,7 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C1" t="s">
         <v>56</v>
@@ -8595,7 +8586,7 @@
         <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" thickBot="1">
@@ -8623,19 +8614,19 @@
         <v>32</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>68</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1">
@@ -10880,7 +10871,7 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -10926,7 +10917,7 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickBot="1">
@@ -10949,7 +10940,7 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1">
@@ -10972,7 +10963,7 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1">
@@ -10995,7 +10986,7 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickBot="1">
@@ -11018,7 +11009,7 @@
         <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1">
@@ -11041,7 +11032,7 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickBot="1">
@@ -11064,7 +11055,7 @@
         <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" thickBot="1">
@@ -11087,7 +11078,7 @@
         <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25" thickBot="1">
@@ -11110,7 +11101,7 @@
         <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickBot="1">
@@ -11133,7 +11124,7 @@
         <v>84</v>
       </c>
       <c r="G12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickBot="1">
@@ -11156,7 +11147,7 @@
         <v>86</v>
       </c>
       <c r="G13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -11171,7 +11162,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11203,7 +11194,7 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -11249,7 +11240,7 @@
         <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickBot="1">
@@ -11266,13 +11257,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="15">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
         <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1">
@@ -11289,13 +11280,13 @@
         <v>10</v>
       </c>
       <c r="E5" s="17">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="F5" t="s">
         <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1">
@@ -11312,13 +11303,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="17">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="F6" t="s">
         <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickBot="1">
@@ -11335,13 +11326,13 @@
         <v>10</v>
       </c>
       <c r="E7" s="17">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="F7" t="s">
         <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1">
@@ -11364,7 +11355,7 @@
         <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -11378,8 +11369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11581,7 +11572,7 @@
         <v>107</v>
       </c>
       <c r="N4">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="O4" s="3">
         <v>-15</v>
@@ -11628,7 +11619,7 @@
         <v>107</v>
       </c>
       <c r="N5">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="O5" s="3">
         <v>-15</v>
@@ -11675,7 +11666,7 @@
         <v>107</v>
       </c>
       <c r="N6">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="O6" s="3">
         <v>-15</v>
@@ -11722,7 +11713,7 @@
         <v>107</v>
       </c>
       <c r="N7">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="O7" s="3">
         <v>-15</v>
@@ -11769,7 +11760,7 @@
         <v>107</v>
       </c>
       <c r="N8">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="O8" s="3">
         <v>-15</v>
@@ -11816,7 +11807,7 @@
         <v>107</v>
       </c>
       <c r="N9">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="O9" s="3">
         <v>-15</v>
@@ -11863,7 +11854,7 @@
         <v>107</v>
       </c>
       <c r="N10">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="O10" s="3">
         <v>-15</v>
@@ -11910,7 +11901,7 @@
         <v>107</v>
       </c>
       <c r="N11">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="O11" s="3">
         <v>-15</v>
@@ -11928,7 +11919,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M24"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11968,19 +11959,19 @@
         <v>166</v>
       </c>
       <c r="I1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -12050,19 +12041,19 @@
         <v>166</v>
       </c>
       <c r="I3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J3" t="s">
         <v>137</v>
       </c>
       <c r="K3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -12079,7 +12070,7 @@
         <v>139</v>
       </c>
       <c r="E4">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="F4">
         <v>9500</v>
@@ -12091,10 +12082,10 @@
         <v>167</v>
       </c>
       <c r="I4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K4" s="1">
         <v>701</v>
@@ -12103,7 +12094,7 @@
         <v>601</v>
       </c>
       <c r="M4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -12120,7 +12111,7 @@
         <v>139</v>
       </c>
       <c r="E5">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="F5">
         <v>8700</v>
@@ -12132,10 +12123,10 @@
         <v>167</v>
       </c>
       <c r="I5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K5" s="1">
         <v>702</v>
@@ -12144,7 +12135,7 @@
         <v>602</v>
       </c>
       <c r="M5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -12161,7 +12152,7 @@
         <v>142</v>
       </c>
       <c r="E6">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="F6">
         <v>10600</v>
@@ -12173,10 +12164,10 @@
         <v>167</v>
       </c>
       <c r="I6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K6" s="1">
         <v>703</v>
@@ -12185,7 +12176,7 @@
         <v>603</v>
       </c>
       <c r="M6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -12202,7 +12193,7 @@
         <v>142</v>
       </c>
       <c r="E7">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="F7">
         <v>9800</v>
@@ -12214,10 +12205,10 @@
         <v>167</v>
       </c>
       <c r="I7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K7" s="1">
         <v>704</v>
@@ -12226,7 +12217,7 @@
         <v>604</v>
       </c>
       <c r="M7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -12243,10 +12234,10 @@
         <v>145</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F8">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="G8">
         <v>240</v>
@@ -12255,10 +12246,10 @@
         <v>167</v>
       </c>
       <c r="I8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K8" s="1">
         <v>705</v>
@@ -12267,7 +12258,7 @@
         <v>605</v>
       </c>
       <c r="M8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -12284,10 +12275,10 @@
         <v>145</v>
       </c>
       <c r="E9">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F9">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="G9">
         <v>240</v>
@@ -12296,10 +12287,10 @@
         <v>167</v>
       </c>
       <c r="I9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K9" s="1">
         <v>706</v>
@@ -12308,7 +12299,7 @@
         <v>606</v>
       </c>
       <c r="M9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -12325,7 +12316,7 @@
         <v>139</v>
       </c>
       <c r="E10">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="F10">
         <v>5200</v>
@@ -12337,10 +12328,10 @@
         <v>167</v>
       </c>
       <c r="I10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K10" s="1">
         <v>707</v>
@@ -12349,7 +12340,7 @@
         <v>607</v>
       </c>
       <c r="M10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -12366,7 +12357,7 @@
         <v>139</v>
       </c>
       <c r="E11">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="F11">
         <v>4300</v>
@@ -12378,10 +12369,10 @@
         <v>167</v>
       </c>
       <c r="I11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K11" s="1">
         <v>708</v>
@@ -12390,7 +12381,7 @@
         <v>608</v>
       </c>
       <c r="M11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -12407,7 +12398,7 @@
         <v>150</v>
       </c>
       <c r="E12">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="F12">
         <v>6300</v>
@@ -12419,10 +12410,10 @@
         <v>167</v>
       </c>
       <c r="I12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K12" s="1">
         <v>709</v>
@@ -12431,7 +12422,7 @@
         <v>609</v>
       </c>
       <c r="M12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -12448,7 +12439,7 @@
         <v>150</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="F13">
         <v>5600</v>
@@ -12460,10 +12451,10 @@
         <v>167</v>
       </c>
       <c r="I13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K13" s="1">
         <v>710</v>
@@ -12472,7 +12463,7 @@
         <v>610</v>
       </c>
       <c r="M13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -12489,7 +12480,7 @@
         <v>153</v>
       </c>
       <c r="E14">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F14">
         <v>7200</v>
@@ -12501,10 +12492,10 @@
         <v>167</v>
       </c>
       <c r="I14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K14" s="1">
         <v>711</v>
@@ -12513,7 +12504,7 @@
         <v>611</v>
       </c>
       <c r="M14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -12530,7 +12521,7 @@
         <v>153</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F15">
         <v>7800</v>
@@ -12542,10 +12533,10 @@
         <v>167</v>
       </c>
       <c r="I15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K15" s="1">
         <v>712</v>
@@ -12554,7 +12545,7 @@
         <v>612</v>
       </c>
       <c r="M15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -12571,7 +12562,7 @@
         <v>139</v>
       </c>
       <c r="E16">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="F16">
         <v>10300</v>
@@ -12583,10 +12574,10 @@
         <v>167</v>
       </c>
       <c r="I16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K16" s="1">
         <v>713</v>
@@ -12595,7 +12586,7 @@
         <v>613</v>
       </c>
       <c r="M16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -12612,7 +12603,7 @@
         <v>139</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="F17">
         <v>9900</v>
@@ -12624,10 +12615,10 @@
         <v>167</v>
       </c>
       <c r="I17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K17" s="1">
         <v>714</v>
@@ -12636,7 +12627,7 @@
         <v>614</v>
       </c>
       <c r="M17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -12653,7 +12644,7 @@
         <v>139</v>
       </c>
       <c r="E18">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="F18">
         <v>12400</v>
@@ -12665,10 +12656,10 @@
         <v>167</v>
       </c>
       <c r="I18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K18" s="1">
         <v>715</v>
@@ -12677,7 +12668,7 @@
         <v>615</v>
       </c>
       <c r="M18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -12694,7 +12685,7 @@
         <v>159</v>
       </c>
       <c r="E19">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="F19">
         <v>11200</v>
@@ -12706,10 +12697,10 @@
         <v>167</v>
       </c>
       <c r="I19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K19" s="1">
         <v>716</v>
@@ -12718,7 +12709,7 @@
         <v>616</v>
       </c>
       <c r="M19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -12735,7 +12726,7 @@
         <v>159</v>
       </c>
       <c r="E20">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="F20">
         <v>10800</v>
@@ -12747,10 +12738,10 @@
         <v>167</v>
       </c>
       <c r="I20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K20" s="1">
         <v>717</v>
@@ -12759,7 +12750,7 @@
         <v>617</v>
       </c>
       <c r="M20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -12776,7 +12767,7 @@
         <v>159</v>
       </c>
       <c r="E21">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="F21">
         <v>12300</v>
@@ -12788,10 +12779,10 @@
         <v>167</v>
       </c>
       <c r="I21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K21" s="1">
         <v>718</v>
@@ -12800,7 +12791,7 @@
         <v>618</v>
       </c>
       <c r="M21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -12817,7 +12808,7 @@
         <v>163</v>
       </c>
       <c r="E22">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F22">
         <v>12600</v>
@@ -12829,10 +12820,10 @@
         <v>167</v>
       </c>
       <c r="I22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K22" s="1">
         <v>719</v>
@@ -12841,7 +12832,7 @@
         <v>619</v>
       </c>
       <c r="M22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -12858,7 +12849,7 @@
         <v>163</v>
       </c>
       <c r="E23">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F23">
         <v>13600</v>
@@ -12870,10 +12861,10 @@
         <v>167</v>
       </c>
       <c r="I23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K23" s="1">
         <v>720</v>
@@ -12882,7 +12873,7 @@
         <v>620</v>
       </c>
       <c r="M23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -12899,7 +12890,7 @@
         <v>163</v>
       </c>
       <c r="E24">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F24">
         <v>14600</v>
@@ -12911,10 +12902,10 @@
         <v>167</v>
       </c>
       <c r="I24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K24" s="1">
         <v>721</v>
@@ -12923,7 +12914,7 @@
         <v>621</v>
       </c>
       <c r="M24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -12937,8 +12928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13012,7 +13003,7 @@
         <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -13021,7 +13012,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>177</v>
@@ -13041,10 +13032,10 @@
         <v>180</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>184</v>
@@ -13053,7 +13044,7 @@
         <v>140</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>186</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -13067,10 +13058,10 @@
         <v>180</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>184</v>
@@ -13079,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>186</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -13093,10 +13084,10 @@
         <v>181</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>183</v>
@@ -13105,7 +13096,7 @@
         <v>355</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -13119,10 +13110,10 @@
         <v>181</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>183</v>
@@ -13131,7 +13122,7 @@
         <v>355</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -13145,10 +13136,10 @@
         <v>182</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>183</v>
@@ -13157,7 +13148,7 @@
         <v>933</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -13171,10 +13162,10 @@
         <v>182</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>183</v>
@@ -13183,7 +13174,7 @@
         <v>933</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -13197,10 +13188,10 @@
         <v>180</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>183</v>
@@ -13209,7 +13200,7 @@
         <v>140</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -13223,10 +13214,10 @@
         <v>180</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>183</v>
@@ -13235,7 +13226,7 @@
         <v>140</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -13249,10 +13240,10 @@
         <v>181</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>183</v>
@@ -13261,7 +13252,7 @@
         <v>355</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -13275,10 +13266,10 @@
         <v>181</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>183</v>
@@ -13287,7 +13278,7 @@
         <v>355</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -13301,10 +13292,10 @@
         <v>182</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>183</v>
@@ -13313,7 +13304,7 @@
         <v>933</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -13327,10 +13318,10 @@
         <v>182</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>183</v>
@@ -13339,7 +13330,7 @@
         <v>933</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -13353,10 +13344,10 @@
         <v>180</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>183</v>
@@ -13365,7 +13356,7 @@
         <v>140</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -13379,10 +13370,10 @@
         <v>180</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>183</v>
@@ -13391,7 +13382,7 @@
         <v>140</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -13405,10 +13396,10 @@
         <v>180</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>183</v>
@@ -13417,7 +13408,7 @@
         <v>140</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -13431,10 +13422,10 @@
         <v>181</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>183</v>
@@ -13443,7 +13434,7 @@
         <v>355</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -13457,10 +13448,10 @@
         <v>181</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>183</v>
@@ -13469,7 +13460,7 @@
         <v>355</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -13483,10 +13474,10 @@
         <v>181</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>183</v>
@@ -13495,7 +13486,7 @@
         <v>355</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -13509,10 +13500,10 @@
         <v>182</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>183</v>
@@ -13521,7 +13512,7 @@
         <v>933</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -13535,10 +13526,10 @@
         <v>182</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>183</v>
@@ -13547,7 +13538,7 @@
         <v>933</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -13561,10 +13552,10 @@
         <v>182</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>183</v>
@@ -13573,7 +13564,7 @@
         <v>933</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -13588,7 +13579,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E3"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13601,13 +13592,13 @@
         <v>168</v>
       </c>
       <c r="C1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" t="s">
         <v>238</v>
-      </c>
-      <c r="D1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -13641,7 +13632,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -13652,13 +13643,13 @@
         <v>201</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>242</v>
+        <v>363</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E4" t="s">
-        <v>244</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -13669,13 +13660,13 @@
         <v>202</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>242</v>
+        <v>363</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E5" t="s">
-        <v>244</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -13686,13 +13677,13 @@
         <v>203</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E6" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -13703,13 +13694,13 @@
         <v>204</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E7" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -13720,13 +13711,13 @@
         <v>205</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E8" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -13737,13 +13728,13 @@
         <v>206</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E9" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -13754,13 +13745,13 @@
         <v>207</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E10" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -13771,13 +13762,13 @@
         <v>208</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E11" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -13788,13 +13779,13 @@
         <v>209</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E12" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -13805,13 +13796,13 @@
         <v>210</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E13" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -13822,13 +13813,13 @@
         <v>211</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E14" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -13839,13 +13830,13 @@
         <v>212</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E15" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -13856,13 +13847,13 @@
         <v>213</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E16" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -13873,13 +13864,13 @@
         <v>214</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E17" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -13890,13 +13881,13 @@
         <v>215</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E18" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -13907,13 +13898,13 @@
         <v>216</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E19" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -13924,13 +13915,13 @@
         <v>217</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E20" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -13941,13 +13932,13 @@
         <v>218</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E21" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -13958,13 +13949,13 @@
         <v>219</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E22" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -13975,13 +13966,13 @@
         <v>220</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E23" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -13992,13 +13983,13 @@
         <v>221</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E24" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUNGYU\Documents\GitHub\OIlNamProject\RawData\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA46FCF-87EF-431A-950D-081A003F2E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -1405,7 +1406,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -1697,7 +1698,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2008,11 +2009,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2165,7 +2166,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="6">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G4" s="6">
         <v>-1</v>
@@ -4206,7 +4207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
@@ -5184,7 +5185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5332,7 +5333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5425,10 +5426,10 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
@@ -8556,7 +8557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10637,7 +10638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10834,7 +10835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11158,7 +11159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11366,7 +11367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -11915,7 +11916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12925,10 +12926,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -13575,7 +13576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13583,6 +13584,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA46FCF-87EF-431A-950D-081A003F2E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8406BA3C-ABDD-4B3B-ACFC-C81422780D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -184,9 +184,6 @@
     <t>이따가</t>
   </si>
   <si>
-    <t>아빠 나 오늘 고백받았다&gt;&lt;</t>
-  </si>
-  <si>
     <t>보이스피싱임</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
   </si>
   <si>
     <t>어 그냥 다~~</t>
-  </si>
-  <si>
-    <t>아빠 나 오늘 친구랑 싸웠어...ㅠㅠ</t>
   </si>
   <si>
     <t>이겼냐?</t>
@@ -387,16 +381,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격력 20% ▲</t>
-  </si>
-  <si>
     <t>다음 WAVE만 적용</t>
-  </si>
-  <si>
-    <t>공격력 2% ▲
-마물 이동속도 2% ▼
-보스 이동속도 2% ▼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Info2</t>
@@ -1400,6 +1385,26 @@
   </si>
   <si>
     <t>15,60,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 2% ▲
+공격속도 2%▲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠
+나 오늘 고백받았다&gt;&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠
+나 오늘 친구랑 싸웠어...ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 20% ▲
+공격속도 10%▲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2012,7 +2017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -2031,40 +2036,40 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>63</v>
-      </c>
-      <c r="L1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2113,40 +2118,40 @@
         <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4235,58 +4240,58 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" t="s">
         <v>255</v>
       </c>
-      <c r="B1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>256</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>257</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
+        <v>334</v>
+      </c>
+      <c r="M1" t="s">
+        <v>335</v>
+      </c>
+      <c r="N1" t="s">
         <v>258</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>259</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>260</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
+        <v>338</v>
+      </c>
+      <c r="R1" t="s">
         <v>261</v>
-      </c>
-      <c r="L1" t="s">
-        <v>338</v>
-      </c>
-      <c r="M1" t="s">
-        <v>339</v>
-      </c>
-      <c r="N1" t="s">
-        <v>262</v>
-      </c>
-      <c r="O1" t="s">
-        <v>263</v>
-      </c>
-      <c r="P1" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>342</v>
-      </c>
-      <c r="R1" t="s">
-        <v>265</v>
       </c>
       <c r="S1" t="s">
         <v>19</v>
@@ -4356,58 +4361,58 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" t="s">
+        <v>263</v>
+      </c>
+      <c r="H3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I3" t="s">
+        <v>265</v>
+      </c>
+      <c r="J3" t="s">
         <v>266</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>267</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
+        <v>336</v>
+      </c>
+      <c r="M3" t="s">
+        <v>337</v>
+      </c>
+      <c r="N3" t="s">
         <v>268</v>
       </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>269</v>
       </c>
-      <c r="J3" t="s">
+      <c r="P3" t="s">
         <v>270</v>
       </c>
-      <c r="K3" t="s">
-        <v>271</v>
-      </c>
-      <c r="L3" t="s">
-        <v>340</v>
-      </c>
-      <c r="M3" t="s">
-        <v>341</v>
-      </c>
-      <c r="N3" t="s">
-        <v>272</v>
-      </c>
-      <c r="O3" t="s">
-        <v>273</v>
-      </c>
-      <c r="P3" t="s">
-        <v>274</v>
-      </c>
       <c r="Q3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="R3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="S3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="17.25" thickBot="1">
@@ -4415,13 +4420,13 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E4" s="29">
         <v>-1</v>
@@ -4466,7 +4471,7 @@
         <v>-1</v>
       </c>
       <c r="S4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="17.25" thickBot="1">
@@ -4474,13 +4479,13 @@
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E5" s="29">
         <v>-1</v>
@@ -4525,7 +4530,7 @@
         <v>-1</v>
       </c>
       <c r="S5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="17.25" thickBot="1">
@@ -4533,13 +4538,13 @@
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E6" s="29">
         <v>-1</v>
@@ -4584,7 +4589,7 @@
         <v>-1</v>
       </c>
       <c r="S6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="17.25" thickBot="1">
@@ -4592,13 +4597,13 @@
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E7" s="29">
         <v>-1</v>
@@ -4643,7 +4648,7 @@
         <v>-1</v>
       </c>
       <c r="S7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="17.25" thickBot="1">
@@ -4651,16 +4656,16 @@
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D8" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F8">
         <v>1502</v>
@@ -4702,7 +4707,7 @@
         <v>-1</v>
       </c>
       <c r="S8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="17.25" thickBot="1">
@@ -4710,16 +4715,16 @@
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F9">
         <v>1502</v>
@@ -4761,7 +4766,7 @@
         <v>-1</v>
       </c>
       <c r="S9" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="17.25" thickBot="1">
@@ -4769,13 +4774,13 @@
         <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E10" s="29">
         <v>-1</v>
@@ -4820,7 +4825,7 @@
         <v>-1</v>
       </c>
       <c r="S10" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="17.25" thickBot="1">
@@ -4828,13 +4833,13 @@
         <v>1008</v>
       </c>
       <c r="B11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C11" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E11" s="29">
         <v>-1</v>
@@ -4879,7 +4884,7 @@
         <v>-1</v>
       </c>
       <c r="S11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="17.25" thickBot="1">
@@ -4887,13 +4892,13 @@
         <v>1009</v>
       </c>
       <c r="B12" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D12" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E12" s="29">
         <v>-1</v>
@@ -4938,7 +4943,7 @@
         <v>-1</v>
       </c>
       <c r="S12" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="17.25" thickBot="1">
@@ -4946,13 +4951,13 @@
         <v>1010</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C13" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E13" s="29">
         <v>-1</v>
@@ -4997,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="S13" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="17.25" thickBot="1">
@@ -5005,13 +5010,13 @@
         <v>1011</v>
       </c>
       <c r="B14" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C14" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E14" s="31">
         <v>-1</v>
@@ -5056,7 +5061,7 @@
         <v>-1</v>
       </c>
       <c r="S14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="17.25" thickBot="1">
@@ -5064,16 +5069,16 @@
         <v>1012</v>
       </c>
       <c r="B15" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D15" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F15">
         <v>1501</v>
@@ -5115,7 +5120,7 @@
         <v>-1</v>
       </c>
       <c r="S15" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="17.25" thickBot="1">
@@ -5123,13 +5128,13 @@
         <v>1013</v>
       </c>
       <c r="B16" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C16" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D16" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E16" s="29">
         <v>-1</v>
@@ -5174,7 +5179,7 @@
         <v>-1</v>
       </c>
       <c r="S16" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -5204,10 +5209,10 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D1" t="s">
         <v>19</v>
@@ -5232,13 +5237,13 @@
         <v>32</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" thickBot="1">
@@ -5246,13 +5251,13 @@
         <v>1501</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" thickBot="1">
@@ -5260,13 +5265,13 @@
         <v>1502</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21.95" customHeight="1" thickBot="1">
@@ -5274,13 +5279,13 @@
         <v>1503</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" thickBot="1">
@@ -5288,13 +5293,13 @@
         <v>1504</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21.6" customHeight="1" thickBot="1">
@@ -5302,13 +5307,13 @@
         <v>1505</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21.95" customHeight="1" thickBot="1">
@@ -5316,13 +5321,13 @@
         <v>1506</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -5351,7 +5356,7 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5367,7 +5372,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5375,7 +5380,7 @@
         <v>2001</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5383,7 +5388,7 @@
         <v>2002</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5391,7 +5396,7 @@
         <v>2003</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5399,7 +5404,7 @@
         <v>2004</v>
       </c>
       <c r="B7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5407,7 +5412,7 @@
         <v>2005</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5415,7 +5420,7 @@
         <v>2006</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -5447,19 +5452,19 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" t="s">
         <v>353</v>
-      </c>
-      <c r="C1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F1" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5484,22 +5489,22 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8575,19 +8580,19 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
       </c>
       <c r="E1" t="s">
         <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" thickBot="1">
@@ -8615,19 +8620,19 @@
         <v>32</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>242</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1">
@@ -10700,7 +10705,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -10711,7 +10716,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -10722,7 +10727,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -10733,7 +10738,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -10744,7 +10749,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -10755,7 +10760,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -10766,7 +10771,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
@@ -10777,7 +10782,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
@@ -10788,7 +10793,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -10799,7 +10804,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -10810,7 +10815,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
@@ -10821,7 +10826,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
@@ -10872,7 +10877,7 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -10918,7 +10923,7 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickBot="1">
@@ -10941,7 +10946,7 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1">
@@ -10964,7 +10969,7 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1">
@@ -10987,7 +10992,7 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickBot="1">
@@ -11010,7 +11015,7 @@
         <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1">
@@ -11033,7 +11038,7 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickBot="1">
@@ -11041,7 +11046,7 @@
         <v>406</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C9" s="17">
         <v>1</v>
@@ -11053,10 +11058,10 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" thickBot="1">
@@ -11064,7 +11069,7 @@
         <v>407</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" s="17">
         <v>1</v>
@@ -11076,10 +11081,10 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25" thickBot="1">
@@ -11087,7 +11092,7 @@
         <v>408</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" s="17">
         <v>1</v>
@@ -11099,10 +11104,10 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickBot="1">
@@ -11110,7 +11115,7 @@
         <v>409</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C12" s="17">
         <v>1</v>
@@ -11122,10 +11127,10 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickBot="1">
@@ -11133,7 +11138,7 @@
         <v>410</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13" s="17">
         <v>1</v>
@@ -11145,10 +11150,10 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -11195,7 +11200,7 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -11238,10 +11243,10 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickBot="1">
@@ -11249,7 +11254,7 @@
         <v>501</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="15">
         <v>1</v>
@@ -11261,10 +11266,10 @@
         <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1">
@@ -11272,7 +11277,7 @@
         <v>502</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" s="17">
         <v>1</v>
@@ -11284,10 +11289,10 @@
         <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1">
@@ -11295,7 +11300,7 @@
         <v>503</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" s="17">
         <v>1</v>
@@ -11307,10 +11312,10 @@
         <v>300</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickBot="1">
@@ -11318,7 +11323,7 @@
         <v>504</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="17">
         <v>1</v>
@@ -11330,10 +11335,10 @@
         <v>400</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1">
@@ -11341,7 +11346,7 @@
         <v>505</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" s="17">
         <v>1</v>
@@ -11353,10 +11358,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -11370,8 +11375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11399,22 +11404,22 @@
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>36</v>
@@ -11423,19 +11428,19 @@
         <v>37</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -11493,22 +11498,22 @@
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>36</v>
@@ -11517,33 +11522,33 @@
         <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="49.5">
+    </row>
+    <row r="4" spans="1:15" ht="33">
       <c r="A4">
         <v>3001</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>100</v>
+      <c r="C4" s="18" t="s">
+        <v>364</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>39</v>
@@ -11555,10 +11560,10 @@
         <v>-15</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>102</v>
+        <v>361</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J4">
         <v>-10</v>
@@ -11567,10 +11572,10 @@
         <v>20</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N4">
         <v>300</v>
@@ -11579,21 +11584,21 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="49.5">
+    <row r="5" spans="1:15" ht="33">
       <c r="A5">
         <v>3002</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="F5" s="3">
         <v>20</v>
@@ -11602,10 +11607,10 @@
         <v>-15</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>102</v>
+        <v>361</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J5">
         <v>-10</v>
@@ -11614,10 +11619,10 @@
         <v>20</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N5">
         <v>300</v>
@@ -11631,16 +11636,16 @@
         <v>3003</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="F6" s="3">
         <v>20</v>
@@ -11649,10 +11654,10 @@
         <v>-15</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>102</v>
+        <v>361</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J6">
         <v>-10</v>
@@ -11661,10 +11666,10 @@
         <v>20</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N6">
         <v>300</v>
@@ -11673,21 +11678,21 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="49.5">
+    <row r="7" spans="1:15" ht="33">
       <c r="A7">
         <v>3004</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="F7" s="3">
         <v>20</v>
@@ -11696,10 +11701,10 @@
         <v>-15</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>102</v>
+        <v>361</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J7">
         <v>-10</v>
@@ -11708,10 +11713,10 @@
         <v>20</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N7">
         <v>300</v>
@@ -11725,16 +11730,16 @@
         <v>3005</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>364</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F8" s="3">
         <v>20</v>
@@ -11743,10 +11748,10 @@
         <v>-15</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>102</v>
+        <v>361</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J8">
         <v>-10</v>
@@ -11755,10 +11760,10 @@
         <v>20</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N8">
         <v>300</v>
@@ -11767,21 +11772,21 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="49.5">
+    <row r="9" spans="1:15" ht="33">
       <c r="A9">
         <v>3006</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>100</v>
+        <v>113</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>364</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="3">
         <v>20</v>
@@ -11790,10 +11795,10 @@
         <v>-15</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>102</v>
+        <v>361</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J9">
         <v>-10</v>
@@ -11802,10 +11807,10 @@
         <v>20</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N9">
         <v>300</v>
@@ -11818,17 +11823,17 @@
       <c r="A10">
         <v>3007</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>100</v>
+      <c r="B10" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>364</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" s="3">
         <v>20</v>
@@ -11837,10 +11842,10 @@
         <v>-15</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>102</v>
+        <v>361</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J10">
         <v>-10</v>
@@ -11849,10 +11854,10 @@
         <v>20</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N10">
         <v>300</v>
@@ -11861,21 +11866,21 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="49.5">
+    <row r="11" spans="1:15" ht="33">
       <c r="A11">
         <v>3008</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>364</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3">
         <v>20</v>
@@ -11884,10 +11889,10 @@
         <v>-15</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>102</v>
+        <v>361</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J11">
         <v>-10</v>
@@ -11896,10 +11901,10 @@
         <v>20</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N11">
         <v>300</v>
@@ -11942,37 +11947,37 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F1" t="s">
         <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -12024,37 +12029,37 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" t="s">
         <v>132</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J3" t="s">
         <v>133</v>
       </c>
-      <c r="E3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I3" t="s">
-        <v>207</v>
-      </c>
-      <c r="J3" t="s">
-        <v>137</v>
-      </c>
       <c r="K3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -12062,13 +12067,13 @@
         <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E4">
         <v>136</v>
@@ -12080,13 +12085,13 @@
         <v>280</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K4" s="1">
         <v>701</v>
@@ -12095,7 +12100,7 @@
         <v>601</v>
       </c>
       <c r="M4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -12103,13 +12108,13 @@
         <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E5">
         <v>124</v>
@@ -12121,13 +12126,13 @@
         <v>280</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K5" s="1">
         <v>702</v>
@@ -12136,7 +12141,7 @@
         <v>602</v>
       </c>
       <c r="M5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -12144,13 +12149,13 @@
         <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <v>85</v>
@@ -12162,13 +12167,13 @@
         <v>260</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K6" s="1">
         <v>703</v>
@@ -12177,7 +12182,7 @@
         <v>603</v>
       </c>
       <c r="M6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -12185,13 +12190,13 @@
         <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E7">
         <v>77</v>
@@ -12203,13 +12208,13 @@
         <v>260</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K7" s="1">
         <v>704</v>
@@ -12218,7 +12223,7 @@
         <v>604</v>
       </c>
       <c r="M7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -12226,13 +12231,13 @@
         <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E8">
         <v>34</v>
@@ -12244,13 +12249,13 @@
         <v>240</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K8" s="1">
         <v>705</v>
@@ -12259,7 +12264,7 @@
         <v>605</v>
       </c>
       <c r="M8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -12267,13 +12272,13 @@
         <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E9">
         <v>31</v>
@@ -12285,13 +12290,13 @@
         <v>240</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K9" s="1">
         <v>706</v>
@@ -12300,7 +12305,7 @@
         <v>606</v>
       </c>
       <c r="M9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -12308,13 +12313,13 @@
         <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E10">
         <v>132</v>
@@ -12326,13 +12331,13 @@
         <v>350</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K10" s="1">
         <v>707</v>
@@ -12341,7 +12346,7 @@
         <v>607</v>
       </c>
       <c r="M10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -12349,13 +12354,13 @@
         <v>208</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E11">
         <v>120</v>
@@ -12367,13 +12372,13 @@
         <v>350</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K11" s="1">
         <v>708</v>
@@ -12382,7 +12387,7 @@
         <v>608</v>
       </c>
       <c r="M11" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -12390,13 +12395,13 @@
         <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E12">
         <v>82</v>
@@ -12408,13 +12413,13 @@
         <v>320</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K12" s="1">
         <v>709</v>
@@ -12423,7 +12428,7 @@
         <v>609</v>
       </c>
       <c r="M12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -12431,13 +12436,13 @@
         <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E13">
         <v>75</v>
@@ -12449,13 +12454,13 @@
         <v>320</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K13" s="1">
         <v>710</v>
@@ -12464,7 +12469,7 @@
         <v>610</v>
       </c>
       <c r="M13" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -12472,13 +12477,13 @@
         <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E14">
         <v>33</v>
@@ -12490,13 +12495,13 @@
         <v>300</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K14" s="1">
         <v>711</v>
@@ -12505,7 +12510,7 @@
         <v>611</v>
       </c>
       <c r="M14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -12513,13 +12518,13 @@
         <v>212</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E15">
         <v>30</v>
@@ -12531,13 +12536,13 @@
         <v>300</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I15" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J15" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K15" s="1">
         <v>712</v>
@@ -12546,7 +12551,7 @@
         <v>612</v>
       </c>
       <c r="M15" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -12554,13 +12559,13 @@
         <v>213</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E16">
         <v>148</v>
@@ -12572,13 +12577,13 @@
         <v>410</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I16" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J16" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K16" s="1">
         <v>713</v>
@@ -12587,7 +12592,7 @@
         <v>613</v>
       </c>
       <c r="M16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -12595,13 +12600,13 @@
         <v>214</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E17">
         <v>128</v>
@@ -12613,13 +12618,13 @@
         <v>400</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I17" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J17" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K17" s="1">
         <v>714</v>
@@ -12628,7 +12633,7 @@
         <v>614</v>
       </c>
       <c r="M17" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -12636,13 +12641,13 @@
         <v>215</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E18">
         <v>160</v>
@@ -12654,13 +12659,13 @@
         <v>430</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K18" s="1">
         <v>715</v>
@@ -12669,7 +12674,7 @@
         <v>615</v>
       </c>
       <c r="M18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -12677,13 +12682,13 @@
         <v>216</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E19">
         <v>92</v>
@@ -12695,13 +12700,13 @@
         <v>370</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I19" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J19" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K19" s="1">
         <v>716</v>
@@ -12710,7 +12715,7 @@
         <v>616</v>
       </c>
       <c r="M19" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -12718,13 +12723,13 @@
         <v>217</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E20">
         <v>80</v>
@@ -12736,13 +12741,13 @@
         <v>360</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K20" s="1">
         <v>717</v>
@@ -12751,7 +12756,7 @@
         <v>617</v>
       </c>
       <c r="M20" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -12759,13 +12764,13 @@
         <v>218</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -12777,13 +12782,13 @@
         <v>390</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I21" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J21" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K21" s="1">
         <v>718</v>
@@ -12792,7 +12797,7 @@
         <v>618</v>
       </c>
       <c r="M21" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -12800,13 +12805,13 @@
         <v>219</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E22">
         <v>37</v>
@@ -12818,13 +12823,13 @@
         <v>360</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I22" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J22" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K22" s="1">
         <v>719</v>
@@ -12833,7 +12838,7 @@
         <v>619</v>
       </c>
       <c r="M22" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -12841,13 +12846,13 @@
         <v>220</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E23">
         <v>32</v>
@@ -12859,13 +12864,13 @@
         <v>350</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J23" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K23" s="1">
         <v>720</v>
@@ -12874,7 +12879,7 @@
         <v>620</v>
       </c>
       <c r="M23" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -12882,13 +12887,13 @@
         <v>221</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E24">
         <v>40</v>
@@ -12900,13 +12905,13 @@
         <v>380</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I24" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J24" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K24" s="1">
         <v>721</v>
@@ -12915,7 +12920,7 @@
         <v>621</v>
       </c>
       <c r="M24" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -12949,25 +12954,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -12978,22 +12983,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -13001,10 +13006,10 @@
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -13013,13 +13018,13 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -13030,22 +13035,22 @@
         <v>201</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G4" s="1">
         <v>140</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -13056,22 +13061,22 @@
         <v>202</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G5" s="1">
         <v>140</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -13082,22 +13087,22 @@
         <v>203</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G6" s="1">
         <v>355</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -13108,22 +13113,22 @@
         <v>204</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G7" s="1">
         <v>355</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -13134,22 +13139,22 @@
         <v>205</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G8" s="1">
         <v>933</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -13160,22 +13165,22 @@
         <v>206</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G9" s="1">
         <v>933</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -13186,22 +13191,22 @@
         <v>207</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G10" s="1">
         <v>140</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -13212,22 +13217,22 @@
         <v>208</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G11" s="1">
         <v>140</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -13238,22 +13243,22 @@
         <v>209</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G12" s="1">
         <v>355</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -13264,22 +13269,22 @@
         <v>210</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G13" s="1">
         <v>355</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -13290,22 +13295,22 @@
         <v>211</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G14" s="1">
         <v>933</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -13316,22 +13321,22 @@
         <v>212</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G15" s="1">
         <v>933</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -13342,22 +13347,22 @@
         <v>213</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G16" s="1">
         <v>140</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -13368,22 +13373,22 @@
         <v>214</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G17" s="1">
         <v>140</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -13394,22 +13399,22 @@
         <v>215</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G18" s="1">
         <v>140</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -13420,22 +13425,22 @@
         <v>216</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G19" s="1">
         <v>355</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -13446,22 +13451,22 @@
         <v>217</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G20" s="1">
         <v>355</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -13472,22 +13477,22 @@
         <v>218</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G21" s="1">
         <v>355</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -13498,22 +13503,22 @@
         <v>219</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G22" s="1">
         <v>933</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -13524,22 +13529,22 @@
         <v>220</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G23" s="1">
         <v>933</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -13550,22 +13555,22 @@
         <v>221</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G24" s="1">
         <v>933</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -13594,16 +13599,16 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -13614,13 +13619,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -13628,16 +13633,16 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -13648,13 +13653,13 @@
         <v>201</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -13665,13 +13670,13 @@
         <v>202</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -13682,13 +13687,13 @@
         <v>203</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -13699,13 +13704,13 @@
         <v>204</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -13716,13 +13721,13 @@
         <v>205</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -13733,13 +13738,13 @@
         <v>206</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -13750,13 +13755,13 @@
         <v>207</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -13767,13 +13772,13 @@
         <v>208</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E11" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -13784,13 +13789,13 @@
         <v>209</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -13801,13 +13806,13 @@
         <v>210</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E13" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -13818,13 +13823,13 @@
         <v>211</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E14" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -13835,13 +13840,13 @@
         <v>212</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E15" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -13852,13 +13857,13 @@
         <v>213</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E16" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -13869,13 +13874,13 @@
         <v>214</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E17" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -13886,13 +13891,13 @@
         <v>215</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E18" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -13903,13 +13908,13 @@
         <v>216</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E19" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -13920,13 +13925,13 @@
         <v>217</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E20" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -13937,13 +13942,13 @@
         <v>218</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E21" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -13954,13 +13959,13 @@
         <v>219</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E22" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -13971,13 +13976,13 @@
         <v>220</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E23" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -13988,13 +13993,13 @@
         <v>221</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E24" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Portfolio\Oilnam\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8406BA3C-ABDD-4B3B-ACFC-C81422780D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0873DBC2-E6B5-44C5-A9B9-D7F836665950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -1098,18 +1098,12 @@
     <t>광고시청</t>
   </si>
   <si>
-    <t>광고를 시청하면 다이아를 제공합니다</t>
-  </si>
-  <si>
     <t>켠왕 패키지</t>
   </si>
   <si>
     <t>골든 패스</t>
   </si>
   <si>
-    <t>골든 패스! 도시락보다 싸다!</t>
-  </si>
-  <si>
     <t>Product_Name</t>
   </si>
   <si>
@@ -1333,10 +1327,6 @@
   </si>
   <si>
     <t>Item/Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모집권 300장\n골드 500개를 구매합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1405,6 +1395,21 @@
   <si>
     <t>공격력 20% ▲
 공격속도 10%▲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집권 300장
+골드 500개를 구매합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고를 시청하면 다이아를 
+제공합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골든 패스! 
+도시락보다 싸다!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2021,14 +2026,14 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="5" max="6" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="5" max="6" width="11.58203125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2113,7 +2118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:13" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -4215,27 +4220,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.875" customWidth="1"/>
+    <col min="1" max="1" width="9.08203125" customWidth="1"/>
+    <col min="2" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="15.08203125" customWidth="1"/>
     <col min="10" max="10" width="15.75" customWidth="1"/>
     <col min="11" max="13" width="16" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="15" max="15" width="14.25" customWidth="1"/>
-    <col min="16" max="17" width="14.875" customWidth="1"/>
-    <col min="18" max="18" width="13.625" customWidth="1"/>
-    <col min="19" max="19" width="14.875" customWidth="1"/>
+    <col min="16" max="17" width="14.83203125" customWidth="1"/>
+    <col min="18" max="18" width="13.58203125" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -4243,16 +4248,16 @@
         <v>251</v>
       </c>
       <c r="B1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D1" t="s">
         <v>129</v>
       </c>
       <c r="E1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F1" t="s">
         <v>252</v>
@@ -4273,10 +4278,10 @@
         <v>257</v>
       </c>
       <c r="L1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N1" t="s">
         <v>258</v>
@@ -4288,7 +4293,7 @@
         <v>260</v>
       </c>
       <c r="Q1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="R1" t="s">
         <v>261</v>
@@ -4297,7 +4302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="17.25" thickBot="1">
+    <row r="2" spans="1:19" ht="17.5" thickBot="1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4356,21 +4361,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="17.25" thickBot="1">
+    <row r="3" spans="1:19" ht="17.5" thickBot="1">
       <c r="A3" t="s">
         <v>32</v>
       </c>
       <c r="B3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" t="s">
         <v>306</v>
-      </c>
-      <c r="C3" t="s">
-        <v>308</v>
       </c>
       <c r="D3" t="s">
         <v>129</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F3" t="s">
         <v>262</v>
@@ -4391,10 +4396,10 @@
         <v>267</v>
       </c>
       <c r="L3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N3" t="s">
         <v>268</v>
@@ -4406,16 +4411,16 @@
         <v>270</v>
       </c>
       <c r="Q3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="R3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="S3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="17.25" thickBot="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="17.5" thickBot="1">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -4423,7 +4428,7 @@
         <v>271</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D4" t="s">
         <v>272</v>
@@ -4471,10 +4476,10 @@
         <v>-1</v>
       </c>
       <c r="S4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="17.25" thickBot="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="17.5" thickBot="1">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -4482,7 +4487,7 @@
         <v>271</v>
       </c>
       <c r="C5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D5" t="s">
         <v>273</v>
@@ -4530,10 +4535,10 @@
         <v>-1</v>
       </c>
       <c r="S5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="17.25" thickBot="1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="17.5" thickBot="1">
       <c r="A6">
         <v>1003</v>
       </c>
@@ -4541,7 +4546,7 @@
         <v>271</v>
       </c>
       <c r="C6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D6" t="s">
         <v>274</v>
@@ -4589,10 +4594,10 @@
         <v>-1</v>
       </c>
       <c r="S6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="17.25" thickBot="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="17.5" thickBot="1">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -4600,7 +4605,7 @@
         <v>275</v>
       </c>
       <c r="C7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D7" t="s">
         <v>276</v>
@@ -4648,10 +4653,10 @@
         <v>-1</v>
       </c>
       <c r="S7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="17.25" thickBot="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="17.5" thickBot="1">
       <c r="A8">
         <v>1005</v>
       </c>
@@ -4659,13 +4664,13 @@
         <v>275</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D8" t="s">
         <v>277</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F8">
         <v>1502</v>
@@ -4707,10 +4712,10 @@
         <v>-1</v>
       </c>
       <c r="S8" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="17.25" thickBot="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="17.5" thickBot="1">
       <c r="A9">
         <v>1006</v>
       </c>
@@ -4718,13 +4723,13 @@
         <v>275</v>
       </c>
       <c r="C9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D9" t="s">
         <v>278</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F9">
         <v>1502</v>
@@ -4766,10 +4771,10 @@
         <v>-1</v>
       </c>
       <c r="S9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="17.25" thickBot="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="17.5" thickBot="1">
       <c r="A10">
         <v>1007</v>
       </c>
@@ -4777,7 +4782,7 @@
         <v>279</v>
       </c>
       <c r="C10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D10" t="s">
         <v>280</v>
@@ -4825,10 +4830,10 @@
         <v>-1</v>
       </c>
       <c r="S10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="17.25" thickBot="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="17.5" thickBot="1">
       <c r="A11">
         <v>1008</v>
       </c>
@@ -4836,7 +4841,7 @@
         <v>279</v>
       </c>
       <c r="C11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D11" t="s">
         <v>281</v>
@@ -4884,10 +4889,10 @@
         <v>-1</v>
       </c>
       <c r="S11" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="17.25" thickBot="1">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="17.5" thickBot="1">
       <c r="A12">
         <v>1009</v>
       </c>
@@ -4895,7 +4900,7 @@
         <v>279</v>
       </c>
       <c r="C12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D12" t="s">
         <v>282</v>
@@ -4943,10 +4948,10 @@
         <v>-1</v>
       </c>
       <c r="S12" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="17.25" thickBot="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="34.5" thickBot="1">
       <c r="A13">
         <v>1010</v>
       </c>
@@ -4954,10 +4959,10 @@
         <v>283</v>
       </c>
       <c r="C13" t="s">
-        <v>318</v>
-      </c>
-      <c r="D13" t="s">
-        <v>284</v>
+        <v>316</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>363</v>
       </c>
       <c r="E13" s="29">
         <v>-1</v>
@@ -5002,21 +5007,21 @@
         <v>1</v>
       </c>
       <c r="S13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="17.25" thickBot="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="17.5" thickBot="1">
       <c r="A14">
         <v>1011</v>
       </c>
       <c r="B14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E14" s="31">
         <v>-1</v>
@@ -5061,24 +5066,24 @@
         <v>-1</v>
       </c>
       <c r="S14" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="17.25" thickBot="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="34.5" thickBot="1">
       <c r="A15">
         <v>1012</v>
       </c>
       <c r="B15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C15" t="s">
-        <v>320</v>
-      </c>
-      <c r="D15" t="s">
-        <v>287</v>
+        <v>318</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>364</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F15">
         <v>1501</v>
@@ -5120,21 +5125,21 @@
         <v>-1</v>
       </c>
       <c r="S15" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="17.25" thickBot="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="34.5" thickBot="1">
       <c r="A16">
         <v>1013</v>
       </c>
       <c r="B16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C16" t="s">
-        <v>319</v>
-      </c>
-      <c r="D16" t="s">
-        <v>348</v>
+        <v>317</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>362</v>
       </c>
       <c r="E16" s="29">
         <v>-1</v>
@@ -5179,7 +5184,7 @@
         <v>-1</v>
       </c>
       <c r="S16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -5197,10 +5202,10 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="39.625" customWidth="1"/>
+    <col min="3" max="3" width="39.58203125" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5209,7 +5214,7 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C1" t="s">
         <v>167</v>
@@ -5218,7 +5223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" thickBot="1">
+    <row r="2" spans="1:4" ht="17.5" thickBot="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5232,21 +5237,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" thickBot="1">
+    <row r="3" spans="1:4" ht="17.5" thickBot="1">
       <c r="A3" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>129</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" thickBot="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.5" thickBot="1">
       <c r="A4" s="16">
         <v>1501</v>
       </c>
@@ -5254,10 +5259,10 @@
         <v>271</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" thickBot="1">
@@ -5268,27 +5273,27 @@
         <v>275</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="21.95" customHeight="1" thickBot="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22" customHeight="1" thickBot="1">
       <c r="A6" s="16">
         <v>1503</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" thickBot="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.649999999999999" customHeight="1" thickBot="1">
       <c r="A7" s="16">
         <v>1504</v>
       </c>
@@ -5296,38 +5301,38 @@
         <v>279</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="21.6" customHeight="1" thickBot="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21.65" customHeight="1" thickBot="1">
       <c r="A8" s="16">
         <v>1505</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21.95" customHeight="1" thickBot="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="22" customHeight="1" thickBot="1">
       <c r="A9" s="16">
         <v>1506</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5345,10 +5350,10 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5438,13 +5443,13 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5452,19 +5457,19 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" t="s">
         <v>349</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>350</v>
-      </c>
-      <c r="D1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5489,22 +5494,22 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E3" t="s">
         <v>354</v>
       </c>
-      <c r="B3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E3" t="s">
-        <v>357</v>
-      </c>
       <c r="F3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8569,10 +8574,10 @@
       <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8595,7 +8600,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" thickBot="1">
+    <row r="2" spans="1:6" ht="17.5" thickBot="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -8635,7 +8640,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" thickBot="1">
+    <row r="4" spans="1:6" ht="17.5" thickBot="1">
       <c r="A4" s="16">
         <v>7001</v>
       </c>
@@ -8655,7 +8660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" thickBot="1">
+    <row r="5" spans="1:6" ht="17.5" thickBot="1">
       <c r="A5" s="16">
         <v>7002</v>
       </c>
@@ -8675,7 +8680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" thickBot="1">
+    <row r="6" spans="1:6" ht="17.5" thickBot="1">
       <c r="A6" s="16">
         <v>7003</v>
       </c>
@@ -8695,7 +8700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.25" thickBot="1">
+    <row r="7" spans="1:6" ht="17.5" thickBot="1">
       <c r="A7" s="16">
         <v>7004</v>
       </c>
@@ -8715,7 +8720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.25" thickBot="1">
+    <row r="8" spans="1:6" ht="17.5" thickBot="1">
       <c r="A8" s="16">
         <v>7005</v>
       </c>
@@ -8735,7 +8740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25" thickBot="1">
+    <row r="9" spans="1:6" ht="17.5" thickBot="1">
       <c r="A9" s="16">
         <v>7006</v>
       </c>
@@ -8755,7 +8760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" thickBot="1">
+    <row r="10" spans="1:6" ht="17.5" thickBot="1">
       <c r="A10" s="16">
         <v>7007</v>
       </c>
@@ -8775,7 +8780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.25" thickBot="1">
+    <row r="11" spans="1:6" ht="17.5" thickBot="1">
       <c r="A11" s="16">
         <v>7008</v>
       </c>
@@ -8795,7 +8800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" thickBot="1">
+    <row r="12" spans="1:6" ht="17.5" thickBot="1">
       <c r="A12" s="16">
         <v>7009</v>
       </c>
@@ -8815,7 +8820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" thickBot="1">
+    <row r="13" spans="1:6" ht="17.5" thickBot="1">
       <c r="A13" s="16">
         <v>7010</v>
       </c>
@@ -8835,7 +8840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" thickBot="1">
+    <row r="14" spans="1:6" ht="17.5" thickBot="1">
       <c r="A14" s="16">
         <v>7011</v>
       </c>
@@ -8855,7 +8860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" thickBot="1">
+    <row r="15" spans="1:6" ht="17.5" thickBot="1">
       <c r="A15" s="16">
         <v>7012</v>
       </c>
@@ -8875,7 +8880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.25" thickBot="1">
+    <row r="16" spans="1:6" ht="17.5" thickBot="1">
       <c r="A16" s="16">
         <v>7013</v>
       </c>
@@ -8895,7 +8900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.25" thickBot="1">
+    <row r="17" spans="1:6" ht="17.5" thickBot="1">
       <c r="A17" s="16">
         <v>7014</v>
       </c>
@@ -8915,7 +8920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.25" thickBot="1">
+    <row r="18" spans="1:6" ht="17.5" thickBot="1">
       <c r="A18" s="16">
         <v>7015</v>
       </c>
@@ -8935,7 +8940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.25" thickBot="1">
+    <row r="19" spans="1:6" ht="17.5" thickBot="1">
       <c r="A19" s="16">
         <v>7016</v>
       </c>
@@ -8955,7 +8960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.25" thickBot="1">
+    <row r="20" spans="1:6" ht="17.5" thickBot="1">
       <c r="A20" s="16">
         <v>7017</v>
       </c>
@@ -8975,7 +8980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.25" thickBot="1">
+    <row r="21" spans="1:6" ht="17.5" thickBot="1">
       <c r="A21" s="16">
         <v>7018</v>
       </c>
@@ -8995,7 +9000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.25" thickBot="1">
+    <row r="22" spans="1:6" ht="17.5" thickBot="1">
       <c r="A22" s="16">
         <v>7019</v>
       </c>
@@ -9015,7 +9020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.25" thickBot="1">
+    <row r="23" spans="1:6" ht="17.5" thickBot="1">
       <c r="A23" s="16">
         <v>7020</v>
       </c>
@@ -9035,7 +9040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.25" thickBot="1">
+    <row r="24" spans="1:6" ht="17.5" thickBot="1">
       <c r="A24" s="16">
         <v>7021</v>
       </c>
@@ -9055,7 +9060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.25" thickBot="1">
+    <row r="25" spans="1:6" ht="17.5" thickBot="1">
       <c r="A25" s="16">
         <v>7022</v>
       </c>
@@ -9075,7 +9080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.25" thickBot="1">
+    <row r="26" spans="1:6" ht="17.5" thickBot="1">
       <c r="A26" s="16">
         <v>7023</v>
       </c>
@@ -9095,7 +9100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.25" thickBot="1">
+    <row r="27" spans="1:6" ht="17.5" thickBot="1">
       <c r="A27" s="16">
         <v>7024</v>
       </c>
@@ -9115,7 +9120,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.25" thickBot="1">
+    <row r="28" spans="1:6" ht="17.5" thickBot="1">
       <c r="A28" s="16">
         <v>7025</v>
       </c>
@@ -9135,7 +9140,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.25" thickBot="1">
+    <row r="29" spans="1:6" ht="17.5" thickBot="1">
       <c r="A29" s="16">
         <v>7026</v>
       </c>
@@ -9155,7 +9160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.25" thickBot="1">
+    <row r="30" spans="1:6" ht="17.5" thickBot="1">
       <c r="A30" s="16">
         <v>7027</v>
       </c>
@@ -9175,7 +9180,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.25" thickBot="1">
+    <row r="31" spans="1:6" ht="17.5" thickBot="1">
       <c r="A31" s="16">
         <v>7028</v>
       </c>
@@ -9195,7 +9200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.25" thickBot="1">
+    <row r="32" spans="1:6" ht="17.5" thickBot="1">
       <c r="A32" s="16">
         <v>7029</v>
       </c>
@@ -9215,7 +9220,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17.25" thickBot="1">
+    <row r="33" spans="1:6" ht="17.5" thickBot="1">
       <c r="A33" s="16">
         <v>7030</v>
       </c>
@@ -9235,7 +9240,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17.25" thickBot="1">
+    <row r="34" spans="1:6" ht="17.5" thickBot="1">
       <c r="A34" s="16">
         <v>7031</v>
       </c>
@@ -9255,7 +9260,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.25" thickBot="1">
+    <row r="35" spans="1:6" ht="17.5" thickBot="1">
       <c r="A35" s="16">
         <v>7032</v>
       </c>
@@ -9275,7 +9280,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17.25" thickBot="1">
+    <row r="36" spans="1:6" ht="17.5" thickBot="1">
       <c r="A36" s="16">
         <v>7033</v>
       </c>
@@ -9295,7 +9300,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17.25" thickBot="1">
+    <row r="37" spans="1:6" ht="17.5" thickBot="1">
       <c r="A37" s="16">
         <v>7034</v>
       </c>
@@ -9315,7 +9320,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.25" thickBot="1">
+    <row r="38" spans="1:6" ht="17.5" thickBot="1">
       <c r="A38" s="16">
         <v>7035</v>
       </c>
@@ -9335,7 +9340,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17.25" thickBot="1">
+    <row r="39" spans="1:6" ht="17.5" thickBot="1">
       <c r="A39" s="16">
         <v>7036</v>
       </c>
@@ -9355,7 +9360,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.25" thickBot="1">
+    <row r="40" spans="1:6" ht="17.5" thickBot="1">
       <c r="A40" s="16">
         <v>7037</v>
       </c>
@@ -9375,7 +9380,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17.25" thickBot="1">
+    <row r="41" spans="1:6" ht="17.5" thickBot="1">
       <c r="A41" s="16">
         <v>7038</v>
       </c>
@@ -9395,7 +9400,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17.25" thickBot="1">
+    <row r="42" spans="1:6" ht="17.5" thickBot="1">
       <c r="A42" s="16">
         <v>7039</v>
       </c>
@@ -9415,7 +9420,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.25" thickBot="1">
+    <row r="43" spans="1:6" ht="17.5" thickBot="1">
       <c r="A43" s="16">
         <v>7040</v>
       </c>
@@ -9435,7 +9440,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.25" thickBot="1">
+    <row r="44" spans="1:6" ht="17.5" thickBot="1">
       <c r="A44" s="16">
         <v>7041</v>
       </c>
@@ -9455,7 +9460,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.25" thickBot="1">
+    <row r="45" spans="1:6" ht="17.5" thickBot="1">
       <c r="A45" s="16">
         <v>7042</v>
       </c>
@@ -9475,7 +9480,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17.25" thickBot="1">
+    <row r="46" spans="1:6" ht="17.5" thickBot="1">
       <c r="A46" s="16">
         <v>7043</v>
       </c>
@@ -9495,7 +9500,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="17.25" thickBot="1">
+    <row r="47" spans="1:6" ht="17.5" thickBot="1">
       <c r="A47" s="16">
         <v>7044</v>
       </c>
@@ -9515,7 +9520,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17.25" thickBot="1">
+    <row r="48" spans="1:6" ht="17.5" thickBot="1">
       <c r="A48" s="16">
         <v>7045</v>
       </c>
@@ -9535,7 +9540,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="17.25" thickBot="1">
+    <row r="49" spans="1:6" ht="17.5" thickBot="1">
       <c r="A49" s="16">
         <v>7046</v>
       </c>
@@ -9555,7 +9560,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="17.25" thickBot="1">
+    <row r="50" spans="1:6" ht="17.5" thickBot="1">
       <c r="A50" s="16">
         <v>7047</v>
       </c>
@@ -9575,7 +9580,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17.25" thickBot="1">
+    <row r="51" spans="1:6" ht="17.5" thickBot="1">
       <c r="A51" s="16">
         <v>7048</v>
       </c>
@@ -9595,7 +9600,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17.25" thickBot="1">
+    <row r="52" spans="1:6" ht="17.5" thickBot="1">
       <c r="A52" s="16">
         <v>7049</v>
       </c>
@@ -9615,7 +9620,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="17.25" thickBot="1">
+    <row r="53" spans="1:6" ht="17.5" thickBot="1">
       <c r="A53" s="16">
         <v>7050</v>
       </c>
@@ -9635,7 +9640,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="17.25" thickBot="1">
+    <row r="54" spans="1:6" ht="17.5" thickBot="1">
       <c r="A54" s="14">
         <v>7051</v>
       </c>
@@ -9655,7 +9660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="17.25" thickBot="1">
+    <row r="55" spans="1:6" ht="17.5" thickBot="1">
       <c r="A55" s="16">
         <v>7052</v>
       </c>
@@ -9675,7 +9680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="17.25" thickBot="1">
+    <row r="56" spans="1:6" ht="17.5" thickBot="1">
       <c r="A56" s="16">
         <v>7053</v>
       </c>
@@ -9695,7 +9700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="17.25" thickBot="1">
+    <row r="57" spans="1:6" ht="17.5" thickBot="1">
       <c r="A57" s="16">
         <v>7054</v>
       </c>
@@ -9715,7 +9720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="17.25" thickBot="1">
+    <row r="58" spans="1:6" ht="17.5" thickBot="1">
       <c r="A58" s="16">
         <v>7055</v>
       </c>
@@ -9735,7 +9740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="17.25" thickBot="1">
+    <row r="59" spans="1:6" ht="17.5" thickBot="1">
       <c r="A59" s="16">
         <v>7056</v>
       </c>
@@ -9755,7 +9760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17.25" thickBot="1">
+    <row r="60" spans="1:6" ht="17.5" thickBot="1">
       <c r="A60" s="16">
         <v>7057</v>
       </c>
@@ -9775,7 +9780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="17.25" thickBot="1">
+    <row r="61" spans="1:6" ht="17.5" thickBot="1">
       <c r="A61" s="16">
         <v>7058</v>
       </c>
@@ -9795,7 +9800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="17.25" thickBot="1">
+    <row r="62" spans="1:6" ht="17.5" thickBot="1">
       <c r="A62" s="16">
         <v>7059</v>
       </c>
@@ -9815,7 +9820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="17.25" thickBot="1">
+    <row r="63" spans="1:6" ht="17.5" thickBot="1">
       <c r="A63" s="16">
         <v>7060</v>
       </c>
@@ -9835,7 +9840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="17.25" thickBot="1">
+    <row r="64" spans="1:6" ht="17.5" thickBot="1">
       <c r="A64" s="16">
         <v>7061</v>
       </c>
@@ -9855,7 +9860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="17.25" thickBot="1">
+    <row r="65" spans="1:6" ht="17.5" thickBot="1">
       <c r="A65" s="16">
         <v>7062</v>
       </c>
@@ -9875,7 +9880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="17.25" thickBot="1">
+    <row r="66" spans="1:6" ht="17.5" thickBot="1">
       <c r="A66" s="16">
         <v>7063</v>
       </c>
@@ -9895,7 +9900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="17.25" thickBot="1">
+    <row r="67" spans="1:6" ht="17.5" thickBot="1">
       <c r="A67" s="16">
         <v>7064</v>
       </c>
@@ -9915,7 +9920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="17.25" thickBot="1">
+    <row r="68" spans="1:6" ht="17.5" thickBot="1">
       <c r="A68" s="16">
         <v>7065</v>
       </c>
@@ -9935,7 +9940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="17.25" thickBot="1">
+    <row r="69" spans="1:6" ht="17.5" thickBot="1">
       <c r="A69" s="16">
         <v>7066</v>
       </c>
@@ -9955,7 +9960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="17.25" thickBot="1">
+    <row r="70" spans="1:6" ht="17.5" thickBot="1">
       <c r="A70" s="16">
         <v>7067</v>
       </c>
@@ -9975,7 +9980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="17.25" thickBot="1">
+    <row r="71" spans="1:6" ht="17.5" thickBot="1">
       <c r="A71" s="16">
         <v>7068</v>
       </c>
@@ -9995,7 +10000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="17.25" thickBot="1">
+    <row r="72" spans="1:6" ht="17.5" thickBot="1">
       <c r="A72" s="16">
         <v>7069</v>
       </c>
@@ -10015,7 +10020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="17.25" thickBot="1">
+    <row r="73" spans="1:6" ht="17.5" thickBot="1">
       <c r="A73" s="16">
         <v>7070</v>
       </c>
@@ -10035,7 +10040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="17.25" thickBot="1">
+    <row r="74" spans="1:6" ht="17.5" thickBot="1">
       <c r="A74" s="16">
         <v>7071</v>
       </c>
@@ -10055,7 +10060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="17.25" thickBot="1">
+    <row r="75" spans="1:6" ht="17.5" thickBot="1">
       <c r="A75" s="16">
         <v>7072</v>
       </c>
@@ -10075,7 +10080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="17.25" thickBot="1">
+    <row r="76" spans="1:6" ht="17.5" thickBot="1">
       <c r="A76" s="16">
         <v>7073</v>
       </c>
@@ -10095,7 +10100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="17.25" thickBot="1">
+    <row r="77" spans="1:6" ht="17.5" thickBot="1">
       <c r="A77" s="16">
         <v>7074</v>
       </c>
@@ -10115,7 +10120,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="17.25" thickBot="1">
+    <row r="78" spans="1:6" ht="17.5" thickBot="1">
       <c r="A78" s="16">
         <v>7075</v>
       </c>
@@ -10135,7 +10140,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="17.25" thickBot="1">
+    <row r="79" spans="1:6" ht="17.5" thickBot="1">
       <c r="A79" s="16">
         <v>7076</v>
       </c>
@@ -10155,7 +10160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="17.25" thickBot="1">
+    <row r="80" spans="1:6" ht="17.5" thickBot="1">
       <c r="A80" s="16">
         <v>7077</v>
       </c>
@@ -10175,7 +10180,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="17.25" thickBot="1">
+    <row r="81" spans="1:6" ht="17.5" thickBot="1">
       <c r="A81" s="16">
         <v>7078</v>
       </c>
@@ -10195,7 +10200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="17.25" thickBot="1">
+    <row r="82" spans="1:6" ht="17.5" thickBot="1">
       <c r="A82" s="16">
         <v>7079</v>
       </c>
@@ -10215,7 +10220,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="17.25" thickBot="1">
+    <row r="83" spans="1:6" ht="17.5" thickBot="1">
       <c r="A83" s="16">
         <v>7080</v>
       </c>
@@ -10235,7 +10240,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="17.25" thickBot="1">
+    <row r="84" spans="1:6" ht="17.5" thickBot="1">
       <c r="A84" s="16">
         <v>7081</v>
       </c>
@@ -10255,7 +10260,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="17.25" thickBot="1">
+    <row r="85" spans="1:6" ht="17.5" thickBot="1">
       <c r="A85" s="16">
         <v>7082</v>
       </c>
@@ -10275,7 +10280,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17.25" thickBot="1">
+    <row r="86" spans="1:6" ht="17.5" thickBot="1">
       <c r="A86" s="16">
         <v>7083</v>
       </c>
@@ -10295,7 +10300,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="17.25" thickBot="1">
+    <row r="87" spans="1:6" ht="17.5" thickBot="1">
       <c r="A87" s="16">
         <v>7084</v>
       </c>
@@ -10315,7 +10320,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="17.25" thickBot="1">
+    <row r="88" spans="1:6" ht="17.5" thickBot="1">
       <c r="A88" s="16">
         <v>7085</v>
       </c>
@@ -10335,7 +10340,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="17.25" thickBot="1">
+    <row r="89" spans="1:6" ht="17.5" thickBot="1">
       <c r="A89" s="16">
         <v>7086</v>
       </c>
@@ -10355,7 +10360,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="17.25" thickBot="1">
+    <row r="90" spans="1:6" ht="17.5" thickBot="1">
       <c r="A90" s="16">
         <v>7087</v>
       </c>
@@ -10375,7 +10380,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="17.25" thickBot="1">
+    <row r="91" spans="1:6" ht="17.5" thickBot="1">
       <c r="A91" s="16">
         <v>7088</v>
       </c>
@@ -10395,7 +10400,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="17.25" thickBot="1">
+    <row r="92" spans="1:6" ht="17.5" thickBot="1">
       <c r="A92" s="16">
         <v>7089</v>
       </c>
@@ -10415,7 +10420,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="17.25" thickBot="1">
+    <row r="93" spans="1:6" ht="17.5" thickBot="1">
       <c r="A93" s="16">
         <v>7090</v>
       </c>
@@ -10435,7 +10440,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="17.25" thickBot="1">
+    <row r="94" spans="1:6" ht="17.5" thickBot="1">
       <c r="A94" s="16">
         <v>7091</v>
       </c>
@@ -10455,7 +10460,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="17.25" thickBot="1">
+    <row r="95" spans="1:6" ht="17.5" thickBot="1">
       <c r="A95" s="16">
         <v>7092</v>
       </c>
@@ -10475,7 +10480,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="17.25" thickBot="1">
+    <row r="96" spans="1:6" ht="17.5" thickBot="1">
       <c r="A96" s="16">
         <v>7093</v>
       </c>
@@ -10495,7 +10500,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="17.25" thickBot="1">
+    <row r="97" spans="1:6" ht="17.5" thickBot="1">
       <c r="A97" s="16">
         <v>7094</v>
       </c>
@@ -10515,7 +10520,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="17.25" thickBot="1">
+    <row r="98" spans="1:6" ht="17.5" thickBot="1">
       <c r="A98" s="16">
         <v>7095</v>
       </c>
@@ -10535,7 +10540,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="17.25" thickBot="1">
+    <row r="99" spans="1:6" ht="17.5" thickBot="1">
       <c r="A99" s="16">
         <v>7096</v>
       </c>
@@ -10555,7 +10560,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="17.25" thickBot="1">
+    <row r="100" spans="1:6" ht="17.5" thickBot="1">
       <c r="A100" s="16">
         <v>7097</v>
       </c>
@@ -10575,7 +10580,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="17.25" thickBot="1">
+    <row r="101" spans="1:6" ht="17.5" thickBot="1">
       <c r="A101" s="16">
         <v>7098</v>
       </c>
@@ -10595,7 +10600,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="17.25" thickBot="1">
+    <row r="102" spans="1:6" ht="17.5" thickBot="1">
       <c r="A102" s="16">
         <v>7099</v>
       </c>
@@ -10615,7 +10620,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="17.25" thickBot="1">
+    <row r="103" spans="1:6" ht="17.5" thickBot="1">
       <c r="A103" s="16">
         <v>7100</v>
       </c>
@@ -10650,10 +10655,10 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="104.875" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="104.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10700,7 +10705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="49.5">
+    <row r="5" spans="1:3" ht="51">
       <c r="A5">
         <v>1</v>
       </c>
@@ -10711,7 +10716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="82.5">
+    <row r="6" spans="1:3" ht="85">
       <c r="A6">
         <v>2</v>
       </c>
@@ -10722,7 +10727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="82.5">
+    <row r="7" spans="1:3" ht="85">
       <c r="A7">
         <v>3</v>
       </c>
@@ -10733,7 +10738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="49.5">
+    <row r="8" spans="1:3" ht="51">
       <c r="A8">
         <v>4</v>
       </c>
@@ -10744,7 +10749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="82.5">
+    <row r="9" spans="1:3" ht="85">
       <c r="A9">
         <v>5</v>
       </c>
@@ -10755,7 +10760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="66">
+    <row r="10" spans="1:3" ht="68">
       <c r="A10">
         <v>6</v>
       </c>
@@ -10766,7 +10771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="49.5">
+    <row r="11" spans="1:3" ht="51">
       <c r="A11">
         <v>7</v>
       </c>
@@ -10777,7 +10782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="66">
+    <row r="12" spans="1:3" ht="68">
       <c r="A12">
         <v>8</v>
       </c>
@@ -10788,7 +10793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="33">
+    <row r="13" spans="1:3" ht="34">
       <c r="A13">
         <v>9</v>
       </c>
@@ -10799,7 +10804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="115.5">
+    <row r="14" spans="1:3" ht="119">
       <c r="A14">
         <v>10</v>
       </c>
@@ -10810,7 +10815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="82.5">
+    <row r="15" spans="1:3" ht="85">
       <c r="A15">
         <v>11</v>
       </c>
@@ -10847,14 +10852,14 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.58203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10903,7 +10908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1">
+    <row r="3" spans="1:7" ht="17.5" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -10926,7 +10931,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" thickBot="1">
+    <row r="4" spans="1:7" ht="17.5" thickBot="1">
       <c r="A4" s="14">
         <v>401</v>
       </c>
@@ -10949,7 +10954,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" thickBot="1">
+    <row r="5" spans="1:7" ht="17.5" thickBot="1">
       <c r="A5" s="16">
         <v>402</v>
       </c>
@@ -10972,7 +10977,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1">
+    <row r="6" spans="1:7" ht="17.5" thickBot="1">
       <c r="A6" s="16">
         <v>403</v>
       </c>
@@ -10995,7 +11000,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1">
+    <row r="7" spans="1:7" ht="17.5" thickBot="1">
       <c r="A7" s="16">
         <v>404</v>
       </c>
@@ -11018,7 +11023,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.25" thickBot="1">
+    <row r="8" spans="1:7" ht="17.5" thickBot="1">
       <c r="A8" s="16">
         <v>405</v>
       </c>
@@ -11041,7 +11046,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.25" thickBot="1">
+    <row r="9" spans="1:7" ht="17.5" thickBot="1">
       <c r="A9" s="16">
         <v>406</v>
       </c>
@@ -11064,7 +11069,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.25" thickBot="1">
+    <row r="10" spans="1:7" ht="17.5" thickBot="1">
       <c r="A10" s="16">
         <v>407</v>
       </c>
@@ -11087,7 +11092,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.25" thickBot="1">
+    <row r="11" spans="1:7" ht="17.5" thickBot="1">
       <c r="A11" s="16">
         <v>408</v>
       </c>
@@ -11110,7 +11115,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" thickBot="1">
+    <row r="12" spans="1:7" ht="17.5" thickBot="1">
       <c r="A12" s="16">
         <v>409</v>
       </c>
@@ -11133,7 +11138,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.25" thickBot="1">
+    <row r="13" spans="1:7" ht="17.5" thickBot="1">
       <c r="A13" s="16">
         <v>410</v>
       </c>
@@ -11171,13 +11176,13 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" customWidth="1"/>
+    <col min="6" max="6" width="13.58203125" customWidth="1"/>
+    <col min="7" max="7" width="19.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -11226,7 +11231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1">
+    <row r="3" spans="1:7" ht="17.5" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -11249,7 +11254,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" thickBot="1">
+    <row r="4" spans="1:7" ht="17.5" thickBot="1">
       <c r="A4" s="14">
         <v>501</v>
       </c>
@@ -11272,7 +11277,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" thickBot="1">
+    <row r="5" spans="1:7" ht="17.5" thickBot="1">
       <c r="A5" s="16">
         <v>502</v>
       </c>
@@ -11295,7 +11300,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1">
+    <row r="6" spans="1:7" ht="17.5" thickBot="1">
       <c r="A6" s="16">
         <v>503</v>
       </c>
@@ -11318,7 +11323,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1">
+    <row r="7" spans="1:7" ht="17.5" thickBot="1">
       <c r="A7" s="16">
         <v>504</v>
       </c>
@@ -11341,7 +11346,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.25" thickBot="1">
+    <row r="8" spans="1:7" ht="17.5" thickBot="1">
       <c r="A8" s="16">
         <v>505</v>
       </c>
@@ -11375,25 +11380,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" customWidth="1"/>
+    <col min="2" max="2" width="31.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.08203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.58203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -11537,7 +11542,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="33">
+    <row r="4" spans="1:15" ht="34">
       <c r="A4">
         <v>3001</v>
       </c>
@@ -11545,7 +11550,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>98</v>
@@ -11560,7 +11565,7 @@
         <v>-15</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>110</v>
@@ -11584,15 +11589,15 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="33">
+    <row r="5" spans="1:15" ht="34">
       <c r="A5">
         <v>3002</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>98</v>
@@ -11607,7 +11612,7 @@
         <v>-15</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>111</v>
@@ -11631,7 +11636,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="66">
+    <row r="6" spans="1:15" ht="68">
       <c r="A6">
         <v>3003</v>
       </c>
@@ -11639,7 +11644,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>98</v>
@@ -11654,7 +11659,7 @@
         <v>-15</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>104</v>
@@ -11678,7 +11683,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="33">
+    <row r="7" spans="1:15" ht="34">
       <c r="A7">
         <v>3004</v>
       </c>
@@ -11686,7 +11691,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>98</v>
@@ -11701,7 +11706,7 @@
         <v>-15</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>105</v>
@@ -11725,7 +11730,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="49.5">
+    <row r="8" spans="1:15" ht="51">
       <c r="A8">
         <v>3005</v>
       </c>
@@ -11733,7 +11738,7 @@
         <v>112</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>98</v>
@@ -11748,7 +11753,7 @@
         <v>-15</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>106</v>
@@ -11772,7 +11777,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="33">
+    <row r="9" spans="1:15" ht="34">
       <c r="A9">
         <v>3006</v>
       </c>
@@ -11780,7 +11785,7 @@
         <v>113</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>98</v>
@@ -11795,7 +11800,7 @@
         <v>-15</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>107</v>
@@ -11819,15 +11824,15 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="49.5">
+    <row r="10" spans="1:15" ht="51">
       <c r="A10">
         <v>3007</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>98</v>
@@ -11842,7 +11847,7 @@
         <v>-15</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>108</v>
@@ -11866,7 +11871,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="33">
+    <row r="11" spans="1:15" ht="34">
       <c r="A11">
         <v>3008</v>
       </c>
@@ -11874,7 +11879,7 @@
         <v>114</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>98</v>
@@ -11889,7 +11894,7 @@
         <v>-15</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>109</v>
@@ -11928,15 +11933,15 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -12938,7 +12943,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="37" style="1" customWidth="1"/>
@@ -13050,7 +13055,7 @@
         <v>140</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -13076,7 +13081,7 @@
         <v>140</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -13102,7 +13107,7 @@
         <v>355</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -13128,7 +13133,7 @@
         <v>355</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -13154,7 +13159,7 @@
         <v>933</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -13180,7 +13185,7 @@
         <v>933</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -13206,7 +13211,7 @@
         <v>140</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -13232,7 +13237,7 @@
         <v>140</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -13258,7 +13263,7 @@
         <v>355</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -13284,7 +13289,7 @@
         <v>355</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -13310,7 +13315,7 @@
         <v>933</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -13336,7 +13341,7 @@
         <v>933</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -13362,7 +13367,7 @@
         <v>140</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -13388,7 +13393,7 @@
         <v>140</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -13414,7 +13419,7 @@
         <v>140</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -13440,7 +13445,7 @@
         <v>355</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -13466,7 +13471,7 @@
         <v>355</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -13492,7 +13497,7 @@
         <v>355</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -13518,7 +13523,7 @@
         <v>933</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -13544,7 +13549,7 @@
         <v>933</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -13570,7 +13575,7 @@
         <v>933</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -13588,9 +13593,9 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13653,13 +13658,13 @@
         <v>201</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>236</v>
       </c>
       <c r="E4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -13670,13 +13675,13 @@
         <v>202</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>236</v>
       </c>
       <c r="E5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -13687,13 +13692,13 @@
         <v>203</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -13704,13 +13709,13 @@
         <v>204</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -13721,13 +13726,13 @@
         <v>205</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -13738,13 +13743,13 @@
         <v>206</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E9" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -13755,13 +13760,13 @@
         <v>207</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -13772,13 +13777,13 @@
         <v>208</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E11" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -13789,13 +13794,13 @@
         <v>209</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -13806,13 +13811,13 @@
         <v>210</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -13823,13 +13828,13 @@
         <v>211</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -13840,13 +13845,13 @@
         <v>212</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -13857,13 +13862,13 @@
         <v>213</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -13874,13 +13879,13 @@
         <v>214</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E17" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -13891,13 +13896,13 @@
         <v>215</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E18" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -13908,13 +13913,13 @@
         <v>216</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E19" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -13925,13 +13930,13 @@
         <v>217</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E20" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -13942,13 +13947,13 @@
         <v>218</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E21" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -13959,13 +13964,13 @@
         <v>219</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E22" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -13976,13 +13981,13 @@
         <v>220</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E23" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -13993,13 +13998,13 @@
         <v>221</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E24" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Portfolio\Oilnam\RawData\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0873DBC2-E6B5-44C5-A9B9-D7F836665950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108A976E-B583-45E6-BAB9-2256C17C5174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -2022,18 +2022,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="6" width="11.58203125" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="5" max="6" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2118,7 +2118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.149999999999999" customHeight="1">
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="6">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G4" s="6">
         <v>-1</v>
@@ -4220,27 +4220,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.08203125" customWidth="1"/>
-    <col min="2" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.875" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="15.08203125" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
     <col min="10" max="10" width="15.75" customWidth="1"/>
     <col min="11" max="13" width="16" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="15" max="15" width="14.25" customWidth="1"/>
-    <col min="16" max="17" width="14.83203125" customWidth="1"/>
-    <col min="18" max="18" width="13.58203125" customWidth="1"/>
-    <col min="19" max="19" width="14.83203125" customWidth="1"/>
+    <col min="16" max="17" width="14.875" customWidth="1"/>
+    <col min="18" max="18" width="13.625" customWidth="1"/>
+    <col min="19" max="19" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -4302,7 +4302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="17.5" thickBot="1">
+    <row r="2" spans="1:19" ht="17.25" thickBot="1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="17.5" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" thickBot="1">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="17.5" thickBot="1">
+    <row r="4" spans="1:19" ht="17.25" thickBot="1">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="17.5" thickBot="1">
+    <row r="5" spans="1:19" ht="17.25" thickBot="1">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="17.5" thickBot="1">
+    <row r="6" spans="1:19" ht="17.25" thickBot="1">
       <c r="A6">
         <v>1003</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="17.5" thickBot="1">
+    <row r="7" spans="1:19" ht="17.25" thickBot="1">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="17.5" thickBot="1">
+    <row r="8" spans="1:19" ht="17.25" thickBot="1">
       <c r="A8">
         <v>1005</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="17.5" thickBot="1">
+    <row r="9" spans="1:19" ht="17.25" thickBot="1">
       <c r="A9">
         <v>1006</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="17.5" thickBot="1">
+    <row r="10" spans="1:19" ht="17.25" thickBot="1">
       <c r="A10">
         <v>1007</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="17.5" thickBot="1">
+    <row r="11" spans="1:19" ht="17.25" thickBot="1">
       <c r="A11">
         <v>1008</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="17.5" thickBot="1">
+    <row r="12" spans="1:19" ht="17.25" thickBot="1">
       <c r="A12">
         <v>1009</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="34.5" thickBot="1">
+    <row r="13" spans="1:19" ht="33.75" thickBot="1">
       <c r="A13">
         <v>1010</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="17.5" thickBot="1">
+    <row r="14" spans="1:19" ht="17.25" thickBot="1">
       <c r="A14">
         <v>1011</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="34.5" thickBot="1">
+    <row r="15" spans="1:19" ht="33.75" thickBot="1">
       <c r="A15">
         <v>1012</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="34.5" thickBot="1">
+    <row r="16" spans="1:19" ht="33.75" thickBot="1">
       <c r="A16">
         <v>1013</v>
       </c>
@@ -5202,10 +5202,10 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="39.58203125" customWidth="1"/>
+    <col min="3" max="3" width="39.625" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5223,7 +5223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.5" thickBot="1">
+    <row r="2" spans="1:4" ht="17.25" thickBot="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.5" thickBot="1">
+    <row r="3" spans="1:4" ht="17.25" thickBot="1">
       <c r="A3" s="23" t="s">
         <v>32</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.5" thickBot="1">
+    <row r="4" spans="1:4" ht="17.25" thickBot="1">
       <c r="A4" s="16">
         <v>1501</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="22" customHeight="1" thickBot="1">
+    <row r="6" spans="1:4" ht="21.95" customHeight="1" thickBot="1">
       <c r="A6" s="16">
         <v>1503</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.649999999999999" customHeight="1" thickBot="1">
+    <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="16">
         <v>1504</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21.65" customHeight="1" thickBot="1">
+    <row r="8" spans="1:4" ht="21.6" customHeight="1" thickBot="1">
       <c r="A8" s="16">
         <v>1505</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="22" customHeight="1" thickBot="1">
+    <row r="9" spans="1:4" ht="21.95" customHeight="1" thickBot="1">
       <c r="A9" s="16">
         <v>1506</v>
       </c>
@@ -5350,10 +5350,10 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5443,13 +5443,13 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8574,10 +8574,10 @@
       <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8600,7 +8600,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.5" thickBot="1">
+    <row r="2" spans="1:6" ht="17.25" thickBot="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.5" thickBot="1">
+    <row r="4" spans="1:6" ht="17.25" thickBot="1">
       <c r="A4" s="16">
         <v>7001</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.5" thickBot="1">
+    <row r="5" spans="1:6" ht="17.25" thickBot="1">
       <c r="A5" s="16">
         <v>7002</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.5" thickBot="1">
+    <row r="6" spans="1:6" ht="17.25" thickBot="1">
       <c r="A6" s="16">
         <v>7003</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.5" thickBot="1">
+    <row r="7" spans="1:6" ht="17.25" thickBot="1">
       <c r="A7" s="16">
         <v>7004</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.5" thickBot="1">
+    <row r="8" spans="1:6" ht="17.25" thickBot="1">
       <c r="A8" s="16">
         <v>7005</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.5" thickBot="1">
+    <row r="9" spans="1:6" ht="17.25" thickBot="1">
       <c r="A9" s="16">
         <v>7006</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.5" thickBot="1">
+    <row r="10" spans="1:6" ht="17.25" thickBot="1">
       <c r="A10" s="16">
         <v>7007</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.5" thickBot="1">
+    <row r="11" spans="1:6" ht="17.25" thickBot="1">
       <c r="A11" s="16">
         <v>7008</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.5" thickBot="1">
+    <row r="12" spans="1:6" ht="17.25" thickBot="1">
       <c r="A12" s="16">
         <v>7009</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.5" thickBot="1">
+    <row r="13" spans="1:6" ht="17.25" thickBot="1">
       <c r="A13" s="16">
         <v>7010</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.5" thickBot="1">
+    <row r="14" spans="1:6" ht="17.25" thickBot="1">
       <c r="A14" s="16">
         <v>7011</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.5" thickBot="1">
+    <row r="15" spans="1:6" ht="17.25" thickBot="1">
       <c r="A15" s="16">
         <v>7012</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.5" thickBot="1">
+    <row r="16" spans="1:6" ht="17.25" thickBot="1">
       <c r="A16" s="16">
         <v>7013</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.5" thickBot="1">
+    <row r="17" spans="1:6" ht="17.25" thickBot="1">
       <c r="A17" s="16">
         <v>7014</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.5" thickBot="1">
+    <row r="18" spans="1:6" ht="17.25" thickBot="1">
       <c r="A18" s="16">
         <v>7015</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.5" thickBot="1">
+    <row r="19" spans="1:6" ht="17.25" thickBot="1">
       <c r="A19" s="16">
         <v>7016</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.5" thickBot="1">
+    <row r="20" spans="1:6" ht="17.25" thickBot="1">
       <c r="A20" s="16">
         <v>7017</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.5" thickBot="1">
+    <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="16">
         <v>7018</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.5" thickBot="1">
+    <row r="22" spans="1:6" ht="17.25" thickBot="1">
       <c r="A22" s="16">
         <v>7019</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.5" thickBot="1">
+    <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="16">
         <v>7020</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.5" thickBot="1">
+    <row r="24" spans="1:6" ht="17.25" thickBot="1">
       <c r="A24" s="16">
         <v>7021</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.5" thickBot="1">
+    <row r="25" spans="1:6" ht="17.25" thickBot="1">
       <c r="A25" s="16">
         <v>7022</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.5" thickBot="1">
+    <row r="26" spans="1:6" ht="17.25" thickBot="1">
       <c r="A26" s="16">
         <v>7023</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.5" thickBot="1">
+    <row r="27" spans="1:6" ht="17.25" thickBot="1">
       <c r="A27" s="16">
         <v>7024</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.5" thickBot="1">
+    <row r="28" spans="1:6" ht="17.25" thickBot="1">
       <c r="A28" s="16">
         <v>7025</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.5" thickBot="1">
+    <row r="29" spans="1:6" ht="17.25" thickBot="1">
       <c r="A29" s="16">
         <v>7026</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.5" thickBot="1">
+    <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="16">
         <v>7027</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.5" thickBot="1">
+    <row r="31" spans="1:6" ht="17.25" thickBot="1">
       <c r="A31" s="16">
         <v>7028</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.5" thickBot="1">
+    <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="16">
         <v>7029</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17.5" thickBot="1">
+    <row r="33" spans="1:6" ht="17.25" thickBot="1">
       <c r="A33" s="16">
         <v>7030</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17.5" thickBot="1">
+    <row r="34" spans="1:6" ht="17.25" thickBot="1">
       <c r="A34" s="16">
         <v>7031</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.5" thickBot="1">
+    <row r="35" spans="1:6" ht="17.25" thickBot="1">
       <c r="A35" s="16">
         <v>7032</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17.5" thickBot="1">
+    <row r="36" spans="1:6" ht="17.25" thickBot="1">
       <c r="A36" s="16">
         <v>7033</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17.5" thickBot="1">
+    <row r="37" spans="1:6" ht="17.25" thickBot="1">
       <c r="A37" s="16">
         <v>7034</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.5" thickBot="1">
+    <row r="38" spans="1:6" ht="17.25" thickBot="1">
       <c r="A38" s="16">
         <v>7035</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17.5" thickBot="1">
+    <row r="39" spans="1:6" ht="17.25" thickBot="1">
       <c r="A39" s="16">
         <v>7036</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.5" thickBot="1">
+    <row r="40" spans="1:6" ht="17.25" thickBot="1">
       <c r="A40" s="16">
         <v>7037</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17.5" thickBot="1">
+    <row r="41" spans="1:6" ht="17.25" thickBot="1">
       <c r="A41" s="16">
         <v>7038</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17.5" thickBot="1">
+    <row r="42" spans="1:6" ht="17.25" thickBot="1">
       <c r="A42" s="16">
         <v>7039</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.5" thickBot="1">
+    <row r="43" spans="1:6" ht="17.25" thickBot="1">
       <c r="A43" s="16">
         <v>7040</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.5" thickBot="1">
+    <row r="44" spans="1:6" ht="17.25" thickBot="1">
       <c r="A44" s="16">
         <v>7041</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.5" thickBot="1">
+    <row r="45" spans="1:6" ht="17.25" thickBot="1">
       <c r="A45" s="16">
         <v>7042</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17.5" thickBot="1">
+    <row r="46" spans="1:6" ht="17.25" thickBot="1">
       <c r="A46" s="16">
         <v>7043</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="17.5" thickBot="1">
+    <row r="47" spans="1:6" ht="17.25" thickBot="1">
       <c r="A47" s="16">
         <v>7044</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17.5" thickBot="1">
+    <row r="48" spans="1:6" ht="17.25" thickBot="1">
       <c r="A48" s="16">
         <v>7045</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="17.5" thickBot="1">
+    <row r="49" spans="1:6" ht="17.25" thickBot="1">
       <c r="A49" s="16">
         <v>7046</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="17.5" thickBot="1">
+    <row r="50" spans="1:6" ht="17.25" thickBot="1">
       <c r="A50" s="16">
         <v>7047</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17.5" thickBot="1">
+    <row r="51" spans="1:6" ht="17.25" thickBot="1">
       <c r="A51" s="16">
         <v>7048</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17.5" thickBot="1">
+    <row r="52" spans="1:6" ht="17.25" thickBot="1">
       <c r="A52" s="16">
         <v>7049</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="17.5" thickBot="1">
+    <row r="53" spans="1:6" ht="17.25" thickBot="1">
       <c r="A53" s="16">
         <v>7050</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="17.5" thickBot="1">
+    <row r="54" spans="1:6" ht="17.25" thickBot="1">
       <c r="A54" s="14">
         <v>7051</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="17.5" thickBot="1">
+    <row r="55" spans="1:6" ht="17.25" thickBot="1">
       <c r="A55" s="16">
         <v>7052</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="17.5" thickBot="1">
+    <row r="56" spans="1:6" ht="17.25" thickBot="1">
       <c r="A56" s="16">
         <v>7053</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="17.5" thickBot="1">
+    <row r="57" spans="1:6" ht="17.25" thickBot="1">
       <c r="A57" s="16">
         <v>7054</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="17.5" thickBot="1">
+    <row r="58" spans="1:6" ht="17.25" thickBot="1">
       <c r="A58" s="16">
         <v>7055</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="17.5" thickBot="1">
+    <row r="59" spans="1:6" ht="17.25" thickBot="1">
       <c r="A59" s="16">
         <v>7056</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17.5" thickBot="1">
+    <row r="60" spans="1:6" ht="17.25" thickBot="1">
       <c r="A60" s="16">
         <v>7057</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="17.5" thickBot="1">
+    <row r="61" spans="1:6" ht="17.25" thickBot="1">
       <c r="A61" s="16">
         <v>7058</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="17.5" thickBot="1">
+    <row r="62" spans="1:6" ht="17.25" thickBot="1">
       <c r="A62" s="16">
         <v>7059</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="17.5" thickBot="1">
+    <row r="63" spans="1:6" ht="17.25" thickBot="1">
       <c r="A63" s="16">
         <v>7060</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="17.5" thickBot="1">
+    <row r="64" spans="1:6" ht="17.25" thickBot="1">
       <c r="A64" s="16">
         <v>7061</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="17.5" thickBot="1">
+    <row r="65" spans="1:6" ht="17.25" thickBot="1">
       <c r="A65" s="16">
         <v>7062</v>
       </c>
@@ -9880,7 +9880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="17.5" thickBot="1">
+    <row r="66" spans="1:6" ht="17.25" thickBot="1">
       <c r="A66" s="16">
         <v>7063</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="17.5" thickBot="1">
+    <row r="67" spans="1:6" ht="17.25" thickBot="1">
       <c r="A67" s="16">
         <v>7064</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="17.5" thickBot="1">
+    <row r="68" spans="1:6" ht="17.25" thickBot="1">
       <c r="A68" s="16">
         <v>7065</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="17.5" thickBot="1">
+    <row r="69" spans="1:6" ht="17.25" thickBot="1">
       <c r="A69" s="16">
         <v>7066</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="17.5" thickBot="1">
+    <row r="70" spans="1:6" ht="17.25" thickBot="1">
       <c r="A70" s="16">
         <v>7067</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="17.5" thickBot="1">
+    <row r="71" spans="1:6" ht="17.25" thickBot="1">
       <c r="A71" s="16">
         <v>7068</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="17.5" thickBot="1">
+    <row r="72" spans="1:6" ht="17.25" thickBot="1">
       <c r="A72" s="16">
         <v>7069</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="17.5" thickBot="1">
+    <row r="73" spans="1:6" ht="17.25" thickBot="1">
       <c r="A73" s="16">
         <v>7070</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="17.5" thickBot="1">
+    <row r="74" spans="1:6" ht="17.25" thickBot="1">
       <c r="A74" s="16">
         <v>7071</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="17.5" thickBot="1">
+    <row r="75" spans="1:6" ht="17.25" thickBot="1">
       <c r="A75" s="16">
         <v>7072</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="17.5" thickBot="1">
+    <row r="76" spans="1:6" ht="17.25" thickBot="1">
       <c r="A76" s="16">
         <v>7073</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="17.5" thickBot="1">
+    <row r="77" spans="1:6" ht="17.25" thickBot="1">
       <c r="A77" s="16">
         <v>7074</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="17.5" thickBot="1">
+    <row r="78" spans="1:6" ht="17.25" thickBot="1">
       <c r="A78" s="16">
         <v>7075</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="17.5" thickBot="1">
+    <row r="79" spans="1:6" ht="17.25" thickBot="1">
       <c r="A79" s="16">
         <v>7076</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="17.5" thickBot="1">
+    <row r="80" spans="1:6" ht="17.25" thickBot="1">
       <c r="A80" s="16">
         <v>7077</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="17.5" thickBot="1">
+    <row r="81" spans="1:6" ht="17.25" thickBot="1">
       <c r="A81" s="16">
         <v>7078</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="17.5" thickBot="1">
+    <row r="82" spans="1:6" ht="17.25" thickBot="1">
       <c r="A82" s="16">
         <v>7079</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="17.5" thickBot="1">
+    <row r="83" spans="1:6" ht="17.25" thickBot="1">
       <c r="A83" s="16">
         <v>7080</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="17.5" thickBot="1">
+    <row r="84" spans="1:6" ht="17.25" thickBot="1">
       <c r="A84" s="16">
         <v>7081</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="17.5" thickBot="1">
+    <row r="85" spans="1:6" ht="17.25" thickBot="1">
       <c r="A85" s="16">
         <v>7082</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17.5" thickBot="1">
+    <row r="86" spans="1:6" ht="17.25" thickBot="1">
       <c r="A86" s="16">
         <v>7083</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="17.5" thickBot="1">
+    <row r="87" spans="1:6" ht="17.25" thickBot="1">
       <c r="A87" s="16">
         <v>7084</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="17.5" thickBot="1">
+    <row r="88" spans="1:6" ht="17.25" thickBot="1">
       <c r="A88" s="16">
         <v>7085</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="17.5" thickBot="1">
+    <row r="89" spans="1:6" ht="17.25" thickBot="1">
       <c r="A89" s="16">
         <v>7086</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="17.5" thickBot="1">
+    <row r="90" spans="1:6" ht="17.25" thickBot="1">
       <c r="A90" s="16">
         <v>7087</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="17.5" thickBot="1">
+    <row r="91" spans="1:6" ht="17.25" thickBot="1">
       <c r="A91" s="16">
         <v>7088</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="17.5" thickBot="1">
+    <row r="92" spans="1:6" ht="17.25" thickBot="1">
       <c r="A92" s="16">
         <v>7089</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="17.5" thickBot="1">
+    <row r="93" spans="1:6" ht="17.25" thickBot="1">
       <c r="A93" s="16">
         <v>7090</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="17.5" thickBot="1">
+    <row r="94" spans="1:6" ht="17.25" thickBot="1">
       <c r="A94" s="16">
         <v>7091</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="17.5" thickBot="1">
+    <row r="95" spans="1:6" ht="17.25" thickBot="1">
       <c r="A95" s="16">
         <v>7092</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="17.5" thickBot="1">
+    <row r="96" spans="1:6" ht="17.25" thickBot="1">
       <c r="A96" s="16">
         <v>7093</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="17.5" thickBot="1">
+    <row r="97" spans="1:6" ht="17.25" thickBot="1">
       <c r="A97" s="16">
         <v>7094</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="17.5" thickBot="1">
+    <row r="98" spans="1:6" ht="17.25" thickBot="1">
       <c r="A98" s="16">
         <v>7095</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="17.5" thickBot="1">
+    <row r="99" spans="1:6" ht="17.25" thickBot="1">
       <c r="A99" s="16">
         <v>7096</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="17.5" thickBot="1">
+    <row r="100" spans="1:6" ht="17.25" thickBot="1">
       <c r="A100" s="16">
         <v>7097</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="17.5" thickBot="1">
+    <row r="101" spans="1:6" ht="17.25" thickBot="1">
       <c r="A101" s="16">
         <v>7098</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="17.5" thickBot="1">
+    <row r="102" spans="1:6" ht="17.25" thickBot="1">
       <c r="A102" s="16">
         <v>7099</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="17.5" thickBot="1">
+    <row r="103" spans="1:6" ht="17.25" thickBot="1">
       <c r="A103" s="16">
         <v>7100</v>
       </c>
@@ -10655,10 +10655,10 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="104.83203125" customWidth="1"/>
-    <col min="3" max="3" width="7.08203125" customWidth="1"/>
+    <col min="2" max="2" width="104.875" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10705,7 +10705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="51">
+    <row r="5" spans="1:3" ht="49.5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="85">
+    <row r="6" spans="1:3" ht="82.5">
       <c r="A6">
         <v>2</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="85">
+    <row r="7" spans="1:3" ht="82.5">
       <c r="A7">
         <v>3</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51">
+    <row r="8" spans="1:3" ht="49.5">
       <c r="A8">
         <v>4</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="85">
+    <row r="9" spans="1:3" ht="82.5">
       <c r="A9">
         <v>5</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="68">
+    <row r="10" spans="1:3" ht="66">
       <c r="A10">
         <v>6</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="51">
+    <row r="11" spans="1:3" ht="49.5">
       <c r="A11">
         <v>7</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="68">
+    <row r="12" spans="1:3" ht="66">
       <c r="A12">
         <v>8</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34">
+    <row r="13" spans="1:3" ht="33">
       <c r="A13">
         <v>9</v>
       </c>
@@ -10804,7 +10804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="119">
+    <row r="14" spans="1:3" ht="115.5">
       <c r="A14">
         <v>10</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="85">
+    <row r="15" spans="1:3" ht="82.5">
       <c r="A15">
         <v>11</v>
       </c>
@@ -10852,14 +10852,14 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" customWidth="1"/>
-    <col min="3" max="3" width="22.58203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10908,7 +10908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.5" thickBot="1">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.5" thickBot="1">
+    <row r="4" spans="1:7" ht="17.25" thickBot="1">
       <c r="A4" s="14">
         <v>401</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.5" thickBot="1">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1">
       <c r="A5" s="16">
         <v>402</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.5" thickBot="1">
+    <row r="6" spans="1:7" ht="17.25" thickBot="1">
       <c r="A6" s="16">
         <v>403</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.5" thickBot="1">
+    <row r="7" spans="1:7" ht="17.25" thickBot="1">
       <c r="A7" s="16">
         <v>404</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.5" thickBot="1">
+    <row r="8" spans="1:7" ht="17.25" thickBot="1">
       <c r="A8" s="16">
         <v>405</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.5" thickBot="1">
+    <row r="9" spans="1:7" ht="17.25" thickBot="1">
       <c r="A9" s="16">
         <v>406</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.5" thickBot="1">
+    <row r="10" spans="1:7" ht="17.25" thickBot="1">
       <c r="A10" s="16">
         <v>407</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.5" thickBot="1">
+    <row r="11" spans="1:7" ht="17.25" thickBot="1">
       <c r="A11" s="16">
         <v>408</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.5" thickBot="1">
+    <row r="12" spans="1:7" ht="17.25" thickBot="1">
       <c r="A12" s="16">
         <v>409</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.5" thickBot="1">
+    <row r="13" spans="1:7" ht="17.25" thickBot="1">
       <c r="A13" s="16">
         <v>410</v>
       </c>
@@ -11176,13 +11176,13 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.58203125" customWidth="1"/>
-    <col min="6" max="6" width="13.58203125" customWidth="1"/>
-    <col min="7" max="7" width="19.08203125" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -11231,7 +11231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.5" thickBot="1">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.5" thickBot="1">
+    <row r="4" spans="1:7" ht="17.25" thickBot="1">
       <c r="A4" s="14">
         <v>501</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.5" thickBot="1">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1">
       <c r="A5" s="16">
         <v>502</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.5" thickBot="1">
+    <row r="6" spans="1:7" ht="17.25" thickBot="1">
       <c r="A6" s="16">
         <v>503</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.5" thickBot="1">
+    <row r="7" spans="1:7" ht="17.25" thickBot="1">
       <c r="A7" s="16">
         <v>504</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.5" thickBot="1">
+    <row r="8" spans="1:7" ht="17.25" thickBot="1">
       <c r="A8" s="16">
         <v>505</v>
       </c>
@@ -11384,21 +11384,21 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" customWidth="1"/>
-    <col min="2" max="2" width="31.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -11542,7 +11542,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="34">
+    <row r="4" spans="1:15" ht="33">
       <c r="A4">
         <v>3001</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="34">
+    <row r="5" spans="1:15" ht="33">
       <c r="A5">
         <v>3002</v>
       </c>
@@ -11636,7 +11636,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="68">
+    <row r="6" spans="1:15" ht="66">
       <c r="A6">
         <v>3003</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="34">
+    <row r="7" spans="1:15" ht="33">
       <c r="A7">
         <v>3004</v>
       </c>
@@ -11730,7 +11730,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="51">
+    <row r="8" spans="1:15" ht="49.5">
       <c r="A8">
         <v>3005</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="34">
+    <row r="9" spans="1:15" ht="33">
       <c r="A9">
         <v>3006</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="51">
+    <row r="10" spans="1:15" ht="49.5">
       <c r="A10">
         <v>3007</v>
       </c>
@@ -11871,7 +11871,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="34">
+    <row r="11" spans="1:15" ht="33">
       <c r="A11">
         <v>3008</v>
       </c>
@@ -11933,15 +11933,15 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -12943,7 +12943,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="37" style="1" customWidth="1"/>
@@ -13593,9 +13593,9 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108A976E-B583-45E6-BAB9-2256C17C5174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ED71CE-7109-491F-9B1A-1964C4CFF6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="367">
   <si>
     <t>Name</t>
   </si>
@@ -1410,6 +1410,14 @@
   <si>
     <t>골든 패스! 
 도시락보다 싸다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoundIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2022,7 +2030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -11927,10 +11935,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11942,9 +11950,10 @@
     <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -11984,8 +11993,11 @@
       <c r="M1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -12025,8 +12037,11 @@
       <c r="M2" s="22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -12066,8 +12081,11 @@
       <c r="M3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>201</v>
       </c>
@@ -12107,8 +12125,11 @@
       <c r="M4" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>202</v>
       </c>
@@ -12148,8 +12169,11 @@
       <c r="M5" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>203</v>
       </c>
@@ -12189,8 +12213,11 @@
       <c r="M6" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>204</v>
       </c>
@@ -12230,8 +12257,11 @@
       <c r="M7" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>205</v>
       </c>
@@ -12271,8 +12301,11 @@
       <c r="M8" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>206</v>
       </c>
@@ -12312,8 +12345,11 @@
       <c r="M9" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>207</v>
       </c>
@@ -12353,8 +12389,11 @@
       <c r="M10" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>208</v>
       </c>
@@ -12394,8 +12433,11 @@
       <c r="M11" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>209</v>
       </c>
@@ -12435,8 +12477,11 @@
       <c r="M12" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>210</v>
       </c>
@@ -12476,8 +12521,11 @@
       <c r="M13" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>211</v>
       </c>
@@ -12517,8 +12565,11 @@
       <c r="M14" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>212</v>
       </c>
@@ -12558,8 +12609,11 @@
       <c r="M15" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>213</v>
       </c>
@@ -12599,8 +12653,11 @@
       <c r="M16" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>214</v>
       </c>
@@ -12640,8 +12697,11 @@
       <c r="M17" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>215</v>
       </c>
@@ -12681,8 +12741,11 @@
       <c r="M18" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>216</v>
       </c>
@@ -12722,8 +12785,11 @@
       <c r="M19" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>217</v>
       </c>
@@ -12763,8 +12829,11 @@
       <c r="M20" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>218</v>
       </c>
@@ -12804,8 +12873,11 @@
       <c r="M21" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>219</v>
       </c>
@@ -12845,8 +12917,11 @@
       <c r="M22" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>220</v>
       </c>
@@ -12886,8 +12961,11 @@
       <c r="M23" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>221</v>
       </c>
@@ -12926,6 +13004,9 @@
       </c>
       <c r="M24" t="s">
         <v>231</v>
+      </c>
+      <c r="N24">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Portfolio\Oilnam\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ED71CE-7109-491F-9B1A-1964C4CFF6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A43AD9-69B0-4055-BF73-29580FD21A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1750" yWindow="1890" windowWidth="19200" windowHeight="11170" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -2034,14 +2034,14 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="5" max="6" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="5" max="6" width="11.58203125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2126,7 +2126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:13" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -4228,27 +4228,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.875" customWidth="1"/>
+    <col min="1" max="1" width="9.08203125" customWidth="1"/>
+    <col min="2" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="15.08203125" customWidth="1"/>
     <col min="10" max="10" width="15.75" customWidth="1"/>
     <col min="11" max="13" width="16" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="15" max="15" width="14.25" customWidth="1"/>
-    <col min="16" max="17" width="14.875" customWidth="1"/>
-    <col min="18" max="18" width="13.625" customWidth="1"/>
-    <col min="19" max="19" width="14.875" customWidth="1"/>
+    <col min="16" max="17" width="14.83203125" customWidth="1"/>
+    <col min="18" max="18" width="13.58203125" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -4310,7 +4310,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="17.25" thickBot="1">
+    <row r="2" spans="1:19" ht="17.5" thickBot="1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="17.25" thickBot="1">
+    <row r="3" spans="1:19" ht="17.5" thickBot="1">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4428,9 +4428,9 @@
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="17.25" thickBot="1">
+    <row r="4" spans="1:19" ht="17.5" thickBot="1">
       <c r="A4">
-        <v>1001</v>
+        <v>1101</v>
       </c>
       <c r="B4" t="s">
         <v>271</v>
@@ -4487,9 +4487,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="17.25" thickBot="1">
+    <row r="5" spans="1:19" ht="17.5" thickBot="1">
       <c r="A5">
-        <v>1002</v>
+        <v>1102</v>
       </c>
       <c r="B5" t="s">
         <v>271</v>
@@ -4546,9 +4546,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="17.25" thickBot="1">
+    <row r="6" spans="1:19" ht="17.5" thickBot="1">
       <c r="A6">
-        <v>1003</v>
+        <v>1103</v>
       </c>
       <c r="B6" t="s">
         <v>271</v>
@@ -4605,9 +4605,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="17.25" thickBot="1">
+    <row r="7" spans="1:19" ht="17.5" thickBot="1">
       <c r="A7">
-        <v>1004</v>
+        <v>1104</v>
       </c>
       <c r="B7" t="s">
         <v>275</v>
@@ -4664,9 +4664,9 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="17.25" thickBot="1">
+    <row r="8" spans="1:19" ht="17.5" thickBot="1">
       <c r="A8">
-        <v>1005</v>
+        <v>1105</v>
       </c>
       <c r="B8" t="s">
         <v>275</v>
@@ -4723,9 +4723,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="17.25" thickBot="1">
+    <row r="9" spans="1:19" ht="17.5" thickBot="1">
       <c r="A9">
-        <v>1006</v>
+        <v>1106</v>
       </c>
       <c r="B9" t="s">
         <v>275</v>
@@ -4782,9 +4782,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="17.25" thickBot="1">
+    <row r="10" spans="1:19" ht="17.5" thickBot="1">
       <c r="A10">
-        <v>1007</v>
+        <v>1107</v>
       </c>
       <c r="B10" t="s">
         <v>279</v>
@@ -4841,9 +4841,9 @@
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="17.25" thickBot="1">
+    <row r="11" spans="1:19" ht="17.5" thickBot="1">
       <c r="A11">
-        <v>1008</v>
+        <v>1108</v>
       </c>
       <c r="B11" t="s">
         <v>279</v>
@@ -4900,9 +4900,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="17.25" thickBot="1">
+    <row r="12" spans="1:19" ht="17.5" thickBot="1">
       <c r="A12">
-        <v>1009</v>
+        <v>1109</v>
       </c>
       <c r="B12" t="s">
         <v>279</v>
@@ -4959,9 +4959,9 @@
         <v>328</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="33.75" thickBot="1">
+    <row r="13" spans="1:19" ht="34.5" thickBot="1">
       <c r="A13">
-        <v>1010</v>
+        <v>1110</v>
       </c>
       <c r="B13" t="s">
         <v>283</v>
@@ -5018,9 +5018,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="17.25" thickBot="1">
+    <row r="14" spans="1:19" ht="17.5" thickBot="1">
       <c r="A14">
-        <v>1011</v>
+        <v>1111</v>
       </c>
       <c r="B14" t="s">
         <v>342</v>
@@ -5077,9 +5077,9 @@
         <v>345</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="33.75" thickBot="1">
+    <row r="15" spans="1:19" ht="34.5" thickBot="1">
       <c r="A15">
-        <v>1012</v>
+        <v>1112</v>
       </c>
       <c r="B15" t="s">
         <v>285</v>
@@ -5136,9 +5136,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="33.75" thickBot="1">
+    <row r="16" spans="1:19" ht="34.5" thickBot="1">
       <c r="A16">
-        <v>1013</v>
+        <v>1113</v>
       </c>
       <c r="B16" t="s">
         <v>284</v>
@@ -5207,13 +5207,13 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="39.625" customWidth="1"/>
+    <col min="3" max="3" width="39.58203125" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5231,7 +5231,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" thickBot="1">
+    <row r="2" spans="1:4" ht="17.5" thickBot="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" thickBot="1">
+    <row r="3" spans="1:4" ht="17.5" thickBot="1">
       <c r="A3" s="23" t="s">
         <v>32</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25" thickBot="1">
+    <row r="4" spans="1:4" ht="17.5" thickBot="1">
       <c r="A4" s="16">
         <v>1501</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21.95" customHeight="1" thickBot="1">
+    <row r="6" spans="1:4" ht="22" customHeight="1" thickBot="1">
       <c r="A6" s="16">
         <v>1503</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" thickBot="1">
+    <row r="7" spans="1:4" ht="18.649999999999999" customHeight="1" thickBot="1">
       <c r="A7" s="16">
         <v>1504</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21.6" customHeight="1" thickBot="1">
+    <row r="8" spans="1:4" ht="21.65" customHeight="1" thickBot="1">
       <c r="A8" s="16">
         <v>1505</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21.95" customHeight="1" thickBot="1">
+    <row r="9" spans="1:4" ht="22" customHeight="1" thickBot="1">
       <c r="A9" s="16">
         <v>1506</v>
       </c>
@@ -5358,10 +5358,10 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5451,13 +5451,13 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8582,10 +8582,10 @@
       <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8608,7 +8608,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" thickBot="1">
+    <row r="2" spans="1:6" ht="17.5" thickBot="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" thickBot="1">
+    <row r="4" spans="1:6" ht="17.5" thickBot="1">
       <c r="A4" s="16">
         <v>7001</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" thickBot="1">
+    <row r="5" spans="1:6" ht="17.5" thickBot="1">
       <c r="A5" s="16">
         <v>7002</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" thickBot="1">
+    <row r="6" spans="1:6" ht="17.5" thickBot="1">
       <c r="A6" s="16">
         <v>7003</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.25" thickBot="1">
+    <row r="7" spans="1:6" ht="17.5" thickBot="1">
       <c r="A7" s="16">
         <v>7004</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.25" thickBot="1">
+    <row r="8" spans="1:6" ht="17.5" thickBot="1">
       <c r="A8" s="16">
         <v>7005</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25" thickBot="1">
+    <row r="9" spans="1:6" ht="17.5" thickBot="1">
       <c r="A9" s="16">
         <v>7006</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" thickBot="1">
+    <row r="10" spans="1:6" ht="17.5" thickBot="1">
       <c r="A10" s="16">
         <v>7007</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.25" thickBot="1">
+    <row r="11" spans="1:6" ht="17.5" thickBot="1">
       <c r="A11" s="16">
         <v>7008</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" thickBot="1">
+    <row r="12" spans="1:6" ht="17.5" thickBot="1">
       <c r="A12" s="16">
         <v>7009</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" thickBot="1">
+    <row r="13" spans="1:6" ht="17.5" thickBot="1">
       <c r="A13" s="16">
         <v>7010</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" thickBot="1">
+    <row r="14" spans="1:6" ht="17.5" thickBot="1">
       <c r="A14" s="16">
         <v>7011</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" thickBot="1">
+    <row r="15" spans="1:6" ht="17.5" thickBot="1">
       <c r="A15" s="16">
         <v>7012</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.25" thickBot="1">
+    <row r="16" spans="1:6" ht="17.5" thickBot="1">
       <c r="A16" s="16">
         <v>7013</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.25" thickBot="1">
+    <row r="17" spans="1:6" ht="17.5" thickBot="1">
       <c r="A17" s="16">
         <v>7014</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.25" thickBot="1">
+    <row r="18" spans="1:6" ht="17.5" thickBot="1">
       <c r="A18" s="16">
         <v>7015</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.25" thickBot="1">
+    <row r="19" spans="1:6" ht="17.5" thickBot="1">
       <c r="A19" s="16">
         <v>7016</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.25" thickBot="1">
+    <row r="20" spans="1:6" ht="17.5" thickBot="1">
       <c r="A20" s="16">
         <v>7017</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.25" thickBot="1">
+    <row r="21" spans="1:6" ht="17.5" thickBot="1">
       <c r="A21" s="16">
         <v>7018</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.25" thickBot="1">
+    <row r="22" spans="1:6" ht="17.5" thickBot="1">
       <c r="A22" s="16">
         <v>7019</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.25" thickBot="1">
+    <row r="23" spans="1:6" ht="17.5" thickBot="1">
       <c r="A23" s="16">
         <v>7020</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.25" thickBot="1">
+    <row r="24" spans="1:6" ht="17.5" thickBot="1">
       <c r="A24" s="16">
         <v>7021</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.25" thickBot="1">
+    <row r="25" spans="1:6" ht="17.5" thickBot="1">
       <c r="A25" s="16">
         <v>7022</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.25" thickBot="1">
+    <row r="26" spans="1:6" ht="17.5" thickBot="1">
       <c r="A26" s="16">
         <v>7023</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.25" thickBot="1">
+    <row r="27" spans="1:6" ht="17.5" thickBot="1">
       <c r="A27" s="16">
         <v>7024</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.25" thickBot="1">
+    <row r="28" spans="1:6" ht="17.5" thickBot="1">
       <c r="A28" s="16">
         <v>7025</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.25" thickBot="1">
+    <row r="29" spans="1:6" ht="17.5" thickBot="1">
       <c r="A29" s="16">
         <v>7026</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.25" thickBot="1">
+    <row r="30" spans="1:6" ht="17.5" thickBot="1">
       <c r="A30" s="16">
         <v>7027</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.25" thickBot="1">
+    <row r="31" spans="1:6" ht="17.5" thickBot="1">
       <c r="A31" s="16">
         <v>7028</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.25" thickBot="1">
+    <row r="32" spans="1:6" ht="17.5" thickBot="1">
       <c r="A32" s="16">
         <v>7029</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17.25" thickBot="1">
+    <row r="33" spans="1:6" ht="17.5" thickBot="1">
       <c r="A33" s="16">
         <v>7030</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17.25" thickBot="1">
+    <row r="34" spans="1:6" ht="17.5" thickBot="1">
       <c r="A34" s="16">
         <v>7031</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.25" thickBot="1">
+    <row r="35" spans="1:6" ht="17.5" thickBot="1">
       <c r="A35" s="16">
         <v>7032</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17.25" thickBot="1">
+    <row r="36" spans="1:6" ht="17.5" thickBot="1">
       <c r="A36" s="16">
         <v>7033</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17.25" thickBot="1">
+    <row r="37" spans="1:6" ht="17.5" thickBot="1">
       <c r="A37" s="16">
         <v>7034</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.25" thickBot="1">
+    <row r="38" spans="1:6" ht="17.5" thickBot="1">
       <c r="A38" s="16">
         <v>7035</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17.25" thickBot="1">
+    <row r="39" spans="1:6" ht="17.5" thickBot="1">
       <c r="A39" s="16">
         <v>7036</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.25" thickBot="1">
+    <row r="40" spans="1:6" ht="17.5" thickBot="1">
       <c r="A40" s="16">
         <v>7037</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17.25" thickBot="1">
+    <row r="41" spans="1:6" ht="17.5" thickBot="1">
       <c r="A41" s="16">
         <v>7038</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17.25" thickBot="1">
+    <row r="42" spans="1:6" ht="17.5" thickBot="1">
       <c r="A42" s="16">
         <v>7039</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.25" thickBot="1">
+    <row r="43" spans="1:6" ht="17.5" thickBot="1">
       <c r="A43" s="16">
         <v>7040</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.25" thickBot="1">
+    <row r="44" spans="1:6" ht="17.5" thickBot="1">
       <c r="A44" s="16">
         <v>7041</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.25" thickBot="1">
+    <row r="45" spans="1:6" ht="17.5" thickBot="1">
       <c r="A45" s="16">
         <v>7042</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17.25" thickBot="1">
+    <row r="46" spans="1:6" ht="17.5" thickBot="1">
       <c r="A46" s="16">
         <v>7043</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="17.25" thickBot="1">
+    <row r="47" spans="1:6" ht="17.5" thickBot="1">
       <c r="A47" s="16">
         <v>7044</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17.25" thickBot="1">
+    <row r="48" spans="1:6" ht="17.5" thickBot="1">
       <c r="A48" s="16">
         <v>7045</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="17.25" thickBot="1">
+    <row r="49" spans="1:6" ht="17.5" thickBot="1">
       <c r="A49" s="16">
         <v>7046</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="17.25" thickBot="1">
+    <row r="50" spans="1:6" ht="17.5" thickBot="1">
       <c r="A50" s="16">
         <v>7047</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17.25" thickBot="1">
+    <row r="51" spans="1:6" ht="17.5" thickBot="1">
       <c r="A51" s="16">
         <v>7048</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17.25" thickBot="1">
+    <row r="52" spans="1:6" ht="17.5" thickBot="1">
       <c r="A52" s="16">
         <v>7049</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="17.25" thickBot="1">
+    <row r="53" spans="1:6" ht="17.5" thickBot="1">
       <c r="A53" s="16">
         <v>7050</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="17.25" thickBot="1">
+    <row r="54" spans="1:6" ht="17.5" thickBot="1">
       <c r="A54" s="14">
         <v>7051</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="17.25" thickBot="1">
+    <row r="55" spans="1:6" ht="17.5" thickBot="1">
       <c r="A55" s="16">
         <v>7052</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="17.25" thickBot="1">
+    <row r="56" spans="1:6" ht="17.5" thickBot="1">
       <c r="A56" s="16">
         <v>7053</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="17.25" thickBot="1">
+    <row r="57" spans="1:6" ht="17.5" thickBot="1">
       <c r="A57" s="16">
         <v>7054</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="17.25" thickBot="1">
+    <row r="58" spans="1:6" ht="17.5" thickBot="1">
       <c r="A58" s="16">
         <v>7055</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="17.25" thickBot="1">
+    <row r="59" spans="1:6" ht="17.5" thickBot="1">
       <c r="A59" s="16">
         <v>7056</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17.25" thickBot="1">
+    <row r="60" spans="1:6" ht="17.5" thickBot="1">
       <c r="A60" s="16">
         <v>7057</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="17.25" thickBot="1">
+    <row r="61" spans="1:6" ht="17.5" thickBot="1">
       <c r="A61" s="16">
         <v>7058</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="17.25" thickBot="1">
+    <row r="62" spans="1:6" ht="17.5" thickBot="1">
       <c r="A62" s="16">
         <v>7059</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="17.25" thickBot="1">
+    <row r="63" spans="1:6" ht="17.5" thickBot="1">
       <c r="A63" s="16">
         <v>7060</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="17.25" thickBot="1">
+    <row r="64" spans="1:6" ht="17.5" thickBot="1">
       <c r="A64" s="16">
         <v>7061</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="17.25" thickBot="1">
+    <row r="65" spans="1:6" ht="17.5" thickBot="1">
       <c r="A65" s="16">
         <v>7062</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="17.25" thickBot="1">
+    <row r="66" spans="1:6" ht="17.5" thickBot="1">
       <c r="A66" s="16">
         <v>7063</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="17.25" thickBot="1">
+    <row r="67" spans="1:6" ht="17.5" thickBot="1">
       <c r="A67" s="16">
         <v>7064</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="17.25" thickBot="1">
+    <row r="68" spans="1:6" ht="17.5" thickBot="1">
       <c r="A68" s="16">
         <v>7065</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="17.25" thickBot="1">
+    <row r="69" spans="1:6" ht="17.5" thickBot="1">
       <c r="A69" s="16">
         <v>7066</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="17.25" thickBot="1">
+    <row r="70" spans="1:6" ht="17.5" thickBot="1">
       <c r="A70" s="16">
         <v>7067</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="17.25" thickBot="1">
+    <row r="71" spans="1:6" ht="17.5" thickBot="1">
       <c r="A71" s="16">
         <v>7068</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="17.25" thickBot="1">
+    <row r="72" spans="1:6" ht="17.5" thickBot="1">
       <c r="A72" s="16">
         <v>7069</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="17.25" thickBot="1">
+    <row r="73" spans="1:6" ht="17.5" thickBot="1">
       <c r="A73" s="16">
         <v>7070</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="17.25" thickBot="1">
+    <row r="74" spans="1:6" ht="17.5" thickBot="1">
       <c r="A74" s="16">
         <v>7071</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="17.25" thickBot="1">
+    <row r="75" spans="1:6" ht="17.5" thickBot="1">
       <c r="A75" s="16">
         <v>7072</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="17.25" thickBot="1">
+    <row r="76" spans="1:6" ht="17.5" thickBot="1">
       <c r="A76" s="16">
         <v>7073</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="17.25" thickBot="1">
+    <row r="77" spans="1:6" ht="17.5" thickBot="1">
       <c r="A77" s="16">
         <v>7074</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="17.25" thickBot="1">
+    <row r="78" spans="1:6" ht="17.5" thickBot="1">
       <c r="A78" s="16">
         <v>7075</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="17.25" thickBot="1">
+    <row r="79" spans="1:6" ht="17.5" thickBot="1">
       <c r="A79" s="16">
         <v>7076</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="17.25" thickBot="1">
+    <row r="80" spans="1:6" ht="17.5" thickBot="1">
       <c r="A80" s="16">
         <v>7077</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="17.25" thickBot="1">
+    <row r="81" spans="1:6" ht="17.5" thickBot="1">
       <c r="A81" s="16">
         <v>7078</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="17.25" thickBot="1">
+    <row r="82" spans="1:6" ht="17.5" thickBot="1">
       <c r="A82" s="16">
         <v>7079</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="17.25" thickBot="1">
+    <row r="83" spans="1:6" ht="17.5" thickBot="1">
       <c r="A83" s="16">
         <v>7080</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="17.25" thickBot="1">
+    <row r="84" spans="1:6" ht="17.5" thickBot="1">
       <c r="A84" s="16">
         <v>7081</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="17.25" thickBot="1">
+    <row r="85" spans="1:6" ht="17.5" thickBot="1">
       <c r="A85" s="16">
         <v>7082</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17.25" thickBot="1">
+    <row r="86" spans="1:6" ht="17.5" thickBot="1">
       <c r="A86" s="16">
         <v>7083</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="17.25" thickBot="1">
+    <row r="87" spans="1:6" ht="17.5" thickBot="1">
       <c r="A87" s="16">
         <v>7084</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="17.25" thickBot="1">
+    <row r="88" spans="1:6" ht="17.5" thickBot="1">
       <c r="A88" s="16">
         <v>7085</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="17.25" thickBot="1">
+    <row r="89" spans="1:6" ht="17.5" thickBot="1">
       <c r="A89" s="16">
         <v>7086</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="17.25" thickBot="1">
+    <row r="90" spans="1:6" ht="17.5" thickBot="1">
       <c r="A90" s="16">
         <v>7087</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="17.25" thickBot="1">
+    <row r="91" spans="1:6" ht="17.5" thickBot="1">
       <c r="A91" s="16">
         <v>7088</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="17.25" thickBot="1">
+    <row r="92" spans="1:6" ht="17.5" thickBot="1">
       <c r="A92" s="16">
         <v>7089</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="17.25" thickBot="1">
+    <row r="93" spans="1:6" ht="17.5" thickBot="1">
       <c r="A93" s="16">
         <v>7090</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="17.25" thickBot="1">
+    <row r="94" spans="1:6" ht="17.5" thickBot="1">
       <c r="A94" s="16">
         <v>7091</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="17.25" thickBot="1">
+    <row r="95" spans="1:6" ht="17.5" thickBot="1">
       <c r="A95" s="16">
         <v>7092</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="17.25" thickBot="1">
+    <row r="96" spans="1:6" ht="17.5" thickBot="1">
       <c r="A96" s="16">
         <v>7093</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="17.25" thickBot="1">
+    <row r="97" spans="1:6" ht="17.5" thickBot="1">
       <c r="A97" s="16">
         <v>7094</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="17.25" thickBot="1">
+    <row r="98" spans="1:6" ht="17.5" thickBot="1">
       <c r="A98" s="16">
         <v>7095</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="17.25" thickBot="1">
+    <row r="99" spans="1:6" ht="17.5" thickBot="1">
       <c r="A99" s="16">
         <v>7096</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="17.25" thickBot="1">
+    <row r="100" spans="1:6" ht="17.5" thickBot="1">
       <c r="A100" s="16">
         <v>7097</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="17.25" thickBot="1">
+    <row r="101" spans="1:6" ht="17.5" thickBot="1">
       <c r="A101" s="16">
         <v>7098</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="17.25" thickBot="1">
+    <row r="102" spans="1:6" ht="17.5" thickBot="1">
       <c r="A102" s="16">
         <v>7099</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="17.25" thickBot="1">
+    <row r="103" spans="1:6" ht="17.5" thickBot="1">
       <c r="A103" s="16">
         <v>7100</v>
       </c>
@@ -10663,10 +10663,10 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="104.875" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="104.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10713,7 +10713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="49.5">
+    <row r="5" spans="1:3" ht="51">
       <c r="A5">
         <v>1</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="82.5">
+    <row r="6" spans="1:3" ht="85">
       <c r="A6">
         <v>2</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="82.5">
+    <row r="7" spans="1:3" ht="85">
       <c r="A7">
         <v>3</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="49.5">
+    <row r="8" spans="1:3" ht="51">
       <c r="A8">
         <v>4</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="82.5">
+    <row r="9" spans="1:3" ht="85">
       <c r="A9">
         <v>5</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="66">
+    <row r="10" spans="1:3" ht="68">
       <c r="A10">
         <v>6</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="49.5">
+    <row r="11" spans="1:3" ht="51">
       <c r="A11">
         <v>7</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="66">
+    <row r="12" spans="1:3" ht="68">
       <c r="A12">
         <v>8</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="33">
+    <row r="13" spans="1:3" ht="34">
       <c r="A13">
         <v>9</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="115.5">
+    <row r="14" spans="1:3" ht="119">
       <c r="A14">
         <v>10</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="82.5">
+    <row r="15" spans="1:3" ht="85">
       <c r="A15">
         <v>11</v>
       </c>
@@ -10860,14 +10860,14 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.58203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10916,7 +10916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1">
+    <row r="3" spans="1:7" ht="17.5" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" thickBot="1">
+    <row r="4" spans="1:7" ht="17.5" thickBot="1">
       <c r="A4" s="14">
         <v>401</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" thickBot="1">
+    <row r="5" spans="1:7" ht="17.5" thickBot="1">
       <c r="A5" s="16">
         <v>402</v>
       </c>
@@ -10985,7 +10985,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1">
+    <row r="6" spans="1:7" ht="17.5" thickBot="1">
       <c r="A6" s="16">
         <v>403</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1">
+    <row r="7" spans="1:7" ht="17.5" thickBot="1">
       <c r="A7" s="16">
         <v>404</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.25" thickBot="1">
+    <row r="8" spans="1:7" ht="17.5" thickBot="1">
       <c r="A8" s="16">
         <v>405</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.25" thickBot="1">
+    <row r="9" spans="1:7" ht="17.5" thickBot="1">
       <c r="A9" s="16">
         <v>406</v>
       </c>
@@ -11077,7 +11077,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.25" thickBot="1">
+    <row r="10" spans="1:7" ht="17.5" thickBot="1">
       <c r="A10" s="16">
         <v>407</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.25" thickBot="1">
+    <row r="11" spans="1:7" ht="17.5" thickBot="1">
       <c r="A11" s="16">
         <v>408</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" thickBot="1">
+    <row r="12" spans="1:7" ht="17.5" thickBot="1">
       <c r="A12" s="16">
         <v>409</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.25" thickBot="1">
+    <row r="13" spans="1:7" ht="17.5" thickBot="1">
       <c r="A13" s="16">
         <v>410</v>
       </c>
@@ -11184,13 +11184,13 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" customWidth="1"/>
+    <col min="6" max="6" width="13.58203125" customWidth="1"/>
+    <col min="7" max="7" width="19.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -11239,7 +11239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1">
+    <row r="3" spans="1:7" ht="17.5" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" thickBot="1">
+    <row r="4" spans="1:7" ht="17.5" thickBot="1">
       <c r="A4" s="14">
         <v>501</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" thickBot="1">
+    <row r="5" spans="1:7" ht="17.5" thickBot="1">
       <c r="A5" s="16">
         <v>502</v>
       </c>
@@ -11308,7 +11308,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1">
+    <row r="6" spans="1:7" ht="17.5" thickBot="1">
       <c r="A6" s="16">
         <v>503</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1">
+    <row r="7" spans="1:7" ht="17.5" thickBot="1">
       <c r="A7" s="16">
         <v>504</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.25" thickBot="1">
+    <row r="8" spans="1:7" ht="17.5" thickBot="1">
       <c r="A8" s="16">
         <v>505</v>
       </c>
@@ -11392,21 +11392,21 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" customWidth="1"/>
+    <col min="2" max="2" width="31.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.08203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.58203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -11550,7 +11550,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="33">
+    <row r="4" spans="1:15" ht="34">
       <c r="A4">
         <v>3001</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="33">
+    <row r="5" spans="1:15" ht="34">
       <c r="A5">
         <v>3002</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="66">
+    <row r="6" spans="1:15" ht="68">
       <c r="A6">
         <v>3003</v>
       </c>
@@ -11691,7 +11691,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="33">
+    <row r="7" spans="1:15" ht="34">
       <c r="A7">
         <v>3004</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="49.5">
+    <row r="8" spans="1:15" ht="51">
       <c r="A8">
         <v>3005</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="33">
+    <row r="9" spans="1:15" ht="34">
       <c r="A9">
         <v>3006</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="49.5">
+    <row r="10" spans="1:15" ht="51">
       <c r="A10">
         <v>3007</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="33">
+    <row r="11" spans="1:15" ht="34">
       <c r="A11">
         <v>3008</v>
       </c>
@@ -11937,19 +11937,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="G4" workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13024,7 +13024,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="37" style="1" customWidth="1"/>
@@ -13674,9 +13674,9 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Portfolio\Oilnam\RawData\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A43AD9-69B0-4055-BF73-29580FD21A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76C85BC-A374-438C-BE3D-568481221E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1750" yWindow="1890" windowWidth="19200" windowHeight="11170" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Goods" sheetId="12" r:id="rId11"/>
     <sheet name="TIP" sheetId="10" r:id="rId12"/>
     <sheet name="LevelPass" sheetId="13" r:id="rId13"/>
+    <sheet name="Talk" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="383">
   <si>
     <t>Name</t>
   </si>
@@ -1418,6 +1419,70 @@
   </si>
   <si>
     <t>SoundIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIP. 딸의 연락을 무시해도 괜찮습니다..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMI. 딸의 나이는 8살입니다♡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIP? 영웅은 S가 제일 좋습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMI. 딸은 노래하는 걸 좋아합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMI. 아빠는 노래듣는 걸 싫어합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIP. 그림자 색을 잘 보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Talk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답장 좀 해줘!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나만 고양이 없어…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 뭐 먹을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠 나랑 놀자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아까 공룡 봤어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠 잘 갔다 왔어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠 짱이다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탕후루 사 왔어?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2034,14 +2099,14 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="6" width="11.58203125" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="5" max="6" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="18.75" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2126,7 +2191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.149999999999999" customHeight="1">
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -4228,27 +4293,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.08203125" customWidth="1"/>
-    <col min="2" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.875" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="15.08203125" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
     <col min="10" max="10" width="15.75" customWidth="1"/>
     <col min="11" max="13" width="16" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="15" max="15" width="14.25" customWidth="1"/>
-    <col min="16" max="17" width="14.83203125" customWidth="1"/>
-    <col min="18" max="18" width="13.58203125" customWidth="1"/>
-    <col min="19" max="19" width="14.83203125" customWidth="1"/>
+    <col min="16" max="17" width="14.875" customWidth="1"/>
+    <col min="18" max="18" width="13.625" customWidth="1"/>
+    <col min="19" max="19" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -4310,7 +4375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="17.5" thickBot="1">
+    <row r="2" spans="1:19" ht="17.25" thickBot="1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4369,7 +4434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="17.5" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" thickBot="1">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4428,7 +4493,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="17.5" thickBot="1">
+    <row r="4" spans="1:19" ht="17.25" thickBot="1">
       <c r="A4">
         <v>1101</v>
       </c>
@@ -4487,7 +4552,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="17.5" thickBot="1">
+    <row r="5" spans="1:19" ht="17.25" thickBot="1">
       <c r="A5">
         <v>1102</v>
       </c>
@@ -4546,7 +4611,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="17.5" thickBot="1">
+    <row r="6" spans="1:19" ht="17.25" thickBot="1">
       <c r="A6">
         <v>1103</v>
       </c>
@@ -4605,7 +4670,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="17.5" thickBot="1">
+    <row r="7" spans="1:19" ht="17.25" thickBot="1">
       <c r="A7">
         <v>1104</v>
       </c>
@@ -4664,7 +4729,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="17.5" thickBot="1">
+    <row r="8" spans="1:19" ht="17.25" thickBot="1">
       <c r="A8">
         <v>1105</v>
       </c>
@@ -4723,7 +4788,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="17.5" thickBot="1">
+    <row r="9" spans="1:19" ht="17.25" thickBot="1">
       <c r="A9">
         <v>1106</v>
       </c>
@@ -4782,7 +4847,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="17.5" thickBot="1">
+    <row r="10" spans="1:19" ht="17.25" thickBot="1">
       <c r="A10">
         <v>1107</v>
       </c>
@@ -4841,7 +4906,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="17.5" thickBot="1">
+    <row r="11" spans="1:19" ht="17.25" thickBot="1">
       <c r="A11">
         <v>1108</v>
       </c>
@@ -4900,7 +4965,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="17.5" thickBot="1">
+    <row r="12" spans="1:19" ht="17.25" thickBot="1">
       <c r="A12">
         <v>1109</v>
       </c>
@@ -4959,7 +5024,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="34.5" thickBot="1">
+    <row r="13" spans="1:19" ht="33.75" thickBot="1">
       <c r="A13">
         <v>1110</v>
       </c>
@@ -5018,7 +5083,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="17.5" thickBot="1">
+    <row r="14" spans="1:19" ht="17.25" thickBot="1">
       <c r="A14">
         <v>1111</v>
       </c>
@@ -5077,7 +5142,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="34.5" thickBot="1">
+    <row r="15" spans="1:19" ht="33.75" thickBot="1">
       <c r="A15">
         <v>1112</v>
       </c>
@@ -5136,7 +5201,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="34.5" thickBot="1">
+    <row r="16" spans="1:19" ht="33.75" thickBot="1">
       <c r="A16">
         <v>1113</v>
       </c>
@@ -5210,10 +5275,10 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="39.58203125" customWidth="1"/>
+    <col min="3" max="3" width="39.625" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5231,7 +5296,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.5" thickBot="1">
+    <row r="2" spans="1:4" ht="17.25" thickBot="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5245,7 +5310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.5" thickBot="1">
+    <row r="3" spans="1:4" ht="17.25" thickBot="1">
       <c r="A3" s="23" t="s">
         <v>32</v>
       </c>
@@ -5259,7 +5324,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.5" thickBot="1">
+    <row r="4" spans="1:4" ht="17.25" thickBot="1">
       <c r="A4" s="16">
         <v>1501</v>
       </c>
@@ -5287,7 +5352,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="22" customHeight="1" thickBot="1">
+    <row r="6" spans="1:4" ht="21.95" customHeight="1" thickBot="1">
       <c r="A6" s="16">
         <v>1503</v>
       </c>
@@ -5301,7 +5366,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.649999999999999" customHeight="1" thickBot="1">
+    <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="16">
         <v>1504</v>
       </c>
@@ -5315,7 +5380,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21.65" customHeight="1" thickBot="1">
+    <row r="8" spans="1:4" ht="21.6" customHeight="1" thickBot="1">
       <c r="A8" s="16">
         <v>1505</v>
       </c>
@@ -5329,7 +5394,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="22" customHeight="1" thickBot="1">
+    <row r="9" spans="1:4" ht="21.95" customHeight="1" thickBot="1">
       <c r="A9" s="16">
         <v>1506</v>
       </c>
@@ -5352,16 +5417,16 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5434,6 +5499,54 @@
       </c>
       <c r="B9" t="s">
         <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -5448,16 +5561,16 @@
   <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8571,6 +8684,122 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0ACCD1F-CBC5-460A-9F8F-54BEC4E16134}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>20001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>20002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>20003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>20004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>20005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>20006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>20007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>20008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>20009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8582,10 +8811,10 @@
       <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8608,7 +8837,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.5" thickBot="1">
+    <row r="2" spans="1:6" ht="17.25" thickBot="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -8648,7 +8877,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.5" thickBot="1">
+    <row r="4" spans="1:6" ht="17.25" thickBot="1">
       <c r="A4" s="16">
         <v>7001</v>
       </c>
@@ -8668,7 +8897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.5" thickBot="1">
+    <row r="5" spans="1:6" ht="17.25" thickBot="1">
       <c r="A5" s="16">
         <v>7002</v>
       </c>
@@ -8688,7 +8917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.5" thickBot="1">
+    <row r="6" spans="1:6" ht="17.25" thickBot="1">
       <c r="A6" s="16">
         <v>7003</v>
       </c>
@@ -8708,7 +8937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.5" thickBot="1">
+    <row r="7" spans="1:6" ht="17.25" thickBot="1">
       <c r="A7" s="16">
         <v>7004</v>
       </c>
@@ -8728,7 +8957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.5" thickBot="1">
+    <row r="8" spans="1:6" ht="17.25" thickBot="1">
       <c r="A8" s="16">
         <v>7005</v>
       </c>
@@ -8748,7 +8977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.5" thickBot="1">
+    <row r="9" spans="1:6" ht="17.25" thickBot="1">
       <c r="A9" s="16">
         <v>7006</v>
       </c>
@@ -8768,7 +8997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.5" thickBot="1">
+    <row r="10" spans="1:6" ht="17.25" thickBot="1">
       <c r="A10" s="16">
         <v>7007</v>
       </c>
@@ -8788,7 +9017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.5" thickBot="1">
+    <row r="11" spans="1:6" ht="17.25" thickBot="1">
       <c r="A11" s="16">
         <v>7008</v>
       </c>
@@ -8808,7 +9037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.5" thickBot="1">
+    <row r="12" spans="1:6" ht="17.25" thickBot="1">
       <c r="A12" s="16">
         <v>7009</v>
       </c>
@@ -8828,7 +9057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.5" thickBot="1">
+    <row r="13" spans="1:6" ht="17.25" thickBot="1">
       <c r="A13" s="16">
         <v>7010</v>
       </c>
@@ -8848,7 +9077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.5" thickBot="1">
+    <row r="14" spans="1:6" ht="17.25" thickBot="1">
       <c r="A14" s="16">
         <v>7011</v>
       </c>
@@ -8868,7 +9097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.5" thickBot="1">
+    <row r="15" spans="1:6" ht="17.25" thickBot="1">
       <c r="A15" s="16">
         <v>7012</v>
       </c>
@@ -8888,7 +9117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.5" thickBot="1">
+    <row r="16" spans="1:6" ht="17.25" thickBot="1">
       <c r="A16" s="16">
         <v>7013</v>
       </c>
@@ -8908,7 +9137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.5" thickBot="1">
+    <row r="17" spans="1:6" ht="17.25" thickBot="1">
       <c r="A17" s="16">
         <v>7014</v>
       </c>
@@ -8928,7 +9157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.5" thickBot="1">
+    <row r="18" spans="1:6" ht="17.25" thickBot="1">
       <c r="A18" s="16">
         <v>7015</v>
       </c>
@@ -8948,7 +9177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.5" thickBot="1">
+    <row r="19" spans="1:6" ht="17.25" thickBot="1">
       <c r="A19" s="16">
         <v>7016</v>
       </c>
@@ -8968,7 +9197,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.5" thickBot="1">
+    <row r="20" spans="1:6" ht="17.25" thickBot="1">
       <c r="A20" s="16">
         <v>7017</v>
       </c>
@@ -8988,7 +9217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.5" thickBot="1">
+    <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="16">
         <v>7018</v>
       </c>
@@ -9008,7 +9237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.5" thickBot="1">
+    <row r="22" spans="1:6" ht="17.25" thickBot="1">
       <c r="A22" s="16">
         <v>7019</v>
       </c>
@@ -9028,7 +9257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.5" thickBot="1">
+    <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="16">
         <v>7020</v>
       </c>
@@ -9048,7 +9277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.5" thickBot="1">
+    <row r="24" spans="1:6" ht="17.25" thickBot="1">
       <c r="A24" s="16">
         <v>7021</v>
       </c>
@@ -9068,7 +9297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.5" thickBot="1">
+    <row r="25" spans="1:6" ht="17.25" thickBot="1">
       <c r="A25" s="16">
         <v>7022</v>
       </c>
@@ -9088,7 +9317,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.5" thickBot="1">
+    <row r="26" spans="1:6" ht="17.25" thickBot="1">
       <c r="A26" s="16">
         <v>7023</v>
       </c>
@@ -9108,7 +9337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.5" thickBot="1">
+    <row r="27" spans="1:6" ht="17.25" thickBot="1">
       <c r="A27" s="16">
         <v>7024</v>
       </c>
@@ -9128,7 +9357,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.5" thickBot="1">
+    <row r="28" spans="1:6" ht="17.25" thickBot="1">
       <c r="A28" s="16">
         <v>7025</v>
       </c>
@@ -9148,7 +9377,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.5" thickBot="1">
+    <row r="29" spans="1:6" ht="17.25" thickBot="1">
       <c r="A29" s="16">
         <v>7026</v>
       </c>
@@ -9168,7 +9397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.5" thickBot="1">
+    <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="16">
         <v>7027</v>
       </c>
@@ -9188,7 +9417,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.5" thickBot="1">
+    <row r="31" spans="1:6" ht="17.25" thickBot="1">
       <c r="A31" s="16">
         <v>7028</v>
       </c>
@@ -9208,7 +9437,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.5" thickBot="1">
+    <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="16">
         <v>7029</v>
       </c>
@@ -9228,7 +9457,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17.5" thickBot="1">
+    <row r="33" spans="1:6" ht="17.25" thickBot="1">
       <c r="A33" s="16">
         <v>7030</v>
       </c>
@@ -9248,7 +9477,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17.5" thickBot="1">
+    <row r="34" spans="1:6" ht="17.25" thickBot="1">
       <c r="A34" s="16">
         <v>7031</v>
       </c>
@@ -9268,7 +9497,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.5" thickBot="1">
+    <row r="35" spans="1:6" ht="17.25" thickBot="1">
       <c r="A35" s="16">
         <v>7032</v>
       </c>
@@ -9288,7 +9517,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17.5" thickBot="1">
+    <row r="36" spans="1:6" ht="17.25" thickBot="1">
       <c r="A36" s="16">
         <v>7033</v>
       </c>
@@ -9308,7 +9537,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17.5" thickBot="1">
+    <row r="37" spans="1:6" ht="17.25" thickBot="1">
       <c r="A37" s="16">
         <v>7034</v>
       </c>
@@ -9328,7 +9557,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.5" thickBot="1">
+    <row r="38" spans="1:6" ht="17.25" thickBot="1">
       <c r="A38" s="16">
         <v>7035</v>
       </c>
@@ -9348,7 +9577,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17.5" thickBot="1">
+    <row r="39" spans="1:6" ht="17.25" thickBot="1">
       <c r="A39" s="16">
         <v>7036</v>
       </c>
@@ -9368,7 +9597,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.5" thickBot="1">
+    <row r="40" spans="1:6" ht="17.25" thickBot="1">
       <c r="A40" s="16">
         <v>7037</v>
       </c>
@@ -9388,7 +9617,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17.5" thickBot="1">
+    <row r="41" spans="1:6" ht="17.25" thickBot="1">
       <c r="A41" s="16">
         <v>7038</v>
       </c>
@@ -9408,7 +9637,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17.5" thickBot="1">
+    <row r="42" spans="1:6" ht="17.25" thickBot="1">
       <c r="A42" s="16">
         <v>7039</v>
       </c>
@@ -9428,7 +9657,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.5" thickBot="1">
+    <row r="43" spans="1:6" ht="17.25" thickBot="1">
       <c r="A43" s="16">
         <v>7040</v>
       </c>
@@ -9448,7 +9677,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.5" thickBot="1">
+    <row r="44" spans="1:6" ht="17.25" thickBot="1">
       <c r="A44" s="16">
         <v>7041</v>
       </c>
@@ -9468,7 +9697,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.5" thickBot="1">
+    <row r="45" spans="1:6" ht="17.25" thickBot="1">
       <c r="A45" s="16">
         <v>7042</v>
       </c>
@@ -9488,7 +9717,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17.5" thickBot="1">
+    <row r="46" spans="1:6" ht="17.25" thickBot="1">
       <c r="A46" s="16">
         <v>7043</v>
       </c>
@@ -9508,7 +9737,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="17.5" thickBot="1">
+    <row r="47" spans="1:6" ht="17.25" thickBot="1">
       <c r="A47" s="16">
         <v>7044</v>
       </c>
@@ -9528,7 +9757,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17.5" thickBot="1">
+    <row r="48" spans="1:6" ht="17.25" thickBot="1">
       <c r="A48" s="16">
         <v>7045</v>
       </c>
@@ -9548,7 +9777,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="17.5" thickBot="1">
+    <row r="49" spans="1:6" ht="17.25" thickBot="1">
       <c r="A49" s="16">
         <v>7046</v>
       </c>
@@ -9568,7 +9797,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="17.5" thickBot="1">
+    <row r="50" spans="1:6" ht="17.25" thickBot="1">
       <c r="A50" s="16">
         <v>7047</v>
       </c>
@@ -9588,7 +9817,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17.5" thickBot="1">
+    <row r="51" spans="1:6" ht="17.25" thickBot="1">
       <c r="A51" s="16">
         <v>7048</v>
       </c>
@@ -9608,7 +9837,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17.5" thickBot="1">
+    <row r="52" spans="1:6" ht="17.25" thickBot="1">
       <c r="A52" s="16">
         <v>7049</v>
       </c>
@@ -9628,7 +9857,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="17.5" thickBot="1">
+    <row r="53" spans="1:6" ht="17.25" thickBot="1">
       <c r="A53" s="16">
         <v>7050</v>
       </c>
@@ -9648,7 +9877,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="17.5" thickBot="1">
+    <row r="54" spans="1:6" ht="17.25" thickBot="1">
       <c r="A54" s="14">
         <v>7051</v>
       </c>
@@ -9668,7 +9897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="17.5" thickBot="1">
+    <row r="55" spans="1:6" ht="17.25" thickBot="1">
       <c r="A55" s="16">
         <v>7052</v>
       </c>
@@ -9688,7 +9917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="17.5" thickBot="1">
+    <row r="56" spans="1:6" ht="17.25" thickBot="1">
       <c r="A56" s="16">
         <v>7053</v>
       </c>
@@ -9708,7 +9937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="17.5" thickBot="1">
+    <row r="57" spans="1:6" ht="17.25" thickBot="1">
       <c r="A57" s="16">
         <v>7054</v>
       </c>
@@ -9728,7 +9957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="17.5" thickBot="1">
+    <row r="58" spans="1:6" ht="17.25" thickBot="1">
       <c r="A58" s="16">
         <v>7055</v>
       </c>
@@ -9748,7 +9977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="17.5" thickBot="1">
+    <row r="59" spans="1:6" ht="17.25" thickBot="1">
       <c r="A59" s="16">
         <v>7056</v>
       </c>
@@ -9768,7 +9997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17.5" thickBot="1">
+    <row r="60" spans="1:6" ht="17.25" thickBot="1">
       <c r="A60" s="16">
         <v>7057</v>
       </c>
@@ -9788,7 +10017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="17.5" thickBot="1">
+    <row r="61" spans="1:6" ht="17.25" thickBot="1">
       <c r="A61" s="16">
         <v>7058</v>
       </c>
@@ -9808,7 +10037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="17.5" thickBot="1">
+    <row r="62" spans="1:6" ht="17.25" thickBot="1">
       <c r="A62" s="16">
         <v>7059</v>
       </c>
@@ -9828,7 +10057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="17.5" thickBot="1">
+    <row r="63" spans="1:6" ht="17.25" thickBot="1">
       <c r="A63" s="16">
         <v>7060</v>
       </c>
@@ -9848,7 +10077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="17.5" thickBot="1">
+    <row r="64" spans="1:6" ht="17.25" thickBot="1">
       <c r="A64" s="16">
         <v>7061</v>
       </c>
@@ -9868,7 +10097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="17.5" thickBot="1">
+    <row r="65" spans="1:6" ht="17.25" thickBot="1">
       <c r="A65" s="16">
         <v>7062</v>
       </c>
@@ -9888,7 +10117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="17.5" thickBot="1">
+    <row r="66" spans="1:6" ht="17.25" thickBot="1">
       <c r="A66" s="16">
         <v>7063</v>
       </c>
@@ -9908,7 +10137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="17.5" thickBot="1">
+    <row r="67" spans="1:6" ht="17.25" thickBot="1">
       <c r="A67" s="16">
         <v>7064</v>
       </c>
@@ -9928,7 +10157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="17.5" thickBot="1">
+    <row r="68" spans="1:6" ht="17.25" thickBot="1">
       <c r="A68" s="16">
         <v>7065</v>
       </c>
@@ -9948,7 +10177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="17.5" thickBot="1">
+    <row r="69" spans="1:6" ht="17.25" thickBot="1">
       <c r="A69" s="16">
         <v>7066</v>
       </c>
@@ -9968,7 +10197,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="17.5" thickBot="1">
+    <row r="70" spans="1:6" ht="17.25" thickBot="1">
       <c r="A70" s="16">
         <v>7067</v>
       </c>
@@ -9988,7 +10217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="17.5" thickBot="1">
+    <row r="71" spans="1:6" ht="17.25" thickBot="1">
       <c r="A71" s="16">
         <v>7068</v>
       </c>
@@ -10008,7 +10237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="17.5" thickBot="1">
+    <row r="72" spans="1:6" ht="17.25" thickBot="1">
       <c r="A72" s="16">
         <v>7069</v>
       </c>
@@ -10028,7 +10257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="17.5" thickBot="1">
+    <row r="73" spans="1:6" ht="17.25" thickBot="1">
       <c r="A73" s="16">
         <v>7070</v>
       </c>
@@ -10048,7 +10277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="17.5" thickBot="1">
+    <row r="74" spans="1:6" ht="17.25" thickBot="1">
       <c r="A74" s="16">
         <v>7071</v>
       </c>
@@ -10068,7 +10297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="17.5" thickBot="1">
+    <row r="75" spans="1:6" ht="17.25" thickBot="1">
       <c r="A75" s="16">
         <v>7072</v>
       </c>
@@ -10088,7 +10317,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="17.5" thickBot="1">
+    <row r="76" spans="1:6" ht="17.25" thickBot="1">
       <c r="A76" s="16">
         <v>7073</v>
       </c>
@@ -10108,7 +10337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="17.5" thickBot="1">
+    <row r="77" spans="1:6" ht="17.25" thickBot="1">
       <c r="A77" s="16">
         <v>7074</v>
       </c>
@@ -10128,7 +10357,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="17.5" thickBot="1">
+    <row r="78" spans="1:6" ht="17.25" thickBot="1">
       <c r="A78" s="16">
         <v>7075</v>
       </c>
@@ -10148,7 +10377,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="17.5" thickBot="1">
+    <row r="79" spans="1:6" ht="17.25" thickBot="1">
       <c r="A79" s="16">
         <v>7076</v>
       </c>
@@ -10168,7 +10397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="17.5" thickBot="1">
+    <row r="80" spans="1:6" ht="17.25" thickBot="1">
       <c r="A80" s="16">
         <v>7077</v>
       </c>
@@ -10188,7 +10417,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="17.5" thickBot="1">
+    <row r="81" spans="1:6" ht="17.25" thickBot="1">
       <c r="A81" s="16">
         <v>7078</v>
       </c>
@@ -10208,7 +10437,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="17.5" thickBot="1">
+    <row r="82" spans="1:6" ht="17.25" thickBot="1">
       <c r="A82" s="16">
         <v>7079</v>
       </c>
@@ -10228,7 +10457,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="17.5" thickBot="1">
+    <row r="83" spans="1:6" ht="17.25" thickBot="1">
       <c r="A83" s="16">
         <v>7080</v>
       </c>
@@ -10248,7 +10477,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="17.5" thickBot="1">
+    <row r="84" spans="1:6" ht="17.25" thickBot="1">
       <c r="A84" s="16">
         <v>7081</v>
       </c>
@@ -10268,7 +10497,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="17.5" thickBot="1">
+    <row r="85" spans="1:6" ht="17.25" thickBot="1">
       <c r="A85" s="16">
         <v>7082</v>
       </c>
@@ -10288,7 +10517,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17.5" thickBot="1">
+    <row r="86" spans="1:6" ht="17.25" thickBot="1">
       <c r="A86" s="16">
         <v>7083</v>
       </c>
@@ -10308,7 +10537,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="17.5" thickBot="1">
+    <row r="87" spans="1:6" ht="17.25" thickBot="1">
       <c r="A87" s="16">
         <v>7084</v>
       </c>
@@ -10328,7 +10557,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="17.5" thickBot="1">
+    <row r="88" spans="1:6" ht="17.25" thickBot="1">
       <c r="A88" s="16">
         <v>7085</v>
       </c>
@@ -10348,7 +10577,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="17.5" thickBot="1">
+    <row r="89" spans="1:6" ht="17.25" thickBot="1">
       <c r="A89" s="16">
         <v>7086</v>
       </c>
@@ -10368,7 +10597,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="17.5" thickBot="1">
+    <row r="90" spans="1:6" ht="17.25" thickBot="1">
       <c r="A90" s="16">
         <v>7087</v>
       </c>
@@ -10388,7 +10617,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="17.5" thickBot="1">
+    <row r="91" spans="1:6" ht="17.25" thickBot="1">
       <c r="A91" s="16">
         <v>7088</v>
       </c>
@@ -10408,7 +10637,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="17.5" thickBot="1">
+    <row r="92" spans="1:6" ht="17.25" thickBot="1">
       <c r="A92" s="16">
         <v>7089</v>
       </c>
@@ -10428,7 +10657,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="17.5" thickBot="1">
+    <row r="93" spans="1:6" ht="17.25" thickBot="1">
       <c r="A93" s="16">
         <v>7090</v>
       </c>
@@ -10448,7 +10677,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="17.5" thickBot="1">
+    <row r="94" spans="1:6" ht="17.25" thickBot="1">
       <c r="A94" s="16">
         <v>7091</v>
       </c>
@@ -10468,7 +10697,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="17.5" thickBot="1">
+    <row r="95" spans="1:6" ht="17.25" thickBot="1">
       <c r="A95" s="16">
         <v>7092</v>
       </c>
@@ -10488,7 +10717,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="17.5" thickBot="1">
+    <row r="96" spans="1:6" ht="17.25" thickBot="1">
       <c r="A96" s="16">
         <v>7093</v>
       </c>
@@ -10508,7 +10737,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="17.5" thickBot="1">
+    <row r="97" spans="1:6" ht="17.25" thickBot="1">
       <c r="A97" s="16">
         <v>7094</v>
       </c>
@@ -10528,7 +10757,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="17.5" thickBot="1">
+    <row r="98" spans="1:6" ht="17.25" thickBot="1">
       <c r="A98" s="16">
         <v>7095</v>
       </c>
@@ -10548,7 +10777,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="17.5" thickBot="1">
+    <row r="99" spans="1:6" ht="17.25" thickBot="1">
       <c r="A99" s="16">
         <v>7096</v>
       </c>
@@ -10568,7 +10797,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="17.5" thickBot="1">
+    <row r="100" spans="1:6" ht="17.25" thickBot="1">
       <c r="A100" s="16">
         <v>7097</v>
       </c>
@@ -10588,7 +10817,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="17.5" thickBot="1">
+    <row r="101" spans="1:6" ht="17.25" thickBot="1">
       <c r="A101" s="16">
         <v>7098</v>
       </c>
@@ -10608,7 +10837,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="17.5" thickBot="1">
+    <row r="102" spans="1:6" ht="17.25" thickBot="1">
       <c r="A102" s="16">
         <v>7099</v>
       </c>
@@ -10628,7 +10857,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="17.5" thickBot="1">
+    <row r="103" spans="1:6" ht="17.25" thickBot="1">
       <c r="A103" s="16">
         <v>7100</v>
       </c>
@@ -10663,10 +10892,10 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="104.83203125" customWidth="1"/>
-    <col min="3" max="3" width="7.08203125" customWidth="1"/>
+    <col min="2" max="2" width="104.875" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10713,7 +10942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="51">
+    <row r="5" spans="1:3" ht="49.5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -10724,7 +10953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="85">
+    <row r="6" spans="1:3" ht="82.5">
       <c r="A6">
         <v>2</v>
       </c>
@@ -10735,7 +10964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="85">
+    <row r="7" spans="1:3" ht="82.5">
       <c r="A7">
         <v>3</v>
       </c>
@@ -10746,7 +10975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51">
+    <row r="8" spans="1:3" ht="49.5">
       <c r="A8">
         <v>4</v>
       </c>
@@ -10757,7 +10986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="85">
+    <row r="9" spans="1:3" ht="82.5">
       <c r="A9">
         <v>5</v>
       </c>
@@ -10768,7 +10997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="68">
+    <row r="10" spans="1:3" ht="66">
       <c r="A10">
         <v>6</v>
       </c>
@@ -10779,7 +11008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="51">
+    <row r="11" spans="1:3" ht="49.5">
       <c r="A11">
         <v>7</v>
       </c>
@@ -10790,7 +11019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="68">
+    <row r="12" spans="1:3" ht="66">
       <c r="A12">
         <v>8</v>
       </c>
@@ -10801,7 +11030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34">
+    <row r="13" spans="1:3" ht="33">
       <c r="A13">
         <v>9</v>
       </c>
@@ -10812,7 +11041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="119">
+    <row r="14" spans="1:3" ht="115.5">
       <c r="A14">
         <v>10</v>
       </c>
@@ -10823,7 +11052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="85">
+    <row r="15" spans="1:3" ht="82.5">
       <c r="A15">
         <v>11</v>
       </c>
@@ -10860,14 +11089,14 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" customWidth="1"/>
-    <col min="3" max="3" width="22.58203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10916,7 +11145,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.5" thickBot="1">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -10939,7 +11168,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.5" thickBot="1">
+    <row r="4" spans="1:7" ht="17.25" thickBot="1">
       <c r="A4" s="14">
         <v>401</v>
       </c>
@@ -10962,7 +11191,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.5" thickBot="1">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1">
       <c r="A5" s="16">
         <v>402</v>
       </c>
@@ -10985,7 +11214,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.5" thickBot="1">
+    <row r="6" spans="1:7" ht="17.25" thickBot="1">
       <c r="A6" s="16">
         <v>403</v>
       </c>
@@ -11008,7 +11237,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.5" thickBot="1">
+    <row r="7" spans="1:7" ht="17.25" thickBot="1">
       <c r="A7" s="16">
         <v>404</v>
       </c>
@@ -11031,7 +11260,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.5" thickBot="1">
+    <row r="8" spans="1:7" ht="17.25" thickBot="1">
       <c r="A8" s="16">
         <v>405</v>
       </c>
@@ -11054,7 +11283,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.5" thickBot="1">
+    <row r="9" spans="1:7" ht="17.25" thickBot="1">
       <c r="A9" s="16">
         <v>406</v>
       </c>
@@ -11077,7 +11306,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.5" thickBot="1">
+    <row r="10" spans="1:7" ht="17.25" thickBot="1">
       <c r="A10" s="16">
         <v>407</v>
       </c>
@@ -11100,7 +11329,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.5" thickBot="1">
+    <row r="11" spans="1:7" ht="17.25" thickBot="1">
       <c r="A11" s="16">
         <v>408</v>
       </c>
@@ -11123,7 +11352,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.5" thickBot="1">
+    <row r="12" spans="1:7" ht="17.25" thickBot="1">
       <c r="A12" s="16">
         <v>409</v>
       </c>
@@ -11146,7 +11375,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.5" thickBot="1">
+    <row r="13" spans="1:7" ht="17.25" thickBot="1">
       <c r="A13" s="16">
         <v>410</v>
       </c>
@@ -11184,13 +11413,13 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.58203125" customWidth="1"/>
-    <col min="6" max="6" width="13.58203125" customWidth="1"/>
-    <col min="7" max="7" width="19.08203125" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -11239,7 +11468,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.5" thickBot="1">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -11262,7 +11491,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.5" thickBot="1">
+    <row r="4" spans="1:7" ht="17.25" thickBot="1">
       <c r="A4" s="14">
         <v>501</v>
       </c>
@@ -11285,7 +11514,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.5" thickBot="1">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1">
       <c r="A5" s="16">
         <v>502</v>
       </c>
@@ -11308,7 +11537,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.5" thickBot="1">
+    <row r="6" spans="1:7" ht="17.25" thickBot="1">
       <c r="A6" s="16">
         <v>503</v>
       </c>
@@ -11331,7 +11560,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.5" thickBot="1">
+    <row r="7" spans="1:7" ht="17.25" thickBot="1">
       <c r="A7" s="16">
         <v>504</v>
       </c>
@@ -11354,7 +11583,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.5" thickBot="1">
+    <row r="8" spans="1:7" ht="17.25" thickBot="1">
       <c r="A8" s="16">
         <v>505</v>
       </c>
@@ -11392,21 +11621,21 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" customWidth="1"/>
-    <col min="2" max="2" width="31.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -11550,7 +11779,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="34">
+    <row r="4" spans="1:15" ht="33">
       <c r="A4">
         <v>3001</v>
       </c>
@@ -11597,7 +11826,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="34">
+    <row r="5" spans="1:15" ht="33">
       <c r="A5">
         <v>3002</v>
       </c>
@@ -11644,7 +11873,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="68">
+    <row r="6" spans="1:15" ht="66">
       <c r="A6">
         <v>3003</v>
       </c>
@@ -11691,7 +11920,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="34">
+    <row r="7" spans="1:15" ht="33">
       <c r="A7">
         <v>3004</v>
       </c>
@@ -11738,7 +11967,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="51">
+    <row r="8" spans="1:15" ht="49.5">
       <c r="A8">
         <v>3005</v>
       </c>
@@ -11785,7 +12014,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="34">
+    <row r="9" spans="1:15" ht="33">
       <c r="A9">
         <v>3006</v>
       </c>
@@ -11832,7 +12061,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="51">
+    <row r="10" spans="1:15" ht="49.5">
       <c r="A10">
         <v>3007</v>
       </c>
@@ -11879,7 +12108,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="34">
+    <row r="11" spans="1:15" ht="33">
       <c r="A11">
         <v>3008</v>
       </c>
@@ -11941,15 +12170,15 @@
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13024,7 +13253,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="37" style="1" customWidth="1"/>
@@ -13674,9 +13903,9 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76C85BC-A374-438C-BE3D-568481221E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34455D02-4298-4A3A-B39C-69F40CAC5D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -1371,10 +1371,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100,400,750</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15,60,200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1483,6 +1479,10 @@
   </si>
   <si>
     <t>탕후루 사 왔어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,400,3000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5035,7 +5035,7 @@
         <v>316</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E13" s="29">
         <v>-1</v>
@@ -5153,7 +5153,7 @@
         <v>318</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>338</v>
@@ -5212,7 +5212,7 @@
         <v>317</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E16" s="29">
         <v>-1</v>
@@ -5506,7 +5506,7 @@
         <v>2007</v>
       </c>
       <c r="B10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5514,7 +5514,7 @@
         <v>2008</v>
       </c>
       <c r="B11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5522,7 +5522,7 @@
         <v>2009</v>
       </c>
       <c r="B12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5530,7 +5530,7 @@
         <v>2010</v>
       </c>
       <c r="B13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5538,7 +5538,7 @@
         <v>2011</v>
       </c>
       <c r="B14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5546,7 +5546,7 @@
         <v>2012</v>
       </c>
       <c r="B15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -8691,7 +8691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0ACCD1F-CBC5-460A-9F8F-54BEC4E16134}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -8721,7 +8721,7 @@
         <v>351</v>
       </c>
       <c r="B3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8729,7 +8729,7 @@
         <v>20001</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8737,7 +8737,7 @@
         <v>20002</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8745,7 +8745,7 @@
         <v>20003</v>
       </c>
       <c r="B6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8753,7 +8753,7 @@
         <v>20004</v>
       </c>
       <c r="B7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8761,7 +8761,7 @@
         <v>20005</v>
       </c>
       <c r="B8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8769,7 +8769,7 @@
         <v>20006</v>
       </c>
       <c r="B9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8777,7 +8777,7 @@
         <v>20007</v>
       </c>
       <c r="B10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8785,7 +8785,7 @@
         <v>20008</v>
       </c>
       <c r="B11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8793,7 +8793,7 @@
         <v>20009</v>
       </c>
       <c r="B12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -11787,7 +11787,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>98</v>
@@ -11802,7 +11802,7 @@
         <v>-15</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>110</v>
@@ -11831,10 +11831,10 @@
         <v>3002</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>98</v>
@@ -11849,7 +11849,7 @@
         <v>-15</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>111</v>
@@ -11881,7 +11881,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>98</v>
@@ -11896,7 +11896,7 @@
         <v>-15</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>104</v>
@@ -11928,7 +11928,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>98</v>
@@ -11943,7 +11943,7 @@
         <v>-15</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>105</v>
@@ -11975,7 +11975,7 @@
         <v>112</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>98</v>
@@ -11990,7 +11990,7 @@
         <v>-15</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>106</v>
@@ -12022,7 +12022,7 @@
         <v>113</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>98</v>
@@ -12037,7 +12037,7 @@
         <v>-15</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>107</v>
@@ -12066,10 +12066,10 @@
         <v>3007</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>360</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>361</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>98</v>
@@ -12084,7 +12084,7 @@
         <v>-15</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>108</v>
@@ -12116,7 +12116,7 @@
         <v>114</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>98</v>
@@ -12131,7 +12131,7 @@
         <v>-15</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>109</v>
@@ -12223,7 +12223,7 @@
         <v>228</v>
       </c>
       <c r="N1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -12311,7 +12311,7 @@
         <v>228</v>
       </c>
       <c r="N3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -13899,13 +13899,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13968,13 +13969,13 @@
         <v>201</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>236</v>
       </c>
       <c r="E4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -13985,13 +13986,13 @@
         <v>202</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>236</v>
       </c>
       <c r="E5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -14002,13 +14003,13 @@
         <v>203</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -14019,13 +14020,13 @@
         <v>204</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -14036,13 +14037,13 @@
         <v>205</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -14053,13 +14054,13 @@
         <v>206</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -14070,13 +14071,13 @@
         <v>207</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -14087,13 +14088,13 @@
         <v>208</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -14104,13 +14105,13 @@
         <v>209</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -14121,13 +14122,13 @@
         <v>210</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -14138,13 +14139,13 @@
         <v>211</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -14155,13 +14156,13 @@
         <v>212</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -14172,13 +14173,13 @@
         <v>213</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -14189,13 +14190,13 @@
         <v>214</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -14206,13 +14207,13 @@
         <v>215</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -14223,13 +14224,13 @@
         <v>216</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -14240,13 +14241,13 @@
         <v>217</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -14257,13 +14258,13 @@
         <v>218</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -14274,13 +14275,13 @@
         <v>219</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -14291,13 +14292,13 @@
         <v>220</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -14308,13 +14309,13 @@
         <v>221</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/RawData/excel_files/DataTable.xlsx
+++ b/RawData/excel_files/DataTable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUNGYU\Documents\GitHub\OIlNamProject\RawData\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34455D02-4298-4A3A-B39C-69F40CAC5D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="4" r:id="rId1"/>
@@ -719,18 +718,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11,11,11,11,11,11,11,11,11,11,11,11,11,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,7,7,7,7,7,7,7,7,7,7,7,7,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3,3,3,3,3,3,3,3,3,3,3,3,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100,150,200,300,400,550,700,900,1200,1500,2000,3000,5000,8000</t>
   </si>
   <si>
@@ -1483,13 +1470,25 @@
   </si>
   <si>
     <t>100,400,3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,22,22,22,22,22,22,22,22,22,22,22,22,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,14,14,14,14,14,14,14,14,14,14,14,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,6,6,6,6,6,6,6,6,6,6,6,6,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -1781,7 +1780,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2092,7 +2091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4290,7 +4289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4318,58 +4317,58 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D1" t="s">
         <v>129</v>
       </c>
       <c r="E1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1" t="s">
         <v>252</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>253</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>254</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M1" t="s">
+        <v>330</v>
+      </c>
+      <c r="N1" t="s">
         <v>255</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>256</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>257</v>
       </c>
-      <c r="L1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>333</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>258</v>
-      </c>
-      <c r="O1" t="s">
-        <v>259</v>
-      </c>
-      <c r="P1" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>336</v>
-      </c>
-      <c r="R1" t="s">
-        <v>261</v>
       </c>
       <c r="S1" t="s">
         <v>19</v>
@@ -4439,58 +4438,58 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D3" t="s">
         <v>129</v>
       </c>
       <c r="E3" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J3" t="s">
+        <v>263</v>
+      </c>
+      <c r="K3" t="s">
+        <v>264</v>
+      </c>
+      <c r="L3" t="s">
+        <v>331</v>
+      </c>
+      <c r="M3" t="s">
+        <v>332</v>
+      </c>
+      <c r="N3" t="s">
+        <v>265</v>
+      </c>
+      <c r="O3" t="s">
+        <v>266</v>
+      </c>
+      <c r="P3" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>334</v>
+      </c>
+      <c r="R3" t="s">
         <v>341</v>
       </c>
-      <c r="F3" t="s">
-        <v>262</v>
-      </c>
-      <c r="G3" t="s">
-        <v>263</v>
-      </c>
-      <c r="H3" t="s">
-        <v>264</v>
-      </c>
-      <c r="I3" t="s">
-        <v>265</v>
-      </c>
-      <c r="J3" t="s">
-        <v>266</v>
-      </c>
-      <c r="K3" t="s">
-        <v>267</v>
-      </c>
-      <c r="L3" t="s">
-        <v>334</v>
-      </c>
-      <c r="M3" t="s">
-        <v>335</v>
-      </c>
-      <c r="N3" t="s">
-        <v>268</v>
-      </c>
-      <c r="O3" t="s">
-        <v>269</v>
-      </c>
-      <c r="P3" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>337</v>
-      </c>
-      <c r="R3" t="s">
-        <v>344</v>
-      </c>
       <c r="S3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="17.25" thickBot="1">
@@ -4498,13 +4497,13 @@
         <v>1101</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E4" s="29">
         <v>-1</v>
@@ -4549,7 +4548,7 @@
         <v>-1</v>
       </c>
       <c r="S4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="17.25" thickBot="1">
@@ -4557,13 +4556,13 @@
         <v>1102</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E5" s="29">
         <v>-1</v>
@@ -4608,7 +4607,7 @@
         <v>-1</v>
       </c>
       <c r="S5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="17.25" thickBot="1">
@@ -4616,13 +4615,13 @@
         <v>1103</v>
       </c>
       <c r="B6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" t="s">
         <v>271</v>
-      </c>
-      <c r="C6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D6" t="s">
-        <v>274</v>
       </c>
       <c r="E6" s="29">
         <v>-1</v>
@@ -4667,7 +4666,7 @@
         <v>-1</v>
       </c>
       <c r="S6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="17.25" thickBot="1">
@@ -4675,13 +4674,13 @@
         <v>1104</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E7" s="29">
         <v>-1</v>
@@ -4726,7 +4725,7 @@
         <v>-1</v>
       </c>
       <c r="S7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="17.25" thickBot="1">
@@ -4734,16 +4733,16 @@
         <v>1105</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F8">
         <v>1502</v>
@@ -4785,7 +4784,7 @@
         <v>-1</v>
       </c>
       <c r="S8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="17.25" thickBot="1">
@@ -4793,16 +4792,16 @@
         <v>1106</v>
       </c>
       <c r="B9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" t="s">
         <v>275</v>
       </c>
-      <c r="C9" t="s">
-        <v>312</v>
-      </c>
-      <c r="D9" t="s">
-        <v>278</v>
-      </c>
       <c r="E9" s="16" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F9">
         <v>1502</v>
@@ -4844,7 +4843,7 @@
         <v>-1</v>
       </c>
       <c r="S9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="17.25" thickBot="1">
@@ -4852,13 +4851,13 @@
         <v>1107</v>
       </c>
       <c r="B10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E10" s="29">
         <v>-1</v>
@@ -4903,7 +4902,7 @@
         <v>-1</v>
       </c>
       <c r="S10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="17.25" thickBot="1">
@@ -4911,13 +4910,13 @@
         <v>1108</v>
       </c>
       <c r="B11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C11" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E11" s="29">
         <v>-1</v>
@@ -4962,7 +4961,7 @@
         <v>-1</v>
       </c>
       <c r="S11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="17.25" thickBot="1">
@@ -4970,13 +4969,13 @@
         <v>1109</v>
       </c>
       <c r="B12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" t="s">
+        <v>312</v>
+      </c>
+      <c r="D12" t="s">
         <v>279</v>
-      </c>
-      <c r="C12" t="s">
-        <v>315</v>
-      </c>
-      <c r="D12" t="s">
-        <v>282</v>
       </c>
       <c r="E12" s="29">
         <v>-1</v>
@@ -5021,7 +5020,7 @@
         <v>-1</v>
       </c>
       <c r="S12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="33.75" thickBot="1">
@@ -5029,13 +5028,13 @@
         <v>1110</v>
       </c>
       <c r="B13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C13" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E13" s="29">
         <v>-1</v>
@@ -5080,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="S13" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="17.25" thickBot="1">
@@ -5088,13 +5087,13 @@
         <v>1111</v>
       </c>
       <c r="B14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E14" s="31">
         <v>-1</v>
@@ -5139,7 +5138,7 @@
         <v>-1</v>
       </c>
       <c r="S14" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="33.75" thickBot="1">
@@ -5147,16 +5146,16 @@
         <v>1112</v>
       </c>
       <c r="B15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F15">
         <v>1501</v>
@@ -5198,7 +5197,7 @@
         <v>-1</v>
       </c>
       <c r="S15" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="33.75" thickBot="1">
@@ -5206,13 +5205,13 @@
         <v>1113</v>
       </c>
       <c r="B16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E16" s="29">
         <v>-1</v>
@@ -5257,7 +5256,7 @@
         <v>-1</v>
       </c>
       <c r="S16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -5268,7 +5267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5287,7 +5286,7 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C1" t="s">
         <v>167</v>
@@ -5315,13 +5314,13 @@
         <v>32</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>129</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" thickBot="1">
@@ -5329,13 +5328,13 @@
         <v>1501</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" thickBot="1">
@@ -5343,13 +5342,13 @@
         <v>1502</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21.95" customHeight="1" thickBot="1">
@@ -5357,13 +5356,13 @@
         <v>1503</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" thickBot="1">
@@ -5371,13 +5370,13 @@
         <v>1504</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21.6" customHeight="1" thickBot="1">
@@ -5385,13 +5384,13 @@
         <v>1505</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21.95" customHeight="1" thickBot="1">
@@ -5399,13 +5398,13 @@
         <v>1506</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -5416,7 +5415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5434,7 +5433,7 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5450,7 +5449,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5458,7 +5457,7 @@
         <v>2001</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5466,7 +5465,7 @@
         <v>2002</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5474,7 +5473,7 @@
         <v>2003</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5482,7 +5481,7 @@
         <v>2004</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5490,7 +5489,7 @@
         <v>2005</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5498,7 +5497,7 @@
         <v>2006</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5506,7 +5505,7 @@
         <v>2007</v>
       </c>
       <c r="B10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5514,7 +5513,7 @@
         <v>2008</v>
       </c>
       <c r="B11" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5522,7 +5521,7 @@
         <v>2009</v>
       </c>
       <c r="B12" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5530,7 +5529,7 @@
         <v>2010</v>
       </c>
       <c r="B13" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5538,7 +5537,7 @@
         <v>2011</v>
       </c>
       <c r="B14" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5546,7 +5545,7 @@
         <v>2012</v>
       </c>
       <c r="B15" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -5557,7 +5556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5578,19 +5577,19 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1" t="s">
         <v>346</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>347</v>
-      </c>
-      <c r="D1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F1" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5615,22 +5614,22 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" t="s">
         <v>351</v>
       </c>
-      <c r="B3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E3" t="s">
-        <v>354</v>
-      </c>
       <c r="F3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8688,7 +8687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0ACCD1F-CBC5-460A-9F8F-54BEC4E16134}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8718,10 +8717,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8729,7 +8728,7 @@
         <v>20001</v>
       </c>
       <c r="B4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8737,7 +8736,7 @@
         <v>20002</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8745,7 +8744,7 @@
         <v>20003</v>
       </c>
       <c r="B6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8753,7 +8752,7 @@
         <v>20004</v>
       </c>
       <c r="B7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8761,7 +8760,7 @@
         <v>20005</v>
       </c>
       <c r="B8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8769,7 +8768,7 @@
         <v>20006</v>
       </c>
       <c r="B9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8777,7 +8776,7 @@
         <v>20007</v>
       </c>
       <c r="B10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8785,7 +8784,7 @@
         <v>20008</v>
       </c>
       <c r="B11" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8793,7 +8792,7 @@
         <v>20009</v>
       </c>
       <c r="B12" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -8804,7 +8803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8822,7 +8821,7 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
         <v>54</v>
@@ -8834,7 +8833,7 @@
         <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" thickBot="1">
@@ -8862,19 +8861,19 @@
         <v>32</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>239</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1">
@@ -10885,7 +10884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11082,7 +11081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11119,7 +11118,7 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -11165,7 +11164,7 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickBot="1">
@@ -11188,7 +11187,7 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1">
@@ -11211,7 +11210,7 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1">
@@ -11234,7 +11233,7 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickBot="1">
@@ -11257,7 +11256,7 @@
         <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1">
@@ -11280,7 +11279,7 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickBot="1">
@@ -11303,7 +11302,7 @@
         <v>76</v>
       </c>
       <c r="G9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" thickBot="1">
@@ -11326,7 +11325,7 @@
         <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25" thickBot="1">
@@ -11349,7 +11348,7 @@
         <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickBot="1">
@@ -11372,7 +11371,7 @@
         <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickBot="1">
@@ -11395,7 +11394,7 @@
         <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -11406,7 +11405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11442,7 +11441,7 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -11488,7 +11487,7 @@
         <v>85</v>
       </c>
       <c r="G3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickBot="1">
@@ -11511,7 +11510,7 @@
         <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1">
@@ -11534,7 +11533,7 @@
         <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1">
@@ -11557,7 +11556,7 @@
         <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickBot="1">
@@ -11580,7 +11579,7 @@
         <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1">
@@ -11603,7 +11602,7 @@
         <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -11614,7 +11613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11787,7 +11786,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>98</v>
@@ -11802,7 +11801,7 @@
         <v>-15</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>110</v>
@@ -11831,10 +11830,10 @@
         <v>3002</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>98</v>
@@ -11849,7 +11848,7 @@
         <v>-15</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>111</v>
@@ -11881,7 +11880,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>98</v>
@@ -11896,7 +11895,7 @@
         <v>-15</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>104</v>
@@ -11928,7 +11927,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>98</v>
@@ -11943,7 +11942,7 @@
         <v>-15</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>105</v>
@@ -11975,7 +11974,7 @@
         <v>112</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>98</v>
@@ -11990,7 +11989,7 @@
         <v>-15</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>106</v>
@@ -12022,7 +12021,7 @@
         <v>113</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>98</v>
@@ -12037,7 +12036,7 @@
         <v>-15</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>107</v>
@@ -12066,10 +12065,10 @@
         <v>3007</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>359</v>
+        <v>356</v>
 